--- a/examples/UK OGD/national registry public data/profile.xlsx
+++ b/examples/UK OGD/national registry public data/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>ZZYZX TRANSPORT LTD</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>TURNERS (SOHAM) LTD</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>3922728</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>47540</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['(UK) PRODUCTION LTD', '007 LOGISTICS LTD', '021 NETWORK LTD', '1 CALL LOGISTICS LIMITED', '1 UP ACCESS LTD', '100+LOGISTICS LTD', '100TIMESBETTER.CO.UK LTD', '11ABA LTD', '1313 BATH LIMITED', '1401 ENTERPRISES LTD', '151 PRODUCTS LTD', '1919 LLP', '1ST 4 COACHES LIMITED', '1ST 4 LIMOS LTD', '1ST ADVANCE TANKS PIPEWORKS LTD', '1ST AID COMMERCIALS LTD', '1ST ANGLIAN LTD', '1ST AVAILABLE FREIGHT LIMITED', '1ST CALL TIPPERS LTD', '1ST CHOICE COACHES LIMITED', '1ST CHOICE TRANSPORT LTD', '1ST CLASS ENTERPRISES LTD', '1ST CLASS LIMOS LTD', '1ST CLASS LOGISTICS UK LTD', '1ST CLASS TRANSPORT (UK) LTD', '1ST CLASS TRANSPORT LTD', '1ST DILIVERY LTD', '1ST DIRECT CARS LIMITED', '1ST ELITE TRADING LTD', '1ST EVER READY (REMOVALS &amp; STORAGE) SERVICES LTD', '1ST INDUSTRIAL &amp; COMMERCIAL SERVICES LTD', '1ST INRAIL LIMITED', '1ST MOVE INTERNATIONAL LTD', '1ST RESPONSE RECOVERY LTD', '2 AGRICULTURE LIMITED', '2 U LOGISTICS LTD', '2 WAY TRANSPORT LTD', '21ST CENTURY LOGISTICS LTD', '21ST CENTURY TRANSPORT LTD', '23LSI LTD', '24 SEVEN SAMEDAY LTD', '24 TEMP LTD', '24 X 7 LTD', '24-7 H G V RECRUITMENT SERVICES LTD', '24/7 EXPRESS LTD', '24/7 REMOVALS OF LANCASTER LIMITED', '247 LOGISTICS LTD', '247 TOTAL TRANSPORT LTD', '247 TRANSPORT SOLUTIONS LTD', '247 TRANSPORTER LTD', '2MV LOGISTICS LTD', '2SL SCOTLAND LIMITED', "3 C'S LOGISTICS LIMITED", '3 DEES TRANSPORT SERVICES LIMITED', '3 DISTRIBUTION LTD', '3 FEATHERS HAULAGE LIMITED', '3 IN ONE SERVICES LTD', '3 KIMS TRANSPORT LTD', '3 VALLEE TRANSFERS LTD', '303 SOUTH LTD', '31 TRANSPORT LIMITED', '360 INTERNATIONAL LTD', '360 LOGISTICS LIMITED', '365 ENVIROMENTAL SERVICES LTD', '365 LOGISTICS LTD', '3663 ALBA LIMITED', '3663 TRANSPORT LTD', '3B CONSTRUCTION LTD', '3C TRANSPORT LTD', '3D CONTRACT SERVICES LTD', '3D INTERNATIONAL HAULAGE LTD', '3D TRANS LIMITED', '3D TRANSPORT LTD', '3G TRANSPORT LIMITED', '3GL TRANSPORT (SCOTLAND) LTD', '3M UNITED KINGDOM PLC', '3R SOLUTIONS LTD', '3RD PARTY LOGISTICS LTD', '3SHIRES BUILDING LIMITED', '4 CORNERS LOGISTICS LTD', '4 LEAF ENTERPRISES LTD', '4 RECYCLING LTD', '4 SEASONS BEER TENT CO LTD', '4 X LTD', '4321 SERVICES LIMITED', '44 TONNE ARTIC HAULAGE LTD', '442 LOGISTICS LTD', '5 STARS TRANSPORT LTD', '505 FREIGHT LTD', '5TH AVENUE LIMOUSINES LIMITED', '69ers LTD', '7 VALLEY TRANSPORT (LLC) LTD', '747 EXPRESS FREIGHT LTD', '808 X RAY LOGISTICS LIMITED', '88 DISTRIBUTION (UK) LIMITED', '8POINT8 SUPPORT LIMITED', '911 RESCUE RECOVERY LTD', '999 LOGISTICS LTD', 'A &amp; A MCPHEE HAULAGE LIMITED', 'A &amp; A RECYCLING SERVICES LTD', 'A &amp; A SKIP HIRE LIMITED', 'A &amp; A TRANSPORT (CANNOCK) LTD', 'A &amp; A TRAVEL (SUSSEX) LTD', 'A &amp; B COACH TRAVEL 2010 LTD', 'A &amp; B COACH TRAVEL LTD', 'A &amp; B COMMERCIALS (NORTH WALES) LIMITED', 'A &amp; B CONTRACTORS (DEVON) LTD', 'A &amp; B CONTRACTORS (TRANSPORT) LTD', 'A &amp; B HAULAGE LIMITED', 'A &amp; B POTATOES LTD', 'A &amp; B TAXI SERVICES LIMITED', 'A &amp; B TIMBER ENGINEERING LTD', 'A &amp; B TRANSPORT (IPSWICH) LTD', 'A &amp; C AGGREGATES LTD', 'A &amp; C COACHES LTD', 'A &amp; C LOGISTICS LIMITED', 'A &amp; C TRANSPORT LTD', 'A &amp; D DRIVING SERVICES LIMITED', 'A &amp; D HAULAGE (TELFORD) LTD', 'A &amp; D LOGISTICS LTD', 'A &amp; D TRANSPORT (NW) LTD', 'A &amp; E TRANSPORT LTD', 'A &amp; F GRANT LTD', 'A &amp; F HAULAGE LTD', 'A &amp; F JAMES GRAB HIRE &amp; GROUNDWORKS LTD', 'A &amp; F MONKHOUSE LTD', 'A &amp; F WILLIAMSON &amp; SONS LTD', 'A &amp; G GRIFFITHS LTD', 'A &amp; G MINIBUSES LTD', 'A &amp; G SKIP HIRE LTD', 'A &amp; H (CARLISLE) LTD', 'A &amp; H LIFESTYLE LTD', 'A &amp; J ARB ACCESS LIMITED', 'A &amp; J COACHES OF WASHINGTON CO LTD', 'A &amp; J COMMERCIAL SERVICES LTD', 'A &amp; J CRITCHLOW', 'A &amp; J DRIVING SERVICES LIMITED', 'A &amp; J NELSON (HAULAGE CONTRACTORS) LTD', 'A &amp; J ROBERTS TRANSPORT LIMITED', 'A &amp; J RYDING LTD', 'A &amp; J SCOTT LTD', 'A &amp; J TAYLOR LTD', 'A &amp; J WALMSLEY LTD', 'A &amp; K BUCKLAND TRANSPORT LIMITED', 'A &amp; K EXPRESS TRANSPORT LTD', 'A &amp; K HAULAGE (PLYMOUTH) LIMITED', 'A &amp; K THOMPSON HAULAGE LTD', 'A &amp; K TRANSPORT LTD', 'A &amp; K TRANSPORT UK LTD', 'A &amp; L CONTRACTORS LTD', 'A &amp; L HAULAGE (SOMERSET) LTD', 'A &amp; L MCCRAE LTD', 'A &amp; L TAYLOR LTD', 'A &amp; M A ROBINSON SEAVIEW SERVICES LTD', 'A &amp; M LLOYD PLANT HIRE LTD', 'A &amp; M LOGISTICS (NORTH WEST) LTD', 'A &amp; M MACRETE (SALES) LTD', 'A &amp; M MOTORS LTD', 'A &amp; M SMITH SKIP HIRE LTD', 'A &amp; M T MCWALTER LTD', 'A &amp; M TRANSPORT &amp; RECYCLING LTD', 'A &amp; M TRANSPORT HEREFORD LIMITED', 'A &amp; N ENVIRONMENTAL SERVICES LTD', 'A &amp; P SEDMAN LTD', 'A &amp; P TRAVEL (TOURS) LTD', 'A &amp; P TRAVEL LTD', 'A &amp; R COLBERT SERVICES UK LIMITED', 'A &amp; R CONTRACT HIRE LTD', 'A &amp; R FINNIE LTD', 'A &amp; R HAULAGE LTD', 'A &amp; R PAVELIN TRANSPORT LTD', 'A &amp; R RECYCLING LTD', 'A &amp; R SOLUTIONS LIMITED', 'A &amp; S AGGREGATES LTD', 'A &amp; S COACHES LTD', 'A &amp; S DEVELOPMENTS (REDDITCH) LTD', 'A &amp; S HAULAGE LIMITED', 'A &amp; S HAULAGE LTD', 'A &amp; S PLANT &amp; TOOL HIRE LTD', 'A &amp; S PLANT SERVICES LTD', 'A &amp; S SPECIALIST SERVICES LTD', 'A &amp; S TRANSPORT (CHESTER) LTD', 'A &amp; S TRANSPORT (NW) LTD', 'A &amp; S TRANSPORT ECOSSE LTD', 'A &amp; S TURNER (HAULAGE) LTD', 'A &amp; T RADCLIFFE LIMITED', 'A &amp; T TRAVEL LTD', 'A &amp; V SQUIRES PLANT CO LTD', 'A &amp; W COMMERCIALS LTD', 'A &amp; W HELLIWELL &amp; SONS LTD', 'A &amp; W WILSON LTD', 'A &amp; Y STONE PLANT LTD', 'A 2 B MINIBUSES &amp; COACH TRAVEL LTD', 'A A &amp; S J FAULKNER LTD', 'A A A DELVERY SERVICES LTD', 'A A A TRANSPORT SERVICES LTD', 'A A BUSES LTD', 'A A DAVIES AND CO LIMITED', 'A A G HAULAGE LIMITED', 'A A H PHARMACEUTICALS LTD', 'A A I LTD', 'A A JEWITT &amp; SONS LTD', 'A A K HAULAGE LTD', 'A A LOCK TRANSPORT (HEADCORN) LTD', 'A A MIXERS LTD', 'A A TRAVEL (CUMBRIA) LIMITED', 'A A YOUNG LTD', 'A AND J SMITH TRANSPORT LTD', 'A ASHURST TRANSPORT LTD', 'A AUJLA TRANSPORT LTD', 'A B &amp; B CONSTRUCTION LTD', 'A B 2000 LTD', 'A B C &gt;CONCRETE DIRECT LIMITED', 'A B C COACH LIMITED', 'A B C TAXIS (INVERCLYDE) LTD', 'A B C TRAVEL (CASTLE DOUGLAS) LTD', 'A B CARAVANS LIMITED', 'A B CARRIERS (KEMPSTON) LTD', 'A B CASTLE LIMITED', 'A B COACHES LTD', 'A B E (LEDBURY) LTD', 'A B F GRAIN PRODUCTS LTD', 'A B F LIMITED', 'A B GERRISH LTD', 'A B HIRE LTD', 'A B J &amp; M A BATSON', 'A B J ECOSSE LTD', 'A B LITTLE &amp; CO (STUBSHAW CROSS) LTD', 'A B PAYNE &amp; J T FENSOME', 'A B PRODUCE PLC', 'A B S SKIP HIRE LTD', 'A B TEXEL UK LTD', 'A B WASTE DISPOSAL LTD', 'A B WASTE MANAGEMENT LIMITED', 'A BARWELL &amp; SONS (UK) LTD', 'A BENNETT (HAULAGE)  LTD', 'A BETTER SERVICE LTD', 'A BOOTH AND SONS LTD', 'A BRADBURY &amp; SONS LIMITED', 'A BROOKS SERVICES LTD', 'A BROSTER LTD', 'A BRUNTON LIMITED', 'A BUCKLAND &amp; SONS LTD', 'A BUCKLER HAULAGE LTD', 'A C ALDIS &amp; CO LTD', 'A C BACON ENGINEERING LTD', 'A C BARNES LIGHT HAULAGE LIMITED', 'A C BLACK &amp; SON (HAULIERS) LTD', 'A C COATES &amp; SONS LTD', 'A C CODONA LTD', 'A C COMMERCIAL HAULAGE LTD', 'A C D SKIPS LTD', 'A C DENNY HAULAGE LTD', 'A C DICKINSON INTERNATIONAL TRANSPORT LTD', 'A C E BUILDERS MERCHANTS LTD', 'A C EMMERSON LTD', 'A C GEORGIADES LTD', 'A C H SPECIAL VEHICLES LTD', 'A C JACKLIN LOGISTICS LTD', 'A C JACKLIN POTATOES LTD', 'A C K (HAULAGE) LTD', 'A C K TRANSPORT LTD', 'A C LAWRY HAULAGE LTD', 'A C LESTER &amp; SON LTD', 'A C MORSE LTD', 'A C NURDEN LTD', 'A C P FUELS LTD', 'A C P SERVICES LTD', 'A C REID TRUCKMIXERS LTD', 'A C S HAULAGE CONTRACTORS LIMITED', 'A C SERVICES (BANBURY) LTD', 'A C SHROPSHIRE LTD', 'A C SKIP HIRE LTD', 'A C T CONSTRUCTION SERVICES LTD', 'A C TRANSPORT LTD', 'A C TRAVEL LIMITED', 'A C WELLARD &amp; PARTNERS LTD', 'A C WILLIAMS GARAGES (ANCASTER) LTD', 'A CHRISTIE &amp; L CHRISTIE', 'A CLARKE &amp; CO (SMETHWICK) LTD', 'A CLARKE &amp; SONS LTD', 'A COUPLAND ( SURFACING ) LTD', 'A COWLEY &amp; SONS LIMITED', 'A D &amp; A RICHARDSON LTD', 'A D &amp; B J BOOTE TRANSPORT LIMITED', 'A D &amp; K M CASTON LTD', 'A D BLACKBURN (SWINDON) LTD', 'A D BOYES (IREBY) LTD', 'A D BOYES LOGISTICS (UK) LTD', 'A D BROWN LTD', 'A D CONSTRUCTION (CHESTERFIELD) LTD', 'A D D EXPRESS LTD', 'A D HOWELLS LIMITED', 'A D HURST &amp; SON COMMERCIAL LTD', 'A D JACKSON (TRANSPORT) LTD', 'A D LOGISTIC LIMITED', 'A D M LOGISTICS LTD', 'A D MCDONALD HAULAGE LTD', 'A D REED &amp; G G REED', 'A D S TRANSPORT [GB] LIMITED', 'A D WALKER LTD', 'A D WILLIAMS &amp; SONS LTD', 'A D WILLIAMS TRANSPORT LTD', 'A DAVIES REMOVALS LTD', 'A DAVIES TRANSPORT LTD', 'A DAVIS TRANSPORT LTD', 'A DAY RECYCLING GROUP LTD', 'A DISPLAY LTD', 'A DUFFIN HAULAGE LTD', 'A E &amp; A T LEWIS LTD', 'A E BENNETT LTD', 'A E BURGESS &amp; SONS LTD', 'A E FAULKS LTD', 'A E GEORGE &amp; SONS LTD', 'A E GEORGE HAULAGE LTD', 'A E HANCOCK LTD', 'A E HAWKINS (HOLDINGS) LTD', 'A E HERBERT LTD', 'A E PROCTER LTD', 'A E ROWLANDS PLANT HIRE LTD', 'A E S LOGISTICS LTD', 'A E S RESCUE SERVICES LTD', 'A E SIMMS LTD', 'A E T TRANSPORT SERVICES LTD', 'A E TRANSPORT LTD', 'A E WILLOWS &amp; SON LTD', 'A E WILSON (COMMERCIALS) LTD', 'A E YATES LTD', 'A EVANS &amp; SON (EGG PACKING) LTD', 'A EVERETT HAULAGE LTD', 'A F BLAKEMORE &amp; SON LTD', 'A F COMMERCIALS LTD', 'A F CORBISHLEY AND SON (TRANSPORT) LTD', 'A F DREW (CONSTRUCTION) LTD', 'A F FREIGHT SERVICES LTD', 'A F I GROUP LTD', 'A F J LTD', 'A F LEIGHTON LTD', 'A F S EXPRESS LIMITED', 'A F SALT LTD', 'A F VANE TRANSPORT LIMITED', 'A FREW (HAULAGE CONTRACTORS &amp; COAL MERCHANTS) LTD', 'A G AND SONS HAULIERS LTD', 'A G AXTON WAREHOUSING LTD', 'A G BURRIDGE LTD', 'A G CLARKE LTD', 'A G DISTRIBUTORS LTD', 'A G EVANS LTD', 'A G K T DESPATCH LTD', 'A G LOGISTIC SOLUTIONS LTD', 'A G LOGISTIX LTD', 'A G O LOGISTICS LTD', 'A G S EUROPEAN LIMITED', 'A G SANSUM &amp; SONS LTD', 'A G TARRANT AND SON LIMITED', 'A G THAMES HOLDINGS LTD', 'A G TRANSPORT LIMITED', 'A G WHITTAKER HAULAGE LTD', 'A GREEN (COACHES) LTD', 'A H &amp; G DEAKINS LTD', 'A H ALLEN STEEL SERVICES (MIDLANDS) LTD', 'A H AND C A HUCKER', 'A H AUTOMOVEMENTS LTD', 'A H EALES LTD', 'A H J HAULAGE LTD', 'A H MINIBUSES LTD', 'A H NICHOLLS &amp; SONS LTD', 'A H PLANT HIRE LTD', 'A H SLEEPERS LTD', 'A H TRIPP &amp; SON LTD', 'A HAMMOND &amp; SONS LTD', 'A HAMPSHIRE TRANSPORT LTD', 'A HAND SERVICES LTD', 'A HARDWICK HAULAGE LTD', 'A HAWKINS TRANSPORT LIMITED', 'A HEMINGWAY &amp; SONS LTD', 'A HESTER LTD', 'A HILL HORSE TRANSPORT LTD', 'A HINGLEY TRANSPORT (BRIERLEY HILL) LTD', 'A HOWE &amp; SONS LTD', 'A I C TRANSPORT LTD', 'A I D FUEL OILS LTD', 'A I M COMMERCIAL SERVICES LIMITED', 'A I M EXHIBITIONS LTD', 'A I M LOGISTICS LIMITED', 'A J &amp; N M CARR LTD', 'A J (CIVIL ENGINEERING) LTD', 'A J A SMITH TRANSPORT LTD', 'A J A TRANSPORT LIMITED', 'A J ACCESS PLATFORMS LTD', 'A J AGIUS LIMITED', 'A J ATKINS EXCAVATION CONTRACTORS LTD', 'A J BARRETT LTD', 'A J BRUNT LTD', 'A J CARRINGTON &amp; SONS LTD', 'A J CHAMPION &amp; SONS LTD', 'A J CHARLTON &amp; SONS LTD', 'A J CLARK HOLDINGS LTD', 'A J COCKS TRANSPORT LIMITED', 'A J COX HAULAGE LTD', 'A J CROYDON LIMITED', 'A J DAVIS DEMOLITION SALVAGE - PLANT HIRE LTD', 'A J DAVIS HAULAGE LTD', 'A J DRURY HAULAGE LTD', 'A J F TRANSPORT LIMITED', 'A J FORD HAULAGE LIMITED', 'A J FORSTER LTD', 'A J G PARCELS LTD', 'A J GRAB HIRE LTD', 'A J H SERVICES LTD', 'A J HAULAGE LIMITED', 'A J HUDDLESTONE LIMITED', 'A J JENNINGS', 'A J K (PLANT HIRE) LTD', 'A J LOACH PLANT HIRE LTD', 'A J LOWTHER &amp; SON LTD', 'A J MAIDEN AND SON LTD', 'A J MCGOWAN TRANSPORT LIMITED', 'A J MORFITT LOGISTICS LIMITED', 'A J N TRANSPORT LTD', 'A J NADEN HAULAGE LTD', 'A J OSTRIDGE (TRANSPORT) LTD', 'A J P LOGISTICS LTD', 'A J PLANT REPAIRS LTD', 'A J PRYDE (HAULAGE) LTD', 'A J PURKISS LTD', 'A J RECYCLING LTD', 'A J REMOVALS &amp; DELIVERIES LTD', 'A J RENNIE LTD', 'A J REYNOLDS TRUCK SERVICES LTD', 'A J S BULK SERVICES LIMITED', 'A J S MARINE LTD', 'A J SHORTEN LTD', 'A J SLAVIN &amp; SONS LTD', 'A J SMITH &amp; SON (BENFLEET) LTD', 'A J T RECYCLING LTD', 'A J THOMPSON &amp; SONS LTD', 'A J TRANSPORT (GREAT HARWOOD) LTD', 'A J TRANSPORT (SCOTLAND) LTD', 'A J W TRANSPORT LIMITED', 'A J WEBBER HAULAGE LTD', 'A J WIGGINS LTD', 'A J WINKFIELD &amp; SON LTD', 'A JEFFREY (TRANSPORT) LTD', 'A JOHNSTON &amp; SONS LTD', 'A JOHNSTONE HAULAGE LTD', 'A K BUTCHER TRANSPORT LTD', 'A K COACHES LTD', 'A K FREIGHT LTD', 'A K HAULAGE LTD', 'A K L M S HAULAGE LTD', 'A K PLANT AND HAULAGE LTD', 'A K R LTD', 'A K S TRANSPORT LIMITED', 'A K SHARPE AND SONS HAY AND STRAW LTD', 'A K SMITH SERVICES LTD', 'A K TRAVEL LTD', 'A K WORTHINGTON LTD', 'A L DALTON LTD', 'A L GRANGER LTD', 'A L GRIFFITHS LIMITED', 'A L HAULAGE LTD', 'A L LEGGE &amp; SON LTD', 'A L P (TRANSPORT) LLP', 'A L PETERS &amp; SONS LTD', 'A L S CIVIL ENGINEERS LTD', 'A L T HAULAGE LTD', 'A LEWIS TRANSPORT  LTD', 'A LONG AND SONS LTD', 'A LONG DISTRIBUTION LIMITED', 'A LUCKES &amp; SON (REMOVALS &amp; STORAGE) LTD', 'A M &amp; P M TRANSPORTATION LTD', 'A M B CONCRETE LTD', 'A M BEATON HAULAGE LTD', 'A M BEATTIE LTD', 'A M BRACEWELL TRANSPORT LTD', 'A M C DISTRIBUTION LTD', 'A M C REMOVALS LTD', 'A M CLEARING TRANSPORT LTD', 'A M FREEMAN LTD', 'A M G INTERFREIGHT LTD', 'A M JONES SCRAP METAL LIMITED', 'A M LOGISTICS LTD', 'A M P CONSTRUCTION LTD', 'A M PHILLIP AGRITECH LTD', 'A M PHILLIP LTD', 'A M RECYCLING LTD', 'A M TRANSPORT (CAMPBELTOWN) LTD', 'A M TRANSPORT (LIVERPOOL) LTD', 'A M TRANSPORT (UK/INT) LIMITED', 'A M WICKHAM LTD', 'A M WIDDOWSON &amp; SON LTD', 'A M WILLIAMS HAULAGE LIMITED', 'A MCDERMOTT LIMITED', 'A MINI CRANE HIRE COMPANY LTD', 'A MORREY TRANSPORT LTD', 'A N C HARLOW LTD', 'A N CAMERON LTD', 'A N HARDWELL HAULAGE LTD', 'A N RICHARDS LTD', 'A NEAVERSON &amp; SONS LTD', 'A NELSON HAULAGE LTD', 'A NICHOLS (COW MILLS) LTD', 'A O B TRANSPORT LTD', 'A O G SUPPORT STRUCTURES (UK) LTD', 'A O TRACTION LTD', 'A ONE FEED SUPPLEMENTS LTD', 'A P &amp; A K GREGORY TRANSPORT LIMITED', 'A P &amp; J L TRANSPORT LTD', 'A P (EAST ANGLIA) LTD', 'A P ASHDOWN LTD', 'A P B INTERNATIONAL TRANSPORT LTD', 'A P C CIVILS LIMITED', 'A P COMMERCIALS LTD', 'A P EUROPEAN TRANSPORT LTD', 'A P FRY HAULAGE LTD', 'A P HALL CONTRACTORS LTD', 'A P HAULAGE (LUDLOW) LTD', 'A P HOLLINGWORTH LTD', 'A P J LOGISTICS LIMITED', 'A P JESS (PAISLEY) LTD', 'A P L (HUMBERSIDE) HAULAGE LTD', 'A P L E (MILTON KEYNES) LTD', 'A P L TRAVEL LTD', 'A P LEWIS &amp; SONS LTD', 'A P M (CYMRU) LTD', 'A P M METALS LTD', 'A P MELDRUM LTD', 'A P MORTON TIPPER AND GRAB HIRE LTD', 'A P R ENGINEERING (NORTHAMPTON) LTD', 'A P TRANSPORT GLOS LTD', 'A P TRAVEL LIMITED', 'A P WAKEHAM HIRE LTD', 'A P WATERS BUILDING CONTRACTORS LTD', 'A P WEBB (PLANT HIRE) LTD', 'A PEARSON &amp; SONS LTD', 'A PENNINGTON (STRETFORD) LTD', 'A PETTIFOR &amp; SON LTD', 'A Q LOGISTICS LIMITED', 'A R &amp; H E NICHOLSON TRANSPORT LTD', 'A R &amp; P A TRANSPORT LIMITED', 'A R BANKS LTD', 'A R BURGESS HAULAGE LTD', 'A R CARTWRIGHT LTD', 'A R DEMOLITION LTD', 'A R GIBSON TRANSPORT LIMITED', 'A R H TRANSPORT LTD', 'A R HADDY &amp; SON LTD', 'A R HAULAGE LTD', 'A R HEAL TRANSPORT LTD', 'A R HOLLAND &amp; P A WELBURN', 'A R HOLLOWAY LTD', 'A R I INSTALLATIONS LTD', 'A R K MOTORS LTD', 'A R L LOGISTICS LTD', 'A R LUNN TRANSPORT &amp; WAREHOUSING LTD', 'A R M (TRUCK REPAIRS) LTD', 'A R M CONSTRUCTION LIMITED', 'A R RUDGE LTD', 'A R S (S O T) LTD', 'A R STEPHENSON &amp; SONS LTD', 'A R STINSON LIMITED', 'A R TRANSPORT &amp; HAULAGE LTD', 'A R TRAVEL LTD', 'A R TUCKER LTD', 'A R UNIVERSAL LTD', 'A R W TRUCKING LTD', 'A R WALSH &amp; L M SINKINSON', 'A R WORBOYS LTD', 'A RHODES (HAULAGE) LTD', 'A RICHARDS HAULAGE LTD', 'A ROSE (NEWARK) LTD', 'A RUSSELL (FARMERS) LTD', 'A S A P CONTRACTS LTD', 'A S BONE &amp; SONS LTD', 'A S CHAPPELL &amp; SON LIMITED', 'A S LONDON EXPRESS TRANSPORT LTD', 'A S M  AUTO RECYCLING LTD', 'A S M LOGISTICS LTD', 'A S M METAL RECYCLING LTD', 'A S P RECOVERY LIMITED', 'A S P REMOVALS &amp; STORAGE LTD', 'A S RAWLINGS (TRANSPORT) LIMITED', 'A S T EXPRESS LTD', 'A S TAYLOR TRANSPORT LTD', 'A S TRANSPORT LTD', 'A SADRETTIN PROPERTY INVESTMENT LTD', 'A SALVATORI &amp; SON LTD', 'A SHARE &amp; SONS LTD', 'A SKIP 2 U LTD', 'A SMOOTH MOVE (WIRRAL) LTD', 'A SONS TRANSPORT LIMITED', 'A STEEL &amp; SON CONTRACTS LTD', 'A STEPHENS TRANSPORT LTD', 'A STEPHENSON LTD', 'A T BONE &amp; SONS LTD', 'A T BROWN (COACHES) LTD', 'A T COACHES LTD', 'A T K TRANSPORT LTD', 'A T LAIDLAW TRANSPORT LTD', 'A T LIMITED', 'A T LOGISTIC SOLUTIONS LTD', 'A T MOSS &amp; SON LTD', 'A T OLIVER &amp; SONS LTD', 'A T OSBORNE LTD', 'A T R PLANT SERVICES LIMITED', 'A T TRANSPORT SOLUTIONS LIMITED', 'A T W TRANSPORT LTD', 'A TO B DIRECT LTD', 'A TO B TRANSPORTER SERVICES LIMITED', 'A TO Z BODY REPAIR CENTRE LTD', 'A TO Z LLOYD TRANSPORT LTD', 'A TO Z SAFE WAREHOUSE LTD', 'A TO Z TRANSPORT LTD', 'A TOUCH OF CLASS LIMOUSINES (UK) LTD', 'A TRIP IN TIME LTD', 'A TURNELL LTD', 'A V DAWSON LTD', 'A V P RECYCLING LTD', 'A V PLANT LTD', 'A VAN MAN TRANSPORT LTD', 'A W &amp; D HAMMOND LTD', 'A W BAXTER (PRODUCE) LTD', 'A W BAXTER LTD', 'A W BLAKE LTD', 'A W BROOKS HAULAGE LTD', 'A W EASTONS COACHES LTD', 'A W EXPRESS LTD', 'A W FOLKES HAULAGE LTD', 'A W FREIGHT LTD', 'A W HORSE TRANSPORT LTD', 'A W JAMES &amp; P J E JAMES', 'A W JENKINSON TRANSPORT LTD', 'A W MOBBS &amp; CO LIMITED', 'A W MORTIER (FARMS) LTD', 'A W SMITH (GOSPORT) LTD', 'A W STATHAM ( HAULAGE) LTD', 'A W WHEADON LTD', 'A WADE &amp; CO (NORTHALLERTON) LTD', 'A WALTERS &amp; SONS LTD', 'A WEATHERHEAD LTD', 'A WEST TRANSPORT SERVICES LTD', 'A WHEELER &amp; SONS TRANSPORT LIMITED', 'A WILLIAMSON HAULAGE LIMITED', 'A WOODWARD &amp; SONS TRANSPORT LTD', 'A Y S SKIP HIRE LIMITED', 'A ZOOM LTD', 'A&amp;A FREIGHT LTD', 'A-DRILL.UK LTD', 'A-FIELD TRANSPORT LTD', 'A-LINE COACHES COVENTRY LTD', 'A-Z SKIPS LTD', 'A. DAVIES TRANSPORT AND SON LTD', 'A.B TRANSPORT (SCOTLAND) LTD', 'A.C. HAULAGE (ILFORD) LTD', 'A.C. JENKINS BUSES AND AIRPORT SERVICES LIMITED', 'A.E ENGINEERING (FYLDE) LIMITED', 'A.E. WILSON &amp; SONS LIMITED', 'A.F.M. METALS LIMITED', 'A.F.S. HAULAGE LTD', 'A.G. PLANT HIRE LTD', 'A.J.L. TRANSPORT LIMITED', 'A.M LOGISTICS &amp; WAREHOUSING LTD', 'A.N. BAILEY HAULAGE LTD', 'A.P.T. COACHES LIMITED', 'A.R. AND M. BENNETT LTD', 'A.S.E COURIER SERVICES LTD', 'A.S.J HAULAGE LTD', 'A1 +  SCAFFOLDING LTD', 'A1 AGENCY TRANSPORT SERVICES LTD', 'A1 AUTOMOTIVE LTD', 'A1 BACON CO LTD', 'A1 BREAKDOWN &amp; RECOVERY SERVICES LTD', 'A1 BUILDING SUPPLIE UK LTD', 'A1 BUSES LIMITED', 'A1 CAR AND COMMERCIAL VEHICLE SERVICES LTD', 'A1 COACHES LTD', 'A1 EUROPEAN EXECUTIVES LTD', 'A1 HAULAGE LTD', 'A1 LOO HIRE LIMITED', 'A1 METAL RECYCLING LIMITED', 'A1 MINI SKIPS LTD', 'A1 MINIBUS &amp; COACH SERVICES LTD', 'A1 MOT LTD', 'A1 PHARMACEUTICALS PLC', 'A1 PLANT &amp; HAULAGE (YORK) LTD', 'A1 READYMIX LTD', 'A1 RECOVERY LTD', 'A1 SERVICES (MANCHESTER) LIMITED', 'A1 SERVICES NATIONWIDE LTD', 'A1 SKIP HIRE (KINGSWINFORD) LTD', 'A1 SUPA SKIPS LTD', 'A1 TIPPERS LTD', 'A1 TRANSPORT SOLUTIONS LTD', 'A1 WASTE SERVICES SLOUGH LTD', 'A1A LTD', 'A2B - ONLINE LIMITED', 'A2B - ONLINE TRANSPORT LIMITED', 'A2B COACHES LTD', 'A2B NEWQUAY TRAVEL LTD', 'A2B RADIO CARS LIMITED', 'A2B REMOVALS &amp; STORAGE LTD', 'A2B TAXIS (TRURO) LTD', 'A2B TAXIS AND CONTRACTS (REDDITCH) LTD', 'A2B TRANSPORT LTD', 'A2B TRAVEL (UK) LTD', 'A2Z CARE LIMITED', 'A45 SKIP HIRE LTD', 'A50 OFFICE FURNITURE LIMITED', 'AA DISPATCH (UK) LTD', 'AA MINIBUS TRAVELS LTD', 'AAA COACHES LTD', 'AAA LOGISTICS LIMITED', 'AAA REMOVALS LTD', 'AAC WATERPROOFING LTD', 'AAD TRANSPORT LTD', 'AALCO METALS LTD', 'AARDVARK ART SERVICES LTD', 'AARDVARK HIRE LTD', 'AARON CLUCKIE', 'AARON CONTRACTING LIMITED', 'AARON GRAB &amp; SKIP HIRE LTD', 'AARON LOGISTICS LIMITED', 'AARON MARSHALL JAMES CORNWALL', 'AARON PAUL NORTHERN', 'AARON PLANT SERVICES LTD', 'AARON ROBERT SLANEY', 'AARON WHITE LTD', 'AAV TRANSPORT LTD', 'AB - FAB LOOS LTD', 'AB AGRI LIMITED', 'AB AUTOMOTIVE LTD', 'AB TRANSPORT SOLUTIONS LTD', 'AB VEHICLE LOGISTICS LTD', 'ABACUS BUILDERS MERCHANTS (WALSALL) LTD', 'ABACUS LOGISTICS LTD', 'ABACUS LOGISTICS UK LTD', 'ABACUS REMOVALS (YORK) LTD', 'ABACUS TRANSPORT LTD', 'ABACUS TRANSTEX LIMITED', 'ABARIS HOLDINGS LTD', 'ABBA CARS LTD', 'ABBA LOOS LIMITED', 'ABBA PLANT HIRE LTD', 'ABBA WASTE LTD', 'ABBCO TRANSPORT SERVICES LTD', 'ABBEY CIVIL ENGINEERING LTD', 'ABBEY COACHES (DARWEN) LTD', 'ABBEY COACHES (MIDLANDS) LTD', 'ABBEY COACHES LTD', 'ABBEY COACHWAYS LTD', 'ABBEY COURIERS LTD', 'ABBEY LOGISTICS GROUP LIMITED', 'ABBEY MECHANICAL SERVICES LTD', 'ABBEY METAL RECYCLING LIMITED', 'ABBEY REFRIGERATED TRANSPORT LIMITED', 'ABBEY REMOVALS &amp; STORAGE (PERTH) LTD', 'ABBEY REMOVALS OF MARKET DRAYTON LIMITED', 'ABBEY TRANSPORT LTD', 'ABBEY TRAVEL COACH HIRE LTD', 'ABBEY WASTE CONTROL LTD', 'ABBEYCHEER LTD', 'ABBEYEURO LIMITED', 'ABBEYFIELD WAREHOUSING LTD', 'ABBEYGATE BUILDERS MERCHANTS LTD', 'ABBEYHALL LIMITED', 'ABBEYLANDS TRANSPORT LIMITED', 'ABBEYPACK EGGS LTD', 'ABBEYRISE LTD', 'ABBEYTRANS LIMITED', 'ABBEYWOOD REMOVALS &amp; STORAGE LTD', 'ABBFAB SKIP SERVICES LTD', 'ABBOT COACH TRAVEL LIMITED', 'ABBOTT &amp; CO (WESSEX) LTD', 'ABBOTTS LTD', 'ABBY LOGISTICS LTD', 'ABC (GRIMSBY) LTD', 'ABC (METHLICK) LTD', 'ABC - TOP MIXER HIRE LIMITED', 'ABC COACHES (2002) LTD', 'ABC HAPPY BUS SERVICE LIMITED', 'ABC LOGISTICS LTD', 'ABC REMOVALS UK LTD', 'ABC TAXIS (KENT) LTD', 'ABC TRANSPORT (UK) LLP PARTNERS', 'ABCO ENTERPRISES LTD', 'ABCO TRANSPORT LTD', 'ABCON READIMIX CONCRETE LTD', 'ABDI NASIR JAMA', 'ABDUL A ARGHANDAWI', 'ABDUL AZIZ', 'ABDUL MALIK ALI &amp; ABDUL JABAR ALI', 'ABDUL RAZAQ', 'ABDUL WAHID', 'ABELLIO LONDON LTD', 'ABELLIO SURREY LTD', 'ABELLIO WEST LONDON LTD', 'ABELS MOVING SERVICES LTD', 'ABER ROOF TRUSS LIMITED', 'ABERCLEAN PLANT &amp; SWEEPER HIRE LTD', 'ABERDARE BUS CO LTD', 'ABERDEEN CITY COUNCIL', 'ABERDEEN CRUSHING LTD', 'ABERDEEN JOURNALS LTD', 'ABERDEEN TRANSPORT AND SERVICES LTD', 'ABERDEENSHIRE COUNCIL', 'ABERFELDY GROUNDWORKS LTD', 'ABERFORD CONSTRUCTION CO LTD', 'ABERFOYLE COACHES LTD', 'ABERHILL METALS LTD', 'ABERLOUR ENGINEERING LTD', 'ABERYSTWYTH REMOVALS &amp; STORAGE LTD', 'ABI (UK) LTD', 'ABID HUSSAIN &amp; YASMIN BIBI', 'ABIGRAIN LTD', 'ABILAS LOGISTICS LIMITED', 'ABILITY HANDLING LTD', 'ABINGDON FREIGHT FORWARDING AGENCY LTD', 'ABIRD SUPERIOR LIMITED', 'ABJ MINIMIX LTD', 'ABJ TRANSPORT LTD', 'ABL LOGISTICS LTD', 'ABLE COACHES LTD', 'ABLE REMOVALS LTD', 'ABLE TRANSFER LTD', 'ABM LOGISTICS LTD', 'ABNA TRANSPORT LIMITED', 'ABNORMAL LOAD ENGINEERING LTD', 'ABNORMAL LOAD SPECIALISTS LTD', 'ABOUT GLASGOW GRAB HIRE LTD', 'ABR RESCUE LTD', 'ABRAHAM HABTE', 'ABRAHAM PROPERTY DEVELOPMENT LTD', 'ABRAHAMS TRANSPORT LIMITED', 'ABRAMS BULK HAULAGE (EAST ANGLIA) LTD', 'ABRAR HUSSAIN', 'ABS SOUTHERN LOGISTICS LIMITED', 'ABS TRANSPORT LIMITED', 'ABSOLUTE BUSINESS SERVICES (SCOTLAND) LIMITED', 'ABSOLUTE CAR TRANSPORT LTD', 'ABSOLUTE EXECUTIVE LTD', 'ABSOLUTE FREIGHT SERVICES LIMITED', 'ABSOLUTE RECYCLING COMPANY UK LTD', 'ABTECH PLANT HIRE LTD', 'ABUS LTD', 'AC &amp; CE SKELTON LIMITED', 'AC &amp; IC FRASER &amp; SON LTD', 'AC AGGREGATES LTD', 'AC ROSS (UK) LTD', 'ACCELERATE FREIGHT LIMITED', 'ACCESS ALL AREAS (GB) LTD', 'ACCESS ANYONE LTD', 'ACCESS CARE LIMITED', 'ACCESS MOVING LTD', 'ACCESS PLUS (SCOTLAND) LTD', 'ACCESS TRANSPORT REMOVALS AND STORAGE LIMITED', 'ACCIDENT CLAIMS HANDLERS LTD', 'ACCIDENT REPAIR CENTRE (SCOTLAND) LIMITED', 'ACCIDENT REPAIRS OF SANDWELL LTD', 'ACCLAIM (COVENTRY) LIMITED', 'ACCLAIM HANDLING LTD', 'ACCLAIM LOGISTICS LTD', 'ACCLAIM PALLET EXPRESS LTD', 'ACCLAIM PARCEL EXPRESS (SOUTHAMPTON) LTD', 'ACCLAIM UPHOLSTERY CO LTD', 'ACCO UK LTD', 'ACCOLADE LOGISTICS LTD', 'ACCORD OFFICE SUPPLIES LTD', 'ACCURA GEOMETRIC LTD', 'ACE &amp; ELLIS TRAVEL LTD', 'ACE CAR HIRE (WORTHING) LTD', 'ACE COURIERS (NW) LIMITED', 'ACE CRANE &amp; TRANSPORT LTD', 'ACE DRINKS LTD', 'ACE FORWARDING LTD', 'ACE FREIGHT LTD', 'ACE GRAB HIRE &amp; HAULAGE LTD', 'ACE HAUL LTD', 'ACE HAULAGE (SWINDON) LTD', 'ACE HAULAGE LIMITED', 'ACE HAULAGE SOLUTIONS LTD', 'ACE LIFTAWAY LTD', 'ACE MOTORING SERVICES LTD', 'ACE MOVEMENTS TRANSPORT LIMITED', 'ACE TRANSPORT LEICESTER LIMITED', 'ACE TRANSPORT LTD', 'ACE TRAVEL (NORTH WEST) LTD', 'ACE TRAVEL (SUSSEX) LTD', 'ACE WASTE HAULAGE LTD', 'ACE WASTE RECYCLING LTD', 'ACECARE LTD', 'ACELINK LOGISTICS LTD', 'ACENTA STEEL LTD', 'ACEO LIMITED', 'ACKLAMS COACHES LTD', 'ACL DISTRIBUTION &amp; LOGISTICS LIMITED', 'ACL INTERNATIONAL HAULAGE LTD', 'ACLAND PLANT HIRE LTD', 'ACM HAULAGE LIMITED', 'ACM LOGISTICS LIMITED', 'ACM TRANSPORT (NW) LTD', 'ACME BUS CO LTD', 'ACME LOGISTICS LTD', 'ACME PRODUCTION SERVICES LTD', 'ACO ASSOCIATES LIMITED', 'ACONPEX (UK) LTD', 'ACORN (NORTH EAST) LIMITED', 'ACORN COACH &amp; BUS LIMITED', 'ACORN CONTRACTORS LTD', 'ACORN EXPRESS LOGISTICS LTD', 'ACORN G D S LTD', 'ACORN HAULAGE LTD', 'ACORN PACKAGING SERVICES LTD', 'ACORN TRANSPORT &amp; PLANT HIRE LTD', 'ACORN TRANSPORT LTD', 'ACORN TRAVEL SOUTH WALES LIMITED', 'ACORN WASTE MANAGEMENT LIMITED', 'ACOURIER LTD', 'ACP TRANSPORT LTD', 'ACR ENVIRONMENTAL WALES LTD', 'ACR TIPPING SERVICES LTD', 'ACRE INDUSTRIAL &amp; CLEANING SERVICES LTD', 'ACS SAMEDAY LTD', 'ACTION DELIVERY SERVICES LTD', 'ACTION HIRE LIMITED', 'ACTION RAIL LTD', 'ACTION ROADWAYS LTD', 'ACTION VEHICLES LTD', 'ACTIONSMART ENVIRONMENTAL LTD', 'ACTIVAIR (UK) LTD', 'ACTIVE FACILITIES MANAGEMENT LTD', 'ACTIVE GROUNDS MAINTENANCE LTD', 'ACTIVE HOLDINGS LTD', 'ACTIVE OUTDOOR PURSUITS LTD', 'ACTIVE PLANT HIRE LTD', 'ACTIVE TRANSPORT LTD', 'ACTIVE TRAVEL LTD', 'ACTIVETREND LTD', 'ACTUAL SUPPORT SERVICES LTD', 'ACUMEN AUTOMOTIVE LOGISTICS LIMITED', 'ACUMEN DISTRIBUTION LIMITED', 'ACUMEN WASTE SERVICES LTD', 'ACUTE GROUP LIMITED', 'ADA FASTFIX LIMITED', 'ADAC HAULAGE LTD', 'ADALAT HUSSAIN', 'ADAM  HALAL FOODS LTD', 'ADAM B MIDDLER (TRANSPORT) LTD', 'ADAM BENJAMIN COUTTS &amp; CHARLES EDWARD COUTTS', 'ADAM BOWES COMMERCIALS LTD', 'ADAM C TAYLOR LTD', 'ADAM CARD', 'ADAM CHAPMAN', 'ADAM CHARLES TAYLOR', 'ADAM CLIVE SCOTT', 'ADAM CRAIG OGDEN', 'ADAM CREASE SHIPPING LTD', 'ADAM DAVID  EDWARDS', 'ADAM FEARN', 'ADAM GEOFFREY RIDDLE', 'ADAM GLOWACKI', 'ADAM GREGORY KLUJ &amp; PETER KLUJ', 'ADAM JAMES HAWKINS', 'ADAM JOHN NEESHAM', 'ADAM JON ROBBINS', 'ADAM JONES &amp; SONS (BLACKHEATH) LTD', 'ADAM KEIL', 'ADAM KEVIN OGLESBY', 'ADAM KIRTLEY &amp; ROY KIRTLEY', 'ADAM KLUJ TRANSPORT SERVICES LTD', 'ADAM M FERNIE', 'ADAM MCINNES SCOTT &amp; PATRICA ANNE SCOTT', 'ADAM MICHAEL WOOD', 'ADAM MOIR', 'ADAM PAWEL PAWELCZYK', 'ADAM PAYLOR', 'ADAM PETER SMITH', 'ADAM RAYMOND SHADBOLT', 'ADAM SPENCER HOWELLS', 'ADAM STEPHENSON PLANT', 'ADAM STUART ATKINSON', 'ADAM TAIT', 'ADAM TERRENCE ROSE', 'ADAM TOCHRANE GRIBBON', 'ADAM WILLIAM SIMPSON METCALFE', 'ADAMS &amp; GREEN LIMITED', 'ADAMS CUNDELL ENGINEERS LTD', 'ADAMS ENGINEERING (MARINE) LTD', 'ADAMS HAULAGE N W LTD', 'ADAMS MOREY LTD', 'ADAMS REMOVALS LTD', 'ADAMSON GROUP SERVICES LTD', 'ADAPTACAR LTD', 'ADB EMPLOYMENT LTD', 'ADC (EAST ANGLIA) LIMITED', 'ADD HIRE LTD', 'ADDICOTT ELECTRICS LTD', 'ADDIS CONSTRUCTION LTD', 'ADDISON PLANT LTD', 'ADDLESEE TIMBER &amp; HAULAGE LTD', 'ADDPLANT LTD', 'ADE MASON &amp; SONS LTD', 'ADELA CLAIRE KEENAN', 'ADELE BOOTH &amp; STEVEN ROBERT BOOTH', 'ADELE H LITSCHER &amp; PAUL T FROSTICK', 'ADELIE FOODS LIMITED', 'ADELPHI ENGINEERING &amp; CONSTRUCTION LTD', 'ADELTRANS LTD', 'ADEN JOHN HARE &amp; JANE HARE', 'ADEPT LIFT TECHNICAL SERVICES LTD', 'ADEY FREIGHT TRANSPORT LOGISTICS LIMITED', 'ADEY STEEL LTD', 'ADGLOW LTD', 'ADISEL LIMITED', 'ADK TRANSPORT LTD', 'ADLER &amp; ALLAN LTD', 'ADLINGTON WELDING SUPPLIES LTD', 'ADM MILLING LTD', 'ADMEC MUNICIPAL SERVICES LTD', 'ADMIRAL EAST LTD', 'ADMOBILE LTD', 'ADN TRANSPORT LTD', 'ADNAMS PLC', 'ADNAN MANZOOR', 'ADONIA FREIGHT LTD', 'ADORIAN LEON ROMAN', 'ADP DISTRIBUTION LIMITED', 'ADP HAULAGE LIMITED', 'ADR ACCIDENT REPAIR CENTRES LTD', 'ADRIAN A SPARROW', 'ADRIAN ALAN LTD', 'ADRIAN ALBERT GRAY', 'ADRIAN ANDREW SHERRIFF', 'ADRIAN ANDREW SHERRIFF &amp; PARTNERS', 'ADRIAN ANTHONY BENSON', 'ADRIAN ARTHUR WHEELWRIGHT', 'ADRIAN ASHLEY &amp; HELEN LOUISE ASHLEY', 'ADRIAN BANKS CO LTD', 'ADRIAN BAYLISS', 'ADRIAN BENCE', 'ADRIAN BRIAN DAVIDSON', 'ADRIAN BRIAN DAVIDSON &amp; RODERICK SHELSHER', 'ADRIAN CHARLES CLARKE', 'ADRIAN CHARLES HILLIER AND CHARLES JOHN BODMAN', 'ADRIAN CHARLES PRETLOVE &amp; ANNE TRACEY PRETLOVE-REDMOND', 'ADRIAN CHARLES TURNER', 'ADRIAN CLIFTON HOLLOWAY', 'ADRIAN CLIVE BROWNE', 'ADRIAN DAVID ARNOLD', 'ADRIAN DAVID BROWN', 'ADRIAN DAVID CRADDOCK &amp; LISA MARGARET NAYLOR', 'ADRIAN DREWERY', 'ADRIAN EDWARD HUNT', 'ADRIAN EDWARD LAW', 'ADRIAN EDWARD SMITH', 'ADRIAN EDWARD STANLEY', 'ADRIAN EDWARDS', 'ADRIAN GIBBONS', 'ADRIAN GRAY', 'ADRIAN HALL LTD', 'ADRIAN HALL PROPERTIES LIMITED', 'ADRIAN HOWARD', 'ADRIAN IAN METCALFE', 'ADRIAN JAMES FLETCHER', 'ADRIAN JEREMY BAVEYSTOCK', 'ADRIAN JOHN AIREY', 'ADRIAN JOHN ALAN TWINING', 'ADRIAN JOHN ALLEN &amp; DIANNE ALLEN', 'ADRIAN JOHN CHARLES', 'ADRIAN JOHN FARNHAM', 'ADRIAN JOHN FORD', 'ADRIAN JOHN FORD AND KEVIN WILLIAM FORD', 'ADRIAN JOHN FORDER', 'ADRIAN JOHN PEARCE', 'ADRIAN JOHN STIFF', 'ADRIAN KARL GRIFFITHS', 'ADRIAN KELSON HOSIE', 'ADRIAN KEVIN RILEY', 'ADRIAN KNIGHT', 'ADRIAN LEE OSTLE', 'ADRIAN LEWIS', 'ADRIAN LEWIS TRANSPORT LTD', 'ADRIAN LEWIS WASTE PAPER COLLECTIONS LTD', 'ADRIAN LINDSAY GOURLEY', 'ADRIAN LITSCHER', 'ADRIAN MALCOLM THICKENS', 'ADRIAN MARK GOODWIN', 'ADRIAN MARK HALL &amp; STUART GARY HALL', 'ADRIAN MARK INDER', 'ADRIAN MARK KEELING', 'ADRIAN MARSH LIMITED', 'ADRIAN MAXWELL SMITH &amp; CLAYTON MAXWELL SMITH', 'ADRIAN METCALFE TRANSPORT LTD', 'ADRIAN MICHAEL FULLTHORPE', 'ADRIAN MICHAEL LAMBERT &amp; PARTNERS', 'ADRIAN MILLETT &amp; AMANDA JAYNE MILLETT', 'ADRIAN MORTON', 'ADRIAN MUNNS', 'ADRIAN N SWEETING &amp; SARAH J SWEETING', 'ADRIAN NEAL SWEETING', 'ADRIAN NIGEL HOSKINS', 'ADRIAN PAUL ATTWATER', 'ADRIAN PAUL BOULTON', 'ADRIAN PAUL HARRISON', 'ADRIAN PAUL KNOWLES', 'ADRIAN PAUL MORTON', 'ADRIAN PETER HARPER', 'ADRIAN PITTERS-HAUGHTON', 'ADRIAN POOLE &amp; SONS INTERNATIONAL LTD', 'ADRIAN PRICE MIRON', 'ADRIAN RAYMOND CARTER', 'ADRIAN RICHARD LAKE', 'ADRIAN RICHARD POOLE', 'ADRIAN ROBERT BABER', 'ADRIAN ROBERT BRAYBROOKE', 'ADRIAN ROBERT EMMERSON', 'ADRIAN ROBERT HALFPENNY', 'ADRIAN ROBERT WILLIAMS', 'ADRIAN ROGER KNEEBONE', 'ADRIAN SABIN  EPURE', 'ADRIAN SHANE WALKER &amp; S J WALKER', 'ADRIAN SIMON DAVIS', 'ADRIAN TANSEY LTD', 'ADRIAN TRISTAN WILLIAMS &amp; PARTNERS', 'ADRIAN V LTD', 'ADRIAN WHITE BUILDING SUPPLIES LTD', 'ADRIAN WHITTAKER LTD', 'ADRIAN WILLIAMS TRANSPORT LIMITED', 'ADRIAN WINGFIELD', 'ADRIANDORU LTD', 'ADRIENNE MERYLE WILKIE &amp; GEORGE EDWARD WILKIE', 'ADS EXPRESS FREIGHT LLP', 'ADS RECRUITMENT LIMITED', 'ADSTOCK BULK SOLUTIONS LTD', 'ADTAX LTD', 'ADUR DISTRICT COUNCIL', 'ADVANCE DESPATCH LTD', 'ADVANCE FORWARDING LIMITED', 'ADVANCE MINIBUSES LTD', 'ADVANCE PERSONNEL LTD', 'ADVANCE SCAFFOLDING (LANCASHIRE) LTD', 'ADVANCE TRANSPORT SERVICES LTD', 'ADVANCE URANIUM ASSET MANAGEMENT LTD', 'ADVANCED DELIVERY SERVICES LTD', 'ADVANCED DRAINAGE SOLUTIONS LTD', 'ADVANCED LOGISTICS SELBY LTD', 'ADVANCED PROCESSING LTD', 'ADVANCED REMOVALS &amp; STORAGE LTD', 'ADVANCED TRAINING AND RECRUITMENT (UK) LIMITED', 'ADVANTE LTD', 'ADY SHORTHOUSE TRANSPORT LTD', 'AEI CABLES LTD', 'AEI ONLINE LTD', 'AERON CEREDIC EVANS', 'AERON PRYSOR JONES', 'AES PLANT LTD', 'AET TRANSPORT ANDOVER LIMITED', 'AFAN CONSTRUCTION LTD', 'AFD TRANSPORT LTD', 'AFE GROUP LIMITED', 'AFEEF PATEL', 'AFFABLE PILING CO LTD', 'AFG TRANSPORT LTD', 'AFL TRANSIT LTD', 'AFM INTERNATIONAL TRANSPORT AND FORWARDING LIMITED', 'AFM TRANSPORT LTD', 'AFP TRANSPORT LIMITED', 'AFS EARTHMOVING &amp; AGGREGATES LLP', 'AFS TRANSPORT AND LOGISTICS LTD', 'AFSC LIMITED', 'AFTAAB MZ ALLYMAN', 'AFTER SALES GARAGE SERVICES LIMITED', 'AFTERCRETE CONSTRUCTIONAL ENGINEERING CO LTD', 'AFZAL KHAN', 'AGA CONSUMER &amp; FOODSERVICE GROUP LTD', 'AGA LTD', 'AGA RANGEMASTER LIMITED', 'AGATRANS (FELIXSTOWE) LIMITED', 'AGGMAX LTD', 'AGGMAX TRANSPORT LTD', 'AGGRECOM LIMITED', 'AGGREGATE INDUSTRIES UK LTD', 'AGH CONTRACT SERVICES LTD', 'AGHAUL LIMITED', 'AGM CHILLED DISTRIBUTION LTD', 'AGNIESZKA BEATA LEONIUK', 'AGNIESZKA LOZOWSKA', 'AGRI - VALET LTD', 'AGRI MIX LIMITED', 'AGRI TEC LTD', 'AGRIBULK LIMITED', 'AGRICART LTD', 'AGRICULTURAL ANHYDROUS AMMONIA LTD', 'AGRICULTURAL CONTRACT &amp; MARKETING COMPANY LIMITED', 'AGRICULTURAL MACHINERY (NANTWICH) LTD', 'AGRICULTURAL MACHINERY SERVICES LIMITED', 'AGRIGROUP LIMITED', 'AGRIHAUL LTD', 'AGRISPARES TRADING CO LTD', 'AGRIVERT LTD', 'AGROVISTA UK LTD', 'AGS INTERNATIONAL LIMITED', 'AGS LTD', 'AHB HAULAGE LTD', 'AHERN RUBBISH MOVEMENTS LTD', 'AHMED JAVED', 'AHS LOGISTICS LTD', 'AHT LOGISTICS LTD', 'AI MASON STREET FURNITURE INSTALLATIONS LTD', 'AIDAN MUNDY', 'AIDAN PATRICK KAVANAGH', 'AIJAZ AHMED', 'AILEEN M H WALTON &amp; PARTNERS', 'AILSA W JOHNSTONE &amp; PARTNERS', 'AIM TRAINING LIMITED', 'AINSCOUGH CRANE HIRE LTD', 'AINSCOUGH LTD', 'AINSWORTH &amp; BURGESS LTD', 'AINSWORTH &amp; MARTIN LTD', 'AINTREE COACHES (INTERNATIONAL) LTD', 'AIR &amp; CARGO SERVICES LTD', 'AIR CANADA', 'AIR CARGO TRANSPORT LTD', 'AIR FENELLA SYSTEMS LTD', 'AIR LINK SYSTEMS LIMITED', 'AIR PREMIER PROPERTIES LTD', 'AIR SEA LOGISTICS LIMITED', 'AIR SEA SCOTLAND LTD', 'AIR TO ROAD LTD', 'AIR-SEA PACKING GROUP LTD', 'AIR-WAVE FREIGHT MANAGEMENT LTD', 'AIRBUS OPERATIONS LIMITED', 'AIRCARGO &amp; CONTAINER SERVICES LTD', 'AIRCOACH LIMITED', 'AIRCRAFT &amp; COMMERCIAL TOOLS (SHEFFIELD) LTD', 'AIRDRIE VEHICLE MOVERS LTD', 'AIREDALE FACTORS LTD', 'AIREDALE N H S TRUST', 'AIREDALE TRAVEL LIMITED', 'AIRES (UK) LTD', 'AIREYS ROAD TRANSPORT LTD', 'AIRFIELD FARMS LIMITED', 'AIRFLOW ENGINEERING LTD', 'AIRFREIGHT WORLDWIDE LIMITED', 'AIRLINE TRAVEL HUB LIMITED', 'AIRLINE TRUCKING SERVICES LTD', 'AIRLINKS AIRPORT SERVICES LTD', 'AIRLOAD ENVIRONMENTAL LTD', 'AIRLYNX EXPRESS LTD', 'AIRLYNX</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Sole Trader</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Registered Company</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>2974774</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>4</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['Partnership', 'Public Authority', 'Registered Company', 'Sole Trader']</t>
         </is>
@@ -648,18 +673,26 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PM1142851</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>OF0034925</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>1597239</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>52485</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['OB0001204', 'OB0001528', 'OB0001772', 'OB0002077', 'OB0002104', 'OB0002110', 'OB0002190', 'OB0002473', 'OB0002620', 'OB0002915', 'OB0003141', 'OB0003566', 'OB0003597', 'OB0004427', 'OB0004888', 'OB0005212', 'OB0006861', 'OB0006868', 'OB0008366', 'OB0008753', 'OB0012085', 'OB0012849', 'OB0013056', 'OB0013665', 'OB0014312', 'OB0014531', 'OB0014837', 'OB0015142', 'OB0015961', 'OB0019338', 'OB0019493', 'OB0020763', 'OB0028428', 'OB0031154', 'OB0031161', 'OB0031314', 'OB0031359', 'OB0031438', 'OB0031852', 'OB0032530', 'OB0032632', 'OB0034396', 'OB0034741', 'OB0037429', 'OB0037785', 'OB0038047', 'OB0038883', 'OB0038961', 'OB0039644', 'OB0040106', 'OB0041914', 'OB0044406', 'OB0044724', 'OB0051265', 'OB0051693', 'OB0052002', 'OB0054727', 'OB0056782', 'OB0058953', 'OB0066340', 'OB0072864', 'OB0073954', 'OB0074151', 'OB0076495', 'OB0081014', 'OB0082027', 'OB0084737', 'OB0092482', 'OB0094273', 'OB0095453', 'OB0095800', 'OB0098976', 'OB0098979', 'OB0099130', 'OB0099916', 'OB0100273', 'OB0100342', 'OB0100681', 'OB0100815', 'OB0100872', 'OB0101157', 'OB0101190', 'OB0101358', 'OB0101420', 'OB0101491', 'OB0101524', 'OB0101616', 'OB0101617', 'OB0101650', 'OB0101747', 'OB0101768', 'OB0101823', 'OB0101854', 'OB0101866', 'OB0102713', 'OB0104090', 'OB0108719', 'OB0111021', 'OB0111226', 'OB0113010', 'OB0113536', 'OB0114685', 'OB0115283', 'OB0117075', 'OB0117499', 'OB0122179', 'OB0127817', 'OB0130016', 'OB0130142', 'OB0131446', 'OB0131830', 'OB0132147', 'OB0132324', 'OB0132980', 'OB0133206', 'OB0133512', 'OB0133753', 'OB0134442', 'OB0135056', 'OB0137263', 'OB0138533', 'OB0139068', 'OB0139928', 'OB0140077', 'OB0142028', 'OB0143122', 'OB0146154', 'OB0147309', 'OB0149590', 'OB0150170', 'OB0151791', 'OB0152079', 'OB0152228', 'OB0153175', 'OB0153306', 'OB0153474', 'OB0154113', 'OB0155829', 'OB0156770', 'OB0157099', 'OB0157143', 'OB0157759', 'OB0157787', 'OB0158000', 'OB0158916', 'OB0159282', 'OB0160054', 'OB0160095', 'OB0160329', 'OB0160806', 'OB0161665', 'OB0164265', 'OB0165838', 'OB0165913', 'OB0166682', 'OB0167166', 'OB0167634', 'OB0169073', 'OB0169641', 'OB0170462', 'OB0171029', 'OB0171909', 'OB0172004', 'OB0172012', 'OB0172181', 'OB0172328', 'OB0172694', 'OB0172913', 'OB0172988', 'OB0173118', 'OB0173157', 'OB0173342', 'OB0173363', 'OB0173404', 'OB0173467', 'OB0173538', 'OB0173557', 'OB0173686', 'OB0173719', 'OB0173742', 'OB0173931', 'OB0173957', 'OB0174056', 'OB0174108', 'OB0174156', 'OB0174318', 'OB0174505', 'OB0174512', 'OB0174566', 'OB0174624', 'OB0174752', 'OB0174771', 'OB0174821', 'OB0174878', 'OB0174936', 'OB0175075', 'OB0175111', 'OB0175160', 'OB0175212', 'OB0175238', 'OB0175314', 'OB0175337', 'OB0175342', 'OB0175402', 'OB0175464', 'OB0175475', 'OB0175583', 'OB0175586', 'OB0175660', 'OB0175685', 'OB0175707', 'OB0175770', 'OB0175846', 'OB0175852', 'OB0175868', 'OB0176037', 'OB0176125', 'OB0176165', 'OB0176214', 'OB0176300', 'OB0176378', 'OB0176427', 'OB0176466', 'OB0176565', 'OB0176727', 'OB0176753', 'OB0176904', 'OB0176913', 'OB0176941', 'OB0177074', 'OB0177091', 'OB0177100', 'OB0177140', 'OB0177236', 'OB0177242', 'OB0177452', 'OB0177459', 'OB0177642', 'OB0177699', 'OB0177763', 'OB0177854', 'OB0177894', 'OB0177895', 'OB0178004', 'OB0178013', 'OB0178061', 'OB0178121', 'OB0178200', 'OB0178452', 'OB0178459', 'OB0178655', 'OB0178722', 'OB0178831', 'OB0178881', 'OB0178897', 'OB0178970', 'OB0179061', 'OB0179100', 'OB0179149', 'OB0179160', 'OB0179244', 'OB0179298', 'OB0179344', 'OB0179361', 'OB0179389', 'OB0179392', 'OB0179428', 'OB0179508', 'OB0179635', 'OB0179707', 'OB0179746', 'OB0179780', 'OB0179811', 'OB0179855', 'OB0179895', 'OB0179954', 'OB0179988', 'OB0180000', 'OB0180197', 'OB0180230', 'OB0180503', 'OB0180605', 'OB0180617', 'OB0180651', 'OB0180799', 'OB0180919', 'OB0180922', 'OB0181088', 'OB0181119', 'OB0181187', 'OB0181235', 'OB0181255', 'OB0181298', 'OB0181301', 'OB0181310', 'OB0181358', 'OB0181427', 'OB0181464', 'OB0181479', 'OB0181516', 'OB0181581', 'OB0181613', 'OB0181644', 'OB0181655', 'OB0181657', 'OB0181802', 'OB0181815', 'OB0181828', 'OB0181926', 'OB0182001', 'OB0182011', 'OB0182040', 'OB0182114', 'OB0182172', 'OB0182192', 'OB0182280', 'OB0182294', 'OB0182358', 'OB0182391', 'OB0182398', 'OB0182414', 'OB0182442', 'OB0182519', 'OB0182547', 'OB0182551', 'OB0182701', 'OB0182703', 'OB0182763', 'OB0182841', 'OB0182899', 'OB0182911', 'OB0182931', 'OB0182966', 'OB0183005', 'OB0183098', 'OB0183122', 'OB0183129', 'OB0183158', 'OB0183214', 'OB0183274', 'OB0183294', 'OB0183295', 'OB0183296', 'OB0183304', 'OB0183338', 'OB0183405', 'OB0183412', 'OB0183453', 'OB0183500', 'OB0183515', 'OB0183561', 'OB0183662', 'OB0183675', 'OB0183685', 'OB0183756', 'OB0183782', 'OB0183858', 'OB0183893', 'OB0183910', 'OB0184029', 'OB0184045', 'OB0184199', 'OB0184289', 'OB0184409', 'OB0184418', 'OB0184474', 'OB0184541', 'OB0184554', 'OB0184555', 'OB0184596', 'OB0184634', 'OB0184648', 'OB0184697', 'OB0184721', 'OB0184801', 'OB0184809', 'OB0184813', 'OB0184842', 'OB0184894', 'OB0184912', 'OB0184916', 'OB0184937', 'OB0184988', 'OB0184994', 'OB0184996', 'OB0185004', 'OB0185040', 'OB0185128', 'OB0185150', 'OB0185174', 'OB0185208', 'OB0185213', 'OB0185348', 'OB0185426', 'OB0185429', 'OB0185430', 'OB0185454', 'OB0185458', 'OB0185521', 'OB0185645', 'OB0185781', 'OB0185791', 'OB0185828', 'OB0185851', 'OB0185859', 'OB0185885', 'OB0186010', 'OB0186033', 'OB0186065', 'OB0186084', 'OB0186114', 'OB0186149', 'OB0186180', 'OB0186213', 'OB0186294', 'OB0186344', 'OB0186355', 'OB0186402', 'OB0186447', 'OB0186456', 'OB0186472', 'OB0186498', 'OB0186507', 'OB0186570', 'OB0186589', 'OB0186646', 'OB0186696', 'OB0186699', 'OB0186748', 'OB0186798', 'OB0186824', 'OB0186835', 'OB0186909', 'OB0186926', 'OB0186943', 'OB0187058', 'OB0187068', 'OB0187091', 'OB0187127', 'OB0187229', 'OB0187240', 'OB0187265', 'OB0187306', 'OB0187339', 'OB0187353', 'OB0187368', 'OB0187436', 'OB0187461', 'OB0187503', 'OB0187510', 'OB0187512', 'OB0187518', 'OB0187628', 'OB0187641', 'OB0187648', 'OB0187667', 'OB0187679', 'OB0187712', 'OB0187724', 'OB0187771', 'OB0187831', 'OB0187920', 'OB0187977', 'OB0187983', 'OB0188007', 'OB0188012', 'OB0188021', 'OB0188022', 'OB0188068', 'OB0188123', 'OB0188126', 'OB0188174', 'OB0188219', 'OB0188270', 'OB0188306', 'OB0188312', 'OB0188324', 'OB0188344', 'OB0188407', 'OB0188439', 'OB0188442', 'OB0188450', 'OB0188470', 'OB0188476', 'OB0188522', 'OB0188533', 'OB0188560', 'OB0188580', 'OB0188589', 'OB0188639', 'OB0188667', 'OB0188803', 'OB0188870', 'OB0188963', 'OB0188979', 'OB0188997', 'OB0189079', 'OB0189167', 'OB0189181', 'OB0189248', 'OB0189349', 'OB0189359', 'OB0189404', 'OB0189446', 'OB0189568', 'OB0189671', 'OB0189774', 'OB0189823', 'OB0189866', 'OB0189871', 'OB0189892', 'OB0189900', 'OB0189907', 'OB0190100', 'OB0190131', 'OB0190174', 'OB0190206', 'OB0190288', 'OB0190355', 'OB0190380', 'OB0190382', 'OB0190498', 'OB0190605', 'OB0190644', 'OB0190657', 'OB0190659', 'OB0190696', 'OB0190709', 'OB0190729', 'OB0190766', 'OB0190808', 'OB0190823', 'OB0190853', 'OB0190872', 'OB0190899', 'OB0190934', 'OB0190940', 'OB0190995', 'OB0191015', 'OB0191066', 'OB0191068', 'OB0191083', 'OB0191168', 'OB0191206', 'OB0191226', 'OB0191283', 'OB0191284', 'OB0191286', 'OB0191321', 'OB0191338', 'OB0191368', 'OB0191398', 'OB0191427', 'OB0191455', 'OB0191499', 'OB0191500', 'OB0191551', 'OB0191568', 'OB0191586', 'OB0191625', 'OB0191679', 'OB0191684', 'OB0191695', 'OB0191760', 'OB0191766', 'OB0191801', 'OB0191903', 'OB0191946', 'OB0191967', 'OB0191977', 'OB0192010', 'OB0192016', 'OB0192038', 'OB0192065', 'OB0192100', 'OB0192118', 'OB0192213', 'OB0192233', 'OB0192242', 'OB0192244', 'OB0192248', 'OB0192259', 'OB0192299', 'OB0192348', 'OB0192410', 'OB0192457', 'OB0192475', 'OB0192500', 'OB0192577', 'OB0192648', 'OB0192691', 'OB0192697', 'OB0192744', 'OB0192760', 'OB0192762', 'OB0192768', 'OB0192791', 'OB0192805', 'OB0192818', 'OB0192819', 'OB0192853', 'OB0192886', 'OB0192890', 'OB0192925', 'OB0192942', 'OB0192946', 'OB0193026', 'OB0193043', 'OB0193066', 'OB0193082', 'OB0193132', 'OB0193147', 'OB0193170', 'OB0193180', 'OB0193189', 'OB0193198', 'OB0193297', 'OB0193342', 'OB0193345', 'OB0193400', 'OB0193415', 'OB0193419', 'OB0193433', 'OB0193445', 'OB0193498', 'OB0193503', 'OB0193509', 'OB0193535', 'OB0193548', 'OB0193621', 'OB0193632', 'OB0193695', 'OB0193742', 'OB0193797', 'OB0193816', 'OB0193838', 'OB0193865', 'OB0193868', 'OB0193876', 'OB0193902', 'OB0193931', 'OB0193996', 'OB0194015', 'OB0194055', 'OB0194068', 'OB0194069', 'OB0194080', 'OB0194094', 'OB0194102', 'OB0194122', 'OB0194138', 'OB0194141', 'OB0194150', 'OB0194231', 'OB0194235', 'OB0194246', 'OB0194251', 'OB0194265', 'OB0194299', 'OB0194371', 'OB0194372', 'OB0194386', 'OB0194388', 'OB0194430', 'OB0194438', 'OB0194475', 'OB0194478', 'OB0194479', 'OB0194496', 'OB0194501', 'OB0194544', 'OB0194553', 'OB0194565', 'OB0194578', 'OB0194584', 'OB0194585', 'OB0194631', 'OB0194648', 'OB0194670', 'OB0194673', 'OB0194685', 'OB0194700', 'OB0194703', 'OB0194709', 'OB0194724', 'OB0194737', 'OB0194750', 'OB0194798', 'OB0194809', 'OB0194817', 'OB0194850', 'OB0194920', 'OB0194949', 'OB0194956', 'OB0194982', 'OB0194996', 'OB0195000', 'OB0195012', 'OB0195030', 'OB0195066', 'OB0195122', 'OB0195132', 'OB0195184', 'OB0195196', 'OB0195243', 'OB0195249', 'OB0195274', 'OB0195285', 'OB0195292', 'OB0195329', 'OB0195332', 'OB0195359', 'OB0195360', 'OB0195366', 'OB0195458', 'OB0195464', 'OB0195495', 'OB0195566', 'OB0195606', 'OB0195674', 'OB0195710', 'OB0195729', 'OB0195759', 'OB0195801', 'OB0195840', 'OB0195876', 'OB0195879', 'OB0195901', 'OB0195959', 'OB0195997', 'OB0195999', 'OB0196032', 'OB0196099', 'OB0196108', 'OB0196115', 'OB0196127', 'OB0196138', 'OB0196149', 'OB0196151', 'OB0196187', 'OB0196240', 'OB0196241', 'OB0196261', 'OB0196270', 'OB0196274', 'OB0196292', 'OB0196347', 'OB0196357', 'OB0196382', 'OB0196394', 'OB0196438', 'OB0196484', 'OB0196570', 'OB0196590', 'OB0196599', 'OB0196616', 'OB0196629', 'OB0196633', 'OB0196650', 'OB0196665', 'OB0196674', 'OB0196708', 'OB0196736', 'OB0196741', 'OB0196759', 'OB0196772', 'OB0196775', 'OB0196776', 'OB0196835', 'OB0196855', 'OB0196869', 'OB0196876', 'OB0196895', 'OB0196901', 'OB0196951', 'OB0196982', 'OB0196983', 'OB0197064', 'OB0197084', 'OB0197124', 'OB0197151', 'OB0197188', 'OB0197189', 'OB0197193', 'OB0197197', 'OB0197222', 'OB0197306', 'OB0197308', 'OB0197344', 'OB0197349', 'OB0197354', 'OB0197389', 'OB0197393', 'OB0197401', 'OB0197435', 'OB0197439', 'OB0197480', 'OB0197498', 'OB0197500', 'OB0197555', 'OB0197593', 'OB0197616', 'OB0197634', 'OB0197666', 'OB0197670', 'OB0197676', 'OB0197700', 'OB0197702', 'OB0197703', 'OB0197721', 'OB0197734', 'OB0197735', 'OB0197755', 'OB0197771', 'OB0197791', 'OB0197796', 'OB0197806', 'OB0197827', 'OB0197829', 'OB0197841', 'OB0197847', 'OB0197918', 'OB0197924', 'OB0197946', 'OB0197956', 'OB0197967', 'OB0197978', 'OB0197982', 'OB0198029', 'OB0198078', 'OB0198102', 'OB0198171', 'OB0198175', 'OB0198194', 'OB0198288', 'OB0198296', 'OB0198337', 'OB0198406', 'OB0198508', 'OB0198537', 'OB0198544', 'OB0198628', 'OB0198636', 'OB0198654', 'OB0198663', 'OB0198682', 'OB0198690', 'OB0198695', 'OB0198753', 'OB0198755', 'OB0198782', 'OB0198794', 'OB0198797', 'OB0198809', 'OB0198814', 'OB0198835', 'OB0198842', 'OB0198852', 'OB0198861', 'OB0198883', 'OB0198909', 'OB0198921', 'OB0198923', 'OB0198937', 'OB0198953', 'OB0198958', 'OB0199008', 'OB0199028', 'OB0199052', 'OB0199061', 'OB0199111', 'OB0199116', 'OB0199128', 'OB0199166', 'OB0199177', 'OB0199230', 'OB0199252', 'OB0199255', 'OB0199256', 'OB0199309', 'OB0199331', 'OB0199350', 'OB0199363', 'OB0199383', 'OB0199407', 'OB0199417', 'OB0199419', 'OB0199439', 'OB0199440', 'OB0199445', 'OB0199489', 'OB0199493', 'OB0199512', 'OB0199609', 'OB0199611', 'OB0199688', 'OB0199712', 'OB0199721', 'OB0199722', 'OB0199745', 'OB0199754', 'OB0199782', 'OB0199818', 'OB0199858', 'OB0199912', 'OB0199923', 'OB0199927', 'OB0199970', 'OB0199974', 'OB0199975', 'OB0199985', 'OB0200516', 'OB0200526', 'OB0200529', 'OB0200627', 'OB0200664', 'OB0200729', 'OB0200733', 'OB0200920', 'OB0201024', 'OB0201083', 'OB0202045', 'OB0202065', 'OB0202119', 'OB0202134', 'OB0202162', 'OB0202163', 'OB0202190', 'OB0202201', 'OB0202218', 'OB0202237', 'OB0202268', 'OB0202277', 'OB0202315', 'OB0202353', 'OB0202376', 'OB0202444', 'OB0202454', 'OB0202466', 'OB0202473', 'OB0202478', 'OB0202526', 'OB0202529', 'OB0202543', 'OB0202575', 'OB0202576', 'OB0202584', 'OB0202611', 'OB0202628', 'OB0202642', 'OB0202706', 'OB0202721', 'OB0202728', 'OB0202766', 'OB0202777', 'OB0202781', 'OB0202837', 'OB0202847', 'OB0202856', 'OB0202866', 'OB0202889', 'OB0202898', 'OB0202911', 'OB0202970', 'OB0202983', 'OB0202988', 'OB0203017', 'OB0203028', 'OB0203030', 'OB0203052', 'OB0203094', 'OB0203109', 'OB0203139', 'OB0203196', 'OB0203206', 'OB0203267', 'OB0203271', 'OB0203289', 'OB0203292', 'OB0203302', 'OB0203310', 'OB0203344', 'OB0203416', 'OB0203434', 'OB0203474', 'OB0203521', 'OB0203545', 'OB0203562', 'OB0203588', 'OB0203597', 'OB0203625', 'OB0203637', 'OB0203669', 'OB0203696', 'OB0203701', 'OB0203723', 'OB0203726', 'OB0203729', 'OB0203756', 'OB0203771', 'OB0203808', 'OB0203833', 'OB0203860', 'OB0203991', 'OB0203999', 'OB0204000', 'OB0204003', 'OB0204008', 'OB0204037', 'OB0204042', 'OB0204067', 'OB0204075', 'OB0204094', 'OB0204139', 'OB0204155', 'OB0204168', 'OB0204170', 'OB0204176', 'OB0204177', 'OB0204193', 'OB0204195', 'OB0204205', 'OB0204214', 'OB0204243', 'OB0204259', 'OB0204263', 'OB0204273', 'OB0204287', 'OB0204297', 'OB0204324', 'OB0204403', 'OB0204441', 'OB0204445', 'OB0204447', 'OB0204556', 'OB0204561', 'OB0204585', 'OB0204635', 'OB0204653', 'OB0204705', 'OB0204751', 'OB0204787', 'OB0204795', 'OB0204800', 'OB0204852', 'OB0204853', 'OB0204887', 'OB0204913', 'OB0204929', 'OB0204931', 'OB0204936', 'OB0204943', 'OB0204945', 'OB0204961', 'OB0204997', 'OB0205005', 'OB0205009', 'OB0205026', 'OB0205041', 'OB0205047', 'OB0205074', 'OB0205119', 'OB0205129', 'OB0205146', 'OB0205166', 'OB0205187', 'OB0205220', 'OB0205222', 'OB0205283', 'OB0205286', 'OB0205287', 'OB0205290', 'OB0205293', 'OB0205294', 'OB0205298', 'OB0205306', 'OB0205314', 'OB0205326', 'OB0205327', 'OB0205333', 'OB0205336', 'OB0205349', 'OB0205353', 'OB0205359', 'OB0205364', 'OB0205365', 'OB0205377', 'OB0205380', 'OB0205383', 'OB0205413', 'OB0205450', 'OB0205452', 'OB0205454', 'OB0205460', 'OB0205476', 'OB0205497', 'OB0205505', 'OB0205513', 'OB0205541', 'OB0205542', 'OB0205543', 'OB0205547', 'OB0205561', 'OB0205563', 'OB0205565', 'OB0205584', 'OB0205592', 'OB0205611', 'OB0205614', 'OB0205625', 'OB0205631', 'OB0205634', 'OB0205652', 'OB0205654', 'OB0205702', 'OB0205703', 'OB0205705', 'OB0205729', 'OB0205747', 'OB0205748', 'OB0205755', 'OB0205775', 'OB0205791', 'OB0205813', 'OB0205840', 'OB0205847', 'OB0205850', 'OB0205854', 'OB0205867', 'OB0205877', 'OB0205905', 'OB0205911', 'OB0205964', 'OB0205976', 'OB0205985', 'OB0206015', 'OB0206017', 'OB0206055', 'OB0206069', 'OB0206070', 'OB0206074', 'OB0206083', 'OB0206094', 'OB0206097', 'OB0206108', 'OB0206115', 'OB0206123', 'OB0206161', 'OB0206177', 'OB0206187', 'OB0206199', 'OB0206214', 'OB0206221', 'OB0206222', 'OB0206270', 'OB0206274', 'OB0206276', 'OB0206278', 'OB0206283', 'OB0206296', 'OB0206301', 'OB0206304', 'OB0206306', 'OB0206313', 'OB0206315', 'OB0206317', 'OB0206329', 'OB0206336', 'OB0206342', 'OB0206350', 'OB0206352', 'OB0206365', 'OB0206376', 'OB0206381', 'OB0206384', 'OB0206390', 'OB0206392', 'OB0206408', 'OB0206413', 'OB0206417', 'OB0206449', 'OB0206462', 'OB0206463', 'OB0206478', 'OB0206484', 'OB0206486', 'OB0206488', 'OB0206489', 'OB0206495', 'OB0206504', 'OB0206522', 'OB0206538', 'OB0206551', 'OB0206561', 'OB0206586', 'OB0206594', 'OB0206621', 'OB0206635', 'OB0206657', 'OB0206659', 'OB0206667', 'OB0206674', 'OB0206710', 'OB0206724', 'OB0206745', 'OB0206783', 'OB0206790', 'OB0206798', 'OB0206804', 'OB0206813', 'OB0206816', 'OB0206839', 'OB0206844', 'OB0206849', 'OB0206855', 'OB0206858', 'OB0206899', 'OB0206925', 'OB0206953', 'OB0206958', 'OB0206996', 'OB0206997', 'OB0206999', 'OB0207017', 'OB0207021', 'OB0207073', 'OB0207079', 'OB0207092', 'OB0207099', 'OB0207114', 'OB0207137', 'OB0207144', 'OB0207147', 'OB0207157', 'OB0207186', 'OB0207222', 'OB0207257', 'OB0207265', 'OB0207275', 'OB0207287', 'OB0207319', 'OB0207326', 'OB0207351', 'OB0207359', 'OB0207372', 'OB0207407', 'OB0207417', 'OB0207423', 'OB0207434', 'OB0207443', 'OB0207445', 'OB0207449', 'OB0207470', 'OB0207494', 'OB0207500', 'OB0207511', 'OB0207516', 'OB0207522', 'OB0207525', 'OB0207534', 'OB0207550', 'OB0207554', 'OB0207555', 'OB0207569', 'OB0207577', 'OB0207583', 'OB0207588', 'OB0207613', 'OB0207628', 'OB0207646', 'OB0207670', 'OB0207683', 'OB0207684', 'OB0207685', 'OB0207694', 'OB0207747', 'OB0207768', 'OB0207770', 'OB0207780', 'OB0207804', 'OB0207808', 'OB0207812', 'OB0207815', 'OB0207840', 'OB0207852', 'OB0207892', 'OB0207897', 'OB0207904', 'OB0207910', 'OB0207925', 'OB0207926', 'OB0207948', 'OB0207967', 'OB0207982', 'OB0208034', 'OB0208050', 'OB0208076', 'OB0208100', 'OB0208191', 'OB0208193', 'OB0208201', 'OB0208224', 'OB0208227', 'OB0208243', 'OB0208244', 'OB0208247', 'OB0208251', 'OB0208257', 'OB0208259', 'OB0208271', 'OB0208296', 'OB0208302', 'OB0208322', 'OB0208330', 'OB0208354', 'OB0208404', 'OB0208464', 'OB0208482', 'OB0208511', 'OB0208521', 'OB0208526', 'OB0208594', 'OB0208670', 'OB0208700', 'OB0208755', 'OB0208756', 'OB0208791', 'OB0208797', 'OB0208835', 'OB0208879', 'OB0208911', 'OB0208946', 'OB0208951', 'OB0209095', 'OB0209143', 'OB0209153', 'OB0209163', 'OB0209169', 'OB0209175', 'OB0209187', 'OB0209206', 'OB0209220', 'OB0209235', 'OB0209241', 'OB0209244', 'OB0209258', 'OB0209262', 'OB0209277', 'OB0209306', 'OB0209324', 'OB0209325', 'OB0209350', 'OB0209355', 'OB0209358', 'OB0209371', 'OB0209375', 'OB0209400', 'OB0209413', 'OB0209430', 'OB0209456', 'OB0209468', 'OB0209473', 'OB0209485', 'OB0209493', 'OB0209526', 'OB0209537', 'OB0209567', 'OB0209603', 'OB0209633', 'OB0209642', 'OB0209650', 'OB0209661', 'OB0209691', 'OB0209740', 'OB0209765', 'OB0209782', 'OB0209793', 'OB0209794', 'OB0209843', 'OB0209848', 'OB0209855', 'OB0209858', 'OB0209934', 'OB0209946', 'OB0209951', 'OB0209981', 'OB0209996', 'OB0209999', 'OB0210061', 'OB0210068', 'OB0210078', 'OB0210103', 'OB0210138', 'OB0210139', 'OB0210185', 'OB0210208', 'OB0210213', 'OB0210239', 'OB0210260', 'OB0210292', 'OB0210295', 'OB0210309', 'OB0210348', 'OB0210354', 'OB0210367', 'OB0210395', 'OB0210421', 'OB0210497', 'OB0210508', 'OB0210519', 'OB0210521', 'OB0210524', 'OB0210528', 'OB0210539', 'OB0210552', 'OB0210557', 'OB0210572', 'OB0210576', 'OB0210583', 'OB0210597', 'OB0210626', 'OB0210651', 'OB0210654', 'OB0210655', 'OB0210666', 'OB0210670', 'OB0210726', 'OB0210729', 'OB0210743', 'OB0210748', 'OB0210752', 'OB0210760', 'OB0210774', 'OB0210775', 'OB0210788', 'OB0210790', 'OB0210801', 'OB0210828', 'OB0210863', 'OB0210868', 'OB0210873', 'OB0210886', 'OB0210887', 'OB0210889', 'OB0210892', 'OB0210901', 'OB0210919', 'OB0210961', 'OB0210963', 'OB0210966', 'OB0210989', 'OB0211010', 'OB0211015', 'OB0211020', 'OB0211022', 'OB0211028', 'OB0211029', 'OB0211039', 'OB0211045', 'OB0211048', 'OB0211052', 'OB0211064', 'OB0211076', 'OB0211085', 'OB0211147', 'OB0211149', 'OB0211152', 'OB0211153', 'OB0211154', 'OB0211160', 'OB0211161', 'OB0211173', 'OB0211182', 'OB0211184', 'OB0211185', 'OB0211208', 'OB0211212', 'OB0211213', 'OB0211216', 'OB0211223', 'OB0211226', 'OB0211230', 'OB0211231', 'OB0211277', 'OB0211293', 'OB0211313', 'OB0211343', 'OB0211386', 'OB0211412', 'OB0211426', 'OB0211427', 'OB0211437', 'OB0211439', 'OB0211448', 'OB0211467', 'OB0211479', 'OB0211481', 'OB0211488', 'OB0211492', 'OB0211493', 'OB0211496', 'OB0211520', 'OB0211523', 'OB0211547', 'OB0211559', 'OB0211572', 'OB0211600', 'OB0211602', 'OB0211616', 'OB0211622', 'OB0211627', 'OB0211639', 'OB0211674', 'OB0211692', 'OB0211699', 'OB0211700', 'OB0211705', 'OB0211720', 'OB0211743', 'OB0211744', 'OB0211756', 'OB0211762', 'OB0211772', 'OB0211775', 'OB0211779', 'OB0211793', 'OB0211795', 'OB0211803', 'OB0211823', 'OB0211827', 'OB0211840', 'OB0211846', 'OB0211855', 'OB0211872', 'OB0211886', 'OB0211894', 'OB0211924', 'OB0211948', 'OB0211989', 'OB0211993', 'OB0212038', 'OB0212089', 'OB0212109', 'OB0212122', 'OB0212129', 'OB0212133', 'OB0212137', 'OB0212155', 'OB0212156', 'OB0212207', 'OB0212210', 'OB0212224', 'OB0212252', 'OB0212257', 'OB0212280', 'OB0212334', 'OB0212336', 'OB0212345', 'OB0212358', 'OB0212383', 'OB0212414', 'OB0212417', 'OB0212421', 'OB0212443', 'OB0212450', 'OB0212478', 'OB0212487', 'OB0212510', 'OB0212570', 'OB0212581', 'OB0212586', 'OB0212641', 'OB0212657', 'OB0212682', 'OB0212738', 'OB0212743', 'OB0212764', 'OB0212765', 'OB0212768', 'OB0212769', 'OB0212822', 'OB0212836', 'OB0212874', 'OB0212880', 'OB0212889', 'OB0212914', 'OB0212965', 'OB0212985', 'OB0212991', 'OB0212995', 'OB0213011', 'OB0213020', 'OB0213052', 'OB0213062', 'OB0213065', 'OB0213118', 'OB0213124', 'OB0213133', 'OB0213137', 'OB0213157', 'OB0213160', 'OB0213180', 'OB0213187', 'OB0213190', 'OB0213199', 'OB0213201', 'OB0213210', 'OB0213228', 'OB0213265', 'OB0213284', 'OB0213301', 'OB0213313', 'OB0213325', 'OB0213328', 'OB0213343', 'OB0213344', 'OB0213352', 'OB0213382', 'OB0213392', 'OB0213402', 'OB0213410', 'OB0213423', 'OB0213442', 'OB0213464', 'OB0213468', 'OB0213488', 'OB0213538', 'OB0213539', 'OB0213541', 'OB0213546', 'OB0213557', 'OB0213558', 'OB0213581', 'OB0213590', 'OB0213603', 'OB0213605', 'OB0213608', 'OB0213621', 'OB0213645', 'OB0213653', 'OB0213699', 'OB0213712', 'OB0213731', 'OB0213741', 'OB0213812', 'OB0213815', 'OB0213824', 'OB0213825', 'OB0213828', 'OB0213833', 'OB0213839', 'OB0213850', 'OB0213866', 'OB0213906', 'OB0213932', 'OB0214006', 'OB0214050', 'OB0214101', 'OB0214112', 'OB0214120', 'OB0214154', 'OB0214158', 'OB0214178', 'OB0214208', 'OB0214217', 'OB0214220', 'OB0214230', 'OB0214264', 'OB0214312', 'OB0214338', 'OB0214344', 'OB0214350', 'OB0214367', 'OB0214407', 'OB0214413', 'OB0214434', 'OB0214435', 'OB0214460', 'OB0214476', 'OB0214510', 'OB0214513', 'OB0214517', 'OB0214520', 'OB0214536', 'OB0214545', 'OB0214555', 'OB0214571', 'OB0214581', 'OB0214589', 'OB0214682', 'OB0214697', 'OB0214703', 'OB0214708', 'OB0214714', 'OB0214737', 'OB0214740', 'OB0214770', 'OB0214772', 'OB0214788', 'OB0214793', 'OB0214799', 'OB0214814', 'OB0214830', 'OB0214831', 'OB0214838', 'OB0214920', 'OB0214922', 'OB0214963', 'OB0214978', 'OB0215014', 'OB0215022', 'OB0215023', 'OB0215027', 'OB0215031', 'OB0215069', 'OB0215110', 'OB0215117', 'OB0215121', 'OB0215130', 'OB0215173', 'OB0215178', 'OB0215184', 'OB0215188', 'OB0215290', 'OB0215305', 'OB0215309', 'OB0215315', 'OB0215323', 'OB0215330', 'OB0215346', 'OB0215356', 'OB0215363', 'OB0215384', 'OB0215396', 'OB0215421', 'OB0215434', 'OB0215453', 'OB0215456', 'OB0215459', 'OB0215475', 'OB0215490', 'OB0215502', 'OB0215521', 'OB0215531', 'OB0215535', 'OB0215560', 'OB0215570', 'OB0215584', 'OB0215592', 'OB0215621', 'OB0215622', 'OB0215626', 'OB0215645', 'OB0215657', 'OB0215663', 'OB0215676', 'OB0215691', 'OB0215745', 'OB0215796', 'OB0215894', 'OB0215913', 'OB0215925', 'OB0215947', 'OB0215978', 'OB0215986', 'OB0216024', 'OB0216054', 'OB0216068', 'OB0216079', 'OB0216137', 'OB0216142', 'OB0216180', 'OB0216204', 'OB0216237', 'OB0216265', 'OB0216327', 'OB0216340', 'OB0216363', 'OB0216371', 'OB0216384', 'OB0216389', 'OB0216399', 'OB0216430', 'OB0216446', 'OB0216450', 'OB0216488', 'OB0216490', 'OB0216500', 'OB0216505', 'OB0216507', 'OB0216527', 'OB0216533', 'OB0216547', 'OB0216550', 'OB0216637', 'OB0216655', 'OB0216674', 'OB0216675', 'OB0216724', 'OB0216760', 'OB0216768', 'OB0216773', 'OB0216822', 'OB0216824', 'OB0216838', 'OB0216850', 'OB0216858', 'OB0216886', 'OB0216900', 'OB0216924', 'OB0216940', 'OB0216953', 'OB0216994', 'OB0216995', 'OB0217015', 'OB0217016', 'OB0217019', 'OB0217028', 'OB0217038', 'OB0217041', 'OB0217088', 'OB0217107', 'OB0217172', 'OB0217245', 'OB0217291', 'OB0217340', 'OB0217384', 'OB0217404', 'OB0217419', 'OB0217445', 'OB0217475', 'OB0217477', 'OB0217492', 'OB0217519', 'OB0217554', 'OB0217585', 'OB0217619', 'OB0217625', 'OB0217639', 'OB0217651', 'OB0217655', 'OB0217729', 'OB0217780', 'OB0217819', 'OB0217824', 'OB0217830', 'OB0217838', 'OB0217850', 'OB0217985', 'OB0217996', 'OB0218005', 'OB0218018', 'OB0218058', 'OB0218063', 'OB0218068', 'OB0218075', 'OB0218085', 'OB0218112', 'OB0218128', 'OB0218137', 'OB0218166', 'OB0218172', 'OB0218223', 'OB0218256', 'OB0218271', 'OB0218286', 'OB0218335', 'OB0218341', 'OB0218349', 'OB0218364', 'OB0218372', 'OB0218375', 'OB0218376', 'OB0218377', 'OB0218390', 'OB0218393', 'OB0218418', 'OB0218439', 'OB0218471', 'OB0218483', 'OB0218491', 'OB0218553', 'OB0218562', 'OB0218569', 'OB0218579', 'OB0218586', 'OB0218640', 'OB0218645', 'OB0218678', 'OB0218744', 'OB0218790', 'OB0218798', 'OB0218807', 'OB0218808', 'OB0218810', 'OB0218817', 'OB0218829', 'OB0218862', 'OB0218878', 'OB0218942', 'OB0218963', 'OB0218990', 'OB0219013', 'OB0219015', 'OB0219017', 'OB0219026', 'OB0219062', 'OB0219074', 'OB0219084', 'OB0219101', 'OB0219102', 'OB0219111', 'OB0219126', 'OB0219128', 'OB0219131', 'OB0219142', 'OB0219143', 'OB0219147', 'OB0219175', 'OB0219177', 'OB0219185', 'OB0219217', 'OB0219220', 'OB0219224', 'OB0219234', 'OB0219246', 'OB0219251', 'OB0219258', 'OB0219266', 'OB0219277', 'OB0219285', 'OB0219287', 'OB0219292', 'OB0219297', 'OB0219304', 'OB0219341', 'OB0219349', 'OB0219368', 'OB0219390', 'OB0219392', 'OB0219398', 'OB0219417', 'OB0219421', 'OB0219428', 'OB0219437', 'OB0219455', 'OB0219468', 'OB0219475', 'OB0219481', 'OB0219487', 'OB0219494', 'OB0219499', 'OB0219503', 'OB0219512', 'OB0219515', 'OB0219516', 'OB0219539', 'OB0219556', 'OB0219562', 'OB0219585', 'OB0219596', 'OB0219616', 'OB0219618', 'OB0219624', 'OB0219630', 'OB0219656', 'OB0219666', 'OB0219678', 'OB0219682', 'OB0219684', 'OB0219685', 'OB0219686', 'OB0219694', 'OB0219701', 'OB0219713', 'OB0219714', 'OB0219720', 'OB0219731', 'OB0219734', 'OB0219735', 'OB0219738', 'OB0219740', 'OB0219743', 'OB0219761', 'OB0219780', 'OB0219781', 'OB0219805', 'OB0219809', 'OB0219825', 'OB0219828', 'OB0219841', 'OB0219842', 'OB0219855', 'OB0219858', 'OB0219860', 'OB0219866', 'OB0219870', 'OB0219876', 'OB0219888', 'OB0219903', 'OB0219911', 'OB0219926', 'OB0219931', 'OB0219933', 'OB0219934', 'OB0219961', 'OB0219971', 'OB0219973', 'OB0219980', 'OB0219989', 'OB0220005', 'OB0220023', 'OB0220028', 'OB0220043', 'OB0220049', 'OB0220052', 'OB0220066', 'OB0220079', 'OB0220089', 'OB0220090', 'OB0220096', 'OB0220131', 'OB0220140', 'OB0220152', 'OB0220155', 'OB0220158', 'OB0220161', 'OB0220181', 'OB0220227', 'OB0220229', 'OB0220295', 'OB0220301', 'OB0220309', 'OB0220310', 'OB0220314', 'OB0220333', 'OB0220334', 'OB0220351', 'OB0220358', 'OB0220369', 'OB0220375', 'OB0220376', 'OB0220382', 'OB0220405', 'OB0220408', 'OB0220413', 'OB0220419', 'OB0220426', 'OB0220439', 'OB0220448', 'OB0220453', 'OB0220461', 'OB0220471', 'OB0220478', 'OB0220480', 'OB0220521', 'OB0220574', 'OB0220597', 'OB0220620', 'OB0220624', 'OB0220659', 'OB0220674', 'OB0220678', 'OB0220685', 'OB0220686', 'OB0220687', 'OB0220688', 'OB0220704', 'OB0220726', 'OB0220727', 'OB0220731', 'OB0220741', 'OB0220745', 'OB0220761', 'OB0220765', 'OB0220771', 'OB0220803', 'OB0220804', 'OB0220818', 'OB0220836', 'OB0220847', 'OB0220869', 'OB0220926', 'OB0220949', 'OB0220954', 'OB0220967', 'OB0220968', 'OB0220980', 'OB0220985', 'OB0221002', 'OB0221007', 'OB0221010', 'OB0221018', 'OB0221026', 'OB0221027', 'OB0221029', 'OB0221034', 'OB0221036', 'OB0221039', 'OB0221041', 'OB0221043', 'OB0221052', 'OB0221068', 'OB0221098', 'OB0221118', 'OB0221119', 'OB0221140', 'OB0221147', 'OB0221157', 'OB0221169', 'OB0221181', 'OB0221189', 'OB0221200', 'OB0221201', 'OB0221220', 'OB0221235', 'OB0221239', 'OB0221244', 'OB0221271', 'OB0221277', 'OB0221291', 'OB0221297', 'OB0221311', 'OB0221334', 'OB0221363', 'OB0221384', 'OB0221400', 'OB0221404', 'OB0221411', 'OB0221412', 'OB0221425', 'OB0221429', 'OB0221431', 'OB0221448', 'OB0221461', 'OB0221467', 'OB0221474', 'OB0221482', 'OB0221491', 'OB0221509', 'OB0221530', 'OB0221532', 'OB0221551', 'OB0221552', 'OB0221567', 'OB0221571', 'OB0221584', 'OB0221588', 'OB0221610', 'OB0221619', 'OB0221622', 'OB0221631', 'OB0221639', 'OB0221641', 'OB0221670', 'OB0221675', 'OB0221682', 'OB0221694', 'OB0221726', 'OB0221760', 'OB0221761', 'OB0221791', 'OB0221796', 'OB0221820', 'OB0221821', 'OB0221837', 'OB0221844', 'OB0221849', 'OB0221865', 'OB0221877', 'OB0221878', 'OB0221900', 'OB0221902', 'OB0221921', 'OB0221930', 'OB0221953', 'OB0221970', 'OB0221989', 'OB0221992', 'OB0221999', 'OB0222010', 'OB0222012', 'OB0222013', 'OB0222046', 'OB0222095', 'OB0222104', 'OB0222107', 'OB0222116', 'OB0222119', 'OB0222123', 'OB0222127', 'OB0222129', 'OB0222159', 'OB0222164', 'OB0222171', 'OB0222191', 'OB0222217', 'OB0222233', 'OB0222243', 'OB0222259', 'OB0222281', 'OB0222293', 'OB0222313', 'OB0222339', 'OB0222352', 'OB0222374', 'OB0222382', 'OB0222408', 'OB0222411', 'OB0222436', 'OB0222460', 'OB0222468', 'OB0222480', 'OB0222491', 'OB0222535', 'OB0222550', 'OB0222557', 'OB0222599', 'OB0222604', 'OB0222611', 'OB0222621', 'OB0222648', 'OB0222680', 'OB0222703', 'OB0222721', 'OB0222724', 'OB0222732', 'OB0222742', 'OB0222752', 'OB0222756', 'OB0222760', 'OB0222761', 'OB0222766', 'OB0222774', 'OB0222780', 'OB0222782', 'OB0222792', 'OB0222808', 'OB0222812', 'OB0222815', 'OB0222850', 'OB0222856', 'OB0222857', 'OB0222861', 'OB0222880', 'OB0222882', 'OB0222890', 'OB0222897', 'OB0222898', 'OB0222903', 'OB0222915', 'OB0222920', 'OB0222921', 'OB0222924', 'OB0222941', 'OB0222960', 'OB0223001', 'OB0223032', 'OB0223038', 'OB0223041', 'OB0223068', 'OB0223071', 'OB0223081', 'OB0223085', 'OB0223091', 'OB0223093', 'OB0223111', 'OB0223118', 'OB0223165', 'OB0223176', 'OB0223206', 'OB0223210', 'OB0223213', 'OB0223222', 'OB0223228', 'OB0223240', 'OB0223243', 'OB0223317', 'OB0223332', 'OB0223342', 'OB0223343', 'OB0223345', 'OB0223355', 'OB0223368', 'OB0223369', 'OB0223374', 'OB0223421', 'OB0223434', 'OB0223449', 'OB0223464', 'OB0223466', 'OB0223472', 'OB0223473', 'OB0223479', 'OB0223484', 'OB0223495', 'OB0223517', 'OB0223522', 'OB0223523', 'OB0223547', 'OB0223558', 'OB0223579', 'OB0223580', 'OB0223604', 'OB0223606', 'OB0223616', 'OB0223657', 'OB0223675', 'OB0223677', 'OB0223681', 'OB0223686', 'OB0223692', 'OB0223693', 'OB0223723', 'OB0223732', 'OB0223745', 'OB0223748', 'OB0223768', 'OB0223771', 'OB0223798', 'OB0223804', 'OB0223819', 'OB0223854', 'OB0223894', 'OB0223931', 'OB0223966', 'OB0223991', 'OB0224003', 'OB0224008', 'OB0224011', 'OB0224013', 'OB0224034', 'OB0224041', 'OB0224044', 'OB0224046', 'OB0224066', 'OB0224070', 'OB0224076', 'OB0224079', 'OB0224112', 'OB0224126', 'OB0224142', 'OB0224148', 'OB0224156', 'OB0224160', 'OB0224163', 'OB0224172', 'OB0224184', 'OB0224188', 'OB0224207', 'OB0224236', 'OB0224275', 'OB0224278', 'OB0224279', 'OB0224296', 'OB0224313', 'OB0224319', 'OB0224329', 'OB0224339', 'OB0224342', 'OB0224367', 'OB0224378', 'OB0224385', 'OB0224414', 'OB0224426', 'OB0224462', 'OB0224467', 'OB0224475', 'OB0224498', 'OB0224499', 'OB0224539', 'OB0224570', 'OB0224577', 'OB0224605', 'OB0224628', 'OB0224634', 'OB0224644', 'OB0224655', 'OB0224673', 'OB0224674', 'OB0224681', 'OB0224689', 'OB0224713', 'OB0224726', 'OB0224752', 'OB0224754', 'OB0224760', 'OB0224761', 'OB0224781', 'OB0224782', 'OB0224789', 'OB0224792', 'OB0224822', 'OB0224836', 'OB0224843', 'OB0224860', 'OB0224886', 'OB0224892', 'OB0224897', 'OB0224928', 'OB0224930', 'OB0224960', 'OB0224968', 'OB0224971', 'OB0224994', 'OB0224999', 'OB0225021', 'OB0225052', 'OB0225057', 'OB0225089', 'OB0225096', 'OB0225117', 'OB0225118', 'OB0225151', 'OB0225153', 'OB0225157', 'OB0225169', 'OB0225179', 'OB0225190', 'OB0225191', 'OB0225205', 'OB0225212', 'OB0225218', 'OB0225226', 'OB0225230', 'OB0225246', 'OB0225249', 'OB0225254', 'OB0225256', 'OB0225305', 'OB0225306', 'OB0225310', 'OB0225314', 'OB0225315', 'OB0225327', 'OB0225341', 'OB0225347', 'OB0225355', 'OB0225358', 'OB0225359', 'OB0225372', 'OB0225381', 'OB0225386', 'OB0225416', 'OB0225417', 'OB0225422', 'OB0225447', 'OB0225466', 'OB0225482', 'OB0225499', 'OB0225501', 'OB0225502', 'OB0225505', 'OB0225513', 'OB0225544', 'OB0225548', 'OB0225558', 'OB0225563', 'OB0225569', 'OB0225571', 'OB0225574', 'OB0225624', 'OB0225626', 'OB0225629', 'OB0225633', 'OB0225641', 'OB0225656', 'OB0225666', 'OB0225676', 'OB0225684', 'OB0225692', 'OB0225697', 'OB0225703', 'OB0225713', 'OB0225726', 'OB0225751', 'OB0225793', 'OB0225806', 'OB0225832', 'OB0225834', 'OB0225886', 'OB0225888', 'OB0225905', 'OB0225915', 'OB0225938', 'OB0225960', 'OB0226029', 'OB0226036', 'OB0226041', 'OB0226042', 'OB0226043', 'OB0226047', 'OB0226100', 'OB0226132', 'OB0226149', 'OB0226159', 'OB0226181', 'OB0226188', 'OB0226196', 'OB0226273', 'OB0226300', 'OB0226309', 'OB0226319', 'OB0226333', 'OB0226345', 'OB0226362', 'OB0226365', 'OB0226383', 'OB0226385', 'OB0226400', 'OB0226402', 'OB0226407', 'OB0226421', 'OB0226453', 'OB0226462', 'OB0226468', 'OB0226469', 'OB0226470', 'OB0226479', 'OB0226483', 'OB022</t>
         </is>
@@ -718,18 +751,26 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>silver birches , WHITECROSS LANE</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>FORDHAM ROAD</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>6208311</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>46409</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t xml:space="preserve">["'BODICOTE', 3 CAMBRIDGE AV, BURNHAM", "'EIDELWEISS', COTON HAYES, MILWICH", "'ELENORE', SHRUBCOTE", "'HUNTERS MOON', RHEDA PARK", "'KYAWANA', GOURDERS LANE, KINGSKERSWELL", "'LOGANRUSH', WYMINGTON LANE", "'OCEAN WELLS', SHAP", "'REAR'  5 PEACOCK STREET WEST, PALLION", "'WALNUT MILL', 107 CHEQUERS ROAD, MINSTER ON SEA", "'Y' BONT, SOUTH ROAD", '(BEHIND) UNIT 10, PONTNEWYNYDD INDUSTRIAL ESTATE, PONTNEWYNYDD', '(F H BATES), NORTH END, SWINESHEAD', '(IN ADMINISTRATION), BEGBIES TRAYNOR, 9TH FLOOR, 9 BOND COURT', '(OFF DYCE DRIVE), DYCE', '(REAR OF ST JOHNS), RADSTOCK ROAD, MIDSOMER NORTON', '(REAR OF) 2 BLOORS LANE, RAINHAM', '(REAR OF) 7 HIGH STREET, PENSNETT', '(REAR OF) RICHARD STREET, HETTON-LE-HOLE', ', PURBROOK ROAD', ', STATION ROAD', ', THURLEIGH AIRFIELD BUSINESS PARK, THURLEIGH', ',29  MELROSE AVENUE', ',3  SILVERTREES ROAD', ',3 Tanrallt', ',388  LORDS WOOD LANE, WALDERSLADE', '02 BOUNDARY WAY, HEMEL HEMPSTEAD INDUSTRIAL ESTATE', '02 STRICKLAND COURT, CORNEY SQUARE', '03 BANKHEAD AVENUE, BANKHEAD INDUSTRIAL ESTATE', '07 WINDSOR GARDENS', '1  HODGKINSON ROAD, FELIXSTOWE, SUFFOLK', '1  LOCHFIELD ROAD, SUMMERVILLE', '1  MCKAY TRADING ESTATE, BLACKTHORNE ROAD, COLNBROOK', '1  SHORTWOOD COMMON', '1 &amp; 2 RACKHAM &amp; SONS LTD, THE COMMON, STUSTON', '1 &amp; 2, HARMONY HOUSE, TRELEIGH INDUSTRIAL ESTATE, JON DAVEY DRIVE', '1 , LAKING AVENUE', '1 , WENTWORTH GARDENS, ST THOMAS', '1 - 2 THE COTTAGES, NORTHFLEET GREEN, SOUTHFLEET', '1 - 3 SCHOOL GREEN, SHINFIELD', '1 ABBEY VIEW ROAD, PINVIN', '1 ABINGDON RD', '1 ADAMS COURT, ADAMS HILL', '1 ADAMS DRIVE, ROTHWELL', '1 ADMIRAL WAY, DOXFORD INTERNATIONAL BUSINESS PARK', '1 ADWELL DRIVE, LOWER EARLEY', '1 AEL Y BRYN, WAUNFAWR', '1 AHMOR', '1 AIDAN ROAD, AMBLE', '1 AIREDALE VIEW, CROSS HILLS', '1 AIRFIELD FARM COTTAGE, COUSLAND', '1 AITKEN AV', '1 AITKENHEAD AV, KIRKWOOD', '1 ALANDENE AVENUE, WATNALL', '1 ALBANS VIEW, LEAVESDEN', '1 ALBION COURT, WOODVILLE STREET', '1 ALDENS BUSINESS COURT, 7A CHUDLEIGH ROAD, ALPLINGTON', '1 ALDER COURT, RENNIE HOGG ROAD', '1 ALDERMAN GARDENS', '1 ALDINGTON COTTAGE, PILGRIMS WAY, THURNHAM', '1 ALEXANDER COTTAGE, PITSFORD ROAD, CHAPEL BRAMPTON', '1 ALEXANDRA ROAD', '1 ALMA ST', '1 ALMA STREET', '1 ALYN TERRACE, WREXHAM ROAD, PONTBLYDDYN', '1 AMBER RISE', '1 AMIS CLOSE', '1 ANEURIN ROAD', '1 ANGUS RD, SCONE', '1 ANGUS ROAD, SCONE', '1 ANSON CLOSE', '1 ANSULT COURT, BENTLEY', '1 ANTONINE ST, CAMELON', '1 ARDESSIE, DUNDONNELL', '1 ARMITAGE GARDENS', '1 ASHDALE ROAD', '1 ASHLINE GROVE, WHITTLESEY', '1 ASHWATER CLOSE, SINFIN', '1 ASHWOOD MEADOWS, HORDEN', '1 ATHELSTAN RD, HAROLD WOOD', '1 ATHERSTONE CLOSE', '1 AUDLEY STREET, MOSSLEY', '1 AVEBURY CLOSE', '1 AYTON RD, SEAMER', '1 AYTON ROAD, SEAMER', '1 BAILIFFS CLOSE', '1 BALDWIN ROAD, BURNHAM', '1 BALMORAL ROAD', '1 BALTIC PL', '1 BANISTER GARDENS', '1 BANKEND ORCHARD, COTTON STREET', '1 BANKWOOD, WARREN STREET ROAD, CHARING', '1 BAR HILL PLACE, KILSYTH', '1 BARKERS LANE', '1 BARKING CLOSE', '1 BARLOW WAY SOUTH, FAIRVIEWS INDUSTRIAL ESTATE, MARSH WAY', '1 BARNFORDHILL CLOSE', '1 BARNWELL CLOSE, STRAMSHALL', '1 BARRINGTON COURT, WARD ROAD, BUCKINGHAM ROAD INDUSTRIAL ESTATE', '1 BARRINGTON ROAD, ORWELL', '1 BARTON TERRACE, FAULDHOUSE', '1 BASILDON BUSINESS CENTRE, BENTALLS', '1 BAURCH,, RIGG', '1 BELFRY ROAD, CROSS GREEN APPROACH, CROSS GREEN INDUSTRIAL ESTATE', '1 BELLA VISTA, PATH HILL, GORING HEATH', '1 BELLFIELD, LITTLE BRECHIN', '1 BELSTANE ROAD, BLAIRLINN IND EST, CUMBERNAULD', '1 BENTLEY DRIVE, SYDNEY', '1 BERACHAH ROAD', '1 BERESFORD ROAD, CHAPEL-EN-LE-FRITH', '1 BERKELEY DRIVE, READ', '1 BETTY COCKER GROVE', '1 BEULAH VILLAS, LUXFORD LANE', '1 BEUZEVILLE AVENUE', '1 BIRCH GR', '1 BIRCH GROVE', '1 BISHOP NORTON ROAD, SNITTERBY', '1 BLACK CROFTS, NORTH CONNEL', '1 BLACKBROOK AVENUE', '1 BLACKBROOK AVENUE, CHESTERTON', '1 BLACKHORSE RD, EXHALL', '1 BLACKWATER, NEWMARKET', '1 BLAKEHURST WY', '1 BLOCKLEY ROAD', '1 BOGGIE SHALLOCH PLACE', '1 BOGMORE COTTAGES, DRUMOAK', '1 BOLDGROVE STREET, EARLSHEATON', '1 BORINGDON PARK, WOODLANDS', '1 BORRODALE, GLENDALE', '1 BOUNDARY CLOSE, ANERLEY', '1 BOURNEWOOD CLOSE, DOWNSWOOD', '1 BOWDEN AVENUE, BESTWOOD VILLAGE', '1 BOWLAND ROAD, DENTON', '1 BOYLES YARD, LOW ROAD, OSGODBY', '1 BRAYTON GDNS, ASPATRIA', '1 BRIARBUSH, PENPONT', '1 BRIDGE MEADOW CLOSE, SEDGEBERROW', '1 BRIDGEND, ELDERSFIELD', '1 BRIDGETURN AVENUE, OLD WOLVERTON', '1 BRINWELL ROAD OFFICES, SOUTH SHORE', '1 BRO CLOION, CLAWDDNEWYDD', '1 BROADLANDS DRIVE', '1 BROADWELL COTTAGE, BROADWELL LANE, PATTINGHAM', '1 BROCKHAM DRIVE, GANTSHILL', '1 BROOK CLOSE', '1 BROOK LANE, 1 BROOK LANE', '1 BROOKLYN ROAD', '1 BROOMFIELD COTTAGE, COGGESHALL ROAD, EARLS COLNE', '1 BROWN STREET', '1 BRYANT AVENUE', '1 BRYN AFON TERRACE, LLANRUG', '1 BRYN CELYN, LLANSAMLET', '1 BRYN CLYWEDOG, COEDPOETH', '1 BRYN DINAS, GLANYPWLL', '1 BRYN FFYNON', '1 BRYN MAELOR, SOUTHSEA', '1 BUBWITH ROAD', '1 BURLEY AVENUE, DOWNEND', '1 BURNS CLOSE, BRYN, ASHTON-IN-MAKERFIELD', '1 BURSNIPS ROAD, ESSINGTON', '1 BUSHFIELD, PENTON', '1 BUXTON STREET', '1 BYFIELD DRIVE, THE MEADOWS', '1 BYFLEET AVENUE, OLD BASING', '1 BYRON STREET', '1 CAE PENTRE, SINGRETT HILL, GRESFORD', '1 CAIRNFIELD FARM COTTAGE, LADYBANK', '1 CALEDONIA PLACE, STATION ROAD', '1 CALEY COTTAGES, HIGH FOSHAM, MARTON', '1 CAMBRIA BRIDGE ROAD', '1 CAMP CLOSE, FELTWELL', '1 CAMUSNAGAUL, DUNDONNELL', '1 CAPITOL CLOSE, MORLEY', '1 CARBIS CL, MONK BRETTON', '1 CARDALE PK, BECKWITH HEAD RD', '1 CARLTON RD, HELMSLEY', '1 CARLTON ROAD', '1 CARLTON WAY, ROYTON', '1 CARR LANE, WENDLING', '1 CARSEGATE ROAD SOUTH, CARSE INDUSTRIAL ESTATE', '1 CARTGATE FOOT, BURNT PLATTS LANE, SLAITHWAITE', '1 CASTLE OF PK, GLENLUCE', '1 CASTLE VIEW, OVINGHAM', '1 CAVENDISH AVENUE', '1 CAVENDISH WHARF, DUKE STREET', '1 CAVERTON MAINS', '1 CEDAR ROAD, CHADWELL ST MARY', '1 CEMETERY ROAD, WOMBWELL', '1 CENTRAL AVENUE', '1 CENTRAL AVENUE, AMBLE', '1 CENTRAL CLOSE, SHIREBROOK', '1 CHALKDELL FIELDS', '1 CHANONRY STREET', '1 CHAPEL HOUSE, CHAPEL YARD, POTTON', '1 CHAPEL VIEW, KINGSWOOD', '1 CHAPEL VIEW, THRIMBY', '1 CHARMWOOD FARM, CHARMWOOD LANE', '1 CHARTWELL ROAD, KINGSNORTH', '1 CHEQUER TREE COTTAGE, (OFF FRITH ROAD), MERSHAM', '1 CHEQUER TREE COTTAGE, OFF FRITH ROAD, MERSHAM', '1 CHERRY HOLT ROAD', '1 CHESHAM FOLD ROAD', '1 CHESTNUT COTTAGE, NEWMANS END, MATCHING TYE', '1 CHETWODE CLOSE, PAGE HILL', '1 CHILTERN CLOSE', '1 CHOATS COTTAGES, HALSTEAD ROAD, EIGHT ASH GREEN', '1 CHRISTCHURCH AVENUE', '1 CHUDLEIGH ROAD', '1 CHURCH BANK IND EST', '1 CHURCH COURT, CHURCH WAY', '1 CHURCH FARM COTTAGES, HARDLEY', '1 CHURCH LANE AVENUE, OUTWOOD', '1 CHURCH LANE COTTAGE, CHURCH LANE, WHITECHAPEL', '1 CHURCH LANE, BRINSLEY', '1 CHURCH LANE, CULCHETH', '1 CHURCH ST', '1 CHURCH STREET', '1 CHURCH STREET, BRIERLEY', '1 CHURCH STREET, MOXLEY', '1 CHURCH VIEW, RUSKINGTON', '1 CHURCH WALK', '1 CHURSTON DRIVE', '1 CINNAMON HILL DRIVE NORTH, WALTON-LE-DALE', '1 CLASHBURN ROAD, BRIDGEND INDUSTRIAL ESTATE', '1 CLAYBORN VIEW', '1 CLEARFIELD AVENUE', '1 CLIVE ROAD', '1 CLOS HERMON, PEMBREY', '1 CLOVER COURT, BRANSTON', '1 CLUNY COTTAGES, CASTLEBAY', '1 CLYDESDALE AV', '1 COAST, POOLEWE, INVERASDALE', '1 COBHAM VILLAS, LONGDEN', '1 COLE RD, ST. PHILIPS', '1 COLE ROAD', '1 COLLEGE AVENUE', '1 COLVILLE COURT, WINWICK QUAY', '1 COMMON ROAD', '1 CONCORDE ROAD', '1 CONEYGEAR ROAD, HARTFORD', '1 CONISTON AV, PERIVALE', '1 CONISTON RD, MELTHAM', '1 CONYBEARE CLOSE', '1 CONYBEARE RD, SULLY', '1 COOK WAY, NORTH WEST INDUSTRIAL ESTATE', '1 COPPULL ROAD', '1 COPSE CNR, STOUR ROW', '1 CORNWALL DR, BAYSTON HILL', '1 COTSIDE FARM COTTAGE, MAIN STREET, BARRY', '1 COTSWOLD WAY, HUNTINGTON', '1 COUNTESS WALK, STAPLETON', '1 COURT DRIVE', '1 COURT GARDENS, COURT GARDEN COTTAGE, HARESFIELD', '1 COURT TREE DRIVE, EASTCHURCH', '1 COVENT GARDEN CLOSE', '1 COWLEY BUSINESS PARK, HIGH STREET, COWLEY', '1 CRABTREE LANE, HIGH ERCALL', '1 CRADDOCK DR, QUORN', '1 CRAIGNANT, NANTMEL', '1 CRAW PARK', '1 CREEK ROAD', '1 CRICKS ROAD, WEST ROW', '1 CROMWELL HOUSE, 17 BROMLEY COMMON', '1 CROMWELL ROAD', '1 CROSS STREET, KETTLEBROOK', '1 CROSTON LANE, CHARNOCK RICHARD', '1 CROW BOTTOMS, GAS WORKS LANE, ELLAND, HALIFAX', '1 CROWN CLOSE', '1 CROWN LANE COTTAGE, ROSEMARY LANE, BARTLE', '1 CULLODEN AVENUE', '1 CULLS FARM COTTAGES, DEAN STREET, EAST FARLEIGH', '1 CULVERHAY CLOSE, PURITON', '1 CWMAVON RD, BLAENAVON', '1 DALES PLACE', '1 DALYS ROAD', '1 DARLINGTON CLOSE', '1 DARLTON DRIVE, ARNOLD', '1 DEENESIDE, WELDON', '1 DERWENT CLOSE, MARDALE ROAD', '1 DERWENT DRIVE, SELSTON', '1 DICKENS CLOSE, LANGLEY', '1 DILLICHIP LOAN, BONHILL', '1 DILMORE AVENUE, FERNHILL HEATH', '1 DONCASTER ROAD, BAWTRY', '1 DORAN GARDENS, DORAN DRIVE', '1 DORSET STREET, HINDLEY', '1 DOSELEY ROAD NORTH, DAWLEY', '1 DOUAY ROAD', '1 DOWNHAM WALK, BILLINGE', '1 DRUMPARK ST, ST. NINIANS', '1 DRYFESDALE COURT', '1 DRYNOCH, CARBOST', '1 DUDLEY ST, PARKGATE', '1 DUNDEE WAY, BRIMSDOWN', '1 DUNLOP SQUARE, DEANS INDUSTRIAL ESTATE, DEANS', '1 DYKESCROFT, MOSCOW', '1 EARLISH, PORTREE', '1 EARLS CRESCENT', '1 EAST COURT COTTAGES, LOWER HIGHAM ROAD', '1 EAST ELRINGTON FARM COTTAGE, EAST ELRINGTON', '1 EAST VIEW, HALL ROAD, WENHASTON', '1 EAST VIEW, MARKET STREET, HAMBLETON', '1 EASTCOURT COTTAGES, LOWER HIGHAM ROAD', '1 EASTERTOUN GDNS, ARMADALE', '1 EASTFIELDS, (OFF ROKE LANE), WITLEY', '1 EASTLEIGH CLOSE', '1 EASTNOR CLOSE', '1 EASTWOOD PLACE, HARTFORD GREEN', '1 ECCLESGATE ROAD, MARTON MOSS', '1 EDINBURGH ROAD, CHURCH GRESLEY', '1 EDISON ROAD, CHURCHFIELDS', '1 EDWARD CLOSE, LITTLE CLACTON', '1 ELCOAT TERRACE', '1 ELDER CLOSE, HEATH HAYES', '1 EMBASSY ROAD', '1 ENTERPRISE WAY, AVIATION PARK, BOURNEMOUTH INTERNATIONAL AIRPORT, HURN', '1 ENTERPRISE WAY, AVIATION PARK, HURN', '1 EPPLETONS FARM, CHAFFCOMBE, COPPLESTONE', '1 ERRINGTON STREET, BEBSIDE', '1 ESSEX AVENUE', '1 EURO COURT, OLIVER CLOSE', '1 FABRIC VIEW, HOLMEWOOD, NORTH WINGFIELD', '1 FAIR OAK CLOSE, EXETER AIRPORT BUSINESS PARK, CLYST HONITON', '1 FAIR VIEW, THE COMMON, GRENDON', '1 FAIRFIELD, STATION ROAD, NORTH CAVE', '1 FAIROAK LANE, WHITEHOUSE INDUSTRIAL ESTATE', '1 FAIRVIEW, GALE', '1 FALCON WAY, SHIRE PARK', '1 FARADAY CLOSE', '1 FARMHILL CLOSE, CUSWORTH', '1 FARROW CLOSE, GREAT MOULTON', '1 FEATHERBY PLACE, OFF HIGH STREET', '1 FERNSIDE AVENUE', '1 FETHEN VIEW, GLEN ESTATE', '1 FFOREST VIEW, WOODLAND RISE', '1 FIELDBANK ROAD', '1 FIELDFARE', '1 FIRBANK AVENUE, TORRANCE', '1 FIRTREE AV', '1 FOREST DRIVE, ORMESBY', '1 FOSTER STREET, STONEFERRY', '1 FOUNDERS ROAD', '1 FOUR LANE ENDS COTTAGES, WORSTON ROAD, PENDLETON', '1 FOUR LANE ENDS, WORSTON ROAD, PENDLETON', '1 FOURWAYS, CHURCH HILL, WEST END', '1 FOXGLOVE CLOSE', '1 FRANKTON CLOSE, MONKMOOR', '1 FREDRICKS CLOSE, COLCHESTER ROAD, WIX', '1 FREESLAND RISE', '1 FROME ROAD, WEST END, CHARTWELL GREEN', '1 FUGGLES YARD, NORFOLK', '1 FURLONG LANE, BURSLEM', '1 GADLYS COTTAGES, CHURCH ROAD, LLANBERIS', '1 GALLOPING GREEN FARM CLOSE', '1 GALLOPING GREEN FARM CLOSE, EIGHTON BANKS', '1 GALMINGTON DRIVE', '1 GARDEN CLOSE', '1 GARNETT CLOSE, GREYCAINE ESTATE', '1 GARRET PLACE, CUMBERNAULD', '1 GAUNTS ROAD, CHIPPING SODBURY', '1 GEORGE STEPHENSON DRIVE', '1 GEORGE STREET', '1 GILPIN HOUSE, LEVENS', '1 GLADSTONE TERRACE, VARTEG', '1 GLAN PELENNA, PONTRHYDYFEN', '1 GLAN TRANNON, TREFEGLWYS', '1 GLASTONBURY AVENUE', '1 GLEN PARVA AVENUE, REDHILL', '1 GLENSHIEL AVENUE', '1 GLENTWORTH ROAD, KEXBY', '1 GLENWOOD COTTAGES, MIDMAR', '1 GLYNCOED, FOUR ROADS', '1 GORDON COTTAGES, BOLTON LE SANDS', '1 GRANGE ROAD', '1 GRANTHAM DR', '1 GRASMERE AVENUE, LITTLE LEVER', '1 GRAYS COTTAGES, TOMKYNS LA, UPMINSTER COMMON', '1 GRAYS ROAD, UDDINGSTON', '1 GRAYTHORP INDUSTRIAL ESTATE', '1 GREAT HOLTS COTTAGES, WALTHAM ROAD, BOREHAM', '1 GREAT SNORING RD, HINDRINGHAM', '1 GREBE CLOSE, SUTTON BRIDGE', '1 GREEN BANK, WHEEL LANE, PILLING', '1 GREEN WALK, WHALLEY RANGE', '1 GREENFIELD AVENUE', '1 GREENSHIELD INDUSTRIAL ESTATE, BRADFIELD ROAD', '1 GREENVILLE AVENUE, EWLOE GREEN, EWLOE', '1 GREGGS CT, STAIRFOOT', '1 GREVILLE ROAD, HEDON', '1 GRIMROD PLACE, GILLIBRANDS BUSINESS PARK', '1 GRIZEDALE AV, GARSTANG', '1 GROSVENOR CRESCENT', '1 GROVE BUNGALOWS, CAKEBOLE, CHADDESLEY CORBETT', '1 GROVE END VILLAS, LONGNEY RD, HARDWICKE', '1 GROVE LODGE COTTAGES, BINSTED', '1 GWYNFRYN, STATION ROAD, LLANRUG', '1 GYPSUM CLOSE', '1 HACKETT STREET', '1 HACKWORTH ROAD, NORTH WEST INDUSTRIAL ESTATE', '1 HALL COTTAGES, YEW TREE LA, BRADLEY', '1 HALL DR, GREASBY', '1 HALL GREEN, UPHOLLAND', '1 HALLFIELD CLOSE', '1 HAMBRIDGE LANE', '1 HAMILTON CLOSE, HEDNESFORD', '1 HAMS LANE, LEA MARSTON', '1 HANDS LANE, ABBOTSBURY', '1 HAREBELL CLOSE', '1 HARKER STREET', '1 HARTLEY PARK VIEW', '1 HARTNESS ROAD', '1 HARTON RISE', '1 HATFIELD CLOSE', '1 HAWCROFT COTTAGES, HAWE LANE, STURRY', '1 HAWKESDEN ROAD', '1 HAWKSWORTH ROAD, SYERSTON', '1 HAYES LANE, SULLY', '1 HAZEL CT, AISKEW', '1 HAZELWOOD MEADOW', '1 HEALEY GROVE, WHITWORTH', '1 HEATHER STREET, CLAYTON', '1 HEATHMOOR WAY', '1 HEDDINGTON CLOSE', '1 HELDING CLOSE', '1 HEOL LAS VILLAS, MAUDLAM', '1 HEOL YR YSGOL, TONDU', '1 HEREFORD ROAD, HARPUR HILL', '1 HERITAGE CLOSE, HIGH STREET', '1 HIGH ORCHARD', '1 HIGH STREET', '1 HIGH STREET, BOW BRIDGE WHARF, STRATFORD', '1 HIGH STREET, DOSTHILL', '1 HIGH STREET, DUNSVILLE', '1 HIGH STREET, SALTLEY', '1 HIGHFIELD CRESCENT, BROGBOROUGH', '1 HIGHGATE, ESTON', '1 HILCOTE DRIVE, CLIPSTONE VILLAGE', '1 HILLSIDE AVENUE, GUISELEY', '1 HILLSIDE CRESENT, HORWICH', '1 HILLSIDE LANE, SMALL DOLE', '1 HILLSIDE, BULLER ROAD', '1 HILLTOP AV, WHITEFIELD', '1 HILLTOP AVENUE, WHITEFIELD', '1 HILSEA CRESCENT, MARCHINGTON', '1 HILTON FARM COTTAGE', '1 HODGKINSON AVENUE, PENISTONE', '1 HODGKINSON ROAD', '1 HODGKINSON ROAD, FELIXSTOWE, SUFFOLK', '1 HOFTENS CROSS, CAULDON LOW', '1 HOLDENHURST ROAD', '1 HOLDFORD ROAD, WITTON', '1 HOLLIN COTTAGES, HARROGATE ROAD, LITTLETHORPE', '1 HOLLIN LANE, STACEY BUSHES', '1 HOLLOWFIELD CRESCENT, GARTCOSH', '1 HOLLY AVENUE, BRADWELL', '1 HOLLY TERRACE, SOUTH MOOR', '1 HOLLYHILL ROAD, SELSTON', '1 HOLME PK, BENTHAM', '1 HOME CLOSE', '1 HOMELEA, HIGH STREET, WEM', '1 HOPE CARR WAY', '1 HOPE STREET, OLDFIELD ROAD', '1 HORBURY BASIN, BRIDGE ROAD, HORBURY', '1 HORNAL ROAD, BOTHWELL PARK INDUSTRIAL ESTATE, UDDINGSTON', '1 HORSEDOWN COTTAGE, HORSDOWN, NETTLETON', '1 HORSEFAIR MEWS', '1 HOTCHKISS WAY, BINLEY INDUSTRIAL ESTATE', '1 HOWARD AVENUE, ST. GEORGE', '1 HUDSON VALE', '1 HUMBERSTONE ROAD', '1 HUNDON PL', '1 HUNSTON VILLAS, MAIN ROAD, HUNSTON', '1 HUNTERS PLACE, EAST KILBRIDE', '1 HUSKISSON DOCKS, REGENT ROAD', '1 INTERCHANGE PARK, ROBINSON WAY', '1 INTERNATIONAL SQUARE, WESTFIELD  CITY, MONTFICHET ROAD, OLYMPIC PARK', '1 IVY COTTAGES, FAKENHAM ROAD, ATTLEBRIDGE', '1 IVY LANE, WESTERGATE', '1 JANCER HOUSE, PRINCE ROAD, KENFIG HILL', '1 JANETTE AV', '1 JANETTE AVENUE', '1 JASMINE GARDENS', '1 JOHNSONS FARM, MIDDLE MEANYGATE, TARLETON', '1 JOHNSONS ROAD', '1 JUBILEE COTTAGES, KIRKTON OF SKENE', '1 JULIETTE CLOSE, PURFLEET INDUSTRIAL PARK, LONDON ROAD, PURFLEET', '1 KEEPERS COTTAGE, HEDDON-ON-THE-WALL', '1 KEMRABANK, WESTERKIRK', '1 KENSINGTON FIELDS', '1 KENTON PARK RD', '1 KENWYN AVENUE', '1 KEYES GARDENS, BIRCHWOOD', '1 KIKO DRIVE', '1 KILPATRICK COURT, DARENTH ROAD', '1 KING STREET, EAST HALTON', '1 KINGFISHER WAY', '1 KINGS CLOSE, ACKWORTH', '1 KINGS COURT, KIRTON', '1 KINGSAND ROAD, GROVE PARK', '1 LADY CROSSE DR, WHITTLE-LE-WOODS', '1 LADYPARK, LAMESLEY', '1 LAGRANNOCH WAY', '1 LAMBERT STREET', '1 LANGHOLM ST', '1 LEAZECROFT, HALMORE', '1 LEE BRICKYARD COTTAGE, MAIN ROAD, BOULDNOR', '1 LILAC CLOSE', '1 LILAC WAY, TOFT HILL', '1 LIMBER ROAD, KIRMINGTON', '1 LIME CL, PENWORTHAM', '1 LINDEN AVENUE', '1 LINDEN CL', '1 LINDRED ROAD, LOMESHAYE WAREHOUSE, BRIERFIELD', '1 LINDRICK CLOSE', '1 LINK ROAD COURT, OSBALDWICK', '1 LINNITT ROAD', '1 LOCHHEAD CRESCENT, COALTOWN OF WEMYSS', '1 LOCKERBIE CLOSE, CINNAMON BROW', '1 LODGE FARM COTTAGE, LODGE FARM, ABBOTS RIPTON', '1 LODGE FARM, WALLINGTON', '1 LONDON RD', '1 LONG CLOSE, HAGLEY', '1 LONGCROFT ROAD', '1 LONGDEN WOOD COTTAGE, LONGDEN', '1 LOW MIDDLETON FARM COTTAGES', '1 LOWER BARVAS, BARVAS, LOWER BARVAS', '1 LOWER GROVE ROAD, FISHPONDS', '1 LOWTHER GLEN, EAMONT BRIDGE', '1 LUMEN ROAD, EAST LANE BUSINESS PARK, EAST LANE', '1 LUXTED FARM COTTAGES, LUXTED RD, DOWNE', '1 LYMINSTER CLOSE', '1 LYNE GROVE COTTAGE, LYNE LANE, CHERTSEY', '1 LYTHAM AVENUE, DINNINGTON', '1 MACBETH ROAD, STEWARTON', '1 MACKENDERS CLOSE, ECCLES', '1 MADELEY CLOSE', '1 MAESHYFRYD, CWMBACH', '1 MAIN ST, CAYTON', '1 MAIN STREET, COMRIE', '1 MAIN STREET, MOREBATTLE', '1 MALLARD CLOSE, TOLLESBURY', '1 MALT MILL GREEN, KILSBY', '1 MANOR COURT, MARKET PLACE, RIDDINGS', '1 MANOR FARM COURT, KILLAMARSH', '1 MANOR GARDENS, HOLCOMBE HILL, HOLCOMBE', '1 MANSTON COURT COTTAGES, MANSTON COURT ROAD, MANSTON', '1 MARBURY CL, MOORSIDE', '1 MARCONI ROAD', '1 MARDLING AVENUE, BESTWOOD', '1 MARFLEET LANE', '1 MARIDAY VILLAS, BLACKNESS ROAD', '1 MARINE AVENUE, SUTTON-ON-SEA', '1 MARKET PLACE, ADLINGTON', '1 MARKET WEIGHTON ROAD, BARLBY', '1 MARLEY WK', '1 MARTHAM CLOSE, THAMESMEAD', '1 MARTINDALE, SHAFT ROAD, SEVERN BEACH', '1 MAUCHLINE ROAD, AUCHINLECK', '1 MAX PARK, BANGRAVE ROAD SOUTH', '1 MAY TREE ROAD', '1 MEADOW CLOSE, CLIFTON', '1 MEADOWCROFT AVENUE, CATTERALL', '1 MEADOWS BUSINESS PARK, STATION APPROACH, BLACKWATER', '1 MELLISH ROAD', '1 MERRIOTTSFORD', '1 MICHIGAN DRIVE, TONGWELL', '1 MICKLETON RD, RIVERSIDE PARK', '1 MICKLETON ROAD, RIVERSIDE PARK', '1 MIDDLECALF COTTAGE, LYME PARK, DISLEY', '1 MIDDLECROFT, WILBERFOSS', '1 MIDDLETON ROAD', '1 MILKING SLADE LANE, GREAT GIDDING', '1 MILL COURT, MANOR ROAD', '1 MILL LA, DIDDLEBURY', '1 MILL LANE COTTAGES, LOW MILL LANE, NORTH CAVE', '1 MILL LANE, WINGRAVE', '1 MILL STREET', '1 MILL VIEW, EGGBOROUGH', '1 MILLBROOK WAY, COLNBROOK', '1 MILLSIDE, WOMBOURNE', '1 MILLVIEW TER, LOCHANS', '1 MILTON ROAD, EAST KILBRIDE, COLLEGE MILTON', '1 MILTON TERRACE', '1 MINT ST, RAMSBOTTOM, CHATTERTON', '1 MISTOVER ROAD', '1 MOATSIDE', '1 MONK SHERBORNE ROAD, RAMSDELL', '1 MONKROYD RD, LANESHAWBRIDGE', '1 MONKWRAY LODGE, LOW MONKWRAY', '1 MONTAGUE ROAD', '1 MONTROSE TERRACE, WHITING BAY', '1 MOOR FARM COTTAGE, LEASINGHAM MOOR', '1 MOORFIELD, GILDERSOME, MORLEY', '1 MOORHEAD, PRESTON', '1 MOORHEY CRES, PENWORTHAM', '1 MOORLANDS PARK, CUDDINGTON', '1 MORNINGSIDE, CRECA', '1 MOSSDALE CLOSE', '1 MOSSEND', '1 MOUNT PLEASANT WAY, STOKESLEY BUSINESS PARK, STOKESLEY', '1 MUIRFIELD CLOSE, EUXTON', '1 MUIRSIDE DRIVE', '1 MUSEUM COURT, ECCLESHILL', '1 MYRTLE ROAD', '1 MYTTON DINGLE, STIPERSTONES, SNAILBEACH', '1 MYTTON DINGLE, STIPERSTONES, SNAILBEACH, MINSTERLEY', '1 NAB LANE, BIRSTALL', '1 NANHILL DRIVE, WOODHOUSE EAVES', '1 NAPIER ROAD, WARD PARK, CUMBERNAULD', '1 NAVIGATION ROAD', '1 NEASHAM ROAD', '1 NESTLES AVENUE', '1 NETHERHALL COTTAGES, MAIN RD, SHOTLEY GATE', '1 NETHERHALL PLACE, BRIDGE OF DEE', '1 NEW BRUNSWICK AV, ST. GEORGE', '1 NEW BUILDING, DUNWEAR', '1 NEW BUILDINGS, DUNWEAR', '1 NEW COTTAGES WOOD HALL ESTATE, WOODHALL LANE, SHENLEY', '1 NEW COTTAGES, STANMORE, BEEDON', '1 NEW FARM, RODEN LANE, RODEN', '1 NEWCOMEN CLOSE, WINCHESTER GATE', '1 NEWHOUSES, KERRY HILL, BUCKNALL', '1 NEWTOWN LANE', '1 NICHOLLS FARM COTTAGES, LYBURY LANE, REDBOURN', '1 NIGHTINGALE FARM COTTAGE, BROOME MANOR LA', '1 NIGHTINGALE FARM COTTAGE, BROOME MANOR LANE', '1 NORTH CHURCH STREET', '1 NORTH STREET', '1 NORTH VIEW, EASINGTON LANE', '1 NORTHFIELD GARDENS', '1 NORTHORPE ROAD, DONINGTON', '1 NORWOOD COTTAGES, COOLING ROAD, CLIFFE', '1 NOTTINGHAM ROAD, COSTOCK', '1 NOVINGTON FARM COTTAGE, PLUMPTON', "1 O'NEILL AV, BISHOPBRIGGS", '1 OAK AVENUE, DINNINGTON', '1 OAK DR, COLEMERE', '1 OAK ROAD, DESFORD', '1 OAK VIEW', '1 OAKWOOD HALLYBURTON, COUPAR ANGUS', '1 OATES RD, COLLIER ROW', '1 OATES ROAD, COLLIER ROW', '1 OLD COTTAGES, GATE BURTON', '1 OLD MOOR,, SHAFT, LONGHIRST', '1 OLD ROAD, LONGTOWN', '1 OLD ROAD, OLD SCHOOL BUSINESS PARK', '1 OLD SARUM COTTAGES, PORTWAY, OLD SARUM', '1 OLD SARUM COTTAGES, THE PORTWAY, OLD SARUM', '1 OLYMPIC COURT, FERRERS ROAD', '1 ONE TREE HILL', '1 ORCHARD CLOSE', '1 ORCHARD CLOSE, WADDESDON', '1 ORCHARD ROAD SOUTH', '1 ORIENTAL ROAD, SILVERTOWN', '1 OUTMILL, ALTHORPE', '1 PARK COTTAGES, GOODACRES, BARNHAM', '1 PARK COTTAGES, HUNGERFORD PARK', '1 PARK GRANGE, PARK ROAD, HINDLEY', '1 PARK ROAD', '1 PARK VIEW, PELAW GRANGE', '1 PARK VILLA, LITTLE HEREFORD, BLEATHWOOD', '1 PARKERS CLOSE, CATFIELD', '1 PARKFIELD COTTAGES, BICESTER ROAD, TWYFORD', '1 PARKSIDE, CROSS ROAD, MIDDLESTOWN', '1 PARKVIEW, MAIN RD, STAINFORTH', '1 PARSONAGE CLOSE', '1 PARSONAGE FARM COTTAGE, THE STREET, COBHAM', '1 PATERNOSTER ROW, NOAK HILL', '1 PEAR TREE COTTAGE, CRUDWELL', '1 PEAR TREE DRIVE', '1 PEAR TREE HEY, BRIMSHAM PARK, YATE', '1 PEARSON RD', '1 PEDDERS CLOSE', '1 PEGASUS ROAD', '1 PEN TEG, KINNERLEY', '1 PENFFORDD, PENTYRCH', '1 PENHALE RD, CARNHELL GREEN', '1 PENLLYN, CWMAVON', '1 PENSHAW CLOSE, PLECK GATE', '1 PENYBRYN ROAD, BETHESDA', '1 PENYBRYN, RHIWCEILIOG PENCOED', '1 PERRY WAY', '1 PERRYLAND LANE, SMALLFIELD', '1 PICTON LANE', '1 PIKEHELVE STREET', '1 PINBUSH CL', '1 PINGEWOOD CLOSE, BURGHFIELD, PINGEWOOD', '1 PINNACLE VIEW, COWLING', '1 PIT ROAD, KIRKINTILLOCH', '1 PITMAN ROAD', '1 PLANTATION CLOSE, WHITWELL', '1 PLASYDINAS, LLANSANTFFRAID POOL', '1 PLATT STREET', '1 PLUMMERS COTTAGE, HIGH STREET', '1 POINT ROAD', '1 POLICE HOUSES, CATBROOK', '1 POLLARDS WOOD RD, NORBURY', '1 PORTLAND DR, PORTISHEAD', '1 PORTLAND PLACE', '1 POSEY COTTAGE COURT, MAIN ROAD, HALLOW', '1 POST OFFICE ROW, BROADWAY RD, ASTON SOMERVILLE', '1 POTTER PLACE, WEST PIMBO', '1 POULTON FARM COTTAGES, POULTON', '1 POUND COTTAGES, SCHOOL ROAD, KIRBY CANE', '1 POWELL ST, DOUGLAS WATER', '1 PRESTON VALE COTTAGES, PRESTON VALE, PENKRIDGE', '1 PRIMROSE COTTAGES, OTHAM STREET, OTHAM', '1 PRIMROSE RD, LUDGERSHALL', '1 PRINCES ROAD', '1 PRINCESS CLOSE', '1 PRINCESS RD', '1 PROGRESS PARK, ELSTOW', '1 PROVAN WAY', '1 PYE CLOSE, CORFE MULLEN', '1 QUARRY LANE', '1 QUARRY WAY, WATERLIP', '1 QUEENS ROAD', '1 QUEENSWAY', '1 RACECOURSE LANE', '1 RAILWAY APPROACH', '1 RAPPAX ROAD, HALE', '1 READING AVENUE, CHURCH GRESLEY', '1 RECREATION WAY, LEE MOOR', '1 REDBROOK AVENUE, TRETHOMAS', '1 REDWALD CLOSE, KEMPSTON', '1 REGENT STREET, CLOWNE', '1 REYNARDS RISE, LOGGERHEADS', '1 RHODFA GLENYS', '1 RIBSTON MEWS', '1 RICHARD STREET WEST', '1 RIVERSIDE ROAD', '1 ROCHESTER ROW', '1 ROESTOCK LANE, COLNEY HEATH', '1 ROGERS ROAD, RIVERSIDE INDUSTRIAL ESTATE', '1 ROMANS WY, WRITTLE', '1 ROOKERY CLOSE, KIVETON PARK', '1 ROSEMARY AVENUE', '1 ROTHER CLOSE, BETTWS', '1 ROW BEECH COTTAGES, WATLING STREET, KENSWORTH', '1 RUSSELL SQUARE', '1 RUSSET CLOSE', '1 RUTHERFORD WAY', '1 SADLERS LANE', '1 SAWMILL CLOSE, FELTHORPE', '1 SAWMILL COTTAGES, DIGDOG LANE, FRITTENDEN', '1 SCHOOL CORNER, HUNDON ROAD, BARNARDISTON', '1 SCHOOL LANE, INVERBERVIE', '1 SCHOOL MEWS, BANGOR ISYCOED', '1 SCHOOL MEWS, BANGOR-ON-DEE', '1 SCHOOL VIEW', '1 SCOTT CRESCENT', '1 SCOTT STREET', '1 SEA VIEW, BAY HORSE', '1 SEAFIELD ROAD', '1 SEDGEFIELD WAY', '1 SHARPHAW AVENUE', '1 SHELDON GARDENS', '1 SHERWOOD MEWS, LEASES RD, LEEMING BAR', '1 SHIELDINISH, LOCHS', '1 SHIPSTON RD, BASWICH', '1 SHORTWOOD COMMON', '1 SHRUBLAND ROAD', '1 SHUTE LAKE LA', '1 SKYE EDGE RD', '1 SLADE VIEW, SLADE HOOTON, LAUGHTON', '1 SLATEFELL DR', '1 SMALL CLOSE, WEST MIDLAND', '1 SMALLHOLDINGS, CLOCKHOUSE LANE', '1 SMITH CRESCENT', '1 SMITHY BROOK ROAD, RENISHAW', '1 SMITHY LANE, PENSNETT', '1 SMM BUSINESS PARK, DOCK ROAD', '1 SOMERSET CLOSE, CADISHEAD', '1 SOMERSET RD, SPRINGWELL', '1 SOMERSET ROAD', '1 SOPWITH CRESCENT', '1 SOUTH CRESCENT, DUCKMANTON', '1 SOUTH LODGE, KIRTON ROAD, BUCKLESHAM', '1 SOUTH QUARRY VIEW', '1 SOUTH VIEW, BRYNNA RD, PENCOED', '1 SOUTHCOTT WAY, WALSGRAVE', '1 SPEEDWELL, TINTWISTLE', '1 SPICERS LA, FORNCETT ST. MARY', '1 SPITFIRE WAY', '1 SPRING ROAD, AYCLIFFE BUSINESS PARK', '1 SPRINGCORRIE YARD, GARYNAHINE', '1 SPRINGLAKES ESTATE, DEADBROOK LANE', '1 SQUIRES COURT, EASTCHURCH', '1 ST DAVIDS QUAY, ABERYSTWYTH', '1 ST GEORGES HOUSE, VERNON GATE', '1 ST. AIDANS TERRACE', '1 ST. AIDANS TERRACE, NEW HERRINGTON', '1 ST. ALBANS ROAD', '1 ST. CUTHBERTS CL', '1 ST. DAVIDS ROAD', '1 ST. GOVANS CLOSE, TATTENHOE', '1 ST. JAMES ROAD, SHEPSHED', '1 ST. JOHNS HILL', '1 ST. LAMBERTS GROVE, WESTON', '1 ST. MARGARETS AVENUE', '1 ST. MARGARETS COURT, THE STREET, HIGH HALSTOW', '1 ST. MARTINS CL, FANGFOSS', '1 ST. MARYS PK, COLLATON ST. MARY', '1 ST. MATTHEW STREET', '1 ST. NICHOLAS CRESCENT, BOLTON LE SANDS', '1 ST. SWITHINS TERRACE', '1 ST. THOMAS PLACE, CAMBRIDGESHIRE BUSINESS PARK', '1 STALEY HALL CRESCENT', '1 STAMFORD COTTAGES, OLD CHESTER RD', '1 STAMPSTONE STREET', '1 STANLEY VILLAS, MAIRSCOUGH LANE, DOWNHOLLAND', '1 STATION APPROACH, ANCASTER', '1 STATION CLOSE, BLAXTON', '1 STATION COTTAGES, DOE HILL LA, STONEBROOM', '1 STATION HOUSES, NEW COUNDON', '1 STATION RD, SHEPHERDSWELL', '1 STATION ROAD, FOXTON', '1 STATION ROAD, HELMDON', '1 STATION ROAD, MELBOURNE', '1 STEADMAN CROFT', '1 STEPNEY RISE', '1 STERNDALE MOOR', '1 STONE HOUSE, PAGE ROAD, HAWKINGE', '1 STONEY CLOSE, NORTH KILWORTH', '1 STRATFIELD WAY', '1 STRATHEARN TER', '1 STRATHYRE PLACE, LIONTHORN', '1 STRAWFRANK FARM, PETTINAIN ROAD, CARSTAIRS JUNCTION', '1 STUD FARM MEWS, NORTH ROAD, WESTON', '1 SUNNINGDALE RD', '1 SUNNYBANK CLOSE, ALDRIDGE', '1 SUTTON COURT, EASTWOOD', '1 SUTTON CT, EASTWOOD', '1 SWAFFHAM RD, BURWELL', '1 SWAN ORCHARD, LONDON ROAD, ASHINGTON', '1 SYDNAL LANE, ALBRIGHTON', '1 SYDNEY ROAD', '1 TAIFALD, LLANELWEDD', '1 TAINTERS HILL, HEVER CASTLE, HEVER', '1 TAMDOWN WAY', '1 TELFERTON, TELFERTON INDUSTRIAL ESTATE', '1 TELFORD CLOSE', '1 TEMPERTONS LANE, OWSTON FERRY', '1 TENNANT AVENUE, COLLEGE MILTON SOUTH, EAST KILBRIDE', '1 THE ANNEX, BUCKWOOD, FULMER COMMON ROAD, FULMER', '1 THE AVENUE, BLABY', '1 THE BARN, CHAIN ROAD, SLAITHWAITE', '1 THE BARN, HILL FARM, OUNDLE ROAD, CHESTERTON', '1 THE BEECHES, LADY LA, BLUNSDON', '1 THE BRACKENS, LLANGYNWYD', '1 THE BUNGALOW, CORNMILL FARM, (OFF OWDAY LANE), WALLINGWELLS', '1 THE CLOSE, MORWICK ROAD, WARKWORTH', '1 THE CLOSE, WARKWORTH', '1 THE CLOSE, WITHYDITCH', '1 THE COT, ST. ARVANS', '1 THE COURT, OAKBRIDGE DRIVE, BUCKSHAW VILLAGE', '1 THE CRESCENT', '1 THE CRESCENT, EAST ACTON', '1 THE DINGLE, WATTS LANE, HILLMORTON', '1 THE FAIRHAVENS, HALFORD ROAD, ARMSCOTE', '1 THE GARTH, OULSTON', '1 THE GLEN', '1 THE GREEN, GREAT ROLLRIGHT', '1 THE GREEN, GUESTWICK', '1 THE HOLLIES, SHIREBROOK', '1 THE HOLLY GROVE, QUEDGELEY', '1 THE HOLT', '1 THE KIPLINGS, GOOSEBERRY HILL', '1 THE LANE, WYBOSTON', '1 THE MEADOWS, ENNERDALE, SUTTON PARK', '1 THE MEADOWS, IMBERT CLOSE', '1 THE MEADOWS, MARSHFIELD', '1 THE MEADS, BURTON', '1 THE NOVERS', '1 THE ORCHARD, DERBY ROAD, WIRKSWORTH', '1 THE PALACE, AIRE STREET', '1 THE PASTURES, RAMPTON', '1 THE PEAKS, BODIAM', '1 THE QUADRANGLE CENTRE, THE DRIFT, NACTON ROAD', '1 THE REDWOODS, BRISTOL ROAD, KEYNSHAM', '1 THE SHRUBBERY, THORNEY ROAD', '1 THE STREET, RUSTINGTON', '1 THE THICKETTS', '1 THE WEALD', '1 THEARNE LANE, WOODMANSEY', '1 THIMBLE HILL, FARMCOTE', '1 THORNBUSH COTTAGES, THORNBUSH LANE, BRAMFORD', '1 THORNYCROFT CLOSE, GAWSWORTH', '1 THORVERTON DR', '1 TICHMARSH', '1 TIPPINGS LA, BARROWDEN', '1 TIPPINGS LANE, BARROWDEN', '1 TONE GREEN, BRADFORD ON TONE', '1 TOWER ROAD, GLOVER INDUSTRIAL ESTATE', '1 TOYNTON CLOSE', '1 TREGLENWITH ROAD', '1 TREMAINS BUSINESS PARK, TREMAINS ROAD', '1 TRENCH LANE, ODDINGLEY', '1 TROUTBECK AVENUE', '1 TULLOCH PLACE, BONAR BRIDGE', '1 TURNER CLOSE', '1 TURNERS HILL', '1 TWIN OAKS WALK', '1 TYLERS GREEN', '1 TYN Y WEIRGLODD, LON LLAINFFYNNON, GROESLON', '1 ULLSWATER AVENUE, WEST END', '1 UNDERWOOD ROAD, PORTISHEAD', '1 UNION LANE COTTAGE, LANCASTER ROAD, PILLING', '1 UPLOWMAN ROAD', '1 USK BRIDGE MEWS, BRIDGE STREET', '1 USK ROAD, SHIRENEWTON', '1 VERITY SQUARE', '1 VERNEY CRESCENT, ALLERTON', '1 VICTOR WAY, RADLETT ROAD, COLNEY STREET', '1 VICTORIA TER', '1 VICTORIA TERRACE, CATCHGATE', '1 VILLAGE BARN, GARGRAVE ROAD, BROUGHTON', '1 VIOLET CLOSE, CHERRY HINTON', '1 VISCOUNT WAY, WOODLEY', '1 WAKES CLOSE, DUNTON BASSETT', '1 WALLACE ST', '1 WALMESLEY DRIVE, INCE', '1 WALNUT DRIVE, MANCETTER', '1 WALTON ROAD, LEVERINGTON', '1 WANSBECK CL, ELLINGTON', '1 WARDEN HALL COTTAGES, FYFIELD ROAD, WILLINGALE', '1 WARLEY RD', '1 WARREN COTTAGES, CRAWLEY ROAD, CRAWLEY', '1 WARWICK ROW, VICTORIA', '1 WARWICK STREET, HEDON ROAD', '1 WATERSWALLOWS INDUSTRIAL PARK, WATERSWALLOWS ROAD', '1 WATSONS BUILDINGS, EDMONDSLEY', '1 WAUGH PLACE', '1 WAVELL ROAD', '1 WEBB ROAD, ASPLEY', '1 WELKIN GREEN', '1 WELLFIELD, BALDERSBY-ST-JAMES', '1 WELLS AVENUE, HASLINGTON', '1 WELTON HALL FARM COTTAGE, WELTON', '1 WENDOVER ROAD, BURNHAM', '1 WEST BAY ROAD, MILLPORT', '1 WEST PARK ROAD, HEALEY', '1 WEST VIEW', '1 WEST VIEW, COTON', '1 WEST VIEW, STOCKLEY', '1 WESTBOURNE AVENUE, HODGEHILL', '1 WESTBOURNE TER, PENHALE, FRADDON', '1 WESTBOURNE TERRACE, PENHALE, FRADDON', '1 WESTBURY COURT BUSINESS CENTRE, BICESTER ROAD, MARSH GIBBON', '1 WESTERN AVENUE, BRIDGE', '1 WESTLAND DR, BROOKMANS PARK', '1 WESTLAND DRIVE, BROOKMANS PARK', '1 WESTMORELAND AVENUE, THURMASTON', '1 WESTWOOD COURT COTTAGES, WESTWOOD COURT, SHELDWICH', '1 WHITBURN RD', '1 WHITE LODGE GARDENS, KESGRAVE', '1 WHITEHALL, LIDLINGTON', '1 WHITTLE DRIVE', '1 WILLBRIG COTTAGE, ROOTS LANE, CATFORTH', '1 WILLOW AVENUE', '1 WILLOW COTTAGES, COXHOE', '1 WILSON DRIVE, ELSWICK', '1 WIMBLEDON AVENUE', '1 WINDMILL BALK LA, WOODLANDS', '1 WINDMILL COTTAGE, WINDMILL HILL, STOULTON', '1 WINDSOR BUSINESS CENTRE, VANSITTART ESTATE', '1 WINDY RIDGE, KINGS MEABURN', '1 WISTLANDPOUND COTTAGES, WISTLANDPOUND, KENTISBURY', '1 WITHY CROFT, GREAT BOUGHTON', '1 WITLEY CLOSE, MORETON', '1 WOBURN LANE, PLEASLEY', '1 WOLD COURT, HAWARDEN', '1 WOODLAND GR, BEESTON, CHILWELL', '1 WOODLANDS CLOSE, BRANSGORE', '1 WOODLANDS DRIVE, LEPTON', '1 WOODLANDS TERRACE, THRESHFIELD', '1 WOODROW DRIVE, LOW MOOR', '1 WOODRUFF HOUSE, TULSE HILL', '1 WOODWIEW VILLAS, HOLCOMBE HILL, HOLCOMBE', '1 WOTTONS COTTAGES, CHEYNEGATE LANE, PINHOE', '1 WROTTESLEY ROAD, HARLESDEN', '1 WYE HEAD CLOSE', '1 YORK AV, CROSBY', '1, BROOK RISE, OAKDALE', '1, CANN HALL DRIVE, LOW TOWN', '1, CHURCH LANE, SNITTERBY', '1, ELM LANE, LOW FULNEY', '1, GROVE WAY, RUMNEY', '1, ILMINGTON DRIVE', '1, MAPLE CLOSE, BLACKWATER', '1, NEWTON WAY, BENSON', '1, SANDFORD CLOSE', '1, SILVERTHORNE WAY', '1, STAIRGILLAN HOUSE, TARBOLTON', '1, SURREY QUAYS ROAD, ROTHERHITHE', '1, SUTTON PARK RISE', '1, UPPER NAGS HEAD CLOSE, CASTLEGATE', '1- 7 DRAKES LANE INDUSTRIAL ESTATE, DRAKES LANE, BOREHAM', '1-15 MIDDLE HILLGATE', '1-17 SILVER STREET, KINGS HEATH', '1-2 DRUMHEAD ROAD, CHORLEY NORTH INDUSTRIAL PARK', '1-2 FLOWERY FIELD INDUSTRIAL PARK, BENNETT STREET', '1-2 HERITAGE PARK, HAYES WAY', '1-2 IVY COTTAGES, SANDY LANE, ST. PAULS CRAY', '1-2 LOCKWOOD COURT', '1-2 MEADOWBRIDGE, CROSSHANDS BUSNESS PARK, CROSSHANDS', '1-2 MOSS RD', '1-2 SEMINGTON TURNPIKE, SEMINGTON', '1-2CA, BLACKROD INDUSTRIAL ESTATE, SCOT LANE, BLACKROD', '1-3 BALTIC WHARF, 11 STATION ROAD', '1-3 EARNWELL, IRESHOPEBURN', '1-3 EDINBURGH PLACE, EDINBURGH WAY', '1-3 LOICHER LANE, ECCLESFIELD', '1-3 LOTHAIR STREET, BATTERSEA', '1-3 LOW ST', '1-3 LOW STREET', '1-3 PEGASUS ROAD', '1-3 PINGOT LA, BROADBOTTOM', '1-4  CHALON CLOSE', '1-4 ALDERSTON WAY, RIGHEAD INDUSTRIAL ESTATE', '1-4 PUDDLERS ROAD, SOUTH BANK', '1-5 ALBANY RD', '1-5 CANAL STREET', '1-5 PUDDLERS ROAD, SOUTHBANK', '1-6 BROADWAY PARADE, ELM PARK AVENUE', '1-6 FALCON COURT, SHADRICK WAY, DOBLES LANE BUSINESS PARK', '1-7 GROVE ROAD, NORTHFLEET', '1-7 NEW ROAD, HALFWAY, CAMBUSLANG', '1-8 CENTENARY ROAD', '1-9 IVYHOUSE LANE', '1-9 STATION ROAD', '1. CROUCH DRIVE', '1/1 ALEXANDER PLACE, SOUTH STREET, HOUSTON', '10  THE GREEN, HEADLAM, DARLINGTON, CO DURHAM', '10  UNICORN LANE, EASTERN GREEN', '10 , MEADOW FARM DRIVE, HARLESCOTT', '10 - 12 BRIDGE STREET', '10 - 14, GARDDEN INDUSTRIAL ESTATE, RUABON', '10 ABBEY BREWERY COURT, SWAN STREET', '10 ABINGER ROAD, ASHTON-IN-MAKERFIELD', '10 ACACIA DRIVE', '10 ACACIA RD, NEW BALDERTON, BALDERTON', '10 ALBION ROAD', '10 ALFRED ROAD', '10 ALMSWOOD RD', '10 ANSON CLOSE', '10 ASHENDENE ROAD, BAYFORD', '10 ASHLEIGH CLOSE, BARBY', '10 ASKEW FARM HOUSE, ASKEW LANE', '10 B GEORGE ST', '10 BACK MOUNT PLEASANT', '10 BAGNALL WALK', '10 BAKER CLOSE, TEYNHAM', '10 BARBERS WOOD CLOSE', '10 BARCLAY MEWS, HYTHE, BUTTS ASH', '10 BARDEN CROFT, CLAYTON LE MOORS', '10 BARNARD GR, HART STATION', '10 BATH STREET', '10 BEAUMONT GRN, COLEORTON', '10 BEEHIVE BUSINESS CENTRE, BEEHIVE LA, CHELMSFORD', '10 BELGIC SQUARE, PADHOLME ROAD EAST, FENGATE', '10 BENTINCK STREET, SUTTON', '10 BESOM COURT, NEW RD', '10 BEVERLEY WALK', '10 BIDDULPH PARK, IRONSTONE ROAD, CHASE TERRACE', '10 BIRCH GROVE', '10 BIRCH LEYS', '10 BIRKDALE DRIVE', '10 BIRLINGHAM CLOSE', '10 BISHTON LANE, WOLSELEY BRIDGE', '10 BLACKBIRD CL, FLITWICK', '10 BLACKBURN ROAD', '10 BLACKMARSTON ROAD', '10 BLACKTHORNS, NEWBOURNE', '10 </t>
         </is>
@@ -788,18 +829,26 @@
       <c r="P6" t="n">
         <v>45</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>ZE3 9JR</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>CB8 7NR</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>1308110</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>39688</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t xml:space="preserve">['0', '10 REDCOMBE LANE"', '35 VICARAGE ROAD', '3A', '4 MACE LANE"', '828 1JE', 'AB10 1RJ', 'AB10 6JR', 'AB10 6RG', 'AB11 5BS', 'AB11 5EW', 'AB11 5PU', 'AB11 5QP', 'AB11 6NA', 'AB11 8DU', 'AB11 9PJ', 'AB11 9PL', 'AB11 9QB', 'AB12 3AG', 'AB12 3AR', 'AB12 3AW', 'AB12 3AX', 'AB12 3BQ', 'AB12 3BY', 'AB12 3LE', 'AB12 3LF', 'AB12 3LH', 'AB12 3LL', 'AB12 3LR', 'AB12 3LY', 'AB12 4LH', 'AB12 4LP', 'AB12 4PA', 'AB12 4PF', 'AB12 4QB', 'AB12 4RT', 'AB12 4RX', 'AB12 4SA', 'AB12 4SL', 'AB12 4SZ', 'AB12 4TP', 'AB12 4XA', 'AB12 4YB', 'AB12 5AQ', 'AB12 5GQ', 'AB13 0DS', 'AB14 0PE', 'AB15 6DF', 'AB15 8BN', 'AB15 8QR', 'AB15 8RL', 'AB15 8SD', 'AB15 9PT', 'AB16 6QQ', 'AB16 7LL', 'AB16 7NJ', 'AB16 7PG', 'AB21 0BF', 'AB21 0BG', 'AB21 0DP', 'AB21 0EQ', 'AB21 0EU', 'AB21 0GL', 'AB21 0GS', 'AB21 0GU', 'AB21 0GX', 'AB21 0HA', 'AB21 0HP', 'AB21 0LA', 'AB21 0QA', 'AB21 0QE', 'AB21 0RB', 'AB21 0RU', 'AB21 0RX', 'AB21 0SH', 'AB21 0XB', 'AB21 0YS', 'AB21 7AL', 'AB21 7AQ', 'AB21 7DT', 'AB21 7DU', 'AB21 7GB', 'AB21 7GQ', 'AB21 7NX', 'AB21 7NY', 'AB21 7PP', 'AB21 9EG', 'AB21 9HW', 'AB21 9NP', 'AB21 9PD', 'AB21 9TL', 'AB22 8AP', 'AB22 8LH', 'AB22 8ZX', 'AB23 8BQ', 'AB23 8BT', 'AB23 8EE', 'AB23 8EF', 'AB23 8EW', 'AB23 8GL', 'AB23 8HL', 'AB23 8JW', 'AB23 8NN', 'AB23 8RD', 'AB23 8RH', 'AB23 8UY', 'AB23 8YD', 'AB23 8YJ', 'AB24 2YS', 'AB24 5DT', 'AB24 5PA', 'AB24 5RP', 'AB25 2XE', 'AB25 3RF', 'AB30 1AJ', 'AB30 1BE', 'AB30 1DG', 'AB30 1EF', 'AB30 1EJ', 'AB30 1EY', 'AB30 1JB', 'AB30 1ND', 'AB30 1NP', 'AB30 1QP', 'AB30 1RN', 'AB30 1TD', 'AB30 1WQ', 'AB30 1YY', 'AB31 4BA', 'AB31 4DB', 'AB31 4DN', 'AB31 4LQ', 'AB31 4PW', 'AB31 4QB', 'AB31 4RX', 'AB31 5AB', 'AB31 5AU', 'AB31 5PY', 'AB31 5YR', 'AB31 6BS', 'AB31 6JU', 'AB32 6TQ', 'AB32 6UJ', 'AB32 6UP', 'AB32 6XD', 'AB32 6XE', 'AB32 6XL', 'AB32 6YA', 'AB32 6ZX', 'AB32 7AL', 'AB32 7BU', 'AB32 7EQ', 'AB33 8AA', 'AB33 8DE', 'AB33 8DU', 'AB33 8EJ', 'AB33 8ES', 'AB33 8FJ', 'AB33 8JE', 'AB33 8QE', 'AB33 8QQ', 'AB34 4UB', 'AB34 5AA', 'AB34 5BN', 'AB34 5PP', 'AB35 5SB', 'AB36 8XA', 'AB37 9AB', 'AB37 9BA', 'AB37 9BG', 'AB37 9EA', 'AB38 7BF', 'AB38 7QP', 'AB38 7RP', 'AB38 9LB', 'AB38 9LT', 'AB38 9NS', 'AB38 9QJ', 'AB38 9QN', 'AB38 9SP', 'AB39 2NH', 'AB39 2TT', 'AB39 2TY', 'AB39 2UD', 'AB39 2XW', 'AB39 3NS', 'AB39 3PT', 'AB39 3QE', 'AB39 3QL', 'AB39 3QQ', 'AB39 3RA', 'AB39 3SS', 'AB39 3YD', 'AB41 6AZ', 'AB41 6QS', 'AB41 7DT', 'AB41 7GB', 'AB41 7HS', 'AB41 7LR', 'AB41 8AD', 'AB41 8LZ', 'AB41 8ND', 'AB41 8PF', 'AB41 8SE', 'AB41 8YX', 'AB41 9BX', 'AB41 9GJ', 'AB41 9LL', 'AB41 9RD', 'AB42 0NE', 'AB42 0QN', 'AB42 0ST', 'AB42 1BN', 'AB42 1BP', 'AB42 1DH', 'AB42 1DS', 'AB42 1HH', 'AB42 1HL', 'AB42 1JF', 'AB42 1JP', 'AB42 1RQ', 'AB42 1UD', 'AB42 2PF', 'AB42 2ZX', 'AB42 3EA', 'AB42 3ED', 'AB42 3GX', 'AB42 3GY', 'AB42 3LA', 'AB42 3LJ', 'AB42 4HJ', 'AB42 4HR', 'AB42 4JJ', 'AB42 4LU', 'AB42 4NH', 'AB42 4QT', 'AB42 4TD', 'AB42 4UA', 'AB42 4UT', 'AB42 4XE', 'AB42 4XT', 'AB42 4YX', 'AB42 5AT', 'AB42 5BR', 'AB42 5BY', 'AB42 5DJ', 'AB42 5EJ', 'AB42 5LN', 'AB42 5RH', 'AB42 5SF', 'AB42 5SJ', 'AB43 6HQ', 'AB43 6PR', 'AB43 6PU', 'AB43 6RL', 'AB43 6RN', 'AB43 6SP', 'AB43 6TT', 'AB43 7AH', 'AB43 7AR', 'AB43 7BA', 'AB43 7BG', 'AB43 7DE', 'AB43 7ED', 'AB43 7EH', 'AB43 7JL', 'AB43 7JQ', 'AB43 7NU', 'AB43 8QQ', 'AB43 8QX', 'AB43 8UH', 'AB43 8UQ', 'AB43 8UR', 'AB43 8UX', 'AB43 8XB', 'AB43 9AJ', 'AB43 9EB', 'AB43 9ER', 'AB43 9LG', 'AB43 9NW', 'AB43 9QS', 'AB43 9SX', 'AB43 9TB', 'AB43 9TD', 'AB44 1GD', 'AB44 1UJ', 'AB45 1EJ', 'AB45 1JB', 'AB45 2DP', 'AB45 2JJ', 'AB45 2LA', 'AB45 2LJ', 'AB45 2NN', 'AB45 2NW', 'AB45 2QE', 'AB45 2SQ', 'AB45 2SS', 'AB45 2UX', 'AB45 2YD', 'AB45 2YX', 'AB45 3EQ', 'AB45 3ER', 'AB45 3HT', 'AB45 3PN', 'AB45 3QP', 'AB45 3XD', 'AB45 3XU', 'AB51 0DN', 'AB51 0DP', 'AB51 0DQ', 'AB51 0EH', 'AB51 0EJ', 'AB51 0EN', 'AB51 0EZ', 'AB51 0FD', 'AB51 0GP', 'AB51 0JL', 'AB51 0LG', 'AB51 0LT', 'AB51 0TH', 'AB51 0UY', 'AB51 0XG', 'AB51 0XQ', 'AB51 0XX', 'AB51 0YA', 'AB51 0YP', 'AB51 0YR', 'AB51 0YX', 'AB51 3XX', 'AB51 4TE', 'AB51 5AU', 'AB51 5AX', 'AB51 5BE', 'AB51 5HU', 'AB51 5JU', 'AB51 5NH', 'AB51 5QF', 'AB51 5QW', 'AB51 5XZ', 'AB51 7JA', 'AB51 7LQ', 'AB51 7NB', 'AB51 7NL', 'AB51 7PQ', 'AB51 7RD', 'AB51 8TR', 'AB51 8UB', 'AB51 8UH', 'AB51 8YA', 'AB51 8YB', 'AB52 6HF', 'AB52 6HW', 'AB52 6JB', 'AB52 6JJ', 'AB52 6JW', 'AB52 6LW', 'AB52 6PT', 'AB52 6QT', 'AB52 6SH', 'AB52 6TS', 'AB52 6XB', 'AB52 6XJ', 'AB52 6XP', 'AB52 6YD', 'AB52 6YT', 'AB53 4AX', 'AB53 4DZ', 'AB53 4ER', 'AB53 4GD', 'AB53 4HD', 'AB53 4HG', 'AB53 4HJ', 'AB53 4PA', 'AB53 4UF', 'AB53 4WD', 'AB53 5PN', 'AB53 5QH', 'AB53 5QJ', 'AB53 5QY', 'AB53 5RL', 'AB53 5RP', 'AB53 5UA', 'AB53 5UX', 'AB53 5XD', 'AB53 5XU', 'AB53 5YD', 'AB53 5YH', 'AB53 6TA', 'AB53 6YH', 'AB53 8AH', 'AB53 8AJ', 'AB53 8BJ', 'AB53 8DT', 'AB53 8EH', 'AB53 8HN', 'AB53 8HW', 'AB53 8LT', 'AB53 8NB', 'AB53 8PH', 'AB53 8QL', 'AB53 8QY', 'AB54 4HB', 'AB54 4JH', 'AB54 4JP', 'AB54 4RA', 'AB54 4XX', 'AB54 6AG', 'AB54 6BD', 'AB54 6HP', 'AB54 6JA', 'AB54 7SJ', 'AB54 7SR', 'AB54 7TS', 'AB54 7UT', 'AB54 7YA', 'AB54 8DB', 'AB54 8HD', 'AB54 8HU', 'AB54 8JF', 'AB54 8JX', 'AB54 8SX', 'AB55 4AY', 'AB55 4DD', 'AB55 4DX', 'AB55 5DD', 'AB55 5ED', 'AB55 5EG', 'AB55 5EW', 'AB55 5JR', 'AB55 5JY', 'AB55 5NT', 'AB55 5PE', 'AB55 6QQ', 'AB55 6RN', 'AB55 6TS', 'AB55 6XS', 'AB56 1LN', 'AB56 1UT', 'AB56 1UX', 'AB56 4BU', 'AB56 4BY', 'AB56 4PJ', 'AB56 5UT', 'AL1 1NS', 'AL1 1UD', 'AL1 2BP', 'AL1 2HP', 'AL1 2HR', 'AL1 2LL', 'AL1 2LY', 'AL1 2QA', 'AL1 2QZ', 'AL1 3TF', 'AL1 4AG', 'AL1 5UG', 'AL10 0HN', 'AL10 0HQ', 'AL10 0HS', 'AL10 0JD', 'AL10 0PR', 'AL10 0TN', 'AL10 8BJ', 'AL10 8LU', 'AL10 9BD', 'AL10 9BS', 'AL10 9DA', 'AL10 9JT', 'AL10 9LB', 'AL10 9NE', 'AL10 9SQ', 'AL10 9TQ', 'AL2 1DG', 'AL2 1JG', 'AL2 1JW', 'AL2 1LF', 'AL2 1LG', 'AL2 1LW', 'AL2 1TG', 'AL2 2DL', 'AL2 2DS', 'AL2 2FL', 'AL2 3AA', 'AL2 3NL', 'AL2 3QB', 'AL2 3QL', 'AL2 3UN', 'AL3 4EB', 'AL3 4TQ', 'AL3 5AE', 'AL3 5UN', 'AL3 6NW', 'AL3 6NX', 'AL3 6PF', 'AL3 6PQ', 'AL3 6RG', 'AL3 7JH', 'AL3 7JP', 'AL3 7LP', 'AL3 8AJ', 'AL3 8HA', 'AL3 8HN', 'AL3 8JR', 'AL3 8JS', 'AL4 0LS', 'AL4 0NH', 'AL4 0NY', 'AL4 0PG', 'AL4 0PL', 'AL4 0PP', 'AL4 0PR', 'AL4 0QR', 'AL4 0QS', 'AL4 0RN', 'AL4 0RX', 'AL4 8HH', 'AL4 8NQ', 'AL4 8RG', 'AL4 8TR', 'AL4 9HF', 'AL4 9LZ', 'AL5 1NA', 'AL5 1PW', 'AL5 1RL', 'AL5 2AY', 'AL5 4JU', 'AL5 5AW', 'AL6 0HA', 'AL6 0UL', 'AL6 9LX', 'AL6 9TY', 'AL7 1DN', 'AL7 1ET', 'AL7 1GY', 'AL7 1HT', 'AL7 1JA', 'AL7 1JQ', 'AL7 1QP', 'AL7 1RH', 'AL7 1RX', 'AL7 1TW', 'AL7 1UN', 'AL7 2AA', 'AL7 2DP', 'AL7 2SP', 'AL7 3QA', 'AL7 3UQ', 'AL7 3UW', 'AL7 3XH', 'AL7 4SP', 'AL7 4SR', 'AL7 4SS', 'AL7 4ST', 'AL9 5BL', 'AL9 5LD', 'AL9 5RB', 'AL9 6AB', 'AL9 6HQ', 'AL9 6NF', 'AL9 7AY', 'AL9 7HF', 'AL9 7LJ', 'AL9 7LQ', 'AL9 7NJ', 'AL9 7SA', 'AL9 7TT', 'AL9 7UG', 'AL9 7UU', 'ALPHAMSTONE ROAD', 'B1 1RF', 'B1 2JR', 'B1 3EE', 'B10 0HR', 'B10 0JA', 'B10 0RU', 'B11 1DQ', 'B11 1DT', 'B11 1DU', 'B11 1NU', 'B11 1NX', 'B11 2AP', 'B11 2AQ', 'B11 2AU', 'B11 2AX', 'B11 2BE', 'B11 2BH', 'B11 2BL', 'B11 2DA', 'B11 2HX', 'B11 2LR', 'B11 2RQ', 'B11 3HA', 'B11 3LL', 'B11 3TA', 'B11 4PN', 'B12 0BS', 'B12 0DA', 'B12 0JJ', 'B12 0NH', 'B12 0NY', 'B12 0SD', 'B12 8HH', 'B12 8RQ', 'B12 8TD', 'B12 8UZ', 'B12 9AH', 'B12 9SG', 'B13 0AA', 'B13 0AU', 'B13 0AW', 'B13 0DA', 'B13 0LP', 'B13 0QP', 'B13 9QF', 'B13 9SS', 'B13 9TD', 'B14 4HT', 'B14 4JB', 'B14 4LY', 'B14 5AW', 'B14 5JN', 'B14 6NB', 'B14 6TA', 'B14 7QG', 'B14 7QX', 'B15 1AZ', 'B16 0AB', 'B16 9NG', 'B17 8DS', 'B18 4AG', 'B18 4DA', 'B18 4DZ', 'B18 5HS', 'B18 5JP', 'B18 5ST', 'B18 6EX', 'B18 7AD', 'B18 7AE', 'B18 7AH', 'B18 7QD', 'B19 1HB', 'B19 1HL', 'B19 1TR', 'B2 4AY', 'B20 1AS', 'B20 1HS', 'B20 2AB', 'B20 2AG', 'B20 2DB', 'B20 2HN', 'B20 2HS', 'B20 2NH', 'B20 3DR', 'B20 3EP', 'B20 3UE', 'B21 0HT', 'B21 0QL', 'B21 0SY', 'B21 0UQ', 'B21 9DD', 'B21 9JX', 'B21 9LZ', 'B21 9NY', 'B23 5EJ', 'B23 5LJ', 'B23 5RN', 'B23 5TE', 'B23 6AS', 'B23 6DY', 'B23 6HB', 'B23 6JJ', 'B23 6PP', 'B23 6UU', 'B23 7AE', 'B23 7EE', 'B23 7FG', 'B23 7JE', 'B23 7YG', 'B24 0BA', 'B24 0JN', 'B24 0JX', 'B24 0PR', 'B24 0QY', 'B24 0RD', 'B24 8TG', 'B24 9LD', 'B24 9LR', 'B24 9LT', 'B24 9QL', 'B24 9QR', 'B25 8BH', 'B25 8DW', 'B25 8ET', 'B25 8HA', 'B25 8HE', 'B25 8HF', 'B25 8LE', 'B25 8NG', 'B25 8PB', 'B25 8PW', 'B25 8QA', 'B25 8SS', 'B26 1HN', 'B26 1LT', 'B26 3BE', 'B26 3NB', 'B26 3QD', 'B26 3QJ', 'B26 3RL', 'B27 6HP', 'B27 6JP', 'B27 6LR', 'B27 6NX', 'B27 6PY', 'B27 6SE', 'B27 7AN', 'B28 0HN', 'B28 0HQ', 'B28 8AQ', 'B28 8EL', 'B28 8HU', 'B28 8JG', 'B28 8LH', 'B28 8SE', 'B28 9BG', 'B28 9HH', 'B28 9NG', 'B29 5BH', 'B29 6EN', 'B29 6JE', 'B29 6SN', 'B29 7HG', 'B29 7SG', 'B29 9JL', 'B30 1PD', 'B30 1TB', 'B30 2RX', 'B30 2YT', 'B30 3AX', 'B30 3DY', 'B30 3QG', 'B31 1AL', 'B31 1BT', 'B31 1XB', 'B31 2LQ', 'B31 4AJ', 'B31 5BB', 'B31 5BD', 'B31 5SE', 'B32 1DY', 'B32 1NX', 'B32 1QH', 'B32 1QJ', 'B32 2DX', 'B32 2EY', 'B32 2SD', 'B32 2SJ', 'B32 2UZ', 'B32 3AH', 'B32 3BT', 'B32 3QR', 'B32 4LJ', 'B33 0JD', 'B33 0JT', 'B33 0JY', 'B33 0LE', 'B33 0QX', 'B33 0SL', 'B33 0SS', 'B33 0TD', 'B33 0TE', 'B33 0TJ', 'B33 0UE', 'B33 9AN', 'B33 9BU', 'B33 9EF', 'B33 9EG', 'B33 9EJ', 'B33 9HJ', 'B33 9PP', 'B33 9TX', 'B34 6AG', 'B34 6AN', 'B34 7EG', 'B34 7NR', 'B35 6AN', 'B35 6JT', 'B35 6LJ', 'B35 6LN', 'B35 6PJ', 'B35 7ND', 'B35 7QA', 'B35 7QH', 'B35 7RA', 'B36 0AF', 'B36 0BJ', 'B36 0HH', 'B36 0HL', 'B36 0LJ', 'B36 0UD', 'B36 0UG', 'B36 0UJ', 'B36 8AA', 'B36 8DT', 'B36 8TB', 'B36 9BY', 'B36 9SJ', 'B36 9SU', 'B36 9SW', 'B37 5AY', 'B37 6AG', 'B37 6LD', 'B37 7BQ', 'B37 7HE', 'B37 7JD', 'B37 7WY', 'B37 7XN', 'B37 7YN', 'B38 0AJ', 'B38 8JF', 'B38 8NA', 'B38 8SE', 'B4 6LJ', 'B42 1EX', 'B42 1NA', 'B42 1PS', 'B42 1TU', 'B42 1TY', 'B42 2RZ', 'B42 2TX', 'B43 5JD', 'B43 5QF', 'B43 6DE', 'B43 6DS', 'B43 6HD', 'B43 6HY', 'B43 6JA', 'B43 6JE', 'B43 6JX', 'B43 6NU', 'B43 6PU', 'B43 7EH', 'B43 7HU', 'B43 7JW', 'B43 7LG', 'B43 7RH', 'B43 7RJ', 'B44 0EW', 'B44 0LP', 'B44 8HB', 'B44 8NH', 'B44 8PE', 'B44 8SY', 'B44 9ER', 'B44 9SH', 'B45 0EE', 'B45 0NJ', 'B45 9HH', 'B45 9TJ', 'B45 9UA', 'B46 1AL', 'B46 1DT', 'B46 1EJ', 'B46 1HQ', 'B46 1HT', 'B46 1JB', 'B46 1JG', 'B46 1JJ', 'B46 1JP', 'B46 1JU', 'B46 1LN', 'B46 2AF', 'B46 2EN', 'B46 2ET', 'B46 2JY', 'B46 2LH', 'B46 2LS', 'B46 2NE', 'B46 2NP', 'B46 2NS', 'B46 2QY', 'B46 2RT', 'B46 2SG', 'B46 3EG', 'B47 5BT', 'B47 5HH', 'B47 5LA', 'B47 5PY', 'B48 7AQ', 'B48 7ES', 'B48 7HX', 'B48 7RA', 'B49 5DA', 'B49 5QG', 'B49 6EP', 'B49 6HJ', 'B49 6JR', 'B5 5QD', 'B5 5SE', 'B5 6DB', 'B5 6DD', 'B5 6RG', 'B5 6UU', 'B5 7DJ', 'B5 7EP', 'B5 7JL', 'B5 7NX', 'B50 4DS', 'B50 4HQ', 'B50 4HW', 'B50 4QE', 'B6 4DA', 'B6 4EP', 'B6 4HG', 'B6 5PL', 'B6 5TG', 'B6 6BP', 'B6 6NH', 'B6 7AT', 'B6 7AX', 'B6 7AY', 'B6 7BH', 'B6 7DA', 'B6 7DB', 'B6 7EB', 'B6 7EG', 'B6 7EP', 'B6 7EX', 'B6 7LP', 'B6 7RT', 'B6 7SH', 'B6 7SS', 'B6 7ST', 'B60 1BB', 'B60 1NE', 'B60 2HR', 'B60 2NX', 'B60 3AE', 'B60 3DN', 'B60 3DR', 'B60 3DW', 'B60 3DX', 'B60 3EX', 'B60 3HA', 'B60 3PE', 'B60 3QS', 'B60 4AD', 'B60 4BF', 'B60 4BL', 'B60 4DA', 'B60 4DJ', 'B60 4FE', 'B61 0HS', 'B61 0JL', 'B61 0JN', 'B61 0JY', 'B61 0PG', 'B61 0PL', 'B61 0QB', 'B61 0QR', 'B61 0QY', 'B61 0RJ', 'B61 7BH', 'B61 7ED', 'B61 8HZ', 'B61 9DZ', 'B61 9JB', 'B61 9JJ', 'B62 0DP', 'B62 0DW', 'B62 0EU', 'B62 0EW', 'B62 8AN', 'B62 8BH', 'B62 8HD', 'B62 8PP', 'B62 8RP', 'B62 8TD', 'B62 8TR', 'B62 8TW', 'B62 9HL', 'B62 9JL', 'B62 9NL', 'B63 1EL', 'B63 2NJ', 'B63 2QJ', 'B63 2QQ', 'B63 2RE', 'B63 2RL', 'B63 2SD', 'B63 2TB', 'B63 2UH', 'B63 2YD', 'B63 3DZ', 'B63 3PN', 'B63 3QR', 'B63 3TB', 'B63 3XB', 'B63 4NB', 'B63 4QL', 'B63 4SL', 'B64 5AD', 'B64 5BA', 'B64 5EL', 'B64 5ER', 'B64 5LL', 'B64 5NA', 'B64 5PX', 'B64 5QQ', 'B64 5QR', 'B64 5QU', 'B64 5QY', 'B64 5RG', 'B64 5SS', 'B64 6BS', 'B64 6EF', 'B64 6NL', 'B64 6PS', 'B64 6PW', 'B64 6RL', 'B64 7AN', 'B64 7BB', 'B64 7BG', 'B64 7BY', 'B64 7EA', 'B65 0AL', 'B65 0LL', 'B65 0PD', 'B65 0QG', 'B65 0QN', 'B65 0QW', 'B65 8AR', 'B65 8BL', 'B65 8EG', 'B65 8LQ', 'B65 8PL', 'B65 8QD', 'B65 8QF', 'B65 9DP', 'B65 9ET', 'B65 9EZ', 'B65 9PX', 'B65 9QA', 'B65 9QD', 'B65 9QE', 'B65 9SQ', 'B66 1BF', 'B66 1BG', 'B66 1BL', 'B66 1BP', 'B66 1BT', 'B66 1BY', 'B66 1DJ', 'B66 1NN', 'B66 1QR', 'B66 1QS', 'B66 2AA', 'B66 2DA', 'B66 2DF', 'B66 2DR', 'B66 2DZ', 'B66 2EH', 'B66 2EP', 'B66 2EQ', 'B66 2JP', 'B66 2JR', 'B66 2ND', 'B66 2NZ', 'B66 2PF', 'B66 2QF', 'B66 2QL', 'B66 2QZ', 'B66 2RL', 'B66 2RT', 'B66 2SN', 'B66 3AR', 'B66 3BL', 'B66 3DB', 'B66 3DL', 'B66 3DR', 'B66 3EH', 'B66 3TT', 'B66 4AN', 'B66 4DS', 'B66 4HP', 'B67 5BS', 'B67 5BW', 'B67 5PF', 'B67 6BZ', 'B67 6HZ', 'B67 6LU', 'B67 6QR', 'B67 6RS', 'B67 7AN', 'B67 7BA', 'B67 7BG', 'B67 7EY', 'B67 7HE', 'B67 7HH', 'B67 7JD', 'B67 7JH', 'B67 7LW', 'B67 7NA', 'B67 7NH', 'B67 7NN', 'B67 7QN', 'B67 7QZ', 'B67 7RE', 'B68 0BS', 'B68 0ES', 'B68 8EB', 'B68 8ES', 'B68 8PN', 'B68 9EZ', 'B68 9JA', 'B68 9JR', 'B68 9LA', 'B68 9NJ', 'B68 9RU', 'B69 1AU', 'B69 1BB', 'B69 1DT', 'B69 1DU', 'B69 1HF', 'B69 1HJ', 'B69 1QA', 'B69 1RZ', 'B69 1TG', 'B69 1UH', 'B69 1UP', 'B69 2AG', 'B69 2AP', 'B69 2BP', 'B69 2GD', 'B69 2GJ', 'B69 2JJ', 'B69 2LX', 'B69 2NH', 'B69 2NR', 'B69 2NY', 'B69 3AY', 'B69 3EB', 'B69 3EQ', 'B69 3EX', 'B69 3HW', 'B69 3HY', 'B69 3JS', 'B69 4BL', 'B69 4EQ', 'B69 4ET', 'B69 4HH', 'B69 4HT', 'B69 4JU', 'B69 4LA', 'B69 4LP', 'B69 4NB', 'B69 4NH', 'B69 4NQ', 'B69 4PH', 'B69 4QW', 'B69 4RJ', 'B69 4TG', 'B69 4WD', 'B7 4BD', 'B7 4JD', 'B7 4LL', 'B7 4PR', 'B7 4RP', 'B7 4SA', 'B7 4SB', 'B7 4SL', 'B7 4TS', 'B7 5AB', 'B7 5AF', 'B7 5AH', 'B7 5EA', 'B7 5EE', 'B7 5EH', 'B7 5JD', 'B7 5JJ', 'B7 5PJ', 'B7 5QT', 'B7 5RG', 'B7 5RQ', 'B7 5RX', 'B7 5TE', 'B7 5TJ', 'B70 0AF', 'B70 0AW', 'B70 0AX', 'B70 0AZ', 'B70 0BD', 'B70 0BG', 'B70 0EB', 'B70 0ER', 'B70 0HW', 'B70 0PB', 'B70 0PG', 'B70 0PP', 'B70 0PU', 'B70 0SU', 'B70 0TU', 'B70 0TX', 'B70 0UH', 'B70 6AZ', 'B70 6DG', 'B70 6RP', 'B70 6TQ', 'B70 6TS', 'B70 7EG', 'B70 7HE', 'B70 7JF', 'B70 7JW', 'B70 7JY', 'B70 7LP', 'B70 7LT', 'B70 8AL', 'B70 8PN', 'B70 9DD', 'B70 9DE', 'B70 9DH', 'B70 9DR', 'B70 9DS', 'B70 9EH', 'B70 9PQ', 'B71 1AR', 'B71 1EQ', 'B71 1HA', 'B71 1HG', 'B71 1HU', 'B71 1PU', 'B71 1RL', 'B71 2QJ', 'B71 2RP', 'B71 3AF', 'B71 3BP', 'B71 3DJ', 'B71 3JD', 'B71 3JT', 'B71 3LH', 'B71 3QA', 'B71 3QG', 'B71 4DX', 'B71 4HS', 'B71 4JH', 'B71 4JW', 'B71 4JZ', 'B72 1BW', 'B72 1DW', 'B73 5BU', 'B73 5DA', 'B73 9JG', 'B74 2AX', 'B74 2AY', 'B74 2BW', 'B74 2DU', 'B74 2FE', 'B74 2PJ', 'B74 3EH', 'B74 3NT', 'B74 3QJ', 'B74 3QR', 'B74 3SY', 'B74 3TT', 'B74 4BL', 'B74 4UF', 'B74 4YD', 'B75 5LH', 'B75 5RP', 'B75 5SZ', 'B75 6AJ', 'B75 6QX', 'B75 6TF', 'B75 7ET', 'B75 7HR', 'B75 7PD', 'B75 7QL', 'B76 0BE', 'B76 0BL', 'B76 0DP', 'B76 0DS', 'B76 0EQ', 'B76 1AB', 'B76 1AF', 'B76 1AH', 'B76 1BL', 'B76 1HJ', 'B76 1PA', 'B76 2BG', 'B76 2RR', 'B76 2SA', 'B76 2ST', 'B76 9DD', 'B76 9EE', 'B76 9EH', 'B76 9HE', 'B76 9JF', 'B76 9JG', 'B76 9QA', 'B76 9QW', 'B77 1AS', 'B77 1EH', 'B77 1JB', 'B77 1JF', 'B77 1LA', 'B77 1LF', 'B77 1LP', 'B77 1NX', 'B77 2AF', 'B77 2AN', 'B77 2LF', 'B77 2NZ', 'B77 3AE', 'B77 3BT', 'B77 3BY', 'B77 3LH', 'B77 3QG', 'B77 3QW', 'B77 4AS', 'B77 4BL', 'B77 4BS', 'B77 4DR', 'B77 4ED', 'B77 4HS', 'B77 4NB', 'B77 4NR', 'B77 4PJ', 'B77 4RP', 'B77 5BH', 'B77 5BY', 'B77 5DQ', 'B77 5EG', 'B77 5FD', 'B77 5GF', 'B77 5HH', 'B77 5HR', 'B77 5LY', 'B77 5PA', 'B77 5PB', 'B77 5PL', 'B77 5PR', 'B77 5TA', 'B77 5TG', 'B78 1AP', 'B78 1BB', 'B78 1BT', 'B78 1BX', 'B78 1EF', 'B78 1JT', 'B78 1NB', 'B78 1QR', 'B78 1SD', 'B78 1SE', 'B78 1SZ', 'B78 2AH', 'B78 2AW', 'B78 2BN', 'B78 2BP', 'B78 2BU', 'B78 2DZ', 'B78 2EX', 'B78 2HA', 'B78 2JW', 'B78 2LT', 'B78 3AA', 'B78 3AU', 'B78 3DE', 'B78 3DJ', 'B78 3DW', 'B78 3EQ', 'B78 3GL', 'B78 3HH', 'B78 3HJ', 'B78 3HP', 'B78 3JN', 'B78 3LG', 'B78 3PN', 'B78 3RF', 'B78 3RW', 'B78 3SS', 'B78 3TR', 'B78 3XS', 'B78 3XT', 'B79 0BN', 'B79 0EH', 'B79 0JL', 'B79 0NR', 'B79 0PE', 'B79 7EU', 'B79 7JY', 'B79 7QP', 'B79 7TA', 'B79 7TD', 'B79 7UL', 'B79 7UR', 'B79 7XD', 'B79 7YL', 'B79 8PG', 'B79 8PQ', 'B79 8RU', 'B79 8SD', 'B79 9BP', 'B79 9BW', 'B8 1AE', 'B8 1AU', 'B8 1BG', 'B8 1BT', 'B8 1BY', 'B8 1JL', 'B8 1JN', 'B8 1QF', 'B8 1SR', 'B8 2JG', 'B8 2SE', 'B8 2TS', 'B8 2UL', 'B8 3EA', 'B8 3RB', 'B80 7AH', 'B80 7AS', 'B80 7DF', 'B80 7DU', 'B80 7EJ', 'B80 7EN', 'B80 7QW', 'B80 7RP', 'B9 4BA', 'B9 4BZ', 'B9 4DY', 'B9 4EN', 'B9 4PE', 'B9 4PP', 'B9 4QJ', 'B9 4SJ', 'B9 5AB', 'B9 5BL', 'B9 5BU', 'B9 5NA', 'B9 5SS', 'B9 5US', 'B9 5XF', 'B90 1DT', 'B90 1JN', 'B90 1JQ', 'B90 1JZ', 'B90 1LP', 'B90 1QF', 'B90 1QX', 'B90 2BB', 'B90 3ED', 'B90 3EF', 'B90 3HS', 'B90 3JH', 'B90 4BT', 'B90 4DU', 'B90 4ND', 'B90 4NE', 'B90 4NR', 'B90 4NY', 'B90 4NZ', 'B90 4QJ', 'B90 4QT', 'B90 4TB', 'B90 4YW', 'B90 8AG', 'B90 8AU', 'B91 2JU', 'B91 2JY', 'B91 2LW', 'B91 2LZ', 'B91 2PL', 'B91 2SU', 'B91 3YD', 'B92 0DY', 'B92 0LG', 'B92 0PX', 'B92 7PG', 'B92 7QS', 'B92 8BD', 'B92 8JE', 'B93 0EF', 'B93 0HG', 'B93 9ER', 'B93 9HZ', 'B93 9JH', 'B94 5LL', 'B94 5LR', 'B94 5LT', 'B94 6EA', 'B94 6EU', 'B95 5HR', 'B95 5JJ', 'B95 5QS', 'B96 6BG', 'B96 6JB', 'B96 6LX', 'B96 6NH', 'B96 6NN', 'B96 6SR', 'B96 6SX', 'B97 4LX', 'B97 4RF', 'B97 4RG', 'B97 5LS', 'B97 5PH', 'B97 5XP', 'B97 5YD', 'B97 6EW', 'B97 6HA', 'B97 6JS', 'B97 6LF', 'B97 6NS', 'B97 6PU', 'B97 6RG', 'B98 0DG', 'B98 0DN', 'B98 0HU', 'B98 0HX', 'B98 0PW', 'B98 0QP', 'B98 0RA', 'B98 0TG', 'B98 7HP', 'B98 7NW', 'B98 7SE', 'B98 7SF', 'B98 7SJ', 'B98 7SN', 'B98 7SR', 'B98 7TE', 'B98 8AA', 'B98 8JY', 'B98 8NT', 'B98 8RP', 'B98 8YN', 'B98 9AH', 'B98 9BW', 'B98 9DB', 'B98 9DP', 'B98 9EJ', 'B98 9EP', 'B98 9EY', 'B98 9HH', 'B98 9JX', 'BA1 1LF', 'BA1 3AD', 'BA1 3EL', 'BA1 4NA', 'BA1 5DJ', 'BA1 7AH', 'BA1 7DD', 'BA1 7DG', 'BA1 9AF', 'BA1 9AN', 'BA10 0EH', 'BA10 0JF', 'BA10 0JH', 'BA10 0JL', 'BA10 0JW', 'BA11 1FZ', 'BA11 1GA', 'BA11 1RE', 'BA11 2BU', 'BA11 2DU', 'BA11 2DW', 'BA11 2DZ', 'BA11 2HE', 'BA11 2JB', 'BA11 2LE', 'BA11 2NA', 'BA11 2NN', 'BA11 2RA', 'BA11 2RG', 'BA11 2RH', 'BA11 2RN', 'BA11 2RW', 'BA11 2TA', 'BA11 2TD', 'BA11 2TU', 'BA11 2XF', 'BA11 2XU', 'BA11 2YA', 'BA11 3DT', 'BA11 3EX', 'BA11 3LH', 'BA11 3LY', 'BA11 3NW', 'BA11 3RG', 'BA11 3SD', 'BA11 4AP', 'BA11 4AT', 'BA11 4BB', 'BA11 4BN', 'BA11 4BY', 'BA11 4ET', 'BA11 4HF', 'BA11 4HR', 'BA11 4HW', 'BA11 4JN', 'BA11 4NJ', 'BA11 4NQ', 'BA11 4NS', 'BA11 4PF', 'BA11 4PZ', 'BA11 4RB', 'BA11 4RJ', 'BA11 4RL', 'BA11 4RP', 'BA11 5BU', 'BA11 5DH', 'BA11 5DP', 'BA11 5EN', 'BA11 5ES', 'BA11 5HD', 'BA11 5HP', 'BA11 5HT', 'BA11 5JH', 'BA11 5JS', 'BA11 5JY', 'BA11 5LU', 'BA11 6AA', 'BA11 6PF', 'BA11 6PW', 'BA11 6TF', 'BA12 0BN', 'BA12 0BS', 'BA12 0NS', 'BA12 0PJ', 'BA12 0RZ', 'BA12 6AD', 'BA12 6AE', 'BA12 6AJ', 'BA12 6EE', 'BA12 6HL', 'BA12 6NN', 'BA12 6RG', 'BA12 7BY', 'BA12 7JG', 'BA12 7JY', 'BA12 8BT', 'BA12 8DG', 'BA12 8DH', 'BA12 8FP', 'BA12 8HD', 'BA12 8NJ', 'BA12 8PE', 'BA12 9AN', 'BA12 9DN', 'BA12 9HT', 'BA12 9JR', 'BA13 2GF', 'BA13 3AE', 'BA13 3AQ', 'BA13 3BW', 'BA13 3ES', 'BA13 3EU', 'BA13 3HP', 'BA13 3JP', 'BA13 3NR', 'BA13 3NS', 'BA13 3SH', 'BA13 3SN', 'BA13 3SX', 'BA13 4AX', 'BA13 4BA', 'BA13 4BL', 'BA13 4DG', 'BA13 4EP', 'BA13 4EQ', 'BA13 4HL', 'BA13 4JB', 'BA13 4JL', 'BA13 4JN', 'BA13 4JR', 'BA13 4JW', 'BA13 4JX', 'BA13 4LW', 'BA13 4LX', 'BA13 4NT', 'BA13 4NZ', 'BA13 4TE', 'BA13 4WD', 'BA14 0FL', 'BA14 0HD', 'BA14 0JQ', 'BA14 0LH', 'BA14 0NE', 'BA14 0PE', 'BA14 0SA', 'BA14 0SQ', 'BA14 6EF', 'BA14 6HA', 'BA14 6LB', 'BA14 6LX', 'BA14 7BA', 'BA14 7HL', 'BA14 7QS', 'BA14 7RZ', 'BA14 8BL', 'BA14 8DX', 'BA14 8EN', 'BA14 8JD', 'BA14 8JN', 'BA14 8LN', 'BA14 8QU', 'BA14 8RL', 'BA14 8RQ', 'BA14 9AT', 'BA14 9DB', 'BA14 9EY', 'BA14 9GB', 'BA14 9HJ', 'BA14 9NE', 'BA14 9NL', 'BA14 9PN', 'BA15 2PP', 'BA15 2QD', 'BA15 2QP', 'BA16 0JW', 'BA16 0RU', 'BA16 0SN', 'BA16 9PE', 'BA16 9RN', 'BA16 9SF', 'BA16 9SG', 'BA2 0AQ', 'BA2 0AZ', 'BA2 0BH', 'BA2 0DL', 'BA2 0FB', 'BA2 0HH', 'BA2 0JX', 'BA2 0LR', 'BA2 0LT', 'BA2 1HL', 'BA2 1LB', 'BA2 1QJ', 'BA2 1RF', 'BA2 2ET', 'BA2 2NG', 'BA2 3AY', 'BA2 4EU', 'BA2 6RX', 'BA2 7HP', 'BA2 7NW', 'BA2 8AX', 'BA2 8DH', 'BA2 8DJ', 'BA2 8HF', 'BA2 8JT', 'BA2 8PT', 'BA2 8SS', 'BA2 9AP', 'BA2 9DR', 'BA20 2EB', 'BA20 2ED', 'BA20 2HP', 'BA20 2QR', 'BA21 3AR', 'BA21 3DF', 'BA21 4RJ', 'BA21 4RR', 'BA21 5DL', 'BA21 5EA', 'BA21 5HA', 'BA21 5HR', 'BA21 5LB', 'BA21 5NG', 'BA21 5TL', 'BA22 7AA', 'BA22 7AB', 'BA22 7AE', 'BA22 7BJ', 'BA22 7JQ', 'BA22 7LG', 'BA22 7LH', 'BA22 7LL', 'BA22 7LW', 'BA22 7LZ', 'BA22 7RG', 'BA22 8DH', 'BA22 8DL', 'BA22 8HU', 'BA22 8HZ', 'BA22 8JG', 'BA22 8PE', 'BA22 8PH', 'BA22 8PQ', 'BA22 8QL', 'BA22 8RL', 'BA22 8RP', 'BA22 8RT', 'BA22 8RY', 'BA22 8UU', 'BA22 9DH', 'BA22 9EE', 'BA22 9QY', 'BA22 9RQ', 'BA22 9SF', 'BA3 2AA', 'BA3 2AN', 'BA3 2BB', 'BA3 2DE', 'BA3 2EJ', 'BA3 2HD', 'BA3 2JH', 'BA3 2PZ', 'BA3 2QY', 'BA3 2SZ', 'BA3 2TP', 'BA3 2TZ', 'BA3 2UL', 'BA3 2UN', 'BA3 3AN', 'BA3 3AT', 'BA3 3BR', 'BA3 3BT', 'BA3 3BY', 'BA3 3ET', 'BA3 3EW', 'BA3 3JG', 'BA3 3NB', 'BA3 3NU', 'BA3 3RE', 'BA3 3SB', 'BA3 3TH', 'BA3 3YU', 'BA3 4AZ', 'BA3 4BH', 'BA3 4BW', 'BA3 4BY', 'BA3 4DN', 'BA3 4EF', 'BA3 4GD', 'BA3 4JE', 'BA3 4JL', 'BA3 4JW', 'BA3 4LW', 'BA3 4LX', 'BA3 4RF', 'BA3 4SA', 'BA3 4SG', 'BA3 4ST', 'BA3 4TE', 'BA3 4TH', 'BA3 4UQ', 'BA3 4UZ', 'BA3 5DD', 'BA3 5DS', 'BA3 5DW', 'BA3 5EX', 'BA3 5HH', 'BA3 5HP', 'BA3 5JU', 'BA3 5LF', 'BA3 5LG', 'BA3 5PB', 'BA3 5PW', 'BA3 5TX', 'BA3 5XE', 'BA4 4AW', 'BA4 4BW', 'BA4 4DN', 'BA4 4DS', 'BA4 4JS', 'BA4 4JT', 'BA4 4PJ', 'BA4 4PL', 'BA4 4QR', 'BA4 4QS', 'BA4 4RF', 'BA4 4RG', 'BA4 4RN', 'BA4 4RP', 'BA4 4SL', 'BA4 4SZ', 'BA4 4TP', 'BA4 4TQ', 'BA4 5AX', 'BA4 5FL', 'BA4 5GA', 'BA4 5GH', 'BA4 5GL', 'BA4 5HL', 'BA4 5ND', 'BA4 5PP', 'BA4 5QQ', 'BA4 5QR', 'BA4 5RP', 'BA4 5SX', 'BA4 5TN', 'BA4 5XL', 'BA4 5XR', 'BA4 5XY', 'BA4 5YA', 'BA4 6AT', 'BA4 6DT', 'BA4 6HT', 'BA4 6LD', 'BA4 6LJ', 'BA4 6LQ', 'BA4 6LR', 'BA4 6LX', 'BA4 6NA', 'BA4 6PR', 'BA4 6QW', 'BA4 6RD', 'BA4 6RP', 'BA4 6SF', 'BA4 6TA', 'BA5 1EH', 'BA5 1HB', 'BA5 1JW', 'BA5 1LG', 'BA5 1NH', 'BA5 1RH', 'BA5 1RX', 'BA5 1SL', 'BA5 1TQ', 'BA5 2BT', 'BA5 2DG', 'BA5 2DP', 'BA5 2ET', 'BA5 3BH', 'BA5 3DU', 'BA6 8JS', 'BA6 8NB', 'BA6 8ND', 'BA6 8NH', 'BA6 8PB', 'BA6 8PE', 'BA6 8TF', 'BA6 9AG', 'BA6 9AR', 'BA6 9AS', 'BA6 9DS', 'BA6 9LU', 'BA6 9NN', 'BA6 9NX', 'BA6 9SY', 'BA6 9TA', 'BA6 9TH', 'BA6 9TY', 'BA7 7BX', 'BA7 7DB', 'BA7 7DT', 'BA7 7EF', 'BA7 7EU', 'BA7 7HS', 'BA7 7JB', 'BA7 7PD', 'BA7 7PN', 'BA8 0AJ', 'BA8 0JW', 'BA8 0JZ', 'BA8 0NJ', 'BA8 0TF', 'BA8 0TG', 'BA8 0TN', 'BA9 8AB', 'BA9 8AP', 'BA9 8BN', 'BA9 8BY', 'BA9 8HP', 'BA9 8LF', 'BA9 9DB', 'BA9 9DS', 'BA9 9DT', 'BA9 9EB', 'BA9 9EJ', 'BA9 9HD', 'BA9 9JR', 'BA9 9NF', 'BA9 9NR', 'BA9 9PL', 'BA9 9PN', 'BA9 9QL', 'BA9 9RN', 'BA9 9RR', 'BA9 9RU', 'BA9 9RZ', 'BAILEY HILL', 'BB1 1HQ', 'BB1 1NT', 'BB1 1NW', 'BB1 1RN', 'BB1 1RR', 'BB1 2BB', 'BB1 2BQ', 'BB1 2DZ', 'BB1 2LD', 'BB1 2LX', 'BB1 2NW', 'BB1 2PT', 'BB1 2QE', 'BB1 2QS', 'BB1 3BW', 'BB1 3HJ', 'BB1 3HW', 'BB1 3LX', 'BB1 3NA', 'BB1 4AS', 'BB1 4BL', 'BB1 4BZ', 'BB1 4HL', 'BB1 4NG', 'BB1 4RG', 'BB1 4RJ', 'BB1 5DN', 'BB1 5PF', 'BB1 5QX', 'BB1 6NH', 'BB1 8DH', 'BB1 8RD', 'BB1 9DP', 'BB1 9DR', 'BB1 9EX', 'BB1 9EY', 'BB1 9LJ', 'BB1 9QZ', 'BB1 9SZ', 'BB10 1EQ', 'BB10 1JW', 'BB10 2AN', 'BB10 2BQ', 'BB10 2EP', 'BB10 2JJ', 'BB10 2TJ', 'BB10 3JZ', 'BB10 3LE', 'BB10 3NY', 'BB10 3RN', 'BB10 3RS', 'BB11 1LY', 'BB11 1PQ', 'BB11 1SB', 'BB11 3HH', 'BB11 3RS', 'BB11 5BZ', 'BB11 5DA', 'BB11 5EN', 'BB11 5NS', 'BB11 5PF', 'BB11 5PP', 'BB11 5QF', 'BB11 5QG', 'BB11 5QJ', 'BB11 5RF', 'BB11 5SQ', 'BB11 5SR', 'BB11 5SX', 'BB11 5TE', 'BB11 5TH', 'BB11 5TY', 'BB12 0RT', 'BB12 0RW', 'BB12 7NG', 'BB12 7NQ', 'BB12 7QG', 'BB12 7QT', 'BB12 7SN', 'BB12 7TW', 'BB12 8DF', 'BB12 8HN', 'BB12 8UJ', 'BB12 8UY', 'BB12 9DS', 'BB12 9QA', 'BB18 5EF', 'BB18 5EN', 'BB18 5JW', 'BB18 5LA', 'BB18 5LJ', 'BB18 5NW', 'BB18 5SG', 'BB18 5TB', 'BB18 5UX', 'BB18 5XE', 'BB18 6BJ', 'BB18 6DD', 'BB18 6DW', 'BB18 6HJ', 'BB18 6JA', 'BB18 6JZ', 'BB18 6LL', 'BB18 6SG', 'BB18 6SW', 'BB18 6SY', 'BB18 6WT', 'BB2 1NU', 'BB2 1PG', 'BB2 1PN', 'BB2 1PQ', 'BB2 2NQ', 'BB2 2QR', 'BB2 2SZ', 'BB2 2TZ', 'BB2 3EY', 'BB2 3HH', 'BB2 3HN', 'BB2 3RA', 'BB2 4AA', 'BB2 4JF', 'BB2 4LY', 'BB2 4SY', 'BB2 5BS', 'BB2 5EG', 'BB2 5EY', 'BB2 5JN', 'BB2 6BN', 'BB2 7AF', 'BB2 7EG', 'BB2 7FR', 'BB2 7JA', 'BB2 7LB', 'BB2 7LJ', 'BB2 7LQ', 'BB2 7LX', 'BB2 7PY', 'BB3 0DB', 'BB3 0DW', 'BB3 0LF', 'BB3 0NR', 'BB3 0PG', 'BB3 0PR', 'BB3 0QR', 'BB3 0RP', 'BB3 1EF', 'BB3 1HT', 'BB3 1JY', 'BB3 2AY', 'BB3 2EZ', 'BB3 2HW', 'BB3 2JQ', 'BB3 2PN', 'BB3 2QE', 'BB3 2SF', 'BB3 2SQ', 'BB3 2TT', 'BB3 2UB', 'BB3 2UH', 'BB3 3BE', 'BB3 3BJ', 'BB3 3DQ', 'BB4 4EA', 'BB4 4NF', 'BB4 4NH', 'BB4 4RS', 'BB4 5AL', 'BB4 5AN', 'BB4 5BL', 'BB4 5BS', 'BB4 5EB', 'BB4 5HL', 'BB4 5LA', 'BB4 5UB', 'BB4 6DJ', 'BB4 6HT', 'BB4 6LX', 'BB4 6PD', 'BB4 6TD', 'BB4 6UB', 'BB4 7AB', 'BB4 7BZ', 'BB4 7DQ', 'BB4 7JA', 'BB4 7PA', 'BB4 7UB', 'BB4 8DF', 'BB4 8HH', 'BB4 8NF', 'BB4 8QN', 'BB4 8QW', 'BB4 8RP', 'BB4 8SP', 'BB4 9HB', 'BB4 9HU', 'BB4 9JZ', 'BB4 9LQ', 'BB4 9LR', 'BB4 9NE', 'BB4 9PL', 'BB4 9PQ', 'BB4 9RB', 'BB4 9SS', 'BB5 0EH', 'BB5 0RE', 'BB5 0RR', 'BB5 0RW', 'BB5 0SE', 'BB5 1DJ', 'BB5 1DQ', 'BB5 1NA', 'BB5 2AG', 'BB5 2DN', 'BB5 2JR', 'BB5 2QD', 'BB5 2RB', 'BB5 2RE', 'BB5 2RF', 'BB5 2TS', 'BB5 3AR', 'BB5 3BB', 'BB5 3JF', 'BB5 3SD', 'BB5 3SS', 'BB5 4DG', 'BB5 4HU', 'BB5 4NN', 'BB5 4PE', 'BB5 4RP', 'BB5 5EF', 'BB5 5ES', 'BB5 5JW', 'BB5 5JX', 'BB5 5LL', 'BB5 5NG', 'BB5 5PP', 'BB5 5QR', 'BB5 5RR', 'BB5 5SN', 'BB5 5SW', 'BB5 5TX', 'BB5 5WG', 'BB5 5WW', 'BB5 5XD', 'BB5 5XH', 'BB5 5XZ', 'BB5 5YE', 'BB5 5YJ', 'BB5 5YT', 'BB5 6AR', 'BB5 6EL', 'BB5 6NJ', 'BB5 6ST', 'BB5 6TF', 'BB6 7AX', 'BB6 7BD', 'BB6 7BQ', 'BB6 7DD', 'BB6 7DN', 'BB6 7JU', 'BB6 7LE', 'BB6 7NG', 'BB6 7RP', 'BB6 7SP', 'BB6 7SU', 'BB6 7UE', 'BB6 7UY', 'BB6 7WL', 'BB7 1EN', 'BB7 1JZ', 'BB7 1LS', 'BB7 1LY', 'BB7 1NP', 'BB7 1PJ', 'BB7 1PL', 'BB7 1PP', 'BB7 1PR', 'BB7 1PW', 'BB7 1QD', 'BB7 1QL', 'BB7 1QQ', 'BB7 1QU', 'BB7 1QW', 'BB7 2AW', 'BB7 2BG', 'BB7 2LR', 'BB7 2LT', 'BB7 2NA', 'BB7 2PB', 'BB7 2PF', 'BB7 2QF', 'BB7 2QG', 'BB7 2QP', 'BB7 2RA', 'BB7 3DQ', 'BB7 3LJ', 'BB7 3LS', 'BB7 3NB', 'BB7 4AA', 'BB7 4HU', 'BB7 4JY', 'BB7 4LH', 'BB7 4LT', 'BB7 4NJ', 'BB7 4PT', 'BB7 4QF', 'BB7 4RW', 'BB7 4SH', 'BB7 4TG', 'BB7 9DZ', 'BB7 9EH', 'BB7 9QF', 'BB7 9QY', 'BB7 9TU', 'BB7 9UY', 'BB8 0JJ', 'BB8 0QG', 'BB8 0QP', 'BB8 0TA', 'BB8 0WP', 'BB8 7AE', 'BB8 7AT', 'BB8 7EF', 'BB8 7EN', 'BB8 7EW', 'BB8 7HX', 'BB8 7JR', 'BB8 7NT', 'BB8 7PP', 'BB8 8BZ', 'BB8 8EG', 'BB8 8ER', 'BB8 8LF', 'BB8 8QS', 'BB8 8TB', 'BB8 9PD', 'BB8 9PE', 'BB8 9QX', 'BB8 9RG', 'BB8 9RH', 'BB8 9RU', 'BB8 9RW', 'BB8 9SH', 'BB9 0ER', 'BB9 0HD', 'BB9 0HZ', 'BB9 0JD', 'BB9 0LY', 'BB9 0NB', 'BB9 0NN', 'BB9 0QE', 'BB9 0QS', 'BB9 0QZ', 'BB9 0RP', 'BB9 5JY', 'BB9 5NN', 'BB9 5SR', 'BB9 6BX', 'BB9 6HX', 'BB9 6QQ', 'BB9 6RS', 'BB9 6RT', 'BB9 6SH', 'BB9 7HB', 'BB9 7YG', 'BB9 7YQ', 'BB9 8AD', 'BB9 8AH', 'BB9 8AJ', 'BB9 8BD', 'BB9 8DF', 'BB9 8DN', 'BB9 8RP', 'BB9 8SN', 'BB9 9HQ', 'BB9 9NL', 'BD1 2JD', 'BD1 2JT', 'BD1 3EQ', 'BD1 4RY', 'BD1 5HZ', 'BD1 5ND', 'BD1 5SH', 'BD10 0NW', 'BD10 8SA', 'BD10 8SW', 'BD10 8SX', 'BD10 9QP', 'BD10 9RX', 'BD10 9TP', 'BD11 1AD', 'BD11 1AZ', 'BD11 1DT', 'BD11 1JL', 'BD11 1NA', 'BD11 2EQ', 'BD11 2LA', 'BD11 2LW', 'BD11 2PF', 'BD12 0AS', 'BD12 0DW', 'BD12 0EQ', 'BD12 0EY', 'BD12 0HD', 'BD12 0JR', 'BD12 0JT', 'BD12 0JU', 'BD12 0JZ', 'BD12 0LL', 'BD12 0LZ', 'BD12 0NB', 'BD12 0ND', 'BD12 0QF', 'BD12 0QW', 'BD12 0RA', 'BD12 0RG', 'BD12 0RY', 'BD12 0TL', 'BD12 0TQ', 'BD12 0UZ', 'BD12 7BW', 'BD12 7DW', 'BD12 8AH', 'BD12 8PQ', 'BD12 8PU', 'BD12 9DP', 'BD12 9EJ', 'BD12 9EL', 'BD12 9EQ', 'BD12 9JY', 'BD12 9NS', 'BD13 1DU', 'BD13 1JB', 'BD13 1LX', 'BD13 2HS', 'BD13 2LA', 'BD13 2LQ', 'BD13 2NU', 'BD13 3AR', 'BD13 3BX', 'BD13 3QX', 'BD13 3RF', 'BD13 3RR', 'BD13 3RU', 'BD13 3SG', 'BD13 4BB', 'BD13 4DN', 'BD13 4EH', 'BD13 4HF', 'BD13 5BD', 'BD13 5DS', 'BD13 5DX', 'BD13 5EQ', 'BD14 6DY', 'BD14 6EF', 'BD14 6ES', 'BD14 6PB', 'BD14 6PD', 'BD14 6PT', 'BD14 6PY', 'BD14 6RP', 'BD15 0BS', 'BD15 0HX', 'BD15 0JT', 'BD15 7LT', 'BD15 8AB', 'BD16 1HD', 'BD16 1HU', 'BD16 1JY', 'BD16 2AF', 'BD16 2AG', 'BD16 3BE', 'BD16 3JT', 'BD16 4DR', 'BD17 5BG', 'BD17 5PJ', 'BD17 6NW', 'BD17 6RR', 'BD17 7DZ', 'BD17 7EH', 'BD17 7EJ', 'BD17 7HP', 'BD17 7JR', 'BD17 7QB', 'BD17 7QD', 'BD17 7QR', 'BD17 7RA', 'BD18 1EN', 'BD18 1LY', 'BD18 1QG', 'BD18 2EH', 'BD18 2JL', 'BD18 2LY', 'BD18 4BU', 'BD18 4JH', 'BD19 3DL', 'BD19 3QL', 'BD19 4BU', 'BD19 4DE', 'BD19 4DN', 'BD19 4DP', 'BD19 4DS', 'BD19 4EU', 'BD19 4LJ', 'BD19 4PY', 'BD19 4SX', 'BD19 5BD', 'BD19 5EE', 'BD19 5LJ', 'BD19 5LY', 'BD19 5NP', 'BD19 6EY', 'BD19 6JD', 'BD19 6LZ', 'BD19 6PQ', 'BD2 1AZ', 'BD2 1FA', 'BD2 1PL', 'BD2 1QN', 'BD2 2EW', 'BD2 3AH', 'BD2 3HX', 'BD2 3LF', 'BD2 3RQ', 'BD2 3RS', 'BD2 4NE', 'BD20 0BU', 'BD20 0EF', 'BD20 0JD', 'BD20 0JF', 'BD20 0LX', 'BD20 0QT', 'BD20 5BU', 'BD20 5HD', 'BD20 5LY', 'BD20 5RP', 'BD20 5WB', 'BD20 6JB', 'BD20 6PL', 'BD20 6TD', 'BD20 7BE', 'BD20 7BW', 'BD20 7DJ', 'BD20 7DS', 'BD20 7JD', 'BD20 7NX', 'BD20 7TB', 'BD20 8EH', 'BD20 8HB', 'BD20 8HX', 'BD20 8LS', 'BD20 8PE', 'BD20 8SD', 'BD20 8TP', 'BD20 8UJ', 'BD20 9HH', 'BD20 9JH', 'BD20 9LT', 'BD20 9NN', 'BD21 1AW', 'BD21 1DB', 'BD21 1EG', 'BD21 1ES', 'BD21 2HL', 'BD21 2RX', 'BD21 2TW', 'BD21 3LB', 'BD21 3LG', 'BD21 3ND', 'BD21 4EX', 'BD21 4JH', 'BD21 4JP', 'BD21 4LA', 'BD21 4LJ', 'BD21 4LZ', 'BD21 4NX', 'BD21 4NY', 'BD21 4PJ', 'BD21 4RJ', 'BD21 5AX', 'BD21 5JP', 'BD21 5LJ', 'BD21 5PH', 'BD21 5QR', 'BD22 0AA', 'BD22 0DN', 'BD22 0DR', 'BD22 0JE', 'BD22 0JY', 'BD22 0NB', 'BD22 0QD', 'BD22 6BN', 'BD22 6EN', 'BD22 7AA', 'BD22 7AF', 'BD22 7BG', 'BD22 7DJ', 'BD22 7EY', 'BD22 7LA', 'BD22 7NQ', 'BD22 7PX', 'BD22 8AH', 'BD22 8QS', 'BD22 9BG', 'BD22 9BU', 'BD22 9DL', 'BD22 9EW', 'BD22 9LE', 'BD22 9LL', 'BD22 9LP', 'BD22 9QH', 'BD22 9QJ', 'BD22 9QR', 'BD22 9RS', 'BD22 9SU', 'BD23 1AX', 'BD23 1TB', 'BD23 1TE', 'BD23 1UD', 'BD23 2BX', 'BD23 2LD', 'BD23 2LQ', 'BD23 2QL', 'BD23 2QR', 'BD23 2QT', 'BD23 2TS', 'BD23 2TZ', 'BD23 3AQ', 'BD23 3AS', 'BD23 3ET', 'BD23 3HR', 'BD23 3JJ', 'BD23 3NE', 'BD23 3PN', 'BD23 3RE', 'BD23 3SE', 'BD23 4AL', 'BD23 4AY', 'BD23 4EA', 'BD23 4HE', 'BD23 4HJ', 'BD23 4HP', 'BD23 4HW', 'BD23 4JE', 'BD23 4JH', 'BD23 4JJ', 'BD23 4JL', 'BD23 4LL', 'BD23 4LP', 'BD23 4NA', 'BD23 4PQ', 'BD23 4RW', 'BD23 4SL', 'BD23 5BS', 'BD23 5DE', 'BD23 5EU', 'BD23 5HB', 'BD23 5JA', 'BD23 5PH', 'BD23 5QZ', 'BD23 6AF', 'BD23 6ER', 'BD23 6HR', 'BD23 6LB', 'BD23 6NW', 'BD23 6QP', 'BD23 6SW', 'BD24 0AA', 'BD24 0AH', 'BD24 0AX', 'BD24 0AY', 'BD24 0DN', 'BD24 0ER', 'BD24 0HA', 'BD24 0HN', 'BD24 0JD', 'BD24 9AB', 'BD24 9AF', 'BD24 9AG', 'BD24 9AX', 'BD24 9BB', 'BD24 9BY', 'BD24 9EU', 'BD24 9JB', 'BD24 9LX', 'BD24 9PB', 'BD24 9QH', 'BD3 0JY', 'BD3 0PL', 'BD3 8EX', 'BD4 0RE', 'BD4 0RJ', 'BD4 0RL', 'BD4 0RR', 'BD4 0SB', 'BD4 0SF', 'BD4 6PB', 'BD4 6PY', 'BD4 6QY', 'BD4 6RB', 'BD4 6SE', 'BD4 6SF', 'BD4 6SG', 'BD4 6SP', 'BD4 6SX', 'BD4 7DG', 'BD4 7DT', 'BD4 7DX', 'BD4 7DY', 'BD4 7EP', 'BD4 7EZ', 'BD4 7HH', 'BD4 7PG', 'BD4 7PW', 'BD4 8HL', 'BD4 8PT', 'BD4 8SJ', 'BD4 8SL', 'BD4 8SX', 'BD4 8TU', 'BD4 8UF', 'BD4 8UG', 'BD4 9JF', 'BD4 9SW', 'BD5 8DB', 'BD5 8DT', 'BD5 9DX', 'BD5 9NP', 'BD6 1BA', 'BD6 1DW', 'BD6 1NT', 'BD6 1PN', 'BD6 1QN', 'BD6 1YA', 'BD6 2DA', 'BD6 2HQ', 'BD6 2LW', 'BD6 2LZ', 'BD6 2ND', 'BD6 2TE', 'BD6 3BY', 'BD6 3DJ', 'BD6 3DQ', 'BD6 3EW', 'BD6 3SL', 'BD7 1PU', 'BD7 2EQ', 'BD7 2PS', 'BD7 3EP', 'BD7 4LG', 'BD7 4NQ', 'BD8 7DD', 'BD8 7ER', 'BD8 7JT', 'BD8 8BG', 'BD8 8JW', 'BD8 9JU', 'BD8 9RY', 'BD9 4AD', 'BD9 5DD', 'BD9 5QQ', 'BD9 6HL', 'BH1 1RA', 'BH1 2JN', 'BH1 3SJ', 'BH1 3SW', 'BH1 4NB', 'BH1 4PJ', 'BH1 4RS', 'BH10 4BF', 'BH10 5BQ', 'BH10 5EH', 'BH10 5NR', 'BH10 6AG', 'BH10 6BG', 'BH10 6HN', 'BH10 7DG', 'BH10 7EU', 'BH11 8DQ', 'BH11 8JP', 'BH11 8JU', 'BH11 9AX', 'BH11 9BN', 'BH11 9DZ', 'BH11 9PB', 'BH11 9PT', 'BH12 1HE', 'BH12 1PX', 'BH12 2HQ', 'BH12 2JG', 'BH12 3AW', 'BH12 3BG', 'BH12 3LL', 'BH12 3LT', 'BH12 3NY', 'BH12 4AL', 'BH12 4AP', 'BH12 4BQ', 'BH12 4JN', 'BH12 4LZ', 'BH12 4ND', 'BH12 4NQ', 'BH12 4NR', 'BH12 4PN', 'BH12 4QR', 'BH12 4QZ', 'BH14 0DP', 'BH14 0RG', 'BH14 9AY', 'BH15 2ED', 'BH15 2EG', 'BH15 2PR', 'BH15 2RU', 'BH15 3ED', 'BH15 3SS', 'BH15 3TB', 'BH15 4AF', 'BH15 4AJ', 'BH15 4DN', 'BH15 4GJ', 'BH15 4JP', 'BH15 4JS', 'BH15 4LD', 'BH15 4PY', 'BH16 5EJ', 'BH16 5QW', 'BH16 6AG', 'BH16 6AJ', 'BH16 6BB', 'BH16 6DN', 'BH16 6HJ', 'BH16 6HS', 'BH16 6HX', 'BH16 6JW', 'BH16 6LS', 'BH16 6LT', 'BH16 6NB', 'BH17 0GA', 'BH17 0GD', 'BH17 0GF', 'BH17 0HL', 'BH17 0NF', 'BH17 0RJ', 'BH17 0RS', 'BH17 0UG', 'BH17 0UJ', 'BH17 7BD', 'BH17 7DP', 'BH17 7EB', 'BH17 7ED', 'BH17 7FJ', 'BH17 7YB', 'BH17 7YN', 'BH17 8PN', 'BH17 9AX', 'BH17 9HW', 'BH19 1AU', 'BH19 1EJ', 'BH19 1EL', 'BH19 2QR', 'BH19 3EB', 'BH19 3JP', 'BH19 3LE', 'BH2 5PS', 'BH2 5SY', 'BH2 6AZ', 'BH20 4AS', 'BH20 4BY', 'BH20 4DY', 'BH20 4EL', 'BH20 4JU', 'BH20 4LR', 'BH20 4NA', 'BH20 5BW', 'BH20 5JH', 'BH20 5LG', 'BH20 6DW', 'BH20 6HJ', 'BH20 6NJ', 'BH20 7AB', 'BH20 7AQ', 'BH20 7LA', 'BH20 7LS', 'BH20 7NT', 'BH20 7NW', 'BH20 7NX', 'BH20 7PJ', 'BH21 1BE', 'BH21 1UU', 'BH21 2DS', 'BH21 2ED', 'BH21 2LF', 'BH21 2PS', 'BH21 2PW', 'BH21 2SG', 'BH21 3AP', 'BH21 3AW', 'BH21 3BA', 'BH21 </t>
         </is>
@@ -858,18 +907,26 @@
       <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>london</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NEWMARKET</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>1582695</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>1658</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['ABBOTS LANGLEY', 'ABERAERON', 'ABERDARE', 'ABERDEEN', 'ABERFELDY', 'ABERGAVENNY', 'ABERGELE', 'ABERLOUR', 'ABERTILLERY', 'ABERYSTWYTH', 'ABINGDON', 'ABOYNE', 'ACCRINGTON', 'ACHARACLE', 'ACHNASHEEN', 'ADDLESTONE', 'AINTREE', 'AIRDRIE', 'ALBOURNE', 'ALCESTER', 'ALDERLEY EDGE', 'ALDERSHOT', 'ALDRIDGE', 'ALEXANDRIA', 'ALFORD', 'ALFRETON', 'ALLER', 'ALLOA', 'ALNESS', 'ALNWICK', 'ALRESFORD', 'ALSTON', 'ALTON', 'ALTRINCHAM', 'ALVA', 'AMBLESIDE', 'AMERSHAM', 'AMLWCH', 'AMMANFORD', 'ANDOVER', 'ANGLESEY', 'ANGLSEA', 'ANGMERING', 'ANGUS', 'ANNAN', 'ANNESLEY', 'ANSTRUTHER', 'APPIN', 'APPLEBY', 'APPLEBY-IN-WESTMORLAND', 'ARBROATH', 'ARDGAY', 'ARDLEIGH', 'ARDROSSAN', 'ARGYLL', 'ARGYLL &amp; BUTE', 'ARISAIG', 'ARLESEY', 'ARMAGH', 'ARUNDEL', 'ASCOT', 'ASHBOURNE', 'ASHBY-DE-LA-ZOUCH', 'ASHFORD', 'ASHINGTON', 'ASHTEAD', 'ASHTON - UNDER - LYNE', 'ASHTON-UNDER-LYNE', 'ASKAM-IN-FURNESS', 'ATHERSTONE', 'ATHERTON', 'ATTLEBOROUGH', 'AUCHTERARDER', 'AVIEMORE', 'AVOCH', 'AVONMOUTH', 'AXBRIDGE', 'AXMINSTER', 'AYLESBURY', 'AYLESFORD', 'AYLESHAM', 'AYR', 'AYRSHIRE', 'BACUP', 'BADMINTON', 'BAGILLT', 'BAGINTON', 'BAGSHOT', 'BAKEWELL', 'BALA', 'BALDOCK', 'BALERNO', 'BALLACHULISH', 'BALLATER', 'BALLINDALLOCH', 'BALLYCLARE', 'BALLYMENA', 'BALLYMONEY', 'BAMPTON', 'BANBURY', 'BANCHORY', 'BANFF', 'BANGOR', 'BANSTEAD', 'BANWELL', 'BARGOED', 'BARKING', 'BARMOUTH', 'BARNARD CASTLE', 'BARNET', 'BARNETBY', 'BARNOLDSWICK', 'BARNSLEY', 'BARNSTAPLE', 'BARROW-IN-FURNESS', 'BARROW-UPON-HUMBER', 'BARRY', 'BARTON ON HUMBER', 'BARTON-UPON-HUMBER', 'BASILDON', 'BASINGSTOKE', 'BATH', 'BATHGATE', 'BATLEY', 'BATTLE', 'BEACONSFIELD', 'BEAMINSTER', 'BEAULY', 'BEAUMARIS', 'BEAWORTHY', 'BECCLES', 'BECKENHAM', 'BECKERMET', 'BEDALE', 'BEDFORD', 'BEDFORDSHIRE', 'BEDLINGTON', 'BEDWORTH', 'BEESWING', 'BEITH', 'BELBROUCHTON', 'BELFAST', 'BELFORD', 'BELLSHILL', 'BELPER', 'BELVEDERE', 'BEMBRIDGE', 'BENFLEET', 'BERKELEY', 'BERKHAMSTED', 'BERKSHIRE', 'BERWICK ON TWEED', 'BERWICK-UPON-TWEED', 'BERWICKSHIRE', 'BETCHWORTH', 'BETWS-Y-COED', 'BEVERLEY', 'BEWDLEY', 'BEXHILL-ON-SEA', 'BEXLEY', 'BEXLEYHEATH', 'BICESTER', 'BIDEFORD', 'BIGGAR', 'BIGGLESWADE', 'BILLERICAY', 'BILLINGHAM', 'BILLINGSHURST', 'BILLINHAM', 'BILSTON', 'BINGLEY', 'BIRCHINGTON', 'BIRKENHEAD', 'BIRMINGHAM', 'BISHOP AUCKLAND', "BISHOP'S STORTFORD", 'BISHOPS CASTLE', 'BISHOPS CLEEVE', 'BISHOPS STORTFORD', 'BISHOPTON', 'BLACKBURN', 'BLACKPOOL', 'BLACKWOOD', 'BLAENAU FFESTINIOG', 'BLAIRGOWRIE', 'BLAKENEY', 'BLANDFORD', 'BLANDFORD FORUM', 'BLANTYRE', 'BLAYDON-ON-TYNE', 'BLISWORTH', 'BLYTH', "BO'NESS", 'BODMIN', 'BODORGAN', 'BOGNOR REGIS', 'BOLDON COLLIERY', 'BOLTON', 'BONCATH', 'BONESS', 'BONNYBRIDGE', 'BONNYRIGG', 'BOOTLE', 'BORDON', 'BOREHAMWOOD', 'BOROUGHBRIDGE', 'BORTH', 'BOSTON', 'BOURN', 'BOURNE', 'BOURNE END', 'BOURNEMOUTH', 'BOW STREET', 'BRACKLEY', 'BRACKNELL', 'BRADFORD', 'BRADFORD-ON-AVON', 'BRAINTREE', 'BRAMPTON', 'BRANDON', 'BRAUNTON', 'BRECHIN', 'BRECON', 'BRENTFORD', 'BRENTWOOD', 'BRIDGE OF WEIR', 'BRIDGEND', 'BRIDGNORTH', 'BRIDGWATER', 'BRIDLINGTON', 'BRIDPORT', 'BRIERLEY HILL', 'BRIGG', 'BRIGHOUSE', 'BRIGHTON', 'BRISTOL', 'BRIXHAM', 'BROADSTAIRS', 'BROADWAY', 'BROCKENHURST', 'BROMLEY', 'BROMSGROVE', 'BROMYARD', 'BRORA', 'BROSELEY', 'BROUGH', 'BROUGHTON', 'BROUGHTON-IN-FURNESS', 'BROXBOURNE', 'BROXBURN', 'BRUTON', 'BRYNTEG', 'BUCKFASTLEIGH', 'BUCKHURST HILL', 'BUCKIE', 'BUCKINGHAM', 'BUCKINGHAMSHIRE', 'BUCKLEY', 'BUCKNELL', 'BUCKS', 'BUDE', 'BUDLEIGH SALTERTON', 'BUILTH WELLS', 'BUNGAY', 'BUNTINGFORD', 'BURES', 'BURFORD', 'BURGESS HILL', 'BURNHAM ON CROUCH', 'BURNHAM-ON-CROUCH', 'BURNHAM-ON-SEA', 'BURNLEY', 'BURNTISLAND', 'BURNTWOOD', 'BURRY PORT', 'BURSCOUGH', 'BURTON-ON-TRENT', 'BURY', 'BURY ST EDMUNDS', 'BURY ST. EDMUNDS', 'BUSHEY', 'BUXTON', 'BY KYLE', 'Brockenhurst', 'Bromsgrove', 'CAERNARFON', 'CAERPHILLY', 'CAERSWS', 'CAIRNDOW', 'CAITHNESS', 'CALDICOT', 'CALLANDER', 'CALLINGTON', 'CALNE', 'CALSTOCK', 'CALTON', 'CAMBERLEY', 'CAMBORNE', 'CAMBRIDGE', 'CAMBS', 'CAMELFORD', 'CAMPBELTOWN', 'CANNOCK', 'CANONBIE', 'CANTERBURY', 'CANVEY ISLAND', 'CARDIFF', 'CARDIGAN', 'CARLISLE', 'CARLUKE', 'CARMARTHEN', 'CARMARTHENSHIRE', 'CARNFORTH', 'CARNOUSTIE', 'CARRBRIDGE', 'CARSHALTON', 'CARTERTON', 'CASTLE CARY', 'CASTLE DOUGLAS', 'CASTLEFORD', 'CATERHAM', 'CATTERICK GARRISON', 'CEMAES BAY', 'CEREDIGION', 'CF42 6DS', 'CHADLINGTON', 'CHALFONT ST. GILES', 'CHAPEL EN LE FRITH', 'CHAPEL-EN-LE-FRITH', 'CHARD', 'CHARNOCK RICHARD"', 'CHATHAM', 'CHATHILL', 'CHATTERIS', 'CHEADLE', 'CHEDDAR', 'CHELMSFORD', 'CHELTENHAM', 'CHELVEY', 'CHEPSTOW', 'CHERTSEY', 'CHESHAM', 'CHESSINGTON', 'CHESTER', 'CHESTER LE STREET', 'CHESTER-LE-STREET', 'CHESTERFIELD', 'CHICHESTER', 'CHIGWELL', 'CHILHAM', 'CHINNOR', 'CHIPPENHAM', 'CHIPPING CAMPDEN', 'CHIPPING NORTON', 'CHIPSTEAD', 'CHISLEHURST', 'CHOPPINGTON', 'CHORLEY', 'CHRISTCHURCH', 'CHULMLEIGH', 'CHURCH STRETTON', 'CINDERFORD', 'CIRENCESTER', 'CLACKMANNAN', 'CLACTON-ON-SEA', 'CLARBESTON ROAD', 'CLEATOR MOOR', 'CLECKHEATON', 'CLEETHORPES', 'CLEVEDON', 'CLIFTON', 'CLITHEROE', 'CLYDEBANK', 'CLYNDERWEN', 'CO DUBLIN', 'CO DURHAM', 'COALVILLE', 'COAST ROAD"', 'COATBRIDGE', 'COBHAM', 'COCKBURNSPATH', 'COCKERMOUTH', 'COLCHESTER', 'COLDSTREAM', 'COLEFORD', 'COLERAINE', 'COLESHILL', 'COLGATE', 'COLNBROOK', 'COLNE', 'COLWYN BAY', 'COLYTON', 'CONGLETON', 'CONISTON', 'CONNEL"', 'CONSETT', 'CONWY', 'CORBRIDGE', 'CORBY', 'CORNWALL', 'CORNWELL', 'CORSHAM', 'CORWEN', 'COSELEY', 'COTTINGHAM', 'COULSDON', 'COUNTY DURHAM', 'COVENTRY', 'COWBRIDGE', 'COWDENBEATH', 'COWES', 'CRADLEY HEATH', 'CRAIGAVON', 'CRAMLINGTON', 'CRANBROOK', 'CRANLEIGH', 'CRAVEN ARMS', 'CRAWFORDJOHN', 'CRAWLEY', 'CRAWTHORNE', 'CRAYFORD', 'CREDITON', 'CREWE', 'CREWKERNE', 'CRICCIETH', 'CRICKHOWELL', 'CRIEFF', 'CROMER', 'CROOK', 'CROSSHANDS', 'CROWBOROUGH', 'CROWTHORNE', 'CROYDON', 'CRUMLIN', 'CRYMYCH', 'CULLOMPTON', 'CUMBERNAULD', 'CUMBIA', 'CUMBRIA', 'CUMNOCK', 'CUPAR', 'CURRIE', 'CWMBRAN', 'Coalville', 'DAGENHAM', 'DALBEATTIE', 'DALKEITH', 'DALMALLY', 'DALRY', 'DALTON-IN-FURNESS', 'DARLASTON', 'DARLINGTON', 'DARTFORD', 'DARTMOUTH', 'DARVEL', 'DARWEN', 'DAVENTRY', 'DAWLISH', 'DEAL', 'DEESIDE', 'DENBIGH', 'DENNY', 'DERBY', 'DERBYSHIRE', 'DEREHAM', 'DEVIZES', 'DEVON', 'DEWSBURY', 'DIDCOT', 'DINAS POWYS', 'DINGWALL', 'DISS', 'DN20 8AU', 'DOLGELLAU', 'DONCASTER', 'DORCHESTER', 'DORKING', 'DORNOCH', 'DORSET', 'DOUNE', 'DOVER', 'DOWNHAM MARKET', 'DRIFFIELD', 'DROITWICH', 'DROITWICH SPA', 'DROMORE', 'DRONFIELD', 'DROYLSDEN', 'DRYBROOK', 'DUBLIN', 'DUBLIN 12', 'DUDLEY', 'DUKINFIELD', 'DULVERTON', 'DUMBARTON', 'DUMFRIES', 'DUMFRIES &amp; GALLOWAY', 'DUNBAR', 'DUNBLANE', 'DUNDEE', 'DUNFERMLINE', 'DUNGANNON', 'DUNKELD', 'DUNKERTON', 'DUNMOW', 'DUNOON', 'DUNS', 'DUNSTABLE', 'DURHAM', 'DURSLEY', 'DYFFRYN ARDUDWY', 'DYMOCK', 'EALING', 'EARLSTON', 'EAST BOLDON', 'EAST COWES', 'EAST DEREHAM', 'EAST GRINSTEAD', 'EAST HARLING', 'EAST LINTON', 'EAST LOTHIAN', 'EAST SUSSEX', 'EASTBOURNE', 'EASTLEIGH', 'EBBW VALE', 'ECCLES', 'EDENBRIDGE', 'EDGWARE', 'EDINBURGH', 'EDMONTON', 'EGHAM', 'EGREMONT', 'ELGIN', 'ELLAND', 'ELLESMERE', 'ELLESMERE PORT', 'ELLON', 'ELTHAM', 'ELY', 'EMSWORTH', 'ENFIELD', 'ENNISKILLEN', 'EPPING', 'EPSOM', 'ERITH', 'ERSKINE', 'ESHER', 'ESSEX', 'ETCHINGHAM', 'EVERCREECH', 'EVESHAM', 'EXETER', 'EXMOUTH', 'EYE', 'EYEMOUTH', 'FAIRFORD', 'FAKENHAM', 'FALKIRK', 'FALLSIDE IND EST', 'FALMOUTH', 'FAREHAM', 'FARINGDON', 'FARNBOROUGH', 'FARNHAM', 'FAVERSHAM', 'FELIXSTOWE', 'FELTHAM', 'FELTON', 'FERNDALE', 'FERNDOWN', 'FERRING', 'FERRYHILL', 'FERRYSIDE', 'FIFE', 'FILEY', 'FISHGUARD', 'FLEET', 'FLEETWOOD', 'FLINT', 'FLINT HILL"', 'FLINTSHIRE', 'FOCHABERS', 'FOLKESTONE', 'FORDINGBRIDGE', 'FOREST ROW', 'FORFAR', 'FORRES', 'FORT WILLIAM', 'FORTROSE', 'FOWEY', 'FRASERBURGH', 'FRINTON-ON-SEA', 'FRIZINGTON', 'FRODSHAM', 'FROME', 'FULHAM', 'FULL SUTTON', 'Felixstowe', 'GAERWEN', 'GAINSBOROUGH', 'GAIRLOCH', 'GALASHIELS', 'GALSTON', 'GARNDOLBENMAEN', 'GARVE', 'GATESHEAD', 'GATWICK', 'GENEMUIDEN', 'GERRARDS CROSS', 'GILLINGHAM', 'GIRVAN', 'GLASGOW', 'GLASTONBURY', 'GLENROTHES', 'GLOGUE', 'GLOSSOP', 'GLOUCESTER', 'GLOUCESTERSHIRE', 'GODALMING', 'GODSTONE', 'GOLSPIE', 'GOODWICK', 'GOOLE', 'GORDON', 'GOREBRIDGE', 'GOSPORT', 'GOUROCK', 'GRANGE-OVER-SANDS', 'GRANGEMOUTH', 'GRANTHAM', 'GRANTOWN-ON-SPEY', 'GRAVESEND', 'GRAYS', 'GREAT DUNMOW', 'GREAT MISSENDEN', 'GREAT YARMOUTH', 'GREATER MANCHESTER', 'GREENFORD', 'GREENHITHE', 'GREENOCK', 'GRETNA', 'GRIMSBY', 'GUILDFORD', 'GUISBOROUGH', 'GUNNISLAKE', 'GWENT', 'GWYNEDD', 'HADDINGTON', 'HAILSHAM', 'HAINAULT', 'HALESOWEN', 'HALESWORTH', 'HALIFAX', 'HALKIRK', 'HALSTEAD', 'HALTWHISTLE', 'HAMILTON', 'HAMPSHIRE', 'HAMPTON', 'HANTS', 'HANWORTH', 'HARLESTON', 'HARLOW', 'HARPENDEN', 'HARROGATE', 'HARROW', 'HARTFIELD', 'HARTHILL', 'HARTLEPOOL', 'HARWICH', 'HASLEMERE', 'HASSOCKS', 'HASTINGS', 'HATFIELD', 'HAUGHTON', 'HAVANT', 'HAVERFORDWEST', 'HAVERHILL', 'HAWES', 'HAWICK', 'HAWKHURST', 'HAYES', 'HAYLE', 'HAYLING ISLAND', 'HAYWARDS HEATH', 'HEANOR', 'HEATHFIELD', 'HEATHROW', 'HEBBURN', 'HEBDEN BRIDGE', 'HECKMONDWIKE', 'HELENSBURGH', 'HELMSDALE', 'HELSTON', 'HEMEL HEMPSTEAD', 'HENFIELD', 'HENGOED', 'HENLEY-IN-ARDEN', 'HENLEY-ON-THAMES', 'HENLOW', 'HEREFORD', 'HEREFORDSHIRE', 'HERNE BAY', 'HERSHAM', 'HERTFORD', 'HERTFORDSHIRE', 'HERTS', 'HESSLE', 'HESTON', 'HEXHAM', 'HEYWOOD', 'HIGH PEAK', 'HIGH WYCOMBE', 'HIGHAM FERRERS', 'HIGHBRIDGE', 'HINCKLEY', 'HITCHIN', 'HOCKLEY', 'HODDESDON', 'HOLMFIRTH', 'HOLMROOK', 'HOLSWORTHY', 'HOLT', 'HOLYHEAD', 'HOLYWELL', 'HONITON', 'HOOK', 'HOPE VALLEY', 'HORLEY', 'HORNCASTLE', 'HORNCHURCH', 'HORNDEAN', 'HORNSEA', 'HORSHAM', 'HORTON', 'HOTHFIELD', 'HOUGHTON LE SPRING', 'HOUGHTON-LE-SPRING', 'HOUNSLOW', 'HOUSTON', 'HOVE', 'HOWDEN', 'HUDDERSFIELD', 'HULL', 'HUMBIE', 'HUNGERFORD', 'HUNSTANTON', 'HUNTINGDON', 'HUNTLY', 'HURST', 'HUTHWAITE', 'HYDE', 'HYTHE', 'Herefordshire', 'Hindhead', 'IBSTOCK', 'ILFORD', 'ILFRACOMBE', 'ILKESTON', 'ILKLEY', 'ILMINSTER', 'IMMINGHAM', 'INGATESTONE', 'INNERLEITHEN', 'INSCH', 'INVERGARRY', 'INVERGORDON', 'INVERKEITHING', 'INVERNESS', 'INVERNESS-SHIRE', 'INVERURIE', 'IPSWICH', 'IRVINE', 'ISLE OF ANGLESEY', 'ISLE OF ARRAN', 'ISLE OF BARRA', 'ISLE OF BENBECULA', 'ISLE OF BUTE', 'ISLE OF CUMBRAE', 'ISLE OF HARRIS', 'ISLE OF ISLAY', 'ISLE OF JURA', 'ISLE OF LEWIS', 'ISLE OF MAN', 'ISLE OF MULL', 'ISLE OF NORTH UIST', 'ISLE OF SCALPAY', 'ISLE OF SKYE', 'ISLE OF SOUTH UIST', 'ISLE OF TIREE', 'ISLE OF WIGHT', 'ISLEWORTH', 'IVER', 'IVER HEATH', 'IVYBRIDGE', 'JARROW', 'JEDBURGH', 'JOHNSTONE', 'JUNIPER GREEN', 'KEIGHLEY', 'KEITH', 'KELSO', 'KELTY', 'KENDAL', 'KENFIG HILL', 'KENILWORTH', 'KENLEY', 'KENT', 'KESTON', 'KESWICK', 'KETTERING', 'KEYNSHAM', 'KIDDERMINSTER', 'KIDLINGTON', 'KIDWELLY', 'KILBIRNIE', 'KILGETTY', 'KILLIN', 'KILMANY ROAD', 'KILMARNOCK', 'KILMAURS', 'KILSYTH', 'KILWINNING', 'KINBRACE', "KING'S LYNN", 'KINGS LANGLEY', 'KINGS LYNN', 'KINGSBRIDGE', 'KINGSTON UPON THAMES', 'KINGSWINFORD', 'KINGTON', 'KINGUSSIE', 'KINLOCHLEVEN', 'KINROSS', 'KINSWINFORD', 'KIRKBY STEPHEN', 'KIRKBY-IN-FURNESS', 'KIRKCALDY', 'KIRKCUDBRIGHT', 'KIRKLISTON', 'KIRKNEWTON', 'KIRKWALL', 'KIRRIEMUIR', 'KNARESBOROUGH', 'KNEBWORTH', 'KNIGHTON', 'KNOTTINGLEY', 'KNUTSFORD', 'KYLE', 'LAINDON', 'LAIRG', 'LAMARSH"', 'LAMPETER', 'LANARK', 'LANARKSHIRE', 'LANCASTER', 'LANCING', 'LANGHOLM', 'LANGPORT', 'LARBERT', 'LARGS', 'LARKHALL', 'LASSWADE', 'LAUDER', 'LAUNCESTON', 'LAURENCEKIRK', 'LEAMINGTON SPA', 'LEATHERHEAD', 'LECHLADE', 'LEDBURY', 'LEE-ON-THE-SOLENT', 'LEEDS', 'LEEK', 'LEICESTER', 'LEICESTERSHIRE', 'LEIGH', 'LEIGH-ON-SEA', 'LEIGHTON BUZZARD', 'LEISTON', 'LEOMINSTER', 'LETCHWORTH', 'LETCHWORTH GARDEN CITY', 'LEVEN', 'LEWES', 'LEWISHAM', 'LEYBURN', 'LEYLAND', 'LICHFIELD', 'LIFTON', 'LIGHTWATER', 'LIMAVADY', 'LINCOLN', 'LINCOLNSHIRE', 'LINCS', 'LINGFIELD', 'LINLITHGOW', 'LIPHOOK', 'LISBURN', 'LISKEARD', 'LISS', 'LITTLE STANNEY', 'LITTLEBOROUGH', 'LITTLEBURY', 'LITTLEHAMPTON', 'LIVERPOOL', 'LIVERSEDGE', 'LIVINGSTON', 'LIVINGSTONE', 'LLANARTH', 'LLANBEDR', 'LLANBRYNMAIR', 'LLANDEILO', 'LLANDINAM', 'LLANDOVERY', 'LLANDRINDOD WELLS', 'LLANDUDNO', 'LLANDUDNO JUNCTION', 'LLANDYSUL', 'LLANELLI', 'LLANERCHYMEDD', 'LLANFAIRFECHAN', 'LLANFAIRPWLLGWYNGYLL', 'LLANFECHAIN', 'LLANFYLLIN', 'LLANFYRNACH', 'LLANGADOG', 'LLANGEFNI', 'LLANGOLLEN', 'LLANIDLOES', 'LLANON', 'LLANRHYSTUD', 'LLANRWST', 'LLANSANFFRAID', 'LLANSANTFFRAID', 'LLANTWIT MAJOR', 'LLANWRDA', 'LLANWRTYD WELLS', 'LLANYBYDDER', 'LLANYMYNECH', 'LOANHEAD', 'LOCHEARNHEAD', 'LOCHGELLY', 'LOCHGILPHEAD', 'LOCHWINNOCH', 'LOCKERBIE', 'LONDON', 'LONDONDERRY', 'LONGFIELD', 'LONGHOPE', 'LONGNIDDRY', 'LONGTOWN', 'LOOE', 'LOSTWITHIEL', 'LOUGHBOROUGH', 'LOUGHTON', 'LOUTH', 'LOWESTOFT', 'LUDLOW', 'LUTON', 'LUTTERWORTH', 'LYBSTER', 'LYDBROOK', 'LYDBURY NORTH', 'LYDNEY', 'LYME REGIS', 'LYMINGTON', 'LYMM', 'LYNDHURST', 'LYNTON', 'LYTHAM ST ANNES', 'LYTHAM ST. ANNES', 'MABLETHORPE', 'MACCLESFIELD', 'MACDUFF', 'MACHYNLLETH', 'MAESTEG', 'MAGHERA', 'MAGHULL', 'MAIDENHEAD', 'MAIDSTONE', 'MALDON', 'MALLAIG', 'MALMESBURY', 'MALPAS', 'MALTON', 'MALVERN', 'MANCHESTER', 'MANNINGTREE', 'MANSFIELD', 'MAPLETORPE', 'MARAZION', 'MARCH', 'MARGATE', 'MARKET DEEPING', 'MARKET DRAYTON', 'MARKET HARBOROUGH', 'MARKET RASEN', 'MARKET RESEN', 'MARKFIELD', 'MARLBOROUGH', 'MARLOW', 'MARTOCK', 'MARYPORT', 'MATLOCK', 'MAUCHLINE', 'MAYBOLE', 'MAYFIELD', 'MEIFOD', 'MELKSHAM', 'MELROSE', 'MELTON CONSTABLE', 'MELTON MOWBRAY', 'MENAI BRIDGE', 'MENSTRIE', 'MERRIOTT', 'MERSEYSIDE', 'MERTHYR TYDFIL', 'MEXBOROUGH', 'MIDDLESBOROUGH', 'MIDDLESBROUGH', 'MIDDLESEX', 'MIDDLEWICH', 'MIDHURST', 'MILFORD HAVEN', 'MILLOM', 'MILLTIMBER', 'MILNTHORPE', 'MILTON KEYNES', 'MINEHEAD', 'MINTLAW', 'MIRFIELD', 'MITCHAM', 'MITCHELDEAN', 'MOFFAT', 'MOLD', 'MONMOUTH', 'MONTGOMERY', 'MONTROSE', 'MORDEN', 'MORECAMBE', 'MORETON-IN-MARSH', 'MORPETH', 'MOTHERWELL', 'MOUNTAIN ASH', 'MUCH HADHAM', 'MUCH WENLOCK', 'MUIR OF ORD', 'MUNLOCHY', 'MUSSELBURGH', 'NAILSWORTH', 'NAIRN', 'NANTWICH', 'NARBERTH', 'NEATH', 'NELSON', 'NESTON', 'NETHERTON', 'NETHY BRIDGE', 'NEW MALDEN', 'NEW MILTON', 'NEW ROMNEY', 'NEW TREDEGAR', 'NEWARK', 'NEWBIGGIN-BY-THE-SEA', 'NEWBRIDGE', 'NEWBURY', 'NEWCASTLE', 'NEWCASTLE EMLYN', 'NEWCASTLE UNDER LYME', 'NEWCASTLE UPON TYNE', 'NEWCASTLE-UNDER-LYME', 'NEWCASTLE-UPON-TYNE', 'NEWCASTLETON', 'NEWENT', 'NEWHAVEN', 'NEWMARKET', 'NEWMILNS', 'NEWNHAM', 'NEWPORT', 'NEWPORT PAGNELL', 'NEWPORT, SOUTH WALES', 'NEWPORT-ON-TAY', 'NEWQUAY', 'NEWRY', 'NEWTON ABBOT', 'NEWTON AYCLIFFE', 'NEWTON STEWART', 'NEWTON-LE-WILLOWS', 'NEWTONMORE', 'NEWTOWN', 'NEWTOWNABBEY', 'NORFOLK', 'NORMANTON', 'NORTH BERSTED', 'NORTH BERWICK', 'NORTH EAST LINCOLNSHIRE', 'NORTH FERRIBY', 'NORTH LINCS', 'NORTH SHIELDS', 'NORTH TAWTON', 'NORTH WALSHAM', 'NORTH YORKSHIRE', 'NORTHALLERTON', 'NORTHAMPTON', 'NORTHANTS', 'NORTHFLEET', 'NORTHOLT', 'NORTHUMBERLAND', 'NORTHWICH', 'NORTHWOOD', 'NORWICH', 'NOTTINGHAM', 'NR ATHERSTONE', 'NR BUXTON', 'NR OSWESTRY', 'NR RETFORD', 'NR WIGAN', 'NR. WHITCHURCH', 'NUNEATON', 'NYH YORK', 'Nottingham', 'OAKHAM', 'OBAN', 'OKEHAMPTON', 'OLDBURY', 'OLDHAM', 'OLNEY', 'ONGAR', 'ORKNEY', 'ORMSKIRK', 'ORPINGTON', 'OSSETT', 'OSWESTRY', 'OTLEY', 'OTTERY ST. MARY', 'OVER WINSFORD', 'OWER', 'OXFORD', 'OXON', 'OXTED', 'PADSTOW', 'PAIGNTON', 'PAISLEY', 'PAR', 'PATHHEAD', 'PEACEHAVEN', 'PEEBLES', 'PEMBROKE', 'PEMBROKE DOCK', 'PEMBROKESHIRE', 'PENARTH', 'PENCADER', 'PENICUIK', 'PENMAENMAWR', 'PENRHYNDEUDRAETH', 'PENRITH', 'PENRYN', 'PENTRAETH', 'PENTRE', 'PENYSARN', 'PENZANCE', 'PERIVALE', 'PERRANPORTH', 'PERSHORE', 'PERTH', 'PERTHSHIRE', 'PETERBOROUGH', 'PETERCULTER', 'PETERHEAD', 'PETERLEE', 'PETERLEEE', 'PETERSFIELD', 'PETWORTH', 'PEVENSEY', 'PEWSEY', 'PICKERING', 'PINNER', 'PITLOCHRY', 'PLYMOUTH', 'POLEGATE', 'PONTEFRACT', 'PONTYCLUN', 'PONTYPOOL', 'PONTYPRIDD', 'POOLE', 'PORT GLASGOW', 'PORT ISAAC', 'PORT TALBOT', 'PORTH', 'PORTHCAWL', 'PORTHMADOG', 'PORTLAND', 'PORTREE', 'PORTSMOUTH', 'POTTERS BAR', 'POTTON', 'POULTON-LE-FYLDE', 'POWYS', 'PRENTON', 'PRESCOT', 'PRESTATYN', 'PRESTEIGNE', 'PRESTON', 'PRESTONPANS', 'PRESTWICK', 'PRINCES RISBOROUGH', 'PRUDHOE', 'PUDSEY', 'PULBOROUGH', 'PURFLEET', 'PURLEY', 'PWLLHELI', 'QUEENBOROUGH', 'RADLETT', 'RADSTOCK', 'RAINHAM', 'RAMSGATE', 'RAVENGLASS', 'RAYLEIGH', 'READING', 'REDCAR', 'REDDITCH', 'REDHILL', 'REDRUTH', 'REIGATE', 'RENFREW', 'RETFORD', 'RHAYADER', 'RHOSGOCH', 'RHYL', 'RICHMOND', 'RICHMOND-UPON-THAMES', 'RICKMANSWORTH', 'RIDING MILL', 'RIDLEY', 'RINGWOOD', 'RIPLEY', 'RIPON', 'ROBERTSBRIDGE', 'ROCHDALE', 'ROCHESTER', 'ROCHFORD', 'ROGART', 'ROMFORD', 'ROMNEY MARSH', 'ROMSEY', 'ROSLIN', 'ROSS-ON-WYE', 'ROSSENDALE', 'ROTHERHAM', 'ROTHESAY', 'ROTHWELL', "ROWLAND'S CASTLE", 'ROWLANDS GILL', 'ROWLEY REGIS', 'ROYSTON', 'RUARDEAN', 'RUGBY', 'RUGBY, WARWICKSHIRE', 'RUGELEY', 'RUISLIP', 'RUNCORN', 'RUSHDEN', 'RUTHIN', 'RYDE', 'RYE', 'RYTON', 'SAFFRON WALDEN', 'SALE', 'SALFORD', 'SALISBURY', 'SALTASH', 'SALTBURN-BY-THE-SEA', 'SALTCOATS', 'SANDBACH', 'SANDHURST', 'SANDOWN', 'SANDWICH', 'SANDY', 'SANQUHAR', 'SAUNDERSFOOT', 'SAWBRIDGEWORTH', 'SAXMUNDHAM', 'SCARBOROUGH', 'SCOTLAND', 'SCUNTHORPE', 'SEAFORD', 'SEAHAM', 'SEAHOUSES', 'SEASCALE', 'SEATON', 'SEAVIEW', 'SEDBERGH', 'SEDGFIELD', 'SELBY', 'SELKIRK', 'SETTLE', 'SEVENOAKS', 'SHAFTESBURY', 'SHANKLIN', 'SHEERNESS', 'SHEFFIELD', 'SHEFFORD', 'SHEPPERTON', 'SHEPPEY', 'SHEPTON MALLET', 'SHEPTON MALLETT', 'SHERBORNE', 'SHERINGHAM', 'SHETLAND', 'SHIFNAL', 'SHILDON', 'SHIPLEY', 'SHIPSTON-ON-STOUR', 'SHOREHAM-BY-SEA', 'SHOTTON COLLIERY', 'SHOTTS', 'SHREWSBURY', 'SHROPSHIRE', 'SIDCUP', 'SIDMOUTH', 'SITTINGBOURNE', 'SKEGNESS', 'SKELLINGTHORPE"', 'SKELMERSDALE', 'SKELMORLIE', 'SKIPTON', 'SLEAFORD', 'SLOUGH', 'SMETHWICK', 'SNODLAND', 'SOLIHULL', 'SOMERSET', 'SOMERTON', 'SOMPTING', 'SOTON', 'SOUTH BENFLEET', 'SOUTH BRENT', 'SOUTH CROYDON', 'SOUTH KILLINGHOLME', 'SOUTH LANARKSHIRE', 'SOUTH MOLTON', 'SOUTH NORMANTON', 'SOUTH OCKENDON', 'SOUTH PETHERTON', 'SOUTH QUEENSFERRY', 'SOUTH SHIELDS', 'SOUTH YORKSHIRE', 'SOUTHALL', 'SOUTHAM', 'SOUTHAMPTON', 'SOUTHEND-ON-SEA', 'SOUTHMINSTER', 'SOUTHPORT', 'SOUTHSEA', 'SOUTHSEA, HAMPSHIRE', 'SOUTHWELL', 'SOUTHWICK', 'SOUTHWOLD', 'SOWERBY BRIDGE', 'SPALDING', 'SPEAN BRIDGE', 'SPENNYMOOR', 'SPILSBY', 'ST ALBANS', 'ST ASAPH', 'ST HELENS', 'ST IVES', 'ST. AGNES', 'ST. ALBANS', 'ST. ANDREWS', 'ST. ASAPH', 'ST. AUSTELL', 'ST. COLUMB', 'ST. HELENS', 'ST. IVES', 'ST. LEONARDS-ON-SEA', 'ST. NEOTS', 'STAFFORD', 'STAFFORDSHIRE', 'STAINES', 'STAINES-UPON-THAMES', 'STALYBRIDGE', 'STAMFORD', 'STANFORD-LE-HOPE', 'STANLEY', 'STANMORE', 'STANSTEAD ABBOTTS', 'STANSTED', 'STEVENAGE', 'STEVENSTON', 'STEVENTON', 'STEYNING', 'STIRLING', 'STOCKBRIDGE', 'STOCKPORT', 'STOCKSFIELD', 'STOCKTON ON TEES', 'STOCKTON-ON-TEES', 'STOKE ON TRENT', 'STOKE-ON-TRENT', 'STOKE-SUB-HAMDON', 'STONE', 'STONEHAVEN', 'STONEHOUSE', 'STORNOWAY', 'STOURBRIDGE', 'STOURPORT', 'STOURPORT - ON - SEVERN', 'STOURPORT-ON-SEVERN', 'STOW ON THE WOLD', 'STOWMARKET', 'STRANRAER', 'STRATFORD-UPON-AVON', 'STRATHAVEN', 'STRATHCARRON', 'STRATHDON', 'STRATHPEFFER', 'STREET', 'STRETFORD', 'STROME FERRY', 'STROMNESS', 'STROOD', 'STROUD', 'STUDLEY', 'STURMINSTER NEWTON', 'SUDBURY', 'SUFFOLK', 'SUNBURY-ON-THAMES', 'SUNDERLAND', 'SURBITON', 'SURREY', 'SUTTON', 'SUTTON COLDFIELD', 'SUTTON IN ASHFIELD', 'SUTTON-IN-ASHFIELD', 'SWADLINCOTE', 'SWAFFHAM', 'SWANAGE', 'SWANLEY', 'SWANSCOMBE', 'SWANSEA', 'SWINDON', 'TADCASTER', 'TADLEY', 'TADWORTH', 'TAIN', 'TALSARNAU', 'TALYBONT', 'TAMWORTH', 'TARBERT', 'TARPORLEY', 'TAUNTON', 'TAVISTOCK', 'TAYNUILT', 'TAYPORT', 'TEDDINGTON', 'TEIGNMOUTH', 'TELFORD', 'TEMPLECOMBE', 'TENBURY WELLS', 'TENBY', 'TENTERDEN', 'TETBURY', 'TEWKESBURY', 'THAME', 'THAMES DITTON', 'THATCHAM', 'THETFORD', 'THIRSK', 'THORNHILL', 'THORNTON HEATH', 'THORNTON"', 'THORNTON-CLEVELEYS', 'THORPE', 'THURROCK', 'THURSO', 'TIDWORTH', 'TIGHNABRUAICH', 'TILBURY', 'TILLICOULTRY', 'TINGLEY', 'TINTAGEL', 'TIPTON', 'TIVERTON', 'TODBER', 'TODMORDEN', 'TONBRIDGE', 'TONYPANDY', 'TONYREFAIL', 'TORFAEN', 'TORPOINT', 'TORQUAY', 'TORRINGTON', 'TOTNES', 'TOWCESTER', 'TRANENT', 'TREDEGAR', 'TREGARON', 'TREHARRIS', 'TREORCHY', 'TRIMDON STATION', 'TRING', 'TROON', 'TROWBRIDGE', 'TRURO', 'TUNBRIDGE WELLS', 'TURRIFF', 'TWICKENHAM', 'TYLERS GREEN', 'TYNE &amp; WEAR', 'TYWYN', 'UCKFIELD', 'ULCEBY', 'ULLAPOOL', 'ULVERSTON', 'UMBERLEIGH', 'UPMINSTER', 'USK', 'UTTOXETER', 'UXBRIDGE', 'VENTNOR', 'VERWOOD', 'VIRGINIA WATER', 'WADEBRIDGE', 'WADHURST', 'WAKEFIELD', 'WALKERBURN', 'WALLASEY', 'WALLINGFORD', 'WALLINGTON', 'WALLSEND', 'WALPOLE', 'WALSALL', 'WALTHAM ABBEY', 'WALTHAM CROSS', 'WALTON ON THE NAZE', 'WALTON-ON-THAMES', 'WANTAGE', 'WARE', 'WAREHAM', 'WARESLEY"', 'WARLEY', 'WARLINGHAM', 'WARLINGHAM GREEN', 'WARMINSTER', 'WARRINGTON', 'WARWICK', 'WASHINGTON', 'WATCHET', 'WATERLOOVILLE', 'WATFORD', 'WATLINGTON', 'WEDMORE', 'WEDNESBURY', 'WELLING', 'WELLINGBOROUGH', 'WELLINGTON', 'WELLS', 'WELLS-NEXT-THE-SEA', 'WELSHPOOL', 'WELWYN', 'WELWYN GARDEN CITY', 'WEMBLEY', 'WEMYSS BAY', 'WEST BECKHAM', 'WEST BROMWICH', 'WEST BYFLEET', 'WEST CALDER', 'WEST DRAYTON', 'WEST HALLAM', 'WEST LINTON', 'WEST LOTHIAN', 'WEST MALLING', 'WEST MIDLANDS', 'WEST MOLESEY', 'WEST MOORS', 'WEST THURROCK', 'WEST WICKHAM', 'WEST WORCESTER', 'WEST YORKSHIRE', 'WESTBURY', 'WESTBURY-ON-SEVERN', 'WESTBY', 'WESTCLIFF-ON-SEA', 'WESTERHAM', 'WESTGATE-ON-SEA', 'WESTHAM', 'WESTHILL', 'WESTON-SUPER-MARE', 'WETHERBY', 'WEYBRIDGE', 'WEYMOUTH', 'WHITBY', 'WHITCHURCH', 'WHITEHAVEN', 'WHITLAND', 'WHITLEY BAY', 'WHITSTABLE', 'WHYTELEAFE', 'WICK', 'WICKFORD', 'WIDNES', 'WIGAN', 'WIGSTON', 'WIGTON', 'WILLENHALL', 'WILMSLOW', 'WIMBORNE', 'WIMBOURNE', 'WINCANTON', 'WINCHESTER', 'WINDERMERE', 'WINDLESHAM', 'WINDSOR', 'WINGATE', 'WINKLEIGH', 'WINSCOMBE', 'WINSFORD', 'WIRRAL', 'WISBECH', 'WISHAW', 'WITHAM', 'WITHERNSEA', 'WITNEY', 'WOKING', 'WOKINGHAM', 'WOLVERHAMPTON', 'WOMBOURNE', 'WOODBRIDGE', 'WOODFORD GREEN', 'WOODHALL SPA', 'WOODSTOCK', 'WOOLACOMBE', 'WOOLER', 'WORCESTER', 'WORCESTER PARK', 'WORCESTERSHIRE', 'WORKINGTON', 'WORKSOP', 'WORMINGHALL', 'WORTHING', 'WOTTON-UNDER-EDGE', 'WREXHAM', 'WROUGHTON', 'WYBOSTON', 'WYMONDHAM', 'Y FELINHELI', 'YARM', 'YARMOUTH', 'YATELEY', 'YELVERTON', 'YEOVIL', 'YORK', 'YORKLEY"', 'YSTRAD MEURIG', 'bangor', 'london']</t>
         </is>
@@ -928,18 +985,26 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>WORMIT"</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>355209</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>17</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['BOTHWELL"', 'BRIGG', 'CO5 8LT', 'CO8 5ER', 'DH9 9BB', 'GL15 4RT', 'IE', 'LE67 1AP', 'LN6 5SA', 'NL', 'PA37 1PT', 'PR7 5LF', 'SG19 3DA', 'ST. ANDREWS"', 'TREORCHY', 'UK', 'WORMIT"']</t>
         </is>
@@ -998,18 +1063,26 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>WEST MERSEA</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Community licence for goods transport</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>6617431</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>17</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['BURES', 'CHORLEY', 'COALVILLE', 'Community licence for goods transport', 'Community licence for passenger transport', 'DD6 8PG', 'G71 8DA', 'LINCOLN', 'LYDNEY', 'National licence for goods transport', 'National licence for passenger transport', 'OBAN', 'PE14 7LU', 'SANDY', 'STANLEY', 'UK', 'WEST MERSEA']</t>
         </is>
@@ -1068,18 +1141,26 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>WISBECH</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
         <v>390313</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>409</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '101', '102', '103', '104', '1046', '105', '106', '1065', '107', '108', '109', '1099', '11', '110', '1100', '111', '112', '1125', '113', '114', '115', '116', '117', '118', '1183', '119', '12', '120', '121', '122', '123', '124', '125', '126', '127', '1275', '128', '129', '13', '130', '131', '132', '133', '134', '135', '136', '137', '138', '139', '1397', '14', '140', '141', '142', '143', '1438', '144', '145', '146', '147', '148', '149', '15', '150', '151', '1513', '152', '153', '154', '155', '156', '157', '158', '159', '16', '160', '161', '162', '163', '164', '165', '166', '167', '168', '169', '17', '170', '172', '173', '1739', '174', '175', '176', '177', '1773', '178', '179', '18', '180', '1800', '182', '183', '184', '185', '1850', '186', '187', '188', '189', '1896', '19', '190', '191', '192', '193', '1932', '194', '195', '196', '198', '199', '2', '20', '200', '201', '202', '203', '204', '206', '207', '209', '21', '210', '211', '212', '213', '214', '215', '216', '217', '218', '219', '22', '220', '221', '222', '224', '225', '227', '228', '229', '23', '230', '231', '232', '2326', '234', '235', '236', '237', '238', '2381', '239', '24', '240', '2402', '242', '243', '245', '247', '248', '25', '250', '251', '253', '254', '255', '256', '257', '258', '26', '261', '262', '264', '265', '266', '267', '269', '27', '271', '275', '277', '279', '28', '280', '281', '283', '285', '286', '287', '29', '290', '291', '292', '295', '297', '299', '3', '30', '300', '303', '304', '305', '308', '309', '31', '310', '311', '312', '315', '316', '317', '32', '320', '321', '323', '325', '33', '330', '333', '335', '34', '340', '341', '342', '344', '346', '348', '35', '350', '352', '356', '357', '358', '36', '360', '365', '366', '368', '369', '37', '370', '372', '375', '378', '379', '38', '381', '385', '386', '389', '39', '390', '391', '393', '4', '40', '400', '401', '406', '41', '411', '412', '415', '417', '418', '42', '420', '428', '429', '43', '44', '446', '447', '45', '450', '453', '454', '46', '460', '461', '463', '468', '47', '470', '475', '476', '479', '48', '480', '487', '489', '49', '491', '493', '5', '50', '500', '508', '51', '510', '515', '517', '52', '526', '53', '54', '55', '56', '560', '561', '57', '570', '58', '580', '59', '6', '60', '600', '603', '605', '61', '62', '620', '621', '624', '63', '631', '64', '640', '647', '648', '65', '652', '66', '67', '670', '678', '68', '69', '7', '70', '700', '71', '72', '724', '727', '73', '733', '74', '75', '750', '76', '77', '78', '780', '79', '791', '8', '80', '801', '81', '810', '82', '83', '84', '85', '86', '87', '875', '88', '880', '885', '89', '898', '9', '90', '900', '91', '92', '93', '94', '95', '950', '96', '97', '975', '98', '99', 'Community licence for passenger transport', 'GLASGOW', 'NEWPORT-ON-TAY', 'National licence for goods transport', 'UK', 'WISBECH']</t>
         </is>
@@ -1138,18 +1219,22 @@
       <c r="P11" t="n">
         <v>48462</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>UKGB\PM1142851\00000</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>2445585</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>55408</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['12', '18', 'Community licence for goods transport', 'Community licence for passenger transport', 'National licence for goods transport', 'National licence for passenger transport', 'OB0034396\\00000', 'OB0034396\\00001', 'OB0101491\\00000', 'OB0101491\\00001', 'OB0101650\\00000', 'OB0101650\\00001', 'OB0101650\\00002', 'OB0101650\\00003', 'OB0101650\\00004', 'OB0101650\\00005', 'OB0175707\\00000', 'OB0175707\\00001', 'OB0184029\\00000', 'OB0184029\\00001', 'OB0184029\\00002', 'OB0184029\\00003', 'OB0184029\\00004', 'OB0184029\\00005', 'OB0184029\\00006', 'OB0184029\\00007', 'OB0184029\\00008', 'OB0184029\\00009', 'OB0184029\\00010', 'OB0184029\\00011', 'OB0184029\\00012', 'OB0184029\\00013', 'OB0184029\\00014', 'OB0184029\\00015', 'OB0184029\\00016', 'OB0184029\\00017', 'OB0184029\\00018', 'OB0184029\\00019', 'OB0184029\\00020', 'OB0184029\\00021', 'OB0184029\\00022', 'OB0184029\\00023', 'OB0184029\\00024', 'OB0184029\\00025', 'OB0184029\\00026', 'OB0184029\\00027', 'OB0184029\\00028', 'OB0184029\\00029', 'OB0184029\\00030', 'OB0184029\\00031', 'OB0184029\\00032', 'OB0184029\\00033', 'OB0184029\\00034', 'OB0184029\\00035', 'OB0184029\\00036', 'OB0184029\\00037', 'OB0184029\\00038', 'OB0184029\\00039', 'OB0184029\\00040', 'OB0184409\\00000', 'OB0184409\\00001', 'OB0184418\\00000', 'OB0184418\\00001', 'OB0184418\\00002', 'OB0187641\\00000', 'OB0188022\\00000', 'OB0188022\\00001', 'OB0188022\\00002', 'OB0189248\\00000', 'OB0189248\\00001', 'OB0189248\\00002', 'OB0189248\\00003', 'OB0189248\\00004', 'OB0189446\\00000', 'OB0189446\\00001', 'OB0189892\\00000', 'OB0189892\\00001', 'OB0194703\\00000', 'OB0194703\\00001', 'OB0194703\\00002', 'OB0195122\\00000', 'OB0195122\\00001', 'OB0195122\\00002', 'OB0195122\\00003', 'OB0195122\\00004', 'OB0195122\\00005', 'OB0195122\\00006', 'OB0195122\\00007', 'OB0195122\\00008', 'OB0195122\\00009', 'OB0195566\\00000', 'OB0195566\\00001', 'OB0195566\\00002', 'OB0195566\\00003', 'OB0195566\\00004', 'OB0195566\\00005', 'OB0195566\\00006', 'OB0195566\\00007', 'OB0195566\\00008', 'OB0203545\\00000', 'OB0203545\\00001', 'OB0203545\\00002', 'OB0203545\\00003', 'OB0203545\\00004', 'OB0203545\\00005', 'OB0204042\\00000', 'OB0204042\\00001', 'OB0204042\\00002', 'OB0205129\\00000', 'OB0205129\\00001', 'OB0205129\\00002', 'OB0205452\\00000', 'OB0205452\\00001', 'OB0205611\\00000', 'OB0205611\\00001', 'OB0205611\\00002', 'OB0205611\\00003', 'OB0205611\\00004', 'OB0205611\\00005', 'OB0205611\\00006', 'OB0211064\\00000', 'OB0211064\\00001', 'OB0211064\\00002', 'OB0211064\\00003', 'OB0213062\\00000', 'OB0213062\\00001', 'OB0213199\\00000', 'OB0213199\\00001', 'OB0213265\\00000', 'OB0213265\\00001', 'OB0213284\\00000', 'OB0213284\\00001', 'OB0213284\\00002', 'OB0213284\\00003', 'OB0213284\\00004', 'OB0213284\\00005', 'OB0213558\\00000', 'OB0213558\\00001', 'OB0213603\\00000', 'OB0213603\\00001', 'OB0213608\\00000', 'OB0213608\\00001', 'OB0213608\\00002', 'OB0213608\\00003', 'OB0213608\\00004', 'OB0213608\\00005', 'OB0213608\\00006', 'OB0213608\\00007', 'OB0213608\\00008', 'OB0213608\\00009', 'OB0213608\\00010', 'OB0213833\\00000', 'OB0213833\\00001', 'OB0213833\\00002', 'OB0213833\\00003', 'OB0213833\\00004', 'OB0220818\\00000', 'OB0222129\\00000', 'OB0222129\\00001', 'OB0222129\\00002', 'OB0223032\\00000', 'OB0223032\\00001', 'OB0223206\\00000', 'OB0223206\\00001', 'OB0223213\\00000', 'OB0223213\\00002', 'OB0223213\\00003', 'OB0223213\\00004', 'OB0223213\\00005', 'OB0223213\\00006', 'OB0223213\\00007', 'OB0223213\\00008', 'OB0223213\\00009', 'OB0223213\\00010', 'OB0223345\\00000', 'OB0223345\\00001', 'OB0223345\\00002', 'OB0223345\\00003', 'OB0223345\\00004', 'OB0223355\\00000', 'OB0223355\\00001', 'OB0223355\\00002', 'OB0223355\\00003', 'OB0223355\\00004', 'OB0223355\\00005', 'OB0223484\\00000', 'OB0223484\\00001', 'OB0223484\\00002', 'OB0223484\\00003', 'OB0223484\\00004', 'OB0223484\\00005', 'OB0223677\\00000', 'OB0223677\\00001', 'OB0223677\\00002', 'OB0223677\\00003', 'OB0223677\\00004', 'OB0223686\\00000', 'OB0223686\\00001', 'OB0223686\\00002', 'OB0223686\\00003', 'OB0227681\\00000', 'OB0227681\\00001', 'OB0228244\\00000', 'OB0228244\\00001', 'OB0230305\\00000', 'OB0230305\\00001', 'OB0230305\\00002', 'OB0230305\\00003', 'OB0230442\\00000', 'OB0230442\\00001', 'OB0230458\\00000', 'OB0230458\\00001', 'OB0230583\\00000', 'OB0230583\\00001', 'OB0230583\\00002', 'OB0230689\\00000', 'OB0230689\\00001', 'OB0230689\\00002', 'OB0230689\\00003', 'OB0230689\\00004', 'OB0230689\\00005', 'OB0230729\\00000', 'OB0230729\\00001', 'OB0230729\\00002', 'OB0230729\\00003', 'OB0230736\\00000', 'OB0230736\\00001', 'OB0230736\\00002', 'OB0230736\\00003', 'OB0230736\\00004', 'OB0230736\\00005', 'OB0230736\\00006', 'OB0230736\\00007', 'OB0230736\\00008', 'OB0230760\\00000', 'OB0230760\\00001', 'OB0230760\\00002', 'OB0230801\\00000', 'OB0230801\\00001', 'OB0231145\\00000', 'OB0231145\\00001', 'OB0231145\\00002', 'OB0231150\\00000', 'OB0231150\\00001', 'OB0231241\\00000', 'OB0231241\\00001', 'OB1038756\\00000', 'OB1038756\\00001', 'OB1058408\\00000', 'OB1058408\\00001', 'OB1060449\\00000', 'OB1060449\\00001', 'OB1060449\\00002', 'OB1060449\\00003', 'OB1060522\\00000', 'OB1060522\\00001', 'OB1060522\\00002', 'OB1060522\\00003', 'OB1060522\\00004', 'OB1060522\\00005', 'OB1060943\\00000', 'OB1060943\\00001', 'OB1061147\\00000', 'OB1061147\\00001', 'OB1061147\\00002', 'OB1061147\\00003', 'OB1061147\\00004', 'OB1061147\\00005', 'OB1061147\\00006', 'OB1061147\\00007', 'OB1061147\\00008', 'OB1061147\\00009', 'OB1061147\\00010', 'OB1061147\\00011', 'OB1061147\\00012', 'OB1061147\\00013', 'OB1061147\\00014', 'OB1061147\\00015', 'OB1063404\\00000', 'OB1063404\\00001', 'OB1063404\\00002', 'OB1063404\\00003', 'OB1063819\\00000', 'OB1063819\\00001', 'OB1063819\\00002', 'OB1087607\\00000', 'OB1089702\\00000', 'OB1097679\\00000', 'OB1099242\\00000', 'OB1099905\\00000', 'OB1102482\\00000', 'OB1102721\\00000', 'OB1102721\\00001', 'OB1103182\\00000', 'OB1103182\\00001', 'OB1103182\\00002', 'OB1103561\\00000', 'OB1103561\\00001', 'OB1104090\\00000', 'OB1104098\\00000', 'OB1104098\\00001', 'OB1104098\\00002', 'OB1105347\\00000', 'OC0041797\\00000', 'OC0041797\\00001', 'OC0041797\\00002', 'OC0041797\\00003', 'OC0041797\\00004', 'OC0041797\\00005', 'OC0041797\\00006', 'OC0041797\\00007', 'OC0041797\\00008', 'OC0041797\\00009', 'OC0041797\\00010', 'OC0041797\\00011', 'OC0041797\\00012', 'OC0041797\\00013', 'OC0041797\\00014', 'OC0041797\\00015', 'OC0041797\\00016', 'OC0041797\\00017', 'OC0041797\\00018', 'OC0041797\\00019', 'OC0041797\\00020', 'OC0041797\\00021', 'OC0041797\\00022', 'OC0041797\\00023', 'OC0041797\\00024', 'OC0041797\\00025', 'OC0041797\\00026', 'OC0041797\\00027', 'OC0041797\\00028', 'OC0041797\\00029', 'OC0041797\\00030', 'OC0041797\\00031', 'OC0041797\\00032', 'OC0041797\\00033', 'OC0041797\\00034', 'OC0041797\\00035', 'OC0041797\\00036', 'OC0041797\\00037', 'OC0041797\\00038', 'OC0041797\\00039', 'OC0041797\\00040', 'OC0041797\\00041', 'OC0041797\\00042', 'OC0041797\\00043', 'OC0041797\\00044', 'OC0041797\\00045', 'OC0041797\\00046', 'OC0041797\\00047', 'OC0041797\\00048', 'OC0041797\\00049', 'OC0041797\\00050', 'OC0049961\\00000', 'OC0049961\\00001', 'OC0049961\\00002', 'OC0049961\\00003', 'OC0049961\\00004', 'OC0049961\\00005', 'OC0049961\\00006', 'OC0049961\\00007', 'OC0049961\\00008', 'OC0049961\\00009', 'OC0049961\\00010', 'OC0049961\\00011', 'OC0049961\\00012', 'OC0049961\\00013', 'OC0049961\\00014', 'OC0049961\\00015', 'OC0120080\\00000', 'OC0120080\\00001', 'OC0120080\\00002', 'OC0120080\\00003', 'OC0120080\\00004', 'OC0120080\\00005', 'OC0120080\\00006', 'OC0120080\\00007', 'OC0120080\\00008', 'OC0120080\\00009', 'OC0120080\\00010', 'OC0120080\\00011', 'OC0120080\\00012', 'OC0120080\\00013', 'OC0120080\\00014', 'OC0120080\\00015', 'OC0120080\\00016', 'OC0120080\\00017', 'OC0120080\\00018', 'OC0120080\\00019', 'OC0120080\\00020', 'OC0120080\\00021', 'OC0120080\\00022', 'OC0120080\\00023', 'OC0120080\\00024', 'OC0120080\\00025', 'OC0120080\\00026', 'OC0185413\\00000', 'OC0185413\\00001', 'OC0185413\\00002', 'OC0185413\\00003', 'OC0185413\\00004', 'OC0185413\\00005', 'OC0185413\\00006', 'OC0185413\\00007', 'OC0185413\\00008', 'OC0185413\\00009', 'OC0185413\\00010', 'OC0185413\\00011', 'OC0185413\\00012', 'OC0185413\\00013', 'OC0185413\\00014', 'OC0185413\\00015', 'OC0206721\\00000', 'OC0206721\\00001', 'OC0206721\\00002', 'OC0206721\\00003', 'OC0206721\\00004', 'OC0206721\\00005', 'OC0206721\\00006', 'OC0206721\\00007', 'OC0225375\\00000', 'OC0225375\\00001', 'OC0225375\\00002', 'OC0225375\\00003', 'OC0225375\\00004', 'OC0225375\\00005', 'OC0225375\\00006', 'OC0225375\\00007', 'OC0225375\\00008', 'OC0225375\\00009', 'OC0225375\\00010', 'OC0225375\\00011', 'OC0225375\\00012', 'OC0225375\\00013', 'OC0225375\\00014', 'OC0225375\\00015', 'OC0225375\\00016', 'OC0225375\\00017', 'OC0225375\\00018', 'OC0225375\\00019', 'OC0225375\\00020', 'OC0225375\\00021', 'OC0225375\\00022', 'OC0225375\\00023', 'OC0225375\\00024', 'OC0225375\\00025', 'OC0225375\\00026', 'OC0225375\\00027', 'OC0225375\\00028', 'OC0225375\\00029', 'OC0225375\\00030', 'OC0225375\\00031', 'OC0225375\\00032', 'OC0225375\\00033', 'OC0225375\\00034', 'OC0225375\\00035', 'OC0225375\\00036', 'OC0225375\\00037', 'OC0225375\\00038', 'OC0225375\\00039', 'OC0225375\\00040', 'OC0225375\\00041', 'OC0225375\\00042', 'OC0225375\\00043', 'OC0225375\\00044', 'OC0225375\\00045', 'OC0225375\\00046', 'OC0225375\\00047', 'OC0225375\\00048', 'OC0225375\\00049', 'OC0225375\\00050', 'OC0225375\\00051', 'OC0225375\\00052', 'OC0225375\\00053', 'OC0225375\\00054', 'OC0226800\\00000', 'OC0226800\\00001', 'OC0226800\\00002', 'OC0226800\\00003', 'OC0226800\\00004', 'OC0226800\\00005', 'OC0226800\\00006', 'OC0226800\\00007', 'OC0226800\\00008', 'OC0226800\\00009', 'OC0226800\\00010', 'OC0238797\\00000', 'OC0238797\\00001', 'OC0245688\\00000', 'OC0245688\\00001', 'OC0246380\\00000', 'OC0246380\\00001', 'OC0246380\\00002', 'OC0247356\\00000', 'OC0247356\\00001', 'OC0253130\\00000', 'OC0253130\\00001', 'OC0254067\\00000', 'OC0254067\\00001', 'OC0254067\\00002', 'OC0254067\\00003', 'OC0256980\\00000', 'OC0256980\\00001', 'OC0256980\\00002', 'OC0257237\\00000', 'OC0257237\\00001', 'OC0257237\\00002', 'OC0258310\\00000', 'OC0258310\\00001', 'OC0258310\\00002', 'OC0258310\\00003', 'OC0258310\\00004', 'OC0258310\\00005', 'OC0258310\\00006', 'OC0258310\\00007', 'OC0258310\\00008', 'OC0258331\\00000', 'OC0258331\\00001', 'OC0258331\\00002', 'OC0258334\\00000', 'OC0258334\\00001', 'OC0258334\\00002', 'OC0258334\\00003', 'OC0258334\\00004', 'OC0259027\\00000', 'OC0259027\\00001', 'OC0259027\\00002', 'OC0275577\\00000', 'OC0275577\\00001', 'OC0275577\\00002', 'OC0275577\\00003', 'OC0275720\\00000', 'OC0275720\\00001', 'OC0275725\\00000', 'OC0275725\\00001', 'OC0275725\\00002', 'OC0275815\\00000', 'OC0275815\\00001', 'OC0275815\\00002', 'OC0275815\\00003', 'OC0278072\\00000', 'OC0278072\\00001', 'OC0278072\\00002', 'OC0278072\\00003', 'OC0278072\\00004', 'OC0278072\\00005', 'OC0278072\\00006', 'OC0278072\\00007', 'OC0278072\\00008', 'OC0278072\\00009', 'OC0278072\\00010', 'OC0278072\\00011', 'OC0278072\\00012', 'OC0278072\\00013', 'OC0278072\\00014', 'OC0278072\\00015', 'OC0278072\\00016', 'OC0278072\\00017', 'OC0278072\\00018', 'OC0278072\\00019', 'OC0278072\\00020', 'OC0278159\\00000', 'OC0278159\\00001', 'OC0278231\\00000', 'OC0278231\\00001', 'OC0278231\\00002', 'OC0278231\\00003', 'OC0278380\\00000', 'OC0278380\\00001', 'OC0278380\\00002', 'OC0278725\\00000', 'OC0278725\\00001', 'OC0288000\\00000', 'OC0288000\\00001', 'OC0288000\\00002', 'OC0288000\\00003', 'OC0288142\\00000', 'OC0288142\\00001', 'OC0288142\\00002', 'OC0288327\\00000', 'OC0288327\\00001', 'OC0288327\\00002', 'OC0288327\\00003', 'OC0288327\\00004', 'OC0288327\\00005', 'OC0288433\\00000', 'OC0288433\\00001', 'OC0288433\\00002', 'OC0288535\\00000', 'OC0288535\\00001', 'OC0288535\\00002', 'OC0288535\\00003', 'OC0288535\\00004', 'OC0288535\\00005', 'OC0288535\\00006', 'OC0288635\\00000', 'OC0288635\\00001', 'OC0288635\\00002', 'OC0288696\\00000', 'OC0288696\\00001', 'OC0288979\\00000', 'OC0288979\\00001', 'OC0288979\\00002', 'OC0288979\\00003', 'OC0288979\\00004', 'OC0289157\\00000', 'OC0289157\\00001', 'OC0293393\\00000', 'OC0294886\\00000', 'OC0295949\\00000', 'OC0295949\\00001', 'OC0295956\\00000', 'OC0295956\\00001', 'OC0296100\\00000', 'OC0296100\\00001', 'OC0296185\\00000', 'OC0296185\\00001', 'OC0296185\\00002', 'OC0296185\\00003', 'OC0296185\\00004', 'OC0296185\\00005', 'OC0296185\\00006', 'OC0296211\\00000', 'OC0296211\\00001', 'OC0296294\\00000', 'OC0296294\\00001', 'OC0296372\\00000', 'OC0296412\\00000', 'OC0296412\\00001', 'OC0296412\\00002', 'OC0296412\\00003', 'OC0296474\\00000', 'OC0296474\\00001', 'OC0296474\\00002', 'OC0296511\\00000', 'OC0296511\\00001', 'OC0296511\\00002', 'OC0296511\\00003', 'OC0296511\\00004', 'OC0296511\\00005', 'OC0296511\\00006', 'OC0296511\\00007', 'OC0296511\\00008', 'OC0296511\\00009', 'OC0296511\\00010', 'OC0296511\\00011', 'OC0296511\\00012', 'OC0296511\\00013', 'OC0296511\\00014', 'OC0296511\\00015', 'OC0296511\\00016', 'OC0296511\\00017', 'OC0296511\\00018', 'OC0296511\\00019', 'OC0296511\\00020', 'OC0296532\\00000', 'OC0296532\\00001', 'OC0296532\\00002', 'OC0296532\\00003', 'OC0296532\\00004', 'OC0296532\\00005', 'OC0296532\\00006', 'OC0296532\\00007', 'OC0296532\\00008', 'OC0296586\\00000', 'OC0296586\\00001', 'OC0296682\\00000', 'OC0296682\\00001', 'OC0296732\\00000', 'OC0296732\\00001', 'OC0296732\\00002', 'OC0296732\\00003', 'OC0296732\\00004', 'OC0296738\\00000', 'OC0296738\\00001', 'OC0296738\\00002', 'OC0296824\\00000', 'OC0296824\\00001', 'OC0296848\\00000', 'OC0296848\\00001', 'OC0296848\\00002', 'OC0296848\\00003', 'OC0296848\\00004', 'OC0296848\\00005', 'OC0296848\\00006', 'OC0296848\\00007', 'OC0296848\\00008', 'OC0296848\\00009', 'OC0296848\\00010', 'OC0296864\\00000', 'OC0296864\\00001', 'OC0296864\\00002', 'OC0296864\\00003', 'OC0296864\\00004', 'OC0296864\\00005', 'OC0296864\\00006', 'OC0296864\\00007', 'OC0296864\\00008', 'OC0296864\\00009', 'OC0296864\\00010', 'OC0296864\\00011', 'OC0296864\\00012', 'OC0296864\\00013', 'OC0296864\\00014', 'OC0296864\\00015', 'OC0296864\\00016', 'OC0296864\\00017', 'OC1029592\\00000', 'OC1029592\\00001', 'OC1037091\\00000', 'OC1037091\\00001', 'OC1037527\\00000', 'OC1041884\\00000', 'OC1058617\\00000', 'OC1058617\\00001', 'OC1058617\\00002', 'OC1058617\\00003', 'OC1058617\\00004', 'OC1058617\\00005', 'OC1058617\\00006', 'OC1058863\\00000', 'OC1058863\\00001', 'OC1059264\\00000', 'OC1059264\\00001', 'OC1059264\\00002', 'OC1059563\\00000', 'OC1059563\\00001', 'OC1059563\\00002', 'OC1059563\\00003', 'OC1059563\\00004', 'OC1059563\\00005', 'OC1059563\\00006', 'OC1060236\\00000', 'OC1060236\\00001', 'OC1060236\\00002', 'OC1060236\\00003', 'OC1060236\\00004', 'OC1060236\\00005', 'OC1060236\\00006', 'OC1060236\\00007', 'OC1060236\\00008', 'OC1060326\\00000', 'OC1060326\\00001', 'OC1060614\\00000', 'OC1060614\\00001', 'OC1060614\\00002', 'OC1060614\\00003', 'OC1060614\\00004', 'OC1060614\\00005', 'OC1060614\\00006', 'OC1060614\\00007', 'OC1060614\\00008', 'OC1060614\\00009', 'OC1060614\\00010', 'OC1061112\\00000', 'OC1061112\\00001', 'OC1061112\\00002', 'OC1061112\\00003', 'OC1061112\\00004', 'OC1061112\\00005', 'OC1061112\\00006', 'OC1061112\\00007', 'OC1061112\\00008', 'OC1061911\\00000', 'OC1061911\\00001', 'OC1062217\\00000', 'OC1062217\\00001', 'OC1064583\\00000', 'OC1064583\\00001', 'OC1064791\\00000', 'OC1064791\\00001', 'OC1064791\\00002', 'OC1084869\\00000', 'OC1084869\\00001', 'OC1091496\\00000', 'OC1091496\\00001', 'OC1097200\\00000', 'OC1097200\\00001', 'OC1097200\\00002', 'OC1097200\\00003', 'OC1099299\\00000', 'OC1099299\\00001', 'OC1099870\\00007', 'OC1099870\\00008', 'OC1099870\\00009', 'OC1100765\\00000', 'OC1103461\\00000', 'OC1103461\\00001', 'OC1103615\\00000', 'OC1103615\\00001', 'OC1103615\\00002', 'OC1103615\\00003', 'OC1103615\\00004', 'OC1103615\\00005', 'OC1103615\\00006', 'OC1103615\\00007', 'OC1103615\\00008', 'OC1103615\\00009', 'OC1103615\\00010', 'OC1103615\\00011', 'OC1103615\\00012', 'OC1103615\\00013', 'OC1103615\\00014', 'OC1103615\\00015', 'OC1104313\\00000', 'OC1104313\\00001', 'OC1104511\\00000', 'OC1104511\\00001', 'OC1104511\\00002', 'OC1104511\\00003', 'OC1104511\\00004', 'OC1104511\\00005', 'OC1104511\\00006', 'OC1104511\\00007', 'OC1104511\\00008', 'OC1104511\\00009', 'OC1104511\\00010', 'OC1104511\\00011', 'OC1104511\\00012', 'OC1105624\\00000', 'OC1105624\\00001', 'OC1105624\\00002', 'OC1105624\\00003', 'OC1111392\\00001', 'OD0035313\\00000', 'OD0035313\\00001', 'OD0035313\\00002', 'OD0035313\\00003', 'OD0035313\\00004', 'OD0035313\\00005', 'OD0107295\\00000', 'OD0107295\\00001', 'OD0140290\\00000', 'OD0140290\\00001', 'OD0140290\\00002', 'OD0140290\\00003', 'OD0140290\\00004', 'OD0140290\\00005', 'OD0140290\\00006', 'OD0140290\\00007', 'OD0140290\\00008', 'OD0140290\\00009', 'OD0140290\\00010', 'OD0140290\\00011', 'OD0166042\\00000', 'OD0166042\\00001', 'OD0170942\\00000', 'OD0170942\\00001', 'OD0171445\\00000', 'OD0171445\\00001', 'OD0171445\\00002', 'OD0171445\\00003', 'OD0171445\\00004', 'OD0171445\\00005', 'OD0171445\\00006', 'OD0171445\\00007', 'OD0171445\\00008', 'OD0171445\\00009', 'OD0171445\\00010', 'OD0171445\\00011', 'OD0171445\\00012', 'OD0171445\\00013', 'OD0171445\\00014', 'OD0171445\\00015', 'OD0171445\\00016', 'OD0171445\\00017', 'OD0171767\\00000', 'OD0171767\\00001', 'OD0174011\\00000', 'OD0174011\\00001', 'OD0180621\\00000', 'OD0180621\\00001', 'OD0180621\\00002', 'OD0186493\\00000', 'OD0186493\\00001', 'OD0187060\\00000', 'OD0187060\\00001', 'OD0187060\\00002', 'OD0187060\\00003', 'OD0187060\\00004', 'OD0187309\\00000', 'OD0187309\\00001', 'OD0187309\\00002', 'OD0187309\\00003', 'OD0187309\\00004', 'OD0187309\\00005', 'OD0187309\\00006', 'OD0187309\\00007', 'OD0187309\\00008', 'OD0187309\\00009', 'OD0187309\\00010', 'OD0187309\\00011', 'OD0187309\\00012', 'OD0187309\\00013', 'OD0187309\\00014', 'OD0187309\\00015', 'OD0187309\\00016', 'OD0187309\\00017', 'OD0187309\\00018', 'OD0187309\\00019', 'OD0187309\\00020', 'OD0187309\\00021', 'OD0187309\\00022', 'OD0187309\\00023', 'OD0187309\\00024', 'OD0187309\\00025', 'OD0187309\\00026', 'OD0187309\\00027', 'OD0187309\\00028', 'OD0187309\\00029', 'OD0187309\\00030', 'OD0187309\\00031', 'OD0187309\\00032', 'OD0187309\\00033', 'OD0187309\\00034', 'OD0187309\\00035', 'OD0187309\\00036', 'OD0187309\\00037', 'OD0187309\\00038', 'OD0187309\\00039', 'OD0187309\\00040', 'OD0187309\\00041', 'OD0187309\\00042', 'OD0187309\\00043', 'OD0187309\\00044', 'OD0187309\\00045', 'OD0187309\\00046', 'OD0187309\\00047', 'OD0187309\\00048', 'OD0187309\\00049', 'OD0187309\\00050', 'OD0187309\\00051', 'OD0187309\\00052', 'OD0187309\\00053', 'OD0187309\\00054', 'OD0187309\\00055', 'OD0187309\\00056', 'OD0187309\\00057', 'OD0200697\\00000', 'OD0200697\\00001', 'OD0200697\\00002', 'OD0200697\\00003', 'OD0200697\\00004', 'OD0200705\\00000', 'OD0200705\\00001', 'OD0200705\\00002', 'OD0200705\\00003', 'OD0200705\\00004', 'OD0200705\\00005', 'OD0200705\\00006', 'OD0200705\\00007', 'OD0200705\\00008', 'OD0200705\\00009', 'OD0200705\\00010', 'OD0200735\\00000', 'OD0200735\\00001', 'OD0200735\\00002', 'OD0200735\\00003', 'OD0200735\\00004', 'OD0200970\\00000', 'OD0200970\\00001', 'OD0203898\\00000', 'OD0203898\\00001', 'OD0203898\\00002', 'OD0203898\\00003', 'OD0203898\\00004', 'OD0203898\\00005', 'OD0203898\\00006', 'OD0203898\\00007', 'OD0203898\\00008', 'OD0203898\\00009', 'OD0203898\\00010', 'OD0203898\\00011', 'OD0203898\\00012', 'OD0203898\\00013', 'OD0203898\\00014', 'OD0203898\\00015', 'OD0203898\\00016', 'OD0252128\\00000', 'OD0253270\\00000', 'OD0253270\\00001', 'OD0255076\\00000', 'OD0255076\\00001', 'OD0255076\\00002', 'OD0255076\\00003', 'OD0255076\\00004', 'OD0255076\\00005', 'OD0255076\\00006', 'OD0255076\\00007', 'OD0255076\\00008', 'OD0255238\\00000', 'OD0255238\\00001', 'OD0255287\\00000', 'OD0255287\\00001', 'OD0255355\\00000', 'OD0255355\\00001', 'OD0255355\\00002', 'OD0255381\\00000', 'OD0255381\\00001', 'OD0255381\\00002', 'OD0255381\\00003', 'OD0261293\\00000', 'OD0261293\\00001', 'OD0261293\\00002', 'OD0261293\\00003', 'OD0261293\\00004', 'OD0261293\\00005', 'OD0261293\\00006', 'OD0261293\\00007', 'OD0261293\\00008', 'OD0261293\\00009', 'OD0261293\\00010', 'OD0261502\\00000', 'OD0261502\\00001', 'OD0261502\\00002', 'OD0261502\\00003', 'OD0261502\\00004', 'OD0261502\\00005', 'OD0261858\\00000', 'OD0261858\\00001', 'OD0261858\\00002', 'OD0266261\\00000', 'OD0266261\\00001', 'OD0266311\\00000', 'OD0266311\\00001', 'OD0266311\\00002', 'OD0266417\\00000', 'OD0266417\\00001', 'OD0266449\\00000', 'OD0266449\\00001', 'OD0266476\\00000', 'OD0266476\\00001', 'OD0266483\\00000', 'OD0266483\\00001', 'OD0266483\\00002', 'OD0266483\\00003', 'OD0266483\\00004', 'OD0266483\\00005', 'OD0266483\\00006', 'OD0266508\\00000', 'OD0266508\\00001', 'OD0266527\\00000', 'OD0266527\\00001', 'OD0266527\\00002', 'OD0266527\\00003', 'OD0266527\\00004', 'OD0266527\\00005', 'OD0266533\\00000', 'OD0266533\\00001', 'OD0266696\\00000', 'OD0266721\\00000', 'OD0266721\\00001', 'OD0266747\\00000', 'OD0266747\\00001', 'OD0266805\\00000', 'OD0266805\\00001', 'OD1057739\\00000', 'OD1057739\\00001', 'OD1058282\\00000', 'OD1058282\\00001', 'OD1059893\\00000', 'OD1059893\\00001', 'OD1059893\\00002', 'OD1059893\\00003', 'OD1059893\\00004', 'OD1059893\\00005', 'OD1059893\\00006', 'OD1060757\\00000', 'OD1060757\\00001', 'OD1061208\\00000', 'OD1061208\\00001', 'OD1061208\\00002', 'OD1061208\\00003', 'OD1062245\\00000', 'OD1062245\\00001', 'OD1062245\\00002', 'OD1062245\\00003', 'OD1087741\\00000', 'OD1087741\\00001', 'OD1087741\\00002', 'OD1088302\\00000', 'OD1088302\\00001', 'OD1088302\\00002', 'OD1088302\\00003', 'OD1088302\\00004', 'OD1088302\\00005', 'OD1088302\\00006', 'OD1088302\\00007', 'OD1089425\\00000', 'OD1089425\\00001', 'OD1089425\\00002', 'OD1089425\\00003', 'OD1089425\\00004', 'OD1090139\\00000', 'OD1090139\\00001', 'OD1090352\\00000', 'OD1090352\\00001', 'OD1090352\\00002', 'OD1090352\\00003', 'OD1090352\\00004', 'OD1090352\\00005', 'OD1090352\\00006', 'OD1091490\\00000', 'OD1091490\\00001', 'OD1091595\\00000', 'OD1091595\\00001', 'OD1093410\\00000', 'OD1093410\\00001', 'OD1093410\\00002', 'OD1097928\\00000', 'OD1097928\\00001', 'OD1097928\\00002', 'OD1097928\\00003', 'OD1097928\\00004', 'OD1102596\\00000', 'OD1102596\\00001', 'OD1102633\\00000', 'OD1102633\\00001', 'OD1102633\\00002', 'OD1104168\\00000', 'OD1104168\\00001', 'OD1104616\\00000', 'OD1104616\\00001', 'OD1104616\\00002', 'OD1104710\\00000', 'OD1104710\\00001', 'OD1104710\\00002', 'OD1105416\\00000', 'OD1105416\\00001', 'OD1105416\\00002', 'OD1105416\\00003', 'OD1105416\\00004', 'OD1105416\\00005', 'OD1105416\\00006', 'OD1105504\\00000', 'OD1105504\\00001', 'OD1105504\\00002', 'OD1105504\\00003', 'OD1105504\\00004', 'OD1105504\\00005', 'OD1105576\\00000', 'OD1105576\\00001', 'OD1105576\\00002', 'OD1105576\\00003', 'OD1105899\\00000', 'OD1105899\\00001', 'OD1105899\\00002', 'OD1105962\\00000', 'OD1105962\\00001', 'OF0019585\\00000', 'OF0019585\\00001', 'OF0019585\\00002', 'OF0030839\\00000', 'OF0030839\\00001', 'OF0030839\\00002', 'OF0030839\\00003', 'OF0030839\\00004', 'OF0030839\\00005', 'OF0030839\\00006', 'OF0030839\\00007', 'OF0030839\\00008', 'OF0030839\\00009', 'OF0030839\\00010', 'OF0030839\\00011', 'OF0030839\\00012', 'OF0030839\\00013', 'OF0030839\\00014', 'OF0030839\\00015', 'OF0030839\\00016', 'OF0030839\\00017', 'OF0030839\\00018', 'OF0030839\\00019', 'OF0030839\\00020', 'OF0030839\\00021', 'OF0030839\\00022', 'OF0030839\\00023', 'OF0030839\\00024', 'OF0030839\\00025', 'OF0032301\\00000', 'OF0032301\\00001', 'OF0034925\\00000', 'OF0034925\\00001', 'OF0034925\\00002', 'OF0034925\\00003', 'OF0034925\\00004', 'OF0034925\\00005', 'OF0034925\\00006', 'OF0034925\\00007', 'OF0034925\\00008', 'OF0034925\\00009', 'OF0034925\\00010', 'OF0034925\\00011', 'OF0034925\\00012', 'OF0034925\\00013', 'OF0034925\\00014', 'OF0034925\\00015', 'OF0034925\\00016', 'OF0034925\\00017', 'OF0034925\\00018', 'OF0034925\\00019', 'OF0034925\\00020', 'OF0034925\\00021', 'OF0034925\\00022', 'OF0034925\\00023', 'OF0034925\\00024', 'OF0034925\\00025', 'OF0034925\\00026', 'OF0034925\\00027', 'OF0034925\\00028', 'OF0034925\\00029', 'OF0034925\\00030', 'OF0034925\\00031', 'OF0034925\\00032', 'OF0034925\\00033', 'OF0034925\\00034', 'OF0034925\\00035', 'OF0034925\\00036', 'OF0034925\\00037', 'OF0034925\\00038', 'OF0034925\\00039', 'OF0034925\\00040', 'OF0034925\\00041', 'OF0034925\\00042', 'OF0034925\\00043', 'OF0034925\\00044', 'OF0034925\\00045', 'OF0034925\\00046', 'OF0034925\\00047', 'OF0034925\\00048', 'OF0034925\\00049', 'OF0034925\\00050', 'OF0034925\\00051', 'OF0034925\\00052', 'OF0034925\\00053', 'OF0034925\\00054', 'OF0034925\\00055', 'OF0034925\\00056', 'OF0034925\\00057', 'OF0034925\\00058', 'OF0034925\\00059', 'OF0034925\\00060', 'OF0034925\\00061', 'OF0034925\\00062', 'OF0034925\\00063', 'OF0034925\\00064', 'OF0034925\\00065', 'OF0034925\\00066', 'OF0034925\\00067', 'OF0034925\\00068', 'OF0034925\\00069', 'OF0034925\\00070', 'OF0034925\\00071', 'OF0034925\\00072', 'OF0034925\\00073', 'OF0034925\\00074', 'OF0034925\\00075', 'OF0034925\\00076', 'OF0034925\\00077', 'OF0034925\\00078', 'OF0034925\\00079', 'OF0034925\\00080', 'OF0034925\\00081', 'OF0034925\\00082', 'OF0034925\\00083', 'OF0034925\\00084', 'OF0034925\\00085', 'OF0034925\\00086', 'OF0034925\\00087', 'OF0034925\\00088', 'OF0034925\\00089', 'OF0034925\\00090', 'OF0034925\\00091', 'OF0034925\\00092', 'OF0034925\\00093', 'OF0034925\\00094', 'OF0034925\\00095', 'OF0034925\\00096', 'OF0034925\\00097', 'OF0034925\\00098', 'OF0034925\\00099', 'OF0034925\\00100', 'OF0034925\\00101', 'OF0034925\\00102', 'OF0034925\\00103', 'OF0034925\\00104', 'OF0034925\\00105', 'OF0034925\\00106', 'OF0034925\\00107', 'OF0034925\\00108', 'OF0034925\\00109', 'OF0034925\\00110', 'OF0034925\\00111', 'OF0034925\\00112', 'OF0034925\\00113', 'OF0034925\\00114', 'OF0034925\\00115', 'OF0034925\\00116', 'OF0034925\\00117', 'OF0034925\\00118', 'OF0034925\\00119', 'OF0034925\\00120', 'OF0034925\\00121', 'OF0034925\\00122', 'OF0034925\\00123', 'OF0034925\\00124', 'OF0034925\\00125', 'OF0034925\\00126', 'OF0034925\\00127', 'OF0034925\\00128', 'OF0034925\\00129', 'OF0034925\\00130', 'OF0034925\\00131', 'OF0034925\\00132', 'OF0034925\\00133', 'OF0034925\\00134', 'OF0034925\\00135', 'OF0034925\\00136', 'OF0034925\\00137', 'OF0034925\\00138', 'OF0034925\\00139', 'OF0034925\\00140', 'OF0034925\\00141', 'OF0034925\\00142', 'OF0034925\\00143', 'OF0034925\\00144', 'OF0034925\\00145', 'OF0034925\\00146', 'OF0034925\\00147', 'OF0034925\\00148', 'OF0034925\\00149', 'OF0034925\\00150', 'OF0034925\\00151', 'OF0034925\\00152', 'OF0034925\\00153', 'OF0034925\\00154', 'OF0034925\\00155', 'OF0034925\\00156', 'OF0034925\\00157', 'OF0034925\\00158', 'OF0034925\\00159', 'OF0034925\\00160', 'OF0034925\\00161', 'OF0034925\\00162', 'OF0034925\\00163', 'OF0034925\\00164', 'OF0034925\\00165', 'OF0034925\\00166', 'OF0034925\\00167', 'OF0034925\\00168', 'OF0034925\\00169', 'OF0034925\\00170', 'OF0034925\\00171', 'OF0034925\\00172', 'OF0034925\\00173', 'OF0034925\\00174', 'OF0034925\\00175', 'OF0034925\\00176', 'OF0034925\\00177', 'OF0034925\\00178', 'OF0034925\\00179', 'OF0034925\\00180', 'OF0034925\\00181', 'OF0034925\\00182', 'OF0034925\\00183', 'OF0034925\\00184', 'OF0034925\\00185', 'OF0034925\\00186', 'OF0034925\\00187', 'OF0034925\\00188', 'OF0034925\\00189', 'OF0034925\\00190', 'OF0034925\\00191', 'OF0034925\\00192', 'OF0034925\\00193', 'OF0034925\\00194', 'OF0034925\\00195', 'OF0034925\\00196', 'OF0034925\\00197', 'OF0034925\\00198', 'OF0034925\\00199', 'OF0034925\\00200', 'OF0034925\\00201', 'OF0034925\\00202', 'OF0034925\\00203', 'OF0034925\\00204', 'OF0034925\\00205', 'OF0034925\\00206', 'OF0034925\\00207', 'OF0034925\\00208', 'OF0034925\\00209', 'OF0034925\\00210', 'OF0034925\\00211', 'OF0034925\\00212', 'OF0034925\\00213', 'OF0034925\\00214', 'OF0034925\\00215', 'OF0034925\\00216', 'OF0034925\\00217', 'OF0034925\\00218', 'OF0034925\\00219', 'OF0034925\\00220', 'OF0034925\\00221', 'OF0034925\\00222', 'OF0034925\\00223', 'OF0034925\\00224', 'OF0034925\\00225', 'OF0034925\\00226', 'OF0034925\\00227', 'OF0034925\\00228', 'OF0034925\\00229', 'OF0034925\\00230', 'OF0034925\\00231', 'OF0034925\\00232', 'OF0034925\\00233', 'OF0034925\\00234', 'OF0034925\\00235', 'OF0034925\\00236', 'OF0034925\\00237', 'OF0034925\\00238', 'OF0034925\\00239', 'OF0034925\\00240', 'OF0034925\\00241', 'OF0034925\\00242', 'OF0034925\\00243', 'OF0034925\\00244', 'OF0034925\\00245', 'OF0034925\\00246', 'OF0034925\\00247', 'OF0034925\\00248', 'OF0034925\\00249', 'OF0034925\\00250', 'OF0034925\\00251', 'OF0034925\\00252', 'OF0034925\\00253', 'OF0034925\\00254', 'OF0034925\\00255', 'OF0034925\\00256', 'OF0034925\\00257', 'OF0034925\\00258', 'OF0034925\\00259', 'OF0034925\\00260', 'OF0034925\\00261', 'OF0034925\\00262', 'OF0034925\\00263', 'OF0034925\\00264', 'OF0034925\\00265', 'OF0034925\\00266', 'OF0034925\\00267', 'OF0034925\\00268', 'OF0034925\\00269', 'OF0034925\\00270', 'OF0034925\\00271', 'OF0034925\\00272', 'OF0034925\\00273', 'OF0034925\\00274', 'OF0034925\\00275', 'OF0034925\\00276', 'OF0034925\\00277', 'OF0034925\\00278', 'OF0034925\\00279', 'OF0034925\\00280', 'OF0034925\\00281', 'OF0034925\\00282', 'OF0034925\\00283', 'OF0034925\\00284', 'OF0034925\\00285', 'OF0034925\\00286', 'OF0034925\\00287', 'OF0034925\\00288', 'OF0034925\\00289', 'OF0034925\\00290', 'OF0034925\\00291', 'OF0034925\\00292', 'OF0034925\\00293', 'OF0034925\\00294', 'OF0034925\\00295', 'OF0034925\\00296', 'OF0034925\\00297', 'OF0034925\\00298', 'OF0034925\\00299', 'OF0034925\\00300', 'OF0034925\\00301', 'OF0034925\\00302', 'OF0034925\\00303', 'OF0034925\\00304', 'OF0034925\\00305', 'OF0034925\\00306', 'OF0034925\\00307', 'OF0034925\\00308', 'OF0034925\\00309', 'OF0034925\\00310', 'OF0034925\\00311', 'OF0034925\\00312', 'OF0034925\\00313', 'OF0034925\\00314', 'OF0034925\\00315', 'OF0034925\\00316', 'OF0034925\\00317', 'OF0034925\\00318', 'OF0034925\\00319', 'OF0034925\\00320', 'OF0034925\\00321', 'OF0034925\\00322', 'OF0034925\\00323', 'OF0034925\\00324', 'OF0034925\\00325', 'OF0034925\\00326', 'OF0034925\\00327', 'OF0034925\\00328', 'OF0034925\\00329', 'OF0034925\\00330', 'OF0034925\\00331', 'OF0034925\\00332', 'OF0034925\\00333', 'OF0034925\\00334', 'OF0034925\\00335', 'OF0034925\\00336', 'OF0034925\\00337', 'OF0034925\\00338', 'OF0034925\\00339', 'OF0034925\\00340', 'OF0034925\\00341', 'OF0034925\\00342', 'OF0034925\\00343', 'OF0034925\\00344', 'OF0034925\\00345', 'OF0034925\\00346', 'OF0034925\\00347', 'OF0034925\\00348', 'OF0034925\\00349', 'OF0034925\\00350', 'OF0034925\\00351', 'OF0034925\\00352', 'OF0034925\\00353', 'OF0034925\\00354', 'OF0034925\\00355', 'OF0034925\\00356', 'OF0034925\\00357', 'OF0034925\\00358', 'OF0034925\\00359', 'OF0034925\\00360', 'OF0034925\\00361', 'OF0034925\\00362', 'OF0034925\\00363', 'OF0034925\\00364', 'OF0034925\\00365', 'OF0034925\\00366', 'OF0034925\\00367', 'OF0034925\\00368', 'OF0034925\\00369', 'OF0034925\\00370', 'OF0034925\\00371', 'OF0034925\\00372', 'OF0034925\\00373', 'OF0034925\\00374', 'OF0034925\\00375', 'OF0034925\\00376', 'OF0034925\\00377', 'OF0034925\\00378', 'OF0034925\\00379', 'OF0034925\\00380', 'OF0034925\\00381', 'OF0034925\\00382', 'OF0034925\\00383', 'OF0034925\\00384', 'OF0034925\\00385', 'OF0034925\\00386', 'OF0034925\\00387', 'OF0034925\\00388', 'OF0034925\\00389', 'OF0034925\\00390', 'OF0034925\\00391', 'OF0034925\\00392', 'OF0034925\\00393', 'OF0034925\\00394', 'OF0034925\\00395', 'OF0034925\\00396', 'OF0034925\\00397', 'OF0034925\\00398', 'OF0034925\\00399', 'OF0034925\\00400', 'OF0034925\\00401', 'OF0034925\\00402', 'OF0034925\\00403', 'OF0034925\\00404', 'OF0034925\\00405', 'OF0034925\\00406', 'OF0034925\\00407', 'OF0034925\\00408', 'OF0034925\\00409', 'OF0034925\\00410', 'OF0034925\\00411', 'OF0034925\\00412', 'OF0034925\\00413', 'OF0034925\\00414', 'OF0034925\\00415', 'OF0034925\\00416', 'OF0034925\\00417', 'OF0034925\\00418', 'OF0034925\\00419', 'OF0034925\\00420', 'OF0034925\\00421', 'OF0034925\\00422', 'OF0034925\\00423', 'OF0034925\\00424', 'OF0034925\\00425', 'OF0034925\\00426', 'OF0034925\\00427', 'OF0034925\\00428', 'OF0034925\\00429', 'OF0034925\\00430', 'OF0034925\\00431', 'OF0034925\\00432', 'OF0034925\\00433', 'OF0034925\\00434', 'OF0034925\\00435', 'OF0034925\\00436', 'OF0034925\\00437', 'OF0034925\\00438', 'OF0034925\\00439', 'OF0034925\\00440', 'OF0034925\\00441', 'OF0034925\\00442', 'OF0034925\\00443', 'OF0034925\\00444', 'OF0034925\\00445', 'OF0034925\\00446', 'OF0034925\\00447', 'OF0034925\\00448', 'OF0034925\\00449', 'OF0034925\\00450', 'OF0034925\\00451', 'OF0034925\\00452', 'OF0034925\\00453', 'OF0</t>
         </is>
@@ -1208,18 +1293,22 @@
       <c r="P12" t="n">
         <v>5330</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>1760555</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>15313</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['1', '12', '2', '8', 'AAMIR HUSSAIN', 'AARON', 'AARON ANTHONY', 'AARON BRIAN', 'AARON DAVID', 'AARON JAMES', 'AARON PAUL', 'AARON SCOTT', 'AARRON KIM', 'ABDI NASIR', 'ABDUL', 'ABDUL G', 'ABDUL GHAFFAR', 'ABDUL RAUF', 'ABDULHAKIM', 'ABDULLAHI ALI', 'ABEL', 'ABIGAIL JANE', 'ABIYE', 'ABRAR', 'ADA', 'ADAM', 'ADAM ANDREW', 'ADAM ANTHONY', 'ADAM BENJAMIN', 'ADAM BUCHAN', 'ADAM CARL', 'ADAM CHRISTOPHER', 'ADAM CLIVE', 'ADAM CRAIG', 'ADAM DAVID', 'ADAM DAVID STEWART', 'ADAM EDWARD', 'ADAM FRANCIS', 'ADAM GEOFFREY', 'ADAM GORDON', 'ADAM JAMES', 'ADAM JAMES EVERETT', 'ADAM JAMES PAUL', 'ADAM JEREMY', 'ADAM JOEL', 'ADAM JOHN', 'ADAM JON', 'ADAM JONATHAN', 'ADAM JONATHON EDWARD', 'ADAM KEVIN', 'ADAM LEE', 'ADAM MACKAY', 'ADAM MARK', 'ADAM MATTHEW', 'ADAM MCINNES', 'ADAM MICHAEL', 'ADAM MICHAL', 'ADAM MICHEAL', 'ADAM NEIL', 'ADAM NOEL', 'ADAM PHILIP', 'ADAM R', 'ADAM RICHARD', 'ADAM ROBERT', 'ADAM ROSS', 'ADAM STEPHENSON', 'ADAM TEMPEST', 'ADAM TERRENCE', 'ADAM THOMAS', 'ADAM TOCHRANE', 'ADAM TORRANCE', 'ADAM WILLIAM', 'ADAN MOALIM', 'ADELE', 'ADELE IRENE', 'ADELE MARY', 'ADNAAN', 'ADNAN', 'ADRIAN', 'ADRIAN ALEXANDER', 'ADRIAN ANDREW', 'ADRIAN ARTHUR', 'ADRIAN BARRY', 'ADRIAN BEN', 'ADRIAN BRIAN', 'ADRIAN BRIAN CHARLES', 'ADRIAN BRIAN JOHN', 'ADRIAN BRIAN MCGRATH', 'ADRIAN BRYAN', 'ADRIAN CHARLES', 'ADRIAN CHRISTOPHER', 'ADRIAN CLIVE', 'ADRIAN COLIN', 'ADRIAN CRAIG', 'ADRIAN CYRIL', 'ADRIAN DAVID', 'ADRIAN DENNIS', 'ADRIAN DEREK', 'ADRIAN DERMOT', 'ADRIAN DOMINIC', 'ADRIAN DOMINIC CHRISTIE', 'ADRIAN DONALD', 'ADRIAN EDWARD', 'ADRIAN F', 'ADRIAN FLORIN', 'ADRIAN FRANCIS', 'ADRIAN G', 'ADRIAN GEOFFREY', 'ADRIAN GEORGE', 'ADRIAN GERALD', 'ADRIAN GERARD', 'ADRIAN GRAHAM', 'ADRIAN GRANT', 'ADRIAN HUGH', 'ADRIAN IAN', 'ADRIAN J', 'ADRIAN JAMES', 'ADRIAN JEREMY', 'ADRIAN JOEL', 'ADRIAN JOHN', 'ADRIAN JON', 'ADRIAN JONATHAN', 'ADRIAN JOSEPH', 'ADRIAN KARL', 'ADRIAN KEITH', 'ADRIAN KELSON', 'ADRIAN KURT SEYMOUR', 'ADRIAN LEE', 'ADRIAN LESLIE', 'ADRIAN LEWIS', 'ADRIAN LINDSAY', 'ADRIAN M', 'ADRIAN MALCOLM', 'ADRIAN MARK', 'ADRIAN MARTIN', 'ADRIAN MICHAEL', 'ADRIAN MICHAEL PATRICK', 'ADRIAN N', 'ADRIAN NEIL', 'ADRIAN PAUL', 'ADRIAN PETER', 'ADRIAN PHILIP', 'ADRIAN PRICE', 'ADRIAN R', 'ADRIAN RAYMOND', 'ADRIAN RICHARD', 'ADRIAN ROBERT', 'ADRIAN ROGER', 'ADRIAN ROY', 'ADRIAN SABIN', 'ADRIAN SHANE', 'ADRIAN STEPHEN', 'ADRIAN STEPHEN PAUL', 'ADRIAN STUART', 'ADRIAN THOMAS', 'ADRIAN TRISTAN', 'ADRIAN WILLIAM', 'ADRIAN WILLIAM GEORGE', 'ADRIANA', 'ADRIENNE', 'ADRIENNE JANET', 'ADRIENNE MERLE', 'AERON CEREDIG', 'AERON PRYSOR', 'AFSHAR', 'AFTAB', 'AFZAL', 'AGNES CLARK', 'AGNES M', 'AGNES MARGARET', 'AGNES MARIE', 'AGNES PHILOMENA', 'AHMED', 'AHMED MUSTAFA', 'AIDAN', 'AIDAN ALISTAIR', 'AIDAN PATRICK', 'AIDAN THOMAS', 'AIDEN NORMAN EDWARD', 'AIDEN PAUL', 'AIDEN THOMAS', 'AIJAZ', 'AILEEN JEAN', 'AILEEN MARGARET', 'AILEEN SAMANTHA', 'AIMEE', 'AINE', 'AIRINAS', 'AISHA', 'AIVARAS', 'AIVARS', 'AIYMAN', 'AJAY', 'AJAYPAL', 'AJAZ', 'AJIT', 'AJIT SINGH', 'AJITH', 'AJMAR', 'AJMEER SINGH', 'AKY', 'ALAIN', 'ALAINE MARGUERITE', 'ALAN', 'ALAN ALBERT', 'ALAN ALEXANDER', 'ALAN ALFRED', 'ALAN ANDREW', 'ALAN ANTHONY', 'ALAN ARTHUR', 'ALAN AUSTEN ROWLEY', 'ALAN BARRINGTON', 'ALAN BAXTER', 'ALAN BERNARD', 'ALAN BERTRAM', 'ALAN BERTRUM', 'ALAN BEVAN', 'ALAN BIRD', 'ALAN BRIAN', 'ALAN BRUCE', 'ALAN C', 'ALAN CAMERON', 'ALAN CHARLES', 'ALAN CHRISTOPHER', 'ALAN COLIN', 'ALAN CRAIG PAUL', 'ALAN DAVID', 'ALAN DAVID HENRY', 'ALAN DENNIS', 'ALAN DEREK', 'ALAN DONALD', 'ALAN DOUGLAS', 'ALAN EDWARD', 'ALAN EDWIN', 'ALAN EDWIN JOHN', 'ALAN ERIC', 'ALAN ERNEST', 'ALAN F', 'ALAN FERN', 'ALAN FRANK', 'ALAN FREDERICK', 'ALAN FREDRICK', 'ALAN GARNET', 'ALAN GARY', 'ALAN GEOFFREY', 'ALAN GEORGE', 'ALAN GILBERT', 'ALAN GORDON', 'ALAN GRAHAM', 'ALAN GUTHRIE', 'ALAN HAROLD', 'ALAN HARRY', 'ALAN HAWTHORNE', 'ALAN HEATHCOTE', 'ALAN HENRY', 'ALAN HERBERT', 'ALAN HOWARD', 'ALAN HUGH', 'ALAN JAMES', 'ALAN JAMES GRAY', 'ALAN JAMES MICHAEL', 'ALAN JEFFERY', 'ALAN JEFFREY', 'ALAN JEREMY', 'ALAN JOHN', 'ALAN JON', 'ALAN JOSEPH', 'ALAN JUSTIN', 'ALAN KEITH', 'ALAN KENNETH', 'ALAN KEVIN', 'ALAN LASHFORD', 'ALAN LEE', 'ALAN LEONARD', 'ALAN LESLIE', 'ALAN LINDSAY', 'ALAN M', 'ALAN MACKENZIE', 'ALAN MACLEOD', 'ALAN MALCOLM', 'ALAN MALDUYN ROBERT', 'ALAN MARTIN', 'ALAN MATTHEW', 'ALAN MAURICE', 'ALAN MELVIN', 'ALAN MICHAEL', 'ALAN MURRAY', 'ALAN NEIL', 'ALAN NEVILLE', 'ALAN NORMAN', 'ALAN PAUL', 'ALAN PETER', 'ALAN PHILIP', 'ALAN RALPH', 'ALAN RATHMILL', 'ALAN RAYMOND', 'ALAN REGINALD', 'ALAN REGINALD CHARLES', 'ALAN RICHARD', 'ALAN RICHARD STANLEY', 'ALAN RITCHIE', 'ALAN ROBERT', 'ALAN ROGER', 'ALAN ROLAND', 'ALAN RONALD', 'ALAN ROSS', 'ALAN ROY', 'ALAN RUSSELL', 'ALAN SAMUEL', 'ALAN SCOTT', 'ALAN SHAUN', 'ALAN SOMERS', 'ALAN STANLEY', 'ALAN STEPHEN', 'ALAN STEWART', 'ALAN STEWART CLARKE', 'ALAN STUART', 'ALAN SVERRE', 'ALAN TERENCE', 'ALAN THOMAS', 'ALAN TIMOTHY', 'ALAN TREVOR', 'ALAN TUDOR', 'ALAN VAUGHAN', 'ALAN VICTOR', 'ALAN VINCENT', 'ALAN WALKER', 'ALAN WALTER', 'ALAN WAYNE', 'ALAN WILLIAM', 'ALAN WILLIAM CONNOR', 'ALAN WINSTON', 'ALAN WYN', 'ALAN WYN HUGHES', 'ALAN WYNNE', 'ALAN WYNYWATES', 'ALAN YOUNG', 'ALANA GEORGE', 'ALASDAIR', 'ALASDAIR CLARK', 'ALASDAIR DOUGLAS', 'ALASDAIR KINGSLEY', 'ALASDAIR MACDONALD', 'ALASDAIR MURRAY', 'ALASTAIR', 'ALASTAIR BRYSON', 'ALASTAIR DOUGLAS', 'ALASTAIR EWEN', 'ALASTAIR GEORGE', 'ALASTAIR IAN', 'ALASTAIR IAN CARL', 'ALASTAIR JAMES', 'ALASTAIR JAMIESON', 'ALASTAIR JOHN', 'ALASTAIR KEITH', 'ALASTAIR KIRKLAND', 'ALASTAIR MCKENZIE', 'ALASTAIR MILES ROBERTSON', 'ALASTAIR POLLOCK', 'ALASTAIR ROBERTSON', 'ALASTAIR RUPERT', 'ALASTAIR STUART', 'ALASTAIR WILLIAM', 'ALBERT', 'ALBERT ALAN', 'ALBERT ARTHUR', 'ALBERT DAVID', 'ALBERT DAVID BARRY', 'ALBERT DENNIS', 'ALBERT DOUGLAS', 'ALBERT EDWARD', 'ALBERT EDWARD GEORGE', 'ALBERT EDWIN', 'ALBERT FRANKIE', 'ALBERT GEOFFREY', 'ALBERT GEORGE', 'ALBERT GORDON', 'ALBERT J', 'ALBERT JAMES', 'ALBERT JAMES BARRON', 'ALBERT JOHN', 'ALBERT LEONARD', 'ALBERT PAUL', 'ALBERT RALPH', 'ALBERT ROBERT', 'ALBERT RODNEY', 'ALBERT RONALD', 'ALBERT TERENCE', 'ALBERT THOMAS', 'ALBERT VICTOR', 'ALBERT WALTER', 'ALBERT WESTLANDS', 'ALBERT WILLIAM', 'ALBERTUS WILLEM', 'ALBIS', 'ALDO RICCARDO', 'ALEC', 'ALEC BRYAN', 'ALEC DAVID', 'ALEC JAMES', 'ALEC JOHN', 'ALEC STEPHEN', 'ALEC STUART', 'ALED', 'ALED GRIFFITH', 'ALED GWYNRUDD', 'ALED LLYR', 'ALED OWAIN', 'ALEKSANDAR VASKOV', 'ALEKSANDER', 'ALEKSANDR', 'ALEKSANDRS', 'ALEX', 'ALEX ALAN HENRY', 'ALEX BARRY', 'ALEX CHARLES', 'ALEX D', 'ALEX DAVID', 'ALEX IEUAN', 'ALEX JAMES', 'ALEX LLOYD', 'ALEX MICHAEL', 'ALEX ROBERT', 'ALEX STEWART', 'ALEX STUART', 'ALEX TRAVES', 'ALEX WILLIAM', 'ALEX WILLIAM GORDON', 'ALEXANDER', 'ALEXANDER ALAN', 'ALEXANDER ALAN GUY', 'ALEXANDER ANTHONY', 'ALEXANDER B', 'ALEXANDER BRUCE', 'ALEXANDER BRYCE', 'ALEXANDER CAMERON', 'ALEXANDER CHARLES', 'ALEXANDER CHRISTIAN', 'ALEXANDER COOPER', 'ALEXANDER CROSBIE BLAIR', 'ALEXANDER DAVID', 'ALEXANDER DUNCAN', 'ALEXANDER ETHAN', 'ALEXANDER FLEMING', 'ALEXANDER FREDRICK', 'ALEXANDER G', 'ALEXANDER GEORGE', 'ALEXANDER GOODBURN', 'ALEXANDER GORDON THOMAS', 'ALEXANDER GRAHAM', 'ALEXANDER HOGG', 'ALEXANDER HUGH', 'ALEXANDER JAMES', 'ALEXANDER JOHN', 'ALEXANDER JOSEPH', 'ALEXANDER JUSTIN', 'ALEXANDER M', 'ALEXANDER MACAULAY', 'ALEXANDER MACDONALD', 'ALEXANDER MACGREGOR', 'ALEXANDER MARTIN', 'ALEXANDER MICHAEL', 'ALEXANDER MUTCH', 'ALEXANDER NIVEN', 'ALEXANDER NOBLE', 'ALEXANDER PARKER', 'ALEXANDER PAUL', 'ALEXANDER PETER', 'ALEXANDER RANKIN', 'ALEXANDER RICHARD', 'ALEXANDER ROBERT', 'ALEXANDER ROBERTSON', 'ALEXANDER RONALD', 'ALEXANDER ROY', 'ALEXANDER SAUNDERS', 'ALEXANDER SCOTT EMMETT', 'ALEXANDER SMALL', 'ALEXANDER SPENCER', 'ALEXANDER STEEL', 'ALEXANDER STEPHEN', 'ALEXANDER STEVEN', 'ALEXANDER STEWART', 'ALEXANDER THOMAS', 'ALEXANDER THOMAS ROBIN', 'ALEXANDER WARREN', 'ALEXANDER WILLIAM', 'ALEXANDER WOOD', 'ALEXANDRA', 'ALEXANDRA CLAIRE', 'ALEXANDRA GAIL', 'ALEXANDRA JANE', 'ALEXANDRA MARIA', 'ALEXANDRA MARY', 'ALEXANDRA TINA', 'ALEXANDRU ANDREI', 'ALEXANDRU CONSTANTIN', 'ALEXEI', 'ALEXIE CAROLINE', 'ALEXIS', 'ALEXIS RUTH HOPE', 'ALFIE ALBERT', 'ALFONSO', 'ALFRED', 'ALFRED ALAN', 'ALFRED ARTHUR', 'ALFRED BARRY', 'ALFRED C', 'ALFRED CHARLES', 'ALFRED DEAN', 'ALFRED EDWARD', 'ALFRED GEORGE', 'ALFRED GRAHAM', 'ALFRED HENRY', 'ALFRED JAMES', 'ALFRED JOHN', 'ALFRED JOHN BRYAN', 'ALFRED JOSEPH', 'ALFRED KENNETH', 'ALFRED LESLIE', 'ALFRED LESLIE RAYMOND', 'ALFRED LYNFORD', 'ALFRED MICHAEL', 'ALFRED NOEL', 'ALFRED PETER', 'ALFRED RAYMOND', 'ALFRED RONALD', 'ALFRED ROY', 'ALFRED STEPHEN', 'ALFRED THOMAS FIRTH', 'ALFRED WILLIAM', 'ALI', 'ALI REZA', 'ALICE', 'ALICIA', 'ALICIA JUNE', 'ALICJA', 'ALICK STEVEN', 'ALIKI', 'ALIN DANIEL', 'ALINA STEFANIA', 'ALISA LISETTE', 'ALISDAIR', 'ALISDAIR JAMES', 'ALISON', 'ALISON A', 'ALISON AGNES', 'ALISON GAYE', 'ALISON ISOBEL', 'ALISON JANE', 'ALISON JAYNE', 'ALISON LAURA', 'ALISON LESLEY', 'ALISON MAI', 'ALISON MARGARET', 'ALISON MARGRET', 'ALISON MARY', 'ALISON MAY ROBERTSON', 'ALISON RAIE', 'ALISON RUTH', 'ALISON SARAH', 'ALISON VICTORIA', 'ALISTAIR', 'ALISTAIR BURNETT', 'ALISTAIR CLARKE', 'ALISTAIR DAVID', 'ALISTAIR DUNCAN', 'ALISTAIR GEORGE', 'ALISTAIR GRENVILLE', 'ALISTAIR HAMISH', 'ALISTAIR HUGH', 'ALISTAIR I M', 'ALISTAIR IAN', 'ALISTAIR INNES', 'ALISTAIR JAMES', 'ALISTAIR JOHN', 'ALISTAIR LLEWELLYN', 'ALISTAIR MCKAY', 'ALISTAIR P', 'ALISTAIR PAUL', 'ALISTAIR ROBERT', 'ALISTAIR SHOLTO', 'ALISTAIR STUART', 'ALISTAIR TREVOR', 'ALISTAIR WILLIAM', 'ALISTAIRE MCNAIR', 'ALISTER', 'ALISTER BRICKNELL', 'ALISTER DOUGLAS', 'ALISTER GEORGE', 'ALISTER JOHN', 'ALISTER NEIL', 'ALISTER WATSON', 'ALLAN', 'ALLAN ARTHUR', 'ALLAN BADEN', 'ALLAN CAMPBELL', 'ALLAN CHARLES', 'ALLAN CHRISTOPHER', 'ALLAN CYRIL', 'ALLAN DAVID', 'ALLAN DAVID BRIAN', 'ALLAN DIXON', 'ALLAN DONALD', 'ALLAN DOUGLAS', 'ALLAN DUGALD PAUL', 'ALLAN E', 'ALLAN FLEMING', 'ALLAN FREDERICK', 'ALLAN GARNETT', 'ALLAN GEOFFREY', 'ALLAN GEORGE', 'ALLAN GORDON', 'ALLAN JACKSON', 'ALLAN JAMES', 'ALLAN JOHN', 'ALLAN JOHN ALEXANDER', 'ALLAN JOSEPH', 'ALLAN KEITH', 'ALLAN LEONARD', 'ALLAN LESLIE', 'ALLAN MARTIN', 'ALLAN MATTHEW', 'ALLAN MICHAEL', 'ALLAN MURRAY', 'ALLAN NORTON', 'ALLAN OWEN', 'ALLAN PETER', 'ALLAN PHILIP', 'ALLAN RAYMOND', 'ALLAN ROBERT', 'ALLAN ROBERT REGINALD', 'ALLAN ROY', 'ALLAN STUART', 'ALLAN THOMAS', 'ALLAN WALTER', 'ALLAN WILLIAM', 'ALLEN', 'ALLEN ADRIAN', 'ALLEN ALFRED EDWARD', 'ALLEN DAVID', 'ALLEN EDWARD', 'ALLEN FREDERICK', 'ALLEN JAMES', 'ALLEN MICHAEL', 'ALLEN PAUL', 'ALLEN PHILIP', 'ALLEN ROBERT', 'ALLEN ROGER', 'ALLEN STEPHEN', 'ALLEN STUART', 'ALLEN WILLIAM', 'ALLEYNE ARTHUR', 'ALLISON', 'ALLISON JANE', 'ALLISON SUZANNE', 'ALLISTER', 'ALLYN GEORGE', 'ALLYN JOHN HOUGHTON', 'ALPHA', 'ALPHONSUS', 'ALPHONSUS PATRICK JOSEPH', 'ALSTON KARL', 'ALUN', 'ALUN BOWEN', 'ALUN EDMUND', 'ALUN EDWARD', 'ALUN GARETH', 'ALUN GORONWY', 'ALUN HEFIN', 'ALUN IORWETH', 'ALUN JAMES', 'ALUN LLOYD', 'ALUN NORMAN', 'ALUN OWEN', 'ALUN RHYDIAN', 'ALUN RICHARD', 'ALUN WYN', 'ALUN WYNNE', 'ALVIN WARD', 'ALWYN', 'ALWYN JAMES', 'ALYN', 'ALYN CHARLES', 'ALYSON DOROTHY', 'AMAAN', 'AMANDA', 'AMANDA ALBERTA LOUISE', 'AMANDA CAROLINE', 'AMANDA CLAIRE', 'AMANDA ELIZABETH', 'AMANDA JANE', 'AMANDA JAYNE', 'AMANDA LORRAINE', 'AMANDA LOUISE', 'AMANDA SUSAN', 'AMANDA TINA', 'AMANDEEP', 'AMANDIP', 'AMANPREET', 'AMANPRIT', 'AMAR', 'AMARDEEP', 'AMARDEEP SINGH', 'AMARJIT', 'AMARJIT SINGH', 'AMBROSE', 'AMENDIP', 'AMERJIT SINGH', 'AMIE ANN', 'AMINADAB LLWENZA', 'AMIR AFZAL', 'AMIT', 'AMJAD', 'AMJED ALI', 'AMOS WILLIAM JOHN', 'AMRIK', 'AMRITPAL', 'AMRITPAL SINGH', 'AMY', 'AMY ELIZABETH', 'AMY J', 'AMY JANE', 'AMY LAURA', 'AMY LOUISE', 'AMY LUCINDA ROSE', 'AMY NICOLE', 'AMY PEARL', 'AMY ROSE', 'ANABELA', 'ANASTATIA', 'ANATOLIE', 'ANCA RAMONA', 'ANDERSON', 'ANDERSON JAMES', 'ANDRE', 'ANDRE CARLTON', 'ANDRE CHARLES E', 'ANDRE IAN', 'ANDREA', 'ANDREA  CLAIRE', 'ANDREA C', 'ANDREA DENISE', 'ANDREA JANE', 'ANDREA JAYNE', 'ANDREA LOUISE', 'ANDREA LYNN', 'ANDREA MARGARET', 'ANDREA MARY', 'ANDREA MICHELLE', 'ANDREA YVETTE', 'ANDREAS', 'ANDREAS MARK', 'ANDREI', 'ANDREI FLORIN', 'ANDREJ ROMAN', 'ANDREW', 'ANDREW A P', 'ANDREW ADRIAN', 'ANDREW ALAN', 'ANDREW ALASDAIR', 'ANDREW ALBERT', 'ANDREW ALEXANDER', 'ANDREW ALLAN', 'ANDREW ALLEN', 'ANDREW ANDERSON', 'ANDREW ANTHONY HENRY', 'ANDREW ARCHIBALD', 'ANDREW ARNOTT', 'ANDREW BARBENSON', 'ANDREW BARRY', 'ANDREW BERNARD', 'ANDREW BRAMWELL', 'ANDREW BRIAN', 'ANDREW BRUCE', 'ANDREW C', 'ANDREW C S', 'ANDREW CARL', 'ANDREW CECIL', 'ANDREW CHARLES', 'ANDREW CHRISTOPHER', 'ANDREW CLIFFORD', 'ANDREW CLIVE', 'ANDREW COLIN', 'ANDREW CRAIG', 'ANDREW CROSBIE', 'ANDREW CYRIL', 'ANDREW D', 'ANDREW DANIEL', 'ANDREW DANNY', 'ANDREW DARREN TIMOTHY', 'ANDREW DARWIN', 'ANDREW DAVID', 'ANDREW DAVID SCOTT', 'ANDREW DENNIS', 'ANDREW DEREK', 'ANDREW DOUGLAS', 'ANDREW DUNCAN', 'ANDREW EDGAR', 'ANDREW EDWARD', 'ANDREW EDWARD ROBERT URRY', 'ANDREW EDWARDS', 'ANDREW EDWIN', 'ANDREW ELLIS', 'ANDREW ERIC', 'ANDREW ERNEST', 'ANDREW FIRTH', 'ANDREW FLETCHER', 'ANDREW FRANCIS', 'ANDREW FRANCIS HAMISH', 'ANDREW FRANK', 'ANDREW FREDERIC', 'ANDREW FREDERICK', 'ANDREW FREDRICK', 'ANDREW FREEMAN', 'ANDREW G', 'ANDREW GARY', 'ANDREW GAVIN', 'ANDREW GEOFFREY', 'ANDREW GEORGE', 'ANDREW GEORGE SCOTT', 'ANDREW GERARD', 'ANDREW GLEN', 'ANDREW GORDON', 'ANDREW GRAEME', 'ANDREW GRAHAM', 'ANDREW GRAHAM ALAN', 'ANDREW GUY', 'ANDREW GWYN', 'ANDREW HAMILTON', 'ANDREW HARGREAVES', 'ANDREW HARRISON', 'ANDREW HARRY', 'ANDREW HAWORTH', 'ANDREW HENRY', 'ANDREW HERBERT', 'ANDREW HODGE', 'ANDREW HOWARD', 'ANDREW IAIN', 'ANDREW IAN', 'ANDREW IAN SPENCER', 'ANDREW J', 'ANDREW JAMES', 'ANDREW JAMES ALAN', 'ANDREW JAMES FELKUS', 'ANDREW JAMES MCKENZIE', 'ANDREW JAMES RAYMOND', 'ANDREW JAMES SCOTT', 'ANDREW JASON', 'ANDREW JEFFERY', 'ANDREW JEFFREY MYLES', 'ANDREW JOHN', 'ANDREW JOHN GUTHRIE', 'ANDREW JOHN MURRAY', 'ANDREW JOHN P', 'ANDREW JON', 'ANDREW JONATHAN', 'ANDREW JOSEPH', 'ANDREW JULIAN JON', 'ANDREW KARL', 'ANDREW KEITH', 'ANDREW KENNETH', 'ANDREW KERR', 'ANDREW KEVIN', 'ANDREW LANG', 'ANDREW LANG CREE', 'ANDREW LAWRENCE', 'ANDREW LEE', 'ANDREW LEIGH', 'ANDREW LEONARD', 'ANDREW LESLIE', 'ANDREW LEWIS', 'ANDREW LIONEL', 'ANDREW LLOYD', 'ANDREW M', 'ANDREW MACE', 'ANDREW MALCOLM', 'ANDREW MALCOLM JAMES', 'ANDREW MARK', 'ANDREW MARK WILLIAM', 'ANDREW MARSHALL', 'ANDREW MARTIN', 'ANDREW MARTYN', 'ANDREW MATHEW', 'ANDREW MAURICE', 'ANDREW MCCLYMONT', 'ANDREW MCCORMICK', 'ANDREW MCGOWN', 'ANDREW MCKENZIE', 'ANDREW MEIKLE', 'ANDREW MICHAEL', 'ANDREW MILES', 'ANDREW MORRISON', 'ANDREW MURRAY', 'ANDREW N', 'ANDREW NEIL', 'ANDREW NEVIL', 'ANDREW NICHOLAS', 'ANDREW NIGEL', 'ANDREW NOEL', 'ANDREW NORMAN', 'ANDREW P', 'ANDREW PATRICK', 'ANDREW PATRICK BERNARD', 'ANDREW PATRICK KEITH', 'ANDREW PAUL', 'ANDREW PETER', 'ANDREW PHILIP', 'ANDREW R', 'ANDREW RALSTON', 'ANDREW RAYMOND', 'ANDREW REGINALD', 'ANDREW REID', 'ANDREW RICHARD', 'ANDREW RICHARD JOHN', 'ANDREW RICHARD WILLIAM', 'ANDREW ROBERT', 'ANDREW ROBERT DAVID JAMES', 'ANDREW ROBERT JOHN', 'ANDREW ROBERTSON', 'ANDREW ROBIN WILLIAM', 'ANDREW RODGER', 'ANDREW ROGER', 'ANDREW ROLAND PRIESTLEY', 'ANDREW ROLLO', 'ANDREW RONALD', 'ANDREW ROWAN', 'ANDREW ROY', 'ANDREW ROYSTON DAVID', 'ANDREW ROYSTON MARK', 'ANDREW RUSSELL', 'ANDREW SAMUEL', 'ANDREW SARGENT', 'ANDREW SHAUN', 'ANDREW SIMON', 'ANDREW SPENCER', 'ANDREW STANLEY', 'ANDREW STEPHEN', 'ANDREW STEVEN', 'ANDREW STEWART', 'ANDREW STRANG', 'ANDREW STUART', 'ANDREW STUART MACGREGOR', 'ANDREW STURGEON', 'ANDREW TADEUSZ', 'ANDREW TERENCE', 'ANDREW THOMAS', 'ANDREW THOMSON', 'ANDREW TIMOTHY', 'ANDREW TONY', 'ANDREW TREVOR', 'ANDREW TYSON', 'ANDREW VAUGHAN', 'ANDREW VICTOR', 'ANDREW VINCENT', 'ANDREW VIRGINIO', 'ANDREW W', 'ANDREW WALTER', 'ANDREW WARD', 'ANDREW WARREN', 'ANDREW WAYNE', 'ANDREW WIGHTMAN', 'ANDREW WILLIAM', 'ANDREW WILLIAM JAMES', 'ANDREW WILLIAM JOHN', 'ANDREW WILLIAM ROBERT', 'ANDREW WILSON', 'ANDREW WINSTON', 'ANDREW YOUNG', 'ANDRINA', 'ANDRIS', 'ANDRIUS', 'ANDRZEI ZBIGNIEW', 'ANDRZEJ', 'ANDRZEJ TOMASZ', 'ANDY', 'ANDY JOHN', 'ANEURIN WYN', 'ANGELA', 'ANGELA CHRISTINE', 'ANGELA CLARE', 'ANGELA DOROTHY MARIAN', 'ANGELA ELIZABETH', 'ANGELA HAZEL', 'ANGELA JANE', 'ANGELA JAYNE', 'ANGELA JEAN', 'ANGELA JOY', 'ANGELA LORRAINE', 'ANGELA LOUISE', 'ANGELA MARGARET', 'ANGELA MARIE', 'ANGELA MARY', 'ANGELA PATRICIA', 'ANGELA ROSEMARY', 'ANGELA SUSAN', 'ANGELA THERESA', 'ANGELA VIDA', 'ANGELO', 'ANGREJ', 'ANGUS', 'ANGUS ALEXANDER', 'ANGUS ALLAN', 'ANGUS CHURCHILL', 'ANGUS DONALD', 'ANGUS EWEN', 'ANGUS FORBES', 'ANGUS GREGOR', 'ANGUS HERBERTSON', 'ANGUS JAMES', 'ANGUS LAMONT', 'ANGUS MCPHAIL', 'ANGUS MURPHY WILSON', 'ANGUS PETER', 'ANGUS RICHARD', 'ANGUS ROGER', 'ANIL', 'ANIL KUMAR', 'ANIL SINGH', 'ANIS MANILAL', 'ANISHA', 'ANITA', 'ANITA ANN', 'ANITA IRENE', 'ANITA JANE', 'ANITA JO', 'ANITA MARGARET', 'ANITA ROSE', 'ANITA THERESA', 'ANITA YVONNE', 'ANITA ZSUZSANNA', 'ANN', 'ANN BERYL', 'ANN DENISE', 'ANN DOREEN', 'ANN DORIS', 'ANN EDITH', 'ANN ELIZABETH', 'ANN ELLEN FRANCES', 'ANN FRANCES', 'ANN HELEN', 'ANN LESLEY', 'ANN LOUISE', 'ANN MARGARET', 'ANN MARIE', 'ANN MELINA', 'ANN PATRICIA', 'ANN SHIRLEY', 'ANN VICTORIA', 'ANN WINIFRED', 'ANNA', 'ANNA ELIZABETH', 'ANNA KAREN', 'ANNA LOUISE', 'ANNA LUYDMILOVA', 'ANNA MARIA', 'ANNA MARIE', 'ANNA STEWART', 'ANNABELLA P', 'ANNABELLE JADE', 'ANNAMARIA MAGDOLNA', 'ANNE', 'ANNE CHRISTINE', 'ANNE DOROTHY', 'ANNE ELIZABETH', 'ANNE EMILY', 'ANNE FRANCES', 'ANNE GILLIES', 'ANNE HEGGISON LOGAN', 'ANNE MARGARET', 'ANNE MARIE', 'ANNE MARTINA', 'ANNE ROSEMARIE', 'ANNE ROSEMARY', 'ANNE RUBY', 'ANNE SCOTT', 'ANNE-MARIE', 'ANNETTA MARY', 'ANNETTE', 'ANNETTE IRENE', 'ANNETTE ISOBEL', 'ANNETTE LOUISE', 'ANNETTE PATRICIA', 'ANNIE', 'ANNIE LESLEY', 'ANTHEA LOUISE', 'ANTHONY', 'ANTHONY ADRIAN', 'ANTHONY ALAN', 'ANTHONY ALBERT WILLIAM', 'ANTHONY ALEXANDER', 'ANTHONY ALFRED', 'ANTHONY ANDREW', 'ANTHONY ARTHUR', 'ANTHONY BARRY', 'ANTHONY BERNARD', 'ANTHONY BISCOE', 'ANTHONY BLAIR', 'ANTHONY BRIAN', 'ANTHONY BRUCE', 'ANTHONY CARL', 'ANTHONY CHARLES', 'ANTHONY CHRISTOPHER', 'ANTHONY CLIFFORD', 'ANTHONY CLIFFORD THOMAS', 'ANTHONY CLIVE', 'ANTHONY COLE', 'ANTHONY CYRIL', 'ANTHONY D', 'ANTHONY DAVID', 'ANTHONY DAVID CRESWICKE', 'ANTHONY DAVID JAMES', 'ANTHONY DEAN', 'ANTHONY DENIS', 'ANTHONY DENNIS', 'ANTHONY DEREK', 'ANTHONY DEREK JOHN', 'ANTHONY DONALD', 'ANTHONY DOUGLAS', 'ANTHONY E', 'ANTHONY EDWARD', 'ANTHONY EDWARD CHARLES', 'ANTHONY EDWIN', 'ANTHONY ELLIS', 'ANTHONY ERIC', 'ANTHONY ERNEST', 'ANTHONY FITZHUGH', 'ANTHONY FRANCIS', 'ANTHONY FRANCIS MARTIN', 'ANTHONY FRANCIS P', 'ANTHONY FRANK', 'ANTHONY FRED', 'ANTHONY FREDERIC', 'ANTHONY FREDERICK', 'ANTHONY FREDERICK EDWARD', 'ANTHONY FREDERICK JAMES', 'ANTHONY FREDRICK', 'ANTHONY GEOFFREY', 'ANTHONY GEORGE', 'ANTHONY GEORGE JAMES', 'ANTHONY GERARD', 'ANTHONY GORDON', 'ANTHONY GRAHAM', 'ANTHONY GRAY', 'ANTHONY HAROLD', 'ANTHONY HARRY', 'ANTHONY HENRY', 'ANTHONY HOWARD', 'ANTHONY HUGH', 'ANTHONY IAN', 'ANTHONY IVOR', 'ANTHONY JACK', 'ANTHONY JAMES', 'ANTHONY JAMES FREDERICK', 'ANTHONY JAMES JOHN', 'ANTHONY JEROME', 'ANTHONY JOHN', 'ANTHONY JOHN  CHARLES', 'ANTHONY JOHN FOREST', 'ANTHONY JOHN PUGH', 'ANTHONY JOSEPH', 'ANTHONY K', 'ANTHONY KEITH', 'ANTHONY KENNETH', 'ANTHONY KEVIN', 'ANTHONY LAWRENCE', 'ANTHONY LEE', 'ANTHONY LEON DACOSTA', 'ANTHONY LEONARD', 'ANTHONY LESLIE', 'ANTHONY LEWIS', 'ANTHONY LIONEL', 'ANTHONY LLOYD', 'ANTHONY LYNDON', 'ANTHONY M', 'ANTHONY MALCOLM', 'ANTHONY MARCUS', 'ANTHONY MARK', 'ANTHONY MAURICE', 'ANTHONY MERVYN FREDERICK', 'ANTHONY MICHAEL', 'ANTHONY NEIL', 'ANTHONY NICHOLAS', 'ANTHONY OLIVER', 'ANTHONY OWEN THOMAS', 'ANTHONY P', 'ANTHONY PATRICK', 'ANTHONY PAUL', 'ANTHONY PETER', 'ANTHONY PHILIP', 'ANTHONY PINCHEON', 'ANTHONY R', 'ANTHONY RAVENHILL MORTON', 'ANTHONY RAY', 'ANTHONY RAYMOND', 'ANTHONY REGINALD', 'ANTHONY RICHARD', 'ANTHONY ROBERT', 'ANTHONY ROBERT CHARLES', 'ANTHONY ROBERT GLOVER', 'ANTHONY ROGER', 'ANTHONY ROLAND', 'ANTHONY RONALD', 'ANTHONY ROY', 'ANTHONY ROYSTON REGINALD', 'ANTHONY RUSSELL', 'ANTHONY SHANE', 'ANTHONY SHAUN', 'ANTHONY SIMON', 'ANTHONY SMITH', 'ANTHONY STEPHEN', 'ANTHONY STEPHEN CHARLES', 'ANTHONY STEWART', 'ANTHONY STUART', 'ANTHONY T', 'ANTHONY TERENCE', 'ANTHONY THOMAS', 'ANTHONY THOMAS GEORGE', 'ANTHONY TREVOR', 'ANTHONY VINCENT', 'ANTHONY VINCENT MICHAEL', 'ANTHONY W', 'ANTHONY WALTER', 'ANTHONY WILLIAM', 'ANTHONY WILLIAM DENFORD', 'ANTHONY WILLIAM DOUGLAS', 'ANTHONY WILLIAM JAMES', 'ANTHONY WILLIAM JOHN', 'ANTHONY WYN', 'ANTOINETTE', 'ANTOINETTE VICTORIA', 'ANTON', 'ANTON GEOFFERY', 'ANTON PAUL', 'ANTON ROBERT', 'ANTONI', 'ANTONIA', 'ANTONIO', 'ANTONY', 'ANTONY BRIAN', 'ANTONY CECIL', 'ANTONY CHARLES', 'ANTONY DAVID', 'ANTONY DENIS', 'ANTONY EDWARD', 'ANTONY ERNEST', 'ANTONY GORDON', 'ANTONY HAROLD', 'ANTONY JAMES', 'ANTONY JOHN', 'ANTONY JOHN PETER', 'ANTONY M', 'ANTONY MALCOLM', 'ANTONY MARK', 'ANTONY MICHAEL', 'ANTONY NORMAN', 'ANTONY PAUL', 'ANTONY RAYMOND', 'ANTONY RICHARD', 'ANTONY ROBIN', 'ANTONY SMITH', 'ANTONY SPENCER', 'ANTONY THOMAS', 'ANTONY VERNAL', 'ANTONY WILLIAM', 'ANTONY WILLIAM EDWARD', 'ANWAR', 'ANWEN MORRIS', 'APRIL ELLEN LOUISE', 'AQEEL', 'ARANJEET SINGH', 'ARBEN', 'ARCHIBALD', 'ARCHIBALD CAMPBELL', 'ARCHIBALD DEREK', 'ARCHIBALD HUNTER', 'ARCHIBALD JOHN', 'ARCHIBALD LAMBIE', 'ARCHIBALD MCISAAC', 'ARCHIBALD PATERSON', 'ARCHIE CAMPBELL', 'ARCHIE GRAHAM', 'ARFON LLOYD', 'ARFON WYN', 'ARLENE', 'ARLENE JANE', 'ARLENE MARY', 'ARMANDO', 'ARMIN', 'ARNO ANGUS', 'ARNOLD', 'ARNOLD JAMES', 'ARNOLD MARK', 'ARNOLD WILLIAM', 'ARRAN', 'ARRON', 'ARSHID MAHBOOB', 'ARTHUR', 'ARTHUR ALAN', 'ARTHUR ALLAN', 'ARTHUR ALLEN BEWS', 'ARTHUR ASHLEY', 'ARTHUR BARRY', 'ARTHUR CAMERON', 'ARTHUR CHARLES', 'ARTHUR CLIVE', 'ARTHUR DAVID', 'ARTHUR EDWARD', 'ARTHUR ERIC', 'ARTHUR FREDERICK', 'ARTHUR GILBERT', 'ARTHUR HENRY', 'ARTHUR HERBERT', 'ARTHUR JAMES', 'ARTHUR JOHN', 'ARTHUR LEONARD', 'ARTHUR MARTIN', 'ARTHUR MICHAEL', 'ARTHUR PHILIP', 'ARTHUR RAYMOND', 'ARTHUR REGINALD', 'ARTHUR ROBERT', 'ARTHUR ROGER', 'ARTHUR ROY', 'ARTHUR STANLEY', 'ARTHUR STEPHEN', 'ARTHUR SYDNEY', 'ARTHUR THOMAS BERNARD', 'ARTHUR THOMAS DANIEL', 'ARTHUR WILLIAM', 'ARTUR', 'ARTUR BRIAN OWAN', 'ARUN', 'ARVYDAS', 'ARWEL', 'ARWYN JOHN', 'ASADULLAH', 'ASHA', 'ASHLEEE STEPHEN', 'ASHLEIGH DANIEL', 'ASHLEIGH ROSE', 'ASHLEY', 'ASHLEY CRAIG', 'ASHLEY DAVID', 'ASHLEY EDWARD', 'ASHLEY JAMES', 'ASHLEY JOHN', 'ASHLEY JOHN DANIEL', 'ASHLEY JOHNATHAN', 'ASHLEY LAWRENCE', 'ASHLEY MARCUS', 'ASHLEY MARK', 'ASHLEY NEIL', 'ASHLEY OWEN', 'ASHLEY PAUL', 'ASHLEY PAUL ALAN', 'ASHLEY RAYMOND', 'ASHLEY ROBERT', 'ASHLEY SUSANNE', 'ASHLEY WILLIAM', 'ASHWIN GEORGE', 'ASIF', 'ASIM', 'ATANAS', 'ATIF', 'ATTILA', 'ATULL', 'AUBREY CHRISTOPHER', 'AUBREY CLARENCE', 'AUBREY IAN RICHARD', 'AUBREY JOHN', 'AUBREY MANSEL', 'AUDRA MARIE', 'AUDREY', 'AUDREY ANNE', 'AUDREY DELROY', 'AUDREY EDITH', 'AUDREY ELIZABETH', 'AUDREY MARION', 'AUDREY RUTH', 'AUDREY SARAH', 'AUDRY', 'AUGUSTINE BERNARD', 'AUGUSTINE JOSEPH', 'AURIMAS', 'AUSRA', 'AUSTIN', 'AUSTIN IVAN', 'AUSTIN JOHN', 'AUSTIN JONATHAN', 'AUSTIN PETER', 'AUSTIN TERENCE', 'AUSTIN THOMAS', 'AUSTIN WHITELEY', 'AVIS', 'AVON MARTYN', 'AVRIL', 'AVTAR', 'AYUB-ABUBAKER', 'AZAM', 'AZHAR', 'AZWAR', 'Adam', 'BALAK SINGH', 'BALBIR', 'BALBIR KAUR', 'BALBIR SINGH', 'BALDEV', 'BALJINDER SINGH', 'BALJIT', 'BALJIT KAUR', 'BALJIT SINGH', 'BALRAJ SINGH', 'BALRAM', 'BALWANT', 'BALWANT SINGH', 'BANJIT', 'BARBARA', 'BARBARA ANN', 'BARBARA ANNE', 'BARBARA BETTY', 'BARBARA CATHERINE', 'BARBARA CHRISTINE', 'BARBARA ELIZABETH', 'BARBARA FRANCES', 'BARBARA HAZEL', 'BARBARA JEAN', 'BARBARA JOAN', 'BARBARA JOSEPHINE', 'BARBARA JOYCE', 'BARBARA KAY', 'BARBARA LESLEY FRANCES', 'BARBARA LYNN', 'BARBARA M', 'BARBARA MARY', 'BARBARA ROSE', 'BARBARA THERESE', 'BARBARA YVONNE MABEL', 'BARCLAY', 'BARIS RECEP', 'BARRI RICHARD', 'BARRIE', 'BARRIE ANDREW', 'BARRIE CHARLES', 'BARRIE CHRISTOPHER', 'BARRIE CLIVE JOHN', 'BARRIE CUTHBERT', 'BARRIE DAVID', 'BARRIE DOUGLAS', 'BARRIE EDWARD', 'BARRIE GLENN', 'BARRIE HARDING', 'BARRIE HENRY', 'BARRIE IAN', 'BARRIE JAMES', 'BARRIE JOHN', 'BARRIE JON', 'BARRIE JOSEPH', 'BARRIE PAUL', 'BARRIE PETER', 'BARRIE STUART', 'BARRIE THOMAS WEIGHTON', 'BARRIE WILLIAM', 'BARRINGTON DOUGLAS', 'BARRINGTON GARETH', 'BARRY', 'BARRY ALAN', 'BARRY ALBERT', 'BARRY ALBERT CHARLES', 'BARRY ALBERT GEORGE', 'BARRY ALFRED', 'BARRY ALLAN', 'BARRY ANTHONY', 'BARRY ARCHER', 'BARRY ARTHUR', 'BARRY BERNHARD', 'BARRY BERTRAM', 'BARRY BRIAN', 'BARRY BRITTON', 'BARRY BRUCE', 'BARRY BURNHAM', 'BARRY CHARLES', 'BARRY CHARLES ERNEST', 'BARRY CLARK', 'BARRY CLIFFORD', 'BARRY CLIVE', 'BARRY CYRIL', 'BARRY DAVID', 'BARRY EDWARD', 'BARRY EDWIN', 'BARRY ERIC', 'BARRY FORDHAM', 'BARRY GEORGE', 'BARRY GEORGE JOHN', 'BARRY GERARD', 'BARRY GRAHAM', 'BARRY GWYN', 'BARRY HUBERT', 'BARRY HUGH', 'BARRY IAN', 'BARRY IAN EDWARD', 'BARRY INCE', 'BARRY JAMES', 'BARRY JOHN', 'BARRY KERSLAKE', 'BARRY LEAVESLEY', 'BARRY LEONARD', 'BARRY LESLIE', 'BARRY MARK', 'BARRY MATTHEW', 'BARRY MELVIN', 'BARRY MERVYN', 'BARRY MICHAEL', 'BARRY NEVILLE', 'BARRY NORMAN', 'BARRY PAUL', 'BARRY PAUL MARTYN', 'BARRY PETER', 'BARRY PHILIP', 'BARRY RAYMOND', 'BARRY RICHARD', 'BARRY ROBERT', 'BARRY ROGER', 'BARRY RONALD', 'BARRY ROY', 'BARRY SCOTT', 'BARRY SELWYN', 'BARRY SHELDON GEORGE', 'BARRY STEPHEN', 'BARRY STEVEN', 'BARRY STUART GEORGE', 'BARRY THOMAS', 'BARRY TOWNEND', 'BARRY VICTOR', 'BARRY VINCENT JOHN', 'BARRY WILLIAM', 'BARRY WILLIAMS', 'BARTHOLOMEW DOMINIC', 'BARTOLOMEO', 'BARTOSZ K', 'BASHARIT', 'BASHIR', 'BASIL', 'BASIM AL JAWAHIRI', 'BASTEL FRAMAN', 'BEATA', 'BEDWYR', 'BELINDA JANE', 'BELINDA MICHELLE', 'BELINDA TRACY', 'BELJINDER', 'BEN', 'BEN DAVIES', 'BEN EDWARD', 'BEN EDWIN', 'BEN JAMES', 'BEN ROBERT', 'BENDT BARRACK', 'BENEDICT', 'BENJAMEN MATTHEW', 'BENJAMIN', 'BENJAMIN ALBERT', 'BENJAMIN ALEXANDER MATTHEW', 'BENJAMIN ANDREW', 'BENJAMIN BRADLEY', 'BENJAMIN CHARLES', 'BENJAMIN CHRISTIAN', 'BENJAMIN DANIEL', 'BENJAMIN DAVID', 'BENJAMIN EDWARD', 'BENJAMIN ELFED', 'BENJAMIN ELKANAH', 'BENJAMIN ERIK', 'BENJAMIN FRANK', 'BENJAMIN GARETH', 'BENJAMIN GEORGE', 'BENJAMIN JAMES', 'BENJAMIN JAMES GORDON', 'BENJAMIN JAMIE', 'BENJAMIN JOHN', 'BENJAMIN JOHN PENWARDEN', 'BENJAMIN JON', 'BENJAMIN JOSEPH', 'BENJAMIN KEITH', 'BENJAMIN KEVIN MOSTYN', 'BENJAMIN LLOYD LEWIS', 'BENJAMIN MARTIN', 'BENJAMIN MICHAEL', 'BENJAMIN MICHAEL VICTOR', 'BENJAMIN NICHOLAS', 'BENJAMIN NIGEL BRIAN', 'BENJAMIN PATRICK', 'BENJAMIN PAUL', 'BENJAMIN PETER', 'BENJAMIN PHILIP', 'BENJAMIN RAY', 'BENJAMIN RAYMOND', 'BENJAMIN ROBERT', 'BENJAMIN ROLAND', 'BENJAMIN RORY', 'BENJAMIN ROSS', 'BENJAMIN RUSSELL', 'BENJAMIN STANLEY', 'BENJAMIN STEPHEN', 'BENJAMIN STUART', 'BENJAMIN THOMAS', 'BENJAMIN WALTER', 'BENJAMIN WILLIAM AUSTEN', 'BENJAMIN WILLIAM ROSS', 'BENNETT EDWARD', 'BENNETT ROBERTSON', 'BENNY IB', 'BENOIT', 'BERKLEY GEORGE', 'BERNADETTE', 'BERNADETTE SUSAN', 'BERNARD', 'BERNARD ALEXANDER', 'BERNARD ANDREW', 'BERNARD BRIAN', 'BERNARD CAMPBELL', 'BERNARD CHARLES', 'BERNARD DAVID', 'BERNARD DEREK', 'BERNARD EDWIN', 'BERNARD ERIC', 'BERNARD GEORGE', 'BERNARD GORDON', 'BERNARD HARTLEY', 'BERNARD HENRY', 'BERNARD IAN', 'BERNARD JAMES', 'BERNARD JOHN', 'BERNARD JOSEPH', 'BERNARD KEVIN', 'BERNARD LIONEL', 'BERNARD MICHAEL', 'BERNARD NOEL', 'BERNARD OLIVER', 'BERNARD PATRICK', 'BERNARD PAUL', 'BERNARD PERCY', 'BERNARD PETER', 'BERNARD PHILIP', 'BERNARD ROBERT', 'BERNARD ROY', 'BERNARD RYCE', 'BERNARD SHARPE', 'BERNARD STEPHEN', 'BERNARD THOMAS', 'BERNARD VICTOR', 'BERNARD WILLIAM', 'BERNARD WILLOUGHBY', 'BERNICE', 'BERT', 'BERT ELLIOT', 'BERTIE A', 'BERTRAM REGINALD', 'BERWYN OWAIN', 'BERYL', 'BERYL GLENICE', 'BETH ALICE', 'BETHAN JANE', 'BETHANY', 'BETHANY ALICE', 'BETHANY LOUISE', 'BETSABE REBECA', 'BETTY', 'BEVERLEY', 'BEVERLEY ALLISON', 'BEVERLEY ANN', 'BEVERLEY ANNE', 'BEVERLEY JANE', 'BEVERLEY JAYNE', 'BEVERLEY JOHN', 'BEVERLEY LESLEY', 'BEVERLEY NICHOLAS', 'BEVERLY', 'BEVERLY MARY', 'BEVERLY NEIL', 'BHADRESH', 'BHAPINDER', 'BHUPINDER SINGH', 'BILE IBRAHIM', 'BILLA', 'BILLY', 'BLAIR MAGNUS WILLIAM', 'BLAIR RICHARD GRAHAM', 'BLAISE MARK', 'BLAKE STEPHEN', 'BLEDDYN', 'BLISS', 'BOBBY', 'BOBBY JOE', 'BOGDAN', 'BOGDAN ARTHUR HIBA', 'BOGDAN CRISTIAN', 'BOGDAN PAUL', 'BOYD J', 'BOYD ROSS', 'BOZENA REGINA', 'BRAD', 'BRADLEY', 'BRADLEY JAMES', 'BRADLEY JOHN', 'BRADLEY MICHAEL', 'BRADLEY ROBERT', 'BRADLEY SEAN', 'BRADLEY STEPHEN', 'BRADY', 'BRAN LESLIE', 'BRENDA', 'BRENDA ANNE', 'BRENDA DENISE', 'BRENDA DOROTHY', 'BRENDA ELLEN', 'BRENDA JEAN', 'BRENDA JOANNE', 'BRENDA MARION', 'BRENDA MARY', 'BRENDA MAY', 'BRENDAN', 'BRENDAN CHRISTOPHER', 'BRENDAN HARRY', 'BRENDAN JAMES', 'BRENDAN JOHN', 'BRENDAN JOSEPH', 'BRENDAN MICEAL', 'BRENDAN MICHAEL', 'BRENDAN NEIL', 'BRENDAN PATRICK', 'BRENDAN PAUL', 'BRENDON', 'BRENIG DAVID', 'BRENT', 'BRENT ANDREW', 'BRENT STEPHEN', 'BRETT', 'BRETT ALISAIR', 'BRETT ANTHONY', 'BRETT CHRISTOPHER', 'BRETT COLIN', 'BRETT DANIEL', 'BRETT JOHN', 'BRETT MICHAEL', 'BRETT SHANE', 'BRETT VICTOR', 'BRETT WILLIAM', 'BRETTON LEE', 'BRIAN', 'BRIAN ALBERT', 'BRIAN ALEXANDER', 'BRIAN ALEXANDER JAMES', 'BRIAN ALFRED', 'BRIAN ALLAN', 'BRIAN ANDREW', 'BRIAN ANTHONY', 'BRIAN ANTONY', 'BRIAN ARTHUR', 'BRIAN ASHLEY', 'BRIAN BERNARD', 'BRIAN CHARLES', 'BRIAN CHARLES HARRY', 'BRIAN CHARLES WILLIAM', 'BRIAN CHRISTOPHER', 'BRIAN CLIVE', 'BRIAN COLIN', 'BRIAN COLSTON', 'BRIAN CUPIT', 'BRIAN CURTIS', 'BRIAN CYRIL', 'BRIAN DAVID', 'BRIAN DENNIS', 'BRIAN DENNIS WALTER', 'BRIAN DEREK', 'BRIAN DESMOND', 'BRIAN DOUGLAS', 'BRIAN EDWARD', 'BRIAN EDWARD WALTER', 'BRIAN ERIC', 'BRIAN ERNEST', 'BRIAN ERROL', 'BRIAN FRANCIS', 'BRIAN FRANK', 'BRIAN FRDERICK', 'BRIAN FRED', 'BRIAN FREDERICK', 'BRIAN GEOFFREY', 'BRIAN GEORGE', 'BRIAN GEORGE HENRY', 'BRIAN GERALD', 'BRIAN GIBSON', 'BRIAN GORDON', 'BRIAN GRAHAM', 'BRIAN GRIFFITHS', 'BRIAN HAROLD', 'BRIAN HARRY', 'BRIAN HEDLEY', 'BRIAN HENRY', 'BRIAN HENRY THOMAS', 'BRIAN HUGH', 'BRIAN JAMES', 'BRIAN JEFFREY', 'BRIAN JOHN', 'BRIAN JOHN HOPETOUN', 'BRIAN JOHN STANLEY', 'BRIAN JOHN WILLIAM', 'BRIAN JON', 'BRIAN JOSEPH', 'BRIAN JULES', 'BRIAN KEITH', 'BRIAN KENNETH', 'BRIAN KENNETH PETER', 'BRIAN KEVIN', 'BRIAN LAWLEY', 'BRIAN LEE', 'BRIAN LESLIE', 'BRIAN LEWIS', 'BRIAN LIONEL', 'BRIAN LLEWELLYN', 'BRIAN LOCKHART', 'BRIAN MALCOLM', 'BRIAN MARK', 'BRIAN MARTIN', 'BRIAN MARTYN', 'BRIAN MICHAEL', 'BRIAN MORRIS', 'BRIAN NEIL', 'BRIAN NORMAN', 'BRIAN OSCAR', 'BRIAN OWEN', 'BRIAN PATRICK', 'BRIAN PAUL', 'BRIAN PAUL PATRICK', 'BRIAN PETER', 'BRIAN RALPH', 'BRIAN RAWNSLEY', 'BRIAN RAWSTERN', 'BRIAN REGINALD', 'BRIAN REGINALD JOHN', 'BRIAN RICHARD', 'BRIAN ROBERT', 'BRIAN ROBIN', 'BRIAN RODERICK', 'BRIAN RODNEY', 'BRIAN ROGER', 'BRIAN ROLAND', 'BRIAN RONALD', 'BRIAN ROY', 'BRIAN SAMUEL', 'BRIAN SIDNEY', 'BRIAN SIMON', 'BRIAN STANLEY', 'BRIAN STEPHEN', 'BRIAN STEWART', 'BRIAN SYDNEY', 'BRIAN T', 'BRIAN THOMAS', 'BRIAN TREVOR', 'BRIAN VICTOR', 'BRIAN W', 'BRIAN WALTER', 'BRIAN WILLIAM', 'BRIDGET', 'BRIDGET RACHEL', 'BRIGID SIOBHAN', 'BRINLEY JOHN', 'BRIYESH', 'BRONWYN', 'BROOKE', 'BRUCE', 'BRUCE ALEXANDER', 'BRUCE ANTHONY', 'BRUCE CHARLES', 'BRUCE DAVID', 'BRUCE DEREK', 'BRUCE IAN FLAXMAN', 'BRUCE JOHN', 'BRUCE MARCUS', 'BRUCE NORISS', 'BRUCE RICHARD', 'BRUCE ROBERT', 'BRUCE STEWART', 'BRUCE TERRENCE FREDERICK', 'BRUCE THOMAS', 'BRUCE WILLIAM', 'BRYAN', 'BRYAN ANDREW', 'BRYAN ARTHUR', 'BRYAN CHARLES', 'BRYAN CLIFFORD', 'BRYAN DANIEL', 'BRYAN DAVID', 'BRYAN DAVID JOHN', 'BRYAN DAVID PATTERSON', 'BRYAN DENNIS', 'BRYAN EDWARD', 'BRYAN EDWIN', 'BRYAN GEOFFREY', 'BRYAN GREGORY', 'BRYAN HAROLD', 'BRYAN HENRY', 'BRYAN HENRY DAVID', 'BRYAN JAMES', 'BRYAN JOHN', 'BRYAN KEITH', 'BRYAN LAURENCE', 'BRYAN MAJOR', 'BRYAN MICHAEL', 'BRYAN NEIL', 'BRYAN NICHOLAS', 'BRYAN PHILIP', 'BRYAN RAYMOND', 'BRYAN RICHARD', 'BRYAN VERNON', 'BRYAN WILLIAM', 'BRYN', 'BRYN STANLEY', 'BRYNLEY', 'BRYNMOOR PHILIP', 'BRYNMOR IWAN', 'BRYON', 'BRYSON', 'BYRAN BALFOUR', 'BYRON PAUL', 'CAITHLIN AIOFE', 'CAIUS JEREMY', 'CALEB', 'CALLUM', 'CALLUM DAVID RHYS', 'CALLUM DOWNS', 'CALLUM JOHN', 'CALLUM THOMAS', 'CALOGERO', 'CALUM', 'CALUM MCLEOD', 'CALVIN', 'CALVIN BRETT', 'CALVIN CHRISTOPHER', 'CALVIN JAMES', 'CALVIN JOHN', 'CAMERON', 'CAMERON CHARLES', 'CAMERON JAMES', 'CAMERON JOHN', 'CAMERON PETER', 'CAMERON VICTOR', 'CAMERON WILLIAM', 'CAMILLA DAWN', 'CAMILLA JANE', 'CAMILLA MARIANNE', 'CAMPBELL', 'CAMPBELL A', 'CAMPBELL ALEXANDER', 'CAMPBELL BLAIR TAYLOR', 'CAMPBELL JOHN', 'CAMPBELL MCFARLANE', 'CARA', 'CARADOG', 'CARL', 'CARL AARON', 'CARL ADRIAN', 'CARL ADRIAN ROY', 'CARL ALAN', 'CARL ANDREW', 'CARL ANTHONY', 'CARL BENJAMIN', 'CARL BERNARD', 'CARL BRENDAN', 'CARL BRIAN', 'CARL BRYAN', 'CARL D', 'CARL DANIEL', 'CARL DAVID', 'CARL DENNIS', 'CARL DERRICK', 'CARL DOUGLAS', 'CARL EDWARD', 'CARL FRANCIS', 'CARL FREDERICK', 'CARL IGNATIUS', 'CARL JAMES', 'CARL JAMES DAVID', 'CARL JOHN', 'CARL JONATHAN', 'CARL JOSEPH', 'CARL LAWTON', 'CARL MALCOLM', 'CARL MAURICE', 'CARL NIGEL', 'CARL NORMAN', 'CARL PAUL', 'CARL PETER', 'CARL PHILLIP', 'C</t>
         </is>
@@ -1278,18 +1367,22 @@
       <c r="P13" t="n">
         <v>5335</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>1104711</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>12422</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>["'T HART", '12', '28', '5', 'A HARA', 'AARON', 'AARONS', 'ABASI', 'ABBAS', 'ABBATT', 'ABBEY', 'ABBOTT', 'ABBOTTS', 'ABDI', 'ABDUL', 'ABDULLAH', 'ABEL', 'ABERCROMBIE', 'ABLEWHITE', 'ABLEY', 'ABRAHAM', 'ABRAHAMS', 'ABRAM', 'ACAMOVIC', 'ACKAH-AMIHERE', 'ACKERLEY', 'ACKERS', 'ACKHURST', 'ACKLAM', 'ACKROYD', 'ACONLEY', 'ACOTT', 'ACRES', 'ADAIR', 'ADAM', 'ADAMS', 'ADAMSON', 'ADCOCK', 'ADCROFT', 'ADDELSEE', 'ADDERLEY', 'ADDI', 'ADDICOTT', 'ADDIS', 'ADDISON', 'ADDISON-CARTER', 'ADDLESEE', 'ADEN', 'ADENIGBAGBE', 'ADIE', 'ADKIN', 'ADKINS', 'ADLAM', 'ADLARD', 'ADLEM', 'ADSHEAD', 'AFFORD', 'AGAR', 'AGATE', 'AGGARWAL', 'AGGER', 'AGGIO', 'AGHA', 'AGNEW', 'AGRIPPINE', 'AGUDA', 'AGUILAR', 'AGUILAR -AGIUS', 'AGUS', 'AHEARN', 'AHERN', 'AHERNE', 'AHL', 'AHMED', 'AHSAN', 'AHUJA', 'AIELLO', 'AIKEN', 'AIM', 'AIMSWORTH', 'AINDOW', 'AINGE', 'AINGER', 'AINLEY', 'AINSCOUGH', 'AINSLEY', 'AINSWORTH', 'AIRD', 'AIREY', 'AISTHORPE', 'AITCHISON', 'AITKEN', 'AITON', 'AJAZ', 'AJIMAL', 'AKCA', 'AKENHEAD', 'AKERMAN', 'AKERS', 'AKHTAR', 'AKIENS', 'AKMAL', 'AKOMPEY', 'AKRAM', 'AKROYD', 'AKSU', 'AL-SIBAHI', 'ALAN', 'ALBANESE', 'ALBERT', 'ALBISTON', 'ALBU', 'ALBUQUERQUE', 'ALCOCK', 'ALCORN', 'ALDEN', 'ALDERMAN', 'ALDERSLADE', 'ALDERSON', 'ALDERTON', 'ALDIS', 'ALDOUS', 'ALDRIDGE', 'ALEXANDER', 'ALFORD', 'ALFRED', 'ALGIE', 'ALI', 'ALIAJ', 'ALISON', 'ALIZADEH-ALAMDARI', 'ALKER', 'ALLAM', 'ALLAN', 'ALLANSON', 'ALLARD', 'ALLARDICE', 'ALLATT', 'ALLCHURCH', 'ALLCOCK', 'ALLCOTT', 'ALLDAY', 'ALLDER', 'ALLELEY', 'ALLELY', 'ALLEN', 'ALLENBY', 'ALLENDER', 'ALLERTON', 'ALLERY', 'ALLFORD', 'ALLIE', 'ALLINGHAM', 'ALLINGTON', 'ALLINSON', 'ALLISON', 'ALLISTON', 'ALLITT', 'ALLMAN', 'ALLMARK', 'ALLNUTT', 'ALLON', 'ALLPORT', 'ALLPRESS', 'ALLRIGHT', 'ALLSO', 'ALLSOP', 'ALLSOPP', 'ALLTOFT', 'ALLWOOD', 'ALLWRIGHT', 'ALLYMAN', 'ALMANDRAS', 'ALMEN', 'ALMEY', 'ALMOND', 'ALPE', 'ALSOP', 'ALSTON', 'ALTON', 'ALTY', 'ALVES', 'ALVEY', 'ALWANI', 'AMBIDGE', 'AMBLER', 'AMBROSE', 'AMBRUS', 'AMER', 'AMES', 'AMEY', 'AMIN', 'AMIS', 'AMMIRATO', 'AMOR', 'AMOS', 'AMPS', 'AN', 'ANDERS', 'ANDERSON', 'ANDERTON', 'ANDREW', 'ANDREWS', 'ANDRONIC', 'ANELAY', 'ANEMA', 'ANGEL', 'ANGELL', 'ANGELONI', 'ANGER', 'ANGLESEA', 'ANGLISS', 'ANGUS', 'ANKER', 'ANKERSON', 'ANNABLE', 'ANNETT', 'ANNETTS', 'ANNING', 'ANNIS', 'ANNISON', 'ANSCOMBE', 'ANSELL', 'ANSLOW', 'ANSTEE', 'ANSTEY', 'ANSTICE', 'ANSWER', 'ANTCLIFF', 'ANTCLIFFE', 'ANTELL', 'ANTHONEY', 'ANTHONY', 'ANTINORO', 'ANTLEY', 'ANTOHE', 'ANTONA', 'ANTONESCU', 'ANTONIA', 'ANTONIOU', 'ANTOSZKIW', 'ANTROBUS', 'APLIN', 'APOSTOL', 'APOSTOLIDES', 'APPEL', 'APPERLEY', 'APPLEBY', 'APPLEGARTH', 'APPLEGATE', 'APPLETON', 'APPLEWHITE', 'APPLEYARD', 'APPS', 'APSEE', 'APSLEY', 'ARAM', 'ARAMA', 'ARAYA', 'ARBUTHNOT', 'ARCARO', 'ARCHBOLD', 'ARCHBUTT', 'ARCHER', 'ARCHER-MUNRO', 'ARCHIBALD', 'ARDEN', 'ARDEN-NIXON', 'ARDERN', 'ARDREN', 'ARGENZIANO', 'ARGHANDAWI', 'ARGO', 'ARGYLE', 'ARIF', 'ARKELL', 'ARKINSTALL', 'ARKLE', 'ARKWRIGHT', 'ARLOTT', 'ARMASELU', 'ARMER', 'ARMETT', 'ARMEZZANI', 'ARMIGER', 'ARMINSON', 'ARMISHAW', 'ARMISTEAD', 'ARMITAGE', 'ARMOUR', 'ARMSDEN', 'ARMSTRONG', 'ARMSTRONG-WILSON', 'ARNETT', 'ARNEY', 'ARNFIELD', 'ARNOLD', 'ARNOTT', 'ARROWSMITH', 'ARSCOTT', 'ARSLANIAN', 'ARTER', 'ARTHUR', 'ARTHURS', 'ARTHURTON', 'ARTHY', 'ARTISS', 'ARTLEY', 'ARTUS', 'ARUNDEL', 'ARUNDELL', 'ARWEL', 'ASBURY', 'ASCROFT', 'ASEFAW', 'ASH', 'ASHALL', 'ASHBARRY', 'ASHBEE', 'ASHBOURNE', 'ASHBURN', 'ASHBURNER', 'ASHBY', 'ASHCROFT', 'ASHDOWN', 'ASHE', 'ASHENDEN', 'ASHFIELD', 'ASHFOLD', 'ASHFORD', 'ASHFORTH', 'ASHGAR-SANDYS', 'ASHLEY', 'ASHMAN', 'ASHMEAD', 'ASHMORE', 'ASHRAF', 'ASHTON', 'ASHTON-BEARD', 'ASHURST', 'ASHWORTH', 'ASKEW', 'ASKEY', 'ASKHAM', 'ASKIN', 'ASLAM', 'ASLETT', 'ASMAL', 'ASPDEN', 'ASPELL', 'ASPINAL', 'ASPINALL', 'ASPLAND', 'ASPRAY', 'ASPREY', 'ASQUITH', 'ASSAM', 'ASSITER', 'ASTBURY', 'ASTLE', 'ASTLEY', 'ASTON', 'ATACK', 'ATHAY', 'ATHERTON', 'ATHEY', 'ATHORN', 'ATHWAL', 'ATKAR', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTENBOROUGH', 'ATTERBURY', 'ATTEWELL', 'ATTIPAS', 'ATTRELL', 'ATTRILL', 'ATTWATER', 'ATTWELL', 'ATTWOOD', 'ATWAL', 'ATWELL', 'AUCHNIE', 'AUCHTERLONIE', 'AUCKLAND', 'AUCOTT', 'AUGUSTINE', 'AUJLA', 'AUKER', 'AULAKH', 'AULD', 'AUSKERIN', 'AUSLING', 'AUSTEN', 'AUSTIN', 'AUTY', 'AVERY', 'AVISON', 'AWCOCK', 'AWOYEMI', 'AXFORD', 'AXON', 'AYALON', 'AYDON', 'AYERS', 'AYLESBURY', 'AYLETT', 'AYLING', 'AYLMORE', 'AYLWARD', 'AYLWIN', 'AYNSLEY', 'AYRE', 'AYRES', 'AYRIS', 'AYTO', 'AZIZ', 'Agar', 'BAALHAM', 'BAARDA', 'BABB', 'BABBINGTON', 'BABCOCK', 'BABER', 'BACCHUS', 'BACH', 'BACHE', 'BACK', 'BACKHOLER', 'BACKHOUSE', 'BACKHURST', 'BACON', 'BADCOCK', 'BADDELEY', 'BADEA', 'BADESHA', 'BADGER', 'BADH', 'BADHAM', 'BADHAN', 'BADLEY', 'BADMAN', 'BADRELDIEN', 'BAGE', 'BAGGALEY', 'BAGGETT', 'BAGGOTT', 'BAGGS', 'BAGGULEY', 'BAGNALL', 'BAGSHAW', 'BAGULEY', 'BAGWELL', 'BAHIA', 'BAIGRIE', 'BAILEY', 'BAILEY-LAWRENCE', 'BAILEY-SALTER', 'BAILISS', 'BAILLIE', 'BAILLIE-LANE', 'BAILY', 'BAIN', 'BAIN-VENN', 'BAINBRIDGE', 'BAINES', 'BAINS', 'BAIOCCHI', 'BAIRD', 'BAIRNER', 'BAIRSTOW', 'BAISTER', 'BAJWA', 'BAK', 'BAKER', "BAKER-I'ANSON", 'BAKER-JAMES', 'BAKES', 'BAKEWELL', 'BAL', 'BALAAM', 'BALAUCA', 'BALCHIN', 'BALDERSTONE', 'BALDING', 'BALDINI', 'BALDOCK', 'BALDRY', 'BALDWIN', 'BALE', 'BALEAN', 'BALHATCHET', 'BALI', 'BALL', 'BALLANTINE', 'BALLANTYNE', 'BALLARD', 'BALLE', 'BALLINGER', 'BALLOCH', 'BALLS', 'BALMAN', 'BALMER', 'BALMFORTH', 'BALSDON', 'BALTRUSAITIENE', 'BALZANO', 'BAMBER', 'BAMBRIDGE', 'BAMFORD', 'BAMFORTH', 'BANAK', 'BANBURY', 'BANCROFT', 'BAND', 'BANE', 'BANFIELD', 'BANGA', 'BANGS', 'BANHAM', 'BANKS', 'BANNATYNE', 'BANNER', 'BANNERMAN', 'BANNING', 'BANNISTER', 'BANNON', 'BANTON', 'BANWELL', 'BANYARD', 'BARAN', 'BARBEIRI', 'BARBER', 'BARBONI', 'BARBOUR', 'BARCHAM', 'BARCLAY', 'BARDEN', 'BARDGETT', 'BARDOSI', 'BARDSLEY', 'BARDWA', 'BARDWELL', 'BAREFOOT', 'BAREHAM', 'BARFOOT', 'BARFORD', 'BARGEWELL', 'BARGH', 'BARHAM', 'BARK', 'BARKER', 'BARKES', 'BARKS', 'BARLOW', 'BARMAN', 'BARNARD', 'BARNBROOK', 'BARNDEN', 'BARNES', 'BARNETT', 'BARNFATHER', 'BARNFIELD', 'BARNICOAT', 'BARNIKEL', 'BARNSLEY', 'BARNWALL', 'BARON', 'BARONS', 'BARR', 'BARRACLOUGH', 'BARRADELL', 'BARRASS', 'BARRATT', 'BARRELL', 'BARRETT', 'BARRIAC', 'BARRICK', 'BARRIE', 'BARRIGAN', 'BARRINGTON', 'BARRITT', 'BARRON', 'BARROW', 'BARROW-YATES', 'BARROWS', 'BARRS', 'BARRY', 'BARSBY', 'BARTCZAK', 'BARTER', 'BARTH', 'BARTHOLOMEW', 'BARTLE', 'BARTLETT', 'BARTLEY', 'BARTMEIER', 'BARTON', 'BARTRAM', 'BARTRUM', 'BARWELL', 'BARWICK', 'BARWOOD', 'BASCOMBE', 'BASELEY', 'BASEY-FISHER', 'BASFORD', 'BASHAM', 'BASHFORD', 'BASHIR', 'BASHTON', 'BASI', 'BASKETT', 'BASLEY', 'BASNETT', 'BASRA', 'BASS', 'BASSANT', 'BASSETT', 'BASSFORD', 'BASSI', 'BASSOM', 'BASSON', 'BASTABLE', 'BASTON', 'BASTOW', 'BATCHELAR', 'BATCHELOR', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATESON', 'BATEY', 'BATH', 'BATHAM', 'BATHER', 'BATHIE', 'BATKIN', 'BATSFORD', 'BATSON', 'BATT', 'BATTEN', 'BATTERS', 'BATTH', 'BATTISON', 'BATTY', 'BATTYE', 'BATY', 'BAUCKHAM', 'BAUGH', 'BAUGHAN', 'BAULD', 'BAUM', 'BAUSOR', 'BAVAIRD', 'BAVERSTOCK', 'BAVEYSTOCK', 'BAVIN', 'BAWA', 'BAWDEN', 'BAXENDALE', 'BAXTER', 'BAYBUTT', 'BAYES', 'BAYET', 'BAYLES', 'BAYLEY', 'BAYLIS', 'BAYLISS', 'BAYNE', 'BAYNES', 'BAYNHAM', 'BAYRAKCI', 'BAYRAM', 'BAYSTON', 'BAZLEY', 'BEACH', 'BEACHAM', 'BEACHER', 'BEACHILL', 'BEACOCK', 'BEACON', 'BEADLE', 'BEADSWORTH', 'BEAGLEY', 'BEAL', 'BEALBY', 'BEALE', 'BEALES', 'BEALING', 'BEAMAN', 'BEAMER', 'BEAN', 'BEANLAND', 'BEAR', 'BEARD', 'BEARDALL', 'BEARDMORE', 'BEARDSHAW', 'BEARDSMORE', 'BEARDWELL', 'BEARE', 'BEARRYMAN', 'BEARSBY', 'BEASLEY', 'BEASMORE', 'BEASTALL', 'BEATH', 'BEATON', 'BEATSON', 'BEATTIE', 'BEATTLE', 'BEATTY', 'BEATY', 'BEAUCHAMP', 'BEAUMONT', 'BEAUPIERRE', 'BEAUTRIDGE', 'BEAVAN', 'BEAVER', 'BEAVERS', 'BEAVES', 'BEBB', 'BEBER', 'BECK', 'BECKER', 'BECKETT', 'BECKLEY', 'BECKWITH', 'BEDDALL', 'BEDDOE', 'BEDFORD', 'BEDSON', 'BEDWELL', 'BEE', 'BEEBE', 'BEEBY', 'BEECH', 'BEECHAM', 'BEECHES', 'BEECHING', 'BEECROFT', 'BEEDIE', 'BEEDLES', 'BEEFORTH', 'BEEKMAN', 'BEEL', 'BEENEY', 'BEER', 'BEES', 'BEESE', 'BEESLEY', 'BEESON', 'BEESTON', 'BEETHAM', 'BEEVER', 'BEEVERS', 'BEEVIS', 'BEEVOR', 'BEFF', 'BEGG', 'BEGLEY', 'BEGUM', 'BEHA', 'BEHAGG', 'BEHAN', 'BEIRNE', 'BEITH', 'BEKTASOGLU', 'BELBIN', 'BELCHER', 'BELDOM', 'BELFIELD', 'BELFITT', 'BELFORD', 'BELGIN', 'BELIMENKO', 'BELISLE', 'BELK', 'BELL', 'BELL-WALKER', 'BELLABY', 'BELLAMY', 'BELLARS', 'BELLEINI', 'BELLINGHAM', 'BELLIS', 'BELLMAN', 'BELLOTTI', 'BELOULOU', 'BELT', 'BELTON', 'BEMAND', 'BEMBRIDGE', 'BENBOW', 'BENDALL', 'BENDEN', 'BENDLE', 'BENDREY', 'BENEE', 'BENFORD', 'BENGRY', 'BENHAM', 'BENINSON', 'BENISTON', 'BENJAMIN', 'BENN', 'BENNETT', 'BENNETTS', 'BENNEY', 'BENNIESTON', 'BENNING', 'BENNINGTON', 'BENNION', 'BENNISON', 'BENNY', 'BENSLEY', 'BENSON', 'BENSTEAD', 'BENT', 'BENTHAM', 'BENTLEY', 'BENTON', 'BENYON', 'BENZIE', 'BERE', 'BERESFORD', 'BERGMAN', 'BERKLEY', 'BERLIN', 'BERNARD', 'BERRESFORD', 'BERRETT', 'BERRIDGE', 'BERRIFF', 'BERRIMAN', 'BERRISFORD', 'BERRY', 'BERRYMAN', 'BERTA', 'BERTRAM', 'BERTRAND', 'BERWICK', 'BESANT', 'BESCHORNER', 'BESHARAT', 'BESLEY', 'BESOIU', 'BESSELL', 'BEST', 'BESTWICK', 'BESWICK', 'BETCHLEY', 'BETHEL', 'BETHELL', 'BETTELEY', 'BETTERIDGE', 'BETTINSON', 'BETTIS', 'BETTLES', 'BETTLEY', 'BETTNEY', 'BETTS', 'BETTS-BUCKE', 'BEVAN', 'BEVERIDGE', 'BEVERLEY', 'BEVINS', 'BEVIS', 'BEWS', 'BEXLEY', 'BEXTON', 'BEYNON', 'BEZANCE', 'BEZER', 'BEZZINA', 'BHAKERD', 'BHALSOD', 'BHANDAL', 'BHANOT', 'BHARAT', 'BHARDWAJ', 'BHATIA', 'BHATTI', 'BHINDER', 'BHOGAL', 'BHOWMIK', 'BHUDIA', 'BIANCHI', 'BIANCHINI', 'BIBBY', 'BIBI', 'BICA', 'BICK', 'BICKERDIKE', 'BICKERS', 'BICKERSTAFFE', 'BICKERTON', 'BICKFORD', 'BICKHAM', 'BICKLEY', 'BICKNELL', 'BIDDISCOMBE', 'BIDDLE', 'BIDDLECOMBE', 'BIDDULPH', 'BIDGOOD', 'BIDWELL', 'BIE', 'BIEL', 'BIELAWSKI', 'BIELBY', 'BIELBY - BELL', 'BIELIUNAS', 'BIFFIN', 'BIGGIN', 'BIGGLE', 'BIGGS', 'BIGHAM', 'BIGLEY', 'BIGNELL', 'BIGWOOD', 'BIKER', 'BILAN', 'BILBIN', 'BILES', 'BILHAM', 'BILL', 'BILLANY', 'BILLETT', 'BILLINGHAM', 'BILLINGHURST', 'BILLINGS', 'BILLINGTON', 'BILLOT', 'BILLYARD', 'BILLYEALD', 'BILSLAND', 'BILTON', 'BIMSON', 'BINACCIONI', 'BINCH', 'BINDER', 'BINDING', 'BINDLEY', 'BING', 'BINGHAM', 'BINGLEY', 'BINKS', 'BINLEY', 'BINNEY', 'BINNIE', 'BINNING', 'BINNINGTON', 'BINNS', 'BINSTEAD', 'BINT', 'BIRCH', 'BIRCHALL', 'BIRCHENOUGH', 'BIRCHER', 'BIRCMENOUGH', 'BIRD', 'BIRDSALL', 'BIRKBECK', 'BIRKBY', 'BIRKETT', 'BIRKIN', 'BIRKS', 'BIRMINGHAM', 'BIRNIE', 'BIRT', 'BIRTLE', 'BIRTWHISTLE', 'BISBY', 'BISCOMB', 'BISETTO', 'BISH', 'BISHOP', 'BISHTON', 'BISLAND', 'BISS', 'BISSELL', 'BISSET', 'BITHELL', 'BITTLES', 'BIVINS', 'BJERLAND', 'BLACK', 'BLACKADDER', 'BLACKBOROW', 'BLACKBURN', 'BLACKETT', 'BLACKFORD', 'BLACKIE', 'BLACKLEDGE', 'BLACKLER', 'BLACKLEY', 'BLACKLOCK', 'BLACKMAN', 'BLACKMORE', 'BLACKWELL', 'BLACKWOOD', 'BLADES', 'BLADON', 'BLAGBROUGH', 'BLAGG', 'BLAIKIE', 'BLAIN', 'BLAIR', 'BLAKE', 'BLAKE-JELLEY', 'BLAKELEY', 'BLAKELOCK', 'BLAKEMAN', 'BLAKEMORE', 'BLAKER', 'BLAKESTON', 'BLAKEWAY', 'BLAKEY', 'BLAMIRE', 'BLANCH', 'BLANCHARD', 'BLANCHE', 'BLAND', 'BLANDFORD', 'BLANKS', 'BLANPAIN', 'BLANT', 'BLASER', 'BLASKET', 'BLATCH', 'BLATCHFORD', 'BLATCHLY', 'BLATHERWICK', 'BLAXLEY', 'BLAYLOCK', 'BLAZIER', 'BLEACH', 'BLEAKEN', 'BLEASDALE', 'BLEAZARD', 'BLENCH', 'BLENKHARN', 'BLENKLEY', 'BLENNARHASSETT', 'BLEST-HOPLEY', 'BLETSOE-BROWN', 'BLEWETT', 'BLEWITT', 'BLICK', 'BLISS', 'BLIZARD', 'BLIZZARD', 'BLOCKEY', 'BLOCKLEY', 'BLOCKSIDGE', 'BLOIS', 'BLOK', 'BLOMFIELD', 'BLOOMER', 'BLOOMFIELD', 'BLOOR', 'BLOSSETT', 'BLOUNT', 'BLOW', 'BLOWER', 'BLOWES', 'BLOXHAM', 'BLOXSOME', 'BLUCK', 'BLUER', 'BLUME', 'BLUNDELL', 'BLUNDEN', 'BLUNDY', 'BLUNSDEN', 'BLUNSDON', 'BLUNT', 'BLUZMA', 'BLYTH', 'BLYTHE', 'BLYTHMAN', 'BOAK', 'BOAL', 'BOARD', 'BOARDMAN', 'BOATENG', 'BOAZ', 'BOAZMAN', 'BOCANCEA', 'BOCCIUS', 'BOCHENEK', 'BODDICE', 'BODDIE', 'BODDY', 'BODEN', 'BODENHAM', 'BODILY', 'BODKIN', 'BODMAN', 'BODY', 'BOELEMA', 'BOESSL', 'BOGALECKI', 'BOGAN', 'BOGDANOV', 'BOGG', 'BOGGIS', 'BOGGUST', 'BOGIRA', 'BOGUE', 'BOGUSKI', 'BOHANNA', 'BOLAM', 'BOLAND', 'BOLAS', 'BOLDER', 'BOLDIZSAR', 'BOLES', 'BOLGER', 'BOLINA', 'BOLITHO', 'BOLLAN', 'BOLLAND', 'BOLLE', 'BOLLEN', 'BOLLINGTON', 'BOLSOVER', 'BOLSWORTH', 'BOLT', 'BOLTER', 'BOLTON', 'BOMBER', 'BOMFORD', 'BONAR', 'BOND', 'BONDS', 'BONE', 'BONHAM', 'BONHAM CHRISTIE', 'BONN', 'BONNAR', 'BONNER', 'BONNETT', 'BONNEY', 'BONNING', 'BONNIWELL', 'BONSALL', 'BONSER', 'BONSON', 'BONTHRONE', 'BONTOFT', 'BOOCOCK', 'BOOKER', 'BOOMER', 'BOON', 'BOOT', 'BOOTE', 'BOOTH', 'BOOTH-WILLIAMS', 'BOOTHMAN', 'BOOTLE', 'BOOTY', 'BOOTYMAN', 'BOOY', 'BOPARAI', 'BORBON', 'BORDISS', 'BOREHAM', 'BORER', 'BORLAND', 'BORN', 'BORNE', 'BORRETT', 'BORRILL', 'BORTHWICK', 'BORZELLIERI', 'BOSELEY', 'BOSHER', 'BOSLEY', 'BOSTOCK', 'BOSTON', 'BOSWELL', 'BOSWORTH', 'BOTEA', 'BOTHAM', 'BOTHWELL', 'BOTLEY', 'BOTT', 'BOTTERELL', 'BOTTERILL', 'BOTTING', 'BOTTOM', 'BOTTOMLEY', 'BOTTOMS', 'BOTTRILL', 'BOTWRIGHT', 'BOUCH', 'BOUCHARD', 'BOUCHERE', 'BOUGH', 'BOUGHTON', 'BOULBY', 'BOULD', 'BOULDERSTONE', 'BOULTBY', 'BOULTER', 'BOULTON', 'BOUNDFORD', 'BOUNDS', 'BOURGEIN', 'BOURKE', 'BOURNE', 'BOURNER', 'BOURTON', 'BOUSFIELD', 'BOUSTEAD', 'BOUTCHER-WEST', 'BOVAINE', 'BOVINGTON', 'BOVIS', 'BOW', 'BOWATER', 'BOWCOCK', 'BOWDEN', 'BOWDEN-DAVIES', 'BOWDIDGE', 'BOWDIN', 'BOWE', 'BOWEN', 'BOWEN-JONES', 'BOWER', 'BOWERBANK', 'BOWERMAN', 'BOWERS', 'BOWERY', 'BOWES', 'BOWHAY', 'BOWHILL', 'BOWIE', 'BOWKER', 'BOWKETT', 'BOWLBY', 'BOWLER', 'BOWLES', 'BOWLING', 'BOWMAKER', 'BOWMAN', 'BOWMER', 'BOWN', 'BOWNASS', 'BOWNES', 'BOWNESS', 'BOWNS', 'BOWRING', 'BOX', 'BOXALL', 'BOYCE', 'BOYCE-SMITH', 'BOYD', 'BOYDELL', 'BOYER', 'BOYES', 'BOYLAN', 'BOYLAND', 'BOYLE', 'BOYLES', 'BOYLIN', 'BOYLING', 'BOYNE', 'BOYS', 'BOYSE', 'BOZHKOV', 'BOZHKOVA', 'BOZILOVIC', 'BOZON', 'BOZWARD', 'BRABAZON', 'BRABIN', 'BRABY', 'BRACE', 'BRACEGIRDLE', 'BRACEWELL', 'BRACEY', 'BRACH', 'BRACHER', 'BRACK', 'BRACKEN', 'BRACKENBURY', 'BRACKENRIDGE', 'BRACKLEY', 'BRADBOURN', 'BRADBURN', 'BRADBURNE', 'BRADBURY', 'BRADD', 'BRADDY', 'BRADER', 'BRADFIELD', 'BRADFORD', 'BRADLEY', 'BRADNUM', 'BRADSHAW', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAHA', 'BRAHAM', 'BRAHIMI', 'BRAID', 'BRAIDWOOD', 'BRAILEY', 'BRAILSFORD', 'BRAIM', 'BRAIN', 'BRAINE', 'BRAINES', 'BRAITHWAITE', 'BRAKE', 'BRALE', 'BRAMBLE', 'BRAME', 'BRAMLEY', 'BRAMWELL', 'BRANCH', 'BRAND', 'BRANDISH', 'BRANDON', 'BRANFIELD', 'BRANIGAN', 'BRANNAN', 'BRANNEN', 'BRANNOCK', 'BRANSBY', 'BRANSTON', 'BRANT', 'BRANTHWAITE', 'BRANTON', 'BRAR', 'BRASH', 'BRASHAW', 'BRASIER', 'BRASSILL', 'BRASSINGTON', 'BRATCHYK', 'BRATHERTON', 'BRATLEY', 'BRATT', 'BRAUN', 'BRAXTON', 'BRAY', 'BRAYNE', 'BRAYSHAW', 'BRAZENDALE', 'BRAZENER', 'BRAZIER', 'BRAZIL', 'BREADMORE', 'BREAKEY', 'BREAKSPEAR', 'BREAKWELL', 'BREALEY', 'BREARLEY', 'BREARS', 'BREBNER', 'BRECKNEY', 'BRECKON', 'BREEDEN', 'BREEN', 'BREESE', 'BREEZE', 'BREHON', 'BREHONY', 'BREMNER', 'BRENDLING', 'BRENNAN', 'BRENNAND', 'BRENT', 'BRENTON', 'BRERETON', 'BRESLIN', 'BRESNAHAN', 'BRESNAN', 'BRETHERTON', 'BRETT', 'BRETTLE', 'BREW', 'BREWARD', 'BREWER', 'BREWIS', 'BREWOOD', 'BREWSTER', 'BRICE', 'BRICKELL', 'BRICKETT', 'BRICKLEY', 'BRICKWOOD', 'BRIDDON', 'BRIDEWELL', 'BRIDGE', 'BRIDGEN', 'BRIDGER', 'BRIDGES', 'BRIDGEWATER', 'BRIDGMAN', 'BRIDSON', 'BRIERLEY', 'BRIERS', 'BRIGDEN', 'BRIGGS', 'BRIGGS-PRICE', 'BRIGHT', 'BRIGHTEY', 'BRIGHTMAN', 'BRIGHTON', 'BRIGHTWELL', 'BRIGHTY', 'BRILL', 'BRIMBLE', 'BRIMLEY', 'BRIMM', 'BRIMSON', 'BRIND', 'BRINDLE', 'BRINDLEY', 'BRINDLEY DAVIES', 'BRINE', 'BRINKLEY', 'BRINKWORTH', 'BRINSLEY', 'BRIODY', 'BRISBANE', 'BRISCHUK', 'BRISCOE', 'BRISTER', 'BRISTOW', 'BRITNELL', 'BRITTAIN', 'BRITTAIN-CARTLIDGE', 'BRITTAN', 'BRITTEN', 'BRITTLE', 'BRITTON', 'BROAD', 'BROADBENT', 'BROADBRIDGE', 'BROADHEAD', 'BROADHURST', 'BROADLEY', 'BROADWAY', 'BROATCH', 'BROBBIN', 'BROCK', 'BROCKBANK', 'BROCKES', 'BROCKLEBANK', 'BROCKLEHURST', 'BROCKLESBY', 'BROCKWAY', 'BROCKWELL', 'BRODERICK', 'BRODIE', 'BRODLEY', 'BROE', 'BROEKHUIZEN', 'BROGAN', 'BROGDEN', 'BROLLY', 'BROMLEY', 'BROMWICH', 'BROOK', 'BROOK-SMITH', 'BROOKBANKS', 'BROOKE', 'BROOKER', 'BROOKER-CAREY', 'BROOKES', 'BROOKFIELD', 'BROOKING', 'BROOKMAN', 'BROOKS', 'BROOKSBANK', 'BROOKSON', 'BROOME', 'BROOMFIELD', 'BROOMHALL', 'BROOMHEAD', 'BROSNAN', 'BROSTER', 'BROTHERIDGE', 'BROTHERTON', 'BROTHERWOOD', 'BROTHWOOD', 'BROUGH', 'BROUGHTON', 'BROWETT', 'BROWITT', 'BROWN', 'BROWNBRIDGE', 'BROWNE', 'BROWNELL', 'BROWNING', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNRIDGE', 'BROXHOLME', 'BRUCE', 'BRUEGGER', 'BRUGES', 'BRUMBILL', 'BRUMMELL', 'BRUMMITT', 'BRUMPTON', 'BRUNO', 'BRUNSDON', 'BRUNSKILL', 'BRUNT', 'BRUNTON', 'BRUNYEE', 'BRUSHWOOD', 'BRUTON', 'BRUZLEA', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYCE', 'BRYCELAND', 'BRYDEN', 'BRYDGES', 'BRYSON', 'BRZOZOWSKI', 'BUCHAN', 'BUCHANAN', 'BUCK', 'BUCKE', 'BUCKINGHAM', 'BUCKLAND', 'BUCKLE', 'BUCKLER', 'BUCKLEY', 'BUCKROYD', 'BUCKTHOUGHT', 'BUCKWORTH', 'BUDD', 'BUDDLE', 'BUDGE', 'BUDSKI', 'BUER', 'BUES', 'BUFFEY', 'BUFFIN', 'BUFTON', 'BUGDEN', 'BUGG', 'BUGLER', 'BUICK', 'BUISSON', 'BULAKOWSKI', 'BULL', 'BULLED', 'BULLEN', 'BULLER', 'BULLETT', 'BULLIMORE', 'BULLITAORE', 'BULLMAN', 'BULLOCK', 'BULLOUGH', 'BULMAN', 'BULMER', 'BULPITT', 'BULTITUDE', 'BUMPSTEAD', 'BUMSTEAD', 'BUNCE', 'BUNCH', 'BUNDUC', 'BUNDY', 'BUNGANIC', 'BUNGAY', 'BUNGEY', 'BUNKELL', 'BUNKER', 'BUNN', 'BUNNELL', 'BUNNER', 'BUNNEY', 'BUNNING', 'BUNTING', 'BUNTON', 'BUNYAN', 'BURBAGE', 'BURBIDGE', 'BURBRIDGE', 'BURCEA', 'BURCH', 'BURCHETT', 'BURD', 'BURDAKY', 'BURDEN', 'BURDETT', 'BURDFIELD', 'BURDGE', 'BURDITT', 'BURDON', 'BURFORD', 'BURGE', 'BURGESS', 'BURGIN', 'BURGON', 'BURGOYNE', 'BURKE', 'BURKETT', 'BURKINSHAW', 'BURKITT', 'BURKS', 'BURLEY', 'BURLING', 'BURLINGHAM', 'BURLINSON', 'BURLS', 'BURMAN', 'BURN', 'BURNARD', 'BURNDRED', 'BURNE', 'BURNELL', 'BURNETT', 'BURNHAM', 'BURNIE', 'BURNIKELL', 'BURNINGHAM', 'BURNLEY', 'BURNS', 'BURNS-PRICE', 'BURNS-SALMOND', 'BURNSIDE', 'BURPITT', 'BURR', 'BURRAGE', 'BURRELL', 'BURRELLS', 'BURREN', 'BURRIDGE', 'BURRILL', 'BURROUGH', 'BURROUGHES', 'BURROUGHS', 'BURROW', 'BURROWS', 'BURSON', 'BURT', 'BURTENSHAW', 'BURTON', 'BURTONSHAW-GUNN', 'BURTT', 'BURWELL', 'BURY', 'BUSBRIDGE', 'BUSBY', 'BUSH', 'BUSHELL', 'BUSHNELL', 'BUSMACHIU', 'BUSS', 'BUSSELL', 'BUSSEY', 'BUSUTTIL', 'BUSWELL', 'BUTCHART', 'BUTCHER', 'BUTE', 'BUTE-ROPER', 'BUTLER', 'BUTLIN', 'BUTT', 'BUTTAR', 'BUTTER', 'BUTTERFIELD', 'BUTTERILL', 'BUTTERS', 'BUTTERWORTH', 'BUTTERY', 'BUTTLE', 'BUTTON', 'BUTTRICK', 'BUTTRISS', 'BUXTON', 'BUZURA', 'BUZZARD', 'BYARD', 'BYATT', 'BYDE', 'BYE', 'BYFIELD', 'BYFORD', 'BYNE', 'BYNORTH', 'BYOTT', 'BYRD', 'BYRNE', 'BYRNES', 'BYROM', 'BYRON', 'BYTHEWAY', 'BYTNER', 'BYWATER', 'Black', 'CABEZA', 'CABLE', 'CADBY', 'CADDEN', 'CADDICK', 'CADE', 'CADEN', 'CADET', 'CADEY', 'CADGER', 'CADMAN', 'CADMORE', 'CADOGAN', 'CADWALLADER', 'CAEN', 'CAFFERKY', 'CAFFREY', 'CAFFYN', 'CAGE', 'CAGNETTA', 'CAHILL', 'CAIN', 'CAINE', 'CAINES', 'CAINS', 'CAIRD', 'CAIRNEY', 'CAIRNIE', 'CAIRNS', 'CAISLEY', 'CALADO', 'CALCOTT', 'CALCUTT', 'CALDER-MATTHEWS', 'CALDERBANK', 'CALDICOTT', 'CALDWELL', 'CALE', 'CALEY', 'CALINA', 'CALKELD', 'CALL', 'CALLAGHAN', 'CALLAN', 'CALLANAN', 'CALLANDER', 'CALLANS', 'CALLARD', 'CALLER', 'CALLINAN', 'CALLISTER', 'CALLOW', 'CALOW', 'CALROW', 'CALTON', 'CALUORI', 'CALVER', 'CALVERT', 'CALVIN', 'CAM', 'CAMBER', 'CAMDEN', 'CAMERON', 'CAMM', 'CAMMACK', 'CAMP', 'CAMPBELL', 'CAMPBELL-MIDDLETON', 'CAMPEY', 'CAMPFIELD', 'CAMPIN', 'CAMPINI', 'CAMPION', 'CAMPLING', 'CAMPS', 'CANAVAN', 'CANDY', 'CANFIELD', 'CANHAM', 'CANN', 'CANNAN', 'CANNING', 'CANNON', 'CANON', 'CANSDALE', 'CANSFIELD', 'CANT', 'CANTLAY', 'CANTON', 'CANTRELL', 'CANTRILL', 'CANTY', 'CANVIN', 'CAPALDI', 'CAPEL', 'CAPELL', 'CAPES', 'CAPEWELL', 'CAPEY', 'CAPLE', 'CAPLIN', 'CAPOFERRI', 'CAPON', 'CAPONE', 'CAPORN', 'CAPPER', 'CAPPER-MOORE', 'CAPPITT', 'CAPSER', 'CAPSTICK', 'CARBERRY', 'CARD', 'CARDER', 'CARDNO', 'CARDWELL', 'CARDY', 'CARE', 'CAREY', 'CARIS', 'CARKETT', 'CARLESS', 'CARLILE', 'CARLIN', 'CARLISLE', 'CARLOS', 'CARLSE', 'CARLSON', 'CARLTON', 'CARLYLE', 'CARLYON', 'CARMICHAEL', 'CARMINKE', 'CARMODY', 'CARMOODY', 'CARNABY', 'CARNAN', 'CARNEGIE', 'CARNELL', 'CARNEY', 'CARPENDALE', 'CARPENTER', 'CARR', 'CARRADICE', 'CARRICK', 'CARRIER', 'CARRIGAN', 'CARRINGTON', 'CARROL', 'CARROLL', 'CARROTT', 'CARRUBBA', 'CARRUTH', 'CARRUTHERS', 'CARSON', 'CARSWELL', 'CARTER', 'CARTHY', 'CARTLEDGE', 'CARTLIDGE', 'CARTMAIL', 'CARTMELL', 'CARTNER', 'CARTWRIGHT', 'CARUSO', 'CARVALHO', 'CARVELL', 'CARVER', 'CASBEARD', 'CASCAVAL', 'CASE', 'CASERIU', 'CASEY', 'CASH', 'CASHMAN', 'CASHMORE', 'CASS', 'CASSAM', 'CASSAR', 'CASSELL', 'CASSELS', 'CASSERLY', 'CASSIDY', 'CASSIE', 'CASSON', 'CASTERTON', 'CASTLE', 'CASTLEDINE', 'CASTLES', 'CASTLETON', 'CASTON', 'CASTRO-VIEIRA', 'CASWELL', 'CATCHPOLE', 'CATER', 'CATES', 'CATHERS', 'CATLIN', 'CATLING', 'CATLOW', 'CATO', 'CATON', 'CATT', 'CATTANACH', 'CATTERALL', 'CATTLE', 'CATTLEY', 'CATTON', 'CATTRALL', 'CATTROLL', 'CAULFIELD', 'CAULSTON', 'CAUNCE', 'CAUSER', 'CAUVIN', 'CAVANAGH', 'CAVE', 'CAVENDER', 'CAVILL', 'CAVINDER', 'CAWLEY', 'CAWOOD', 'CAWREY', 'CAWS', 'CAWSEY', 'CAWTHORNE', 'CECIL', 'CEGIELSKI', 'CERECEDA', 'CERINUS', 'CERRIE', 'CESSFORD', 'CHADBURN-TENNYSON', 'CHADDERTON', 'CHADHA', 'CHADWICK', 'CHAHAL', 'CHAISTY', 'CHALK', 'CHALKER', 'CHALKLEY', 'CHALLEN', 'CHALLENER', 'CHALLENGER', 'CHALLINOR', 'CHALLIONER', 'CHALLIS', 'CHALLONER', 'CHALMERS', 'CHALONER', 'CHAMBERLAIN', 'CHAMBERS', 'CHAMINGS', 'CHAMLEY', 'CHAMNEY', 'CHAMPION', 'CHAMPNESS', 'CHANCE', 'CHANDARANA', 'CHANDER', 'CHANDLER', 'CHANEY', 'CHANNING', 'CHANNON', 'CHANT', 'CHANTLER', 'CHANTRY', 'CHAPLIN', 'CHAPLOW', 'CHAPMAN', 'CHAPPELHOW', 'CHAPPELL', 'CHAPPELOW', 'CHAPPLE', 'CHARALAMBIDES', 'CHARD', 'CHARLES', 'CHARLESON', 'CHARLESWORTH', 'CHARLETON', 'CHARLEY', 'CHARLSON', 'CHARLTON', 'CHARLWOOD', 'CHARMAN', 'CHARNLEY', 'CHARRINGTON', 'CHARTER', 'CHARTERS', 'CHASE', 'CHASSAR', 'CHATBURN', 'CHATER', 'CHATFIELD', 'CHATTEN', 'CHATTIN', 'CHATWIN', 'CHAUDHRY', 'CHAUDRY', 'CHAUHAN', 'CHAWNER', 'CHEALE', 'CHEATER', 'CHEEK', 'CHEEMA', 'CHEESEMAN', 'CHEESEWRIGHT', 'CHEESMOND', 'CHEETHAM', 'CHELL', 'CHENEY', 'CHENNELLS', 'CHENOWETH', 'CHERITON', 'CHEROOMI', 'CHERRIMAN', 'CHERRY', 'CHERRYMAN', 'CHESHIRE', 'CHESSER', 'CHESSUM', 'CHESTER', 'CHESTERMAN', 'CHESTNUT', 'CHETWYND', 'CHEVILL', 'CHEW', 'CHEWINS', 'CHEYNE', 'CHHATWAL', 'CHIBADUKI', 'CHICK', 'CHIDLEY', 'CHILD', 'CHILDERHOUSE', 'CHILDS', 'CHILLERY', 'CHILTON', 'CHILUT', 'CHILVER', 'CHILVERS', 'CHINERY', 'CHING', 'CHINNERY', 'CHIPMAN', 'CHIPPENDALE', 'CHIPPER', 'CHIRAN', 'CHIRREY', 'CHIRTAS', 'CHISHOLM', 'CHISNALL', 'CHISWELL', 'CHITTENDEN', 'CHITTY', 'CHIVERS', 'CHIVERTON', 'CHIVRALL', 'CHMIEWLISKI', 'CHOJNACKI', 'CHOKAR', 'CHOLMONDELEY', 'CHONG', 'CHORLTON', 'CHOUDRY', 'CHOULARTON', 'CHOULES', 'CHOUNDRY', 'CHOWDHURY', 'CHOWDREY', 'CHOWN', 'CHRISTENSEN', 'CHRISTIAN', 'CHRISTIE', 'CHRISTMAN', 'CHRISTOFFERSEN', 'CHRISTOPHER', 'CHRISTOPHERS', 'CHRISTOPHERSON', 'CHRITCHLEY', 'CHRUSZCZ', 'CHRYSTAL', 'CHUBB', 'CHUBBOCK', 'CHUDLEY', 'CHUKWUMA', 'CHURCH', 'CHURCHER', 'CHURCHES', 'CHURCHILL', 'CHURCHMAN', 'CHURCHYARD', 'CHURN', 'CHURNSIDE', 'CHURTON', 'CHUTTER', 'CIENTANNI', 'CIERPKA', 'CIESLIK', 'CINNAMOND', 'CIOCIRLAN', 'CIRIELLO', 'CIRKIN', 'CIURA', 'CIUREA', 'CLACK', 'CLAFFEY', 'CLAFTON', 'CLAGUE', 'CLAMP', 'CLANACHAN', 'CLANCY', 'CLAPHAM', 'CLAPP', 'CLAPSON', 'CLAPTON', 'CLARE', 'CLARGES', 'CLARIDGE', 'CLARK', 'CLARKE', 'CLARKSON', 'CLARKSON-BURGESS', 'CLARKSON-HALL', 'CLASBY', 'CLAUS', 'CLAXON', 'CLAXTON', 'CLAY', 'CLAYBURN', 'CLAYDON', 'CLAYSON', 'CLAYTON', 'CLAYTON-BLYTHE', 'CLEARY', 'CLEAVE', 'CLEAVER', 'CLEEVES', 'CLEGG', 'CLELAND', 'CLELLAND', 'CLEMENT', 'CLEMENTE', 'CLEMENTS', 'CLEMIT', 'CLEMONS', 'CLENSEY', 'CLENSHAW', 'CLENT', 'CLERKIN', 'CLEVE', 'CLEVERDON', 'CLEVERLY', 'CLEWER', 'CLEWLEY', 'CLEWLOW', 'CLEWS', 'CLEZY', 'CLIFF', 'CLIFFE', 'CLIFFORD', 'CLIFT', 'CLIFTON', 'CLINCH', 'CLINTON', 'CLIXBY', 'CLOAD', 'CLODE', 'CLOGGIE', 'CLOSE', 'CLOTHIER', 'CLOUGH', 'CLOUGHTON', 'CLOUTING', 'CLOW', 'CLOWE', 'CLOWER', 'CLOWES', 'CLOWSLEY', 'CLOY', 'CLUBB', 'CLUBLEY', 'CLUCKIE', 'CLUGSTON', 'COADY', 'COAKER', 'COALE', 'COALES', 'COATEN', 'COATES', 'COATHUP', 'COATMAN', 'COATS', 'COATSWORTH', 'COBB', 'COBBALD', 'COBBETT', 'COBBLEDICK', 'COBBOLD', 'COBDEN', 'COBHAM', 'COBLEY', 'COBURN', 'COCCO', 'COCHRAN', 'COCHRANE', 'COCKAYNE', 'COCKBURN', 'COCKCROFT', 'COCKELL', 'COCKER', 'COCKERHAM', 'COCKERILL', 'COCKETT', 'COCKING', 'COCKLE', 'COCKLIN', 'COCKS', 'COCOS', 'CODD', 'CODDINGTON', 'CODLING', 'CODONA', 'CODRINGTON', 'COE', 'COFF', 'COFFEY', 'COFFIN', 'COGGINS', 'COGHLAN', 'COHEN', 'COID', 'COJOCARIU', 'COJOCARU', 'COKE', 'COKER', 'COLBEAR', 'COLBERT', 'COLBORN', 'COLBURN', 'COLCLOUGH', 'COLDERLEY', 'COLDHAM', 'COLDICOTT', 'COLDMAN', 'COLDWELL', 'COLE', 'COLEBY', 'COLEMAN', 'COLES', 'COLEY', 'COLFER', 'COLGAN', 'COLGATE', 'COLGRAVE', 'COLHOUN', 'COLLAR', 'COLLARD', 'COLLEAVY', 'COLLEDGE', 'COLLEN', 'COLLER', 'COLLETT', 'COLLEY', 'COLLIE', 'COLLIER', 'COLLIN', 'COLLINGBOURNE', 'COLLINGE', 'COLLINGHAM', 'COLLINGS', 'COLLINGTON', 'COLLINGWOOD', 'COLLINS', 'COLLINS-MISKIN', 'COLLINSON', 'COLLIS', 'COLLISON', 'COLLIVER', 'COLLUM', 'COLLYER', 'COLMAN', 'COLMER', 'COLONNA', 'COLQHOUN', 'COLSON', 'COLTON', 'COLVILLE', 'COLVINE', 'COLWELL', 'COLWILL', 'COMAN', 'COMBE', 'COMBELLACK', 'COMBEN', 'COMBER', 'COMBSTOCK', 'COMER', 'COMERFORD', 'COMERY', 'COMFORT', 'COMISKEY', 'COMLEY', 'COMMINS', 'COMMON', 'COMPSON', 'COMPTON', 'COMRIE', 'CONABEARE', 'CONABOY', 'CONAGHAN', 'CONBOY', 'CONCHIE', 'CONDIE', 'CONDLIFFE', 'CONDON', 'CONDRON', 'CONEY', 'CONEYBEER', 'CONGDON', 'CONING', 'CONINGTON', 'CONIUM', 'CONLAN', 'CONLEY', 'CONLON', 'CONMAN', 'CONN', 'CONNAUGHTON', 'CONNEELY', 'CONNELL', 'CONNELLAN', 'CONNELLY', 'CONNER', 'CONNERY', 'CONNICK', 'CONNOLLY', 'CONNON', 'CONNOR', 'CONNORS', 'CONOD', 'CONQUEST', 'CONROY', 'CONSIDINE', 'CONSTABLE', 'CONSTANTINE', 'CONTI', 'CONWAY', 'COOCH', 'COOK', 'COOK-LEYDEN', 'COOKE', 'COOKLAND', 'COOKSEY', 'COOKSLEY', 'COOKSON', 'COOLE', 'COOLING', 'COOMBE', 'COOMBER', 'COOMBES', 'COOMBS', 'COONAN', 'COONEY', 'COOP', 'COOPER', 'COOPER-KEEBLE', 'COOPER-KEY', 'COOPLAND', 'COOT', 'COOTE', 'COPAS', 'COPE', 'COPELAND', 'COPESTAKE', 'COPLAND', 'COPLESTONE', 'COPLEY', 'COPP', 'COPPARD', 'COPPIN', 'COPPING', 'COPPLE', 'COPPOLA', 'COPSEY', 'COPSON', 'CORBETT', 'CORBIN', 'CORBISHLEY', 'CORBRIDGE', 'CORCORAN', 'CORDALL', 'CORDELL', 'CORDEN', 'CORDERY', 'CORDINER', 'CORDON', 'CORDWELL', 'CORFIELD', 'CORK', 'CORKERY', 'CORLESS', 'CORMACK', 'CORMICAN', 'CORMICK', 'CORNABY', 'CORNALL', 'CORNEILL', 'CORNELIUS', 'CORNELL', 'CORNER', 'CORNES', 'CORNEY', 'CORNFIELD', 'CORNFOOT', 'CORNFORTH', 'CORNICK', 'CORNISH', 'CORNS', 'CORNWALL', 'CORNWELL', 'CORP', 'CORPER', 'CORPS', 'CORR', 'CORRIDAN', 'CORRIGAN', 'CORRIN', 'CORRY', 'CORSON', 'CORTES', 'CORTI', 'COSGROVE', 'COSSEY', 'COSSLETT', 'COSSTICK', 'COSTACHE', 'COSTEA', 'COSTELLO', 'COSTELLOE', 'COSTEN', 'COSTER', 'COTES', 'COTT', 'COTTAM', 'COTTER', 'COTTERELL', 'COTTERILL', 'COTTINGHAM', 'COTTINGTON', 'COTTIS', 'COTTLE', 'COTTOM', 'COTTON', 'COTTRELL', 'COTTRILL', 'COTTYN', 'COUBROUGH', 'COUCEIRO', 'COUCH', 'COUCHMAN', 'COUDJOE', 'COUGHLAN', 'COUGHTRIE', 'COULL', 'COULLIE', 'COULMAN', 'COULSON', 'COULSTON', 'COULTER', 'COULTHARD', 'COULTHURST', 'COULTON', 'COUNCIL', 'COUNSELL', 'COUPE', 'COUPER', 'COUPLAND', 'COURAGE', 'COURT', 'COURTNEY', 'COURTNEY-SMITH', 'COURTS', 'COUSENS', 'COUSINS', 'COUTTS', 'COUZENS', 'COVACI', 'COVE', 'COVENEY', 'COVENTON', 'COVENTRY', 'COVER', 'COVERDALE', 'COWAN', 'COWARD', 'COWBURN', 'COWDELL', 'COWDREY', 'COWE', 'COWELL', 'COWEN', 'COWENS', 'COWERN', 'COWGILL', 'COWIE', 'COWLARD', 'COWLE', 'COWLES', 'COWLEY', 'COWLING', 'COWPER', 'COWPERTHWAITE', 'COWSER', 'COWTON', 'COX', 'COXALL', 'COXHEAD', 'COXON', 'COY', 'COYLE', 'COYLES', 'COYNE', 'COZENS', 'COZMA', 'CRABBE', 'CRABTREE', 'CRACK', 'CRACKNELL', 'CRADDOCK', 'CRADOCK', 'CRAFFEY', 'CRAFT', 'CRAGG', 'CRAGGS', 'CRAGIE', 'CRAHART', 'CRAIG', 'CRAIGGS', 'CRAIGHAN', 'CRAIGS', 'CRAIK', 'CRAMB', 'CRAMER', 'CRAMPHORN', 'CRAMPTON', 'CRANE', 'CRANFIELD', 'CRANHAM', 'CRANK', 'CRANNY', 'CRANSTONE', 'CRANWELL', 'CRASKE', 'CRATE', 'CRATHORN', 'CRAVEN', 'CRAWFORD', 'CRAWFORTH', 'CRAWLEY', 'CRAWSHAW', 'CRAYFORD', 'CRAZE', 'CREAMER', 'CREASER', 'CREASEY', 'CREAVEN', 'CREE', 'CREED', 'CREEDON', 'CREEGAN', 'CREGAN', 'CREIGHTON', 'CRELLIN', 'CREMONA', 'CRESSWELL', 'CRESWELL', 'CREW', 'CREW-GEE', 'CREWS', 'CRIBBS', 'CRICHTON', 'CRICK', 'CRIPPS', 'CRISP', 'CRISPIN', 'CRITCHELL', 'CRITCHLEY', 'CRITCHLOW', 'CRITTENDEN', 'CROAD', 'CROCKER', 'CROCKETT', 'CROCKFORD', 'CROCOMBE', 'CROFT', 'CROFTS', 'CROKER', 'CROMACK', 'CROMBIE', 'CROMIE', 'CROMPTON', 'CROMWELL', 'CRONEY', 'CRONK', 'CRONLEY', 'CROOK', 'CROOKE', 'CROOKES', 'CROOKS', 'CROOM', 'CROOMBS', 'CROOME', 'CROPLEY', 'CROPPER', 'CROSBIE', 'CROSBIE-BARCROFT', 'CROSBY', 'CROSFIELD', 'CROSS', 'CROSSLAND', 'CROSSLEY', 'CROSSMAN', 'CROSSWAITE', 'CROTTY', 'CROUCH', 'CROUCHMAN', 'CROW', 'CROWCROFT', 'CROWDY', 'CROWE', 'CROWFOOT', 'CROWHURST', 'CROWLEY', 'CROWN', 'CROWSLEY', 'CROWSON', 'CROWTHER', 'CROWTON', 'CROXFORD', 'CROZIER', 'CRUDDAS', 'CRUDGE', 'CRUICKSHANK', 'CRUICKSHANKS', 'CRUMP', 'CRUMPLIN', 'CRUMPTON', 'CRUST', 'CRUTCHINGTON', 'CRUTCHLEY', 'CRUTE', 'CRUTTENDEN', 'CRYER', 'CSATO', 'CUBBIN', 'CUBBON', 'CUBBY', 'CUBITT', 'CUCU', 'CUDDIFORD', 'CUDDY', 'CUFF', 'CULL', 'CULLEN', 'CULLEY', 'CULLIMORE', 'CULLINAN', 'CULLINANE', 'CULLING', 'CULLINGFORD', 'CULLIP', 'CULLUM', 'CULLWICK', 'CULLY', 'CULORA', 'CULSHAW', 'CULVER', 'CULWICK', 'CUMBERBATCH', 'CUMBERLAND', 'CUMES', 'CUMISKY', 'CUMMING', 'CUMMINGS', 'CUMMINS', 'CUNCLIFFE', 'CUNDELL', 'CUNDICK', 'CUNDIFF', 'CUNDILL', 'CUNDY', 'CUNLIFFE', 'CUNNEEN', 'CUNNINGHAM', 'CUNNINGTON', 'CUNVIN', 'CUPIT', 'CURATOLO', 'CURDS', 'CURLE', 'CURLEY', 'CURNOCK', 'CURRAN', 'CURREN', 'CURRIE', 'CURRY', 'CURSON', 'CURTHOYS', 'CURTIN', 'CURTIS', 'CURTIS-THOMAS', 'CURTOYS', 'CURWEN', 'CUSACK', 'CUSHING', 'CUSHION', 'CUSHNAHAN', 'CUSICK', 'CUSSONS', 'CUTHBERT', 'CUTHBERTSON', 'CUTHELL', 'CUTLER', 'CUTMORE', 'CUTSFORTH', 'CUTTER', 'CUTTING', 'CUTTLE', 'CUTTS', 'CUZNER', 'CWALINA', 'CWIRTA', 'CZECH', 'CZERWIAK', "D'ALQUEN", "D'ARCY", "D'EATH", "D'SOUZA", 'DA COSTA', 'DABBS', 'DABELL', 'DABHAD', 'DACEY', 'DACK', 'DACRE', 'DADDY', 'DADOMO', 'DADSWELL', 'DADWAL', 'DAFF', 'DAGG', 'DAGGER', 'DAGLEY', 'DAHN', 'DAILEY', 'DAILLY', 'DAILY', 'DAINS', 'DAINTITH', 'DAISH', 'DAKIN', 'DALAL', 'DALBY', 'DALDRY', 'DALE', 'DALEY', 'DALGARNO', 'DALGETTY', 'DALGLEISH', 'DALKIN', 'DALL', 'DALLAS', 'DALLAWAY', 'DALLIMORE', 'DALLING', 'DALLY', 'DALRYMPLE', 'DALTON', 'DALY', 'DALZELL', 'DALZIEL', 'DAMACUS', 'DAMPNEY', 'DAMRELL', 'DANAHER', 'DANBY', 'DANCE', 'DANCER', 'DANCEY', 'DANCI', 'DAND', 'DANDIE', 'DANDRIDGE', 'DANDY', 'DANE', 'DANGOLITIS', 'DANIEL', 'DANIELLS', 'DANIELS', 'DANIKAUSKAS', 'DANN', 'DANNATT', 'DANSKIN', 'DANSON', 'DARBY', 'DARBYSHIRE', 'DARCH', 'DARCY', 'DARE', 'DARGE', 'DARGIE', 'DARK', 'DARKE', 'DARKEN', 'DARLEY', 'DARLING', 'DARLINGTON', 'DARLISON', 'DARLOW', 'DARMODY', 'DARNBROOK', 'DARNBROUGH', 'DARNELL', 'DARRAUGH', 'DART', 'DARTS', 'DARVALL', 'DARVILL', 'DARWENT', 'DARWIN', 'DASHWOOD', 'DASS', 'DATCU', 'DAUBNEY', 'DAUNCEY', 'DAUNTER', 'DAVENHILL', 'DAVENPORT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIE', 'DAVIES', 'DAVIS', 'DAVISON', 'DAVOLLS', 'DAVY', 'DAW', 'DAWBER', 'DAWE', 'DAWES', 'DAWIT', 'DAWKES', 'DAWKIN', 'DAWKINS', 'DAWN', 'DAWNEY', 'DAWS', 'DAWSON', 'DAY', 'DAYKIN', 'DAYMAN', 'DAYMOND', 'DAYNES', 'DAYSON', 'DAYUS', 'DE ANGELIS', 'DE BIEVRE', 'DE BURGH HEMMING', 'DE COURCEY', 'DE HOEST', 'DE JERSEY', 'DE LANG', 'DE MULDER', 'DE RYK-HEEREN', 'DE STAINS', "DE'ATH", 'DE-BRANCO', 'DE-LAUNE', 'DE-MACHEN', 'DE-VALL', 'DEACON', 'DEACONU', 'DEADMAN', 'DEAKIN', 'DEAKINS', 'DEAL', 'DEALEY', 'DEAMER', 'DEAN', 'DEANE', 'DEANS', 'DEAR', 'DEARDEN', 'DEARING', 'DEARLOVE', 'DEARNS', 'DEATON', 'DEAUVILLE', 'DEAVILLE', 'DEBBAGE', 'DEBCZAK-DEBSKI', 'DEBENHAM', 'DEBOWSKA', 'DECIECO', 'DEDMAN', 'DEE', 'DEEBLE', 'DEEGAN', 'DEEHAN', 'DEELEY', 'DEEN', 'DEENEY', 'DEEPROSE', 'DEEX', 'DEHAAN', 'DEHAVILLANDE', 'DEIGHAN', 'DEIGHTON', 'DEIGNAN', 'DEIMERT', 'DEIR', 'DELAHAY', 'DELAINE-SMITH', 'DELANEY', 'DELANY', 'DELL', 'DELLA GANA', 'DELLENTY', 'DELLER', 'DELLICOLLI', 'DELOOZE', 'DEMBREY', 'DEMELLWEEK', 'DEMIDOV', 'DEMPSEY', 'DEMPSIE', 'DEMPSTER', 'DENARO', 'DENBOW', 'DENBURY', 'DENBY', 'DENCH', 'DENFORD', 'DENHAM', 'DENHOLM', 'DENISON', 'DENMAN', 'DENMEAD', 'DENNAN', 'DENNEHY', 'DENNENY', 'DENNES', 'DENNETT', 'DENNING', 'DENNINGTON', 'DENNIS', 'DENNISON', 'DENNISS', 'DENNISTON', 'DENNY', 'DENSCOMBE', 'DENSLOW', 'DENSON', 'DENT', 'DENTON', 'DENWOOD', 'DEOL', 'DERBYSHIRE', 'DERHAM', 'DEROSA', 'DERRICK', 'DERRY', 'DESBOROUGH', 'DESMOND', 'DESMONDE', 'DESSURNE', 'DEVANEY', 'DEVANNEY', 'DEVECSAI', 'DEVENEY', 'DEVENISH', 'DEVER', 'DEVEREUX', 'DEVERILL', 'DEVIN', 'DEVINE', 'DEVLIN', 'DEVONPORT', 'DEW', 'DEWAN', 'DEWAR', 'DEWBERRY', 'DEWEY', 'DEWHIRST', 'DEWHURST', 'DEWICK', 'DEWINTER', 'DEWIS'</t>
         </is>

--- a/examples/UK OGD/national registry public data/profile.xlsx
+++ b/examples/UK OGD/national registry public data/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -531,12 +541,18 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>23150</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>3922728</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>47540</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['(UK) PRODUCTION LTD', '007 LOGISTICS LTD', '021 NETWORK LTD', '1 CALL LOGISTICS LIMITED', '1 UP ACCESS LTD', '100+LOGISTICS LTD', '100TIMESBETTER.CO.UK LTD', '11ABA LTD', '1313 BATH LIMITED', '1401 ENTERPRISES LTD', '151 PRODUCTS LTD', '1919 LLP', '1ST 4 COACHES LIMITED', '1ST 4 LIMOS LTD', '1ST ADVANCE TANKS PIPEWORKS LTD', '1ST AID COMMERCIALS LTD', '1ST ANGLIAN LTD', '1ST AVAILABLE FREIGHT LIMITED', '1ST CALL TIPPERS LTD', '1ST CHOICE COACHES LIMITED', '1ST CHOICE TRANSPORT LTD', '1ST CLASS ENTERPRISES LTD', '1ST CLASS LIMOS LTD', '1ST CLASS LOGISTICS UK LTD', '1ST CLASS TRANSPORT (UK) LTD', '1ST CLASS TRANSPORT LTD', '1ST DILIVERY LTD', '1ST DIRECT CARS LIMITED', '1ST ELITE TRADING LTD', '1ST EVER READY (REMOVALS &amp; STORAGE) SERVICES LTD', '1ST INDUSTRIAL &amp; COMMERCIAL SERVICES LTD', '1ST INRAIL LIMITED', '1ST MOVE INTERNATIONAL LTD', '1ST RESPONSE RECOVERY LTD', '2 AGRICULTURE LIMITED', '2 U LOGISTICS LTD', '2 WAY TRANSPORT LTD', '21ST CENTURY LOGISTICS LTD', '21ST CENTURY TRANSPORT LTD', '23LSI LTD', '24 SEVEN SAMEDAY LTD', '24 TEMP LTD', '24 X 7 LTD', '24-7 H G V RECRUITMENT SERVICES LTD', '24/7 EXPRESS LTD', '24/7 REMOVALS OF LANCASTER LIMITED', '247 LOGISTICS LTD', '247 TOTAL TRANSPORT LTD', '247 TRANSPORT SOLUTIONS LTD', '247 TRANSPORTER LTD', '2MV LOGISTICS LTD', '2SL SCOTLAND LIMITED', "3 C'S LOGISTICS LIMITED", '3 DEES TRANSPORT SERVICES LIMITED', '3 DISTRIBUTION LTD', '3 FEATHERS HAULAGE LIMITED', '3 IN ONE SERVICES LTD', '3 KIMS TRANSPORT LTD', '3 VALLEE TRANSFERS LTD', '303 SOUTH LTD', '31 TRANSPORT LIMITED', '360 INTERNATIONAL LTD', '360 LOGISTICS LIMITED', '365 ENVIROMENTAL SERVICES LTD', '365 LOGISTICS LTD', '3663 ALBA LIMITED', '3663 TRANSPORT LTD', '3B CONSTRUCTION LTD', '3C TRANSPORT LTD', '3D CONTRACT SERVICES LTD', '3D INTERNATIONAL HAULAGE LTD', '3D TRANS LIMITED', '3D TRANSPORT LTD', '3G TRANSPORT LIMITED', '3GL TRANSPORT (SCOTLAND) LTD', '3M UNITED KINGDOM PLC', '3R SOLUTIONS LTD', '3RD PARTY LOGISTICS LTD', '3SHIRES BUILDING LIMITED', '4 CORNERS LOGISTICS LTD', '4 LEAF ENTERPRISES LTD', '4 RECYCLING LTD', '4 SEASONS BEER TENT CO LTD', '4 X LTD', '4321 SERVICES LIMITED', '44 TONNE ARTIC HAULAGE LTD', '442 LOGISTICS LTD', '5 STARS TRANSPORT LTD', '505 FREIGHT LTD', '5TH AVENUE LIMOUSINES LIMITED', '69ers LTD', '7 VALLEY TRANSPORT (LLC) LTD', '747 EXPRESS FREIGHT LTD', '808 X RAY LOGISTICS LIMITED', '88 DISTRIBUTION (UK) LIMITED', '8POINT8 SUPPORT LIMITED', '911 RESCUE RECOVERY LTD', '999 LOGISTICS LTD', 'A &amp; A MCPHEE HAULAGE LIMITED', 'A &amp; A RECYCLING SERVICES LTD', 'A &amp; A SKIP HIRE LIMITED', 'A &amp; A TRANSPORT (CANNOCK) LTD', 'A &amp; A TRAVEL (SUSSEX) LTD', 'A &amp; B COACH TRAVEL 2010 LTD', 'A &amp; B COACH TRAVEL LTD', 'A &amp; B COMMERCIALS (NORTH WALES) LIMITED', 'A &amp; B CONTRACTORS (DEVON) LTD', 'A &amp; B CONTRACTORS (TRANSPORT) LTD', 'A &amp; B HAULAGE LIMITED', 'A &amp; B POTATOES LTD', 'A &amp; B TAXI SERVICES LIMITED', 'A &amp; B TIMBER ENGINEERING LTD', 'A &amp; B TRANSPORT (IPSWICH) LTD', 'A &amp; C AGGREGATES LTD', 'A &amp; C COACHES LTD', 'A &amp; C LOGISTICS LIMITED', 'A &amp; C TRANSPORT LTD', 'A &amp; D DRIVING SERVICES LIMITED', 'A &amp; D HAULAGE (TELFORD) LTD', 'A &amp; D LOGISTICS LTD', 'A &amp; D TRANSPORT (NW) LTD', 'A &amp; E TRANSPORT LTD', 'A &amp; F GRANT LTD', 'A &amp; F HAULAGE LTD', 'A &amp; F JAMES GRAB HIRE &amp; GROUNDWORKS LTD', 'A &amp; F MONKHOUSE LTD', 'A &amp; F WILLIAMSON &amp; SONS LTD', 'A &amp; G GRIFFITHS LTD', 'A &amp; G MINIBUSES LTD', 'A &amp; G SKIP HIRE LTD', 'A &amp; H (CARLISLE) LTD', 'A &amp; H LIFESTYLE LTD', 'A &amp; J ARB ACCESS LIMITED', 'A &amp; J COACHES OF WASHINGTON CO LTD', 'A &amp; J COMMERCIAL SERVICES LTD', 'A &amp; J CRITCHLOW', 'A &amp; J DRIVING SERVICES LIMITED', 'A &amp; J NELSON (HAULAGE CONTRACTORS) LTD', 'A &amp; J ROBERTS TRANSPORT LIMITED', 'A &amp; J RYDING LTD', 'A &amp; J SCOTT LTD', 'A &amp; J TAYLOR LTD', 'A &amp; J WALMSLEY LTD', 'A &amp; K BUCKLAND TRANSPORT LIMITED', 'A &amp; K EXPRESS TRANSPORT LTD', 'A &amp; K HAULAGE (PLYMOUTH) LIMITED', 'A &amp; K THOMPSON HAULAGE LTD', 'A &amp; K TRANSPORT LTD', 'A &amp; K TRANSPORT UK LTD', 'A &amp; L CONTRACTORS LTD', 'A &amp; L HAULAGE (SOMERSET) LTD', 'A &amp; L MCCRAE LTD', 'A &amp; L TAYLOR LTD', 'A &amp; M A ROBINSON SEAVIEW SERVICES LTD', 'A &amp; M LLOYD PLANT HIRE LTD', 'A &amp; M LOGISTICS (NORTH WEST) LTD', 'A &amp; M MACRETE (SALES) LTD', 'A &amp; M MOTORS LTD', 'A &amp; M SMITH SKIP HIRE LTD', 'A &amp; M T MCWALTER LTD', 'A &amp; M TRANSPORT &amp; RECYCLING LTD', 'A &amp; M TRANSPORT HEREFORD LIMITED', 'A &amp; N ENVIRONMENTAL SERVICES LTD', 'A &amp; P SEDMAN LTD', 'A &amp; P TRAVEL (TOURS) LTD', 'A &amp; P TRAVEL LTD', 'A &amp; R COLBERT SERVICES UK LIMITED', 'A &amp; R CONTRACT HIRE LTD', 'A &amp; R FINNIE LTD', 'A &amp; R HAULAGE LTD', 'A &amp; R PAVELIN TRANSPORT LTD', 'A &amp; R RECYCLING LTD', 'A &amp; R SOLUTIONS LIMITED', 'A &amp; S AGGREGATES LTD', 'A &amp; S COACHES LTD', 'A &amp; S DEVELOPMENTS (REDDITCH) LTD', 'A &amp; S HAULAGE LIMITED', 'A &amp; S HAULAGE LTD', 'A &amp; S PLANT &amp; TOOL HIRE LTD', 'A &amp; S PLANT SERVICES LTD', 'A &amp; S SPECIALIST SERVICES LTD', 'A &amp; S TRANSPORT (CHESTER) LTD', 'A &amp; S TRANSPORT (NW) LTD', 'A &amp; S TRANSPORT ECOSSE LTD', 'A &amp; S TURNER (HAULAGE) LTD', 'A &amp; T RADCLIFFE LIMITED', 'A &amp; T TRAVEL LTD', 'A &amp; V SQUIRES PLANT CO LTD', 'A &amp; W COMMERCIALS LTD', 'A &amp; W HELLIWELL &amp; SONS LTD', 'A &amp; W WILSON LTD', 'A &amp; Y STONE PLANT LTD', 'A 2 B MINIBUSES &amp; COACH TRAVEL LTD', 'A A &amp; S J FAULKNER LTD', 'A A A DELVERY SERVICES LTD', 'A A A TRANSPORT SERVICES LTD', 'A A BUSES LTD', 'A A DAVIES AND CO LIMITED', 'A A G HAULAGE LIMITED', 'A A H PHARMACEUTICALS LTD', 'A A I LTD', 'A A JEWITT &amp; SONS LTD', 'A A K HAULAGE LTD', 'A A LOCK TRANSPORT (HEADCORN) LTD', 'A A MIXERS LTD', 'A A TRAVEL (CUMBRIA) LIMITED', 'A A YOUNG LTD', 'A AND J SMITH TRANSPORT LTD', 'A ASHURST TRANSPORT LTD', 'A AUJLA TRANSPORT LTD', 'A B &amp; B CONSTRUCTION LTD', 'A B 2000 LTD', 'A B C &gt;CONCRETE DIRECT LIMITED', 'A B C COACH LIMITED', 'A B C TAXIS (INVERCLYDE) LTD', 'A B C TRAVEL (CASTLE DOUGLAS) LTD', 'A B CARAVANS LIMITED', 'A B CARRIERS (KEMPSTON) LTD', 'A B CASTLE LIMITED', 'A B COACHES LTD', 'A B E (LEDBURY) LTD', 'A B F GRAIN PRODUCTS LTD', 'A B F LIMITED', 'A B GERRISH LTD', 'A B HIRE LTD', 'A B J &amp; M A BATSON', 'A B J ECOSSE LTD', 'A B LITTLE &amp; CO (STUBSHAW CROSS) LTD', 'A B PAYNE &amp; J T FENSOME', 'A B PRODUCE PLC', 'A B S SKIP HIRE LTD', 'A B TEXEL UK LTD', 'A B WASTE DISPOSAL LTD', 'A B WASTE MANAGEMENT LIMITED', 'A BARWELL &amp; SONS (UK) LTD', 'A BENNETT (HAULAGE)  LTD', 'A BETTER SERVICE LTD', 'A BOOTH AND SONS LTD', 'A BRADBURY &amp; SONS LIMITED', 'A BROOKS SERVICES LTD', 'A BROSTER LTD', 'A BRUNTON LIMITED', 'A BUCKLAND &amp; SONS LTD', 'A BUCKLER HAULAGE LTD', 'A C ALDIS &amp; CO LTD', 'A C BACON ENGINEERING LTD', 'A C BARNES LIGHT HAULAGE LIMITED', 'A C BLACK &amp; SON (HAULIERS) LTD', 'A C COATES &amp; SONS LTD', 'A C CODONA LTD', 'A C COMMERCIAL HAULAGE LTD', 'A C D SKIPS LTD', 'A C DENNY HAULAGE LTD', 'A C DICKINSON INTERNATIONAL TRANSPORT LTD', 'A C E BUILDERS MERCHANTS LTD', 'A C EMMERSON LTD', 'A C GEORGIADES LTD', 'A C H SPECIAL VEHICLES LTD', 'A C JACKLIN LOGISTICS LTD', 'A C JACKLIN POTATOES LTD', 'A C K (HAULAGE) LTD', 'A C K TRANSPORT LTD', 'A C LAWRY HAULAGE LTD', 'A C LESTER &amp; SON LTD', 'A C MORSE LTD', 'A C NURDEN LTD', 'A C P FUELS LTD', 'A C P SERVICES LTD', 'A C REID TRUCKMIXERS LTD', 'A C S HAULAGE CONTRACTORS LIMITED', 'A C SERVICES (BANBURY) LTD', 'A C SHROPSHIRE LTD', 'A C SKIP HIRE LTD', 'A C T CONSTRUCTION SERVICES LTD', 'A C TRANSPORT LTD', 'A C TRAVEL LIMITED', 'A C WELLARD &amp; PARTNERS LTD', 'A C WILLIAMS GARAGES (ANCASTER) LTD', 'A CHRISTIE &amp; L CHRISTIE', 'A CLARKE &amp; CO (SMETHWICK) LTD', 'A CLARKE &amp; SONS LTD', 'A COUPLAND ( SURFACING ) LTD', 'A COWLEY &amp; SONS LIMITED', 'A D &amp; A RICHARDSON LTD', 'A D &amp; B J BOOTE TRANSPORT LIMITED', 'A D &amp; K M CASTON LTD', 'A D BLACKBURN (SWINDON) LTD', 'A D BOYES (IREBY) LTD', 'A D BOYES LOGISTICS (UK) LTD', 'A D BROWN LTD', 'A D CONSTRUCTION (CHESTERFIELD) LTD', 'A D D EXPRESS LTD', 'A D HOWELLS LIMITED', 'A D HURST &amp; SON COMMERCIAL LTD', 'A D JACKSON (TRANSPORT) LTD', 'A D LOGISTIC LIMITED', 'A D M LOGISTICS LTD', 'A D MCDONALD HAULAGE LTD', 'A D REED &amp; G G REED', 'A D S TRANSPORT [GB] LIMITED', 'A D WALKER LTD', 'A D WILLIAMS &amp; SONS LTD', 'A D WILLIAMS TRANSPORT LTD', 'A DAVIES REMOVALS LTD', 'A DAVIES TRANSPORT LTD', 'A DAVIS TRANSPORT LTD', 'A DAY RECYCLING GROUP LTD', 'A DISPLAY LTD', 'A DUFFIN HAULAGE LTD', 'A E &amp; A T LEWIS LTD', 'A E BENNETT LTD', 'A E BURGESS &amp; SONS LTD', 'A E FAULKS LTD', 'A E GEORGE &amp; SONS LTD', 'A E GEORGE HAULAGE LTD', 'A E HANCOCK LTD', 'A E HAWKINS (HOLDINGS) LTD', 'A E HERBERT LTD', 'A E PROCTER LTD', 'A E ROWLANDS PLANT HIRE LTD', 'A E S LOGISTICS LTD', 'A E S RESCUE SERVICES LTD', 'A E SIMMS LTD', 'A E T TRANSPORT SERVICES LTD', 'A E TRANSPORT LTD', 'A E WILLOWS &amp; SON LTD', 'A E WILSON (COMMERCIALS) LTD', 'A E YATES LTD', 'A EVANS &amp; SON (EGG PACKING) LTD', 'A EVERETT HAULAGE LTD', 'A F BLAKEMORE &amp; SON LTD', 'A F COMMERCIALS LTD', 'A F CORBISHLEY AND SON (TRANSPORT) LTD', 'A F DREW (CONSTRUCTION) LTD', 'A F FREIGHT SERVICES LTD', 'A F I GROUP LTD', 'A F J LTD', 'A F LEIGHTON LTD', 'A F S EXPRESS LIMITED', 'A F SALT LTD', 'A F VANE TRANSPORT LIMITED', 'A FREW (HAULAGE CONTRACTORS &amp; COAL MERCHANTS) LTD', 'A G AND SONS HAULIERS LTD', 'A G AXTON WAREHOUSING LTD', 'A G BURRIDGE LTD', 'A G CLARKE LTD', 'A G DISTRIBUTORS LTD', 'A G EVANS LTD', 'A G K T DESPATCH LTD', 'A G LOGISTIC SOLUTIONS LTD', 'A G LOGISTIX LTD', 'A G O LOGISTICS LTD', 'A G S EUROPEAN LIMITED', 'A G SANSUM &amp; SONS LTD', 'A G TARRANT AND SON LIMITED', 'A G THAMES HOLDINGS LTD', 'A G TRANSPORT LIMITED', 'A G WHITTAKER HAULAGE LTD', 'A GREEN (COACHES) LTD', 'A H &amp; G DEAKINS LTD', 'A H ALLEN STEEL SERVICES (MIDLANDS) LTD', 'A H AND C A HUCKER', 'A H AUTOMOVEMENTS LTD', 'A H EALES LTD', 'A H J HAULAGE LTD', 'A H MINIBUSES LTD', 'A H NICHOLLS &amp; SONS LTD', 'A H PLANT HIRE LTD', 'A H SLEEPERS LTD', 'A H TRIPP &amp; SON LTD', 'A HAMMOND &amp; SONS LTD', 'A HAMPSHIRE TRANSPORT LTD', 'A HAND SERVICES LTD', 'A HARDWICK HAULAGE LTD', 'A HAWKINS TRANSPORT LIMITED', 'A HEMINGWAY &amp; SONS LTD', 'A HESTER LTD', 'A HILL HORSE TRANSPORT LTD', 'A HINGLEY TRANSPORT (BRIERLEY HILL) LTD', 'A HOWE &amp; SONS LTD', 'A I C TRANSPORT LTD', 'A I D FUEL OILS LTD', 'A I M COMMERCIAL SERVICES LIMITED', 'A I M EXHIBITIONS LTD', 'A I M LOGISTICS LIMITED', 'A J &amp; N M CARR LTD', 'A J (CIVIL ENGINEERING) LTD', 'A J A SMITH TRANSPORT LTD', 'A J A TRANSPORT LIMITED', 'A J ACCESS PLATFORMS LTD', 'A J AGIUS LIMITED', 'A J ATKINS EXCAVATION CONTRACTORS LTD', 'A J BARRETT LTD', 'A J BRUNT LTD', 'A J CARRINGTON &amp; SONS LTD', 'A J CHAMPION &amp; SONS LTD', 'A J CHARLTON &amp; SONS LTD', 'A J CLARK HOLDINGS LTD', 'A J COCKS TRANSPORT LIMITED', 'A J COX HAULAGE LTD', 'A J CROYDON LIMITED', 'A J DAVIS DEMOLITION SALVAGE - PLANT HIRE LTD', 'A J DAVIS HAULAGE LTD', 'A J DRURY HAULAGE LTD', 'A J F TRANSPORT LIMITED', 'A J FORD HAULAGE LIMITED', 'A J FORSTER LTD', 'A J G PARCELS LTD', 'A J GRAB HIRE LTD', 'A J H SERVICES LTD', 'A J HAULAGE LIMITED', 'A J HUDDLESTONE LIMITED', 'A J JENNINGS', 'A J K (PLANT HIRE) LTD', 'A J LOACH PLANT HIRE LTD', 'A J LOWTHER &amp; SON LTD', 'A J MAIDEN AND SON LTD', 'A J MCGOWAN TRANSPORT LIMITED', 'A J MORFITT LOGISTICS LIMITED', 'A J N TRANSPORT LTD', 'A J NADEN HAULAGE LTD', 'A J OSTRIDGE (TRANSPORT) LTD', 'A J P LOGISTICS LTD', 'A J PLANT REPAIRS LTD', 'A J PRYDE (HAULAGE) LTD', 'A J PURKISS LTD', 'A J RECYCLING LTD', 'A J REMOVALS &amp; DELIVERIES LTD', 'A J RENNIE LTD', 'A J REYNOLDS TRUCK SERVICES LTD', 'A J S BULK SERVICES LIMITED', 'A J S MARINE LTD', 'A J SHORTEN LTD', 'A J SLAVIN &amp; SONS LTD', 'A J SMITH &amp; SON (BENFLEET) LTD', 'A J T RECYCLING LTD', 'A J THOMPSON &amp; SONS LTD', 'A J TRANSPORT (GREAT HARWOOD) LTD', 'A J TRANSPORT (SCOTLAND) LTD', 'A J W TRANSPORT LIMITED', 'A J WEBBER HAULAGE LTD', 'A J WIGGINS LTD', 'A J WINKFIELD &amp; SON LTD', 'A JEFFREY (TRANSPORT) LTD', 'A JOHNSTON &amp; SONS LTD', 'A JOHNSTONE HAULAGE LTD', 'A K BUTCHER TRANSPORT LTD', 'A K COACHES LTD', 'A K FREIGHT LTD', 'A K HAULAGE LTD', 'A K L M S HAULAGE LTD', 'A K PLANT AND HAULAGE LTD', 'A K R LTD', 'A K S TRANSPORT LIMITED', 'A K SHARPE AND SONS HAY AND STRAW LTD', 'A K SMITH SERVICES LTD', 'A K TRAVEL LTD', 'A K WORTHINGTON LTD', 'A L DALTON LTD', 'A L GRANGER LTD', 'A L GRIFFITHS LIMITED', 'A L HAULAGE LTD', 'A L LEGGE &amp; SON LTD', 'A L P (TRANSPORT) LLP', 'A L PETERS &amp; SONS LTD', 'A L S CIVIL ENGINEERS LTD', 'A L T HAULAGE LTD', 'A LEWIS TRANSPORT  LTD', 'A LONG AND SONS LTD', 'A LONG DISTRIBUTION LIMITED', 'A LUCKES &amp; SON (REMOVALS &amp; STORAGE) LTD', 'A M &amp; P M TRANSPORTATION LTD', 'A M B CONCRETE LTD', 'A M BEATON HAULAGE LTD', 'A M BEATTIE LTD', 'A M BRACEWELL TRANSPORT LTD', 'A M C DISTRIBUTION LTD', 'A M C REMOVALS LTD', 'A M CLEARING TRANSPORT LTD', 'A M FREEMAN LTD', 'A M G INTERFREIGHT LTD', 'A M JONES SCRAP METAL LIMITED', 'A M LOGISTICS LTD', 'A M P CONSTRUCTION LTD', 'A M PHILLIP AGRITECH LTD', 'A M PHILLIP LTD', 'A M RECYCLING LTD', 'A M TRANSPORT (CAMPBELTOWN) LTD', 'A M TRANSPORT (LIVERPOOL) LTD', 'A M TRANSPORT (UK/INT) LIMITED', 'A M WICKHAM LTD', 'A M WIDDOWSON &amp; SON LTD', 'A M WILLIAMS HAULAGE LIMITED', 'A MCDERMOTT LIMITED', 'A MINI CRANE HIRE COMPANY LTD', 'A MORREY TRANSPORT LTD', 'A N C HARLOW LTD', 'A N CAMERON LTD', 'A N HARDWELL HAULAGE LTD', 'A N RICHARDS LTD', 'A NEAVERSON &amp; SONS LTD', 'A NELSON HAULAGE LTD', 'A NICHOLS (COW MILLS) LTD', 'A O B TRANSPORT LTD', 'A O G SUPPORT STRUCTURES (UK) LTD', 'A O TRACTION LTD', 'A ONE FEED SUPPLEMENTS LTD', 'A P &amp; A K GREGORY TRANSPORT LIMITED', 'A P &amp; J L TRANSPORT LTD', 'A P (EAST ANGLIA) LTD', 'A P ASHDOWN LTD', 'A P B INTERNATIONAL TRANSPORT LTD', 'A P C CIVILS LIMITED', 'A P COMMERCIALS LTD', 'A P EUROPEAN TRANSPORT LTD', 'A P FRY HAULAGE LTD', 'A P HALL CONTRACTORS LTD', 'A P HAULAGE (LUDLOW) LTD', 'A P HOLLINGWORTH LTD', 'A P J LOGISTICS LIMITED', 'A P JESS (PAISLEY) LTD', 'A P L (HUMBERSIDE) HAULAGE LTD', 'A P L E (MILTON KEYNES) LTD', 'A P L TRAVEL LTD', 'A P LEWIS &amp; SONS LTD', 'A P M (CYMRU) LTD', 'A P M METALS LTD', 'A P MELDRUM LTD', 'A P MORTON TIPPER AND GRAB HIRE LTD', 'A P R ENGINEERING (NORTHAMPTON) LTD', 'A P TRANSPORT GLOS LTD', 'A P TRAVEL LIMITED', 'A P WAKEHAM HIRE LTD', 'A P WATERS BUILDING CONTRACTORS LTD', 'A P WEBB (PLANT HIRE) LTD', 'A PEARSON &amp; SONS LTD', 'A PENNINGTON (STRETFORD) LTD', 'A PETTIFOR &amp; SON LTD', 'A Q LOGISTICS LIMITED', 'A R &amp; H E NICHOLSON TRANSPORT LTD', 'A R &amp; P A TRANSPORT LIMITED', 'A R BANKS LTD', 'A R BURGESS HAULAGE LTD', 'A R CARTWRIGHT LTD', 'A R DEMOLITION LTD', 'A R GIBSON TRANSPORT LIMITED', 'A R H TRANSPORT LTD', 'A R HADDY &amp; SON LTD', 'A R HAULAGE LTD', 'A R HEAL TRANSPORT LTD', 'A R HOLLAND &amp; P A WELBURN', 'A R HOLLOWAY LTD', 'A R I INSTALLATIONS LTD', 'A R K MOTORS LTD', 'A R L LOGISTICS LTD', 'A R LUNN TRANSPORT &amp; WAREHOUSING LTD', 'A R M (TRUCK REPAIRS) LTD', 'A R M CONSTRUCTION LIMITED', 'A R RUDGE LTD', 'A R S (S O T) LTD', 'A R STEPHENSON &amp; SONS LTD', 'A R STINSON LIMITED', 'A R TRANSPORT &amp; HAULAGE LTD', 'A R TRAVEL LTD', 'A R TUCKER LTD', 'A R UNIVERSAL LTD', 'A R W TRUCKING LTD', 'A R WALSH &amp; L M SINKINSON', 'A R WORBOYS LTD', 'A RHODES (HAULAGE) LTD', 'A RICHARDS HAULAGE LTD', 'A ROSE (NEWARK) LTD', 'A RUSSELL (FARMERS) LTD', 'A S A P CONTRACTS LTD', 'A S BONE &amp; SONS LTD', 'A S CHAPPELL &amp; SON LIMITED', 'A S LONDON EXPRESS TRANSPORT LTD', 'A S M  AUTO RECYCLING LTD', 'A S M LOGISTICS LTD', 'A S M METAL RECYCLING LTD', 'A S P RECOVERY LIMITED', 'A S P REMOVALS &amp; STORAGE LTD', 'A S RAWLINGS (TRANSPORT) LIMITED', 'A S T EXPRESS LTD', 'A S TAYLOR TRANSPORT LTD', 'A S TRANSPORT LTD', 'A SADRETTIN PROPERTY INVESTMENT LTD', 'A SALVATORI &amp; SON LTD', 'A SHARE &amp; SONS LTD', 'A SKIP 2 U LTD', 'A SMOOTH MOVE (WIRRAL) LTD', 'A SONS TRANSPORT LIMITED', 'A STEEL &amp; SON CONTRACTS LTD', 'A STEPHENS TRANSPORT LTD', 'A STEPHENSON LTD', 'A T BONE &amp; SONS LTD', 'A T BROWN (COACHES) LTD', 'A T COACHES LTD', 'A T K TRANSPORT LTD', 'A T LAIDLAW TRANSPORT LTD', 'A T LIMITED', 'A T LOGISTIC SOLUTIONS LTD', 'A T MOSS &amp; SON LTD', 'A T OLIVER &amp; SONS LTD', 'A T OSBORNE LTD', 'A T R PLANT SERVICES LIMITED', 'A T TRANSPORT SOLUTIONS LIMITED', 'A T W TRANSPORT LTD', 'A TO B DIRECT LTD', 'A TO B TRANSPORTER SERVICES LIMITED', 'A TO Z BODY REPAIR CENTRE LTD', 'A TO Z LLOYD TRANSPORT LTD', 'A TO Z SAFE WAREHOUSE LTD', 'A TO Z TRANSPORT LTD', 'A TOUCH OF CLASS LIMOUSINES (UK) LTD', 'A TRIP IN TIME LTD', 'A TURNELL LTD', 'A V DAWSON LTD', 'A V P RECYCLING LTD', 'A V PLANT LTD', 'A VAN MAN TRANSPORT LTD', 'A W &amp; D HAMMOND LTD', 'A W BAXTER (PRODUCE) LTD', 'A W BAXTER LTD', 'A W BLAKE LTD', 'A W BROOKS HAULAGE LTD', 'A W EASTONS COACHES LTD', 'A W EXPRESS LTD', 'A W FOLKES HAULAGE LTD', 'A W FREIGHT LTD', 'A W HORSE TRANSPORT LTD', 'A W JAMES &amp; P J E JAMES', 'A W JENKINSON TRANSPORT LTD', 'A W MOBBS &amp; CO LIMITED', 'A W MORTIER (FARMS) LTD', 'A W SMITH (GOSPORT) LTD', 'A W STATHAM ( HAULAGE) LTD', 'A W WHEADON LTD', 'A WADE &amp; CO (NORTHALLERTON) LTD', 'A WALTERS &amp; SONS LTD', 'A WEATHERHEAD LTD', 'A WEST TRANSPORT SERVICES LTD', 'A WHEELER &amp; SONS TRANSPORT LIMITED', 'A WILLIAMSON HAULAGE LIMITED', 'A WOODWARD &amp; SONS TRANSPORT LTD', 'A Y S SKIP HIRE LIMITED', 'A ZOOM LTD', 'A&amp;A FREIGHT LTD', 'A-DRILL.UK LTD', 'A-FIELD TRANSPORT LTD', 'A-LINE COACHES COVENTRY LTD', 'A-Z SKIPS LTD', 'A. DAVIES TRANSPORT AND SON LTD', 'A.B TRANSPORT (SCOTLAND) LTD', 'A.C. HAULAGE (ILFORD) LTD', 'A.C. JENKINS BUSES AND AIRPORT SERVICES LIMITED', 'A.E ENGINEERING (FYLDE) LIMITED', 'A.E. WILSON &amp; SONS LIMITED', 'A.F.M. METALS LIMITED', 'A.F.S. HAULAGE LTD', 'A.G. PLANT HIRE LTD', 'A.J.L. TRANSPORT LIMITED', 'A.M LOGISTICS &amp; WAREHOUSING LTD', 'A.N. BAILEY HAULAGE LTD', 'A.P.T. COACHES LIMITED', 'A.R. AND M. BENNETT LTD', 'A.S.E COURIER SERVICES LTD', 'A.S.J HAULAGE LTD', 'A1 +  SCAFFOLDING LTD', 'A1 AGENCY TRANSPORT SERVICES LTD', 'A1 AUTOMOTIVE LTD', 'A1 BACON CO LTD', 'A1 BREAKDOWN &amp; RECOVERY SERVICES LTD', 'A1 BUILDING SUPPLIE UK LTD', 'A1 BUSES LIMITED', 'A1 CAR AND COMMERCIAL VEHICLE SERVICES LTD', 'A1 COACHES LTD', 'A1 EUROPEAN EXECUTIVES LTD', 'A1 HAULAGE LTD', 'A1 LOO HIRE LIMITED', 'A1 METAL RECYCLING LIMITED', 'A1 MINI SKIPS LTD', 'A1 MINIBUS &amp; COACH SERVICES LTD', 'A1 MOT LTD', 'A1 PHARMACEUTICALS PLC', 'A1 PLANT &amp; HAULAGE (YORK) LTD', 'A1 READYMIX LTD', 'A1 RECOVERY LTD', 'A1 SERVICES (MANCHESTER) LIMITED', 'A1 SERVICES NATIONWIDE LTD', 'A1 SKIP HIRE (KINGSWINFORD) LTD', 'A1 SUPA SKIPS LTD', 'A1 TIPPERS LTD', 'A1 TRANSPORT SOLUTIONS LTD', 'A1 WASTE SERVICES SLOUGH LTD', 'A1A LTD', 'A2B - ONLINE LIMITED', 'A2B - ONLINE TRANSPORT LIMITED', 'A2B COACHES LTD', 'A2B NEWQUAY TRAVEL LTD', 'A2B RADIO CARS LIMITED', 'A2B REMOVALS &amp; STORAGE LTD', 'A2B TAXIS (TRURO) LTD', 'A2B TAXIS AND CONTRACTS (REDDITCH) LTD', 'A2B TRANSPORT LTD', 'A2B TRAVEL (UK) LTD', 'A2Z CARE LIMITED', 'A45 SKIP HIRE LTD', 'A50 OFFICE FURNITURE LIMITED', 'AA DISPATCH (UK) LTD', 'AA MINIBUS TRAVELS LTD', 'AAA COACHES LTD', 'AAA LOGISTICS LIMITED', 'AAA REMOVALS LTD', 'AAC WATERPROOFING LTD', 'AAD TRANSPORT LTD', 'AALCO METALS LTD', 'AARDVARK ART SERVICES LTD', 'AARDVARK HIRE LTD', 'AARON CLUCKIE', 'AARON CONTRACTING LIMITED', 'AARON GRAB &amp; SKIP HIRE LTD', 'AARON LOGISTICS LIMITED', 'AARON MARSHALL JAMES CORNWALL', 'AARON PAUL NORTHERN', 'AARON PLANT SERVICES LTD', 'AARON ROBERT SLANEY', 'AARON WHITE LTD', 'AAV TRANSPORT LTD', 'AB - FAB LOOS LTD', 'AB AGRI LIMITED', 'AB AUTOMOTIVE LTD', 'AB TRANSPORT SOLUTIONS LTD', 'AB VEHICLE LOGISTICS LTD', 'ABACUS BUILDERS MERCHANTS (WALSALL) LTD', 'ABACUS LOGISTICS LTD', 'ABACUS LOGISTICS UK LTD', 'ABACUS REMOVALS (YORK) LTD', 'ABACUS TRANSPORT LTD', 'ABACUS TRANSTEX LIMITED', 'ABARIS HOLDINGS LTD', 'ABBA CARS LTD', 'ABBA LOOS LIMITED', 'ABBA PLANT HIRE LTD', 'ABBA WASTE LTD', 'ABBCO TRANSPORT SERVICES LTD', 'ABBEY CIVIL ENGINEERING LTD', 'ABBEY COACHES (DARWEN) LTD', 'ABBEY COACHES (MIDLANDS) LTD', 'ABBEY COACHES LTD', 'ABBEY COACHWAYS LTD', 'ABBEY COURIERS LTD', 'ABBEY LOGISTICS GROUP LIMITED', 'ABBEY MECHANICAL SERVICES LTD', 'ABBEY METAL RECYCLING LIMITED', 'ABBEY REFRIGERATED TRANSPORT LIMITED', 'ABBEY REMOVALS &amp; STORAGE (PERTH) LTD', 'ABBEY REMOVALS OF MARKET DRAYTON LIMITED', 'ABBEY TRANSPORT LTD', 'ABBEY TRAVEL COACH HIRE LTD', 'ABBEY WASTE CONTROL LTD', 'ABBEYCHEER LTD', 'ABBEYEURO LIMITED', 'ABBEYFIELD WAREHOUSING LTD', 'ABBEYGATE BUILDERS MERCHANTS LTD', 'ABBEYHALL LIMITED', 'ABBEYLANDS TRANSPORT LIMITED', 'ABBEYPACK EGGS LTD', 'ABBEYRISE LTD', 'ABBEYTRANS LIMITED', 'ABBEYWOOD REMOVALS &amp; STORAGE LTD', 'ABBFAB SKIP SERVICES LTD', 'ABBOT COACH TRAVEL LIMITED', 'ABBOTT &amp; CO (WESSEX) LTD', 'ABBOTTS LTD', 'ABBY LOGISTICS LTD', 'ABC (GRIMSBY) LTD', 'ABC (METHLICK) LTD', 'ABC - TOP MIXER HIRE LIMITED', 'ABC COACHES (2002) LTD', 'ABC HAPPY BUS SERVICE LIMITED', 'ABC LOGISTICS LTD', 'ABC REMOVALS UK LTD', 'ABC TAXIS (KENT) LTD', 'ABC TRANSPORT (UK) LLP PARTNERS', 'ABCO ENTERPRISES LTD', 'ABCO TRANSPORT LTD', 'ABCON READIMIX CONCRETE LTD', 'ABDI NASIR JAMA', 'ABDUL A ARGHANDAWI', 'ABDUL AZIZ', 'ABDUL MALIK ALI &amp; ABDUL JABAR ALI', 'ABDUL RAZAQ', 'ABDUL WAHID', 'ABELLIO LONDON LTD', 'ABELLIO SURREY LTD', 'ABELLIO WEST LONDON LTD', 'ABELS MOVING SERVICES LTD', 'ABER ROOF TRUSS LIMITED', 'ABERCLEAN PLANT &amp; SWEEPER HIRE LTD', 'ABERDARE BUS CO LTD', 'ABERDEEN CITY COUNCIL', 'ABERDEEN CRUSHING LTD', 'ABERDEEN JOURNALS LTD', 'ABERDEEN TRANSPORT AND SERVICES LTD', 'ABERDEENSHIRE COUNCIL', 'ABERFELDY GROUNDWORKS LTD', 'ABERFORD CONSTRUCTION CO LTD', 'ABERFOYLE COACHES LTD', 'ABERHILL METALS LTD', 'ABERLOUR ENGINEERING LTD', 'ABERYSTWYTH REMOVALS &amp; STORAGE LTD', 'ABI (UK) LTD', 'ABID HUSSAIN &amp; YASMIN BIBI', 'ABIGRAIN LTD', 'ABILAS LOGISTICS LIMITED', 'ABILITY HANDLING LTD', 'ABINGDON FREIGHT FORWARDING AGENCY LTD', 'ABIRD SUPERIOR LIMITED', 'ABJ MINIMIX LTD', 'ABJ TRANSPORT LTD', 'ABL LOGISTICS LTD', 'ABLE COACHES LTD', 'ABLE REMOVALS LTD', 'ABLE TRANSFER LTD', 'ABM LOGISTICS LTD', 'ABNA TRANSPORT LIMITED', 'ABNORMAL LOAD ENGINEERING LTD', 'ABNORMAL LOAD SPECIALISTS LTD', 'ABOUT GLASGOW GRAB HIRE LTD', 'ABR RESCUE LTD', 'ABRAHAM HABTE', 'ABRAHAM PROPERTY DEVELOPMENT LTD', 'ABRAHAMS TRANSPORT LIMITED', 'ABRAMS BULK HAULAGE (EAST ANGLIA) LTD', 'ABRAR HUSSAIN', 'ABS SOUTHERN LOGISTICS LIMITED', 'ABS TRANSPORT LIMITED', 'ABSOLUTE BUSINESS SERVICES (SCOTLAND) LIMITED', 'ABSOLUTE CAR TRANSPORT LTD', 'ABSOLUTE EXECUTIVE LTD', 'ABSOLUTE FREIGHT SERVICES LIMITED', 'ABSOLUTE RECYCLING COMPANY UK LTD', 'ABTECH PLANT HIRE LTD', 'ABUS LTD', 'AC &amp; CE SKELTON LIMITED', 'AC &amp; IC FRASER &amp; SON LTD', 'AC AGGREGATES LTD', 'AC ROSS (UK) LTD', 'ACCELERATE FREIGHT LIMITED', 'ACCESS ALL AREAS (GB) LTD', 'ACCESS ANYONE LTD', 'ACCESS CARE LIMITED', 'ACCESS MOVING LTD', 'ACCESS PLUS (SCOTLAND) LTD', 'ACCESS TRANSPORT REMOVALS AND STORAGE LIMITED', 'ACCIDENT CLAIMS HANDLERS LTD', 'ACCIDENT REPAIR CENTRE (SCOTLAND) LIMITED', 'ACCIDENT REPAIRS OF SANDWELL LTD', 'ACCLAIM (COVENTRY) LIMITED', 'ACCLAIM HANDLING LTD', 'ACCLAIM LOGISTICS LTD', 'ACCLAIM PALLET EXPRESS LTD', 'ACCLAIM PARCEL EXPRESS (SOUTHAMPTON) LTD', 'ACCLAIM UPHOLSTERY CO LTD', 'ACCO UK LTD', 'ACCOLADE LOGISTICS LTD', 'ACCORD OFFICE SUPPLIES LTD', 'ACCURA GEOMETRIC LTD', 'ACE &amp; ELLIS TRAVEL LTD', 'ACE CAR HIRE (WORTHING) LTD', 'ACE COURIERS (NW) LIMITED', 'ACE CRANE &amp; TRANSPORT LTD', 'ACE DRINKS LTD', 'ACE FORWARDING LTD', 'ACE FREIGHT LTD', 'ACE GRAB HIRE &amp; HAULAGE LTD', 'ACE HAUL LTD', 'ACE HAULAGE (SWINDON) LTD', 'ACE HAULAGE LIMITED', 'ACE HAULAGE SOLUTIONS LTD', 'ACE LIFTAWAY LTD', 'ACE MOTORING SERVICES LTD', 'ACE MOVEMENTS TRANSPORT LIMITED', 'ACE TRANSPORT LEICESTER LIMITED', 'ACE TRANSPORT LTD', 'ACE TRAVEL (NORTH WEST) LTD', 'ACE TRAVEL (SUSSEX) LTD', 'ACE WASTE HAULAGE LTD', 'ACE WASTE RECYCLING LTD', 'ACECARE LTD', 'ACELINK LOGISTICS LTD', 'ACENTA STEEL LTD', 'ACEO LIMITED', 'ACKLAMS COACHES LTD', 'ACL DISTRIBUTION &amp; LOGISTICS LIMITED', 'ACL INTERNATIONAL HAULAGE LTD', 'ACLAND PLANT HIRE LTD', 'ACM HAULAGE LIMITED', 'ACM LOGISTICS LIMITED', 'ACM TRANSPORT (NW) LTD', 'ACME BUS CO LTD', 'ACME LOGISTICS LTD', 'ACME PRODUCTION SERVICES LTD', 'ACO ASSOCIATES LIMITED', 'ACONPEX (UK) LTD', 'ACORN (NORTH EAST) LIMITED', 'ACORN COACH &amp; BUS LIMITED', 'ACORN CONTRACTORS LTD', 'ACORN EXPRESS LOGISTICS LTD', 'ACORN G D S LTD', 'ACORN HAULAGE LTD', 'ACORN PACKAGING SERVICES LTD', 'ACORN TRANSPORT &amp; PLANT HIRE LTD', 'ACORN TRANSPORT LTD', 'ACORN TRAVEL SOUTH WALES LIMITED', 'ACORN WASTE MANAGEMENT LIMITED', 'ACOURIER LTD', 'ACP TRANSPORT LTD', 'ACR ENVIRONMENTAL WALES LTD', 'ACR TIPPING SERVICES LTD', 'ACRE INDUSTRIAL &amp; CLEANING SERVICES LTD', 'ACS SAMEDAY LTD', 'ACTION DELIVERY SERVICES LTD', 'ACTION HIRE LIMITED', 'ACTION RAIL LTD', 'ACTION ROADWAYS LTD', 'ACTION VEHICLES LTD', 'ACTIONSMART ENVIRONMENTAL LTD', 'ACTIVAIR (UK) LTD', 'ACTIVE FACILITIES MANAGEMENT LTD', 'ACTIVE GROUNDS MAINTENANCE LTD', 'ACTIVE HOLDINGS LTD', 'ACTIVE OUTDOOR PURSUITS LTD', 'ACTIVE PLANT HIRE LTD', 'ACTIVE TRANSPORT LTD', 'ACTIVE TRAVEL LTD', 'ACTIVETREND LTD', 'ACTUAL SUPPORT SERVICES LTD', 'ACUMEN AUTOMOTIVE LOGISTICS LIMITED', 'ACUMEN DISTRIBUTION LIMITED', 'ACUMEN WASTE SERVICES LTD', 'ACUTE GROUP LIMITED', 'ADA FASTFIX LIMITED', 'ADAC HAULAGE LTD', 'ADALAT HUSSAIN', 'ADAM  HALAL FOODS LTD', 'ADAM B MIDDLER (TRANSPORT) LTD', 'ADAM BENJAMIN COUTTS &amp; CHARLES EDWARD COUTTS', 'ADAM BOWES COMMERCIALS LTD', 'ADAM C TAYLOR LTD', 'ADAM CARD', 'ADAM CHAPMAN', 'ADAM CHARLES TAYLOR', 'ADAM CLIVE SCOTT', 'ADAM CRAIG OGDEN', 'ADAM CREASE SHIPPING LTD', 'ADAM DAVID  EDWARDS', 'ADAM FEARN', 'ADAM GEOFFREY RIDDLE', 'ADAM GLOWACKI', 'ADAM GREGORY KLUJ &amp; PETER KLUJ', 'ADAM JAMES HAWKINS', 'ADAM JOHN NEESHAM', 'ADAM JON ROBBINS', 'ADAM JONES &amp; SONS (BLACKHEATH) LTD', 'ADAM KEIL', 'ADAM KEVIN OGLESBY', 'ADAM KIRTLEY &amp; ROY KIRTLEY', 'ADAM KLUJ TRANSPORT SERVICES LTD', 'ADAM M FERNIE', 'ADAM MCINNES SCOTT &amp; PATRICA ANNE SCOTT', 'ADAM MICHAEL WOOD', 'ADAM MOIR', 'ADAM PAWEL PAWELCZYK', 'ADAM PAYLOR', 'ADAM PETER SMITH', 'ADAM RAYMOND SHADBOLT', 'ADAM SPENCER HOWELLS', 'ADAM STEPHENSON PLANT', 'ADAM STUART ATKINSON', 'ADAM TAIT', 'ADAM TERRENCE ROSE', 'ADAM TOCHRANE GRIBBON', 'ADAM WILLIAM SIMPSON METCALFE', 'ADAMS &amp; GREEN LIMITED', 'ADAMS CUNDELL ENGINEERS LTD', 'ADAMS ENGINEERING (MARINE) LTD', 'ADAMS HAULAGE N W LTD', 'ADAMS MOREY LTD', 'ADAMS REMOVALS LTD', 'ADAMSON GROUP SERVICES LTD', 'ADAPTACAR LTD', 'ADB EMPLOYMENT LTD', 'ADC (EAST ANGLIA) LIMITED', 'ADD HIRE LTD', 'ADDICOTT ELECTRICS LTD', 'ADDIS CONSTRUCTION LTD', 'ADDISON PLANT LTD', 'ADDLESEE TIMBER &amp; HAULAGE LTD', 'ADDPLANT LTD', 'ADE MASON &amp; SONS LTD', 'ADELA CLAIRE KEENAN', 'ADELE BOOTH &amp; STEVEN ROBERT BOOTH', 'ADELE H LITSCHER &amp; PAUL T FROSTICK', 'ADELIE FOODS LIMITED', 'ADELPHI ENGINEERING &amp; CONSTRUCTION LTD', 'ADELTRANS LTD', 'ADEN JOHN HARE &amp; JANE HARE', 'ADEPT LIFT TECHNICAL SERVICES LTD', 'ADEY FREIGHT TRANSPORT LOGISTICS LIMITED', 'ADEY STEEL LTD', 'ADGLOW LTD', 'ADISEL LIMITED', 'ADK TRANSPORT LTD', 'ADLER &amp; ALLAN LTD', 'ADLINGTON WELDING SUPPLIES LTD', 'ADM MILLING LTD', 'ADMEC MUNICIPAL SERVICES LTD', 'ADMIRAL EAST LTD', 'ADMOBILE LTD', 'ADN TRANSPORT LTD', 'ADNAMS PLC', 'ADNAN MANZOOR', 'ADONIA FREIGHT LTD', 'ADORIAN LEON ROMAN', 'ADP DISTRIBUTION LIMITED', 'ADP HAULAGE LIMITED', 'ADR ACCIDENT REPAIR CENTRES LTD', 'ADRIAN A SPARROW', 'ADRIAN ALAN LTD', 'ADRIAN ALBERT GRAY', 'ADRIAN ANDREW SHERRIFF', 'ADRIAN ANDREW SHERRIFF &amp; PARTNERS', 'ADRIAN ANTHONY BENSON', 'ADRIAN ARTHUR WHEELWRIGHT', 'ADRIAN ASHLEY &amp; HELEN LOUISE ASHLEY', 'ADRIAN BANKS CO LTD', 'ADRIAN BAYLISS', 'ADRIAN BENCE', 'ADRIAN BRIAN DAVIDSON', 'ADRIAN BRIAN DAVIDSON &amp; RODERICK SHELSHER', 'ADRIAN CHARLES CLARKE', 'ADRIAN CHARLES HILLIER AND CHARLES JOHN BODMAN', 'ADRIAN CHARLES PRETLOVE &amp; ANNE TRACEY PRETLOVE-REDMOND', 'ADRIAN CHARLES TURNER', 'ADRIAN CLIFTON HOLLOWAY', 'ADRIAN CLIVE BROWNE', 'ADRIAN DAVID ARNOLD', 'ADRIAN DAVID BROWN', 'ADRIAN DAVID CRADDOCK &amp; LISA MARGARET NAYLOR', 'ADRIAN DREWERY', 'ADRIAN EDWARD HUNT', 'ADRIAN EDWARD LAW', 'ADRIAN EDWARD SMITH', 'ADRIAN EDWARD STANLEY', 'ADRIAN EDWARDS', 'ADRIAN GIBBONS', 'ADRIAN GRAY', 'ADRIAN HALL LTD', 'ADRIAN HALL PROPERTIES LIMITED', 'ADRIAN HOWARD', 'ADRIAN IAN METCALFE', 'ADRIAN JAMES FLETCHER', 'ADRIAN JEREMY BAVEYSTOCK', 'ADRIAN JOHN AIREY', 'ADRIAN JOHN ALAN TWINING', 'ADRIAN JOHN ALLEN &amp; DIANNE ALLEN', 'ADRIAN JOHN CHARLES', 'ADRIAN JOHN FARNHAM', 'ADRIAN JOHN FORD', 'ADRIAN JOHN FORD AND KEVIN WILLIAM FORD', 'ADRIAN JOHN FORDER', 'ADRIAN JOHN PEARCE', 'ADRIAN JOHN STIFF', 'ADRIAN KARL GRIFFITHS', 'ADRIAN KELSON HOSIE', 'ADRIAN KEVIN RILEY', 'ADRIAN KNIGHT', 'ADRIAN LEE OSTLE', 'ADRIAN LEWIS', 'ADRIAN LEWIS TRANSPORT LTD', 'ADRIAN LEWIS WASTE PAPER COLLECTIONS LTD', 'ADRIAN LINDSAY GOURLEY', 'ADRIAN LITSCHER', 'ADRIAN MALCOLM THICKENS', 'ADRIAN MARK GOODWIN', 'ADRIAN MARK HALL &amp; STUART GARY HALL', 'ADRIAN MARK INDER', 'ADRIAN MARK KEELING', 'ADRIAN MARSH LIMITED', 'ADRIAN MAXWELL SMITH &amp; CLAYTON MAXWELL SMITH', 'ADRIAN METCALFE TRANSPORT LTD', 'ADRIAN MICHAEL FULLTHORPE', 'ADRIAN MICHAEL LAMBERT &amp; PARTNERS', 'ADRIAN MILLETT &amp; AMANDA JAYNE MILLETT', 'ADRIAN MORTON', 'ADRIAN MUNNS', 'ADRIAN N SWEETING &amp; SARAH J SWEETING', 'ADRIAN NEAL SWEETING', 'ADRIAN NIGEL HOSKINS', 'ADRIAN PAUL ATTWATER', 'ADRIAN PAUL BOULTON', 'ADRIAN PAUL HARRISON', 'ADRIAN PAUL KNOWLES', 'ADRIAN PAUL MORTON', 'ADRIAN PETER HARPER', 'ADRIAN PITTERS-HAUGHTON', 'ADRIAN POOLE &amp; SONS INTERNATIONAL LTD', 'ADRIAN PRICE MIRON', 'ADRIAN RAYMOND CARTER', 'ADRIAN RICHARD LAKE', 'ADRIAN RICHARD POOLE', 'ADRIAN ROBERT BABER', 'ADRIAN ROBERT BRAYBROOKE', 'ADRIAN ROBERT EMMERSON', 'ADRIAN ROBERT HALFPENNY', 'ADRIAN ROBERT WILLIAMS', 'ADRIAN ROGER KNEEBONE', 'ADRIAN SABIN  EPURE', 'ADRIAN SHANE WALKER &amp; S J WALKER', 'ADRIAN SIMON DAVIS', 'ADRIAN TANSEY LTD', 'ADRIAN TRISTAN WILLIAMS &amp; PARTNERS', 'ADRIAN V LTD', 'ADRIAN WHITE BUILDING SUPPLIES LTD', 'ADRIAN WHITTAKER LTD', 'ADRIAN WILLIAMS TRANSPORT LIMITED', 'ADRIAN WINGFIELD', 'ADRIANDORU LTD', 'ADRIENNE MERYLE WILKIE &amp; GEORGE EDWARD WILKIE', 'ADS EXPRESS FREIGHT LLP', 'ADS RECRUITMENT LIMITED', 'ADSTOCK BULK SOLUTIONS LTD', 'ADTAX LTD', 'ADUR DISTRICT COUNCIL', 'ADVANCE DESPATCH LTD', 'ADVANCE FORWARDING LIMITED', 'ADVANCE MINIBUSES LTD', 'ADVANCE PERSONNEL LTD', 'ADVANCE SCAFFOLDING (LANCASHIRE) LTD', 'ADVANCE TRANSPORT SERVICES LTD', 'ADVANCE URANIUM ASSET MANAGEMENT LTD', 'ADVANCED DELIVERY SERVICES LTD', 'ADVANCED DRAINAGE SOLUTIONS LTD', 'ADVANCED LOGISTICS SELBY LTD', 'ADVANCED PROCESSING LTD', 'ADVANCED REMOVALS &amp; STORAGE LTD', 'ADVANCED TRAINING AND RECRUITMENT (UK) LIMITED', 'ADVANTE LTD', 'ADY SHORTHOUSE TRANSPORT LTD', 'AEI CABLES LTD', 'AEI ONLINE LTD', 'AERON CEREDIC EVANS', 'AERON PRYSOR JONES', 'AES PLANT LTD', 'AET TRANSPORT ANDOVER LIMITED', 'AFAN CONSTRUCTION LTD', 'AFD TRANSPORT LTD', 'AFE GROUP LIMITED', 'AFEEF PATEL', 'AFFABLE PILING CO LTD', 'AFG TRANSPORT LTD', 'AFL TRANSIT LTD', 'AFM INTERNATIONAL TRANSPORT AND FORWARDING LIMITED', 'AFM TRANSPORT LTD', 'AFP TRANSPORT LIMITED', 'AFS EARTHMOVING &amp; AGGREGATES LLP', 'AFS TRANSPORT AND LOGISTICS LTD', 'AFSC LIMITED', 'AFTAAB MZ ALLYMAN', 'AFTER SALES GARAGE SERVICES LIMITED', 'AFTERCRETE CONSTRUCTIONAL ENGINEERING CO LTD', 'AFZAL KHAN', 'AGA CONSUMER &amp; FOODSERVICE GROUP LTD', 'AGA LTD', 'AGA RANGEMASTER LIMITED', 'AGATRANS (FELIXSTOWE) LIMITED', 'AGGMAX LTD', 'AGGMAX TRANSPORT LTD', 'AGGRECOM LIMITED', 'AGGREGATE INDUSTRIES UK LTD', 'AGH CONTRACT SERVICES LTD', 'AGHAUL LIMITED', 'AGM CHILLED DISTRIBUTION LTD', 'AGNIESZKA BEATA LEONIUK', 'AGNIESZKA LOZOWSKA', 'AGRI - VALET LTD', 'AGRI MIX LIMITED', 'AGRI TEC LTD', 'AGRIBULK LIMITED', 'AGRICART LTD', 'AGRICULTURAL ANHYDROUS AMMONIA LTD', 'AGRICULTURAL CONTRACT &amp; MARKETING COMPANY LIMITED', 'AGRICULTURAL MACHINERY (NANTWICH) LTD', 'AGRICULTURAL MACHINERY SERVICES LIMITED', 'AGRIGROUP LIMITED', 'AGRIHAUL LTD', 'AGRISPARES TRADING CO LTD', 'AGRIVERT LTD', 'AGROVISTA UK LTD', 'AGS INTERNATIONAL LIMITED', 'AGS LTD', 'AHB HAULAGE LTD', 'AHERN RUBBISH MOVEMENTS LTD', 'AHMED JAVED', 'AHS LOGISTICS LTD', 'AHT LOGISTICS LTD', 'AI MASON STREET FURNITURE INSTALLATIONS LTD', 'AIDAN MUNDY', 'AIDAN PATRICK KAVANAGH', 'AIJAZ AHMED', 'AILEEN M H WALTON &amp; PARTNERS', 'AILSA W JOHNSTONE &amp; PARTNERS', 'AIM TRAINING LIMITED', 'AINSCOUGH CRANE HIRE LTD', 'AINSCOUGH LTD', 'AINSWORTH &amp; BURGESS LTD', 'AINSWORTH &amp; MARTIN LTD', 'AINTREE COACHES (INTERNATIONAL) LTD', 'AIR &amp; CARGO SERVICES LTD', 'AIR CANADA', 'AIR CARGO TRANSPORT LTD', 'AIR FENELLA SYSTEMS LTD', 'AIR LINK SYSTEMS LIMITED', 'AIR PREMIER PROPERTIES LTD', 'AIR SEA LOGISTICS LIMITED', 'AIR SEA SCOTLAND LTD', 'AIR TO ROAD LTD', 'AIR-SEA PACKING GROUP LTD', 'AIR-WAVE FREIGHT MANAGEMENT LTD', 'AIRBUS OPERATIONS LIMITED', 'AIRCARGO &amp; CONTAINER SERVICES LTD', 'AIRCOACH LIMITED', 'AIRCRAFT &amp; COMMERCIAL TOOLS (SHEFFIELD) LTD', 'AIRDRIE VEHICLE MOVERS LTD', 'AIREDALE FACTORS LTD', 'AIREDALE N H S TRUST', 'AIREDALE TRAVEL LIMITED', 'AIRES (UK) LTD', 'AIREYS ROAD TRANSPORT LTD', 'AIRFIELD FARMS LIMITED', 'AIRFLOW ENGINEERING LTD', 'AIRFREIGHT WORLDWIDE LIMITED', 'AIRLINE TRAVEL HUB LIMITED', 'AIRLINE TRUCKING SERVICES LTD', 'AIRLINKS AIRPORT SERVICES LTD', 'AIRLOAD ENVIRONMENTAL LTD', 'AIRLYNX EXPRESS LTD', 'AIRLYNX</t>
         </is>
@@ -609,12 +625,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>145659</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>2974774</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['Partnership', 'Public Authority', 'Registered Company', 'Sole Trader']</t>
         </is>
@@ -687,12 +709,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>21308</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>1597239</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>52485</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['OB0001204', 'OB0001528', 'OB0001772', 'OB0002077', 'OB0002104', 'OB0002110', 'OB0002190', 'OB0002473', 'OB0002620', 'OB0002915', 'OB0003141', 'OB0003566', 'OB0003597', 'OB0004427', 'OB0004888', 'OB0005212', 'OB0006861', 'OB0006868', 'OB0008366', 'OB0008753', 'OB0012085', 'OB0012849', 'OB0013056', 'OB0013665', 'OB0014312', 'OB0014531', 'OB0014837', 'OB0015142', 'OB0015961', 'OB0019338', 'OB0019493', 'OB0020763', 'OB0028428', 'OB0031154', 'OB0031161', 'OB0031314', 'OB0031359', 'OB0031438', 'OB0031852', 'OB0032530', 'OB0032632', 'OB0034396', 'OB0034741', 'OB0037429', 'OB0037785', 'OB0038047', 'OB0038883', 'OB0038961', 'OB0039644', 'OB0040106', 'OB0041914', 'OB0044406', 'OB0044724', 'OB0051265', 'OB0051693', 'OB0052002', 'OB0054727', 'OB0056782', 'OB0058953', 'OB0066340', 'OB0072864', 'OB0073954', 'OB0074151', 'OB0076495', 'OB0081014', 'OB0082027', 'OB0084737', 'OB0092482', 'OB0094273', 'OB0095453', 'OB0095800', 'OB0098976', 'OB0098979', 'OB0099130', 'OB0099916', 'OB0100273', 'OB0100342', 'OB0100681', 'OB0100815', 'OB0100872', 'OB0101157', 'OB0101190', 'OB0101358', 'OB0101420', 'OB0101491', 'OB0101524', 'OB0101616', 'OB0101617', 'OB0101650', 'OB0101747', 'OB0101768', 'OB0101823', 'OB0101854', 'OB0101866', 'OB0102713', 'OB0104090', 'OB0108719', 'OB0111021', 'OB0111226', 'OB0113010', 'OB0113536', 'OB0114685', 'OB0115283', 'OB0117075', 'OB0117499', 'OB0122179', 'OB0127817', 'OB0130016', 'OB0130142', 'OB0131446', 'OB0131830', 'OB0132147', 'OB0132324', 'OB0132980', 'OB0133206', 'OB0133512', 'OB0133753', 'OB0134442', 'OB0135056', 'OB0137263', 'OB0138533', 'OB0139068', 'OB0139928', 'OB0140077', 'OB0142028', 'OB0143122', 'OB0146154', 'OB0147309', 'OB0149590', 'OB0150170', 'OB0151791', 'OB0152079', 'OB0152228', 'OB0153175', 'OB0153306', 'OB0153474', 'OB0154113', 'OB0155829', 'OB0156770', 'OB0157099', 'OB0157143', 'OB0157759', 'OB0157787', 'OB0158000', 'OB0158916', 'OB0159282', 'OB0160054', 'OB0160095', 'OB0160329', 'OB0160806', 'OB0161665', 'OB0164265', 'OB0165838', 'OB0165913', 'OB0166682', 'OB0167166', 'OB0167634', 'OB0169073', 'OB0169641', 'OB0170462', 'OB0171029', 'OB0171909', 'OB0172004', 'OB0172012', 'OB0172181', 'OB0172328', 'OB0172694', 'OB0172913', 'OB0172988', 'OB0173118', 'OB0173157', 'OB0173342', 'OB0173363', 'OB0173404', 'OB0173467', 'OB0173538', 'OB0173557', 'OB0173686', 'OB0173719', 'OB0173742', 'OB0173931', 'OB0173957', 'OB0174056', 'OB0174108', 'OB0174156', 'OB0174318', 'OB0174505', 'OB0174512', 'OB0174566', 'OB0174624', 'OB0174752', 'OB0174771', 'OB0174821', 'OB0174878', 'OB0174936', 'OB0175075', 'OB0175111', 'OB0175160', 'OB0175212', 'OB0175238', 'OB0175314', 'OB0175337', 'OB0175342', 'OB0175402', 'OB0175464', 'OB0175475', 'OB0175583', 'OB0175586', 'OB0175660', 'OB0175685', 'OB0175707', 'OB0175770', 'OB0175846', 'OB0175852', 'OB0175868', 'OB0176037', 'OB0176125', 'OB0176165', 'OB0176214', 'OB0176300', 'OB0176378', 'OB0176427', 'OB0176466', 'OB0176565', 'OB0176727', 'OB0176753', 'OB0176904', 'OB0176913', 'OB0176941', 'OB0177074', 'OB0177091', 'OB0177100', 'OB0177140', 'OB0177236', 'OB0177242', 'OB0177452', 'OB0177459', 'OB0177642', 'OB0177699', 'OB0177763', 'OB0177854', 'OB0177894', 'OB0177895', 'OB0178004', 'OB0178013', 'OB0178061', 'OB0178121', 'OB0178200', 'OB0178452', 'OB0178459', 'OB0178655', 'OB0178722', 'OB0178831', 'OB0178881', 'OB0178897', 'OB0178970', 'OB0179061', 'OB0179100', 'OB0179149', 'OB0179160', 'OB0179244', 'OB0179298', 'OB0179344', 'OB0179361', 'OB0179389', 'OB0179392', 'OB0179428', 'OB0179508', 'OB0179635', 'OB0179707', 'OB0179746', 'OB0179780', 'OB0179811', 'OB0179855', 'OB0179895', 'OB0179954', 'OB0179988', 'OB0180000', 'OB0180197', 'OB0180230', 'OB0180503', 'OB0180605', 'OB0180617', 'OB0180651', 'OB0180799', 'OB0180919', 'OB0180922', 'OB0181088', 'OB0181119', 'OB0181187', 'OB0181235', 'OB0181255', 'OB0181298', 'OB0181301', 'OB0181310', 'OB0181358', 'OB0181427', 'OB0181464', 'OB0181479', 'OB0181516', 'OB0181581', 'OB0181613', 'OB0181644', 'OB0181655', 'OB0181657', 'OB0181802', 'OB0181815', 'OB0181828', 'OB0181926', 'OB0182001', 'OB0182011', 'OB0182040', 'OB0182114', 'OB0182172', 'OB0182192', 'OB0182280', 'OB0182294', 'OB0182358', 'OB0182391', 'OB0182398', 'OB0182414', 'OB0182442', 'OB0182519', 'OB0182547', 'OB0182551', 'OB0182701', 'OB0182703', 'OB0182763', 'OB0182841', 'OB0182899', 'OB0182911', 'OB0182931', 'OB0182966', 'OB0183005', 'OB0183098', 'OB0183122', 'OB0183129', 'OB0183158', 'OB0183214', 'OB0183274', 'OB0183294', 'OB0183295', 'OB0183296', 'OB0183304', 'OB0183338', 'OB0183405', 'OB0183412', 'OB0183453', 'OB0183500', 'OB0183515', 'OB0183561', 'OB0183662', 'OB0183675', 'OB0183685', 'OB0183756', 'OB0183782', 'OB0183858', 'OB0183893', 'OB0183910', 'OB0184029', 'OB0184045', 'OB0184199', 'OB0184289', 'OB0184409', 'OB0184418', 'OB0184474', 'OB0184541', 'OB0184554', 'OB0184555', 'OB0184596', 'OB0184634', 'OB0184648', 'OB0184697', 'OB0184721', 'OB0184801', 'OB0184809', 'OB0184813', 'OB0184842', 'OB0184894', 'OB0184912', 'OB0184916', 'OB0184937', 'OB0184988', 'OB0184994', 'OB0184996', 'OB0185004', 'OB0185040', 'OB0185128', 'OB0185150', 'OB0185174', 'OB0185208', 'OB0185213', 'OB0185348', 'OB0185426', 'OB0185429', 'OB0185430', 'OB0185454', 'OB0185458', 'OB0185521', 'OB0185645', 'OB0185781', 'OB0185791', 'OB0185828', 'OB0185851', 'OB0185859', 'OB0185885', 'OB0186010', 'OB0186033', 'OB0186065', 'OB0186084', 'OB0186114', 'OB0186149', 'OB0186180', 'OB0186213', 'OB0186294', 'OB0186344', 'OB0186355', 'OB0186402', 'OB0186447', 'OB0186456', 'OB0186472', 'OB0186498', 'OB0186507', 'OB0186570', 'OB0186589', 'OB0186646', 'OB0186696', 'OB0186699', 'OB0186748', 'OB0186798', 'OB0186824', 'OB0186835', 'OB0186909', 'OB0186926', 'OB0186943', 'OB0187058', 'OB0187068', 'OB0187091', 'OB0187127', 'OB0187229', 'OB0187240', 'OB0187265', 'OB0187306', 'OB0187339', 'OB0187353', 'OB0187368', 'OB0187436', 'OB0187461', 'OB0187503', 'OB0187510', 'OB0187512', 'OB0187518', 'OB0187628', 'OB0187641', 'OB0187648', 'OB0187667', 'OB0187679', 'OB0187712', 'OB0187724', 'OB0187771', 'OB0187831', 'OB0187920', 'OB0187977', 'OB0187983', 'OB0188007', 'OB0188012', 'OB0188021', 'OB0188022', 'OB0188068', 'OB0188123', 'OB0188126', 'OB0188174', 'OB0188219', 'OB0188270', 'OB0188306', 'OB0188312', 'OB0188324', 'OB0188344', 'OB0188407', 'OB0188439', 'OB0188442', 'OB0188450', 'OB0188470', 'OB0188476', 'OB0188522', 'OB0188533', 'OB0188560', 'OB0188580', 'OB0188589', 'OB0188639', 'OB0188667', 'OB0188803', 'OB0188870', 'OB0188963', 'OB0188979', 'OB0188997', 'OB0189079', 'OB0189167', 'OB0189181', 'OB0189248', 'OB0189349', 'OB0189359', 'OB0189404', 'OB0189446', 'OB0189568', 'OB0189671', 'OB0189774', 'OB0189823', 'OB0189866', 'OB0189871', 'OB0189892', 'OB0189900', 'OB0189907', 'OB0190100', 'OB0190131', 'OB0190174', 'OB0190206', 'OB0190288', 'OB0190355', 'OB0190380', 'OB0190382', 'OB0190498', 'OB0190605', 'OB0190644', 'OB0190657', 'OB0190659', 'OB0190696', 'OB0190709', 'OB0190729', 'OB0190766', 'OB0190808', 'OB0190823', 'OB0190853', 'OB0190872', 'OB0190899', 'OB0190934', 'OB0190940', 'OB0190995', 'OB0191015', 'OB0191066', 'OB0191068', 'OB0191083', 'OB0191168', 'OB0191206', 'OB0191226', 'OB0191283', 'OB0191284', 'OB0191286', 'OB0191321', 'OB0191338', 'OB0191368', 'OB0191398', 'OB0191427', 'OB0191455', 'OB0191499', 'OB0191500', 'OB0191551', 'OB0191568', 'OB0191586', 'OB0191625', 'OB0191679', 'OB0191684', 'OB0191695', 'OB0191760', 'OB0191766', 'OB0191801', 'OB0191903', 'OB0191946', 'OB0191967', 'OB0191977', 'OB0192010', 'OB0192016', 'OB0192038', 'OB0192065', 'OB0192100', 'OB0192118', 'OB0192213', 'OB0192233', 'OB0192242', 'OB0192244', 'OB0192248', 'OB0192259', 'OB0192299', 'OB0192348', 'OB0192410', 'OB0192457', 'OB0192475', 'OB0192500', 'OB0192577', 'OB0192648', 'OB0192691', 'OB0192697', 'OB0192744', 'OB0192760', 'OB0192762', 'OB0192768', 'OB0192791', 'OB0192805', 'OB0192818', 'OB0192819', 'OB0192853', 'OB0192886', 'OB0192890', 'OB0192925', 'OB0192942', 'OB0192946', 'OB0193026', 'OB0193043', 'OB0193066', 'OB0193082', 'OB0193132', 'OB0193147', 'OB0193170', 'OB0193180', 'OB0193189', 'OB0193198', 'OB0193297', 'OB0193342', 'OB0193345', 'OB0193400', 'OB0193415', 'OB0193419', 'OB0193433', 'OB0193445', 'OB0193498', 'OB0193503', 'OB0193509', 'OB0193535', 'OB0193548', 'OB0193621', 'OB0193632', 'OB0193695', 'OB0193742', 'OB0193797', 'OB0193816', 'OB0193838', 'OB0193865', 'OB0193868', 'OB0193876', 'OB0193902', 'OB0193931', 'OB0193996', 'OB0194015', 'OB0194055', 'OB0194068', 'OB0194069', 'OB0194080', 'OB0194094', 'OB0194102', 'OB0194122', 'OB0194138', 'OB0194141', 'OB0194150', 'OB0194231', 'OB0194235', 'OB0194246', 'OB0194251', 'OB0194265', 'OB0194299', 'OB0194371', 'OB0194372', 'OB0194386', 'OB0194388', 'OB0194430', 'OB0194438', 'OB0194475', 'OB0194478', 'OB0194479', 'OB0194496', 'OB0194501', 'OB0194544', 'OB0194553', 'OB0194565', 'OB0194578', 'OB0194584', 'OB0194585', 'OB0194631', 'OB0194648', 'OB0194670', 'OB0194673', 'OB0194685', 'OB0194700', 'OB0194703', 'OB0194709', 'OB0194724', 'OB0194737', 'OB0194750', 'OB0194798', 'OB0194809', 'OB0194817', 'OB0194850', 'OB0194920', 'OB0194949', 'OB0194956', 'OB0194982', 'OB0194996', 'OB0195000', 'OB0195012', 'OB0195030', 'OB0195066', 'OB0195122', 'OB0195132', 'OB0195184', 'OB0195196', 'OB0195243', 'OB0195249', 'OB0195274', 'OB0195285', 'OB0195292', 'OB0195329', 'OB0195332', 'OB0195359', 'OB0195360', 'OB0195366', 'OB0195458', 'OB0195464', 'OB0195495', 'OB0195566', 'OB0195606', 'OB0195674', 'OB0195710', 'OB0195729', 'OB0195759', 'OB0195801', 'OB0195840', 'OB0195876', 'OB0195879', 'OB0195901', 'OB0195959', 'OB0195997', 'OB0195999', 'OB0196032', 'OB0196099', 'OB0196108', 'OB0196115', 'OB0196127', 'OB0196138', 'OB0196149', 'OB0196151', 'OB0196187', 'OB0196240', 'OB0196241', 'OB0196261', 'OB0196270', 'OB0196274', 'OB0196292', 'OB0196347', 'OB0196357', 'OB0196382', 'OB0196394', 'OB0196438', 'OB0196484', 'OB0196570', 'OB0196590', 'OB0196599', 'OB0196616', 'OB0196629', 'OB0196633', 'OB0196650', 'OB0196665', 'OB0196674', 'OB0196708', 'OB0196736', 'OB0196741', 'OB0196759', 'OB0196772', 'OB0196775', 'OB0196776', 'OB0196835', 'OB0196855', 'OB0196869', 'OB0196876', 'OB0196895', 'OB0196901', 'OB0196951', 'OB0196982', 'OB0196983', 'OB0197064', 'OB0197084', 'OB0197124', 'OB0197151', 'OB0197188', 'OB0197189', 'OB0197193', 'OB0197197', 'OB0197222', 'OB0197306', 'OB0197308', 'OB0197344', 'OB0197349', 'OB0197354', 'OB0197389', 'OB0197393', 'OB0197401', 'OB0197435', 'OB0197439', 'OB0197480', 'OB0197498', 'OB0197500', 'OB0197555', 'OB0197593', 'OB0197616', 'OB0197634', 'OB0197666', 'OB0197670', 'OB0197676', 'OB0197700', 'OB0197702', 'OB0197703', 'OB0197721', 'OB0197734', 'OB0197735', 'OB0197755', 'OB0197771', 'OB0197791', 'OB0197796', 'OB0197806', 'OB0197827', 'OB0197829', 'OB0197841', 'OB0197847', 'OB0197918', 'OB0197924', 'OB0197946', 'OB0197956', 'OB0197967', 'OB0197978', 'OB0197982', 'OB0198029', 'OB0198078', 'OB0198102', 'OB0198171', 'OB0198175', 'OB0198194', 'OB0198288', 'OB0198296', 'OB0198337', 'OB0198406', 'OB0198508', 'OB0198537', 'OB0198544', 'OB0198628', 'OB0198636', 'OB0198654', 'OB0198663', 'OB0198682', 'OB0198690', 'OB0198695', 'OB0198753', 'OB0198755', 'OB0198782', 'OB0198794', 'OB0198797', 'OB0198809', 'OB0198814', 'OB0198835', 'OB0198842', 'OB0198852', 'OB0198861', 'OB0198883', 'OB0198909', 'OB0198921', 'OB0198923', 'OB0198937', 'OB0198953', 'OB0198958', 'OB0199008', 'OB0199028', 'OB0199052', 'OB0199061', 'OB0199111', 'OB0199116', 'OB0199128', 'OB0199166', 'OB0199177', 'OB0199230', 'OB0199252', 'OB0199255', 'OB0199256', 'OB0199309', 'OB0199331', 'OB0199350', 'OB0199363', 'OB0199383', 'OB0199407', 'OB0199417', 'OB0199419', 'OB0199439', 'OB0199440', 'OB0199445', 'OB0199489', 'OB0199493', 'OB0199512', 'OB0199609', 'OB0199611', 'OB0199688', 'OB0199712', 'OB0199721', 'OB0199722', 'OB0199745', 'OB0199754', 'OB0199782', 'OB0199818', 'OB0199858', 'OB0199912', 'OB0199923', 'OB0199927', 'OB0199970', 'OB0199974', 'OB0199975', 'OB0199985', 'OB0200516', 'OB0200526', 'OB0200529', 'OB0200627', 'OB0200664', 'OB0200729', 'OB0200733', 'OB0200920', 'OB0201024', 'OB0201083', 'OB0202045', 'OB0202065', 'OB0202119', 'OB0202134', 'OB0202162', 'OB0202163', 'OB0202190', 'OB0202201', 'OB0202218', 'OB0202237', 'OB0202268', 'OB0202277', 'OB0202315', 'OB0202353', 'OB0202376', 'OB0202444', 'OB0202454', 'OB0202466', 'OB0202473', 'OB0202478', 'OB0202526', 'OB0202529', 'OB0202543', 'OB0202575', 'OB0202576', 'OB0202584', 'OB0202611', 'OB0202628', 'OB0202642', 'OB0202706', 'OB0202721', 'OB0202728', 'OB0202766', 'OB0202777', 'OB0202781', 'OB0202837', 'OB0202847', 'OB0202856', 'OB0202866', 'OB0202889', 'OB0202898', 'OB0202911', 'OB0202970', 'OB0202983', 'OB0202988', 'OB0203017', 'OB0203028', 'OB0203030', 'OB0203052', 'OB0203094', 'OB0203109', 'OB0203139', 'OB0203196', 'OB0203206', 'OB0203267', 'OB0203271', 'OB0203289', 'OB0203292', 'OB0203302', 'OB0203310', 'OB0203344', 'OB0203416', 'OB0203434', 'OB0203474', 'OB0203521', 'OB0203545', 'OB0203562', 'OB0203588', 'OB0203597', 'OB0203625', 'OB0203637', 'OB0203669', 'OB0203696', 'OB0203701', 'OB0203723', 'OB0203726', 'OB0203729', 'OB0203756', 'OB0203771', 'OB0203808', 'OB0203833', 'OB0203860', 'OB0203991', 'OB0203999', 'OB0204000', 'OB0204003', 'OB0204008', 'OB0204037', 'OB0204042', 'OB0204067', 'OB0204075', 'OB0204094', 'OB0204139', 'OB0204155', 'OB0204168', 'OB0204170', 'OB0204176', 'OB0204177', 'OB0204193', 'OB0204195', 'OB0204205', 'OB0204214', 'OB0204243', 'OB0204259', 'OB0204263', 'OB0204273', 'OB0204287', 'OB0204297', 'OB0204324', 'OB0204403', 'OB0204441', 'OB0204445', 'OB0204447', 'OB0204556', 'OB0204561', 'OB0204585', 'OB0204635', 'OB0204653', 'OB0204705', 'OB0204751', 'OB0204787', 'OB0204795', 'OB0204800', 'OB0204852', 'OB0204853', 'OB0204887', 'OB0204913', 'OB0204929', 'OB0204931', 'OB0204936', 'OB0204943', 'OB0204945', 'OB0204961', 'OB0204997', 'OB0205005', 'OB0205009', 'OB0205026', 'OB0205041', 'OB0205047', 'OB0205074', 'OB0205119', 'OB0205129', 'OB0205146', 'OB0205166', 'OB0205187', 'OB0205220', 'OB0205222', 'OB0205283', 'OB0205286', 'OB0205287', 'OB0205290', 'OB0205293', 'OB0205294', 'OB0205298', 'OB0205306', 'OB0205314', 'OB0205326', 'OB0205327', 'OB0205333', 'OB0205336', 'OB0205349', 'OB0205353', 'OB0205359', 'OB0205364', 'OB0205365', 'OB0205377', 'OB0205380', 'OB0205383', 'OB0205413', 'OB0205450', 'OB0205452', 'OB0205454', 'OB0205460', 'OB0205476', 'OB0205497', 'OB0205505', 'OB0205513', 'OB0205541', 'OB0205542', 'OB0205543', 'OB0205547', 'OB0205561', 'OB0205563', 'OB0205565', 'OB0205584', 'OB0205592', 'OB0205611', 'OB0205614', 'OB0205625', 'OB0205631', 'OB0205634', 'OB0205652', 'OB0205654', 'OB0205702', 'OB0205703', 'OB0205705', 'OB0205729', 'OB0205747', 'OB0205748', 'OB0205755', 'OB0205775', 'OB0205791', 'OB0205813', 'OB0205840', 'OB0205847', 'OB0205850', 'OB0205854', 'OB0205867', 'OB0205877', 'OB0205905', 'OB0205911', 'OB0205964', 'OB0205976', 'OB0205985', 'OB0206015', 'OB0206017', 'OB0206055', 'OB0206069', 'OB0206070', 'OB0206074', 'OB0206083', 'OB0206094', 'OB0206097', 'OB0206108', 'OB0206115', 'OB0206123', 'OB0206161', 'OB0206177', 'OB0206187', 'OB0206199', 'OB0206214', 'OB0206221', 'OB0206222', 'OB0206270', 'OB0206274', 'OB0206276', 'OB0206278', 'OB0206283', 'OB0206296', 'OB0206301', 'OB0206304', 'OB0206306', 'OB0206313', 'OB0206315', 'OB0206317', 'OB0206329', 'OB0206336', 'OB0206342', 'OB0206350', 'OB0206352', 'OB0206365', 'OB0206376', 'OB0206381', 'OB0206384', 'OB0206390', 'OB0206392', 'OB0206408', 'OB0206413', 'OB0206417', 'OB0206449', 'OB0206462', 'OB0206463', 'OB0206478', 'OB0206484', 'OB0206486', 'OB0206488', 'OB0206489', 'OB0206495', 'OB0206504', 'OB0206522', 'OB0206538', 'OB0206551', 'OB0206561', 'OB0206586', 'OB0206594', 'OB0206621', 'OB0206635', 'OB0206657', 'OB0206659', 'OB0206667', 'OB0206674', 'OB0206710', 'OB0206724', 'OB0206745', 'OB0206783', 'OB0206790', 'OB0206798', 'OB0206804', 'OB0206813', 'OB0206816', 'OB0206839', 'OB0206844', 'OB0206849', 'OB0206855', 'OB0206858', 'OB0206899', 'OB0206925', 'OB0206953', 'OB0206958', 'OB0206996', 'OB0206997', 'OB0206999', 'OB0207017', 'OB0207021', 'OB0207073', 'OB0207079', 'OB0207092', 'OB0207099', 'OB0207114', 'OB0207137', 'OB0207144', 'OB0207147', 'OB0207157', 'OB0207186', 'OB0207222', 'OB0207257', 'OB0207265', 'OB0207275', 'OB0207287', 'OB0207319', 'OB0207326', 'OB0207351', 'OB0207359', 'OB0207372', 'OB0207407', 'OB0207417', 'OB0207423', 'OB0207434', 'OB0207443', 'OB0207445', 'OB0207449', 'OB0207470', 'OB0207494', 'OB0207500', 'OB0207511', 'OB0207516', 'OB0207522', 'OB0207525', 'OB0207534', 'OB0207550', 'OB0207554', 'OB0207555', 'OB0207569', 'OB0207577', 'OB0207583', 'OB0207588', 'OB0207613', 'OB0207628', 'OB0207646', 'OB0207670', 'OB0207683', 'OB0207684', 'OB0207685', 'OB0207694', 'OB0207747', 'OB0207768', 'OB0207770', 'OB0207780', 'OB0207804', 'OB0207808', 'OB0207812', 'OB0207815', 'OB0207840', 'OB0207852', 'OB0207892', 'OB0207897', 'OB0207904', 'OB0207910', 'OB0207925', 'OB0207926', 'OB0207948', 'OB0207967', 'OB0207982', 'OB0208034', 'OB0208050', 'OB0208076', 'OB0208100', 'OB0208191', 'OB0208193', 'OB0208201', 'OB0208224', 'OB0208227', 'OB0208243', 'OB0208244', 'OB0208247', 'OB0208251', 'OB0208257', 'OB0208259', 'OB0208271', 'OB0208296', 'OB0208302', 'OB0208322', 'OB0208330', 'OB0208354', 'OB0208404', 'OB0208464', 'OB0208482', 'OB0208511', 'OB0208521', 'OB0208526', 'OB0208594', 'OB0208670', 'OB0208700', 'OB0208755', 'OB0208756', 'OB0208791', 'OB0208797', 'OB0208835', 'OB0208879', 'OB0208911', 'OB0208946', 'OB0208951', 'OB0209095', 'OB0209143', 'OB0209153', 'OB0209163', 'OB0209169', 'OB0209175', 'OB0209187', 'OB0209206', 'OB0209220', 'OB0209235', 'OB0209241', 'OB0209244', 'OB0209258', 'OB0209262', 'OB0209277', 'OB0209306', 'OB0209324', 'OB0209325', 'OB0209350', 'OB0209355', 'OB0209358', 'OB0209371', 'OB0209375', 'OB0209400', 'OB0209413', 'OB0209430', 'OB0209456', 'OB0209468', 'OB0209473', 'OB0209485', 'OB0209493', 'OB0209526', 'OB0209537', 'OB0209567', 'OB0209603', 'OB0209633', 'OB0209642', 'OB0209650', 'OB0209661', 'OB0209691', 'OB0209740', 'OB0209765', 'OB0209782', 'OB0209793', 'OB0209794', 'OB0209843', 'OB0209848', 'OB0209855', 'OB0209858', 'OB0209934', 'OB0209946', 'OB0209951', 'OB0209981', 'OB0209996', 'OB0209999', 'OB0210061', 'OB0210068', 'OB0210078', 'OB0210103', 'OB0210138', 'OB0210139', 'OB0210185', 'OB0210208', 'OB0210213', 'OB0210239', 'OB0210260', 'OB0210292', 'OB0210295', 'OB0210309', 'OB0210348', 'OB0210354', 'OB0210367', 'OB0210395', 'OB0210421', 'OB0210497', 'OB0210508', 'OB0210519', 'OB0210521', 'OB0210524', 'OB0210528', 'OB0210539', 'OB0210552', 'OB0210557', 'OB0210572', 'OB0210576', 'OB0210583', 'OB0210597', 'OB0210626', 'OB0210651', 'OB0210654', 'OB0210655', 'OB0210666', 'OB0210670', 'OB0210726', 'OB0210729', 'OB0210743', 'OB0210748', 'OB0210752', 'OB0210760', 'OB0210774', 'OB0210775', 'OB0210788', 'OB0210790', 'OB0210801', 'OB0210828', 'OB0210863', 'OB0210868', 'OB0210873', 'OB0210886', 'OB0210887', 'OB0210889', 'OB0210892', 'OB0210901', 'OB0210919', 'OB0210961', 'OB0210963', 'OB0210966', 'OB0210989', 'OB0211010', 'OB0211015', 'OB0211020', 'OB0211022', 'OB0211028', 'OB0211029', 'OB0211039', 'OB0211045', 'OB0211048', 'OB0211052', 'OB0211064', 'OB0211076', 'OB0211085', 'OB0211147', 'OB0211149', 'OB0211152', 'OB0211153', 'OB0211154', 'OB0211160', 'OB0211161', 'OB0211173', 'OB0211182', 'OB0211184', 'OB0211185', 'OB0211208', 'OB0211212', 'OB0211213', 'OB0211216', 'OB0211223', 'OB0211226', 'OB0211230', 'OB0211231', 'OB0211277', 'OB0211293', 'OB0211313', 'OB0211343', 'OB0211386', 'OB0211412', 'OB0211426', 'OB0211427', 'OB0211437', 'OB0211439', 'OB0211448', 'OB0211467', 'OB0211479', 'OB0211481', 'OB0211488', 'OB0211492', 'OB0211493', 'OB0211496', 'OB0211520', 'OB0211523', 'OB0211547', 'OB0211559', 'OB0211572', 'OB0211600', 'OB0211602', 'OB0211616', 'OB0211622', 'OB0211627', 'OB0211639', 'OB0211674', 'OB0211692', 'OB0211699', 'OB0211700', 'OB0211705', 'OB0211720', 'OB0211743', 'OB0211744', 'OB0211756', 'OB0211762', 'OB0211772', 'OB0211775', 'OB0211779', 'OB0211793', 'OB0211795', 'OB0211803', 'OB0211823', 'OB0211827', 'OB0211840', 'OB0211846', 'OB0211855', 'OB0211872', 'OB0211886', 'OB0211894', 'OB0211924', 'OB0211948', 'OB0211989', 'OB0211993', 'OB0212038', 'OB0212089', 'OB0212109', 'OB0212122', 'OB0212129', 'OB0212133', 'OB0212137', 'OB0212155', 'OB0212156', 'OB0212207', 'OB0212210', 'OB0212224', 'OB0212252', 'OB0212257', 'OB0212280', 'OB0212334', 'OB0212336', 'OB0212345', 'OB0212358', 'OB0212383', 'OB0212414', 'OB0212417', 'OB0212421', 'OB0212443', 'OB0212450', 'OB0212478', 'OB0212487', 'OB0212510', 'OB0212570', 'OB0212581', 'OB0212586', 'OB0212641', 'OB0212657', 'OB0212682', 'OB0212738', 'OB0212743', 'OB0212764', 'OB0212765', 'OB0212768', 'OB0212769', 'OB0212822', 'OB0212836', 'OB0212874', 'OB0212880', 'OB0212889', 'OB0212914', 'OB0212965', 'OB0212985', 'OB0212991', 'OB0212995', 'OB0213011', 'OB0213020', 'OB0213052', 'OB0213062', 'OB0213065', 'OB0213118', 'OB0213124', 'OB0213133', 'OB0213137', 'OB0213157', 'OB0213160', 'OB0213180', 'OB0213187', 'OB0213190', 'OB0213199', 'OB0213201', 'OB0213210', 'OB0213228', 'OB0213265', 'OB0213284', 'OB0213301', 'OB0213313', 'OB0213325', 'OB0213328', 'OB0213343', 'OB0213344', 'OB0213352', 'OB0213382', 'OB0213392', 'OB0213402', 'OB0213410', 'OB0213423', 'OB0213442', 'OB0213464', 'OB0213468', 'OB0213488', 'OB0213538', 'OB0213539', 'OB0213541', 'OB0213546', 'OB0213557', 'OB0213558', 'OB0213581', 'OB0213590', 'OB0213603', 'OB0213605', 'OB0213608', 'OB0213621', 'OB0213645', 'OB0213653', 'OB0213699', 'OB0213712', 'OB0213731', 'OB0213741', 'OB0213812', 'OB0213815', 'OB0213824', 'OB0213825', 'OB0213828', 'OB0213833', 'OB0213839', 'OB0213850', 'OB0213866', 'OB0213906', 'OB0213932', 'OB0214006', 'OB0214050', 'OB0214101', 'OB0214112', 'OB0214120', 'OB0214154', 'OB0214158', 'OB0214178', 'OB0214208', 'OB0214217', 'OB0214220', 'OB0214230', 'OB0214264', 'OB0214312', 'OB0214338', 'OB0214344', 'OB0214350', 'OB0214367', 'OB0214407', 'OB0214413', 'OB0214434', 'OB0214435', 'OB0214460', 'OB0214476', 'OB0214510', 'OB0214513', 'OB0214517', 'OB0214520', 'OB0214536', 'OB0214545', 'OB0214555', 'OB0214571', 'OB0214581', 'OB0214589', 'OB0214682', 'OB0214697', 'OB0214703', 'OB0214708', 'OB0214714', 'OB0214737', 'OB0214740', 'OB0214770', 'OB0214772', 'OB0214788', 'OB0214793', 'OB0214799', 'OB0214814', 'OB0214830', 'OB0214831', 'OB0214838', 'OB0214920', 'OB0214922', 'OB0214963', 'OB0214978', 'OB0215014', 'OB0215022', 'OB0215023', 'OB0215027', 'OB0215031', 'OB0215069', 'OB0215110', 'OB0215117', 'OB0215121', 'OB0215130', 'OB0215173', 'OB0215178', 'OB0215184', 'OB0215188', 'OB0215290', 'OB0215305', 'OB0215309', 'OB0215315', 'OB0215323', 'OB0215330', 'OB0215346', 'OB0215356', 'OB0215363', 'OB0215384', 'OB0215396', 'OB0215421', 'OB0215434', 'OB0215453', 'OB0215456', 'OB0215459', 'OB0215475', 'OB0215490', 'OB0215502', 'OB0215521', 'OB0215531', 'OB0215535', 'OB0215560', 'OB0215570', 'OB0215584', 'OB0215592', 'OB0215621', 'OB0215622', 'OB0215626', 'OB0215645', 'OB0215657', 'OB0215663', 'OB0215676', 'OB0215691', 'OB0215745', 'OB0215796', 'OB0215894', 'OB0215913', 'OB0215925', 'OB0215947', 'OB0215978', 'OB0215986', 'OB0216024', 'OB0216054', 'OB0216068', 'OB0216079', 'OB0216137', 'OB0216142', 'OB0216180', 'OB0216204', 'OB0216237', 'OB0216265', 'OB0216327', 'OB0216340', 'OB0216363', 'OB0216371', 'OB0216384', 'OB0216389', 'OB0216399', 'OB0216430', 'OB0216446', 'OB0216450', 'OB0216488', 'OB0216490', 'OB0216500', 'OB0216505', 'OB0216507', 'OB0216527', 'OB0216533', 'OB0216547', 'OB0216550', 'OB0216637', 'OB0216655', 'OB0216674', 'OB0216675', 'OB0216724', 'OB0216760', 'OB0216768', 'OB0216773', 'OB0216822', 'OB0216824', 'OB0216838', 'OB0216850', 'OB0216858', 'OB0216886', 'OB0216900', 'OB0216924', 'OB0216940', 'OB0216953', 'OB0216994', 'OB0216995', 'OB0217015', 'OB0217016', 'OB0217019', 'OB0217028', 'OB0217038', 'OB0217041', 'OB0217088', 'OB0217107', 'OB0217172', 'OB0217245', 'OB0217291', 'OB0217340', 'OB0217384', 'OB0217404', 'OB0217419', 'OB0217445', 'OB0217475', 'OB0217477', 'OB0217492', 'OB0217519', 'OB0217554', 'OB0217585', 'OB0217619', 'OB0217625', 'OB0217639', 'OB0217651', 'OB0217655', 'OB0217729', 'OB0217780', 'OB0217819', 'OB0217824', 'OB0217830', 'OB0217838', 'OB0217850', 'OB0217985', 'OB0217996', 'OB0218005', 'OB0218018', 'OB0218058', 'OB0218063', 'OB0218068', 'OB0218075', 'OB0218085', 'OB0218112', 'OB0218128', 'OB0218137', 'OB0218166', 'OB0218172', 'OB0218223', 'OB0218256', 'OB0218271', 'OB0218286', 'OB0218335', 'OB0218341', 'OB0218349', 'OB0218364', 'OB0218372', 'OB0218375', 'OB0218376', 'OB0218377', 'OB0218390', 'OB0218393', 'OB0218418', 'OB0218439', 'OB0218471', 'OB0218483', 'OB0218491', 'OB0218553', 'OB0218562', 'OB0218569', 'OB0218579', 'OB0218586', 'OB0218640', 'OB0218645', 'OB0218678', 'OB0218744', 'OB0218790', 'OB0218798', 'OB0218807', 'OB0218808', 'OB0218810', 'OB0218817', 'OB0218829', 'OB0218862', 'OB0218878', 'OB0218942', 'OB0218963', 'OB0218990', 'OB0219013', 'OB0219015', 'OB0219017', 'OB0219026', 'OB0219062', 'OB0219074', 'OB0219084', 'OB0219101', 'OB0219102', 'OB0219111', 'OB0219126', 'OB0219128', 'OB0219131', 'OB0219142', 'OB0219143', 'OB0219147', 'OB0219175', 'OB0219177', 'OB0219185', 'OB0219217', 'OB0219220', 'OB0219224', 'OB0219234', 'OB0219246', 'OB0219251', 'OB0219258', 'OB0219266', 'OB0219277', 'OB0219285', 'OB0219287', 'OB0219292', 'OB0219297', 'OB0219304', 'OB0219341', 'OB0219349', 'OB0219368', 'OB0219390', 'OB0219392', 'OB0219398', 'OB0219417', 'OB0219421', 'OB0219428', 'OB0219437', 'OB0219455', 'OB0219468', 'OB0219475', 'OB0219481', 'OB0219487', 'OB0219494', 'OB0219499', 'OB0219503', 'OB0219512', 'OB0219515', 'OB0219516', 'OB0219539', 'OB0219556', 'OB0219562', 'OB0219585', 'OB0219596', 'OB0219616', 'OB0219618', 'OB0219624', 'OB0219630', 'OB0219656', 'OB0219666', 'OB0219678', 'OB0219682', 'OB0219684', 'OB0219685', 'OB0219686', 'OB0219694', 'OB0219701', 'OB0219713', 'OB0219714', 'OB0219720', 'OB0219731', 'OB0219734', 'OB0219735', 'OB0219738', 'OB0219740', 'OB0219743', 'OB0219761', 'OB0219780', 'OB0219781', 'OB0219805', 'OB0219809', 'OB0219825', 'OB0219828', 'OB0219841', 'OB0219842', 'OB0219855', 'OB0219858', 'OB0219860', 'OB0219866', 'OB0219870', 'OB0219876', 'OB0219888', 'OB0219903', 'OB0219911', 'OB0219926', 'OB0219931', 'OB0219933', 'OB0219934', 'OB0219961', 'OB0219971', 'OB0219973', 'OB0219980', 'OB0219989', 'OB0220005', 'OB0220023', 'OB0220028', 'OB0220043', 'OB0220049', 'OB0220052', 'OB0220066', 'OB0220079', 'OB0220089', 'OB0220090', 'OB0220096', 'OB0220131', 'OB0220140', 'OB0220152', 'OB0220155', 'OB0220158', 'OB0220161', 'OB0220181', 'OB0220227', 'OB0220229', 'OB0220295', 'OB0220301', 'OB0220309', 'OB0220310', 'OB0220314', 'OB0220333', 'OB0220334', 'OB0220351', 'OB0220358', 'OB0220369', 'OB0220375', 'OB0220376', 'OB0220382', 'OB0220405', 'OB0220408', 'OB0220413', 'OB0220419', 'OB0220426', 'OB0220439', 'OB0220448', 'OB0220453', 'OB0220461', 'OB0220471', 'OB0220478', 'OB0220480', 'OB0220521', 'OB0220574', 'OB0220597', 'OB0220620', 'OB0220624', 'OB0220659', 'OB0220674', 'OB0220678', 'OB0220685', 'OB0220686', 'OB0220687', 'OB0220688', 'OB0220704', 'OB0220726', 'OB0220727', 'OB0220731', 'OB0220741', 'OB0220745', 'OB0220761', 'OB0220765', 'OB0220771', 'OB0220803', 'OB0220804', 'OB0220818', 'OB0220836', 'OB0220847', 'OB0220869', 'OB0220926', 'OB0220949', 'OB0220954', 'OB0220967', 'OB0220968', 'OB0220980', 'OB0220985', 'OB0221002', 'OB0221007', 'OB0221010', 'OB0221018', 'OB0221026', 'OB0221027', 'OB0221029', 'OB0221034', 'OB0221036', 'OB0221039', 'OB0221041', 'OB0221043', 'OB0221052', 'OB0221068', 'OB0221098', 'OB0221118', 'OB0221119', 'OB0221140', 'OB0221147', 'OB0221157', 'OB0221169', 'OB0221181', 'OB0221189', 'OB0221200', 'OB0221201', 'OB0221220', 'OB0221235', 'OB0221239', 'OB0221244', 'OB0221271', 'OB0221277', 'OB0221291', 'OB0221297', 'OB0221311', 'OB0221334', 'OB0221363', 'OB0221384', 'OB0221400', 'OB0221404', 'OB0221411', 'OB0221412', 'OB0221425', 'OB0221429', 'OB0221431', 'OB0221448', 'OB0221461', 'OB0221467', 'OB0221474', 'OB0221482', 'OB0221491', 'OB0221509', 'OB0221530', 'OB0221532', 'OB0221551', 'OB0221552', 'OB0221567', 'OB0221571', 'OB0221584', 'OB0221588', 'OB0221610', 'OB0221619', 'OB0221622', 'OB0221631', 'OB0221639', 'OB0221641', 'OB0221670', 'OB0221675', 'OB0221682', 'OB0221694', 'OB0221726', 'OB0221760', 'OB0221761', 'OB0221791', 'OB0221796', 'OB0221820', 'OB0221821', 'OB0221837', 'OB0221844', 'OB0221849', 'OB0221865', 'OB0221877', 'OB0221878', 'OB0221900', 'OB0221902', 'OB0221921', 'OB0221930', 'OB0221953', 'OB0221970', 'OB0221989', 'OB0221992', 'OB0221999', 'OB0222010', 'OB0222012', 'OB0222013', 'OB0222046', 'OB0222095', 'OB0222104', 'OB0222107', 'OB0222116', 'OB0222119', 'OB0222123', 'OB0222127', 'OB0222129', 'OB0222159', 'OB0222164', 'OB0222171', 'OB0222191', 'OB0222217', 'OB0222233', 'OB0222243', 'OB0222259', 'OB0222281', 'OB0222293', 'OB0222313', 'OB0222339', 'OB0222352', 'OB0222374', 'OB0222382', 'OB0222408', 'OB0222411', 'OB0222436', 'OB0222460', 'OB0222468', 'OB0222480', 'OB0222491', 'OB0222535', 'OB0222550', 'OB0222557', 'OB0222599', 'OB0222604', 'OB0222611', 'OB0222621', 'OB0222648', 'OB0222680', 'OB0222703', 'OB0222721', 'OB0222724', 'OB0222732', 'OB0222742', 'OB0222752', 'OB0222756', 'OB0222760', 'OB0222761', 'OB0222766', 'OB0222774', 'OB0222780', 'OB0222782', 'OB0222792', 'OB0222808', 'OB0222812', 'OB0222815', 'OB0222850', 'OB0222856', 'OB0222857', 'OB0222861', 'OB0222880', 'OB0222882', 'OB0222890', 'OB0222897', 'OB0222898', 'OB0222903', 'OB0222915', 'OB0222920', 'OB0222921', 'OB0222924', 'OB0222941', 'OB0222960', 'OB0223001', 'OB0223032', 'OB0223038', 'OB0223041', 'OB0223068', 'OB0223071', 'OB0223081', 'OB0223085', 'OB0223091', 'OB0223093', 'OB0223111', 'OB0223118', 'OB0223165', 'OB0223176', 'OB0223206', 'OB0223210', 'OB0223213', 'OB0223222', 'OB0223228', 'OB0223240', 'OB0223243', 'OB0223317', 'OB0223332', 'OB0223342', 'OB0223343', 'OB0223345', 'OB0223355', 'OB0223368', 'OB0223369', 'OB0223374', 'OB0223421', 'OB0223434', 'OB0223449', 'OB0223464', 'OB0223466', 'OB0223472', 'OB0223473', 'OB0223479', 'OB0223484', 'OB0223495', 'OB0223517', 'OB0223522', 'OB0223523', 'OB0223547', 'OB0223558', 'OB0223579', 'OB0223580', 'OB0223604', 'OB0223606', 'OB0223616', 'OB0223657', 'OB0223675', 'OB0223677', 'OB0223681', 'OB0223686', 'OB0223692', 'OB0223693', 'OB0223723', 'OB0223732', 'OB0223745', 'OB0223748', 'OB0223768', 'OB0223771', 'OB0223798', 'OB0223804', 'OB0223819', 'OB0223854', 'OB0223894', 'OB0223931', 'OB0223966', 'OB0223991', 'OB0224003', 'OB0224008', 'OB0224011', 'OB0224013', 'OB0224034', 'OB0224041', 'OB0224044', 'OB0224046', 'OB0224066', 'OB0224070', 'OB0224076', 'OB0224079', 'OB0224112', 'OB0224126', 'OB0224142', 'OB0224148', 'OB0224156', 'OB0224160', 'OB0224163', 'OB0224172', 'OB0224184', 'OB0224188', 'OB0224207', 'OB0224236', 'OB0224275', 'OB0224278', 'OB0224279', 'OB0224296', 'OB0224313', 'OB0224319', 'OB0224329', 'OB0224339', 'OB0224342', 'OB0224367', 'OB0224378', 'OB0224385', 'OB0224414', 'OB0224426', 'OB0224462', 'OB0224467', 'OB0224475', 'OB0224498', 'OB0224499', 'OB0224539', 'OB0224570', 'OB0224577', 'OB0224605', 'OB0224628', 'OB0224634', 'OB0224644', 'OB0224655', 'OB0224673', 'OB0224674', 'OB0224681', 'OB0224689', 'OB0224713', 'OB0224726', 'OB0224752', 'OB0224754', 'OB0224760', 'OB0224761', 'OB0224781', 'OB0224782', 'OB0224789', 'OB0224792', 'OB0224822', 'OB0224836', 'OB0224843', 'OB0224860', 'OB0224886', 'OB0224892', 'OB0224897', 'OB0224928', 'OB0224930', 'OB0224960', 'OB0224968', 'OB0224971', 'OB0224994', 'OB0224999', 'OB0225021', 'OB0225052', 'OB0225057', 'OB0225089', 'OB0225096', 'OB0225117', 'OB0225118', 'OB0225151', 'OB0225153', 'OB0225157', 'OB0225169', 'OB0225179', 'OB0225190', 'OB0225191', 'OB0225205', 'OB0225212', 'OB0225218', 'OB0225226', 'OB0225230', 'OB0225246', 'OB0225249', 'OB0225254', 'OB0225256', 'OB0225305', 'OB0225306', 'OB0225310', 'OB0225314', 'OB0225315', 'OB0225327', 'OB0225341', 'OB0225347', 'OB0225355', 'OB0225358', 'OB0225359', 'OB0225372', 'OB0225381', 'OB0225386', 'OB0225416', 'OB0225417', 'OB0225422', 'OB0225447', 'OB0225466', 'OB0225482', 'OB0225499', 'OB0225501', 'OB0225502', 'OB0225505', 'OB0225513', 'OB0225544', 'OB0225548', 'OB0225558', 'OB0225563', 'OB0225569', 'OB0225571', 'OB0225574', 'OB0225624', 'OB0225626', 'OB0225629', 'OB0225633', 'OB0225641', 'OB0225656', 'OB0225666', 'OB0225676', 'OB0225684', 'OB0225692', 'OB0225697', 'OB0225703', 'OB0225713', 'OB0225726', 'OB0225751', 'OB0225793', 'OB0225806', 'OB0225832', 'OB0225834', 'OB0225886', 'OB0225888', 'OB0225905', 'OB0225915', 'OB0225938', 'OB0225960', 'OB0226029', 'OB0226036', 'OB0226041', 'OB0226042', 'OB0226043', 'OB0226047', 'OB0226100', 'OB0226132', 'OB0226149', 'OB0226159', 'OB0226181', 'OB0226188', 'OB0226196', 'OB0226273', 'OB0226300', 'OB0226309', 'OB0226319', 'OB0226333', 'OB0226345', 'OB0226362', 'OB0226365', 'OB0226383', 'OB0226385', 'OB0226400', 'OB0226402', 'OB0226407', 'OB0226421', 'OB0226453', 'OB0226462', 'OB0226468', 'OB0226469', 'OB0226470', 'OB0226479', 'OB0226483', 'OB022</t>
         </is>
@@ -765,12 +793,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>23153</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>6208311</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>46409</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t xml:space="preserve">["'BODICOTE', 3 CAMBRIDGE AV, BURNHAM", "'EIDELWEISS', COTON HAYES, MILWICH", "'ELENORE', SHRUBCOTE", "'HUNTERS MOON', RHEDA PARK", "'KYAWANA', GOURDERS LANE, KINGSKERSWELL", "'LOGANRUSH', WYMINGTON LANE", "'OCEAN WELLS', SHAP", "'REAR'  5 PEACOCK STREET WEST, PALLION", "'WALNUT MILL', 107 CHEQUERS ROAD, MINSTER ON SEA", "'Y' BONT, SOUTH ROAD", '(BEHIND) UNIT 10, PONTNEWYNYDD INDUSTRIAL ESTATE, PONTNEWYNYDD', '(F H BATES), NORTH END, SWINESHEAD', '(IN ADMINISTRATION), BEGBIES TRAYNOR, 9TH FLOOR, 9 BOND COURT', '(OFF DYCE DRIVE), DYCE', '(REAR OF ST JOHNS), RADSTOCK ROAD, MIDSOMER NORTON', '(REAR OF) 2 BLOORS LANE, RAINHAM', '(REAR OF) 7 HIGH STREET, PENSNETT', '(REAR OF) RICHARD STREET, HETTON-LE-HOLE', ', PURBROOK ROAD', ', STATION ROAD', ', THURLEIGH AIRFIELD BUSINESS PARK, THURLEIGH', ',29  MELROSE AVENUE', ',3  SILVERTREES ROAD', ',3 Tanrallt', ',388  LORDS WOOD LANE, WALDERSLADE', '02 BOUNDARY WAY, HEMEL HEMPSTEAD INDUSTRIAL ESTATE', '02 STRICKLAND COURT, CORNEY SQUARE', '03 BANKHEAD AVENUE, BANKHEAD INDUSTRIAL ESTATE', '07 WINDSOR GARDENS', '1  HODGKINSON ROAD, FELIXSTOWE, SUFFOLK', '1  LOCHFIELD ROAD, SUMMERVILLE', '1  MCKAY TRADING ESTATE, BLACKTHORNE ROAD, COLNBROOK', '1  SHORTWOOD COMMON', '1 &amp; 2 RACKHAM &amp; SONS LTD, THE COMMON, STUSTON', '1 &amp; 2, HARMONY HOUSE, TRELEIGH INDUSTRIAL ESTATE, JON DAVEY DRIVE', '1 , LAKING AVENUE', '1 , WENTWORTH GARDENS, ST THOMAS', '1 - 2 THE COTTAGES, NORTHFLEET GREEN, SOUTHFLEET', '1 - 3 SCHOOL GREEN, SHINFIELD', '1 ABBEY VIEW ROAD, PINVIN', '1 ABINGDON RD', '1 ADAMS COURT, ADAMS HILL', '1 ADAMS DRIVE, ROTHWELL', '1 ADMIRAL WAY, DOXFORD INTERNATIONAL BUSINESS PARK', '1 ADWELL DRIVE, LOWER EARLEY', '1 AEL Y BRYN, WAUNFAWR', '1 AHMOR', '1 AIDAN ROAD, AMBLE', '1 AIREDALE VIEW, CROSS HILLS', '1 AIRFIELD FARM COTTAGE, COUSLAND', '1 AITKEN AV', '1 AITKENHEAD AV, KIRKWOOD', '1 ALANDENE AVENUE, WATNALL', '1 ALBANS VIEW, LEAVESDEN', '1 ALBION COURT, WOODVILLE STREET', '1 ALDENS BUSINESS COURT, 7A CHUDLEIGH ROAD, ALPLINGTON', '1 ALDER COURT, RENNIE HOGG ROAD', '1 ALDERMAN GARDENS', '1 ALDINGTON COTTAGE, PILGRIMS WAY, THURNHAM', '1 ALEXANDER COTTAGE, PITSFORD ROAD, CHAPEL BRAMPTON', '1 ALEXANDRA ROAD', '1 ALMA ST', '1 ALMA STREET', '1 ALYN TERRACE, WREXHAM ROAD, PONTBLYDDYN', '1 AMBER RISE', '1 AMIS CLOSE', '1 ANEURIN ROAD', '1 ANGUS RD, SCONE', '1 ANGUS ROAD, SCONE', '1 ANSON CLOSE', '1 ANSULT COURT, BENTLEY', '1 ANTONINE ST, CAMELON', '1 ARDESSIE, DUNDONNELL', '1 ARMITAGE GARDENS', '1 ASHDALE ROAD', '1 ASHLINE GROVE, WHITTLESEY', '1 ASHWATER CLOSE, SINFIN', '1 ASHWOOD MEADOWS, HORDEN', '1 ATHELSTAN RD, HAROLD WOOD', '1 ATHERSTONE CLOSE', '1 AUDLEY STREET, MOSSLEY', '1 AVEBURY CLOSE', '1 AYTON RD, SEAMER', '1 AYTON ROAD, SEAMER', '1 BAILIFFS CLOSE', '1 BALDWIN ROAD, BURNHAM', '1 BALMORAL ROAD', '1 BALTIC PL', '1 BANISTER GARDENS', '1 BANKEND ORCHARD, COTTON STREET', '1 BANKWOOD, WARREN STREET ROAD, CHARING', '1 BAR HILL PLACE, KILSYTH', '1 BARKERS LANE', '1 BARKING CLOSE', '1 BARLOW WAY SOUTH, FAIRVIEWS INDUSTRIAL ESTATE, MARSH WAY', '1 BARNFORDHILL CLOSE', '1 BARNWELL CLOSE, STRAMSHALL', '1 BARRINGTON COURT, WARD ROAD, BUCKINGHAM ROAD INDUSTRIAL ESTATE', '1 BARRINGTON ROAD, ORWELL', '1 BARTON TERRACE, FAULDHOUSE', '1 BASILDON BUSINESS CENTRE, BENTALLS', '1 BAURCH,, RIGG', '1 BELFRY ROAD, CROSS GREEN APPROACH, CROSS GREEN INDUSTRIAL ESTATE', '1 BELLA VISTA, PATH HILL, GORING HEATH', '1 BELLFIELD, LITTLE BRECHIN', '1 BELSTANE ROAD, BLAIRLINN IND EST, CUMBERNAULD', '1 BENTLEY DRIVE, SYDNEY', '1 BERACHAH ROAD', '1 BERESFORD ROAD, CHAPEL-EN-LE-FRITH', '1 BERKELEY DRIVE, READ', '1 BETTY COCKER GROVE', '1 BEULAH VILLAS, LUXFORD LANE', '1 BEUZEVILLE AVENUE', '1 BIRCH GR', '1 BIRCH GROVE', '1 BISHOP NORTON ROAD, SNITTERBY', '1 BLACK CROFTS, NORTH CONNEL', '1 BLACKBROOK AVENUE', '1 BLACKBROOK AVENUE, CHESTERTON', '1 BLACKHORSE RD, EXHALL', '1 BLACKWATER, NEWMARKET', '1 BLAKEHURST WY', '1 BLOCKLEY ROAD', '1 BOGGIE SHALLOCH PLACE', '1 BOGMORE COTTAGES, DRUMOAK', '1 BOLDGROVE STREET, EARLSHEATON', '1 BORINGDON PARK, WOODLANDS', '1 BORRODALE, GLENDALE', '1 BOUNDARY CLOSE, ANERLEY', '1 BOURNEWOOD CLOSE, DOWNSWOOD', '1 BOWDEN AVENUE, BESTWOOD VILLAGE', '1 BOWLAND ROAD, DENTON', '1 BOYLES YARD, LOW ROAD, OSGODBY', '1 BRAYTON GDNS, ASPATRIA', '1 BRIARBUSH, PENPONT', '1 BRIDGE MEADOW CLOSE, SEDGEBERROW', '1 BRIDGEND, ELDERSFIELD', '1 BRIDGETURN AVENUE, OLD WOLVERTON', '1 BRINWELL ROAD OFFICES, SOUTH SHORE', '1 BRO CLOION, CLAWDDNEWYDD', '1 BROADLANDS DRIVE', '1 BROADWELL COTTAGE, BROADWELL LANE, PATTINGHAM', '1 BROCKHAM DRIVE, GANTSHILL', '1 BROOK CLOSE', '1 BROOK LANE, 1 BROOK LANE', '1 BROOKLYN ROAD', '1 BROOMFIELD COTTAGE, COGGESHALL ROAD, EARLS COLNE', '1 BROWN STREET', '1 BRYANT AVENUE', '1 BRYN AFON TERRACE, LLANRUG', '1 BRYN CELYN, LLANSAMLET', '1 BRYN CLYWEDOG, COEDPOETH', '1 BRYN DINAS, GLANYPWLL', '1 BRYN FFYNON', '1 BRYN MAELOR, SOUTHSEA', '1 BUBWITH ROAD', '1 BURLEY AVENUE, DOWNEND', '1 BURNS CLOSE, BRYN, ASHTON-IN-MAKERFIELD', '1 BURSNIPS ROAD, ESSINGTON', '1 BUSHFIELD, PENTON', '1 BUXTON STREET', '1 BYFIELD DRIVE, THE MEADOWS', '1 BYFLEET AVENUE, OLD BASING', '1 BYRON STREET', '1 CAE PENTRE, SINGRETT HILL, GRESFORD', '1 CAIRNFIELD FARM COTTAGE, LADYBANK', '1 CALEDONIA PLACE, STATION ROAD', '1 CALEY COTTAGES, HIGH FOSHAM, MARTON', '1 CAMBRIA BRIDGE ROAD', '1 CAMP CLOSE, FELTWELL', '1 CAMUSNAGAUL, DUNDONNELL', '1 CAPITOL CLOSE, MORLEY', '1 CARBIS CL, MONK BRETTON', '1 CARDALE PK, BECKWITH HEAD RD', '1 CARLTON RD, HELMSLEY', '1 CARLTON ROAD', '1 CARLTON WAY, ROYTON', '1 CARR LANE, WENDLING', '1 CARSEGATE ROAD SOUTH, CARSE INDUSTRIAL ESTATE', '1 CARTGATE FOOT, BURNT PLATTS LANE, SLAITHWAITE', '1 CASTLE OF PK, GLENLUCE', '1 CASTLE VIEW, OVINGHAM', '1 CAVENDISH AVENUE', '1 CAVENDISH WHARF, DUKE STREET', '1 CAVERTON MAINS', '1 CEDAR ROAD, CHADWELL ST MARY', '1 CEMETERY ROAD, WOMBWELL', '1 CENTRAL AVENUE', '1 CENTRAL AVENUE, AMBLE', '1 CENTRAL CLOSE, SHIREBROOK', '1 CHALKDELL FIELDS', '1 CHANONRY STREET', '1 CHAPEL HOUSE, CHAPEL YARD, POTTON', '1 CHAPEL VIEW, KINGSWOOD', '1 CHAPEL VIEW, THRIMBY', '1 CHARMWOOD FARM, CHARMWOOD LANE', '1 CHARTWELL ROAD, KINGSNORTH', '1 CHEQUER TREE COTTAGE, (OFF FRITH ROAD), MERSHAM', '1 CHEQUER TREE COTTAGE, OFF FRITH ROAD, MERSHAM', '1 CHERRY HOLT ROAD', '1 CHESHAM FOLD ROAD', '1 CHESTNUT COTTAGE, NEWMANS END, MATCHING TYE', '1 CHETWODE CLOSE, PAGE HILL', '1 CHILTERN CLOSE', '1 CHOATS COTTAGES, HALSTEAD ROAD, EIGHT ASH GREEN', '1 CHRISTCHURCH AVENUE', '1 CHUDLEIGH ROAD', '1 CHURCH BANK IND EST', '1 CHURCH COURT, CHURCH WAY', '1 CHURCH FARM COTTAGES, HARDLEY', '1 CHURCH LANE AVENUE, OUTWOOD', '1 CHURCH LANE COTTAGE, CHURCH LANE, WHITECHAPEL', '1 CHURCH LANE, BRINSLEY', '1 CHURCH LANE, CULCHETH', '1 CHURCH ST', '1 CHURCH STREET', '1 CHURCH STREET, BRIERLEY', '1 CHURCH STREET, MOXLEY', '1 CHURCH VIEW, RUSKINGTON', '1 CHURCH WALK', '1 CHURSTON DRIVE', '1 CINNAMON HILL DRIVE NORTH, WALTON-LE-DALE', '1 CLASHBURN ROAD, BRIDGEND INDUSTRIAL ESTATE', '1 CLAYBORN VIEW', '1 CLEARFIELD AVENUE', '1 CLIVE ROAD', '1 CLOS HERMON, PEMBREY', '1 CLOVER COURT, BRANSTON', '1 CLUNY COTTAGES, CASTLEBAY', '1 CLYDESDALE AV', '1 COAST, POOLEWE, INVERASDALE', '1 COBHAM VILLAS, LONGDEN', '1 COLE RD, ST. PHILIPS', '1 COLE ROAD', '1 COLLEGE AVENUE', '1 COLVILLE COURT, WINWICK QUAY', '1 COMMON ROAD', '1 CONCORDE ROAD', '1 CONEYGEAR ROAD, HARTFORD', '1 CONISTON AV, PERIVALE', '1 CONISTON RD, MELTHAM', '1 CONYBEARE CLOSE', '1 CONYBEARE RD, SULLY', '1 COOK WAY, NORTH WEST INDUSTRIAL ESTATE', '1 COPPULL ROAD', '1 COPSE CNR, STOUR ROW', '1 CORNWALL DR, BAYSTON HILL', '1 COTSIDE FARM COTTAGE, MAIN STREET, BARRY', '1 COTSWOLD WAY, HUNTINGTON', '1 COUNTESS WALK, STAPLETON', '1 COURT DRIVE', '1 COURT GARDENS, COURT GARDEN COTTAGE, HARESFIELD', '1 COURT TREE DRIVE, EASTCHURCH', '1 COVENT GARDEN CLOSE', '1 COWLEY BUSINESS PARK, HIGH STREET, COWLEY', '1 CRABTREE LANE, HIGH ERCALL', '1 CRADDOCK DR, QUORN', '1 CRAIGNANT, NANTMEL', '1 CRAW PARK', '1 CREEK ROAD', '1 CRICKS ROAD, WEST ROW', '1 CROMWELL HOUSE, 17 BROMLEY COMMON', '1 CROMWELL ROAD', '1 CROSS STREET, KETTLEBROOK', '1 CROSTON LANE, CHARNOCK RICHARD', '1 CROW BOTTOMS, GAS WORKS LANE, ELLAND, HALIFAX', '1 CROWN CLOSE', '1 CROWN LANE COTTAGE, ROSEMARY LANE, BARTLE', '1 CULLODEN AVENUE', '1 CULLS FARM COTTAGES, DEAN STREET, EAST FARLEIGH', '1 CULVERHAY CLOSE, PURITON', '1 CWMAVON RD, BLAENAVON', '1 DALES PLACE', '1 DALYS ROAD', '1 DARLINGTON CLOSE', '1 DARLTON DRIVE, ARNOLD', '1 DEENESIDE, WELDON', '1 DERWENT CLOSE, MARDALE ROAD', '1 DERWENT DRIVE, SELSTON', '1 DICKENS CLOSE, LANGLEY', '1 DILLICHIP LOAN, BONHILL', '1 DILMORE AVENUE, FERNHILL HEATH', '1 DONCASTER ROAD, BAWTRY', '1 DORAN GARDENS, DORAN DRIVE', '1 DORSET STREET, HINDLEY', '1 DOSELEY ROAD NORTH, DAWLEY', '1 DOUAY ROAD', '1 DOWNHAM WALK, BILLINGE', '1 DRUMPARK ST, ST. NINIANS', '1 DRYFESDALE COURT', '1 DRYNOCH, CARBOST', '1 DUDLEY ST, PARKGATE', '1 DUNDEE WAY, BRIMSDOWN', '1 DUNLOP SQUARE, DEANS INDUSTRIAL ESTATE, DEANS', '1 DYKESCROFT, MOSCOW', '1 EARLISH, PORTREE', '1 EARLS CRESCENT', '1 EAST COURT COTTAGES, LOWER HIGHAM ROAD', '1 EAST ELRINGTON FARM COTTAGE, EAST ELRINGTON', '1 EAST VIEW, HALL ROAD, WENHASTON', '1 EAST VIEW, MARKET STREET, HAMBLETON', '1 EASTCOURT COTTAGES, LOWER HIGHAM ROAD', '1 EASTERTOUN GDNS, ARMADALE', '1 EASTFIELDS, (OFF ROKE LANE), WITLEY', '1 EASTLEIGH CLOSE', '1 EASTNOR CLOSE', '1 EASTWOOD PLACE, HARTFORD GREEN', '1 ECCLESGATE ROAD, MARTON MOSS', '1 EDINBURGH ROAD, CHURCH GRESLEY', '1 EDISON ROAD, CHURCHFIELDS', '1 EDWARD CLOSE, LITTLE CLACTON', '1 ELCOAT TERRACE', '1 ELDER CLOSE, HEATH HAYES', '1 EMBASSY ROAD', '1 ENTERPRISE WAY, AVIATION PARK, BOURNEMOUTH INTERNATIONAL AIRPORT, HURN', '1 ENTERPRISE WAY, AVIATION PARK, HURN', '1 EPPLETONS FARM, CHAFFCOMBE, COPPLESTONE', '1 ERRINGTON STREET, BEBSIDE', '1 ESSEX AVENUE', '1 EURO COURT, OLIVER CLOSE', '1 FABRIC VIEW, HOLMEWOOD, NORTH WINGFIELD', '1 FAIR OAK CLOSE, EXETER AIRPORT BUSINESS PARK, CLYST HONITON', '1 FAIR VIEW, THE COMMON, GRENDON', '1 FAIRFIELD, STATION ROAD, NORTH CAVE', '1 FAIROAK LANE, WHITEHOUSE INDUSTRIAL ESTATE', '1 FAIRVIEW, GALE', '1 FALCON WAY, SHIRE PARK', '1 FARADAY CLOSE', '1 FARMHILL CLOSE, CUSWORTH', '1 FARROW CLOSE, GREAT MOULTON', '1 FEATHERBY PLACE, OFF HIGH STREET', '1 FERNSIDE AVENUE', '1 FETHEN VIEW, GLEN ESTATE', '1 FFOREST VIEW, WOODLAND RISE', '1 FIELDBANK ROAD', '1 FIELDFARE', '1 FIRBANK AVENUE, TORRANCE', '1 FIRTREE AV', '1 FOREST DRIVE, ORMESBY', '1 FOSTER STREET, STONEFERRY', '1 FOUNDERS ROAD', '1 FOUR LANE ENDS COTTAGES, WORSTON ROAD, PENDLETON', '1 FOUR LANE ENDS, WORSTON ROAD, PENDLETON', '1 FOURWAYS, CHURCH HILL, WEST END', '1 FOXGLOVE CLOSE', '1 FRANKTON CLOSE, MONKMOOR', '1 FREDRICKS CLOSE, COLCHESTER ROAD, WIX', '1 FREESLAND RISE', '1 FROME ROAD, WEST END, CHARTWELL GREEN', '1 FUGGLES YARD, NORFOLK', '1 FURLONG LANE, BURSLEM', '1 GADLYS COTTAGES, CHURCH ROAD, LLANBERIS', '1 GALLOPING GREEN FARM CLOSE', '1 GALLOPING GREEN FARM CLOSE, EIGHTON BANKS', '1 GALMINGTON DRIVE', '1 GARDEN CLOSE', '1 GARNETT CLOSE, GREYCAINE ESTATE', '1 GARRET PLACE, CUMBERNAULD', '1 GAUNTS ROAD, CHIPPING SODBURY', '1 GEORGE STEPHENSON DRIVE', '1 GEORGE STREET', '1 GILPIN HOUSE, LEVENS', '1 GLADSTONE TERRACE, VARTEG', '1 GLAN PELENNA, PONTRHYDYFEN', '1 GLAN TRANNON, TREFEGLWYS', '1 GLASTONBURY AVENUE', '1 GLEN PARVA AVENUE, REDHILL', '1 GLENSHIEL AVENUE', '1 GLENTWORTH ROAD, KEXBY', '1 GLENWOOD COTTAGES, MIDMAR', '1 GLYNCOED, FOUR ROADS', '1 GORDON COTTAGES, BOLTON LE SANDS', '1 GRANGE ROAD', '1 GRANTHAM DR', '1 GRASMERE AVENUE, LITTLE LEVER', '1 GRAYS COTTAGES, TOMKYNS LA, UPMINSTER COMMON', '1 GRAYS ROAD, UDDINGSTON', '1 GRAYTHORP INDUSTRIAL ESTATE', '1 GREAT HOLTS COTTAGES, WALTHAM ROAD, BOREHAM', '1 GREAT SNORING RD, HINDRINGHAM', '1 GREBE CLOSE, SUTTON BRIDGE', '1 GREEN BANK, WHEEL LANE, PILLING', '1 GREEN WALK, WHALLEY RANGE', '1 GREENFIELD AVENUE', '1 GREENSHIELD INDUSTRIAL ESTATE, BRADFIELD ROAD', '1 GREENVILLE AVENUE, EWLOE GREEN, EWLOE', '1 GREGGS CT, STAIRFOOT', '1 GREVILLE ROAD, HEDON', '1 GRIMROD PLACE, GILLIBRANDS BUSINESS PARK', '1 GRIZEDALE AV, GARSTANG', '1 GROSVENOR CRESCENT', '1 GROVE BUNGALOWS, CAKEBOLE, CHADDESLEY CORBETT', '1 GROVE END VILLAS, LONGNEY RD, HARDWICKE', '1 GROVE LODGE COTTAGES, BINSTED', '1 GWYNFRYN, STATION ROAD, LLANRUG', '1 GYPSUM CLOSE', '1 HACKETT STREET', '1 HACKWORTH ROAD, NORTH WEST INDUSTRIAL ESTATE', '1 HALL COTTAGES, YEW TREE LA, BRADLEY', '1 HALL DR, GREASBY', '1 HALL GREEN, UPHOLLAND', '1 HALLFIELD CLOSE', '1 HAMBRIDGE LANE', '1 HAMILTON CLOSE, HEDNESFORD', '1 HAMS LANE, LEA MARSTON', '1 HANDS LANE, ABBOTSBURY', '1 HAREBELL CLOSE', '1 HARKER STREET', '1 HARTLEY PARK VIEW', '1 HARTNESS ROAD', '1 HARTON RISE', '1 HATFIELD CLOSE', '1 HAWCROFT COTTAGES, HAWE LANE, STURRY', '1 HAWKESDEN ROAD', '1 HAWKSWORTH ROAD, SYERSTON', '1 HAYES LANE, SULLY', '1 HAZEL CT, AISKEW', '1 HAZELWOOD MEADOW', '1 HEALEY GROVE, WHITWORTH', '1 HEATHER STREET, CLAYTON', '1 HEATHMOOR WAY', '1 HEDDINGTON CLOSE', '1 HELDING CLOSE', '1 HEOL LAS VILLAS, MAUDLAM', '1 HEOL YR YSGOL, TONDU', '1 HEREFORD ROAD, HARPUR HILL', '1 HERITAGE CLOSE, HIGH STREET', '1 HIGH ORCHARD', '1 HIGH STREET', '1 HIGH STREET, BOW BRIDGE WHARF, STRATFORD', '1 HIGH STREET, DOSTHILL', '1 HIGH STREET, DUNSVILLE', '1 HIGH STREET, SALTLEY', '1 HIGHFIELD CRESCENT, BROGBOROUGH', '1 HIGHGATE, ESTON', '1 HILCOTE DRIVE, CLIPSTONE VILLAGE', '1 HILLSIDE AVENUE, GUISELEY', '1 HILLSIDE CRESENT, HORWICH', '1 HILLSIDE LANE, SMALL DOLE', '1 HILLSIDE, BULLER ROAD', '1 HILLTOP AV, WHITEFIELD', '1 HILLTOP AVENUE, WHITEFIELD', '1 HILSEA CRESCENT, MARCHINGTON', '1 HILTON FARM COTTAGE', '1 HODGKINSON AVENUE, PENISTONE', '1 HODGKINSON ROAD', '1 HODGKINSON ROAD, FELIXSTOWE, SUFFOLK', '1 HOFTENS CROSS, CAULDON LOW', '1 HOLDENHURST ROAD', '1 HOLDFORD ROAD, WITTON', '1 HOLLIN COTTAGES, HARROGATE ROAD, LITTLETHORPE', '1 HOLLIN LANE, STACEY BUSHES', '1 HOLLOWFIELD CRESCENT, GARTCOSH', '1 HOLLY AVENUE, BRADWELL', '1 HOLLY TERRACE, SOUTH MOOR', '1 HOLLYHILL ROAD, SELSTON', '1 HOLME PK, BENTHAM', '1 HOME CLOSE', '1 HOMELEA, HIGH STREET, WEM', '1 HOPE CARR WAY', '1 HOPE STREET, OLDFIELD ROAD', '1 HORBURY BASIN, BRIDGE ROAD, HORBURY', '1 HORNAL ROAD, BOTHWELL PARK INDUSTRIAL ESTATE, UDDINGSTON', '1 HORSEDOWN COTTAGE, HORSDOWN, NETTLETON', '1 HORSEFAIR MEWS', '1 HOTCHKISS WAY, BINLEY INDUSTRIAL ESTATE', '1 HOWARD AVENUE, ST. GEORGE', '1 HUDSON VALE', '1 HUMBERSTONE ROAD', '1 HUNDON PL', '1 HUNSTON VILLAS, MAIN ROAD, HUNSTON', '1 HUNTERS PLACE, EAST KILBRIDE', '1 HUSKISSON DOCKS, REGENT ROAD', '1 INTERCHANGE PARK, ROBINSON WAY', '1 INTERNATIONAL SQUARE, WESTFIELD  CITY, MONTFICHET ROAD, OLYMPIC PARK', '1 IVY COTTAGES, FAKENHAM ROAD, ATTLEBRIDGE', '1 IVY LANE, WESTERGATE', '1 JANCER HOUSE, PRINCE ROAD, KENFIG HILL', '1 JANETTE AV', '1 JANETTE AVENUE', '1 JASMINE GARDENS', '1 JOHNSONS FARM, MIDDLE MEANYGATE, TARLETON', '1 JOHNSONS ROAD', '1 JUBILEE COTTAGES, KIRKTON OF SKENE', '1 JULIETTE CLOSE, PURFLEET INDUSTRIAL PARK, LONDON ROAD, PURFLEET', '1 KEEPERS COTTAGE, HEDDON-ON-THE-WALL', '1 KEMRABANK, WESTERKIRK', '1 KENSINGTON FIELDS', '1 KENTON PARK RD', '1 KENWYN AVENUE', '1 KEYES GARDENS, BIRCHWOOD', '1 KIKO DRIVE', '1 KILPATRICK COURT, DARENTH ROAD', '1 KING STREET, EAST HALTON', '1 KINGFISHER WAY', '1 KINGS CLOSE, ACKWORTH', '1 KINGS COURT, KIRTON', '1 KINGSAND ROAD, GROVE PARK', '1 LADY CROSSE DR, WHITTLE-LE-WOODS', '1 LADYPARK, LAMESLEY', '1 LAGRANNOCH WAY', '1 LAMBERT STREET', '1 LANGHOLM ST', '1 LEAZECROFT, HALMORE', '1 LEE BRICKYARD COTTAGE, MAIN ROAD, BOULDNOR', '1 LILAC CLOSE', '1 LILAC WAY, TOFT HILL', '1 LIMBER ROAD, KIRMINGTON', '1 LIME CL, PENWORTHAM', '1 LINDEN AVENUE', '1 LINDEN CL', '1 LINDRED ROAD, LOMESHAYE WAREHOUSE, BRIERFIELD', '1 LINDRICK CLOSE', '1 LINK ROAD COURT, OSBALDWICK', '1 LINNITT ROAD', '1 LOCHHEAD CRESCENT, COALTOWN OF WEMYSS', '1 LOCKERBIE CLOSE, CINNAMON BROW', '1 LODGE FARM COTTAGE, LODGE FARM, ABBOTS RIPTON', '1 LODGE FARM, WALLINGTON', '1 LONDON RD', '1 LONG CLOSE, HAGLEY', '1 LONGCROFT ROAD', '1 LONGDEN WOOD COTTAGE, LONGDEN', '1 LOW MIDDLETON FARM COTTAGES', '1 LOWER BARVAS, BARVAS, LOWER BARVAS', '1 LOWER GROVE ROAD, FISHPONDS', '1 LOWTHER GLEN, EAMONT BRIDGE', '1 LUMEN ROAD, EAST LANE BUSINESS PARK, EAST LANE', '1 LUXTED FARM COTTAGES, LUXTED RD, DOWNE', '1 LYMINSTER CLOSE', '1 LYNE GROVE COTTAGE, LYNE LANE, CHERTSEY', '1 LYTHAM AVENUE, DINNINGTON', '1 MACBETH ROAD, STEWARTON', '1 MACKENDERS CLOSE, ECCLES', '1 MADELEY CLOSE', '1 MAESHYFRYD, CWMBACH', '1 MAIN ST, CAYTON', '1 MAIN STREET, COMRIE', '1 MAIN STREET, MOREBATTLE', '1 MALLARD CLOSE, TOLLESBURY', '1 MALT MILL GREEN, KILSBY', '1 MANOR COURT, MARKET PLACE, RIDDINGS', '1 MANOR FARM COURT, KILLAMARSH', '1 MANOR GARDENS, HOLCOMBE HILL, HOLCOMBE', '1 MANSTON COURT COTTAGES, MANSTON COURT ROAD, MANSTON', '1 MARBURY CL, MOORSIDE', '1 MARCONI ROAD', '1 MARDLING AVENUE, BESTWOOD', '1 MARFLEET LANE', '1 MARIDAY VILLAS, BLACKNESS ROAD', '1 MARINE AVENUE, SUTTON-ON-SEA', '1 MARKET PLACE, ADLINGTON', '1 MARKET WEIGHTON ROAD, BARLBY', '1 MARLEY WK', '1 MARTHAM CLOSE, THAMESMEAD', '1 MARTINDALE, SHAFT ROAD, SEVERN BEACH', '1 MAUCHLINE ROAD, AUCHINLECK', '1 MAX PARK, BANGRAVE ROAD SOUTH', '1 MAY TREE ROAD', '1 MEADOW CLOSE, CLIFTON', '1 MEADOWCROFT AVENUE, CATTERALL', '1 MEADOWS BUSINESS PARK, STATION APPROACH, BLACKWATER', '1 MELLISH ROAD', '1 MERRIOTTSFORD', '1 MICHIGAN DRIVE, TONGWELL', '1 MICKLETON RD, RIVERSIDE PARK', '1 MICKLETON ROAD, RIVERSIDE PARK', '1 MIDDLECALF COTTAGE, LYME PARK, DISLEY', '1 MIDDLECROFT, WILBERFOSS', '1 MIDDLETON ROAD', '1 MILKING SLADE LANE, GREAT GIDDING', '1 MILL COURT, MANOR ROAD', '1 MILL LA, DIDDLEBURY', '1 MILL LANE COTTAGES, LOW MILL LANE, NORTH CAVE', '1 MILL LANE, WINGRAVE', '1 MILL STREET', '1 MILL VIEW, EGGBOROUGH', '1 MILLBROOK WAY, COLNBROOK', '1 MILLSIDE, WOMBOURNE', '1 MILLVIEW TER, LOCHANS', '1 MILTON ROAD, EAST KILBRIDE, COLLEGE MILTON', '1 MILTON TERRACE', '1 MINT ST, RAMSBOTTOM, CHATTERTON', '1 MISTOVER ROAD', '1 MOATSIDE', '1 MONK SHERBORNE ROAD, RAMSDELL', '1 MONKROYD RD, LANESHAWBRIDGE', '1 MONKWRAY LODGE, LOW MONKWRAY', '1 MONTAGUE ROAD', '1 MONTROSE TERRACE, WHITING BAY', '1 MOOR FARM COTTAGE, LEASINGHAM MOOR', '1 MOORFIELD, GILDERSOME, MORLEY', '1 MOORHEAD, PRESTON', '1 MOORHEY CRES, PENWORTHAM', '1 MOORLANDS PARK, CUDDINGTON', '1 MORNINGSIDE, CRECA', '1 MOSSDALE CLOSE', '1 MOSSEND', '1 MOUNT PLEASANT WAY, STOKESLEY BUSINESS PARK, STOKESLEY', '1 MUIRFIELD CLOSE, EUXTON', '1 MUIRSIDE DRIVE', '1 MUSEUM COURT, ECCLESHILL', '1 MYRTLE ROAD', '1 MYTTON DINGLE, STIPERSTONES, SNAILBEACH', '1 MYTTON DINGLE, STIPERSTONES, SNAILBEACH, MINSTERLEY', '1 NAB LANE, BIRSTALL', '1 NANHILL DRIVE, WOODHOUSE EAVES', '1 NAPIER ROAD, WARD PARK, CUMBERNAULD', '1 NAVIGATION ROAD', '1 NEASHAM ROAD', '1 NESTLES AVENUE', '1 NETHERHALL COTTAGES, MAIN RD, SHOTLEY GATE', '1 NETHERHALL PLACE, BRIDGE OF DEE', '1 NEW BRUNSWICK AV, ST. GEORGE', '1 NEW BUILDING, DUNWEAR', '1 NEW BUILDINGS, DUNWEAR', '1 NEW COTTAGES WOOD HALL ESTATE, WOODHALL LANE, SHENLEY', '1 NEW COTTAGES, STANMORE, BEEDON', '1 NEW FARM, RODEN LANE, RODEN', '1 NEWCOMEN CLOSE, WINCHESTER GATE', '1 NEWHOUSES, KERRY HILL, BUCKNALL', '1 NEWTOWN LANE', '1 NICHOLLS FARM COTTAGES, LYBURY LANE, REDBOURN', '1 NIGHTINGALE FARM COTTAGE, BROOME MANOR LA', '1 NIGHTINGALE FARM COTTAGE, BROOME MANOR LANE', '1 NORTH CHURCH STREET', '1 NORTH STREET', '1 NORTH VIEW, EASINGTON LANE', '1 NORTHFIELD GARDENS', '1 NORTHORPE ROAD, DONINGTON', '1 NORWOOD COTTAGES, COOLING ROAD, CLIFFE', '1 NOTTINGHAM ROAD, COSTOCK', '1 NOVINGTON FARM COTTAGE, PLUMPTON', "1 O'NEILL AV, BISHOPBRIGGS", '1 OAK AVENUE, DINNINGTON', '1 OAK DR, COLEMERE', '1 OAK ROAD, DESFORD', '1 OAK VIEW', '1 OAKWOOD HALLYBURTON, COUPAR ANGUS', '1 OATES RD, COLLIER ROW', '1 OATES ROAD, COLLIER ROW', '1 OLD COTTAGES, GATE BURTON', '1 OLD MOOR,, SHAFT, LONGHIRST', '1 OLD ROAD, LONGTOWN', '1 OLD ROAD, OLD SCHOOL BUSINESS PARK', '1 OLD SARUM COTTAGES, PORTWAY, OLD SARUM', '1 OLD SARUM COTTAGES, THE PORTWAY, OLD SARUM', '1 OLYMPIC COURT, FERRERS ROAD', '1 ONE TREE HILL', '1 ORCHARD CLOSE', '1 ORCHARD CLOSE, WADDESDON', '1 ORCHARD ROAD SOUTH', '1 ORIENTAL ROAD, SILVERTOWN', '1 OUTMILL, ALTHORPE', '1 PARK COTTAGES, GOODACRES, BARNHAM', '1 PARK COTTAGES, HUNGERFORD PARK', '1 PARK GRANGE, PARK ROAD, HINDLEY', '1 PARK ROAD', '1 PARK VIEW, PELAW GRANGE', '1 PARK VILLA, LITTLE HEREFORD, BLEATHWOOD', '1 PARKERS CLOSE, CATFIELD', '1 PARKFIELD COTTAGES, BICESTER ROAD, TWYFORD', '1 PARKSIDE, CROSS ROAD, MIDDLESTOWN', '1 PARKVIEW, MAIN RD, STAINFORTH', '1 PARSONAGE CLOSE', '1 PARSONAGE FARM COTTAGE, THE STREET, COBHAM', '1 PATERNOSTER ROW, NOAK HILL', '1 PEAR TREE COTTAGE, CRUDWELL', '1 PEAR TREE DRIVE', '1 PEAR TREE HEY, BRIMSHAM PARK, YATE', '1 PEARSON RD', '1 PEDDERS CLOSE', '1 PEGASUS ROAD', '1 PEN TEG, KINNERLEY', '1 PENFFORDD, PENTYRCH', '1 PENHALE RD, CARNHELL GREEN', '1 PENLLYN, CWMAVON', '1 PENSHAW CLOSE, PLECK GATE', '1 PENYBRYN ROAD, BETHESDA', '1 PENYBRYN, RHIWCEILIOG PENCOED', '1 PERRY WAY', '1 PERRYLAND LANE, SMALLFIELD', '1 PICTON LANE', '1 PIKEHELVE STREET', '1 PINBUSH CL', '1 PINGEWOOD CLOSE, BURGHFIELD, PINGEWOOD', '1 PINNACLE VIEW, COWLING', '1 PIT ROAD, KIRKINTILLOCH', '1 PITMAN ROAD', '1 PLANTATION CLOSE, WHITWELL', '1 PLASYDINAS, LLANSANTFFRAID POOL', '1 PLATT STREET', '1 PLUMMERS COTTAGE, HIGH STREET', '1 POINT ROAD', '1 POLICE HOUSES, CATBROOK', '1 POLLARDS WOOD RD, NORBURY', '1 PORTLAND DR, PORTISHEAD', '1 PORTLAND PLACE', '1 POSEY COTTAGE COURT, MAIN ROAD, HALLOW', '1 POST OFFICE ROW, BROADWAY RD, ASTON SOMERVILLE', '1 POTTER PLACE, WEST PIMBO', '1 POULTON FARM COTTAGES, POULTON', '1 POUND COTTAGES, SCHOOL ROAD, KIRBY CANE', '1 POWELL ST, DOUGLAS WATER', '1 PRESTON VALE COTTAGES, PRESTON VALE, PENKRIDGE', '1 PRIMROSE COTTAGES, OTHAM STREET, OTHAM', '1 PRIMROSE RD, LUDGERSHALL', '1 PRINCES ROAD', '1 PRINCESS CLOSE', '1 PRINCESS RD', '1 PROGRESS PARK, ELSTOW', '1 PROVAN WAY', '1 PYE CLOSE, CORFE MULLEN', '1 QUARRY LANE', '1 QUARRY WAY, WATERLIP', '1 QUEENS ROAD', '1 QUEENSWAY', '1 RACECOURSE LANE', '1 RAILWAY APPROACH', '1 RAPPAX ROAD, HALE', '1 READING AVENUE, CHURCH GRESLEY', '1 RECREATION WAY, LEE MOOR', '1 REDBROOK AVENUE, TRETHOMAS', '1 REDWALD CLOSE, KEMPSTON', '1 REGENT STREET, CLOWNE', '1 REYNARDS RISE, LOGGERHEADS', '1 RHODFA GLENYS', '1 RIBSTON MEWS', '1 RICHARD STREET WEST', '1 RIVERSIDE ROAD', '1 ROCHESTER ROW', '1 ROESTOCK LANE, COLNEY HEATH', '1 ROGERS ROAD, RIVERSIDE INDUSTRIAL ESTATE', '1 ROMANS WY, WRITTLE', '1 ROOKERY CLOSE, KIVETON PARK', '1 ROSEMARY AVENUE', '1 ROTHER CLOSE, BETTWS', '1 ROW BEECH COTTAGES, WATLING STREET, KENSWORTH', '1 RUSSELL SQUARE', '1 RUSSET CLOSE', '1 RUTHERFORD WAY', '1 SADLERS LANE', '1 SAWMILL CLOSE, FELTHORPE', '1 SAWMILL COTTAGES, DIGDOG LANE, FRITTENDEN', '1 SCHOOL CORNER, HUNDON ROAD, BARNARDISTON', '1 SCHOOL LANE, INVERBERVIE', '1 SCHOOL MEWS, BANGOR ISYCOED', '1 SCHOOL MEWS, BANGOR-ON-DEE', '1 SCHOOL VIEW', '1 SCOTT CRESCENT', '1 SCOTT STREET', '1 SEA VIEW, BAY HORSE', '1 SEAFIELD ROAD', '1 SEDGEFIELD WAY', '1 SHARPHAW AVENUE', '1 SHELDON GARDENS', '1 SHERWOOD MEWS, LEASES RD, LEEMING BAR', '1 SHIELDINISH, LOCHS', '1 SHIPSTON RD, BASWICH', '1 SHORTWOOD COMMON', '1 SHRUBLAND ROAD', '1 SHUTE LAKE LA', '1 SKYE EDGE RD', '1 SLADE VIEW, SLADE HOOTON, LAUGHTON', '1 SLATEFELL DR', '1 SMALL CLOSE, WEST MIDLAND', '1 SMALLHOLDINGS, CLOCKHOUSE LANE', '1 SMITH CRESCENT', '1 SMITHY BROOK ROAD, RENISHAW', '1 SMITHY LANE, PENSNETT', '1 SMM BUSINESS PARK, DOCK ROAD', '1 SOMERSET CLOSE, CADISHEAD', '1 SOMERSET RD, SPRINGWELL', '1 SOMERSET ROAD', '1 SOPWITH CRESCENT', '1 SOUTH CRESCENT, DUCKMANTON', '1 SOUTH LODGE, KIRTON ROAD, BUCKLESHAM', '1 SOUTH QUARRY VIEW', '1 SOUTH VIEW, BRYNNA RD, PENCOED', '1 SOUTHCOTT WAY, WALSGRAVE', '1 SPEEDWELL, TINTWISTLE', '1 SPICERS LA, FORNCETT ST. MARY', '1 SPITFIRE WAY', '1 SPRING ROAD, AYCLIFFE BUSINESS PARK', '1 SPRINGCORRIE YARD, GARYNAHINE', '1 SPRINGLAKES ESTATE, DEADBROOK LANE', '1 SQUIRES COURT, EASTCHURCH', '1 ST DAVIDS QUAY, ABERYSTWYTH', '1 ST GEORGES HOUSE, VERNON GATE', '1 ST. AIDANS TERRACE', '1 ST. AIDANS TERRACE, NEW HERRINGTON', '1 ST. ALBANS ROAD', '1 ST. CUTHBERTS CL', '1 ST. DAVIDS ROAD', '1 ST. GOVANS CLOSE, TATTENHOE', '1 ST. JAMES ROAD, SHEPSHED', '1 ST. JOHNS HILL', '1 ST. LAMBERTS GROVE, WESTON', '1 ST. MARGARETS AVENUE', '1 ST. MARGARETS COURT, THE STREET, HIGH HALSTOW', '1 ST. MARTINS CL, FANGFOSS', '1 ST. MARYS PK, COLLATON ST. MARY', '1 ST. MATTHEW STREET', '1 ST. NICHOLAS CRESCENT, BOLTON LE SANDS', '1 ST. SWITHINS TERRACE', '1 ST. THOMAS PLACE, CAMBRIDGESHIRE BUSINESS PARK', '1 STALEY HALL CRESCENT', '1 STAMFORD COTTAGES, OLD CHESTER RD', '1 STAMPSTONE STREET', '1 STANLEY VILLAS, MAIRSCOUGH LANE, DOWNHOLLAND', '1 STATION APPROACH, ANCASTER', '1 STATION CLOSE, BLAXTON', '1 STATION COTTAGES, DOE HILL LA, STONEBROOM', '1 STATION HOUSES, NEW COUNDON', '1 STATION RD, SHEPHERDSWELL', '1 STATION ROAD, FOXTON', '1 STATION ROAD, HELMDON', '1 STATION ROAD, MELBOURNE', '1 STEADMAN CROFT', '1 STEPNEY RISE', '1 STERNDALE MOOR', '1 STONE HOUSE, PAGE ROAD, HAWKINGE', '1 STONEY CLOSE, NORTH KILWORTH', '1 STRATFIELD WAY', '1 STRATHEARN TER', '1 STRATHYRE PLACE, LIONTHORN', '1 STRAWFRANK FARM, PETTINAIN ROAD, CARSTAIRS JUNCTION', '1 STUD FARM MEWS, NORTH ROAD, WESTON', '1 SUNNINGDALE RD', '1 SUNNYBANK CLOSE, ALDRIDGE', '1 SUTTON COURT, EASTWOOD', '1 SUTTON CT, EASTWOOD', '1 SWAFFHAM RD, BURWELL', '1 SWAN ORCHARD, LONDON ROAD, ASHINGTON', '1 SYDNAL LANE, ALBRIGHTON', '1 SYDNEY ROAD', '1 TAIFALD, LLANELWEDD', '1 TAINTERS HILL, HEVER CASTLE, HEVER', '1 TAMDOWN WAY', '1 TELFERTON, TELFERTON INDUSTRIAL ESTATE', '1 TELFORD CLOSE', '1 TEMPERTONS LANE, OWSTON FERRY', '1 TENNANT AVENUE, COLLEGE MILTON SOUTH, EAST KILBRIDE', '1 THE ANNEX, BUCKWOOD, FULMER COMMON ROAD, FULMER', '1 THE AVENUE, BLABY', '1 THE BARN, CHAIN ROAD, SLAITHWAITE', '1 THE BARN, HILL FARM, OUNDLE ROAD, CHESTERTON', '1 THE BEECHES, LADY LA, BLUNSDON', '1 THE BRACKENS, LLANGYNWYD', '1 THE BUNGALOW, CORNMILL FARM, (OFF OWDAY LANE), WALLINGWELLS', '1 THE CLOSE, MORWICK ROAD, WARKWORTH', '1 THE CLOSE, WARKWORTH', '1 THE CLOSE, WITHYDITCH', '1 THE COT, ST. ARVANS', '1 THE COURT, OAKBRIDGE DRIVE, BUCKSHAW VILLAGE', '1 THE CRESCENT', '1 THE CRESCENT, EAST ACTON', '1 THE DINGLE, WATTS LANE, HILLMORTON', '1 THE FAIRHAVENS, HALFORD ROAD, ARMSCOTE', '1 THE GARTH, OULSTON', '1 THE GLEN', '1 THE GREEN, GREAT ROLLRIGHT', '1 THE GREEN, GUESTWICK', '1 THE HOLLIES, SHIREBROOK', '1 THE HOLLY GROVE, QUEDGELEY', '1 THE HOLT', '1 THE KIPLINGS, GOOSEBERRY HILL', '1 THE LANE, WYBOSTON', '1 THE MEADOWS, ENNERDALE, SUTTON PARK', '1 THE MEADOWS, IMBERT CLOSE', '1 THE MEADOWS, MARSHFIELD', '1 THE MEADS, BURTON', '1 THE NOVERS', '1 THE ORCHARD, DERBY ROAD, WIRKSWORTH', '1 THE PALACE, AIRE STREET', '1 THE PASTURES, RAMPTON', '1 THE PEAKS, BODIAM', '1 THE QUADRANGLE CENTRE, THE DRIFT, NACTON ROAD', '1 THE REDWOODS, BRISTOL ROAD, KEYNSHAM', '1 THE SHRUBBERY, THORNEY ROAD', '1 THE STREET, RUSTINGTON', '1 THE THICKETTS', '1 THE WEALD', '1 THEARNE LANE, WOODMANSEY', '1 THIMBLE HILL, FARMCOTE', '1 THORNBUSH COTTAGES, THORNBUSH LANE, BRAMFORD', '1 THORNYCROFT CLOSE, GAWSWORTH', '1 THORVERTON DR', '1 TICHMARSH', '1 TIPPINGS LA, BARROWDEN', '1 TIPPINGS LANE, BARROWDEN', '1 TONE GREEN, BRADFORD ON TONE', '1 TOWER ROAD, GLOVER INDUSTRIAL ESTATE', '1 TOYNTON CLOSE', '1 TREGLENWITH ROAD', '1 TREMAINS BUSINESS PARK, TREMAINS ROAD', '1 TRENCH LANE, ODDINGLEY', '1 TROUTBECK AVENUE', '1 TULLOCH PLACE, BONAR BRIDGE', '1 TURNER CLOSE', '1 TURNERS HILL', '1 TWIN OAKS WALK', '1 TYLERS GREEN', '1 TYN Y WEIRGLODD, LON LLAINFFYNNON, GROESLON', '1 ULLSWATER AVENUE, WEST END', '1 UNDERWOOD ROAD, PORTISHEAD', '1 UNION LANE COTTAGE, LANCASTER ROAD, PILLING', '1 UPLOWMAN ROAD', '1 USK BRIDGE MEWS, BRIDGE STREET', '1 USK ROAD, SHIRENEWTON', '1 VERITY SQUARE', '1 VERNEY CRESCENT, ALLERTON', '1 VICTOR WAY, RADLETT ROAD, COLNEY STREET', '1 VICTORIA TER', '1 VICTORIA TERRACE, CATCHGATE', '1 VILLAGE BARN, GARGRAVE ROAD, BROUGHTON', '1 VIOLET CLOSE, CHERRY HINTON', '1 VISCOUNT WAY, WOODLEY', '1 WAKES CLOSE, DUNTON BASSETT', '1 WALLACE ST', '1 WALMESLEY DRIVE, INCE', '1 WALNUT DRIVE, MANCETTER', '1 WALTON ROAD, LEVERINGTON', '1 WANSBECK CL, ELLINGTON', '1 WARDEN HALL COTTAGES, FYFIELD ROAD, WILLINGALE', '1 WARLEY RD', '1 WARREN COTTAGES, CRAWLEY ROAD, CRAWLEY', '1 WARWICK ROW, VICTORIA', '1 WARWICK STREET, HEDON ROAD', '1 WATERSWALLOWS INDUSTRIAL PARK, WATERSWALLOWS ROAD', '1 WATSONS BUILDINGS, EDMONDSLEY', '1 WAUGH PLACE', '1 WAVELL ROAD', '1 WEBB ROAD, ASPLEY', '1 WELKIN GREEN', '1 WELLFIELD, BALDERSBY-ST-JAMES', '1 WELLS AVENUE, HASLINGTON', '1 WELTON HALL FARM COTTAGE, WELTON', '1 WENDOVER ROAD, BURNHAM', '1 WEST BAY ROAD, MILLPORT', '1 WEST PARK ROAD, HEALEY', '1 WEST VIEW', '1 WEST VIEW, COTON', '1 WEST VIEW, STOCKLEY', '1 WESTBOURNE AVENUE, HODGEHILL', '1 WESTBOURNE TER, PENHALE, FRADDON', '1 WESTBOURNE TERRACE, PENHALE, FRADDON', '1 WESTBURY COURT BUSINESS CENTRE, BICESTER ROAD, MARSH GIBBON', '1 WESTERN AVENUE, BRIDGE', '1 WESTLAND DR, BROOKMANS PARK', '1 WESTLAND DRIVE, BROOKMANS PARK', '1 WESTMORELAND AVENUE, THURMASTON', '1 WESTWOOD COURT COTTAGES, WESTWOOD COURT, SHELDWICH', '1 WHITBURN RD', '1 WHITE LODGE GARDENS, KESGRAVE', '1 WHITEHALL, LIDLINGTON', '1 WHITTLE DRIVE', '1 WILLBRIG COTTAGE, ROOTS LANE, CATFORTH', '1 WILLOW AVENUE', '1 WILLOW COTTAGES, COXHOE', '1 WILSON DRIVE, ELSWICK', '1 WIMBLEDON AVENUE', '1 WINDMILL BALK LA, WOODLANDS', '1 WINDMILL COTTAGE, WINDMILL HILL, STOULTON', '1 WINDSOR BUSINESS CENTRE, VANSITTART ESTATE', '1 WINDY RIDGE, KINGS MEABURN', '1 WISTLANDPOUND COTTAGES, WISTLANDPOUND, KENTISBURY', '1 WITHY CROFT, GREAT BOUGHTON', '1 WITLEY CLOSE, MORETON', '1 WOBURN LANE, PLEASLEY', '1 WOLD COURT, HAWARDEN', '1 WOODLAND GR, BEESTON, CHILWELL', '1 WOODLANDS CLOSE, BRANSGORE', '1 WOODLANDS DRIVE, LEPTON', '1 WOODLANDS TERRACE, THRESHFIELD', '1 WOODROW DRIVE, LOW MOOR', '1 WOODRUFF HOUSE, TULSE HILL', '1 WOODWIEW VILLAS, HOLCOMBE HILL, HOLCOMBE', '1 WOTTONS COTTAGES, CHEYNEGATE LANE, PINHOE', '1 WROTTESLEY ROAD, HARLESDEN', '1 WYE HEAD CLOSE', '1 YORK AV, CROSBY', '1, BROOK RISE, OAKDALE', '1, CANN HALL DRIVE, LOW TOWN', '1, CHURCH LANE, SNITTERBY', '1, ELM LANE, LOW FULNEY', '1, GROVE WAY, RUMNEY', '1, ILMINGTON DRIVE', '1, MAPLE CLOSE, BLACKWATER', '1, NEWTON WAY, BENSON', '1, SANDFORD CLOSE', '1, SILVERTHORNE WAY', '1, STAIRGILLAN HOUSE, TARBOLTON', '1, SURREY QUAYS ROAD, ROTHERHITHE', '1, SUTTON PARK RISE', '1, UPPER NAGS HEAD CLOSE, CASTLEGATE', '1- 7 DRAKES LANE INDUSTRIAL ESTATE, DRAKES LANE, BOREHAM', '1-15 MIDDLE HILLGATE', '1-17 SILVER STREET, KINGS HEATH', '1-2 DRUMHEAD ROAD, CHORLEY NORTH INDUSTRIAL PARK', '1-2 FLOWERY FIELD INDUSTRIAL PARK, BENNETT STREET', '1-2 HERITAGE PARK, HAYES WAY', '1-2 IVY COTTAGES, SANDY LANE, ST. PAULS CRAY', '1-2 LOCKWOOD COURT', '1-2 MEADOWBRIDGE, CROSSHANDS BUSNESS PARK, CROSSHANDS', '1-2 MOSS RD', '1-2 SEMINGTON TURNPIKE, SEMINGTON', '1-2CA, BLACKROD INDUSTRIAL ESTATE, SCOT LANE, BLACKROD', '1-3 BALTIC WHARF, 11 STATION ROAD', '1-3 EARNWELL, IRESHOPEBURN', '1-3 EDINBURGH PLACE, EDINBURGH WAY', '1-3 LOICHER LANE, ECCLESFIELD', '1-3 LOTHAIR STREET, BATTERSEA', '1-3 LOW ST', '1-3 LOW STREET', '1-3 PEGASUS ROAD', '1-3 PINGOT LA, BROADBOTTOM', '1-4  CHALON CLOSE', '1-4 ALDERSTON WAY, RIGHEAD INDUSTRIAL ESTATE', '1-4 PUDDLERS ROAD, SOUTH BANK', '1-5 ALBANY RD', '1-5 CANAL STREET', '1-5 PUDDLERS ROAD, SOUTHBANK', '1-6 BROADWAY PARADE, ELM PARK AVENUE', '1-6 FALCON COURT, SHADRICK WAY, DOBLES LANE BUSINESS PARK', '1-7 GROVE ROAD, NORTHFLEET', '1-7 NEW ROAD, HALFWAY, CAMBUSLANG', '1-8 CENTENARY ROAD', '1-9 IVYHOUSE LANE', '1-9 STATION ROAD', '1. CROUCH DRIVE', '1/1 ALEXANDER PLACE, SOUTH STREET, HOUSTON', '10  THE GREEN, HEADLAM, DARLINGTON, CO DURHAM', '10  UNICORN LANE, EASTERN GREEN', '10 , MEADOW FARM DRIVE, HARLESCOTT', '10 - 12 BRIDGE STREET', '10 - 14, GARDDEN INDUSTRIAL ESTATE, RUABON', '10 ABBEY BREWERY COURT, SWAN STREET', '10 ABINGER ROAD, ASHTON-IN-MAKERFIELD', '10 ACACIA DRIVE', '10 ACACIA RD, NEW BALDERTON, BALDERTON', '10 ALBION ROAD', '10 ALFRED ROAD', '10 ALMSWOOD RD', '10 ANSON CLOSE', '10 ASHENDENE ROAD, BAYFORD', '10 ASHLEIGH CLOSE, BARBY', '10 ASKEW FARM HOUSE, ASKEW LANE', '10 B GEORGE ST', '10 BACK MOUNT PLEASANT', '10 BAGNALL WALK', '10 BAKER CLOSE, TEYNHAM', '10 BARBERS WOOD CLOSE', '10 BARCLAY MEWS, HYTHE, BUTTS ASH', '10 BARDEN CROFT, CLAYTON LE MOORS', '10 BARNARD GR, HART STATION', '10 BATH STREET', '10 BEAUMONT GRN, COLEORTON', '10 BEEHIVE BUSINESS CENTRE, BEEHIVE LA, CHELMSFORD', '10 BELGIC SQUARE, PADHOLME ROAD EAST, FENGATE', '10 BENTINCK STREET, SUTTON', '10 BESOM COURT, NEW RD', '10 BEVERLEY WALK', '10 BIDDULPH PARK, IRONSTONE ROAD, CHASE TERRACE', '10 BIRCH GROVE', '10 BIRCH LEYS', '10 BIRKDALE DRIVE', '10 BIRLINGHAM CLOSE', '10 BISHTON LANE, WOLSELEY BRIDGE', '10 BLACKBIRD CL, FLITWICK', '10 BLACKBURN ROAD', '10 BLACKMARSTON ROAD', '10 BLACKTHORNS, NEWBOURNE', '10 </t>
         </is>
@@ -843,12 +877,18 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>23150</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>1308110</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>39688</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t xml:space="preserve">['0', '10 REDCOMBE LANE"', '35 VICARAGE ROAD', '3A', '4 MACE LANE"', '828 1JE', 'AB10 1RJ', 'AB10 6JR', 'AB10 6RG', 'AB11 5BS', 'AB11 5EW', 'AB11 5PU', 'AB11 5QP', 'AB11 6NA', 'AB11 8DU', 'AB11 9PJ', 'AB11 9PL', 'AB11 9QB', 'AB12 3AG', 'AB12 3AR', 'AB12 3AW', 'AB12 3AX', 'AB12 3BQ', 'AB12 3BY', 'AB12 3LE', 'AB12 3LF', 'AB12 3LH', 'AB12 3LL', 'AB12 3LR', 'AB12 3LY', 'AB12 4LH', 'AB12 4LP', 'AB12 4PA', 'AB12 4PF', 'AB12 4QB', 'AB12 4RT', 'AB12 4RX', 'AB12 4SA', 'AB12 4SL', 'AB12 4SZ', 'AB12 4TP', 'AB12 4XA', 'AB12 4YB', 'AB12 5AQ', 'AB12 5GQ', 'AB13 0DS', 'AB14 0PE', 'AB15 6DF', 'AB15 8BN', 'AB15 8QR', 'AB15 8RL', 'AB15 8SD', 'AB15 9PT', 'AB16 6QQ', 'AB16 7LL', 'AB16 7NJ', 'AB16 7PG', 'AB21 0BF', 'AB21 0BG', 'AB21 0DP', 'AB21 0EQ', 'AB21 0EU', 'AB21 0GL', 'AB21 0GS', 'AB21 0GU', 'AB21 0GX', 'AB21 0HA', 'AB21 0HP', 'AB21 0LA', 'AB21 0QA', 'AB21 0QE', 'AB21 0RB', 'AB21 0RU', 'AB21 0RX', 'AB21 0SH', 'AB21 0XB', 'AB21 0YS', 'AB21 7AL', 'AB21 7AQ', 'AB21 7DT', 'AB21 7DU', 'AB21 7GB', 'AB21 7GQ', 'AB21 7NX', 'AB21 7NY', 'AB21 7PP', 'AB21 9EG', 'AB21 9HW', 'AB21 9NP', 'AB21 9PD', 'AB21 9TL', 'AB22 8AP', 'AB22 8LH', 'AB22 8ZX', 'AB23 8BQ', 'AB23 8BT', 'AB23 8EE', 'AB23 8EF', 'AB23 8EW', 'AB23 8GL', 'AB23 8HL', 'AB23 8JW', 'AB23 8NN', 'AB23 8RD', 'AB23 8RH', 'AB23 8UY', 'AB23 8YD', 'AB23 8YJ', 'AB24 2YS', 'AB24 5DT', 'AB24 5PA', 'AB24 5RP', 'AB25 2XE', 'AB25 3RF', 'AB30 1AJ', 'AB30 1BE', 'AB30 1DG', 'AB30 1EF', 'AB30 1EJ', 'AB30 1EY', 'AB30 1JB', 'AB30 1ND', 'AB30 1NP', 'AB30 1QP', 'AB30 1RN', 'AB30 1TD', 'AB30 1WQ', 'AB30 1YY', 'AB31 4BA', 'AB31 4DB', 'AB31 4DN', 'AB31 4LQ', 'AB31 4PW', 'AB31 4QB', 'AB31 4RX', 'AB31 5AB', 'AB31 5AU', 'AB31 5PY', 'AB31 5YR', 'AB31 6BS', 'AB31 6JU', 'AB32 6TQ', 'AB32 6UJ', 'AB32 6UP', 'AB32 6XD', 'AB32 6XE', 'AB32 6XL', 'AB32 6YA', 'AB32 6ZX', 'AB32 7AL', 'AB32 7BU', 'AB32 7EQ', 'AB33 8AA', 'AB33 8DE', 'AB33 8DU', 'AB33 8EJ', 'AB33 8ES', 'AB33 8FJ', 'AB33 8JE', 'AB33 8QE', 'AB33 8QQ', 'AB34 4UB', 'AB34 5AA', 'AB34 5BN', 'AB34 5PP', 'AB35 5SB', 'AB36 8XA', 'AB37 9AB', 'AB37 9BA', 'AB37 9BG', 'AB37 9EA', 'AB38 7BF', 'AB38 7QP', 'AB38 7RP', 'AB38 9LB', 'AB38 9LT', 'AB38 9NS', 'AB38 9QJ', 'AB38 9QN', 'AB38 9SP', 'AB39 2NH', 'AB39 2TT', 'AB39 2TY', 'AB39 2UD', 'AB39 2XW', 'AB39 3NS', 'AB39 3PT', 'AB39 3QE', 'AB39 3QL', 'AB39 3QQ', 'AB39 3RA', 'AB39 3SS', 'AB39 3YD', 'AB41 6AZ', 'AB41 6QS', 'AB41 7DT', 'AB41 7GB', 'AB41 7HS', 'AB41 7LR', 'AB41 8AD', 'AB41 8LZ', 'AB41 8ND', 'AB41 8PF', 'AB41 8SE', 'AB41 8YX', 'AB41 9BX', 'AB41 9GJ', 'AB41 9LL', 'AB41 9RD', 'AB42 0NE', 'AB42 0QN', 'AB42 0ST', 'AB42 1BN', 'AB42 1BP', 'AB42 1DH', 'AB42 1DS', 'AB42 1HH', 'AB42 1HL', 'AB42 1JF', 'AB42 1JP', 'AB42 1RQ', 'AB42 1UD', 'AB42 2PF', 'AB42 2ZX', 'AB42 3EA', 'AB42 3ED', 'AB42 3GX', 'AB42 3GY', 'AB42 3LA', 'AB42 3LJ', 'AB42 4HJ', 'AB42 4HR', 'AB42 4JJ', 'AB42 4LU', 'AB42 4NH', 'AB42 4QT', 'AB42 4TD', 'AB42 4UA', 'AB42 4UT', 'AB42 4XE', 'AB42 4XT', 'AB42 4YX', 'AB42 5AT', 'AB42 5BR', 'AB42 5BY', 'AB42 5DJ', 'AB42 5EJ', 'AB42 5LN', 'AB42 5RH', 'AB42 5SF', 'AB42 5SJ', 'AB43 6HQ', 'AB43 6PR', 'AB43 6PU', 'AB43 6RL', 'AB43 6RN', 'AB43 6SP', 'AB43 6TT', 'AB43 7AH', 'AB43 7AR', 'AB43 7BA', 'AB43 7BG', 'AB43 7DE', 'AB43 7ED', 'AB43 7EH', 'AB43 7JL', 'AB43 7JQ', 'AB43 7NU', 'AB43 8QQ', 'AB43 8QX', 'AB43 8UH', 'AB43 8UQ', 'AB43 8UR', 'AB43 8UX', 'AB43 8XB', 'AB43 9AJ', 'AB43 9EB', 'AB43 9ER', 'AB43 9LG', 'AB43 9NW', 'AB43 9QS', 'AB43 9SX', 'AB43 9TB', 'AB43 9TD', 'AB44 1GD', 'AB44 1UJ', 'AB45 1EJ', 'AB45 1JB', 'AB45 2DP', 'AB45 2JJ', 'AB45 2LA', 'AB45 2LJ', 'AB45 2NN', 'AB45 2NW', 'AB45 2QE', 'AB45 2SQ', 'AB45 2SS', 'AB45 2UX', 'AB45 2YD', 'AB45 2YX', 'AB45 3EQ', 'AB45 3ER', 'AB45 3HT', 'AB45 3PN', 'AB45 3QP', 'AB45 3XD', 'AB45 3XU', 'AB51 0DN', 'AB51 0DP', 'AB51 0DQ', 'AB51 0EH', 'AB51 0EJ', 'AB51 0EN', 'AB51 0EZ', 'AB51 0FD', 'AB51 0GP', 'AB51 0JL', 'AB51 0LG', 'AB51 0LT', 'AB51 0TH', 'AB51 0UY', 'AB51 0XG', 'AB51 0XQ', 'AB51 0XX', 'AB51 0YA', 'AB51 0YP', 'AB51 0YR', 'AB51 0YX', 'AB51 3XX', 'AB51 4TE', 'AB51 5AU', 'AB51 5AX', 'AB51 5BE', 'AB51 5HU', 'AB51 5JU', 'AB51 5NH', 'AB51 5QF', 'AB51 5QW', 'AB51 5XZ', 'AB51 7JA', 'AB51 7LQ', 'AB51 7NB', 'AB51 7NL', 'AB51 7PQ', 'AB51 7RD', 'AB51 8TR', 'AB51 8UB', 'AB51 8UH', 'AB51 8YA', 'AB51 8YB', 'AB52 6HF', 'AB52 6HW', 'AB52 6JB', 'AB52 6JJ', 'AB52 6JW', 'AB52 6LW', 'AB52 6PT', 'AB52 6QT', 'AB52 6SH', 'AB52 6TS', 'AB52 6XB', 'AB52 6XJ', 'AB52 6XP', 'AB52 6YD', 'AB52 6YT', 'AB53 4AX', 'AB53 4DZ', 'AB53 4ER', 'AB53 4GD', 'AB53 4HD', 'AB53 4HG', 'AB53 4HJ', 'AB53 4PA', 'AB53 4UF', 'AB53 4WD', 'AB53 5PN', 'AB53 5QH', 'AB53 5QJ', 'AB53 5QY', 'AB53 5RL', 'AB53 5RP', 'AB53 5UA', 'AB53 5UX', 'AB53 5XD', 'AB53 5XU', 'AB53 5YD', 'AB53 5YH', 'AB53 6TA', 'AB53 6YH', 'AB53 8AH', 'AB53 8AJ', 'AB53 8BJ', 'AB53 8DT', 'AB53 8EH', 'AB53 8HN', 'AB53 8HW', 'AB53 8LT', 'AB53 8NB', 'AB53 8PH', 'AB53 8QL', 'AB53 8QY', 'AB54 4HB', 'AB54 4JH', 'AB54 4JP', 'AB54 4RA', 'AB54 4XX', 'AB54 6AG', 'AB54 6BD', 'AB54 6HP', 'AB54 6JA', 'AB54 7SJ', 'AB54 7SR', 'AB54 7TS', 'AB54 7UT', 'AB54 7YA', 'AB54 8DB', 'AB54 8HD', 'AB54 8HU', 'AB54 8JF', 'AB54 8JX', 'AB54 8SX', 'AB55 4AY', 'AB55 4DD', 'AB55 4DX', 'AB55 5DD', 'AB55 5ED', 'AB55 5EG', 'AB55 5EW', 'AB55 5JR', 'AB55 5JY', 'AB55 5NT', 'AB55 5PE', 'AB55 6QQ', 'AB55 6RN', 'AB55 6TS', 'AB55 6XS', 'AB56 1LN', 'AB56 1UT', 'AB56 1UX', 'AB56 4BU', 'AB56 4BY', 'AB56 4PJ', 'AB56 5UT', 'AL1 1NS', 'AL1 1UD', 'AL1 2BP', 'AL1 2HP', 'AL1 2HR', 'AL1 2LL', 'AL1 2LY', 'AL1 2QA', 'AL1 2QZ', 'AL1 3TF', 'AL1 4AG', 'AL1 5UG', 'AL10 0HN', 'AL10 0HQ', 'AL10 0HS', 'AL10 0JD', 'AL10 0PR', 'AL10 0TN', 'AL10 8BJ', 'AL10 8LU', 'AL10 9BD', 'AL10 9BS', 'AL10 9DA', 'AL10 9JT', 'AL10 9LB', 'AL10 9NE', 'AL10 9SQ', 'AL10 9TQ', 'AL2 1DG', 'AL2 1JG', 'AL2 1JW', 'AL2 1LF', 'AL2 1LG', 'AL2 1LW', 'AL2 1TG', 'AL2 2DL', 'AL2 2DS', 'AL2 2FL', 'AL2 3AA', 'AL2 3NL', 'AL2 3QB', 'AL2 3QL', 'AL2 3UN', 'AL3 4EB', 'AL3 4TQ', 'AL3 5AE', 'AL3 5UN', 'AL3 6NW', 'AL3 6NX', 'AL3 6PF', 'AL3 6PQ', 'AL3 6RG', 'AL3 7JH', 'AL3 7JP', 'AL3 7LP', 'AL3 8AJ', 'AL3 8HA', 'AL3 8HN', 'AL3 8JR', 'AL3 8JS', 'AL4 0LS', 'AL4 0NH', 'AL4 0NY', 'AL4 0PG', 'AL4 0PL', 'AL4 0PP', 'AL4 0PR', 'AL4 0QR', 'AL4 0QS', 'AL4 0RN', 'AL4 0RX', 'AL4 8HH', 'AL4 8NQ', 'AL4 8RG', 'AL4 8TR', 'AL4 9HF', 'AL4 9LZ', 'AL5 1NA', 'AL5 1PW', 'AL5 1RL', 'AL5 2AY', 'AL5 4JU', 'AL5 5AW', 'AL6 0HA', 'AL6 0UL', 'AL6 9LX', 'AL6 9TY', 'AL7 1DN', 'AL7 1ET', 'AL7 1GY', 'AL7 1HT', 'AL7 1JA', 'AL7 1JQ', 'AL7 1QP', 'AL7 1RH', 'AL7 1RX', 'AL7 1TW', 'AL7 1UN', 'AL7 2AA', 'AL7 2DP', 'AL7 2SP', 'AL7 3QA', 'AL7 3UQ', 'AL7 3UW', 'AL7 3XH', 'AL7 4SP', 'AL7 4SR', 'AL7 4SS', 'AL7 4ST', 'AL9 5BL', 'AL9 5LD', 'AL9 5RB', 'AL9 6AB', 'AL9 6HQ', 'AL9 6NF', 'AL9 7AY', 'AL9 7HF', 'AL9 7LJ', 'AL9 7LQ', 'AL9 7NJ', 'AL9 7SA', 'AL9 7TT', 'AL9 7UG', 'AL9 7UU', 'ALPHAMSTONE ROAD', 'B1 1RF', 'B1 2JR', 'B1 3EE', 'B10 0HR', 'B10 0JA', 'B10 0RU', 'B11 1DQ', 'B11 1DT', 'B11 1DU', 'B11 1NU', 'B11 1NX', 'B11 2AP', 'B11 2AQ', 'B11 2AU', 'B11 2AX', 'B11 2BE', 'B11 2BH', 'B11 2BL', 'B11 2DA', 'B11 2HX', 'B11 2LR', 'B11 2RQ', 'B11 3HA', 'B11 3LL', 'B11 3TA', 'B11 4PN', 'B12 0BS', 'B12 0DA', 'B12 0JJ', 'B12 0NH', 'B12 0NY', 'B12 0SD', 'B12 8HH', 'B12 8RQ', 'B12 8TD', 'B12 8UZ', 'B12 9AH', 'B12 9SG', 'B13 0AA', 'B13 0AU', 'B13 0AW', 'B13 0DA', 'B13 0LP', 'B13 0QP', 'B13 9QF', 'B13 9SS', 'B13 9TD', 'B14 4HT', 'B14 4JB', 'B14 4LY', 'B14 5AW', 'B14 5JN', 'B14 6NB', 'B14 6TA', 'B14 7QG', 'B14 7QX', 'B15 1AZ', 'B16 0AB', 'B16 9NG', 'B17 8DS', 'B18 4AG', 'B18 4DA', 'B18 4DZ', 'B18 5HS', 'B18 5JP', 'B18 5ST', 'B18 6EX', 'B18 7AD', 'B18 7AE', 'B18 7AH', 'B18 7QD', 'B19 1HB', 'B19 1HL', 'B19 1TR', 'B2 4AY', 'B20 1AS', 'B20 1HS', 'B20 2AB', 'B20 2AG', 'B20 2DB', 'B20 2HN', 'B20 2HS', 'B20 2NH', 'B20 3DR', 'B20 3EP', 'B20 3UE', 'B21 0HT', 'B21 0QL', 'B21 0SY', 'B21 0UQ', 'B21 9DD', 'B21 9JX', 'B21 9LZ', 'B21 9NY', 'B23 5EJ', 'B23 5LJ', 'B23 5RN', 'B23 5TE', 'B23 6AS', 'B23 6DY', 'B23 6HB', 'B23 6JJ', 'B23 6PP', 'B23 6UU', 'B23 7AE', 'B23 7EE', 'B23 7FG', 'B23 7JE', 'B23 7YG', 'B24 0BA', 'B24 0JN', 'B24 0JX', 'B24 0PR', 'B24 0QY', 'B24 0RD', 'B24 8TG', 'B24 9LD', 'B24 9LR', 'B24 9LT', 'B24 9QL', 'B24 9QR', 'B25 8BH', 'B25 8DW', 'B25 8ET', 'B25 8HA', 'B25 8HE', 'B25 8HF', 'B25 8LE', 'B25 8NG', 'B25 8PB', 'B25 8PW', 'B25 8QA', 'B25 8SS', 'B26 1HN', 'B26 1LT', 'B26 3BE', 'B26 3NB', 'B26 3QD', 'B26 3QJ', 'B26 3RL', 'B27 6HP', 'B27 6JP', 'B27 6LR', 'B27 6NX', 'B27 6PY', 'B27 6SE', 'B27 7AN', 'B28 0HN', 'B28 0HQ', 'B28 8AQ', 'B28 8EL', 'B28 8HU', 'B28 8JG', 'B28 8LH', 'B28 8SE', 'B28 9BG', 'B28 9HH', 'B28 9NG', 'B29 5BH', 'B29 6EN', 'B29 6JE', 'B29 6SN', 'B29 7HG', 'B29 7SG', 'B29 9JL', 'B30 1PD', 'B30 1TB', 'B30 2RX', 'B30 2YT', 'B30 3AX', 'B30 3DY', 'B30 3QG', 'B31 1AL', 'B31 1BT', 'B31 1XB', 'B31 2LQ', 'B31 4AJ', 'B31 5BB', 'B31 5BD', 'B31 5SE', 'B32 1DY', 'B32 1NX', 'B32 1QH', 'B32 1QJ', 'B32 2DX', 'B32 2EY', 'B32 2SD', 'B32 2SJ', 'B32 2UZ', 'B32 3AH', 'B32 3BT', 'B32 3QR', 'B32 4LJ', 'B33 0JD', 'B33 0JT', 'B33 0JY', 'B33 0LE', 'B33 0QX', 'B33 0SL', 'B33 0SS', 'B33 0TD', 'B33 0TE', 'B33 0TJ', 'B33 0UE', 'B33 9AN', 'B33 9BU', 'B33 9EF', 'B33 9EG', 'B33 9EJ', 'B33 9HJ', 'B33 9PP', 'B33 9TX', 'B34 6AG', 'B34 6AN', 'B34 7EG', 'B34 7NR', 'B35 6AN', 'B35 6JT', 'B35 6LJ', 'B35 6LN', 'B35 6PJ', 'B35 7ND', 'B35 7QA', 'B35 7QH', 'B35 7RA', 'B36 0AF', 'B36 0BJ', 'B36 0HH', 'B36 0HL', 'B36 0LJ', 'B36 0UD', 'B36 0UG', 'B36 0UJ', 'B36 8AA', 'B36 8DT', 'B36 8TB', 'B36 9BY', 'B36 9SJ', 'B36 9SU', 'B36 9SW', 'B37 5AY', 'B37 6AG', 'B37 6LD', 'B37 7BQ', 'B37 7HE', 'B37 7JD', 'B37 7WY', 'B37 7XN', 'B37 7YN', 'B38 0AJ', 'B38 8JF', 'B38 8NA', 'B38 8SE', 'B4 6LJ', 'B42 1EX', 'B42 1NA', 'B42 1PS', 'B42 1TU', 'B42 1TY', 'B42 2RZ', 'B42 2TX', 'B43 5JD', 'B43 5QF', 'B43 6DE', 'B43 6DS', 'B43 6HD', 'B43 6HY', 'B43 6JA', 'B43 6JE', 'B43 6JX', 'B43 6NU', 'B43 6PU', 'B43 7EH', 'B43 7HU', 'B43 7JW', 'B43 7LG', 'B43 7RH', 'B43 7RJ', 'B44 0EW', 'B44 0LP', 'B44 8HB', 'B44 8NH', 'B44 8PE', 'B44 8SY', 'B44 9ER', 'B44 9SH', 'B45 0EE', 'B45 0NJ', 'B45 9HH', 'B45 9TJ', 'B45 9UA', 'B46 1AL', 'B46 1DT', 'B46 1EJ', 'B46 1HQ', 'B46 1HT', 'B46 1JB', 'B46 1JG', 'B46 1JJ', 'B46 1JP', 'B46 1JU', 'B46 1LN', 'B46 2AF', 'B46 2EN', 'B46 2ET', 'B46 2JY', 'B46 2LH', 'B46 2LS', 'B46 2NE', 'B46 2NP', 'B46 2NS', 'B46 2QY', 'B46 2RT', 'B46 2SG', 'B46 3EG', 'B47 5BT', 'B47 5HH', 'B47 5LA', 'B47 5PY', 'B48 7AQ', 'B48 7ES', 'B48 7HX', 'B48 7RA', 'B49 5DA', 'B49 5QG', 'B49 6EP', 'B49 6HJ', 'B49 6JR', 'B5 5QD', 'B5 5SE', 'B5 6DB', 'B5 6DD', 'B5 6RG', 'B5 6UU', 'B5 7DJ', 'B5 7EP', 'B5 7JL', 'B5 7NX', 'B50 4DS', 'B50 4HQ', 'B50 4HW', 'B50 4QE', 'B6 4DA', 'B6 4EP', 'B6 4HG', 'B6 5PL', 'B6 5TG', 'B6 6BP', 'B6 6NH', 'B6 7AT', 'B6 7AX', 'B6 7AY', 'B6 7BH', 'B6 7DA', 'B6 7DB', 'B6 7EB', 'B6 7EG', 'B6 7EP', 'B6 7EX', 'B6 7LP', 'B6 7RT', 'B6 7SH', 'B6 7SS', 'B6 7ST', 'B60 1BB', 'B60 1NE', 'B60 2HR', 'B60 2NX', 'B60 3AE', 'B60 3DN', 'B60 3DR', 'B60 3DW', 'B60 3DX', 'B60 3EX', 'B60 3HA', 'B60 3PE', 'B60 3QS', 'B60 4AD', 'B60 4BF', 'B60 4BL', 'B60 4DA', 'B60 4DJ', 'B60 4FE', 'B61 0HS', 'B61 0JL', 'B61 0JN', 'B61 0JY', 'B61 0PG', 'B61 0PL', 'B61 0QB', 'B61 0QR', 'B61 0QY', 'B61 0RJ', 'B61 7BH', 'B61 7ED', 'B61 8HZ', 'B61 9DZ', 'B61 9JB', 'B61 9JJ', 'B62 0DP', 'B62 0DW', 'B62 0EU', 'B62 0EW', 'B62 8AN', 'B62 8BH', 'B62 8HD', 'B62 8PP', 'B62 8RP', 'B62 8TD', 'B62 8TR', 'B62 8TW', 'B62 9HL', 'B62 9JL', 'B62 9NL', 'B63 1EL', 'B63 2NJ', 'B63 2QJ', 'B63 2QQ', 'B63 2RE', 'B63 2RL', 'B63 2SD', 'B63 2TB', 'B63 2UH', 'B63 2YD', 'B63 3DZ', 'B63 3PN', 'B63 3QR', 'B63 3TB', 'B63 3XB', 'B63 4NB', 'B63 4QL', 'B63 4SL', 'B64 5AD', 'B64 5BA', 'B64 5EL', 'B64 5ER', 'B64 5LL', 'B64 5NA', 'B64 5PX', 'B64 5QQ', 'B64 5QR', 'B64 5QU', 'B64 5QY', 'B64 5RG', 'B64 5SS', 'B64 6BS', 'B64 6EF', 'B64 6NL', 'B64 6PS', 'B64 6PW', 'B64 6RL', 'B64 7AN', 'B64 7BB', 'B64 7BG', 'B64 7BY', 'B64 7EA', 'B65 0AL', 'B65 0LL', 'B65 0PD', 'B65 0QG', 'B65 0QN', 'B65 0QW', 'B65 8AR', 'B65 8BL', 'B65 8EG', 'B65 8LQ', 'B65 8PL', 'B65 8QD', 'B65 8QF', 'B65 9DP', 'B65 9ET', 'B65 9EZ', 'B65 9PX', 'B65 9QA', 'B65 9QD', 'B65 9QE', 'B65 9SQ', 'B66 1BF', 'B66 1BG', 'B66 1BL', 'B66 1BP', 'B66 1BT', 'B66 1BY', 'B66 1DJ', 'B66 1NN', 'B66 1QR', 'B66 1QS', 'B66 2AA', 'B66 2DA', 'B66 2DF', 'B66 2DR', 'B66 2DZ', 'B66 2EH', 'B66 2EP', 'B66 2EQ', 'B66 2JP', 'B66 2JR', 'B66 2ND', 'B66 2NZ', 'B66 2PF', 'B66 2QF', 'B66 2QL', 'B66 2QZ', 'B66 2RL', 'B66 2RT', 'B66 2SN', 'B66 3AR', 'B66 3BL', 'B66 3DB', 'B66 3DL', 'B66 3DR', 'B66 3EH', 'B66 3TT', 'B66 4AN', 'B66 4DS', 'B66 4HP', 'B67 5BS', 'B67 5BW', 'B67 5PF', 'B67 6BZ', 'B67 6HZ', 'B67 6LU', 'B67 6QR', 'B67 6RS', 'B67 7AN', 'B67 7BA', 'B67 7BG', 'B67 7EY', 'B67 7HE', 'B67 7HH', 'B67 7JD', 'B67 7JH', 'B67 7LW', 'B67 7NA', 'B67 7NH', 'B67 7NN', 'B67 7QN', 'B67 7QZ', 'B67 7RE', 'B68 0BS', 'B68 0ES', 'B68 8EB', 'B68 8ES', 'B68 8PN', 'B68 9EZ', 'B68 9JA', 'B68 9JR', 'B68 9LA', 'B68 9NJ', 'B68 9RU', 'B69 1AU', 'B69 1BB', 'B69 1DT', 'B69 1DU', 'B69 1HF', 'B69 1HJ', 'B69 1QA', 'B69 1RZ', 'B69 1TG', 'B69 1UH', 'B69 1UP', 'B69 2AG', 'B69 2AP', 'B69 2BP', 'B69 2GD', 'B69 2GJ', 'B69 2JJ', 'B69 2LX', 'B69 2NH', 'B69 2NR', 'B69 2NY', 'B69 3AY', 'B69 3EB', 'B69 3EQ', 'B69 3EX', 'B69 3HW', 'B69 3HY', 'B69 3JS', 'B69 4BL', 'B69 4EQ', 'B69 4ET', 'B69 4HH', 'B69 4HT', 'B69 4JU', 'B69 4LA', 'B69 4LP', 'B69 4NB', 'B69 4NH', 'B69 4NQ', 'B69 4PH', 'B69 4QW', 'B69 4RJ', 'B69 4TG', 'B69 4WD', 'B7 4BD', 'B7 4JD', 'B7 4LL', 'B7 4PR', 'B7 4RP', 'B7 4SA', 'B7 4SB', 'B7 4SL', 'B7 4TS', 'B7 5AB', 'B7 5AF', 'B7 5AH', 'B7 5EA', 'B7 5EE', 'B7 5EH', 'B7 5JD', 'B7 5JJ', 'B7 5PJ', 'B7 5QT', 'B7 5RG', 'B7 5RQ', 'B7 5RX', 'B7 5TE', 'B7 5TJ', 'B70 0AF', 'B70 0AW', 'B70 0AX', 'B70 0AZ', 'B70 0BD', 'B70 0BG', 'B70 0EB', 'B70 0ER', 'B70 0HW', 'B70 0PB', 'B70 0PG', 'B70 0PP', 'B70 0PU', 'B70 0SU', 'B70 0TU', 'B70 0TX', 'B70 0UH', 'B70 6AZ', 'B70 6DG', 'B70 6RP', 'B70 6TQ', 'B70 6TS', 'B70 7EG', 'B70 7HE', 'B70 7JF', 'B70 7JW', 'B70 7JY', 'B70 7LP', 'B70 7LT', 'B70 8AL', 'B70 8PN', 'B70 9DD', 'B70 9DE', 'B70 9DH', 'B70 9DR', 'B70 9DS', 'B70 9EH', 'B70 9PQ', 'B71 1AR', 'B71 1EQ', 'B71 1HA', 'B71 1HG', 'B71 1HU', 'B71 1PU', 'B71 1RL', 'B71 2QJ', 'B71 2RP', 'B71 3AF', 'B71 3BP', 'B71 3DJ', 'B71 3JD', 'B71 3JT', 'B71 3LH', 'B71 3QA', 'B71 3QG', 'B71 4DX', 'B71 4HS', 'B71 4JH', 'B71 4JW', 'B71 4JZ', 'B72 1BW', 'B72 1DW', 'B73 5BU', 'B73 5DA', 'B73 9JG', 'B74 2AX', 'B74 2AY', 'B74 2BW', 'B74 2DU', 'B74 2FE', 'B74 2PJ', 'B74 3EH', 'B74 3NT', 'B74 3QJ', 'B74 3QR', 'B74 3SY', 'B74 3TT', 'B74 4BL', 'B74 4UF', 'B74 4YD', 'B75 5LH', 'B75 5RP', 'B75 5SZ', 'B75 6AJ', 'B75 6QX', 'B75 6TF', 'B75 7ET', 'B75 7HR', 'B75 7PD', 'B75 7QL', 'B76 0BE', 'B76 0BL', 'B76 0DP', 'B76 0DS', 'B76 0EQ', 'B76 1AB', 'B76 1AF', 'B76 1AH', 'B76 1BL', 'B76 1HJ', 'B76 1PA', 'B76 2BG', 'B76 2RR', 'B76 2SA', 'B76 2ST', 'B76 9DD', 'B76 9EE', 'B76 9EH', 'B76 9HE', 'B76 9JF', 'B76 9JG', 'B76 9QA', 'B76 9QW', 'B77 1AS', 'B77 1EH', 'B77 1JB', 'B77 1JF', 'B77 1LA', 'B77 1LF', 'B77 1LP', 'B77 1NX', 'B77 2AF', 'B77 2AN', 'B77 2LF', 'B77 2NZ', 'B77 3AE', 'B77 3BT', 'B77 3BY', 'B77 3LH', 'B77 3QG', 'B77 3QW', 'B77 4AS', 'B77 4BL', 'B77 4BS', 'B77 4DR', 'B77 4ED', 'B77 4HS', 'B77 4NB', 'B77 4NR', 'B77 4PJ', 'B77 4RP', 'B77 5BH', 'B77 5BY', 'B77 5DQ', 'B77 5EG', 'B77 5FD', 'B77 5GF', 'B77 5HH', 'B77 5HR', 'B77 5LY', 'B77 5PA', 'B77 5PB', 'B77 5PL', 'B77 5PR', 'B77 5TA', 'B77 5TG', 'B78 1AP', 'B78 1BB', 'B78 1BT', 'B78 1BX', 'B78 1EF', 'B78 1JT', 'B78 1NB', 'B78 1QR', 'B78 1SD', 'B78 1SE', 'B78 1SZ', 'B78 2AH', 'B78 2AW', 'B78 2BN', 'B78 2BP', 'B78 2BU', 'B78 2DZ', 'B78 2EX', 'B78 2HA', 'B78 2JW', 'B78 2LT', 'B78 3AA', 'B78 3AU', 'B78 3DE', 'B78 3DJ', 'B78 3DW', 'B78 3EQ', 'B78 3GL', 'B78 3HH', 'B78 3HJ', 'B78 3HP', 'B78 3JN', 'B78 3LG', 'B78 3PN', 'B78 3RF', 'B78 3RW', 'B78 3SS', 'B78 3TR', 'B78 3XS', 'B78 3XT', 'B79 0BN', 'B79 0EH', 'B79 0JL', 'B79 0NR', 'B79 0PE', 'B79 7EU', 'B79 7JY', 'B79 7QP', 'B79 7TA', 'B79 7TD', 'B79 7UL', 'B79 7UR', 'B79 7XD', 'B79 7YL', 'B79 8PG', 'B79 8PQ', 'B79 8RU', 'B79 8SD', 'B79 9BP', 'B79 9BW', 'B8 1AE', 'B8 1AU', 'B8 1BG', 'B8 1BT', 'B8 1BY', 'B8 1JL', 'B8 1JN', 'B8 1QF', 'B8 1SR', 'B8 2JG', 'B8 2SE', 'B8 2TS', 'B8 2UL', 'B8 3EA', 'B8 3RB', 'B80 7AH', 'B80 7AS', 'B80 7DF', 'B80 7DU', 'B80 7EJ', 'B80 7EN', 'B80 7QW', 'B80 7RP', 'B9 4BA', 'B9 4BZ', 'B9 4DY', 'B9 4EN', 'B9 4PE', 'B9 4PP', 'B9 4QJ', 'B9 4SJ', 'B9 5AB', 'B9 5BL', 'B9 5BU', 'B9 5NA', 'B9 5SS', 'B9 5US', 'B9 5XF', 'B90 1DT', 'B90 1JN', 'B90 1JQ', 'B90 1JZ', 'B90 1LP', 'B90 1QF', 'B90 1QX', 'B90 2BB', 'B90 3ED', 'B90 3EF', 'B90 3HS', 'B90 3JH', 'B90 4BT', 'B90 4DU', 'B90 4ND', 'B90 4NE', 'B90 4NR', 'B90 4NY', 'B90 4NZ', 'B90 4QJ', 'B90 4QT', 'B90 4TB', 'B90 4YW', 'B90 8AG', 'B90 8AU', 'B91 2JU', 'B91 2JY', 'B91 2LW', 'B91 2LZ', 'B91 2PL', 'B91 2SU', 'B91 3YD', 'B92 0DY', 'B92 0LG', 'B92 0PX', 'B92 7PG', 'B92 7QS', 'B92 8BD', 'B92 8JE', 'B93 0EF', 'B93 0HG', 'B93 9ER', 'B93 9HZ', 'B93 9JH', 'B94 5LL', 'B94 5LR', 'B94 5LT', 'B94 6EA', 'B94 6EU', 'B95 5HR', 'B95 5JJ', 'B95 5QS', 'B96 6BG', 'B96 6JB', 'B96 6LX', 'B96 6NH', 'B96 6NN', 'B96 6SR', 'B96 6SX', 'B97 4LX', 'B97 4RF', 'B97 4RG', 'B97 5LS', 'B97 5PH', 'B97 5XP', 'B97 5YD', 'B97 6EW', 'B97 6HA', 'B97 6JS', 'B97 6LF', 'B97 6NS', 'B97 6PU', 'B97 6RG', 'B98 0DG', 'B98 0DN', 'B98 0HU', 'B98 0HX', 'B98 0PW', 'B98 0QP', 'B98 0RA', 'B98 0TG', 'B98 7HP', 'B98 7NW', 'B98 7SE', 'B98 7SF', 'B98 7SJ', 'B98 7SN', 'B98 7SR', 'B98 7TE', 'B98 8AA', 'B98 8JY', 'B98 8NT', 'B98 8RP', 'B98 8YN', 'B98 9AH', 'B98 9BW', 'B98 9DB', 'B98 9DP', 'B98 9EJ', 'B98 9EP', 'B98 9EY', 'B98 9HH', 'B98 9JX', 'BA1 1LF', 'BA1 3AD', 'BA1 3EL', 'BA1 4NA', 'BA1 5DJ', 'BA1 7AH', 'BA1 7DD', 'BA1 7DG', 'BA1 9AF', 'BA1 9AN', 'BA10 0EH', 'BA10 0JF', 'BA10 0JH', 'BA10 0JL', 'BA10 0JW', 'BA11 1FZ', 'BA11 1GA', 'BA11 1RE', 'BA11 2BU', 'BA11 2DU', 'BA11 2DW', 'BA11 2DZ', 'BA11 2HE', 'BA11 2JB', 'BA11 2LE', 'BA11 2NA', 'BA11 2NN', 'BA11 2RA', 'BA11 2RG', 'BA11 2RH', 'BA11 2RN', 'BA11 2RW', 'BA11 2TA', 'BA11 2TD', 'BA11 2TU', 'BA11 2XF', 'BA11 2XU', 'BA11 2YA', 'BA11 3DT', 'BA11 3EX', 'BA11 3LH', 'BA11 3LY', 'BA11 3NW', 'BA11 3RG', 'BA11 3SD', 'BA11 4AP', 'BA11 4AT', 'BA11 4BB', 'BA11 4BN', 'BA11 4BY', 'BA11 4ET', 'BA11 4HF', 'BA11 4HR', 'BA11 4HW', 'BA11 4JN', 'BA11 4NJ', 'BA11 4NQ', 'BA11 4NS', 'BA11 4PF', 'BA11 4PZ', 'BA11 4RB', 'BA11 4RJ', 'BA11 4RL', 'BA11 4RP', 'BA11 5BU', 'BA11 5DH', 'BA11 5DP', 'BA11 5EN', 'BA11 5ES', 'BA11 5HD', 'BA11 5HP', 'BA11 5HT', 'BA11 5JH', 'BA11 5JS', 'BA11 5JY', 'BA11 5LU', 'BA11 6AA', 'BA11 6PF', 'BA11 6PW', 'BA11 6TF', 'BA12 0BN', 'BA12 0BS', 'BA12 0NS', 'BA12 0PJ', 'BA12 0RZ', 'BA12 6AD', 'BA12 6AE', 'BA12 6AJ', 'BA12 6EE', 'BA12 6HL', 'BA12 6NN', 'BA12 6RG', 'BA12 7BY', 'BA12 7JG', 'BA12 7JY', 'BA12 8BT', 'BA12 8DG', 'BA12 8DH', 'BA12 8FP', 'BA12 8HD', 'BA12 8NJ', 'BA12 8PE', 'BA12 9AN', 'BA12 9DN', 'BA12 9HT', 'BA12 9JR', 'BA13 2GF', 'BA13 3AE', 'BA13 3AQ', 'BA13 3BW', 'BA13 3ES', 'BA13 3EU', 'BA13 3HP', 'BA13 3JP', 'BA13 3NR', 'BA13 3NS', 'BA13 3SH', 'BA13 3SN', 'BA13 3SX', 'BA13 4AX', 'BA13 4BA', 'BA13 4BL', 'BA13 4DG', 'BA13 4EP', 'BA13 4EQ', 'BA13 4HL', 'BA13 4JB', 'BA13 4JL', 'BA13 4JN', 'BA13 4JR', 'BA13 4JW', 'BA13 4JX', 'BA13 4LW', 'BA13 4LX', 'BA13 4NT', 'BA13 4NZ', 'BA13 4TE', 'BA13 4WD', 'BA14 0FL', 'BA14 0HD', 'BA14 0JQ', 'BA14 0LH', 'BA14 0NE', 'BA14 0PE', 'BA14 0SA', 'BA14 0SQ', 'BA14 6EF', 'BA14 6HA', 'BA14 6LB', 'BA14 6LX', 'BA14 7BA', 'BA14 7HL', 'BA14 7QS', 'BA14 7RZ', 'BA14 8BL', 'BA14 8DX', 'BA14 8EN', 'BA14 8JD', 'BA14 8JN', 'BA14 8LN', 'BA14 8QU', 'BA14 8RL', 'BA14 8RQ', 'BA14 9AT', 'BA14 9DB', 'BA14 9EY', 'BA14 9GB', 'BA14 9HJ', 'BA14 9NE', 'BA14 9NL', 'BA14 9PN', 'BA15 2PP', 'BA15 2QD', 'BA15 2QP', 'BA16 0JW', 'BA16 0RU', 'BA16 0SN', 'BA16 9PE', 'BA16 9RN', 'BA16 9SF', 'BA16 9SG', 'BA2 0AQ', 'BA2 0AZ', 'BA2 0BH', 'BA2 0DL', 'BA2 0FB', 'BA2 0HH', 'BA2 0JX', 'BA2 0LR', 'BA2 0LT', 'BA2 1HL', 'BA2 1LB', 'BA2 1QJ', 'BA2 1RF', 'BA2 2ET', 'BA2 2NG', 'BA2 3AY', 'BA2 4EU', 'BA2 6RX', 'BA2 7HP', 'BA2 7NW', 'BA2 8AX', 'BA2 8DH', 'BA2 8DJ', 'BA2 8HF', 'BA2 8JT', 'BA2 8PT', 'BA2 8SS', 'BA2 9AP', 'BA2 9DR', 'BA20 2EB', 'BA20 2ED', 'BA20 2HP', 'BA20 2QR', 'BA21 3AR', 'BA21 3DF', 'BA21 4RJ', 'BA21 4RR', 'BA21 5DL', 'BA21 5EA', 'BA21 5HA', 'BA21 5HR', 'BA21 5LB', 'BA21 5NG', 'BA21 5TL', 'BA22 7AA', 'BA22 7AB', 'BA22 7AE', 'BA22 7BJ', 'BA22 7JQ', 'BA22 7LG', 'BA22 7LH', 'BA22 7LL', 'BA22 7LW', 'BA22 7LZ', 'BA22 7RG', 'BA22 8DH', 'BA22 8DL', 'BA22 8HU', 'BA22 8HZ', 'BA22 8JG', 'BA22 8PE', 'BA22 8PH', 'BA22 8PQ', 'BA22 8QL', 'BA22 8RL', 'BA22 8RP', 'BA22 8RT', 'BA22 8RY', 'BA22 8UU', 'BA22 9DH', 'BA22 9EE', 'BA22 9QY', 'BA22 9RQ', 'BA22 9SF', 'BA3 2AA', 'BA3 2AN', 'BA3 2BB', 'BA3 2DE', 'BA3 2EJ', 'BA3 2HD', 'BA3 2JH', 'BA3 2PZ', 'BA3 2QY', 'BA3 2SZ', 'BA3 2TP', 'BA3 2TZ', 'BA3 2UL', 'BA3 2UN', 'BA3 3AN', 'BA3 3AT', 'BA3 3BR', 'BA3 3BT', 'BA3 3BY', 'BA3 3ET', 'BA3 3EW', 'BA3 3JG', 'BA3 3NB', 'BA3 3NU', 'BA3 3RE', 'BA3 3SB', 'BA3 3TH', 'BA3 3YU', 'BA3 4AZ', 'BA3 4BH', 'BA3 4BW', 'BA3 4BY', 'BA3 4DN', 'BA3 4EF', 'BA3 4GD', 'BA3 4JE', 'BA3 4JL', 'BA3 4JW', 'BA3 4LW', 'BA3 4LX', 'BA3 4RF', 'BA3 4SA', 'BA3 4SG', 'BA3 4ST', 'BA3 4TE', 'BA3 4TH', 'BA3 4UQ', 'BA3 4UZ', 'BA3 5DD', 'BA3 5DS', 'BA3 5DW', 'BA3 5EX', 'BA3 5HH', 'BA3 5HP', 'BA3 5JU', 'BA3 5LF', 'BA3 5LG', 'BA3 5PB', 'BA3 5PW', 'BA3 5TX', 'BA3 5XE', 'BA4 4AW', 'BA4 4BW', 'BA4 4DN', 'BA4 4DS', 'BA4 4JS', 'BA4 4JT', 'BA4 4PJ', 'BA4 4PL', 'BA4 4QR', 'BA4 4QS', 'BA4 4RF', 'BA4 4RG', 'BA4 4RN', 'BA4 4RP', 'BA4 4SL', 'BA4 4SZ', 'BA4 4TP', 'BA4 4TQ', 'BA4 5AX', 'BA4 5FL', 'BA4 5GA', 'BA4 5GH', 'BA4 5GL', 'BA4 5HL', 'BA4 5ND', 'BA4 5PP', 'BA4 5QQ', 'BA4 5QR', 'BA4 5RP', 'BA4 5SX', 'BA4 5TN', 'BA4 5XL', 'BA4 5XR', 'BA4 5XY', 'BA4 5YA', 'BA4 6AT', 'BA4 6DT', 'BA4 6HT', 'BA4 6LD', 'BA4 6LJ', 'BA4 6LQ', 'BA4 6LR', 'BA4 6LX', 'BA4 6NA', 'BA4 6PR', 'BA4 6QW', 'BA4 6RD', 'BA4 6RP', 'BA4 6SF', 'BA4 6TA', 'BA5 1EH', 'BA5 1HB', 'BA5 1JW', 'BA5 1LG', 'BA5 1NH', 'BA5 1RH', 'BA5 1RX', 'BA5 1SL', 'BA5 1TQ', 'BA5 2BT', 'BA5 2DG', 'BA5 2DP', 'BA5 2ET', 'BA5 3BH', 'BA5 3DU', 'BA6 8JS', 'BA6 8NB', 'BA6 8ND', 'BA6 8NH', 'BA6 8PB', 'BA6 8PE', 'BA6 8TF', 'BA6 9AG', 'BA6 9AR', 'BA6 9AS', 'BA6 9DS', 'BA6 9LU', 'BA6 9NN', 'BA6 9NX', 'BA6 9SY', 'BA6 9TA', 'BA6 9TH', 'BA6 9TY', 'BA7 7BX', 'BA7 7DB', 'BA7 7DT', 'BA7 7EF', 'BA7 7EU', 'BA7 7HS', 'BA7 7JB', 'BA7 7PD', 'BA7 7PN', 'BA8 0AJ', 'BA8 0JW', 'BA8 0JZ', 'BA8 0NJ', 'BA8 0TF', 'BA8 0TG', 'BA8 0TN', 'BA9 8AB', 'BA9 8AP', 'BA9 8BN', 'BA9 8BY', 'BA9 8HP', 'BA9 8LF', 'BA9 9DB', 'BA9 9DS', 'BA9 9DT', 'BA9 9EB', 'BA9 9EJ', 'BA9 9HD', 'BA9 9JR', 'BA9 9NF', 'BA9 9NR', 'BA9 9PL', 'BA9 9PN', 'BA9 9QL', 'BA9 9RN', 'BA9 9RR', 'BA9 9RU', 'BA9 9RZ', 'BAILEY HILL', 'BB1 1HQ', 'BB1 1NT', 'BB1 1NW', 'BB1 1RN', 'BB1 1RR', 'BB1 2BB', 'BB1 2BQ', 'BB1 2DZ', 'BB1 2LD', 'BB1 2LX', 'BB1 2NW', 'BB1 2PT', 'BB1 2QE', 'BB1 2QS', 'BB1 3BW', 'BB1 3HJ', 'BB1 3HW', 'BB1 3LX', 'BB1 3NA', 'BB1 4AS', 'BB1 4BL', 'BB1 4BZ', 'BB1 4HL', 'BB1 4NG', 'BB1 4RG', 'BB1 4RJ', 'BB1 5DN', 'BB1 5PF', 'BB1 5QX', 'BB1 6NH', 'BB1 8DH', 'BB1 8RD', 'BB1 9DP', 'BB1 9DR', 'BB1 9EX', 'BB1 9EY', 'BB1 9LJ', 'BB1 9QZ', 'BB1 9SZ', 'BB10 1EQ', 'BB10 1JW', 'BB10 2AN', 'BB10 2BQ', 'BB10 2EP', 'BB10 2JJ', 'BB10 2TJ', 'BB10 3JZ', 'BB10 3LE', 'BB10 3NY', 'BB10 3RN', 'BB10 3RS', 'BB11 1LY', 'BB11 1PQ', 'BB11 1SB', 'BB11 3HH', 'BB11 3RS', 'BB11 5BZ', 'BB11 5DA', 'BB11 5EN', 'BB11 5NS', 'BB11 5PF', 'BB11 5PP', 'BB11 5QF', 'BB11 5QG', 'BB11 5QJ', 'BB11 5RF', 'BB11 5SQ', 'BB11 5SR', 'BB11 5SX', 'BB11 5TE', 'BB11 5TH', 'BB11 5TY', 'BB12 0RT', 'BB12 0RW', 'BB12 7NG', 'BB12 7NQ', 'BB12 7QG', 'BB12 7QT', 'BB12 7SN', 'BB12 7TW', 'BB12 8DF', 'BB12 8HN', 'BB12 8UJ', 'BB12 8UY', 'BB12 9DS', 'BB12 9QA', 'BB18 5EF', 'BB18 5EN', 'BB18 5JW', 'BB18 5LA', 'BB18 5LJ', 'BB18 5NW', 'BB18 5SG', 'BB18 5TB', 'BB18 5UX', 'BB18 5XE', 'BB18 6BJ', 'BB18 6DD', 'BB18 6DW', 'BB18 6HJ', 'BB18 6JA', 'BB18 6JZ', 'BB18 6LL', 'BB18 6SG', 'BB18 6SW', 'BB18 6SY', 'BB18 6WT', 'BB2 1NU', 'BB2 1PG', 'BB2 1PN', 'BB2 1PQ', 'BB2 2NQ', 'BB2 2QR', 'BB2 2SZ', 'BB2 2TZ', 'BB2 3EY', 'BB2 3HH', 'BB2 3HN', 'BB2 3RA', 'BB2 4AA', 'BB2 4JF', 'BB2 4LY', 'BB2 4SY', 'BB2 5BS', 'BB2 5EG', 'BB2 5EY', 'BB2 5JN', 'BB2 6BN', 'BB2 7AF', 'BB2 7EG', 'BB2 7FR', 'BB2 7JA', 'BB2 7LB', 'BB2 7LJ', 'BB2 7LQ', 'BB2 7LX', 'BB2 7PY', 'BB3 0DB', 'BB3 0DW', 'BB3 0LF', 'BB3 0NR', 'BB3 0PG', 'BB3 0PR', 'BB3 0QR', 'BB3 0RP', 'BB3 1EF', 'BB3 1HT', 'BB3 1JY', 'BB3 2AY', 'BB3 2EZ', 'BB3 2HW', 'BB3 2JQ', 'BB3 2PN', 'BB3 2QE', 'BB3 2SF', 'BB3 2SQ', 'BB3 2TT', 'BB3 2UB', 'BB3 2UH', 'BB3 3BE', 'BB3 3BJ', 'BB3 3DQ', 'BB4 4EA', 'BB4 4NF', 'BB4 4NH', 'BB4 4RS', 'BB4 5AL', 'BB4 5AN', 'BB4 5BL', 'BB4 5BS', 'BB4 5EB', 'BB4 5HL', 'BB4 5LA', 'BB4 5UB', 'BB4 6DJ', 'BB4 6HT', 'BB4 6LX', 'BB4 6PD', 'BB4 6TD', 'BB4 6UB', 'BB4 7AB', 'BB4 7BZ', 'BB4 7DQ', 'BB4 7JA', 'BB4 7PA', 'BB4 7UB', 'BB4 8DF', 'BB4 8HH', 'BB4 8NF', 'BB4 8QN', 'BB4 8QW', 'BB4 8RP', 'BB4 8SP', 'BB4 9HB', 'BB4 9HU', 'BB4 9JZ', 'BB4 9LQ', 'BB4 9LR', 'BB4 9NE', 'BB4 9PL', 'BB4 9PQ', 'BB4 9RB', 'BB4 9SS', 'BB5 0EH', 'BB5 0RE', 'BB5 0RR', 'BB5 0RW', 'BB5 0SE', 'BB5 1DJ', 'BB5 1DQ', 'BB5 1NA', 'BB5 2AG', 'BB5 2DN', 'BB5 2JR', 'BB5 2QD', 'BB5 2RB', 'BB5 2RE', 'BB5 2RF', 'BB5 2TS', 'BB5 3AR', 'BB5 3BB', 'BB5 3JF', 'BB5 3SD', 'BB5 3SS', 'BB5 4DG', 'BB5 4HU', 'BB5 4NN', 'BB5 4PE', 'BB5 4RP', 'BB5 5EF', 'BB5 5ES', 'BB5 5JW', 'BB5 5JX', 'BB5 5LL', 'BB5 5NG', 'BB5 5PP', 'BB5 5QR', 'BB5 5RR', 'BB5 5SN', 'BB5 5SW', 'BB5 5TX', 'BB5 5WG', 'BB5 5WW', 'BB5 5XD', 'BB5 5XH', 'BB5 5XZ', 'BB5 5YE', 'BB5 5YJ', 'BB5 5YT', 'BB5 6AR', 'BB5 6EL', 'BB5 6NJ', 'BB5 6ST', 'BB5 6TF', 'BB6 7AX', 'BB6 7BD', 'BB6 7BQ', 'BB6 7DD', 'BB6 7DN', 'BB6 7JU', 'BB6 7LE', 'BB6 7NG', 'BB6 7RP', 'BB6 7SP', 'BB6 7SU', 'BB6 7UE', 'BB6 7UY', 'BB6 7WL', 'BB7 1EN', 'BB7 1JZ', 'BB7 1LS', 'BB7 1LY', 'BB7 1NP', 'BB7 1PJ', 'BB7 1PL', 'BB7 1PP', 'BB7 1PR', 'BB7 1PW', 'BB7 1QD', 'BB7 1QL', 'BB7 1QQ', 'BB7 1QU', 'BB7 1QW', 'BB7 2AW', 'BB7 2BG', 'BB7 2LR', 'BB7 2LT', 'BB7 2NA', 'BB7 2PB', 'BB7 2PF', 'BB7 2QF', 'BB7 2QG', 'BB7 2QP', 'BB7 2RA', 'BB7 3DQ', 'BB7 3LJ', 'BB7 3LS', 'BB7 3NB', 'BB7 4AA', 'BB7 4HU', 'BB7 4JY', 'BB7 4LH', 'BB7 4LT', 'BB7 4NJ', 'BB7 4PT', 'BB7 4QF', 'BB7 4RW', 'BB7 4SH', 'BB7 4TG', 'BB7 9DZ', 'BB7 9EH', 'BB7 9QF', 'BB7 9QY', 'BB7 9TU', 'BB7 9UY', 'BB8 0JJ', 'BB8 0QG', 'BB8 0QP', 'BB8 0TA', 'BB8 0WP', 'BB8 7AE', 'BB8 7AT', 'BB8 7EF', 'BB8 7EN', 'BB8 7EW', 'BB8 7HX', 'BB8 7JR', 'BB8 7NT', 'BB8 7PP', 'BB8 8BZ', 'BB8 8EG', 'BB8 8ER', 'BB8 8LF', 'BB8 8QS', 'BB8 8TB', 'BB8 9PD', 'BB8 9PE', 'BB8 9QX', 'BB8 9RG', 'BB8 9RH', 'BB8 9RU', 'BB8 9RW', 'BB8 9SH', 'BB9 0ER', 'BB9 0HD', 'BB9 0HZ', 'BB9 0JD', 'BB9 0LY', 'BB9 0NB', 'BB9 0NN', 'BB9 0QE', 'BB9 0QS', 'BB9 0QZ', 'BB9 0RP', 'BB9 5JY', 'BB9 5NN', 'BB9 5SR', 'BB9 6BX', 'BB9 6HX', 'BB9 6QQ', 'BB9 6RS', 'BB9 6RT', 'BB9 6SH', 'BB9 7HB', 'BB9 7YG', 'BB9 7YQ', 'BB9 8AD', 'BB9 8AH', 'BB9 8AJ', 'BB9 8BD', 'BB9 8DF', 'BB9 8DN', 'BB9 8RP', 'BB9 8SN', 'BB9 9HQ', 'BB9 9NL', 'BD1 2JD', 'BD1 2JT', 'BD1 3EQ', 'BD1 4RY', 'BD1 5HZ', 'BD1 5ND', 'BD1 5SH', 'BD10 0NW', 'BD10 8SA', 'BD10 8SW', 'BD10 8SX', 'BD10 9QP', 'BD10 9RX', 'BD10 9TP', 'BD11 1AD', 'BD11 1AZ', 'BD11 1DT', 'BD11 1JL', 'BD11 1NA', 'BD11 2EQ', 'BD11 2LA', 'BD11 2LW', 'BD11 2PF', 'BD12 0AS', 'BD12 0DW', 'BD12 0EQ', 'BD12 0EY', 'BD12 0HD', 'BD12 0JR', 'BD12 0JT', 'BD12 0JU', 'BD12 0JZ', 'BD12 0LL', 'BD12 0LZ', 'BD12 0NB', 'BD12 0ND', 'BD12 0QF', 'BD12 0QW', 'BD12 0RA', 'BD12 0RG', 'BD12 0RY', 'BD12 0TL', 'BD12 0TQ', 'BD12 0UZ', 'BD12 7BW', 'BD12 7DW', 'BD12 8AH', 'BD12 8PQ', 'BD12 8PU', 'BD12 9DP', 'BD12 9EJ', 'BD12 9EL', 'BD12 9EQ', 'BD12 9JY', 'BD12 9NS', 'BD13 1DU', 'BD13 1JB', 'BD13 1LX', 'BD13 2HS', 'BD13 2LA', 'BD13 2LQ', 'BD13 2NU', 'BD13 3AR', 'BD13 3BX', 'BD13 3QX', 'BD13 3RF', 'BD13 3RR', 'BD13 3RU', 'BD13 3SG', 'BD13 4BB', 'BD13 4DN', 'BD13 4EH', 'BD13 4HF', 'BD13 5BD', 'BD13 5DS', 'BD13 5DX', 'BD13 5EQ', 'BD14 6DY', 'BD14 6EF', 'BD14 6ES', 'BD14 6PB', 'BD14 6PD', 'BD14 6PT', 'BD14 6PY', 'BD14 6RP', 'BD15 0BS', 'BD15 0HX', 'BD15 0JT', 'BD15 7LT', 'BD15 8AB', 'BD16 1HD', 'BD16 1HU', 'BD16 1JY', 'BD16 2AF', 'BD16 2AG', 'BD16 3BE', 'BD16 3JT', 'BD16 4DR', 'BD17 5BG', 'BD17 5PJ', 'BD17 6NW', 'BD17 6RR', 'BD17 7DZ', 'BD17 7EH', 'BD17 7EJ', 'BD17 7HP', 'BD17 7JR', 'BD17 7QB', 'BD17 7QD', 'BD17 7QR', 'BD17 7RA', 'BD18 1EN', 'BD18 1LY', 'BD18 1QG', 'BD18 2EH', 'BD18 2JL', 'BD18 2LY', 'BD18 4BU', 'BD18 4JH', 'BD19 3DL', 'BD19 3QL', 'BD19 4BU', 'BD19 4DE', 'BD19 4DN', 'BD19 4DP', 'BD19 4DS', 'BD19 4EU', 'BD19 4LJ', 'BD19 4PY', 'BD19 4SX', 'BD19 5BD', 'BD19 5EE', 'BD19 5LJ', 'BD19 5LY', 'BD19 5NP', 'BD19 6EY', 'BD19 6JD', 'BD19 6LZ', 'BD19 6PQ', 'BD2 1AZ', 'BD2 1FA', 'BD2 1PL', 'BD2 1QN', 'BD2 2EW', 'BD2 3AH', 'BD2 3HX', 'BD2 3LF', 'BD2 3RQ', 'BD2 3RS', 'BD2 4NE', 'BD20 0BU', 'BD20 0EF', 'BD20 0JD', 'BD20 0JF', 'BD20 0LX', 'BD20 0QT', 'BD20 5BU', 'BD20 5HD', 'BD20 5LY', 'BD20 5RP', 'BD20 5WB', 'BD20 6JB', 'BD20 6PL', 'BD20 6TD', 'BD20 7BE', 'BD20 7BW', 'BD20 7DJ', 'BD20 7DS', 'BD20 7JD', 'BD20 7NX', 'BD20 7TB', 'BD20 8EH', 'BD20 8HB', 'BD20 8HX', 'BD20 8LS', 'BD20 8PE', 'BD20 8SD', 'BD20 8TP', 'BD20 8UJ', 'BD20 9HH', 'BD20 9JH', 'BD20 9LT', 'BD20 9NN', 'BD21 1AW', 'BD21 1DB', 'BD21 1EG', 'BD21 1ES', 'BD21 2HL', 'BD21 2RX', 'BD21 2TW', 'BD21 3LB', 'BD21 3LG', 'BD21 3ND', 'BD21 4EX', 'BD21 4JH', 'BD21 4JP', 'BD21 4LA', 'BD21 4LJ', 'BD21 4LZ', 'BD21 4NX', 'BD21 4NY', 'BD21 4PJ', 'BD21 4RJ', 'BD21 5AX', 'BD21 5JP', 'BD21 5LJ', 'BD21 5PH', 'BD21 5QR', 'BD22 0AA', 'BD22 0DN', 'BD22 0DR', 'BD22 0JE', 'BD22 0JY', 'BD22 0NB', 'BD22 0QD', 'BD22 6BN', 'BD22 6EN', 'BD22 7AA', 'BD22 7AF', 'BD22 7BG', 'BD22 7DJ', 'BD22 7EY', 'BD22 7LA', 'BD22 7NQ', 'BD22 7PX', 'BD22 8AH', 'BD22 8QS', 'BD22 9BG', 'BD22 9BU', 'BD22 9DL', 'BD22 9EW', 'BD22 9LE', 'BD22 9LL', 'BD22 9LP', 'BD22 9QH', 'BD22 9QJ', 'BD22 9QR', 'BD22 9RS', 'BD22 9SU', 'BD23 1AX', 'BD23 1TB', 'BD23 1TE', 'BD23 1UD', 'BD23 2BX', 'BD23 2LD', 'BD23 2LQ', 'BD23 2QL', 'BD23 2QR', 'BD23 2QT', 'BD23 2TS', 'BD23 2TZ', 'BD23 3AQ', 'BD23 3AS', 'BD23 3ET', 'BD23 3HR', 'BD23 3JJ', 'BD23 3NE', 'BD23 3PN', 'BD23 3RE', 'BD23 3SE', 'BD23 4AL', 'BD23 4AY', 'BD23 4EA', 'BD23 4HE', 'BD23 4HJ', 'BD23 4HP', 'BD23 4HW', 'BD23 4JE', 'BD23 4JH', 'BD23 4JJ', 'BD23 4JL', 'BD23 4LL', 'BD23 4LP', 'BD23 4NA', 'BD23 4PQ', 'BD23 4RW', 'BD23 4SL', 'BD23 5BS', 'BD23 5DE', 'BD23 5EU', 'BD23 5HB', 'BD23 5JA', 'BD23 5PH', 'BD23 5QZ', 'BD23 6AF', 'BD23 6ER', 'BD23 6HR', 'BD23 6LB', 'BD23 6NW', 'BD23 6QP', 'BD23 6SW', 'BD24 0AA', 'BD24 0AH', 'BD24 0AX', 'BD24 0AY', 'BD24 0DN', 'BD24 0ER', 'BD24 0HA', 'BD24 0HN', 'BD24 0JD', 'BD24 9AB', 'BD24 9AF', 'BD24 9AG', 'BD24 9AX', 'BD24 9BB', 'BD24 9BY', 'BD24 9EU', 'BD24 9JB', 'BD24 9LX', 'BD24 9PB', 'BD24 9QH', 'BD3 0JY', 'BD3 0PL', 'BD3 8EX', 'BD4 0RE', 'BD4 0RJ', 'BD4 0RL', 'BD4 0RR', 'BD4 0SB', 'BD4 0SF', 'BD4 6PB', 'BD4 6PY', 'BD4 6QY', 'BD4 6RB', 'BD4 6SE', 'BD4 6SF', 'BD4 6SG', 'BD4 6SP', 'BD4 6SX', 'BD4 7DG', 'BD4 7DT', 'BD4 7DX', 'BD4 7DY', 'BD4 7EP', 'BD4 7EZ', 'BD4 7HH', 'BD4 7PG', 'BD4 7PW', 'BD4 8HL', 'BD4 8PT', 'BD4 8SJ', 'BD4 8SL', 'BD4 8SX', 'BD4 8TU', 'BD4 8UF', 'BD4 8UG', 'BD4 9JF', 'BD4 9SW', 'BD5 8DB', 'BD5 8DT', 'BD5 9DX', 'BD5 9NP', 'BD6 1BA', 'BD6 1DW', 'BD6 1NT', 'BD6 1PN', 'BD6 1QN', 'BD6 1YA', 'BD6 2DA', 'BD6 2HQ', 'BD6 2LW', 'BD6 2LZ', 'BD6 2ND', 'BD6 2TE', 'BD6 3BY', 'BD6 3DJ', 'BD6 3DQ', 'BD6 3EW', 'BD6 3SL', 'BD7 1PU', 'BD7 2EQ', 'BD7 2PS', 'BD7 3EP', 'BD7 4LG', 'BD7 4NQ', 'BD8 7DD', 'BD8 7ER', 'BD8 7JT', 'BD8 8BG', 'BD8 8JW', 'BD8 9JU', 'BD8 9RY', 'BD9 4AD', 'BD9 5DD', 'BD9 5QQ', 'BD9 6HL', 'BH1 1RA', 'BH1 2JN', 'BH1 3SJ', 'BH1 3SW', 'BH1 4NB', 'BH1 4PJ', 'BH1 4RS', 'BH10 4BF', 'BH10 5BQ', 'BH10 5EH', 'BH10 5NR', 'BH10 6AG', 'BH10 6BG', 'BH10 6HN', 'BH10 7DG', 'BH10 7EU', 'BH11 8DQ', 'BH11 8JP', 'BH11 8JU', 'BH11 9AX', 'BH11 9BN', 'BH11 9DZ', 'BH11 9PB', 'BH11 9PT', 'BH12 1HE', 'BH12 1PX', 'BH12 2HQ', 'BH12 2JG', 'BH12 3AW', 'BH12 3BG', 'BH12 3LL', 'BH12 3LT', 'BH12 3NY', 'BH12 4AL', 'BH12 4AP', 'BH12 4BQ', 'BH12 4JN', 'BH12 4LZ', 'BH12 4ND', 'BH12 4NQ', 'BH12 4NR', 'BH12 4PN', 'BH12 4QR', 'BH12 4QZ', 'BH14 0DP', 'BH14 0RG', 'BH14 9AY', 'BH15 2ED', 'BH15 2EG', 'BH15 2PR', 'BH15 2RU', 'BH15 3ED', 'BH15 3SS', 'BH15 3TB', 'BH15 4AF', 'BH15 4AJ', 'BH15 4DN', 'BH15 4GJ', 'BH15 4JP', 'BH15 4JS', 'BH15 4LD', 'BH15 4PY', 'BH16 5EJ', 'BH16 5QW', 'BH16 6AG', 'BH16 6AJ', 'BH16 6BB', 'BH16 6DN', 'BH16 6HJ', 'BH16 6HS', 'BH16 6HX', 'BH16 6JW', 'BH16 6LS', 'BH16 6LT', 'BH16 6NB', 'BH17 0GA', 'BH17 0GD', 'BH17 0GF', 'BH17 0HL', 'BH17 0NF', 'BH17 0RJ', 'BH17 0RS', 'BH17 0UG', 'BH17 0UJ', 'BH17 7BD', 'BH17 7DP', 'BH17 7EB', 'BH17 7ED', 'BH17 7FJ', 'BH17 7YB', 'BH17 7YN', 'BH17 8PN', 'BH17 9AX', 'BH17 9HW', 'BH19 1AU', 'BH19 1EJ', 'BH19 1EL', 'BH19 2QR', 'BH19 3EB', 'BH19 3JP', 'BH19 3LE', 'BH2 5PS', 'BH2 5SY', 'BH2 6AZ', 'BH20 4AS', 'BH20 4BY', 'BH20 4DY', 'BH20 4EL', 'BH20 4JU', 'BH20 4LR', 'BH20 4NA', 'BH20 5BW', 'BH20 5JH', 'BH20 5LG', 'BH20 6DW', 'BH20 6HJ', 'BH20 6NJ', 'BH20 7AB', 'BH20 7AQ', 'BH20 7LA', 'BH20 7LS', 'BH20 7NT', 'BH20 7NW', 'BH20 7NX', 'BH20 7PJ', 'BH21 1BE', 'BH21 1UU', 'BH21 2DS', 'BH21 2ED', 'BH21 2LF', 'BH21 2PS', 'BH21 2PW', 'BH21 2SG', 'BH21 3AP', 'BH21 3AW', 'BH21 3BA', 'BH21 </t>
         </is>
@@ -921,12 +961,18 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>23248</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>1582695</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>1658</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['ABBOTS LANGLEY', 'ABERAERON', 'ABERDARE', 'ABERDEEN', 'ABERFELDY', 'ABERGAVENNY', 'ABERGELE', 'ABERLOUR', 'ABERTILLERY', 'ABERYSTWYTH', 'ABINGDON', 'ABOYNE', 'ACCRINGTON', 'ACHARACLE', 'ACHNASHEEN', 'ADDLESTONE', 'AINTREE', 'AIRDRIE', 'ALBOURNE', 'ALCESTER', 'ALDERLEY EDGE', 'ALDERSHOT', 'ALDRIDGE', 'ALEXANDRIA', 'ALFORD', 'ALFRETON', 'ALLER', 'ALLOA', 'ALNESS', 'ALNWICK', 'ALRESFORD', 'ALSTON', 'ALTON', 'ALTRINCHAM', 'ALVA', 'AMBLESIDE', 'AMERSHAM', 'AMLWCH', 'AMMANFORD', 'ANDOVER', 'ANGLESEY', 'ANGLSEA', 'ANGMERING', 'ANGUS', 'ANNAN', 'ANNESLEY', 'ANSTRUTHER', 'APPIN', 'APPLEBY', 'APPLEBY-IN-WESTMORLAND', 'ARBROATH', 'ARDGAY', 'ARDLEIGH', 'ARDROSSAN', 'ARGYLL', 'ARGYLL &amp; BUTE', 'ARISAIG', 'ARLESEY', 'ARMAGH', 'ARUNDEL', 'ASCOT', 'ASHBOURNE', 'ASHBY-DE-LA-ZOUCH', 'ASHFORD', 'ASHINGTON', 'ASHTEAD', 'ASHTON - UNDER - LYNE', 'ASHTON-UNDER-LYNE', 'ASKAM-IN-FURNESS', 'ATHERSTONE', 'ATHERTON', 'ATTLEBOROUGH', 'AUCHTERARDER', 'AVIEMORE', 'AVOCH', 'AVONMOUTH', 'AXBRIDGE', 'AXMINSTER', 'AYLESBURY', 'AYLESFORD', 'AYLESHAM', 'AYR', 'AYRSHIRE', 'BACUP', 'BADMINTON', 'BAGILLT', 'BAGINTON', 'BAGSHOT', 'BAKEWELL', 'BALA', 'BALDOCK', 'BALERNO', 'BALLACHULISH', 'BALLATER', 'BALLINDALLOCH', 'BALLYCLARE', 'BALLYMENA', 'BALLYMONEY', 'BAMPTON', 'BANBURY', 'BANCHORY', 'BANFF', 'BANGOR', 'BANSTEAD', 'BANWELL', 'BARGOED', 'BARKING', 'BARMOUTH', 'BARNARD CASTLE', 'BARNET', 'BARNETBY', 'BARNOLDSWICK', 'BARNSLEY', 'BARNSTAPLE', 'BARROW-IN-FURNESS', 'BARROW-UPON-HUMBER', 'BARRY', 'BARTON ON HUMBER', 'BARTON-UPON-HUMBER', 'BASILDON', 'BASINGSTOKE', 'BATH', 'BATHGATE', 'BATLEY', 'BATTLE', 'BEACONSFIELD', 'BEAMINSTER', 'BEAULY', 'BEAUMARIS', 'BEAWORTHY', 'BECCLES', 'BECKENHAM', 'BECKERMET', 'BEDALE', 'BEDFORD', 'BEDFORDSHIRE', 'BEDLINGTON', 'BEDWORTH', 'BEESWING', 'BEITH', 'BELBROUCHTON', 'BELFAST', 'BELFORD', 'BELLSHILL', 'BELPER', 'BELVEDERE', 'BEMBRIDGE', 'BENFLEET', 'BERKELEY', 'BERKHAMSTED', 'BERKSHIRE', 'BERWICK ON TWEED', 'BERWICK-UPON-TWEED', 'BERWICKSHIRE', 'BETCHWORTH', 'BETWS-Y-COED', 'BEVERLEY', 'BEWDLEY', 'BEXHILL-ON-SEA', 'BEXLEY', 'BEXLEYHEATH', 'BICESTER', 'BIDEFORD', 'BIGGAR', 'BIGGLESWADE', 'BILLERICAY', 'BILLINGHAM', 'BILLINGSHURST', 'BILLINHAM', 'BILSTON', 'BINGLEY', 'BIRCHINGTON', 'BIRKENHEAD', 'BIRMINGHAM', 'BISHOP AUCKLAND', "BISHOP'S STORTFORD", 'BISHOPS CASTLE', 'BISHOPS CLEEVE', 'BISHOPS STORTFORD', 'BISHOPTON', 'BLACKBURN', 'BLACKPOOL', 'BLACKWOOD', 'BLAENAU FFESTINIOG', 'BLAIRGOWRIE', 'BLAKENEY', 'BLANDFORD', 'BLANDFORD FORUM', 'BLANTYRE', 'BLAYDON-ON-TYNE', 'BLISWORTH', 'BLYTH', "BO'NESS", 'BODMIN', 'BODORGAN', 'BOGNOR REGIS', 'BOLDON COLLIERY', 'BOLTON', 'BONCATH', 'BONESS', 'BONNYBRIDGE', 'BONNYRIGG', 'BOOTLE', 'BORDON', 'BOREHAMWOOD', 'BOROUGHBRIDGE', 'BORTH', 'BOSTON', 'BOURN', 'BOURNE', 'BOURNE END', 'BOURNEMOUTH', 'BOW STREET', 'BRACKLEY', 'BRACKNELL', 'BRADFORD', 'BRADFORD-ON-AVON', 'BRAINTREE', 'BRAMPTON', 'BRANDON', 'BRAUNTON', 'BRECHIN', 'BRECON', 'BRENTFORD', 'BRENTWOOD', 'BRIDGE OF WEIR', 'BRIDGEND', 'BRIDGNORTH', 'BRIDGWATER', 'BRIDLINGTON', 'BRIDPORT', 'BRIERLEY HILL', 'BRIGG', 'BRIGHOUSE', 'BRIGHTON', 'BRISTOL', 'BRIXHAM', 'BROADSTAIRS', 'BROADWAY', 'BROCKENHURST', 'BROMLEY', 'BROMSGROVE', 'BROMYARD', 'BRORA', 'BROSELEY', 'BROUGH', 'BROUGHTON', 'BROUGHTON-IN-FURNESS', 'BROXBOURNE', 'BROXBURN', 'BRUTON', 'BRYNTEG', 'BUCKFASTLEIGH', 'BUCKHURST HILL', 'BUCKIE', 'BUCKINGHAM', 'BUCKINGHAMSHIRE', 'BUCKLEY', 'BUCKNELL', 'BUCKS', 'BUDE', 'BUDLEIGH SALTERTON', 'BUILTH WELLS', 'BUNGAY', 'BUNTINGFORD', 'BURES', 'BURFORD', 'BURGESS HILL', 'BURNHAM ON CROUCH', 'BURNHAM-ON-CROUCH', 'BURNHAM-ON-SEA', 'BURNLEY', 'BURNTISLAND', 'BURNTWOOD', 'BURRY PORT', 'BURSCOUGH', 'BURTON-ON-TRENT', 'BURY', 'BURY ST EDMUNDS', 'BURY ST. EDMUNDS', 'BUSHEY', 'BUXTON', 'BY KYLE', 'Brockenhurst', 'Bromsgrove', 'CAERNARFON', 'CAERPHILLY', 'CAERSWS', 'CAIRNDOW', 'CAITHNESS', 'CALDICOT', 'CALLANDER', 'CALLINGTON', 'CALNE', 'CALSTOCK', 'CALTON', 'CAMBERLEY', 'CAMBORNE', 'CAMBRIDGE', 'CAMBS', 'CAMELFORD', 'CAMPBELTOWN', 'CANNOCK', 'CANONBIE', 'CANTERBURY', 'CANVEY ISLAND', 'CARDIFF', 'CARDIGAN', 'CARLISLE', 'CARLUKE', 'CARMARTHEN', 'CARMARTHENSHIRE', 'CARNFORTH', 'CARNOUSTIE', 'CARRBRIDGE', 'CARSHALTON', 'CARTERTON', 'CASTLE CARY', 'CASTLE DOUGLAS', 'CASTLEFORD', 'CATERHAM', 'CATTERICK GARRISON', 'CEMAES BAY', 'CEREDIGION', 'CF42 6DS', 'CHADLINGTON', 'CHALFONT ST. GILES', 'CHAPEL EN LE FRITH', 'CHAPEL-EN-LE-FRITH', 'CHARD', 'CHARNOCK RICHARD"', 'CHATHAM', 'CHATHILL', 'CHATTERIS', 'CHEADLE', 'CHEDDAR', 'CHELMSFORD', 'CHELTENHAM', 'CHELVEY', 'CHEPSTOW', 'CHERTSEY', 'CHESHAM', 'CHESSINGTON', 'CHESTER', 'CHESTER LE STREET', 'CHESTER-LE-STREET', 'CHESTERFIELD', 'CHICHESTER', 'CHIGWELL', 'CHILHAM', 'CHINNOR', 'CHIPPENHAM', 'CHIPPING CAMPDEN', 'CHIPPING NORTON', 'CHIPSTEAD', 'CHISLEHURST', 'CHOPPINGTON', 'CHORLEY', 'CHRISTCHURCH', 'CHULMLEIGH', 'CHURCH STRETTON', 'CINDERFORD', 'CIRENCESTER', 'CLACKMANNAN', 'CLACTON-ON-SEA', 'CLARBESTON ROAD', 'CLEATOR MOOR', 'CLECKHEATON', 'CLEETHORPES', 'CLEVEDON', 'CLIFTON', 'CLITHEROE', 'CLYDEBANK', 'CLYNDERWEN', 'CO DUBLIN', 'CO DURHAM', 'COALVILLE', 'COAST ROAD"', 'COATBRIDGE', 'COBHAM', 'COCKBURNSPATH', 'COCKERMOUTH', 'COLCHESTER', 'COLDSTREAM', 'COLEFORD', 'COLERAINE', 'COLESHILL', 'COLGATE', 'COLNBROOK', 'COLNE', 'COLWYN BAY', 'COLYTON', 'CONGLETON', 'CONISTON', 'CONNEL"', 'CONSETT', 'CONWY', 'CORBRIDGE', 'CORBY', 'CORNWALL', 'CORNWELL', 'CORSHAM', 'CORWEN', 'COSELEY', 'COTTINGHAM', 'COULSDON', 'COUNTY DURHAM', 'COVENTRY', 'COWBRIDGE', 'COWDENBEATH', 'COWES', 'CRADLEY HEATH', 'CRAIGAVON', 'CRAMLINGTON', 'CRANBROOK', 'CRANLEIGH', 'CRAVEN ARMS', 'CRAWFORDJOHN', 'CRAWLEY', 'CRAWTHORNE', 'CRAYFORD', 'CREDITON', 'CREWE', 'CREWKERNE', 'CRICCIETH', 'CRICKHOWELL', 'CRIEFF', 'CROMER', 'CROOK', 'CROSSHANDS', 'CROWBOROUGH', 'CROWTHORNE', 'CROYDON', 'CRUMLIN', 'CRYMYCH', 'CULLOMPTON', 'CUMBERNAULD', 'CUMBIA', 'CUMBRIA', 'CUMNOCK', 'CUPAR', 'CURRIE', 'CWMBRAN', 'Coalville', 'DAGENHAM', 'DALBEATTIE', 'DALKEITH', 'DALMALLY', 'DALRY', 'DALTON-IN-FURNESS', 'DARLASTON', 'DARLINGTON', 'DARTFORD', 'DARTMOUTH', 'DARVEL', 'DARWEN', 'DAVENTRY', 'DAWLISH', 'DEAL', 'DEESIDE', 'DENBIGH', 'DENNY', 'DERBY', 'DERBYSHIRE', 'DEREHAM', 'DEVIZES', 'DEVON', 'DEWSBURY', 'DIDCOT', 'DINAS POWYS', 'DINGWALL', 'DISS', 'DN20 8AU', 'DOLGELLAU', 'DONCASTER', 'DORCHESTER', 'DORKING', 'DORNOCH', 'DORSET', 'DOUNE', 'DOVER', 'DOWNHAM MARKET', 'DRIFFIELD', 'DROITWICH', 'DROITWICH SPA', 'DROMORE', 'DRONFIELD', 'DROYLSDEN', 'DRYBROOK', 'DUBLIN', 'DUBLIN 12', 'DUDLEY', 'DUKINFIELD', 'DULVERTON', 'DUMBARTON', 'DUMFRIES', 'DUMFRIES &amp; GALLOWAY', 'DUNBAR', 'DUNBLANE', 'DUNDEE', 'DUNFERMLINE', 'DUNGANNON', 'DUNKELD', 'DUNKERTON', 'DUNMOW', 'DUNOON', 'DUNS', 'DUNSTABLE', 'DURHAM', 'DURSLEY', 'DYFFRYN ARDUDWY', 'DYMOCK', 'EALING', 'EARLSTON', 'EAST BOLDON', 'EAST COWES', 'EAST DEREHAM', 'EAST GRINSTEAD', 'EAST HARLING', 'EAST LINTON', 'EAST LOTHIAN', 'EAST SUSSEX', 'EASTBOURNE', 'EASTLEIGH', 'EBBW VALE', 'ECCLES', 'EDENBRIDGE', 'EDGWARE', 'EDINBURGH', 'EDMONTON', 'EGHAM', 'EGREMONT', 'ELGIN', 'ELLAND', 'ELLESMERE', 'ELLESMERE PORT', 'ELLON', 'ELTHAM', 'ELY', 'EMSWORTH', 'ENFIELD', 'ENNISKILLEN', 'EPPING', 'EPSOM', 'ERITH', 'ERSKINE', 'ESHER', 'ESSEX', 'ETCHINGHAM', 'EVERCREECH', 'EVESHAM', 'EXETER', 'EXMOUTH', 'EYE', 'EYEMOUTH', 'FAIRFORD', 'FAKENHAM', 'FALKIRK', 'FALLSIDE IND EST', 'FALMOUTH', 'FAREHAM', 'FARINGDON', 'FARNBOROUGH', 'FARNHAM', 'FAVERSHAM', 'FELIXSTOWE', 'FELTHAM', 'FELTON', 'FERNDALE', 'FERNDOWN', 'FERRING', 'FERRYHILL', 'FERRYSIDE', 'FIFE', 'FILEY', 'FISHGUARD', 'FLEET', 'FLEETWOOD', 'FLINT', 'FLINT HILL"', 'FLINTSHIRE', 'FOCHABERS', 'FOLKESTONE', 'FORDINGBRIDGE', 'FOREST ROW', 'FORFAR', 'FORRES', 'FORT WILLIAM', 'FORTROSE', 'FOWEY', 'FRASERBURGH', 'FRINTON-ON-SEA', 'FRIZINGTON', 'FRODSHAM', 'FROME', 'FULHAM', 'FULL SUTTON', 'Felixstowe', 'GAERWEN', 'GAINSBOROUGH', 'GAIRLOCH', 'GALASHIELS', 'GALSTON', 'GARNDOLBENMAEN', 'GARVE', 'GATESHEAD', 'GATWICK', 'GENEMUIDEN', 'GERRARDS CROSS', 'GILLINGHAM', 'GIRVAN', 'GLASGOW', 'GLASTONBURY', 'GLENROTHES', 'GLOGUE', 'GLOSSOP', 'GLOUCESTER', 'GLOUCESTERSHIRE', 'GODALMING', 'GODSTONE', 'GOLSPIE', 'GOODWICK', 'GOOLE', 'GORDON', 'GOREBRIDGE', 'GOSPORT', 'GOUROCK', 'GRANGE-OVER-SANDS', 'GRANGEMOUTH', 'GRANTHAM', 'GRANTOWN-ON-SPEY', 'GRAVESEND', 'GRAYS', 'GREAT DUNMOW', 'GREAT MISSENDEN', 'GREAT YARMOUTH', 'GREATER MANCHESTER', 'GREENFORD', 'GREENHITHE', 'GREENOCK', 'GRETNA', 'GRIMSBY', 'GUILDFORD', 'GUISBOROUGH', 'GUNNISLAKE', 'GWENT', 'GWYNEDD', 'HADDINGTON', 'HAILSHAM', 'HAINAULT', 'HALESOWEN', 'HALESWORTH', 'HALIFAX', 'HALKIRK', 'HALSTEAD', 'HALTWHISTLE', 'HAMILTON', 'HAMPSHIRE', 'HAMPTON', 'HANTS', 'HANWORTH', 'HARLESTON', 'HARLOW', 'HARPENDEN', 'HARROGATE', 'HARROW', 'HARTFIELD', 'HARTHILL', 'HARTLEPOOL', 'HARWICH', 'HASLEMERE', 'HASSOCKS', 'HASTINGS', 'HATFIELD', 'HAUGHTON', 'HAVANT', 'HAVERFORDWEST', 'HAVERHILL', 'HAWES', 'HAWICK', 'HAWKHURST', 'HAYES', 'HAYLE', 'HAYLING ISLAND', 'HAYWARDS HEATH', 'HEANOR', 'HEATHFIELD', 'HEATHROW', 'HEBBURN', 'HEBDEN BRIDGE', 'HECKMONDWIKE', 'HELENSBURGH', 'HELMSDALE', 'HELSTON', 'HEMEL HEMPSTEAD', 'HENFIELD', 'HENGOED', 'HENLEY-IN-ARDEN', 'HENLEY-ON-THAMES', 'HENLOW', 'HEREFORD', 'HEREFORDSHIRE', 'HERNE BAY', 'HERSHAM', 'HERTFORD', 'HERTFORDSHIRE', 'HERTS', 'HESSLE', 'HESTON', 'HEXHAM', 'HEYWOOD', 'HIGH PEAK', 'HIGH WYCOMBE', 'HIGHAM FERRERS', 'HIGHBRIDGE', 'HINCKLEY', 'HITCHIN', 'HOCKLEY', 'HODDESDON', 'HOLMFIRTH', 'HOLMROOK', 'HOLSWORTHY', 'HOLT', 'HOLYHEAD', 'HOLYWELL', 'HONITON', 'HOOK', 'HOPE VALLEY', 'HORLEY', 'HORNCASTLE', 'HORNCHURCH', 'HORNDEAN', 'HORNSEA', 'HORSHAM', 'HORTON', 'HOTHFIELD', 'HOUGHTON LE SPRING', 'HOUGHTON-LE-SPRING', 'HOUNSLOW', 'HOUSTON', 'HOVE', 'HOWDEN', 'HUDDERSFIELD', 'HULL', 'HUMBIE', 'HUNGERFORD', 'HUNSTANTON', 'HUNTINGDON', 'HUNTLY', 'HURST', 'HUTHWAITE', 'HYDE', 'HYTHE', 'Herefordshire', 'Hindhead', 'IBSTOCK', 'ILFORD', 'ILFRACOMBE', 'ILKESTON', 'ILKLEY', 'ILMINSTER', 'IMMINGHAM', 'INGATESTONE', 'INNERLEITHEN', 'INSCH', 'INVERGARRY', 'INVERGORDON', 'INVERKEITHING', 'INVERNESS', 'INVERNESS-SHIRE', 'INVERURIE', 'IPSWICH', 'IRVINE', 'ISLE OF ANGLESEY', 'ISLE OF ARRAN', 'ISLE OF BARRA', 'ISLE OF BENBECULA', 'ISLE OF BUTE', 'ISLE OF CUMBRAE', 'ISLE OF HARRIS', 'ISLE OF ISLAY', 'ISLE OF JURA', 'ISLE OF LEWIS', 'ISLE OF MAN', 'ISLE OF MULL', 'ISLE OF NORTH UIST', 'ISLE OF SCALPAY', 'ISLE OF SKYE', 'ISLE OF SOUTH UIST', 'ISLE OF TIREE', 'ISLE OF WIGHT', 'ISLEWORTH', 'IVER', 'IVER HEATH', 'IVYBRIDGE', 'JARROW', 'JEDBURGH', 'JOHNSTONE', 'JUNIPER GREEN', 'KEIGHLEY', 'KEITH', 'KELSO', 'KELTY', 'KENDAL', 'KENFIG HILL', 'KENILWORTH', 'KENLEY', 'KENT', 'KESTON', 'KESWICK', 'KETTERING', 'KEYNSHAM', 'KIDDERMINSTER', 'KIDLINGTON', 'KIDWELLY', 'KILBIRNIE', 'KILGETTY', 'KILLIN', 'KILMANY ROAD', 'KILMARNOCK', 'KILMAURS', 'KILSYTH', 'KILWINNING', 'KINBRACE', "KING'S LYNN", 'KINGS LANGLEY', 'KINGS LYNN', 'KINGSBRIDGE', 'KINGSTON UPON THAMES', 'KINGSWINFORD', 'KINGTON', 'KINGUSSIE', 'KINLOCHLEVEN', 'KINROSS', 'KINSWINFORD', 'KIRKBY STEPHEN', 'KIRKBY-IN-FURNESS', 'KIRKCALDY', 'KIRKCUDBRIGHT', 'KIRKLISTON', 'KIRKNEWTON', 'KIRKWALL', 'KIRRIEMUIR', 'KNARESBOROUGH', 'KNEBWORTH', 'KNIGHTON', 'KNOTTINGLEY', 'KNUTSFORD', 'KYLE', 'LAINDON', 'LAIRG', 'LAMARSH"', 'LAMPETER', 'LANARK', 'LANARKSHIRE', 'LANCASTER', 'LANCING', 'LANGHOLM', 'LANGPORT', 'LARBERT', 'LARGS', 'LARKHALL', 'LASSWADE', 'LAUDER', 'LAUNCESTON', 'LAURENCEKIRK', 'LEAMINGTON SPA', 'LEATHERHEAD', 'LECHLADE', 'LEDBURY', 'LEE-ON-THE-SOLENT', 'LEEDS', 'LEEK', 'LEICESTER', 'LEICESTERSHIRE', 'LEIGH', 'LEIGH-ON-SEA', 'LEIGHTON BUZZARD', 'LEISTON', 'LEOMINSTER', 'LETCHWORTH', 'LETCHWORTH GARDEN CITY', 'LEVEN', 'LEWES', 'LEWISHAM', 'LEYBURN', 'LEYLAND', 'LICHFIELD', 'LIFTON', 'LIGHTWATER', 'LIMAVADY', 'LINCOLN', 'LINCOLNSHIRE', 'LINCS', 'LINGFIELD', 'LINLITHGOW', 'LIPHOOK', 'LISBURN', 'LISKEARD', 'LISS', 'LITTLE STANNEY', 'LITTLEBOROUGH', 'LITTLEBURY', 'LITTLEHAMPTON', 'LIVERPOOL', 'LIVERSEDGE', 'LIVINGSTON', 'LIVINGSTONE', 'LLANARTH', 'LLANBEDR', 'LLANBRYNMAIR', 'LLANDEILO', 'LLANDINAM', 'LLANDOVERY', 'LLANDRINDOD WELLS', 'LLANDUDNO', 'LLANDUDNO JUNCTION', 'LLANDYSUL', 'LLANELLI', 'LLANERCHYMEDD', 'LLANFAIRFECHAN', 'LLANFAIRPWLLGWYNGYLL', 'LLANFECHAIN', 'LLANFYLLIN', 'LLANFYRNACH', 'LLANGADOG', 'LLANGEFNI', 'LLANGOLLEN', 'LLANIDLOES', 'LLANON', 'LLANRHYSTUD', 'LLANRWST', 'LLANSANFFRAID', 'LLANSANTFFRAID', 'LLANTWIT MAJOR', 'LLANWRDA', 'LLANWRTYD WELLS', 'LLANYBYDDER', 'LLANYMYNECH', 'LOANHEAD', 'LOCHEARNHEAD', 'LOCHGELLY', 'LOCHGILPHEAD', 'LOCHWINNOCH', 'LOCKERBIE', 'LONDON', 'LONDONDERRY', 'LONGFIELD', 'LONGHOPE', 'LONGNIDDRY', 'LONGTOWN', 'LOOE', 'LOSTWITHIEL', 'LOUGHBOROUGH', 'LOUGHTON', 'LOUTH', 'LOWESTOFT', 'LUDLOW', 'LUTON', 'LUTTERWORTH', 'LYBSTER', 'LYDBROOK', 'LYDBURY NORTH', 'LYDNEY', 'LYME REGIS', 'LYMINGTON', 'LYMM', 'LYNDHURST', 'LYNTON', 'LYTHAM ST ANNES', 'LYTHAM ST. ANNES', 'MABLETHORPE', 'MACCLESFIELD', 'MACDUFF', 'MACHYNLLETH', 'MAESTEG', 'MAGHERA', 'MAGHULL', 'MAIDENHEAD', 'MAIDSTONE', 'MALDON', 'MALLAIG', 'MALMESBURY', 'MALPAS', 'MALTON', 'MALVERN', 'MANCHESTER', 'MANNINGTREE', 'MANSFIELD', 'MAPLETORPE', 'MARAZION', 'MARCH', 'MARGATE', 'MARKET DEEPING', 'MARKET DRAYTON', 'MARKET HARBOROUGH', 'MARKET RASEN', 'MARKET RESEN', 'MARKFIELD', 'MARLBOROUGH', 'MARLOW', 'MARTOCK', 'MARYPORT', 'MATLOCK', 'MAUCHLINE', 'MAYBOLE', 'MAYFIELD', 'MEIFOD', 'MELKSHAM', 'MELROSE', 'MELTON CONSTABLE', 'MELTON MOWBRAY', 'MENAI BRIDGE', 'MENSTRIE', 'MERRIOTT', 'MERSEYSIDE', 'MERTHYR TYDFIL', 'MEXBOROUGH', 'MIDDLESBOROUGH', 'MIDDLESBROUGH', 'MIDDLESEX', 'MIDDLEWICH', 'MIDHURST', 'MILFORD HAVEN', 'MILLOM', 'MILLTIMBER', 'MILNTHORPE', 'MILTON KEYNES', 'MINEHEAD', 'MINTLAW', 'MIRFIELD', 'MITCHAM', 'MITCHELDEAN', 'MOFFAT', 'MOLD', 'MONMOUTH', 'MONTGOMERY', 'MONTROSE', 'MORDEN', 'MORECAMBE', 'MORETON-IN-MARSH', 'MORPETH', 'MOTHERWELL', 'MOUNTAIN ASH', 'MUCH HADHAM', 'MUCH WENLOCK', 'MUIR OF ORD', 'MUNLOCHY', 'MUSSELBURGH', 'NAILSWORTH', 'NAIRN', 'NANTWICH', 'NARBERTH', 'NEATH', 'NELSON', 'NESTON', 'NETHERTON', 'NETHY BRIDGE', 'NEW MALDEN', 'NEW MILTON', 'NEW ROMNEY', 'NEW TREDEGAR', 'NEWARK', 'NEWBIGGIN-BY-THE-SEA', 'NEWBRIDGE', 'NEWBURY', 'NEWCASTLE', 'NEWCASTLE EMLYN', 'NEWCASTLE UNDER LYME', 'NEWCASTLE UPON TYNE', 'NEWCASTLE-UNDER-LYME', 'NEWCASTLE-UPON-TYNE', 'NEWCASTLETON', 'NEWENT', 'NEWHAVEN', 'NEWMARKET', 'NEWMILNS', 'NEWNHAM', 'NEWPORT', 'NEWPORT PAGNELL', 'NEWPORT, SOUTH WALES', 'NEWPORT-ON-TAY', 'NEWQUAY', 'NEWRY', 'NEWTON ABBOT', 'NEWTON AYCLIFFE', 'NEWTON STEWART', 'NEWTON-LE-WILLOWS', 'NEWTONMORE', 'NEWTOWN', 'NEWTOWNABBEY', 'NORFOLK', 'NORMANTON', 'NORTH BERSTED', 'NORTH BERWICK', 'NORTH EAST LINCOLNSHIRE', 'NORTH FERRIBY', 'NORTH LINCS', 'NORTH SHIELDS', 'NORTH TAWTON', 'NORTH WALSHAM', 'NORTH YORKSHIRE', 'NORTHALLERTON', 'NORTHAMPTON', 'NORTHANTS', 'NORTHFLEET', 'NORTHOLT', 'NORTHUMBERLAND', 'NORTHWICH', 'NORTHWOOD', 'NORWICH', 'NOTTINGHAM', 'NR ATHERSTONE', 'NR BUXTON', 'NR OSWESTRY', 'NR RETFORD', 'NR WIGAN', 'NR. WHITCHURCH', 'NUNEATON', 'NYH YORK', 'Nottingham', 'OAKHAM', 'OBAN', 'OKEHAMPTON', 'OLDBURY', 'OLDHAM', 'OLNEY', 'ONGAR', 'ORKNEY', 'ORMSKIRK', 'ORPINGTON', 'OSSETT', 'OSWESTRY', 'OTLEY', 'OTTERY ST. MARY', 'OVER WINSFORD', 'OWER', 'OXFORD', 'OXON', 'OXTED', 'PADSTOW', 'PAIGNTON', 'PAISLEY', 'PAR', 'PATHHEAD', 'PEACEHAVEN', 'PEEBLES', 'PEMBROKE', 'PEMBROKE DOCK', 'PEMBROKESHIRE', 'PENARTH', 'PENCADER', 'PENICUIK', 'PENMAENMAWR', 'PENRHYNDEUDRAETH', 'PENRITH', 'PENRYN', 'PENTRAETH', 'PENTRE', 'PENYSARN', 'PENZANCE', 'PERIVALE', 'PERRANPORTH', 'PERSHORE', 'PERTH', 'PERTHSHIRE', 'PETERBOROUGH', 'PETERCULTER', 'PETERHEAD', 'PETERLEE', 'PETERLEEE', 'PETERSFIELD', 'PETWORTH', 'PEVENSEY', 'PEWSEY', 'PICKERING', 'PINNER', 'PITLOCHRY', 'PLYMOUTH', 'POLEGATE', 'PONTEFRACT', 'PONTYCLUN', 'PONTYPOOL', 'PONTYPRIDD', 'POOLE', 'PORT GLASGOW', 'PORT ISAAC', 'PORT TALBOT', 'PORTH', 'PORTHCAWL', 'PORTHMADOG', 'PORTLAND', 'PORTREE', 'PORTSMOUTH', 'POTTERS BAR', 'POTTON', 'POULTON-LE-FYLDE', 'POWYS', 'PRENTON', 'PRESCOT', 'PRESTATYN', 'PRESTEIGNE', 'PRESTON', 'PRESTONPANS', 'PRESTWICK', 'PRINCES RISBOROUGH', 'PRUDHOE', 'PUDSEY', 'PULBOROUGH', 'PURFLEET', 'PURLEY', 'PWLLHELI', 'QUEENBOROUGH', 'RADLETT', 'RADSTOCK', 'RAINHAM', 'RAMSGATE', 'RAVENGLASS', 'RAYLEIGH', 'READING', 'REDCAR', 'REDDITCH', 'REDHILL', 'REDRUTH', 'REIGATE', 'RENFREW', 'RETFORD', 'RHAYADER', 'RHOSGOCH', 'RHYL', 'RICHMOND', 'RICHMOND-UPON-THAMES', 'RICKMANSWORTH', 'RIDING MILL', 'RIDLEY', 'RINGWOOD', 'RIPLEY', 'RIPON', 'ROBERTSBRIDGE', 'ROCHDALE', 'ROCHESTER', 'ROCHFORD', 'ROGART', 'ROMFORD', 'ROMNEY MARSH', 'ROMSEY', 'ROSLIN', 'ROSS-ON-WYE', 'ROSSENDALE', 'ROTHERHAM', 'ROTHESAY', 'ROTHWELL', "ROWLAND'S CASTLE", 'ROWLANDS GILL', 'ROWLEY REGIS', 'ROYSTON', 'RUARDEAN', 'RUGBY', 'RUGBY, WARWICKSHIRE', 'RUGELEY', 'RUISLIP', 'RUNCORN', 'RUSHDEN', 'RUTHIN', 'RYDE', 'RYE', 'RYTON', 'SAFFRON WALDEN', 'SALE', 'SALFORD', 'SALISBURY', 'SALTASH', 'SALTBURN-BY-THE-SEA', 'SALTCOATS', 'SANDBACH', 'SANDHURST', 'SANDOWN', 'SANDWICH', 'SANDY', 'SANQUHAR', 'SAUNDERSFOOT', 'SAWBRIDGEWORTH', 'SAXMUNDHAM', 'SCARBOROUGH', 'SCOTLAND', 'SCUNTHORPE', 'SEAFORD', 'SEAHAM', 'SEAHOUSES', 'SEASCALE', 'SEATON', 'SEAVIEW', 'SEDBERGH', 'SEDGFIELD', 'SELBY', 'SELKIRK', 'SETTLE', 'SEVENOAKS', 'SHAFTESBURY', 'SHANKLIN', 'SHEERNESS', 'SHEFFIELD', 'SHEFFORD', 'SHEPPERTON', 'SHEPPEY', 'SHEPTON MALLET', 'SHEPTON MALLETT', 'SHERBORNE', 'SHERINGHAM', 'SHETLAND', 'SHIFNAL', 'SHILDON', 'SHIPLEY', 'SHIPSTON-ON-STOUR', 'SHOREHAM-BY-SEA', 'SHOTTON COLLIERY', 'SHOTTS', 'SHREWSBURY', 'SHROPSHIRE', 'SIDCUP', 'SIDMOUTH', 'SITTINGBOURNE', 'SKEGNESS', 'SKELLINGTHORPE"', 'SKELMERSDALE', 'SKELMORLIE', 'SKIPTON', 'SLEAFORD', 'SLOUGH', 'SMETHWICK', 'SNODLAND', 'SOLIHULL', 'SOMERSET', 'SOMERTON', 'SOMPTING', 'SOTON', 'SOUTH BENFLEET', 'SOUTH BRENT', 'SOUTH CROYDON', 'SOUTH KILLINGHOLME', 'SOUTH LANARKSHIRE', 'SOUTH MOLTON', 'SOUTH NORMANTON', 'SOUTH OCKENDON', 'SOUTH PETHERTON', 'SOUTH QUEENSFERRY', 'SOUTH SHIELDS', 'SOUTH YORKSHIRE', 'SOUTHALL', 'SOUTHAM', 'SOUTHAMPTON', 'SOUTHEND-ON-SEA', 'SOUTHMINSTER', 'SOUTHPORT', 'SOUTHSEA', 'SOUTHSEA, HAMPSHIRE', 'SOUTHWELL', 'SOUTHWICK', 'SOUTHWOLD', 'SOWERBY BRIDGE', 'SPALDING', 'SPEAN BRIDGE', 'SPENNYMOOR', 'SPILSBY', 'ST ALBANS', 'ST ASAPH', 'ST HELENS', 'ST IVES', 'ST. AGNES', 'ST. ALBANS', 'ST. ANDREWS', 'ST. ASAPH', 'ST. AUSTELL', 'ST. COLUMB', 'ST. HELENS', 'ST. IVES', 'ST. LEONARDS-ON-SEA', 'ST. NEOTS', 'STAFFORD', 'STAFFORDSHIRE', 'STAINES', 'STAINES-UPON-THAMES', 'STALYBRIDGE', 'STAMFORD', 'STANFORD-LE-HOPE', 'STANLEY', 'STANMORE', 'STANSTEAD ABBOTTS', 'STANSTED', 'STEVENAGE', 'STEVENSTON', 'STEVENTON', 'STEYNING', 'STIRLING', 'STOCKBRIDGE', 'STOCKPORT', 'STOCKSFIELD', 'STOCKTON ON TEES', 'STOCKTON-ON-TEES', 'STOKE ON TRENT', 'STOKE-ON-TRENT', 'STOKE-SUB-HAMDON', 'STONE', 'STONEHAVEN', 'STONEHOUSE', 'STORNOWAY', 'STOURBRIDGE', 'STOURPORT', 'STOURPORT - ON - SEVERN', 'STOURPORT-ON-SEVERN', 'STOW ON THE WOLD', 'STOWMARKET', 'STRANRAER', 'STRATFORD-UPON-AVON', 'STRATHAVEN', 'STRATHCARRON', 'STRATHDON', 'STRATHPEFFER', 'STREET', 'STRETFORD', 'STROME FERRY', 'STROMNESS', 'STROOD', 'STROUD', 'STUDLEY', 'STURMINSTER NEWTON', 'SUDBURY', 'SUFFOLK', 'SUNBURY-ON-THAMES', 'SUNDERLAND', 'SURBITON', 'SURREY', 'SUTTON', 'SUTTON COLDFIELD', 'SUTTON IN ASHFIELD', 'SUTTON-IN-ASHFIELD', 'SWADLINCOTE', 'SWAFFHAM', 'SWANAGE', 'SWANLEY', 'SWANSCOMBE', 'SWANSEA', 'SWINDON', 'TADCASTER', 'TADLEY', 'TADWORTH', 'TAIN', 'TALSARNAU', 'TALYBONT', 'TAMWORTH', 'TARBERT', 'TARPORLEY', 'TAUNTON', 'TAVISTOCK', 'TAYNUILT', 'TAYPORT', 'TEDDINGTON', 'TEIGNMOUTH', 'TELFORD', 'TEMPLECOMBE', 'TENBURY WELLS', 'TENBY', 'TENTERDEN', 'TETBURY', 'TEWKESBURY', 'THAME', 'THAMES DITTON', 'THATCHAM', 'THETFORD', 'THIRSK', 'THORNHILL', 'THORNTON HEATH', 'THORNTON"', 'THORNTON-CLEVELEYS', 'THORPE', 'THURROCK', 'THURSO', 'TIDWORTH', 'TIGHNABRUAICH', 'TILBURY', 'TILLICOULTRY', 'TINGLEY', 'TINTAGEL', 'TIPTON', 'TIVERTON', 'TODBER', 'TODMORDEN', 'TONBRIDGE', 'TONYPANDY', 'TONYREFAIL', 'TORFAEN', 'TORPOINT', 'TORQUAY', 'TORRINGTON', 'TOTNES', 'TOWCESTER', 'TRANENT', 'TREDEGAR', 'TREGARON', 'TREHARRIS', 'TREORCHY', 'TRIMDON STATION', 'TRING', 'TROON', 'TROWBRIDGE', 'TRURO', 'TUNBRIDGE WELLS', 'TURRIFF', 'TWICKENHAM', 'TYLERS GREEN', 'TYNE &amp; WEAR', 'TYWYN', 'UCKFIELD', 'ULCEBY', 'ULLAPOOL', 'ULVERSTON', 'UMBERLEIGH', 'UPMINSTER', 'USK', 'UTTOXETER', 'UXBRIDGE', 'VENTNOR', 'VERWOOD', 'VIRGINIA WATER', 'WADEBRIDGE', 'WADHURST', 'WAKEFIELD', 'WALKERBURN', 'WALLASEY', 'WALLINGFORD', 'WALLINGTON', 'WALLSEND', 'WALPOLE', 'WALSALL', 'WALTHAM ABBEY', 'WALTHAM CROSS', 'WALTON ON THE NAZE', 'WALTON-ON-THAMES', 'WANTAGE', 'WARE', 'WAREHAM', 'WARESLEY"', 'WARLEY', 'WARLINGHAM', 'WARLINGHAM GREEN', 'WARMINSTER', 'WARRINGTON', 'WARWICK', 'WASHINGTON', 'WATCHET', 'WATERLOOVILLE', 'WATFORD', 'WATLINGTON', 'WEDMORE', 'WEDNESBURY', 'WELLING', 'WELLINGBOROUGH', 'WELLINGTON', 'WELLS', 'WELLS-NEXT-THE-SEA', 'WELSHPOOL', 'WELWYN', 'WELWYN GARDEN CITY', 'WEMBLEY', 'WEMYSS BAY', 'WEST BECKHAM', 'WEST BROMWICH', 'WEST BYFLEET', 'WEST CALDER', 'WEST DRAYTON', 'WEST HALLAM', 'WEST LINTON', 'WEST LOTHIAN', 'WEST MALLING', 'WEST MIDLANDS', 'WEST MOLESEY', 'WEST MOORS', 'WEST THURROCK', 'WEST WICKHAM', 'WEST WORCESTER', 'WEST YORKSHIRE', 'WESTBURY', 'WESTBURY-ON-SEVERN', 'WESTBY', 'WESTCLIFF-ON-SEA', 'WESTERHAM', 'WESTGATE-ON-SEA', 'WESTHAM', 'WESTHILL', 'WESTON-SUPER-MARE', 'WETHERBY', 'WEYBRIDGE', 'WEYMOUTH', 'WHITBY', 'WHITCHURCH', 'WHITEHAVEN', 'WHITLAND', 'WHITLEY BAY', 'WHITSTABLE', 'WHYTELEAFE', 'WICK', 'WICKFORD', 'WIDNES', 'WIGAN', 'WIGSTON', 'WIGTON', 'WILLENHALL', 'WILMSLOW', 'WIMBORNE', 'WIMBOURNE', 'WINCANTON', 'WINCHESTER', 'WINDERMERE', 'WINDLESHAM', 'WINDSOR', 'WINGATE', 'WINKLEIGH', 'WINSCOMBE', 'WINSFORD', 'WIRRAL', 'WISBECH', 'WISHAW', 'WITHAM', 'WITHERNSEA', 'WITNEY', 'WOKING', 'WOKINGHAM', 'WOLVERHAMPTON', 'WOMBOURNE', 'WOODBRIDGE', 'WOODFORD GREEN', 'WOODHALL SPA', 'WOODSTOCK', 'WOOLACOMBE', 'WOOLER', 'WORCESTER', 'WORCESTER PARK', 'WORCESTERSHIRE', 'WORKINGTON', 'WORKSOP', 'WORMINGHALL', 'WORTHING', 'WOTTON-UNDER-EDGE', 'WREXHAM', 'WROUGHTON', 'WYBOSTON', 'WYMONDHAM', 'Y FELINHELI', 'YARM', 'YARMOUTH', 'YATELEY', 'YELVERTON', 'YEOVIL', 'YORK', 'YORKLEY"', 'YSTRAD MEURIG', 'bangor', 'london']</t>
         </is>
@@ -999,12 +1045,18 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>177384</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>355209</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>17</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['BOTHWELL"', 'BRIGG', 'CO5 8LT', 'CO8 5ER', 'DH9 9BB', 'GL15 4RT', 'IE', 'LE67 1AP', 'LN6 5SA', 'NL', 'PA37 1PT', 'PR7 5LF', 'SG19 3DA', 'ST. ANDREWS"', 'TREORCHY', 'UK', 'WORMIT"']</t>
         </is>
@@ -1077,12 +1129,18 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>110979</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V9" t="n">
         <v>6617431</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>17</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['BURES', 'CHORLEY', 'COALVILLE', 'Community licence for goods transport', 'Community licence for passenger transport', 'DD6 8PG', 'G71 8DA', 'LINCOLN', 'LYDNEY', 'National licence for goods transport', 'National licence for passenger transport', 'OBAN', 'PE14 7LU', 'SANDY', 'STANLEY', 'UK', 'WEST MERSEA']</t>
         </is>
@@ -1155,12 +1213,18 @@
         </is>
       </c>
       <c r="T10" t="n">
+        <v>21308</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>390313</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>409</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '101', '102', '103', '104', '1046', '105', '106', '1065', '107', '108', '109', '1099', '11', '110', '1100', '111', '112', '1125', '113', '114', '115', '116', '117', '118', '1183', '119', '12', '120', '121', '122', '123', '124', '125', '126', '127', '1275', '128', '129', '13', '130', '131', '132', '133', '134', '135', '136', '137', '138', '139', '1397', '14', '140', '141', '142', '143', '1438', '144', '145', '146', '147', '148', '149', '15', '150', '151', '1513', '152', '153', '154', '155', '156', '157', '158', '159', '16', '160', '161', '162', '163', '164', '165', '166', '167', '168', '169', '17', '170', '172', '173', '1739', '174', '175', '176', '177', '1773', '178', '179', '18', '180', '1800', '182', '183', '184', '185', '1850', '186', '187', '188', '189', '1896', '19', '190', '191', '192', '193', '1932', '194', '195', '196', '198', '199', '2', '20', '200', '201', '202', '203', '204', '206', '207', '209', '21', '210', '211', '212', '213', '214', '215', '216', '217', '218', '219', '22', '220', '221', '222', '224', '225', '227', '228', '229', '23', '230', '231', '232', '2326', '234', '235', '236', '237', '238', '2381', '239', '24', '240', '2402', '242', '243', '245', '247', '248', '25', '250', '251', '253', '254', '255', '256', '257', '258', '26', '261', '262', '264', '265', '266', '267', '269', '27', '271', '275', '277', '279', '28', '280', '281', '283', '285', '286', '287', '29', '290', '291', '292', '295', '297', '299', '3', '30', '300', '303', '304', '305', '308', '309', '31', '310', '311', '312', '315', '316', '317', '32', '320', '321', '323', '325', '33', '330', '333', '335', '34', '340', '341', '342', '344', '346', '348', '35', '350', '352', '356', '357', '358', '36', '360', '365', '366', '368', '369', '37', '370', '372', '375', '378', '379', '38', '381', '385', '386', '389', '39', '390', '391', '393', '4', '40', '400', '401', '406', '41', '411', '412', '415', '417', '418', '42', '420', '428', '429', '43', '44', '446', '447', '45', '450', '453', '454', '46', '460', '461', '463', '468', '47', '470', '475', '476', '479', '48', '480', '487', '489', '49', '491', '493', '5', '50', '500', '508', '51', '510', '515', '517', '52', '526', '53', '54', '55', '56', '560', '561', '57', '570', '58', '580', '59', '6', '60', '600', '603', '605', '61', '62', '620', '621', '624', '63', '631', '64', '640', '647', '648', '65', '652', '66', '67', '670', '678', '68', '69', '7', '70', '700', '71', '72', '724', '727', '73', '733', '74', '75', '750', '76', '77', '78', '780', '79', '791', '8', '80', '801', '81', '810', '82', '83', '84', '85', '86', '87', '875', '88', '880', '885', '89', '898', '9', '90', '900', '91', '92', '93', '94', '95', '950', '96', '97', '975', '98', '99', 'Community licence for passenger transport', 'GLASGOW', 'NEWPORT-ON-TAY', 'National licence for goods transport', 'UK', 'WISBECH']</t>
         </is>
@@ -1229,12 +1293,18 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
+        <v>48462</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>2445585</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>55408</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['12', '18', 'Community licence for goods transport', 'Community licence for passenger transport', 'National licence for goods transport', 'National licence for passenger transport', 'OB0034396\\00000', 'OB0034396\\00001', 'OB0101491\\00000', 'OB0101491\\00001', 'OB0101650\\00000', 'OB0101650\\00001', 'OB0101650\\00002', 'OB0101650\\00003', 'OB0101650\\00004', 'OB0101650\\00005', 'OB0175707\\00000', 'OB0175707\\00001', 'OB0184029\\00000', 'OB0184029\\00001', 'OB0184029\\00002', 'OB0184029\\00003', 'OB0184029\\00004', 'OB0184029\\00005', 'OB0184029\\00006', 'OB0184029\\00007', 'OB0184029\\00008', 'OB0184029\\00009', 'OB0184029\\00010', 'OB0184029\\00011', 'OB0184029\\00012', 'OB0184029\\00013', 'OB0184029\\00014', 'OB0184029\\00015', 'OB0184029\\00016', 'OB0184029\\00017', 'OB0184029\\00018', 'OB0184029\\00019', 'OB0184029\\00020', 'OB0184029\\00021', 'OB0184029\\00022', 'OB0184029\\00023', 'OB0184029\\00024', 'OB0184029\\00025', 'OB0184029\\00026', 'OB0184029\\00027', 'OB0184029\\00028', 'OB0184029\\00029', 'OB0184029\\00030', 'OB0184029\\00031', 'OB0184029\\00032', 'OB0184029\\00033', 'OB0184029\\00034', 'OB0184029\\00035', 'OB0184029\\00036', 'OB0184029\\00037', 'OB0184029\\00038', 'OB0184029\\00039', 'OB0184029\\00040', 'OB0184409\\00000', 'OB0184409\\00001', 'OB0184418\\00000', 'OB0184418\\00001', 'OB0184418\\00002', 'OB0187641\\00000', 'OB0188022\\00000', 'OB0188022\\00001', 'OB0188022\\00002', 'OB0189248\\00000', 'OB0189248\\00001', 'OB0189248\\00002', 'OB0189248\\00003', 'OB0189248\\00004', 'OB0189446\\00000', 'OB0189446\\00001', 'OB0189892\\00000', 'OB0189892\\00001', 'OB0194703\\00000', 'OB0194703\\00001', 'OB0194703\\00002', 'OB0195122\\00000', 'OB0195122\\00001', 'OB0195122\\00002', 'OB0195122\\00003', 'OB0195122\\00004', 'OB0195122\\00005', 'OB0195122\\00006', 'OB0195122\\00007', 'OB0195122\\00008', 'OB0195122\\00009', 'OB0195566\\00000', 'OB0195566\\00001', 'OB0195566\\00002', 'OB0195566\\00003', 'OB0195566\\00004', 'OB0195566\\00005', 'OB0195566\\00006', 'OB0195566\\00007', 'OB0195566\\00008', 'OB0203545\\00000', 'OB0203545\\00001', 'OB0203545\\00002', 'OB0203545\\00003', 'OB0203545\\00004', 'OB0203545\\00005', 'OB0204042\\00000', 'OB0204042\\00001', 'OB0204042\\00002', 'OB0205129\\00000', 'OB0205129\\00001', 'OB0205129\\00002', 'OB0205452\\00000', 'OB0205452\\00001', 'OB0205611\\00000', 'OB0205611\\00001', 'OB0205611\\00002', 'OB0205611\\00003', 'OB0205611\\00004', 'OB0205611\\00005', 'OB0205611\\00006', 'OB0211064\\00000', 'OB0211064\\00001', 'OB0211064\\00002', 'OB0211064\\00003', 'OB0213062\\00000', 'OB0213062\\00001', 'OB0213199\\00000', 'OB0213199\\00001', 'OB0213265\\00000', 'OB0213265\\00001', 'OB0213284\\00000', 'OB0213284\\00001', 'OB0213284\\00002', 'OB0213284\\00003', 'OB0213284\\00004', 'OB0213284\\00005', 'OB0213558\\00000', 'OB0213558\\00001', 'OB0213603\\00000', 'OB0213603\\00001', 'OB0213608\\00000', 'OB0213608\\00001', 'OB0213608\\00002', 'OB0213608\\00003', 'OB0213608\\00004', 'OB0213608\\00005', 'OB0213608\\00006', 'OB0213608\\00007', 'OB0213608\\00008', 'OB0213608\\00009', 'OB0213608\\00010', 'OB0213833\\00000', 'OB0213833\\00001', 'OB0213833\\00002', 'OB0213833\\00003', 'OB0213833\\00004', 'OB0220818\\00000', 'OB0222129\\00000', 'OB0222129\\00001', 'OB0222129\\00002', 'OB0223032\\00000', 'OB0223032\\00001', 'OB0223206\\00000', 'OB0223206\\00001', 'OB0223213\\00000', 'OB0223213\\00002', 'OB0223213\\00003', 'OB0223213\\00004', 'OB0223213\\00005', 'OB0223213\\00006', 'OB0223213\\00007', 'OB0223213\\00008', 'OB0223213\\00009', 'OB0223213\\00010', 'OB0223345\\00000', 'OB0223345\\00001', 'OB0223345\\00002', 'OB0223345\\00003', 'OB0223345\\00004', 'OB0223355\\00000', 'OB0223355\\00001', 'OB0223355\\00002', 'OB0223355\\00003', 'OB0223355\\00004', 'OB0223355\\00005', 'OB0223484\\00000', 'OB0223484\\00001', 'OB0223484\\00002', 'OB0223484\\00003', 'OB0223484\\00004', 'OB0223484\\00005', 'OB0223677\\00000', 'OB0223677\\00001', 'OB0223677\\00002', 'OB0223677\\00003', 'OB0223677\\00004', 'OB0223686\\00000', 'OB0223686\\00001', 'OB0223686\\00002', 'OB0223686\\00003', 'OB0227681\\00000', 'OB0227681\\00001', 'OB0228244\\00000', 'OB0228244\\00001', 'OB0230305\\00000', 'OB0230305\\00001', 'OB0230305\\00002', 'OB0230305\\00003', 'OB0230442\\00000', 'OB0230442\\00001', 'OB0230458\\00000', 'OB0230458\\00001', 'OB0230583\\00000', 'OB0230583\\00001', 'OB0230583\\00002', 'OB0230689\\00000', 'OB0230689\\00001', 'OB0230689\\00002', 'OB0230689\\00003', 'OB0230689\\00004', 'OB0230689\\00005', 'OB0230729\\00000', 'OB0230729\\00001', 'OB0230729\\00002', 'OB0230729\\00003', 'OB0230736\\00000', 'OB0230736\\00001', 'OB0230736\\00002', 'OB0230736\\00003', 'OB0230736\\00004', 'OB0230736\\00005', 'OB0230736\\00006', 'OB0230736\\00007', 'OB0230736\\00008', 'OB0230760\\00000', 'OB0230760\\00001', 'OB0230760\\00002', 'OB0230801\\00000', 'OB0230801\\00001', 'OB0231145\\00000', 'OB0231145\\00001', 'OB0231145\\00002', 'OB0231150\\00000', 'OB0231150\\00001', 'OB0231241\\00000', 'OB0231241\\00001', 'OB1038756\\00000', 'OB1038756\\00001', 'OB1058408\\00000', 'OB1058408\\00001', 'OB1060449\\00000', 'OB1060449\\00001', 'OB1060449\\00002', 'OB1060449\\00003', 'OB1060522\\00000', 'OB1060522\\00001', 'OB1060522\\00002', 'OB1060522\\00003', 'OB1060522\\00004', 'OB1060522\\00005', 'OB1060943\\00000', 'OB1060943\\00001', 'OB1061147\\00000', 'OB1061147\\00001', 'OB1061147\\00002', 'OB1061147\\00003', 'OB1061147\\00004', 'OB1061147\\00005', 'OB1061147\\00006', 'OB1061147\\00007', 'OB1061147\\00008', 'OB1061147\\00009', 'OB1061147\\00010', 'OB1061147\\00011', 'OB1061147\\00012', 'OB1061147\\00013', 'OB1061147\\00014', 'OB1061147\\00015', 'OB1063404\\00000', 'OB1063404\\00001', 'OB1063404\\00002', 'OB1063404\\00003', 'OB1063819\\00000', 'OB1063819\\00001', 'OB1063819\\00002', 'OB1087607\\00000', 'OB1089702\\00000', 'OB1097679\\00000', 'OB1099242\\00000', 'OB1099905\\00000', 'OB1102482\\00000', 'OB1102721\\00000', 'OB1102721\\00001', 'OB1103182\\00000', 'OB1103182\\00001', 'OB1103182\\00002', 'OB1103561\\00000', 'OB1103561\\00001', 'OB1104090\\00000', 'OB1104098\\00000', 'OB1104098\\00001', 'OB1104098\\00002', 'OB1105347\\00000', 'OC0041797\\00000', 'OC0041797\\00001', 'OC0041797\\00002', 'OC0041797\\00003', 'OC0041797\\00004', 'OC0041797\\00005', 'OC0041797\\00006', 'OC0041797\\00007', 'OC0041797\\00008', 'OC0041797\\00009', 'OC0041797\\00010', 'OC0041797\\00011', 'OC0041797\\00012', 'OC0041797\\00013', 'OC0041797\\00014', 'OC0041797\\00015', 'OC0041797\\00016', 'OC0041797\\00017', 'OC0041797\\00018', 'OC0041797\\00019', 'OC0041797\\00020', 'OC0041797\\00021', 'OC0041797\\00022', 'OC0041797\\00023', 'OC0041797\\00024', 'OC0041797\\00025', 'OC0041797\\00026', 'OC0041797\\00027', 'OC0041797\\00028', 'OC0041797\\00029', 'OC0041797\\00030', 'OC0041797\\00031', 'OC0041797\\00032', 'OC0041797\\00033', 'OC0041797\\00034', 'OC0041797\\00035', 'OC0041797\\00036', 'OC0041797\\00037', 'OC0041797\\00038', 'OC0041797\\00039', 'OC0041797\\00040', 'OC0041797\\00041', 'OC0041797\\00042', 'OC0041797\\00043', 'OC0041797\\00044', 'OC0041797\\00045', 'OC0041797\\00046', 'OC0041797\\00047', 'OC0041797\\00048', 'OC0041797\\00049', 'OC0041797\\00050', 'OC0049961\\00000', 'OC0049961\\00001', 'OC0049961\\00002', 'OC0049961\\00003', 'OC0049961\\00004', 'OC0049961\\00005', 'OC0049961\\00006', 'OC0049961\\00007', 'OC0049961\\00008', 'OC0049961\\00009', 'OC0049961\\00010', 'OC0049961\\00011', 'OC0049961\\00012', 'OC0049961\\00013', 'OC0049961\\00014', 'OC0049961\\00015', 'OC0120080\\00000', 'OC0120080\\00001', 'OC0120080\\00002', 'OC0120080\\00003', 'OC0120080\\00004', 'OC0120080\\00005', 'OC0120080\\00006', 'OC0120080\\00007', 'OC0120080\\00008', 'OC0120080\\00009', 'OC0120080\\00010', 'OC0120080\\00011', 'OC0120080\\00012', 'OC0120080\\00013', 'OC0120080\\00014', 'OC0120080\\00015', 'OC0120080\\00016', 'OC0120080\\00017', 'OC0120080\\00018', 'OC0120080\\00019', 'OC0120080\\00020', 'OC0120080\\00021', 'OC0120080\\00022', 'OC0120080\\00023', 'OC0120080\\00024', 'OC0120080\\00025', 'OC0120080\\00026', 'OC0185413\\00000', 'OC0185413\\00001', 'OC0185413\\00002', 'OC0185413\\00003', 'OC0185413\\00004', 'OC0185413\\00005', 'OC0185413\\00006', 'OC0185413\\00007', 'OC0185413\\00008', 'OC0185413\\00009', 'OC0185413\\00010', 'OC0185413\\00011', 'OC0185413\\00012', 'OC0185413\\00013', 'OC0185413\\00014', 'OC0185413\\00015', 'OC0206721\\00000', 'OC0206721\\00001', 'OC0206721\\00002', 'OC0206721\\00003', 'OC0206721\\00004', 'OC0206721\\00005', 'OC0206721\\00006', 'OC0206721\\00007', 'OC0225375\\00000', 'OC0225375\\00001', 'OC0225375\\00002', 'OC0225375\\00003', 'OC0225375\\00004', 'OC0225375\\00005', 'OC0225375\\00006', 'OC0225375\\00007', 'OC0225375\\00008', 'OC0225375\\00009', 'OC0225375\\00010', 'OC0225375\\00011', 'OC0225375\\00012', 'OC0225375\\00013', 'OC0225375\\00014', 'OC0225375\\00015', 'OC0225375\\00016', 'OC0225375\\00017', 'OC0225375\\00018', 'OC0225375\\00019', 'OC0225375\\00020', 'OC0225375\\00021', 'OC0225375\\00022', 'OC0225375\\00023', 'OC0225375\\00024', 'OC0225375\\00025', 'OC0225375\\00026', 'OC0225375\\00027', 'OC0225375\\00028', 'OC0225375\\00029', 'OC0225375\\00030', 'OC0225375\\00031', 'OC0225375\\00032', 'OC0225375\\00033', 'OC0225375\\00034', 'OC0225375\\00035', 'OC0225375\\00036', 'OC0225375\\00037', 'OC0225375\\00038', 'OC0225375\\00039', 'OC0225375\\00040', 'OC0225375\\00041', 'OC0225375\\00042', 'OC0225375\\00043', 'OC0225375\\00044', 'OC0225375\\00045', 'OC0225375\\00046', 'OC0225375\\00047', 'OC0225375\\00048', 'OC0225375\\00049', 'OC0225375\\00050', 'OC0225375\\00051', 'OC0225375\\00052', 'OC0225375\\00053', 'OC0225375\\00054', 'OC0226800\\00000', 'OC0226800\\00001', 'OC0226800\\00002', 'OC0226800\\00003', 'OC0226800\\00004', 'OC0226800\\00005', 'OC0226800\\00006', 'OC0226800\\00007', 'OC0226800\\00008', 'OC0226800\\00009', 'OC0226800\\00010', 'OC0238797\\00000', 'OC0238797\\00001', 'OC0245688\\00000', 'OC0245688\\00001', 'OC0246380\\00000', 'OC0246380\\00001', 'OC0246380\\00002', 'OC0247356\\00000', 'OC0247356\\00001', 'OC0253130\\00000', 'OC0253130\\00001', 'OC0254067\\00000', 'OC0254067\\00001', 'OC0254067\\00002', 'OC0254067\\00003', 'OC0256980\\00000', 'OC0256980\\00001', 'OC0256980\\00002', 'OC0257237\\00000', 'OC0257237\\00001', 'OC0257237\\00002', 'OC0258310\\00000', 'OC0258310\\00001', 'OC0258310\\00002', 'OC0258310\\00003', 'OC0258310\\00004', 'OC0258310\\00005', 'OC0258310\\00006', 'OC0258310\\00007', 'OC0258310\\00008', 'OC0258331\\00000', 'OC0258331\\00001', 'OC0258331\\00002', 'OC0258334\\00000', 'OC0258334\\00001', 'OC0258334\\00002', 'OC0258334\\00003', 'OC0258334\\00004', 'OC0259027\\00000', 'OC0259027\\00001', 'OC0259027\\00002', 'OC0275577\\00000', 'OC0275577\\00001', 'OC0275577\\00002', 'OC0275577\\00003', 'OC0275720\\00000', 'OC0275720\\00001', 'OC0275725\\00000', 'OC0275725\\00001', 'OC0275725\\00002', 'OC0275815\\00000', 'OC0275815\\00001', 'OC0275815\\00002', 'OC0275815\\00003', 'OC0278072\\00000', 'OC0278072\\00001', 'OC0278072\\00002', 'OC0278072\\00003', 'OC0278072\\00004', 'OC0278072\\00005', 'OC0278072\\00006', 'OC0278072\\00007', 'OC0278072\\00008', 'OC0278072\\00009', 'OC0278072\\00010', 'OC0278072\\00011', 'OC0278072\\00012', 'OC0278072\\00013', 'OC0278072\\00014', 'OC0278072\\00015', 'OC0278072\\00016', 'OC0278072\\00017', 'OC0278072\\00018', 'OC0278072\\00019', 'OC0278072\\00020', 'OC0278159\\00000', 'OC0278159\\00001', 'OC0278231\\00000', 'OC0278231\\00001', 'OC0278231\\00002', 'OC0278231\\00003', 'OC0278380\\00000', 'OC0278380\\00001', 'OC0278380\\00002', 'OC0278725\\00000', 'OC0278725\\00001', 'OC0288000\\00000', 'OC0288000\\00001', 'OC0288000\\00002', 'OC0288000\\00003', 'OC0288142\\00000', 'OC0288142\\00001', 'OC0288142\\00002', 'OC0288327\\00000', 'OC0288327\\00001', 'OC0288327\\00002', 'OC0288327\\00003', 'OC0288327\\00004', 'OC0288327\\00005', 'OC0288433\\00000', 'OC0288433\\00001', 'OC0288433\\00002', 'OC0288535\\00000', 'OC0288535\\00001', 'OC0288535\\00002', 'OC0288535\\00003', 'OC0288535\\00004', 'OC0288535\\00005', 'OC0288535\\00006', 'OC0288635\\00000', 'OC0288635\\00001', 'OC0288635\\00002', 'OC0288696\\00000', 'OC0288696\\00001', 'OC0288979\\00000', 'OC0288979\\00001', 'OC0288979\\00002', 'OC0288979\\00003', 'OC0288979\\00004', 'OC0289157\\00000', 'OC0289157\\00001', 'OC0293393\\00000', 'OC0294886\\00000', 'OC0295949\\00000', 'OC0295949\\00001', 'OC0295956\\00000', 'OC0295956\\00001', 'OC0296100\\00000', 'OC0296100\\00001', 'OC0296185\\00000', 'OC0296185\\00001', 'OC0296185\\00002', 'OC0296185\\00003', 'OC0296185\\00004', 'OC0296185\\00005', 'OC0296185\\00006', 'OC0296211\\00000', 'OC0296211\\00001', 'OC0296294\\00000', 'OC0296294\\00001', 'OC0296372\\00000', 'OC0296412\\00000', 'OC0296412\\00001', 'OC0296412\\00002', 'OC0296412\\00003', 'OC0296474\\00000', 'OC0296474\\00001', 'OC0296474\\00002', 'OC0296511\\00000', 'OC0296511\\00001', 'OC0296511\\00002', 'OC0296511\\00003', 'OC0296511\\00004', 'OC0296511\\00005', 'OC0296511\\00006', 'OC0296511\\00007', 'OC0296511\\00008', 'OC0296511\\00009', 'OC0296511\\00010', 'OC0296511\\00011', 'OC0296511\\00012', 'OC0296511\\00013', 'OC0296511\\00014', 'OC0296511\\00015', 'OC0296511\\00016', 'OC0296511\\00017', 'OC0296511\\00018', 'OC0296511\\00019', 'OC0296511\\00020', 'OC0296532\\00000', 'OC0296532\\00001', 'OC0296532\\00002', 'OC0296532\\00003', 'OC0296532\\00004', 'OC0296532\\00005', 'OC0296532\\00006', 'OC0296532\\00007', 'OC0296532\\00008', 'OC0296586\\00000', 'OC0296586\\00001', 'OC0296682\\00000', 'OC0296682\\00001', 'OC0296732\\00000', 'OC0296732\\00001', 'OC0296732\\00002', 'OC0296732\\00003', 'OC0296732\\00004', 'OC0296738\\00000', 'OC0296738\\00001', 'OC0296738\\00002', 'OC0296824\\00000', 'OC0296824\\00001', 'OC0296848\\00000', 'OC0296848\\00001', 'OC0296848\\00002', 'OC0296848\\00003', 'OC0296848\\00004', 'OC0296848\\00005', 'OC0296848\\00006', 'OC0296848\\00007', 'OC0296848\\00008', 'OC0296848\\00009', 'OC0296848\\00010', 'OC0296864\\00000', 'OC0296864\\00001', 'OC0296864\\00002', 'OC0296864\\00003', 'OC0296864\\00004', 'OC0296864\\00005', 'OC0296864\\00006', 'OC0296864\\00007', 'OC0296864\\00008', 'OC0296864\\00009', 'OC0296864\\00010', 'OC0296864\\00011', 'OC0296864\\00012', 'OC0296864\\00013', 'OC0296864\\00014', 'OC0296864\\00015', 'OC0296864\\00016', 'OC0296864\\00017', 'OC1029592\\00000', 'OC1029592\\00001', 'OC1037091\\00000', 'OC1037091\\00001', 'OC1037527\\00000', 'OC1041884\\00000', 'OC1058617\\00000', 'OC1058617\\00001', 'OC1058617\\00002', 'OC1058617\\00003', 'OC1058617\\00004', 'OC1058617\\00005', 'OC1058617\\00006', 'OC1058863\\00000', 'OC1058863\\00001', 'OC1059264\\00000', 'OC1059264\\00001', 'OC1059264\\00002', 'OC1059563\\00000', 'OC1059563\\00001', 'OC1059563\\00002', 'OC1059563\\00003', 'OC1059563\\00004', 'OC1059563\\00005', 'OC1059563\\00006', 'OC1060236\\00000', 'OC1060236\\00001', 'OC1060236\\00002', 'OC1060236\\00003', 'OC1060236\\00004', 'OC1060236\\00005', 'OC1060236\\00006', 'OC1060236\\00007', 'OC1060236\\00008', 'OC1060326\\00000', 'OC1060326\\00001', 'OC1060614\\00000', 'OC1060614\\00001', 'OC1060614\\00002', 'OC1060614\\00003', 'OC1060614\\00004', 'OC1060614\\00005', 'OC1060614\\00006', 'OC1060614\\00007', 'OC1060614\\00008', 'OC1060614\\00009', 'OC1060614\\00010', 'OC1061112\\00000', 'OC1061112\\00001', 'OC1061112\\00002', 'OC1061112\\00003', 'OC1061112\\00004', 'OC1061112\\00005', 'OC1061112\\00006', 'OC1061112\\00007', 'OC1061112\\00008', 'OC1061911\\00000', 'OC1061911\\00001', 'OC1062217\\00000', 'OC1062217\\00001', 'OC1064583\\00000', 'OC1064583\\00001', 'OC1064791\\00000', 'OC1064791\\00001', 'OC1064791\\00002', 'OC1084869\\00000', 'OC1084869\\00001', 'OC1091496\\00000', 'OC1091496\\00001', 'OC1097200\\00000', 'OC1097200\\00001', 'OC1097200\\00002', 'OC1097200\\00003', 'OC1099299\\00000', 'OC1099299\\00001', 'OC1099870\\00007', 'OC1099870\\00008', 'OC1099870\\00009', 'OC1100765\\00000', 'OC1103461\\00000', 'OC1103461\\00001', 'OC1103615\\00000', 'OC1103615\\00001', 'OC1103615\\00002', 'OC1103615\\00003', 'OC1103615\\00004', 'OC1103615\\00005', 'OC1103615\\00006', 'OC1103615\\00007', 'OC1103615\\00008', 'OC1103615\\00009', 'OC1103615\\00010', 'OC1103615\\00011', 'OC1103615\\00012', 'OC1103615\\00013', 'OC1103615\\00014', 'OC1103615\\00015', 'OC1104313\\00000', 'OC1104313\\00001', 'OC1104511\\00000', 'OC1104511\\00001', 'OC1104511\\00002', 'OC1104511\\00003', 'OC1104511\\00004', 'OC1104511\\00005', 'OC1104511\\00006', 'OC1104511\\00007', 'OC1104511\\00008', 'OC1104511\\00009', 'OC1104511\\00010', 'OC1104511\\00011', 'OC1104511\\00012', 'OC1105624\\00000', 'OC1105624\\00001', 'OC1105624\\00002', 'OC1105624\\00003', 'OC1111392\\00001', 'OD0035313\\00000', 'OD0035313\\00001', 'OD0035313\\00002', 'OD0035313\\00003', 'OD0035313\\00004', 'OD0035313\\00005', 'OD0107295\\00000', 'OD0107295\\00001', 'OD0140290\\00000', 'OD0140290\\00001', 'OD0140290\\00002', 'OD0140290\\00003', 'OD0140290\\00004', 'OD0140290\\00005', 'OD0140290\\00006', 'OD0140290\\00007', 'OD0140290\\00008', 'OD0140290\\00009', 'OD0140290\\00010', 'OD0140290\\00011', 'OD0166042\\00000', 'OD0166042\\00001', 'OD0170942\\00000', 'OD0170942\\00001', 'OD0171445\\00000', 'OD0171445\\00001', 'OD0171445\\00002', 'OD0171445\\00003', 'OD0171445\\00004', 'OD0171445\\00005', 'OD0171445\\00006', 'OD0171445\\00007', 'OD0171445\\00008', 'OD0171445\\00009', 'OD0171445\\00010', 'OD0171445\\00011', 'OD0171445\\00012', 'OD0171445\\00013', 'OD0171445\\00014', 'OD0171445\\00015', 'OD0171445\\00016', 'OD0171445\\00017', 'OD0171767\\00000', 'OD0171767\\00001', 'OD0174011\\00000', 'OD0174011\\00001', 'OD0180621\\00000', 'OD0180621\\00001', 'OD0180621\\00002', 'OD0186493\\00000', 'OD0186493\\00001', 'OD0187060\\00000', 'OD0187060\\00001', 'OD0187060\\00002', 'OD0187060\\00003', 'OD0187060\\00004', 'OD0187309\\00000', 'OD0187309\\00001', 'OD0187309\\00002', 'OD0187309\\00003', 'OD0187309\\00004', 'OD0187309\\00005', 'OD0187309\\00006', 'OD0187309\\00007', 'OD0187309\\00008', 'OD0187309\\00009', 'OD0187309\\00010', 'OD0187309\\00011', 'OD0187309\\00012', 'OD0187309\\00013', 'OD0187309\\00014', 'OD0187309\\00015', 'OD0187309\\00016', 'OD0187309\\00017', 'OD0187309\\00018', 'OD0187309\\00019', 'OD0187309\\00020', 'OD0187309\\00021', 'OD0187309\\00022', 'OD0187309\\00023', 'OD0187309\\00024', 'OD0187309\\00025', 'OD0187309\\00026', 'OD0187309\\00027', 'OD0187309\\00028', 'OD0187309\\00029', 'OD0187309\\00030', 'OD0187309\\00031', 'OD0187309\\00032', 'OD0187309\\00033', 'OD0187309\\00034', 'OD0187309\\00035', 'OD0187309\\00036', 'OD0187309\\00037', 'OD0187309\\00038', 'OD0187309\\00039', 'OD0187309\\00040', 'OD0187309\\00041', 'OD0187309\\00042', 'OD0187309\\00043', 'OD0187309\\00044', 'OD0187309\\00045', 'OD0187309\\00046', 'OD0187309\\00047', 'OD0187309\\00048', 'OD0187309\\00049', 'OD0187309\\00050', 'OD0187309\\00051', 'OD0187309\\00052', 'OD0187309\\00053', 'OD0187309\\00054', 'OD0187309\\00055', 'OD0187309\\00056', 'OD0187309\\00057', 'OD0200697\\00000', 'OD0200697\\00001', 'OD0200697\\00002', 'OD0200697\\00003', 'OD0200697\\00004', 'OD0200705\\00000', 'OD0200705\\00001', 'OD0200705\\00002', 'OD0200705\\00003', 'OD0200705\\00004', 'OD0200705\\00005', 'OD0200705\\00006', 'OD0200705\\00007', 'OD0200705\\00008', 'OD0200705\\00009', 'OD0200705\\00010', 'OD0200735\\00000', 'OD0200735\\00001', 'OD0200735\\00002', 'OD0200735\\00003', 'OD0200735\\00004', 'OD0200970\\00000', 'OD0200970\\00001', 'OD0203898\\00000', 'OD0203898\\00001', 'OD0203898\\00002', 'OD0203898\\00003', 'OD0203898\\00004', 'OD0203898\\00005', 'OD0203898\\00006', 'OD0203898\\00007', 'OD0203898\\00008', 'OD0203898\\00009', 'OD0203898\\00010', 'OD0203898\\00011', 'OD0203898\\00012', 'OD0203898\\00013', 'OD0203898\\00014', 'OD0203898\\00015', 'OD0203898\\00016', 'OD0252128\\00000', 'OD0253270\\00000', 'OD0253270\\00001', 'OD0255076\\00000', 'OD0255076\\00001', 'OD0255076\\00002', 'OD0255076\\00003', 'OD0255076\\00004', 'OD0255076\\00005', 'OD0255076\\00006', 'OD0255076\\00007', 'OD0255076\\00008', 'OD0255238\\00000', 'OD0255238\\00001', 'OD0255287\\00000', 'OD0255287\\00001', 'OD0255355\\00000', 'OD0255355\\00001', 'OD0255355\\00002', 'OD0255381\\00000', 'OD0255381\\00001', 'OD0255381\\00002', 'OD0255381\\00003', 'OD0261293\\00000', 'OD0261293\\00001', 'OD0261293\\00002', 'OD0261293\\00003', 'OD0261293\\00004', 'OD0261293\\00005', 'OD0261293\\00006', 'OD0261293\\00007', 'OD0261293\\00008', 'OD0261293\\00009', 'OD0261293\\00010', 'OD0261502\\00000', 'OD0261502\\00001', 'OD0261502\\00002', 'OD0261502\\00003', 'OD0261502\\00004', 'OD0261502\\00005', 'OD0261858\\00000', 'OD0261858\\00001', 'OD0261858\\00002', 'OD0266261\\00000', 'OD0266261\\00001', 'OD0266311\\00000', 'OD0266311\\00001', 'OD0266311\\00002', 'OD0266417\\00000', 'OD0266417\\00001', 'OD0266449\\00000', 'OD0266449\\00001', 'OD0266476\\00000', 'OD0266476\\00001', 'OD0266483\\00000', 'OD0266483\\00001', 'OD0266483\\00002', 'OD0266483\\00003', 'OD0266483\\00004', 'OD0266483\\00005', 'OD0266483\\00006', 'OD0266508\\00000', 'OD0266508\\00001', 'OD0266527\\00000', 'OD0266527\\00001', 'OD0266527\\00002', 'OD0266527\\00003', 'OD0266527\\00004', 'OD0266527\\00005', 'OD0266533\\00000', 'OD0266533\\00001', 'OD0266696\\00000', 'OD0266721\\00000', 'OD0266721\\00001', 'OD0266747\\00000', 'OD0266747\\00001', 'OD0266805\\00000', 'OD0266805\\00001', 'OD1057739\\00000', 'OD1057739\\00001', 'OD1058282\\00000', 'OD1058282\\00001', 'OD1059893\\00000', 'OD1059893\\00001', 'OD1059893\\00002', 'OD1059893\\00003', 'OD1059893\\00004', 'OD1059893\\00005', 'OD1059893\\00006', 'OD1060757\\00000', 'OD1060757\\00001', 'OD1061208\\00000', 'OD1061208\\00001', 'OD1061208\\00002', 'OD1061208\\00003', 'OD1062245\\00000', 'OD1062245\\00001', 'OD1062245\\00002', 'OD1062245\\00003', 'OD1087741\\00000', 'OD1087741\\00001', 'OD1087741\\00002', 'OD1088302\\00000', 'OD1088302\\00001', 'OD1088302\\00002', 'OD1088302\\00003', 'OD1088302\\00004', 'OD1088302\\00005', 'OD1088302\\00006', 'OD1088302\\00007', 'OD1089425\\00000', 'OD1089425\\00001', 'OD1089425\\00002', 'OD1089425\\00003', 'OD1089425\\00004', 'OD1090139\\00000', 'OD1090139\\00001', 'OD1090352\\00000', 'OD1090352\\00001', 'OD1090352\\00002', 'OD1090352\\00003', 'OD1090352\\00004', 'OD1090352\\00005', 'OD1090352\\00006', 'OD1091490\\00000', 'OD1091490\\00001', 'OD1091595\\00000', 'OD1091595\\00001', 'OD1093410\\00000', 'OD1093410\\00001', 'OD1093410\\00002', 'OD1097928\\00000', 'OD1097928\\00001', 'OD1097928\\00002', 'OD1097928\\00003', 'OD1097928\\00004', 'OD1102596\\00000', 'OD1102596\\00001', 'OD1102633\\00000', 'OD1102633\\00001', 'OD1102633\\00002', 'OD1104168\\00000', 'OD1104168\\00001', 'OD1104616\\00000', 'OD1104616\\00001', 'OD1104616\\00002', 'OD1104710\\00000', 'OD1104710\\00001', 'OD1104710\\00002', 'OD1105416\\00000', 'OD1105416\\00001', 'OD1105416\\00002', 'OD1105416\\00003', 'OD1105416\\00004', 'OD1105416\\00005', 'OD1105416\\00006', 'OD1105504\\00000', 'OD1105504\\00001', 'OD1105504\\00002', 'OD1105504\\00003', 'OD1105504\\00004', 'OD1105504\\00005', 'OD1105576\\00000', 'OD1105576\\00001', 'OD1105576\\00002', 'OD1105576\\00003', 'OD1105899\\00000', 'OD1105899\\00001', 'OD1105899\\00002', 'OD1105962\\00000', 'OD1105962\\00001', 'OF0019585\\00000', 'OF0019585\\00001', 'OF0019585\\00002', 'OF0030839\\00000', 'OF0030839\\00001', 'OF0030839\\00002', 'OF0030839\\00003', 'OF0030839\\00004', 'OF0030839\\00005', 'OF0030839\\00006', 'OF0030839\\00007', 'OF0030839\\00008', 'OF0030839\\00009', 'OF0030839\\00010', 'OF0030839\\00011', 'OF0030839\\00012', 'OF0030839\\00013', 'OF0030839\\00014', 'OF0030839\\00015', 'OF0030839\\00016', 'OF0030839\\00017', 'OF0030839\\00018', 'OF0030839\\00019', 'OF0030839\\00020', 'OF0030839\\00021', 'OF0030839\\00022', 'OF0030839\\00023', 'OF0030839\\00024', 'OF0030839\\00025', 'OF0032301\\00000', 'OF0032301\\00001', 'OF0034925\\00000', 'OF0034925\\00001', 'OF0034925\\00002', 'OF0034925\\00003', 'OF0034925\\00004', 'OF0034925\\00005', 'OF0034925\\00006', 'OF0034925\\00007', 'OF0034925\\00008', 'OF0034925\\00009', 'OF0034925\\00010', 'OF0034925\\00011', 'OF0034925\\00012', 'OF0034925\\00013', 'OF0034925\\00014', 'OF0034925\\00015', 'OF0034925\\00016', 'OF0034925\\00017', 'OF0034925\\00018', 'OF0034925\\00019', 'OF0034925\\00020', 'OF0034925\\00021', 'OF0034925\\00022', 'OF0034925\\00023', 'OF0034925\\00024', 'OF0034925\\00025', 'OF0034925\\00026', 'OF0034925\\00027', 'OF0034925\\00028', 'OF0034925\\00029', 'OF0034925\\00030', 'OF0034925\\00031', 'OF0034925\\00032', 'OF0034925\\00033', 'OF0034925\\00034', 'OF0034925\\00035', 'OF0034925\\00036', 'OF0034925\\00037', 'OF0034925\\00038', 'OF0034925\\00039', 'OF0034925\\00040', 'OF0034925\\00041', 'OF0034925\\00042', 'OF0034925\\00043', 'OF0034925\\00044', 'OF0034925\\00045', 'OF0034925\\00046', 'OF0034925\\00047', 'OF0034925\\00048', 'OF0034925\\00049', 'OF0034925\\00050', 'OF0034925\\00051', 'OF0034925\\00052', 'OF0034925\\00053', 'OF0034925\\00054', 'OF0034925\\00055', 'OF0034925\\00056', 'OF0034925\\00057', 'OF0034925\\00058', 'OF0034925\\00059', 'OF0034925\\00060', 'OF0034925\\00061', 'OF0034925\\00062', 'OF0034925\\00063', 'OF0034925\\00064', 'OF0034925\\00065', 'OF0034925\\00066', 'OF0034925\\00067', 'OF0034925\\00068', 'OF0034925\\00069', 'OF0034925\\00070', 'OF0034925\\00071', 'OF0034925\\00072', 'OF0034925\\00073', 'OF0034925\\00074', 'OF0034925\\00075', 'OF0034925\\00076', 'OF0034925\\00077', 'OF0034925\\00078', 'OF0034925\\00079', 'OF0034925\\00080', 'OF0034925\\00081', 'OF0034925\\00082', 'OF0034925\\00083', 'OF0034925\\00084', 'OF0034925\\00085', 'OF0034925\\00086', 'OF0034925\\00087', 'OF0034925\\00088', 'OF0034925\\00089', 'OF0034925\\00090', 'OF0034925\\00091', 'OF0034925\\00092', 'OF0034925\\00093', 'OF0034925\\00094', 'OF0034925\\00095', 'OF0034925\\00096', 'OF0034925\\00097', 'OF0034925\\00098', 'OF0034925\\00099', 'OF0034925\\00100', 'OF0034925\\00101', 'OF0034925\\00102', 'OF0034925\\00103', 'OF0034925\\00104', 'OF0034925\\00105', 'OF0034925\\00106', 'OF0034925\\00107', 'OF0034925\\00108', 'OF0034925\\00109', 'OF0034925\\00110', 'OF0034925\\00111', 'OF0034925\\00112', 'OF0034925\\00113', 'OF0034925\\00114', 'OF0034925\\00115', 'OF0034925\\00116', 'OF0034925\\00117', 'OF0034925\\00118', 'OF0034925\\00119', 'OF0034925\\00120', 'OF0034925\\00121', 'OF0034925\\00122', 'OF0034925\\00123', 'OF0034925\\00124', 'OF0034925\\00125', 'OF0034925\\00126', 'OF0034925\\00127', 'OF0034925\\00128', 'OF0034925\\00129', 'OF0034925\\00130', 'OF0034925\\00131', 'OF0034925\\00132', 'OF0034925\\00133', 'OF0034925\\00134', 'OF0034925\\00135', 'OF0034925\\00136', 'OF0034925\\00137', 'OF0034925\\00138', 'OF0034925\\00139', 'OF0034925\\00140', 'OF0034925\\00141', 'OF0034925\\00142', 'OF0034925\\00143', 'OF0034925\\00144', 'OF0034925\\00145', 'OF0034925\\00146', 'OF0034925\\00147', 'OF0034925\\00148', 'OF0034925\\00149', 'OF0034925\\00150', 'OF0034925\\00151', 'OF0034925\\00152', 'OF0034925\\00153', 'OF0034925\\00154', 'OF0034925\\00155', 'OF0034925\\00156', 'OF0034925\\00157', 'OF0034925\\00158', 'OF0034925\\00159', 'OF0034925\\00160', 'OF0034925\\00161', 'OF0034925\\00162', 'OF0034925\\00163', 'OF0034925\\00164', 'OF0034925\\00165', 'OF0034925\\00166', 'OF0034925\\00167', 'OF0034925\\00168', 'OF0034925\\00169', 'OF0034925\\00170', 'OF0034925\\00171', 'OF0034925\\00172', 'OF0034925\\00173', 'OF0034925\\00174', 'OF0034925\\00175', 'OF0034925\\00176', 'OF0034925\\00177', 'OF0034925\\00178', 'OF0034925\\00179', 'OF0034925\\00180', 'OF0034925\\00181', 'OF0034925\\00182', 'OF0034925\\00183', 'OF0034925\\00184', 'OF0034925\\00185', 'OF0034925\\00186', 'OF0034925\\00187', 'OF0034925\\00188', 'OF0034925\\00189', 'OF0034925\\00190', 'OF0034925\\00191', 'OF0034925\\00192', 'OF0034925\\00193', 'OF0034925\\00194', 'OF0034925\\00195', 'OF0034925\\00196', 'OF0034925\\00197', 'OF0034925\\00198', 'OF0034925\\00199', 'OF0034925\\00200', 'OF0034925\\00201', 'OF0034925\\00202', 'OF0034925\\00203', 'OF0034925\\00204', 'OF0034925\\00205', 'OF0034925\\00206', 'OF0034925\\00207', 'OF0034925\\00208', 'OF0034925\\00209', 'OF0034925\\00210', 'OF0034925\\00211', 'OF0034925\\00212', 'OF0034925\\00213', 'OF0034925\\00214', 'OF0034925\\00215', 'OF0034925\\00216', 'OF0034925\\00217', 'OF0034925\\00218', 'OF0034925\\00219', 'OF0034925\\00220', 'OF0034925\\00221', 'OF0034925\\00222', 'OF0034925\\00223', 'OF0034925\\00224', 'OF0034925\\00225', 'OF0034925\\00226', 'OF0034925\\00227', 'OF0034925\\00228', 'OF0034925\\00229', 'OF0034925\\00230', 'OF0034925\\00231', 'OF0034925\\00232', 'OF0034925\\00233', 'OF0034925\\00234', 'OF0034925\\00235', 'OF0034925\\00236', 'OF0034925\\00237', 'OF0034925\\00238', 'OF0034925\\00239', 'OF0034925\\00240', 'OF0034925\\00241', 'OF0034925\\00242', 'OF0034925\\00243', 'OF0034925\\00244', 'OF0034925\\00245', 'OF0034925\\00246', 'OF0034925\\00247', 'OF0034925\\00248', 'OF0034925\\00249', 'OF0034925\\00250', 'OF0034925\\00251', 'OF0034925\\00252', 'OF0034925\\00253', 'OF0034925\\00254', 'OF0034925\\00255', 'OF0034925\\00256', 'OF0034925\\00257', 'OF0034925\\00258', 'OF0034925\\00259', 'OF0034925\\00260', 'OF0034925\\00261', 'OF0034925\\00262', 'OF0034925\\00263', 'OF0034925\\00264', 'OF0034925\\00265', 'OF0034925\\00266', 'OF0034925\\00267', 'OF0034925\\00268', 'OF0034925\\00269', 'OF0034925\\00270', 'OF0034925\\00271', 'OF0034925\\00272', 'OF0034925\\00273', 'OF0034925\\00274', 'OF0034925\\00275', 'OF0034925\\00276', 'OF0034925\\00277', 'OF0034925\\00278', 'OF0034925\\00279', 'OF0034925\\00280', 'OF0034925\\00281', 'OF0034925\\00282', 'OF0034925\\00283', 'OF0034925\\00284', 'OF0034925\\00285', 'OF0034925\\00286', 'OF0034925\\00287', 'OF0034925\\00288', 'OF0034925\\00289', 'OF0034925\\00290', 'OF0034925\\00291', 'OF0034925\\00292', 'OF0034925\\00293', 'OF0034925\\00294', 'OF0034925\\00295', 'OF0034925\\00296', 'OF0034925\\00297', 'OF0034925\\00298', 'OF0034925\\00299', 'OF0034925\\00300', 'OF0034925\\00301', 'OF0034925\\00302', 'OF0034925\\00303', 'OF0034925\\00304', 'OF0034925\\00305', 'OF0034925\\00306', 'OF0034925\\00307', 'OF0034925\\00308', 'OF0034925\\00309', 'OF0034925\\00310', 'OF0034925\\00311', 'OF0034925\\00312', 'OF0034925\\00313', 'OF0034925\\00314', 'OF0034925\\00315', 'OF0034925\\00316', 'OF0034925\\00317', 'OF0034925\\00318', 'OF0034925\\00319', 'OF0034925\\00320', 'OF0034925\\00321', 'OF0034925\\00322', 'OF0034925\\00323', 'OF0034925\\00324', 'OF0034925\\00325', 'OF0034925\\00326', 'OF0034925\\00327', 'OF0034925\\00328', 'OF0034925\\00329', 'OF0034925\\00330', 'OF0034925\\00331', 'OF0034925\\00332', 'OF0034925\\00333', 'OF0034925\\00334', 'OF0034925\\00335', 'OF0034925\\00336', 'OF0034925\\00337', 'OF0034925\\00338', 'OF0034925\\00339', 'OF0034925\\00340', 'OF0034925\\00341', 'OF0034925\\00342', 'OF0034925\\00343', 'OF0034925\\00344', 'OF0034925\\00345', 'OF0034925\\00346', 'OF0034925\\00347', 'OF0034925\\00348', 'OF0034925\\00349', 'OF0034925\\00350', 'OF0034925\\00351', 'OF0034925\\00352', 'OF0034925\\00353', 'OF0034925\\00354', 'OF0034925\\00355', 'OF0034925\\00356', 'OF0034925\\00357', 'OF0034925\\00358', 'OF0034925\\00359', 'OF0034925\\00360', 'OF0034925\\00361', 'OF0034925\\00362', 'OF0034925\\00363', 'OF0034925\\00364', 'OF0034925\\00365', 'OF0034925\\00366', 'OF0034925\\00367', 'OF0034925\\00368', 'OF0034925\\00369', 'OF0034925\\00370', 'OF0034925\\00371', 'OF0034925\\00372', 'OF0034925\\00373', 'OF0034925\\00374', 'OF0034925\\00375', 'OF0034925\\00376', 'OF0034925\\00377', 'OF0034925\\00378', 'OF0034925\\00379', 'OF0034925\\00380', 'OF0034925\\00381', 'OF0034925\\00382', 'OF0034925\\00383', 'OF0034925\\00384', 'OF0034925\\00385', 'OF0034925\\00386', 'OF0034925\\00387', 'OF0034925\\00388', 'OF0034925\\00389', 'OF0034925\\00390', 'OF0034925\\00391', 'OF0034925\\00392', 'OF0034925\\00393', 'OF0034925\\00394', 'OF0034925\\00395', 'OF0034925\\00396', 'OF0034925\\00397', 'OF0034925\\00398', 'OF0034925\\00399', 'OF0034925\\00400', 'OF0034925\\00401', 'OF0034925\\00402', 'OF0034925\\00403', 'OF0034925\\00404', 'OF0034925\\00405', 'OF0034925\\00406', 'OF0034925\\00407', 'OF0034925\\00408', 'OF0034925\\00409', 'OF0034925\\00410', 'OF0034925\\00411', 'OF0034925\\00412', 'OF0034925\\00413', 'OF0034925\\00414', 'OF0034925\\00415', 'OF0034925\\00416', 'OF0034925\\00417', 'OF0034925\\00418', 'OF0034925\\00419', 'OF0034925\\00420', 'OF0034925\\00421', 'OF0034925\\00422', 'OF0034925\\00423', 'OF0034925\\00424', 'OF0034925\\00425', 'OF0034925\\00426', 'OF0034925\\00427', 'OF0034925\\00428', 'OF0034925\\00429', 'OF0034925\\00430', 'OF0034925\\00431', 'OF0034925\\00432', 'OF0034925\\00433', 'OF0034925\\00434', 'OF0034925\\00435', 'OF0034925\\00436', 'OF0034925\\00437', 'OF0034925\\00438', 'OF0034925\\00439', 'OF0034925\\00440', 'OF0034925\\00441', 'OF0034925\\00442', 'OF0034925\\00443', 'OF0034925\\00444', 'OF0034925\\00445', 'OF0034925\\00446', 'OF0034925\\00447', 'OF0034925\\00448', 'OF0034925\\00449', 'OF0034925\\00450', 'OF0034925\\00451', 'OF0034925\\00452', 'OF0034925\\00453', 'OF0</t>
         </is>
@@ -1303,12 +1373,18 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
+        <v>5330</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>1760555</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>15313</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['1', '12', '2', '8', 'AAMIR HUSSAIN', 'AARON', 'AARON ANTHONY', 'AARON BRIAN', 'AARON DAVID', 'AARON JAMES', 'AARON PAUL', 'AARON SCOTT', 'AARRON KIM', 'ABDI NASIR', 'ABDUL', 'ABDUL G', 'ABDUL GHAFFAR', 'ABDUL RAUF', 'ABDULHAKIM', 'ABDULLAHI ALI', 'ABEL', 'ABIGAIL JANE', 'ABIYE', 'ABRAR', 'ADA', 'ADAM', 'ADAM ANDREW', 'ADAM ANTHONY', 'ADAM BENJAMIN', 'ADAM BUCHAN', 'ADAM CARL', 'ADAM CHRISTOPHER', 'ADAM CLIVE', 'ADAM CRAIG', 'ADAM DAVID', 'ADAM DAVID STEWART', 'ADAM EDWARD', 'ADAM FRANCIS', 'ADAM GEOFFREY', 'ADAM GORDON', 'ADAM JAMES', 'ADAM JAMES EVERETT', 'ADAM JAMES PAUL', 'ADAM JEREMY', 'ADAM JOEL', 'ADAM JOHN', 'ADAM JON', 'ADAM JONATHAN', 'ADAM JONATHON EDWARD', 'ADAM KEVIN', 'ADAM LEE', 'ADAM MACKAY', 'ADAM MARK', 'ADAM MATTHEW', 'ADAM MCINNES', 'ADAM MICHAEL', 'ADAM MICHAL', 'ADAM MICHEAL', 'ADAM NEIL', 'ADAM NOEL', 'ADAM PHILIP', 'ADAM R', 'ADAM RICHARD', 'ADAM ROBERT', 'ADAM ROSS', 'ADAM STEPHENSON', 'ADAM TEMPEST', 'ADAM TERRENCE', 'ADAM THOMAS', 'ADAM TOCHRANE', 'ADAM TORRANCE', 'ADAM WILLIAM', 'ADAN MOALIM', 'ADELE', 'ADELE IRENE', 'ADELE MARY', 'ADNAAN', 'ADNAN', 'ADRIAN', 'ADRIAN ALEXANDER', 'ADRIAN ANDREW', 'ADRIAN ARTHUR', 'ADRIAN BARRY', 'ADRIAN BEN', 'ADRIAN BRIAN', 'ADRIAN BRIAN CHARLES', 'ADRIAN BRIAN JOHN', 'ADRIAN BRIAN MCGRATH', 'ADRIAN BRYAN', 'ADRIAN CHARLES', 'ADRIAN CHRISTOPHER', 'ADRIAN CLIVE', 'ADRIAN COLIN', 'ADRIAN CRAIG', 'ADRIAN CYRIL', 'ADRIAN DAVID', 'ADRIAN DENNIS', 'ADRIAN DEREK', 'ADRIAN DERMOT', 'ADRIAN DOMINIC', 'ADRIAN DOMINIC CHRISTIE', 'ADRIAN DONALD', 'ADRIAN EDWARD', 'ADRIAN F', 'ADRIAN FLORIN', 'ADRIAN FRANCIS', 'ADRIAN G', 'ADRIAN GEOFFREY', 'ADRIAN GEORGE', 'ADRIAN GERALD', 'ADRIAN GERARD', 'ADRIAN GRAHAM', 'ADRIAN GRANT', 'ADRIAN HUGH', 'ADRIAN IAN', 'ADRIAN J', 'ADRIAN JAMES', 'ADRIAN JEREMY', 'ADRIAN JOEL', 'ADRIAN JOHN', 'ADRIAN JON', 'ADRIAN JONATHAN', 'ADRIAN JOSEPH', 'ADRIAN KARL', 'ADRIAN KEITH', 'ADRIAN KELSON', 'ADRIAN KURT SEYMOUR', 'ADRIAN LEE', 'ADRIAN LESLIE', 'ADRIAN LEWIS', 'ADRIAN LINDSAY', 'ADRIAN M', 'ADRIAN MALCOLM', 'ADRIAN MARK', 'ADRIAN MARTIN', 'ADRIAN MICHAEL', 'ADRIAN MICHAEL PATRICK', 'ADRIAN N', 'ADRIAN NEIL', 'ADRIAN PAUL', 'ADRIAN PETER', 'ADRIAN PHILIP', 'ADRIAN PRICE', 'ADRIAN R', 'ADRIAN RAYMOND', 'ADRIAN RICHARD', 'ADRIAN ROBERT', 'ADRIAN ROGER', 'ADRIAN ROY', 'ADRIAN SABIN', 'ADRIAN SHANE', 'ADRIAN STEPHEN', 'ADRIAN STEPHEN PAUL', 'ADRIAN STUART', 'ADRIAN THOMAS', 'ADRIAN TRISTAN', 'ADRIAN WILLIAM', 'ADRIAN WILLIAM GEORGE', 'ADRIANA', 'ADRIENNE', 'ADRIENNE JANET', 'ADRIENNE MERLE', 'AERON CEREDIG', 'AERON PRYSOR', 'AFSHAR', 'AFTAB', 'AFZAL', 'AGNES CLARK', 'AGNES M', 'AGNES MARGARET', 'AGNES MARIE', 'AGNES PHILOMENA', 'AHMED', 'AHMED MUSTAFA', 'AIDAN', 'AIDAN ALISTAIR', 'AIDAN PATRICK', 'AIDAN THOMAS', 'AIDEN NORMAN EDWARD', 'AIDEN PAUL', 'AIDEN THOMAS', 'AIJAZ', 'AILEEN JEAN', 'AILEEN MARGARET', 'AILEEN SAMANTHA', 'AIMEE', 'AINE', 'AIRINAS', 'AISHA', 'AIVARAS', 'AIVARS', 'AIYMAN', 'AJAY', 'AJAYPAL', 'AJAZ', 'AJIT', 'AJIT SINGH', 'AJITH', 'AJMAR', 'AJMEER SINGH', 'AKY', 'ALAIN', 'ALAINE MARGUERITE', 'ALAN', 'ALAN ALBERT', 'ALAN ALEXANDER', 'ALAN ALFRED', 'ALAN ANDREW', 'ALAN ANTHONY', 'ALAN ARTHUR', 'ALAN AUSTEN ROWLEY', 'ALAN BARRINGTON', 'ALAN BAXTER', 'ALAN BERNARD', 'ALAN BERTRAM', 'ALAN BERTRUM', 'ALAN BEVAN', 'ALAN BIRD', 'ALAN BRIAN', 'ALAN BRUCE', 'ALAN C', 'ALAN CAMERON', 'ALAN CHARLES', 'ALAN CHRISTOPHER', 'ALAN COLIN', 'ALAN CRAIG PAUL', 'ALAN DAVID', 'ALAN DAVID HENRY', 'ALAN DENNIS', 'ALAN DEREK', 'ALAN DONALD', 'ALAN DOUGLAS', 'ALAN EDWARD', 'ALAN EDWIN', 'ALAN EDWIN JOHN', 'ALAN ERIC', 'ALAN ERNEST', 'ALAN F', 'ALAN FERN', 'ALAN FRANK', 'ALAN FREDERICK', 'ALAN FREDRICK', 'ALAN GARNET', 'ALAN GARY', 'ALAN GEOFFREY', 'ALAN GEORGE', 'ALAN GILBERT', 'ALAN GORDON', 'ALAN GRAHAM', 'ALAN GUTHRIE', 'ALAN HAROLD', 'ALAN HARRY', 'ALAN HAWTHORNE', 'ALAN HEATHCOTE', 'ALAN HENRY', 'ALAN HERBERT', 'ALAN HOWARD', 'ALAN HUGH', 'ALAN JAMES', 'ALAN JAMES GRAY', 'ALAN JAMES MICHAEL', 'ALAN JEFFERY', 'ALAN JEFFREY', 'ALAN JEREMY', 'ALAN JOHN', 'ALAN JON', 'ALAN JOSEPH', 'ALAN JUSTIN', 'ALAN KEITH', 'ALAN KENNETH', 'ALAN KEVIN', 'ALAN LASHFORD', 'ALAN LEE', 'ALAN LEONARD', 'ALAN LESLIE', 'ALAN LINDSAY', 'ALAN M', 'ALAN MACKENZIE', 'ALAN MACLEOD', 'ALAN MALCOLM', 'ALAN MALDUYN ROBERT', 'ALAN MARTIN', 'ALAN MATTHEW', 'ALAN MAURICE', 'ALAN MELVIN', 'ALAN MICHAEL', 'ALAN MURRAY', 'ALAN NEIL', 'ALAN NEVILLE', 'ALAN NORMAN', 'ALAN PAUL', 'ALAN PETER', 'ALAN PHILIP', 'ALAN RALPH', 'ALAN RATHMILL', 'ALAN RAYMOND', 'ALAN REGINALD', 'ALAN REGINALD CHARLES', 'ALAN RICHARD', 'ALAN RICHARD STANLEY', 'ALAN RITCHIE', 'ALAN ROBERT', 'ALAN ROGER', 'ALAN ROLAND', 'ALAN RONALD', 'ALAN ROSS', 'ALAN ROY', 'ALAN RUSSELL', 'ALAN SAMUEL', 'ALAN SCOTT', 'ALAN SHAUN', 'ALAN SOMERS', 'ALAN STANLEY', 'ALAN STEPHEN', 'ALAN STEWART', 'ALAN STEWART CLARKE', 'ALAN STUART', 'ALAN SVERRE', 'ALAN TERENCE', 'ALAN THOMAS', 'ALAN TIMOTHY', 'ALAN TREVOR', 'ALAN TUDOR', 'ALAN VAUGHAN', 'ALAN VICTOR', 'ALAN VINCENT', 'ALAN WALKER', 'ALAN WALTER', 'ALAN WAYNE', 'ALAN WILLIAM', 'ALAN WILLIAM CONNOR', 'ALAN WINSTON', 'ALAN WYN', 'ALAN WYN HUGHES', 'ALAN WYNNE', 'ALAN WYNYWATES', 'ALAN YOUNG', 'ALANA GEORGE', 'ALASDAIR', 'ALASDAIR CLARK', 'ALASDAIR DOUGLAS', 'ALASDAIR KINGSLEY', 'ALASDAIR MACDONALD', 'ALASDAIR MURRAY', 'ALASTAIR', 'ALASTAIR BRYSON', 'ALASTAIR DOUGLAS', 'ALASTAIR EWEN', 'ALASTAIR GEORGE', 'ALASTAIR IAN', 'ALASTAIR IAN CARL', 'ALASTAIR JAMES', 'ALASTAIR JAMIESON', 'ALASTAIR JOHN', 'ALASTAIR KEITH', 'ALASTAIR KIRKLAND', 'ALASTAIR MCKENZIE', 'ALASTAIR MILES ROBERTSON', 'ALASTAIR POLLOCK', 'ALASTAIR ROBERTSON', 'ALASTAIR RUPERT', 'ALASTAIR STUART', 'ALASTAIR WILLIAM', 'ALBERT', 'ALBERT ALAN', 'ALBERT ARTHUR', 'ALBERT DAVID', 'ALBERT DAVID BARRY', 'ALBERT DENNIS', 'ALBERT DOUGLAS', 'ALBERT EDWARD', 'ALBERT EDWARD GEORGE', 'ALBERT EDWIN', 'ALBERT FRANKIE', 'ALBERT GEOFFREY', 'ALBERT GEORGE', 'ALBERT GORDON', 'ALBERT J', 'ALBERT JAMES', 'ALBERT JAMES BARRON', 'ALBERT JOHN', 'ALBERT LEONARD', 'ALBERT PAUL', 'ALBERT RALPH', 'ALBERT ROBERT', 'ALBERT RODNEY', 'ALBERT RONALD', 'ALBERT TERENCE', 'ALBERT THOMAS', 'ALBERT VICTOR', 'ALBERT WALTER', 'ALBERT WESTLANDS', 'ALBERT WILLIAM', 'ALBERTUS WILLEM', 'ALBIS', 'ALDO RICCARDO', 'ALEC', 'ALEC BRYAN', 'ALEC DAVID', 'ALEC JAMES', 'ALEC JOHN', 'ALEC STEPHEN', 'ALEC STUART', 'ALED', 'ALED GRIFFITH', 'ALED GWYNRUDD', 'ALED LLYR', 'ALED OWAIN', 'ALEKSANDAR VASKOV', 'ALEKSANDER', 'ALEKSANDR', 'ALEKSANDRS', 'ALEX', 'ALEX ALAN HENRY', 'ALEX BARRY', 'ALEX CHARLES', 'ALEX D', 'ALEX DAVID', 'ALEX IEUAN', 'ALEX JAMES', 'ALEX LLOYD', 'ALEX MICHAEL', 'ALEX ROBERT', 'ALEX STEWART', 'ALEX STUART', 'ALEX TRAVES', 'ALEX WILLIAM', 'ALEX WILLIAM GORDON', 'ALEXANDER', 'ALEXANDER ALAN', 'ALEXANDER ALAN GUY', 'ALEXANDER ANTHONY', 'ALEXANDER B', 'ALEXANDER BRUCE', 'ALEXANDER BRYCE', 'ALEXANDER CAMERON', 'ALEXANDER CHARLES', 'ALEXANDER CHRISTIAN', 'ALEXANDER COOPER', 'ALEXANDER CROSBIE BLAIR', 'ALEXANDER DAVID', 'ALEXANDER DUNCAN', 'ALEXANDER ETHAN', 'ALEXANDER FLEMING', 'ALEXANDER FREDRICK', 'ALEXANDER G', 'ALEXANDER GEORGE', 'ALEXANDER GOODBURN', 'ALEXANDER GORDON THOMAS', 'ALEXANDER GRAHAM', 'ALEXANDER HOGG', 'ALEXANDER HUGH', 'ALEXANDER JAMES', 'ALEXANDER JOHN', 'ALEXANDER JOSEPH', 'ALEXANDER JUSTIN', 'ALEXANDER M', 'ALEXANDER MACAULAY', 'ALEXANDER MACDONALD', 'ALEXANDER MACGREGOR', 'ALEXANDER MARTIN', 'ALEXANDER MICHAEL', 'ALEXANDER MUTCH', 'ALEXANDER NIVEN', 'ALEXANDER NOBLE', 'ALEXANDER PARKER', 'ALEXANDER PAUL', 'ALEXANDER PETER', 'ALEXANDER RANKIN', 'ALEXANDER RICHARD', 'ALEXANDER ROBERT', 'ALEXANDER ROBERTSON', 'ALEXANDER RONALD', 'ALEXANDER ROY', 'ALEXANDER SAUNDERS', 'ALEXANDER SCOTT EMMETT', 'ALEXANDER SMALL', 'ALEXANDER SPENCER', 'ALEXANDER STEEL', 'ALEXANDER STEPHEN', 'ALEXANDER STEVEN', 'ALEXANDER STEWART', 'ALEXANDER THOMAS', 'ALEXANDER THOMAS ROBIN', 'ALEXANDER WARREN', 'ALEXANDER WILLIAM', 'ALEXANDER WOOD', 'ALEXANDRA', 'ALEXANDRA CLAIRE', 'ALEXANDRA GAIL', 'ALEXANDRA JANE', 'ALEXANDRA MARIA', 'ALEXANDRA MARY', 'ALEXANDRA TINA', 'ALEXANDRU ANDREI', 'ALEXANDRU CONSTANTIN', 'ALEXEI', 'ALEXIE CAROLINE', 'ALEXIS', 'ALEXIS RUTH HOPE', 'ALFIE ALBERT', 'ALFONSO', 'ALFRED', 'ALFRED ALAN', 'ALFRED ARTHUR', 'ALFRED BARRY', 'ALFRED C', 'ALFRED CHARLES', 'ALFRED DEAN', 'ALFRED EDWARD', 'ALFRED GEORGE', 'ALFRED GRAHAM', 'ALFRED HENRY', 'ALFRED JAMES', 'ALFRED JOHN', 'ALFRED JOHN BRYAN', 'ALFRED JOSEPH', 'ALFRED KENNETH', 'ALFRED LESLIE', 'ALFRED LESLIE RAYMOND', 'ALFRED LYNFORD', 'ALFRED MICHAEL', 'ALFRED NOEL', 'ALFRED PETER', 'ALFRED RAYMOND', 'ALFRED RONALD', 'ALFRED ROY', 'ALFRED STEPHEN', 'ALFRED THOMAS FIRTH', 'ALFRED WILLIAM', 'ALI', 'ALI REZA', 'ALICE', 'ALICIA', 'ALICIA JUNE', 'ALICJA', 'ALICK STEVEN', 'ALIKI', 'ALIN DANIEL', 'ALINA STEFANIA', 'ALISA LISETTE', 'ALISDAIR', 'ALISDAIR JAMES', 'ALISON', 'ALISON A', 'ALISON AGNES', 'ALISON GAYE', 'ALISON ISOBEL', 'ALISON JANE', 'ALISON JAYNE', 'ALISON LAURA', 'ALISON LESLEY', 'ALISON MAI', 'ALISON MARGARET', 'ALISON MARGRET', 'ALISON MARY', 'ALISON MAY ROBERTSON', 'ALISON RAIE', 'ALISON RUTH', 'ALISON SARAH', 'ALISON VICTORIA', 'ALISTAIR', 'ALISTAIR BURNETT', 'ALISTAIR CLARKE', 'ALISTAIR DAVID', 'ALISTAIR DUNCAN', 'ALISTAIR GEORGE', 'ALISTAIR GRENVILLE', 'ALISTAIR HAMISH', 'ALISTAIR HUGH', 'ALISTAIR I M', 'ALISTAIR IAN', 'ALISTAIR INNES', 'ALISTAIR JAMES', 'ALISTAIR JOHN', 'ALISTAIR LLEWELLYN', 'ALISTAIR MCKAY', 'ALISTAIR P', 'ALISTAIR PAUL', 'ALISTAIR ROBERT', 'ALISTAIR SHOLTO', 'ALISTAIR STUART', 'ALISTAIR TREVOR', 'ALISTAIR WILLIAM', 'ALISTAIRE MCNAIR', 'ALISTER', 'ALISTER BRICKNELL', 'ALISTER DOUGLAS', 'ALISTER GEORGE', 'ALISTER JOHN', 'ALISTER NEIL', 'ALISTER WATSON', 'ALLAN', 'ALLAN ARTHUR', 'ALLAN BADEN', 'ALLAN CAMPBELL', 'ALLAN CHARLES', 'ALLAN CHRISTOPHER', 'ALLAN CYRIL', 'ALLAN DAVID', 'ALLAN DAVID BRIAN', 'ALLAN DIXON', 'ALLAN DONALD', 'ALLAN DOUGLAS', 'ALLAN DUGALD PAUL', 'ALLAN E', 'ALLAN FLEMING', 'ALLAN FREDERICK', 'ALLAN GARNETT', 'ALLAN GEOFFREY', 'ALLAN GEORGE', 'ALLAN GORDON', 'ALLAN JACKSON', 'ALLAN JAMES', 'ALLAN JOHN', 'ALLAN JOHN ALEXANDER', 'ALLAN JOSEPH', 'ALLAN KEITH', 'ALLAN LEONARD', 'ALLAN LESLIE', 'ALLAN MARTIN', 'ALLAN MATTHEW', 'ALLAN MICHAEL', 'ALLAN MURRAY', 'ALLAN NORTON', 'ALLAN OWEN', 'ALLAN PETER', 'ALLAN PHILIP', 'ALLAN RAYMOND', 'ALLAN ROBERT', 'ALLAN ROBERT REGINALD', 'ALLAN ROY', 'ALLAN STUART', 'ALLAN THOMAS', 'ALLAN WALTER', 'ALLAN WILLIAM', 'ALLEN', 'ALLEN ADRIAN', 'ALLEN ALFRED EDWARD', 'ALLEN DAVID', 'ALLEN EDWARD', 'ALLEN FREDERICK', 'ALLEN JAMES', 'ALLEN MICHAEL', 'ALLEN PAUL', 'ALLEN PHILIP', 'ALLEN ROBERT', 'ALLEN ROGER', 'ALLEN STEPHEN', 'ALLEN STUART', 'ALLEN WILLIAM', 'ALLEYNE ARTHUR', 'ALLISON', 'ALLISON JANE', 'ALLISON SUZANNE', 'ALLISTER', 'ALLYN GEORGE', 'ALLYN JOHN HOUGHTON', 'ALPHA', 'ALPHONSUS', 'ALPHONSUS PATRICK JOSEPH', 'ALSTON KARL', 'ALUN', 'ALUN BOWEN', 'ALUN EDMUND', 'ALUN EDWARD', 'ALUN GARETH', 'ALUN GORONWY', 'ALUN HEFIN', 'ALUN IORWETH', 'ALUN JAMES', 'ALUN LLOYD', 'ALUN NORMAN', 'ALUN OWEN', 'ALUN RHYDIAN', 'ALUN RICHARD', 'ALUN WYN', 'ALUN WYNNE', 'ALVIN WARD', 'ALWYN', 'ALWYN JAMES', 'ALYN', 'ALYN CHARLES', 'ALYSON DOROTHY', 'AMAAN', 'AMANDA', 'AMANDA ALBERTA LOUISE', 'AMANDA CAROLINE', 'AMANDA CLAIRE', 'AMANDA ELIZABETH', 'AMANDA JANE', 'AMANDA JAYNE', 'AMANDA LORRAINE', 'AMANDA LOUISE', 'AMANDA SUSAN', 'AMANDA TINA', 'AMANDEEP', 'AMANDIP', 'AMANPREET', 'AMANPRIT', 'AMAR', 'AMARDEEP', 'AMARDEEP SINGH', 'AMARJIT', 'AMARJIT SINGH', 'AMBROSE', 'AMENDIP', 'AMERJIT SINGH', 'AMIE ANN', 'AMINADAB LLWENZA', 'AMIR AFZAL', 'AMIT', 'AMJAD', 'AMJED ALI', 'AMOS WILLIAM JOHN', 'AMRIK', 'AMRITPAL', 'AMRITPAL SINGH', 'AMY', 'AMY ELIZABETH', 'AMY J', 'AMY JANE', 'AMY LAURA', 'AMY LOUISE', 'AMY LUCINDA ROSE', 'AMY NICOLE', 'AMY PEARL', 'AMY ROSE', 'ANABELA', 'ANASTATIA', 'ANATOLIE', 'ANCA RAMONA', 'ANDERSON', 'ANDERSON JAMES', 'ANDRE', 'ANDRE CARLTON', 'ANDRE CHARLES E', 'ANDRE IAN', 'ANDREA', 'ANDREA  CLAIRE', 'ANDREA C', 'ANDREA DENISE', 'ANDREA JANE', 'ANDREA JAYNE', 'ANDREA LOUISE', 'ANDREA LYNN', 'ANDREA MARGARET', 'ANDREA MARY', 'ANDREA MICHELLE', 'ANDREA YVETTE', 'ANDREAS', 'ANDREAS MARK', 'ANDREI', 'ANDREI FLORIN', 'ANDREJ ROMAN', 'ANDREW', 'ANDREW A P', 'ANDREW ADRIAN', 'ANDREW ALAN', 'ANDREW ALASDAIR', 'ANDREW ALBERT', 'ANDREW ALEXANDER', 'ANDREW ALLAN', 'ANDREW ALLEN', 'ANDREW ANDERSON', 'ANDREW ANTHONY HENRY', 'ANDREW ARCHIBALD', 'ANDREW ARNOTT', 'ANDREW BARBENSON', 'ANDREW BARRY', 'ANDREW BERNARD', 'ANDREW BRAMWELL', 'ANDREW BRIAN', 'ANDREW BRUCE', 'ANDREW C', 'ANDREW C S', 'ANDREW CARL', 'ANDREW CECIL', 'ANDREW CHARLES', 'ANDREW CHRISTOPHER', 'ANDREW CLIFFORD', 'ANDREW CLIVE', 'ANDREW COLIN', 'ANDREW CRAIG', 'ANDREW CROSBIE', 'ANDREW CYRIL', 'ANDREW D', 'ANDREW DANIEL', 'ANDREW DANNY', 'ANDREW DARREN TIMOTHY', 'ANDREW DARWIN', 'ANDREW DAVID', 'ANDREW DAVID SCOTT', 'ANDREW DENNIS', 'ANDREW DEREK', 'ANDREW DOUGLAS', 'ANDREW DUNCAN', 'ANDREW EDGAR', 'ANDREW EDWARD', 'ANDREW EDWARD ROBERT URRY', 'ANDREW EDWARDS', 'ANDREW EDWIN', 'ANDREW ELLIS', 'ANDREW ERIC', 'ANDREW ERNEST', 'ANDREW FIRTH', 'ANDREW FLETCHER', 'ANDREW FRANCIS', 'ANDREW FRANCIS HAMISH', 'ANDREW FRANK', 'ANDREW FREDERIC', 'ANDREW FREDERICK', 'ANDREW FREDRICK', 'ANDREW FREEMAN', 'ANDREW G', 'ANDREW GARY', 'ANDREW GAVIN', 'ANDREW GEOFFREY', 'ANDREW GEORGE', 'ANDREW GEORGE SCOTT', 'ANDREW GERARD', 'ANDREW GLEN', 'ANDREW GORDON', 'ANDREW GRAEME', 'ANDREW GRAHAM', 'ANDREW GRAHAM ALAN', 'ANDREW GUY', 'ANDREW GWYN', 'ANDREW HAMILTON', 'ANDREW HARGREAVES', 'ANDREW HARRISON', 'ANDREW HARRY', 'ANDREW HAWORTH', 'ANDREW HENRY', 'ANDREW HERBERT', 'ANDREW HODGE', 'ANDREW HOWARD', 'ANDREW IAIN', 'ANDREW IAN', 'ANDREW IAN SPENCER', 'ANDREW J', 'ANDREW JAMES', 'ANDREW JAMES ALAN', 'ANDREW JAMES FELKUS', 'ANDREW JAMES MCKENZIE', 'ANDREW JAMES RAYMOND', 'ANDREW JAMES SCOTT', 'ANDREW JASON', 'ANDREW JEFFERY', 'ANDREW JEFFREY MYLES', 'ANDREW JOHN', 'ANDREW JOHN GUTHRIE', 'ANDREW JOHN MURRAY', 'ANDREW JOHN P', 'ANDREW JON', 'ANDREW JONATHAN', 'ANDREW JOSEPH', 'ANDREW JULIAN JON', 'ANDREW KARL', 'ANDREW KEITH', 'ANDREW KENNETH', 'ANDREW KERR', 'ANDREW KEVIN', 'ANDREW LANG', 'ANDREW LANG CREE', 'ANDREW LAWRENCE', 'ANDREW LEE', 'ANDREW LEIGH', 'ANDREW LEONARD', 'ANDREW LESLIE', 'ANDREW LEWIS', 'ANDREW LIONEL', 'ANDREW LLOYD', 'ANDREW M', 'ANDREW MACE', 'ANDREW MALCOLM', 'ANDREW MALCOLM JAMES', 'ANDREW MARK', 'ANDREW MARK WILLIAM', 'ANDREW MARSHALL', 'ANDREW MARTIN', 'ANDREW MARTYN', 'ANDREW MATHEW', 'ANDREW MAURICE', 'ANDREW MCCLYMONT', 'ANDREW MCCORMICK', 'ANDREW MCGOWN', 'ANDREW MCKENZIE', 'ANDREW MEIKLE', 'ANDREW MICHAEL', 'ANDREW MILES', 'ANDREW MORRISON', 'ANDREW MURRAY', 'ANDREW N', 'ANDREW NEIL', 'ANDREW NEVIL', 'ANDREW NICHOLAS', 'ANDREW NIGEL', 'ANDREW NOEL', 'ANDREW NORMAN', 'ANDREW P', 'ANDREW PATRICK', 'ANDREW PATRICK BERNARD', 'ANDREW PATRICK KEITH', 'ANDREW PAUL', 'ANDREW PETER', 'ANDREW PHILIP', 'ANDREW R', 'ANDREW RALSTON', 'ANDREW RAYMOND', 'ANDREW REGINALD', 'ANDREW REID', 'ANDREW RICHARD', 'ANDREW RICHARD JOHN', 'ANDREW RICHARD WILLIAM', 'ANDREW ROBERT', 'ANDREW ROBERT DAVID JAMES', 'ANDREW ROBERT JOHN', 'ANDREW ROBERTSON', 'ANDREW ROBIN WILLIAM', 'ANDREW RODGER', 'ANDREW ROGER', 'ANDREW ROLAND PRIESTLEY', 'ANDREW ROLLO', 'ANDREW RONALD', 'ANDREW ROWAN', 'ANDREW ROY', 'ANDREW ROYSTON DAVID', 'ANDREW ROYSTON MARK', 'ANDREW RUSSELL', 'ANDREW SAMUEL', 'ANDREW SARGENT', 'ANDREW SHAUN', 'ANDREW SIMON', 'ANDREW SPENCER', 'ANDREW STANLEY', 'ANDREW STEPHEN', 'ANDREW STEVEN', 'ANDREW STEWART', 'ANDREW STRANG', 'ANDREW STUART', 'ANDREW STUART MACGREGOR', 'ANDREW STURGEON', 'ANDREW TADEUSZ', 'ANDREW TERENCE', 'ANDREW THOMAS', 'ANDREW THOMSON', 'ANDREW TIMOTHY', 'ANDREW TONY', 'ANDREW TREVOR', 'ANDREW TYSON', 'ANDREW VAUGHAN', 'ANDREW VICTOR', 'ANDREW VINCENT', 'ANDREW VIRGINIO', 'ANDREW W', 'ANDREW WALTER', 'ANDREW WARD', 'ANDREW WARREN', 'ANDREW WAYNE', 'ANDREW WIGHTMAN', 'ANDREW WILLIAM', 'ANDREW WILLIAM JAMES', 'ANDREW WILLIAM JOHN', 'ANDREW WILLIAM ROBERT', 'ANDREW WILSON', 'ANDREW WINSTON', 'ANDREW YOUNG', 'ANDRINA', 'ANDRIS', 'ANDRIUS', 'ANDRZEI ZBIGNIEW', 'ANDRZEJ', 'ANDRZEJ TOMASZ', 'ANDY', 'ANDY JOHN', 'ANEURIN WYN', 'ANGELA', 'ANGELA CHRISTINE', 'ANGELA CLARE', 'ANGELA DOROTHY MARIAN', 'ANGELA ELIZABETH', 'ANGELA HAZEL', 'ANGELA JANE', 'ANGELA JAYNE', 'ANGELA JEAN', 'ANGELA JOY', 'ANGELA LORRAINE', 'ANGELA LOUISE', 'ANGELA MARGARET', 'ANGELA MARIE', 'ANGELA MARY', 'ANGELA PATRICIA', 'ANGELA ROSEMARY', 'ANGELA SUSAN', 'ANGELA THERESA', 'ANGELA VIDA', 'ANGELO', 'ANGREJ', 'ANGUS', 'ANGUS ALEXANDER', 'ANGUS ALLAN', 'ANGUS CHURCHILL', 'ANGUS DONALD', 'ANGUS EWEN', 'ANGUS FORBES', 'ANGUS GREGOR', 'ANGUS HERBERTSON', 'ANGUS JAMES', 'ANGUS LAMONT', 'ANGUS MCPHAIL', 'ANGUS MURPHY WILSON', 'ANGUS PETER', 'ANGUS RICHARD', 'ANGUS ROGER', 'ANIL', 'ANIL KUMAR', 'ANIL SINGH', 'ANIS MANILAL', 'ANISHA', 'ANITA', 'ANITA ANN', 'ANITA IRENE', 'ANITA JANE', 'ANITA JO', 'ANITA MARGARET', 'ANITA ROSE', 'ANITA THERESA', 'ANITA YVONNE', 'ANITA ZSUZSANNA', 'ANN', 'ANN BERYL', 'ANN DENISE', 'ANN DOREEN', 'ANN DORIS', 'ANN EDITH', 'ANN ELIZABETH', 'ANN ELLEN FRANCES', 'ANN FRANCES', 'ANN HELEN', 'ANN LESLEY', 'ANN LOUISE', 'ANN MARGARET', 'ANN MARIE', 'ANN MELINA', 'ANN PATRICIA', 'ANN SHIRLEY', 'ANN VICTORIA', 'ANN WINIFRED', 'ANNA', 'ANNA ELIZABETH', 'ANNA KAREN', 'ANNA LOUISE', 'ANNA LUYDMILOVA', 'ANNA MARIA', 'ANNA MARIE', 'ANNA STEWART', 'ANNABELLA P', 'ANNABELLE JADE', 'ANNAMARIA MAGDOLNA', 'ANNE', 'ANNE CHRISTINE', 'ANNE DOROTHY', 'ANNE ELIZABETH', 'ANNE EMILY', 'ANNE FRANCES', 'ANNE GILLIES', 'ANNE HEGGISON LOGAN', 'ANNE MARGARET', 'ANNE MARIE', 'ANNE MARTINA', 'ANNE ROSEMARIE', 'ANNE ROSEMARY', 'ANNE RUBY', 'ANNE SCOTT', 'ANNE-MARIE', 'ANNETTA MARY', 'ANNETTE', 'ANNETTE IRENE', 'ANNETTE ISOBEL', 'ANNETTE LOUISE', 'ANNETTE PATRICIA', 'ANNIE', 'ANNIE LESLEY', 'ANTHEA LOUISE', 'ANTHONY', 'ANTHONY ADRIAN', 'ANTHONY ALAN', 'ANTHONY ALBERT WILLIAM', 'ANTHONY ALEXANDER', 'ANTHONY ALFRED', 'ANTHONY ANDREW', 'ANTHONY ARTHUR', 'ANTHONY BARRY', 'ANTHONY BERNARD', 'ANTHONY BISCOE', 'ANTHONY BLAIR', 'ANTHONY BRIAN', 'ANTHONY BRUCE', 'ANTHONY CARL', 'ANTHONY CHARLES', 'ANTHONY CHRISTOPHER', 'ANTHONY CLIFFORD', 'ANTHONY CLIFFORD THOMAS', 'ANTHONY CLIVE', 'ANTHONY COLE', 'ANTHONY CYRIL', 'ANTHONY D', 'ANTHONY DAVID', 'ANTHONY DAVID CRESWICKE', 'ANTHONY DAVID JAMES', 'ANTHONY DEAN', 'ANTHONY DENIS', 'ANTHONY DENNIS', 'ANTHONY DEREK', 'ANTHONY DEREK JOHN', 'ANTHONY DONALD', 'ANTHONY DOUGLAS', 'ANTHONY E', 'ANTHONY EDWARD', 'ANTHONY EDWARD CHARLES', 'ANTHONY EDWIN', 'ANTHONY ELLIS', 'ANTHONY ERIC', 'ANTHONY ERNEST', 'ANTHONY FITZHUGH', 'ANTHONY FRANCIS', 'ANTHONY FRANCIS MARTIN', 'ANTHONY FRANCIS P', 'ANTHONY FRANK', 'ANTHONY FRED', 'ANTHONY FREDERIC', 'ANTHONY FREDERICK', 'ANTHONY FREDERICK EDWARD', 'ANTHONY FREDERICK JAMES', 'ANTHONY FREDRICK', 'ANTHONY GEOFFREY', 'ANTHONY GEORGE', 'ANTHONY GEORGE JAMES', 'ANTHONY GERARD', 'ANTHONY GORDON', 'ANTHONY GRAHAM', 'ANTHONY GRAY', 'ANTHONY HAROLD', 'ANTHONY HARRY', 'ANTHONY HENRY', 'ANTHONY HOWARD', 'ANTHONY HUGH', 'ANTHONY IAN', 'ANTHONY IVOR', 'ANTHONY JACK', 'ANTHONY JAMES', 'ANTHONY JAMES FREDERICK', 'ANTHONY JAMES JOHN', 'ANTHONY JEROME', 'ANTHONY JOHN', 'ANTHONY JOHN  CHARLES', 'ANTHONY JOHN FOREST', 'ANTHONY JOHN PUGH', 'ANTHONY JOSEPH', 'ANTHONY K', 'ANTHONY KEITH', 'ANTHONY KENNETH', 'ANTHONY KEVIN', 'ANTHONY LAWRENCE', 'ANTHONY LEE', 'ANTHONY LEON DACOSTA', 'ANTHONY LEONARD', 'ANTHONY LESLIE', 'ANTHONY LEWIS', 'ANTHONY LIONEL', 'ANTHONY LLOYD', 'ANTHONY LYNDON', 'ANTHONY M', 'ANTHONY MALCOLM', 'ANTHONY MARCUS', 'ANTHONY MARK', 'ANTHONY MAURICE', 'ANTHONY MERVYN FREDERICK', 'ANTHONY MICHAEL', 'ANTHONY NEIL', 'ANTHONY NICHOLAS', 'ANTHONY OLIVER', 'ANTHONY OWEN THOMAS', 'ANTHONY P', 'ANTHONY PATRICK', 'ANTHONY PAUL', 'ANTHONY PETER', 'ANTHONY PHILIP', 'ANTHONY PINCHEON', 'ANTHONY R', 'ANTHONY RAVENHILL MORTON', 'ANTHONY RAY', 'ANTHONY RAYMOND', 'ANTHONY REGINALD', 'ANTHONY RICHARD', 'ANTHONY ROBERT', 'ANTHONY ROBERT CHARLES', 'ANTHONY ROBERT GLOVER', 'ANTHONY ROGER', 'ANTHONY ROLAND', 'ANTHONY RONALD', 'ANTHONY ROY', 'ANTHONY ROYSTON REGINALD', 'ANTHONY RUSSELL', 'ANTHONY SHANE', 'ANTHONY SHAUN', 'ANTHONY SIMON', 'ANTHONY SMITH', 'ANTHONY STEPHEN', 'ANTHONY STEPHEN CHARLES', 'ANTHONY STEWART', 'ANTHONY STUART', 'ANTHONY T', 'ANTHONY TERENCE', 'ANTHONY THOMAS', 'ANTHONY THOMAS GEORGE', 'ANTHONY TREVOR', 'ANTHONY VINCENT', 'ANTHONY VINCENT MICHAEL', 'ANTHONY W', 'ANTHONY WALTER', 'ANTHONY WILLIAM', 'ANTHONY WILLIAM DENFORD', 'ANTHONY WILLIAM DOUGLAS', 'ANTHONY WILLIAM JAMES', 'ANTHONY WILLIAM JOHN', 'ANTHONY WYN', 'ANTOINETTE', 'ANTOINETTE VICTORIA', 'ANTON', 'ANTON GEOFFERY', 'ANTON PAUL', 'ANTON ROBERT', 'ANTONI', 'ANTONIA', 'ANTONIO', 'ANTONY', 'ANTONY BRIAN', 'ANTONY CECIL', 'ANTONY CHARLES', 'ANTONY DAVID', 'ANTONY DENIS', 'ANTONY EDWARD', 'ANTONY ERNEST', 'ANTONY GORDON', 'ANTONY HAROLD', 'ANTONY JAMES', 'ANTONY JOHN', 'ANTONY JOHN PETER', 'ANTONY M', 'ANTONY MALCOLM', 'ANTONY MARK', 'ANTONY MICHAEL', 'ANTONY NORMAN', 'ANTONY PAUL', 'ANTONY RAYMOND', 'ANTONY RICHARD', 'ANTONY ROBIN', 'ANTONY SMITH', 'ANTONY SPENCER', 'ANTONY THOMAS', 'ANTONY VERNAL', 'ANTONY WILLIAM', 'ANTONY WILLIAM EDWARD', 'ANWAR', 'ANWEN MORRIS', 'APRIL ELLEN LOUISE', 'AQEEL', 'ARANJEET SINGH', 'ARBEN', 'ARCHIBALD', 'ARCHIBALD CAMPBELL', 'ARCHIBALD DEREK', 'ARCHIBALD HUNTER', 'ARCHIBALD JOHN', 'ARCHIBALD LAMBIE', 'ARCHIBALD MCISAAC', 'ARCHIBALD PATERSON', 'ARCHIE CAMPBELL', 'ARCHIE GRAHAM', 'ARFON LLOYD', 'ARFON WYN', 'ARLENE', 'ARLENE JANE', 'ARLENE MARY', 'ARMANDO', 'ARMIN', 'ARNO ANGUS', 'ARNOLD', 'ARNOLD JAMES', 'ARNOLD MARK', 'ARNOLD WILLIAM', 'ARRAN', 'ARRON', 'ARSHID MAHBOOB', 'ARTHUR', 'ARTHUR ALAN', 'ARTHUR ALLAN', 'ARTHUR ALLEN BEWS', 'ARTHUR ASHLEY', 'ARTHUR BARRY', 'ARTHUR CAMERON', 'ARTHUR CHARLES', 'ARTHUR CLIVE', 'ARTHUR DAVID', 'ARTHUR EDWARD', 'ARTHUR ERIC', 'ARTHUR FREDERICK', 'ARTHUR GILBERT', 'ARTHUR HENRY', 'ARTHUR HERBERT', 'ARTHUR JAMES', 'ARTHUR JOHN', 'ARTHUR LEONARD', 'ARTHUR MARTIN', 'ARTHUR MICHAEL', 'ARTHUR PHILIP', 'ARTHUR RAYMOND', 'ARTHUR REGINALD', 'ARTHUR ROBERT', 'ARTHUR ROGER', 'ARTHUR ROY', 'ARTHUR STANLEY', 'ARTHUR STEPHEN', 'ARTHUR SYDNEY', 'ARTHUR THOMAS BERNARD', 'ARTHUR THOMAS DANIEL', 'ARTHUR WILLIAM', 'ARTUR', 'ARTUR BRIAN OWAN', 'ARUN', 'ARVYDAS', 'ARWEL', 'ARWYN JOHN', 'ASADULLAH', 'ASHA', 'ASHLEEE STEPHEN', 'ASHLEIGH DANIEL', 'ASHLEIGH ROSE', 'ASHLEY', 'ASHLEY CRAIG', 'ASHLEY DAVID', 'ASHLEY EDWARD', 'ASHLEY JAMES', 'ASHLEY JOHN', 'ASHLEY JOHN DANIEL', 'ASHLEY JOHNATHAN', 'ASHLEY LAWRENCE', 'ASHLEY MARCUS', 'ASHLEY MARK', 'ASHLEY NEIL', 'ASHLEY OWEN', 'ASHLEY PAUL', 'ASHLEY PAUL ALAN', 'ASHLEY RAYMOND', 'ASHLEY ROBERT', 'ASHLEY SUSANNE', 'ASHLEY WILLIAM', 'ASHWIN GEORGE', 'ASIF', 'ASIM', 'ATANAS', 'ATIF', 'ATTILA', 'ATULL', 'AUBREY CHRISTOPHER', 'AUBREY CLARENCE', 'AUBREY IAN RICHARD', 'AUBREY JOHN', 'AUBREY MANSEL', 'AUDRA MARIE', 'AUDREY', 'AUDREY ANNE', 'AUDREY DELROY', 'AUDREY EDITH', 'AUDREY ELIZABETH', 'AUDREY MARION', 'AUDREY RUTH', 'AUDREY SARAH', 'AUDRY', 'AUGUSTINE BERNARD', 'AUGUSTINE JOSEPH', 'AURIMAS', 'AUSRA', 'AUSTIN', 'AUSTIN IVAN', 'AUSTIN JOHN', 'AUSTIN JONATHAN', 'AUSTIN PETER', 'AUSTIN TERENCE', 'AUSTIN THOMAS', 'AUSTIN WHITELEY', 'AVIS', 'AVON MARTYN', 'AVRIL', 'AVTAR', 'AYUB-ABUBAKER', 'AZAM', 'AZHAR', 'AZWAR', 'Adam', 'BALAK SINGH', 'BALBIR', 'BALBIR KAUR', 'BALBIR SINGH', 'BALDEV', 'BALJINDER SINGH', 'BALJIT', 'BALJIT KAUR', 'BALJIT SINGH', 'BALRAJ SINGH', 'BALRAM', 'BALWANT', 'BALWANT SINGH', 'BANJIT', 'BARBARA', 'BARBARA ANN', 'BARBARA ANNE', 'BARBARA BETTY', 'BARBARA CATHERINE', 'BARBARA CHRISTINE', 'BARBARA ELIZABETH', 'BARBARA FRANCES', 'BARBARA HAZEL', 'BARBARA JEAN', 'BARBARA JOAN', 'BARBARA JOSEPHINE', 'BARBARA JOYCE', 'BARBARA KAY', 'BARBARA LESLEY FRANCES', 'BARBARA LYNN', 'BARBARA M', 'BARBARA MARY', 'BARBARA ROSE', 'BARBARA THERESE', 'BARBARA YVONNE MABEL', 'BARCLAY', 'BARIS RECEP', 'BARRI RICHARD', 'BARRIE', 'BARRIE ANDREW', 'BARRIE CHARLES', 'BARRIE CHRISTOPHER', 'BARRIE CLIVE JOHN', 'BARRIE CUTHBERT', 'BARRIE DAVID', 'BARRIE DOUGLAS', 'BARRIE EDWARD', 'BARRIE GLENN', 'BARRIE HARDING', 'BARRIE HENRY', 'BARRIE IAN', 'BARRIE JAMES', 'BARRIE JOHN', 'BARRIE JON', 'BARRIE JOSEPH', 'BARRIE PAUL', 'BARRIE PETER', 'BARRIE STUART', 'BARRIE THOMAS WEIGHTON', 'BARRIE WILLIAM', 'BARRINGTON DOUGLAS', 'BARRINGTON GARETH', 'BARRY', 'BARRY ALAN', 'BARRY ALBERT', 'BARRY ALBERT CHARLES', 'BARRY ALBERT GEORGE', 'BARRY ALFRED', 'BARRY ALLAN', 'BARRY ANTHONY', 'BARRY ARCHER', 'BARRY ARTHUR', 'BARRY BERNHARD', 'BARRY BERTRAM', 'BARRY BRIAN', 'BARRY BRITTON', 'BARRY BRUCE', 'BARRY BURNHAM', 'BARRY CHARLES', 'BARRY CHARLES ERNEST', 'BARRY CLARK', 'BARRY CLIFFORD', 'BARRY CLIVE', 'BARRY CYRIL', 'BARRY DAVID', 'BARRY EDWARD', 'BARRY EDWIN', 'BARRY ERIC', 'BARRY FORDHAM', 'BARRY GEORGE', 'BARRY GEORGE JOHN', 'BARRY GERARD', 'BARRY GRAHAM', 'BARRY GWYN', 'BARRY HUBERT', 'BARRY HUGH', 'BARRY IAN', 'BARRY IAN EDWARD', 'BARRY INCE', 'BARRY JAMES', 'BARRY JOHN', 'BARRY KERSLAKE', 'BARRY LEAVESLEY', 'BARRY LEONARD', 'BARRY LESLIE', 'BARRY MARK', 'BARRY MATTHEW', 'BARRY MELVIN', 'BARRY MERVYN', 'BARRY MICHAEL', 'BARRY NEVILLE', 'BARRY NORMAN', 'BARRY PAUL', 'BARRY PAUL MARTYN', 'BARRY PETER', 'BARRY PHILIP', 'BARRY RAYMOND', 'BARRY RICHARD', 'BARRY ROBERT', 'BARRY ROGER', 'BARRY RONALD', 'BARRY ROY', 'BARRY SCOTT', 'BARRY SELWYN', 'BARRY SHELDON GEORGE', 'BARRY STEPHEN', 'BARRY STEVEN', 'BARRY STUART GEORGE', 'BARRY THOMAS', 'BARRY TOWNEND', 'BARRY VICTOR', 'BARRY VINCENT JOHN', 'BARRY WILLIAM', 'BARRY WILLIAMS', 'BARTHOLOMEW DOMINIC', 'BARTOLOMEO', 'BARTOSZ K', 'BASHARIT', 'BASHIR', 'BASIL', 'BASIM AL JAWAHIRI', 'BASTEL FRAMAN', 'BEATA', 'BEDWYR', 'BELINDA JANE', 'BELINDA MICHELLE', 'BELINDA TRACY', 'BELJINDER', 'BEN', 'BEN DAVIES', 'BEN EDWARD', 'BEN EDWIN', 'BEN JAMES', 'BEN ROBERT', 'BENDT BARRACK', 'BENEDICT', 'BENJAMEN MATTHEW', 'BENJAMIN', 'BENJAMIN ALBERT', 'BENJAMIN ALEXANDER MATTHEW', 'BENJAMIN ANDREW', 'BENJAMIN BRADLEY', 'BENJAMIN CHARLES', 'BENJAMIN CHRISTIAN', 'BENJAMIN DANIEL', 'BENJAMIN DAVID', 'BENJAMIN EDWARD', 'BENJAMIN ELFED', 'BENJAMIN ELKANAH', 'BENJAMIN ERIK', 'BENJAMIN FRANK', 'BENJAMIN GARETH', 'BENJAMIN GEORGE', 'BENJAMIN JAMES', 'BENJAMIN JAMES GORDON', 'BENJAMIN JAMIE', 'BENJAMIN JOHN', 'BENJAMIN JOHN PENWARDEN', 'BENJAMIN JON', 'BENJAMIN JOSEPH', 'BENJAMIN KEITH', 'BENJAMIN KEVIN MOSTYN', 'BENJAMIN LLOYD LEWIS', 'BENJAMIN MARTIN', 'BENJAMIN MICHAEL', 'BENJAMIN MICHAEL VICTOR', 'BENJAMIN NICHOLAS', 'BENJAMIN NIGEL BRIAN', 'BENJAMIN PATRICK', 'BENJAMIN PAUL', 'BENJAMIN PETER', 'BENJAMIN PHILIP', 'BENJAMIN RAY', 'BENJAMIN RAYMOND', 'BENJAMIN ROBERT', 'BENJAMIN ROLAND', 'BENJAMIN RORY', 'BENJAMIN ROSS', 'BENJAMIN RUSSELL', 'BENJAMIN STANLEY', 'BENJAMIN STEPHEN', 'BENJAMIN STUART', 'BENJAMIN THOMAS', 'BENJAMIN WALTER', 'BENJAMIN WILLIAM AUSTEN', 'BENJAMIN WILLIAM ROSS', 'BENNETT EDWARD', 'BENNETT ROBERTSON', 'BENNY IB', 'BENOIT', 'BERKLEY GEORGE', 'BERNADETTE', 'BERNADETTE SUSAN', 'BERNARD', 'BERNARD ALEXANDER', 'BERNARD ANDREW', 'BERNARD BRIAN', 'BERNARD CAMPBELL', 'BERNARD CHARLES', 'BERNARD DAVID', 'BERNARD DEREK', 'BERNARD EDWIN', 'BERNARD ERIC', 'BERNARD GEORGE', 'BERNARD GORDON', 'BERNARD HARTLEY', 'BERNARD HENRY', 'BERNARD IAN', 'BERNARD JAMES', 'BERNARD JOHN', 'BERNARD JOSEPH', 'BERNARD KEVIN', 'BERNARD LIONEL', 'BERNARD MICHAEL', 'BERNARD NOEL', 'BERNARD OLIVER', 'BERNARD PATRICK', 'BERNARD PAUL', 'BERNARD PERCY', 'BERNARD PETER', 'BERNARD PHILIP', 'BERNARD ROBERT', 'BERNARD ROY', 'BERNARD RYCE', 'BERNARD SHARPE', 'BERNARD STEPHEN', 'BERNARD THOMAS', 'BERNARD VICTOR', 'BERNARD WILLIAM', 'BERNARD WILLOUGHBY', 'BERNICE', 'BERT', 'BERT ELLIOT', 'BERTIE A', 'BERTRAM REGINALD', 'BERWYN OWAIN', 'BERYL', 'BERYL GLENICE', 'BETH ALICE', 'BETHAN JANE', 'BETHANY', 'BETHANY ALICE', 'BETHANY LOUISE', 'BETSABE REBECA', 'BETTY', 'BEVERLEY', 'BEVERLEY ALLISON', 'BEVERLEY ANN', 'BEVERLEY ANNE', 'BEVERLEY JANE', 'BEVERLEY JAYNE', 'BEVERLEY JOHN', 'BEVERLEY LESLEY', 'BEVERLEY NICHOLAS', 'BEVERLY', 'BEVERLY MARY', 'BEVERLY NEIL', 'BHADRESH', 'BHAPINDER', 'BHUPINDER SINGH', 'BILE IBRAHIM', 'BILLA', 'BILLY', 'BLAIR MAGNUS WILLIAM', 'BLAIR RICHARD GRAHAM', 'BLAISE MARK', 'BLAKE STEPHEN', 'BLEDDYN', 'BLISS', 'BOBBY', 'BOBBY JOE', 'BOGDAN', 'BOGDAN ARTHUR HIBA', 'BOGDAN CRISTIAN', 'BOGDAN PAUL', 'BOYD J', 'BOYD ROSS', 'BOZENA REGINA', 'BRAD', 'BRADLEY', 'BRADLEY JAMES', 'BRADLEY JOHN', 'BRADLEY MICHAEL', 'BRADLEY ROBERT', 'BRADLEY SEAN', 'BRADLEY STEPHEN', 'BRADY', 'BRAN LESLIE', 'BRENDA', 'BRENDA ANNE', 'BRENDA DENISE', 'BRENDA DOROTHY', 'BRENDA ELLEN', 'BRENDA JEAN', 'BRENDA JOANNE', 'BRENDA MARION', 'BRENDA MARY', 'BRENDA MAY', 'BRENDAN', 'BRENDAN CHRISTOPHER', 'BRENDAN HARRY', 'BRENDAN JAMES', 'BRENDAN JOHN', 'BRENDAN JOSEPH', 'BRENDAN MICEAL', 'BRENDAN MICHAEL', 'BRENDAN NEIL', 'BRENDAN PATRICK', 'BRENDAN PAUL', 'BRENDON', 'BRENIG DAVID', 'BRENT', 'BRENT ANDREW', 'BRENT STEPHEN', 'BRETT', 'BRETT ALISAIR', 'BRETT ANTHONY', 'BRETT CHRISTOPHER', 'BRETT COLIN', 'BRETT DANIEL', 'BRETT JOHN', 'BRETT MICHAEL', 'BRETT SHANE', 'BRETT VICTOR', 'BRETT WILLIAM', 'BRETTON LEE', 'BRIAN', 'BRIAN ALBERT', 'BRIAN ALEXANDER', 'BRIAN ALEXANDER JAMES', 'BRIAN ALFRED', 'BRIAN ALLAN', 'BRIAN ANDREW', 'BRIAN ANTHONY', 'BRIAN ANTONY', 'BRIAN ARTHUR', 'BRIAN ASHLEY', 'BRIAN BERNARD', 'BRIAN CHARLES', 'BRIAN CHARLES HARRY', 'BRIAN CHARLES WILLIAM', 'BRIAN CHRISTOPHER', 'BRIAN CLIVE', 'BRIAN COLIN', 'BRIAN COLSTON', 'BRIAN CUPIT', 'BRIAN CURTIS', 'BRIAN CYRIL', 'BRIAN DAVID', 'BRIAN DENNIS', 'BRIAN DENNIS WALTER', 'BRIAN DEREK', 'BRIAN DESMOND', 'BRIAN DOUGLAS', 'BRIAN EDWARD', 'BRIAN EDWARD WALTER', 'BRIAN ERIC', 'BRIAN ERNEST', 'BRIAN ERROL', 'BRIAN FRANCIS', 'BRIAN FRANK', 'BRIAN FRDERICK', 'BRIAN FRED', 'BRIAN FREDERICK', 'BRIAN GEOFFREY', 'BRIAN GEORGE', 'BRIAN GEORGE HENRY', 'BRIAN GERALD', 'BRIAN GIBSON', 'BRIAN GORDON', 'BRIAN GRAHAM', 'BRIAN GRIFFITHS', 'BRIAN HAROLD', 'BRIAN HARRY', 'BRIAN HEDLEY', 'BRIAN HENRY', 'BRIAN HENRY THOMAS', 'BRIAN HUGH', 'BRIAN JAMES', 'BRIAN JEFFREY', 'BRIAN JOHN', 'BRIAN JOHN HOPETOUN', 'BRIAN JOHN STANLEY', 'BRIAN JOHN WILLIAM', 'BRIAN JON', 'BRIAN JOSEPH', 'BRIAN JULES', 'BRIAN KEITH', 'BRIAN KENNETH', 'BRIAN KENNETH PETER', 'BRIAN KEVIN', 'BRIAN LAWLEY', 'BRIAN LEE', 'BRIAN LESLIE', 'BRIAN LEWIS', 'BRIAN LIONEL', 'BRIAN LLEWELLYN', 'BRIAN LOCKHART', 'BRIAN MALCOLM', 'BRIAN MARK', 'BRIAN MARTIN', 'BRIAN MARTYN', 'BRIAN MICHAEL', 'BRIAN MORRIS', 'BRIAN NEIL', 'BRIAN NORMAN', 'BRIAN OSCAR', 'BRIAN OWEN', 'BRIAN PATRICK', 'BRIAN PAUL', 'BRIAN PAUL PATRICK', 'BRIAN PETER', 'BRIAN RALPH', 'BRIAN RAWNSLEY', 'BRIAN RAWSTERN', 'BRIAN REGINALD', 'BRIAN REGINALD JOHN', 'BRIAN RICHARD', 'BRIAN ROBERT', 'BRIAN ROBIN', 'BRIAN RODERICK', 'BRIAN RODNEY', 'BRIAN ROGER', 'BRIAN ROLAND', 'BRIAN RONALD', 'BRIAN ROY', 'BRIAN SAMUEL', 'BRIAN SIDNEY', 'BRIAN SIMON', 'BRIAN STANLEY', 'BRIAN STEPHEN', 'BRIAN STEWART', 'BRIAN SYDNEY', 'BRIAN T', 'BRIAN THOMAS', 'BRIAN TREVOR', 'BRIAN VICTOR', 'BRIAN W', 'BRIAN WALTER', 'BRIAN WILLIAM', 'BRIDGET', 'BRIDGET RACHEL', 'BRIGID SIOBHAN', 'BRINLEY JOHN', 'BRIYESH', 'BRONWYN', 'BROOKE', 'BRUCE', 'BRUCE ALEXANDER', 'BRUCE ANTHONY', 'BRUCE CHARLES', 'BRUCE DAVID', 'BRUCE DEREK', 'BRUCE IAN FLAXMAN', 'BRUCE JOHN', 'BRUCE MARCUS', 'BRUCE NORISS', 'BRUCE RICHARD', 'BRUCE ROBERT', 'BRUCE STEWART', 'BRUCE TERRENCE FREDERICK', 'BRUCE THOMAS', 'BRUCE WILLIAM', 'BRYAN', 'BRYAN ANDREW', 'BRYAN ARTHUR', 'BRYAN CHARLES', 'BRYAN CLIFFORD', 'BRYAN DANIEL', 'BRYAN DAVID', 'BRYAN DAVID JOHN', 'BRYAN DAVID PATTERSON', 'BRYAN DENNIS', 'BRYAN EDWARD', 'BRYAN EDWIN', 'BRYAN GEOFFREY', 'BRYAN GREGORY', 'BRYAN HAROLD', 'BRYAN HENRY', 'BRYAN HENRY DAVID', 'BRYAN JAMES', 'BRYAN JOHN', 'BRYAN KEITH', 'BRYAN LAURENCE', 'BRYAN MAJOR', 'BRYAN MICHAEL', 'BRYAN NEIL', 'BRYAN NICHOLAS', 'BRYAN PHILIP', 'BRYAN RAYMOND', 'BRYAN RICHARD', 'BRYAN VERNON', 'BRYAN WILLIAM', 'BRYN', 'BRYN STANLEY', 'BRYNLEY', 'BRYNMOOR PHILIP', 'BRYNMOR IWAN', 'BRYON', 'BRYSON', 'BYRAN BALFOUR', 'BYRON PAUL', 'CAITHLIN AIOFE', 'CAIUS JEREMY', 'CALEB', 'CALLUM', 'CALLUM DAVID RHYS', 'CALLUM DOWNS', 'CALLUM JOHN', 'CALLUM THOMAS', 'CALOGERO', 'CALUM', 'CALUM MCLEOD', 'CALVIN', 'CALVIN BRETT', 'CALVIN CHRISTOPHER', 'CALVIN JAMES', 'CALVIN JOHN', 'CAMERON', 'CAMERON CHARLES', 'CAMERON JAMES', 'CAMERON JOHN', 'CAMERON PETER', 'CAMERON VICTOR', 'CAMERON WILLIAM', 'CAMILLA DAWN', 'CAMILLA JANE', 'CAMILLA MARIANNE', 'CAMPBELL', 'CAMPBELL A', 'CAMPBELL ALEXANDER', 'CAMPBELL BLAIR TAYLOR', 'CAMPBELL JOHN', 'CAMPBELL MCFARLANE', 'CARA', 'CARADOG', 'CARL', 'CARL AARON', 'CARL ADRIAN', 'CARL ADRIAN ROY', 'CARL ALAN', 'CARL ANDREW', 'CARL ANTHONY', 'CARL BENJAMIN', 'CARL BERNARD', 'CARL BRENDAN', 'CARL BRIAN', 'CARL BRYAN', 'CARL D', 'CARL DANIEL', 'CARL DAVID', 'CARL DENNIS', 'CARL DERRICK', 'CARL DOUGLAS', 'CARL EDWARD', 'CARL FRANCIS', 'CARL FREDERICK', 'CARL IGNATIUS', 'CARL JAMES', 'CARL JAMES DAVID', 'CARL JOHN', 'CARL JONATHAN', 'CARL JOSEPH', 'CARL LAWTON', 'CARL MALCOLM', 'CARL MAURICE', 'CARL NIGEL', 'CARL NORMAN', 'CARL PAUL', 'CARL PETER', 'CARL PHILLIP', 'C</t>
         </is>
@@ -1377,12 +1453,18 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
+        <v>5335</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>1104711</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>12422</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>["'T HART", '12', '28', '5', 'A HARA', 'AARON', 'AARONS', 'ABASI', 'ABBAS', 'ABBATT', 'ABBEY', 'ABBOTT', 'ABBOTTS', 'ABDI', 'ABDUL', 'ABDULLAH', 'ABEL', 'ABERCROMBIE', 'ABLEWHITE', 'ABLEY', 'ABRAHAM', 'ABRAHAMS', 'ABRAM', 'ACAMOVIC', 'ACKAH-AMIHERE', 'ACKERLEY', 'ACKERS', 'ACKHURST', 'ACKLAM', 'ACKROYD', 'ACONLEY', 'ACOTT', 'ACRES', 'ADAIR', 'ADAM', 'ADAMS', 'ADAMSON', 'ADCOCK', 'ADCROFT', 'ADDELSEE', 'ADDERLEY', 'ADDI', 'ADDICOTT', 'ADDIS', 'ADDISON', 'ADDISON-CARTER', 'ADDLESEE', 'ADEN', 'ADENIGBAGBE', 'ADIE', 'ADKIN', 'ADKINS', 'ADLAM', 'ADLARD', 'ADLEM', 'ADSHEAD', 'AFFORD', 'AGAR', 'AGATE', 'AGGARWAL', 'AGGER', 'AGGIO', 'AGHA', 'AGNEW', 'AGRIPPINE', 'AGUDA', 'AGUILAR', 'AGUILAR -AGIUS', 'AGUS', 'AHEARN', 'AHERN', 'AHERNE', 'AHL', 'AHMED', 'AHSAN', 'AHUJA', 'AIELLO', 'AIKEN', 'AIM', 'AIMSWORTH', 'AINDOW', 'AINGE', 'AINGER', 'AINLEY', 'AINSCOUGH', 'AINSLEY', 'AINSWORTH', 'AIRD', 'AIREY', 'AISTHORPE', 'AITCHISON', 'AITKEN', 'AITON', 'AJAZ', 'AJIMAL', 'AKCA', 'AKENHEAD', 'AKERMAN', 'AKERS', 'AKHTAR', 'AKIENS', 'AKMAL', 'AKOMPEY', 'AKRAM', 'AKROYD', 'AKSU', 'AL-SIBAHI', 'ALAN', 'ALBANESE', 'ALBERT', 'ALBISTON', 'ALBU', 'ALBUQUERQUE', 'ALCOCK', 'ALCORN', 'ALDEN', 'ALDERMAN', 'ALDERSLADE', 'ALDERSON', 'ALDERTON', 'ALDIS', 'ALDOUS', 'ALDRIDGE', 'ALEXANDER', 'ALFORD', 'ALFRED', 'ALGIE', 'ALI', 'ALIAJ', 'ALISON', 'ALIZADEH-ALAMDARI', 'ALKER', 'ALLAM', 'ALLAN', 'ALLANSON', 'ALLARD', 'ALLARDICE', 'ALLATT', 'ALLCHURCH', 'ALLCOCK', 'ALLCOTT', 'ALLDAY', 'ALLDER', 'ALLELEY', 'ALLELY', 'ALLEN', 'ALLENBY', 'ALLENDER', 'ALLERTON', 'ALLERY', 'ALLFORD', 'ALLIE', 'ALLINGHAM', 'ALLINGTON', 'ALLINSON', 'ALLISON', 'ALLISTON', 'ALLITT', 'ALLMAN', 'ALLMARK', 'ALLNUTT', 'ALLON', 'ALLPORT', 'ALLPRESS', 'ALLRIGHT', 'ALLSO', 'ALLSOP', 'ALLSOPP', 'ALLTOFT', 'ALLWOOD', 'ALLWRIGHT', 'ALLYMAN', 'ALMANDRAS', 'ALMEN', 'ALMEY', 'ALMOND', 'ALPE', 'ALSOP', 'ALSTON', 'ALTON', 'ALTY', 'ALVES', 'ALVEY', 'ALWANI', 'AMBIDGE', 'AMBLER', 'AMBROSE', 'AMBRUS', 'AMER', 'AMES', 'AMEY', 'AMIN', 'AMIS', 'AMMIRATO', 'AMOR', 'AMOS', 'AMPS', 'AN', 'ANDERS', 'ANDERSON', 'ANDERTON', 'ANDREW', 'ANDREWS', 'ANDRONIC', 'ANELAY', 'ANEMA', 'ANGEL', 'ANGELL', 'ANGELONI', 'ANGER', 'ANGLESEA', 'ANGLISS', 'ANGUS', 'ANKER', 'ANKERSON', 'ANNABLE', 'ANNETT', 'ANNETTS', 'ANNING', 'ANNIS', 'ANNISON', 'ANSCOMBE', 'ANSELL', 'ANSLOW', 'ANSTEE', 'ANSTEY', 'ANSTICE', 'ANSWER', 'ANTCLIFF', 'ANTCLIFFE', 'ANTELL', 'ANTHONEY', 'ANTHONY', 'ANTINORO', 'ANTLEY', 'ANTOHE', 'ANTONA', 'ANTONESCU', 'ANTONIA', 'ANTONIOU', 'ANTOSZKIW', 'ANTROBUS', 'APLIN', 'APOSTOL', 'APOSTOLIDES', 'APPEL', 'APPERLEY', 'APPLEBY', 'APPLEGARTH', 'APPLEGATE', 'APPLETON', 'APPLEWHITE', 'APPLEYARD', 'APPS', 'APSEE', 'APSLEY', 'ARAM', 'ARAMA', 'ARAYA', 'ARBUTHNOT', 'ARCARO', 'ARCHBOLD', 'ARCHBUTT', 'ARCHER', 'ARCHER-MUNRO', 'ARCHIBALD', 'ARDEN', 'ARDEN-NIXON', 'ARDERN', 'ARDREN', 'ARGENZIANO', 'ARGHANDAWI', 'ARGO', 'ARGYLE', 'ARIF', 'ARKELL', 'ARKINSTALL', 'ARKLE', 'ARKWRIGHT', 'ARLOTT', 'ARMASELU', 'ARMER', 'ARMETT', 'ARMEZZANI', 'ARMIGER', 'ARMINSON', 'ARMISHAW', 'ARMISTEAD', 'ARMITAGE', 'ARMOUR', 'ARMSDEN', 'ARMSTRONG', 'ARMSTRONG-WILSON', 'ARNETT', 'ARNEY', 'ARNFIELD', 'ARNOLD', 'ARNOTT', 'ARROWSMITH', 'ARSCOTT', 'ARSLANIAN', 'ARTER', 'ARTHUR', 'ARTHURS', 'ARTHURTON', 'ARTHY', 'ARTISS', 'ARTLEY', 'ARTUS', 'ARUNDEL', 'ARUNDELL', 'ARWEL', 'ASBURY', 'ASCROFT', 'ASEFAW', 'ASH', 'ASHALL', 'ASHBARRY', 'ASHBEE', 'ASHBOURNE', 'ASHBURN', 'ASHBURNER', 'ASHBY', 'ASHCROFT', 'ASHDOWN', 'ASHE', 'ASHENDEN', 'ASHFIELD', 'ASHFOLD', 'ASHFORD', 'ASHFORTH', 'ASHGAR-SANDYS', 'ASHLEY', 'ASHMAN', 'ASHMEAD', 'ASHMORE', 'ASHRAF', 'ASHTON', 'ASHTON-BEARD', 'ASHURST', 'ASHWORTH', 'ASKEW', 'ASKEY', 'ASKHAM', 'ASKIN', 'ASLAM', 'ASLETT', 'ASMAL', 'ASPDEN', 'ASPELL', 'ASPINAL', 'ASPINALL', 'ASPLAND', 'ASPRAY', 'ASPREY', 'ASQUITH', 'ASSAM', 'ASSITER', 'ASTBURY', 'ASTLE', 'ASTLEY', 'ASTON', 'ATACK', 'ATHAY', 'ATHERTON', 'ATHEY', 'ATHORN', 'ATHWAL', 'ATKAR', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTENBOROUGH', 'ATTERBURY', 'ATTEWELL', 'ATTIPAS', 'ATTRELL', 'ATTRILL', 'ATTWATER', 'ATTWELL', 'ATTWOOD', 'ATWAL', 'ATWELL', 'AUCHNIE', 'AUCHTERLONIE', 'AUCKLAND', 'AUCOTT', 'AUGUSTINE', 'AUJLA', 'AUKER', 'AULAKH', 'AULD', 'AUSKERIN', 'AUSLING', 'AUSTEN', 'AUSTIN', 'AUTY', 'AVERY', 'AVISON', 'AWCOCK', 'AWOYEMI', 'AXFORD', 'AXON', 'AYALON', 'AYDON', 'AYERS', 'AYLESBURY', 'AYLETT', 'AYLING', 'AYLMORE', 'AYLWARD', 'AYLWIN', 'AYNSLEY', 'AYRE', 'AYRES', 'AYRIS', 'AYTO', 'AZIZ', 'Agar', 'BAALHAM', 'BAARDA', 'BABB', 'BABBINGTON', 'BABCOCK', 'BABER', 'BACCHUS', 'BACH', 'BACHE', 'BACK', 'BACKHOLER', 'BACKHOUSE', 'BACKHURST', 'BACON', 'BADCOCK', 'BADDELEY', 'BADEA', 'BADESHA', 'BADGER', 'BADH', 'BADHAM', 'BADHAN', 'BADLEY', 'BADMAN', 'BADRELDIEN', 'BAGE', 'BAGGALEY', 'BAGGETT', 'BAGGOTT', 'BAGGS', 'BAGGULEY', 'BAGNALL', 'BAGSHAW', 'BAGULEY', 'BAGWELL', 'BAHIA', 'BAIGRIE', 'BAILEY', 'BAILEY-LAWRENCE', 'BAILEY-SALTER', 'BAILISS', 'BAILLIE', 'BAILLIE-LANE', 'BAILY', 'BAIN', 'BAIN-VENN', 'BAINBRIDGE', 'BAINES', 'BAINS', 'BAIOCCHI', 'BAIRD', 'BAIRNER', 'BAIRSTOW', 'BAISTER', 'BAJWA', 'BAK', 'BAKER', "BAKER-I'ANSON", 'BAKER-JAMES', 'BAKES', 'BAKEWELL', 'BAL', 'BALAAM', 'BALAUCA', 'BALCHIN', 'BALDERSTONE', 'BALDING', 'BALDINI', 'BALDOCK', 'BALDRY', 'BALDWIN', 'BALE', 'BALEAN', 'BALHATCHET', 'BALI', 'BALL', 'BALLANTINE', 'BALLANTYNE', 'BALLARD', 'BALLE', 'BALLINGER', 'BALLOCH', 'BALLS', 'BALMAN', 'BALMER', 'BALMFORTH', 'BALSDON', 'BALTRUSAITIENE', 'BALZANO', 'BAMBER', 'BAMBRIDGE', 'BAMFORD', 'BAMFORTH', 'BANAK', 'BANBURY', 'BANCROFT', 'BAND', 'BANE', 'BANFIELD', 'BANGA', 'BANGS', 'BANHAM', 'BANKS', 'BANNATYNE', 'BANNER', 'BANNERMAN', 'BANNING', 'BANNISTER', 'BANNON', 'BANTON', 'BANWELL', 'BANYARD', 'BARAN', 'BARBEIRI', 'BARBER', 'BARBONI', 'BARBOUR', 'BARCHAM', 'BARCLAY', 'BARDEN', 'BARDGETT', 'BARDOSI', 'BARDSLEY', 'BARDWA', 'BARDWELL', 'BAREFOOT', 'BAREHAM', 'BARFOOT', 'BARFORD', 'BARGEWELL', 'BARGH', 'BARHAM', 'BARK', 'BARKER', 'BARKES', 'BARKS', 'BARLOW', 'BARMAN', 'BARNARD', 'BARNBROOK', 'BARNDEN', 'BARNES', 'BARNETT', 'BARNFATHER', 'BARNFIELD', 'BARNICOAT', 'BARNIKEL', 'BARNSLEY', 'BARNWALL', 'BARON', 'BARONS', 'BARR', 'BARRACLOUGH', 'BARRADELL', 'BARRASS', 'BARRATT', 'BARRELL', 'BARRETT', 'BARRIAC', 'BARRICK', 'BARRIE', 'BARRIGAN', 'BARRINGTON', 'BARRITT', 'BARRON', 'BARROW', 'BARROW-YATES', 'BARROWS', 'BARRS', 'BARRY', 'BARSBY', 'BARTCZAK', 'BARTER', 'BARTH', 'BARTHOLOMEW', 'BARTLE', 'BARTLETT', 'BARTLEY', 'BARTMEIER', 'BARTON', 'BARTRAM', 'BARTRUM', 'BARWELL', 'BARWICK', 'BARWOOD', 'BASCOMBE', 'BASELEY', 'BASEY-FISHER', 'BASFORD', 'BASHAM', 'BASHFORD', 'BASHIR', 'BASHTON', 'BASI', 'BASKETT', 'BASLEY', 'BASNETT', 'BASRA', 'BASS', 'BASSANT', 'BASSETT', 'BASSFORD', 'BASSI', 'BASSOM', 'BASSON', 'BASTABLE', 'BASTON', 'BASTOW', 'BATCHELAR', 'BATCHELOR', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATESON', 'BATEY', 'BATH', 'BATHAM', 'BATHER', 'BATHIE', 'BATKIN', 'BATSFORD', 'BATSON', 'BATT', 'BATTEN', 'BATTERS', 'BATTH', 'BATTISON', 'BATTY', 'BATTYE', 'BATY', 'BAUCKHAM', 'BAUGH', 'BAUGHAN', 'BAULD', 'BAUM', 'BAUSOR', 'BAVAIRD', 'BAVERSTOCK', 'BAVEYSTOCK', 'BAVIN', 'BAWA', 'BAWDEN', 'BAXENDALE', 'BAXTER', 'BAYBUTT', 'BAYES', 'BAYET', 'BAYLES', 'BAYLEY', 'BAYLIS', 'BAYLISS', 'BAYNE', 'BAYNES', 'BAYNHAM', 'BAYRAKCI', 'BAYRAM', 'BAYSTON', 'BAZLEY', 'BEACH', 'BEACHAM', 'BEACHER', 'BEACHILL', 'BEACOCK', 'BEACON', 'BEADLE', 'BEADSWORTH', 'BEAGLEY', 'BEAL', 'BEALBY', 'BEALE', 'BEALES', 'BEALING', 'BEAMAN', 'BEAMER', 'BEAN', 'BEANLAND', 'BEAR', 'BEARD', 'BEARDALL', 'BEARDMORE', 'BEARDSHAW', 'BEARDSMORE', 'BEARDWELL', 'BEARE', 'BEARRYMAN', 'BEARSBY', 'BEASLEY', 'BEASMORE', 'BEASTALL', 'BEATH', 'BEATON', 'BEATSON', 'BEATTIE', 'BEATTLE', 'BEATTY', 'BEATY', 'BEAUCHAMP', 'BEAUMONT', 'BEAUPIERRE', 'BEAUTRIDGE', 'BEAVAN', 'BEAVER', 'BEAVERS', 'BEAVES', 'BEBB', 'BEBER', 'BECK', 'BECKER', 'BECKETT', 'BECKLEY', 'BECKWITH', 'BEDDALL', 'BEDDOE', 'BEDFORD', 'BEDSON', 'BEDWELL', 'BEE', 'BEEBE', 'BEEBY', 'BEECH', 'BEECHAM', 'BEECHES', 'BEECHING', 'BEECROFT', 'BEEDIE', 'BEEDLES', 'BEEFORTH', 'BEEKMAN', 'BEEL', 'BEENEY', 'BEER', 'BEES', 'BEESE', 'BEESLEY', 'BEESON', 'BEESTON', 'BEETHAM', 'BEEVER', 'BEEVERS', 'BEEVIS', 'BEEVOR', 'BEFF', 'BEGG', 'BEGLEY', 'BEGUM', 'BEHA', 'BEHAGG', 'BEHAN', 'BEIRNE', 'BEITH', 'BEKTASOGLU', 'BELBIN', 'BELCHER', 'BELDOM', 'BELFIELD', 'BELFITT', 'BELFORD', 'BELGIN', 'BELIMENKO', 'BELISLE', 'BELK', 'BELL', 'BELL-WALKER', 'BELLABY', 'BELLAMY', 'BELLARS', 'BELLEINI', 'BELLINGHAM', 'BELLIS', 'BELLMAN', 'BELLOTTI', 'BELOULOU', 'BELT', 'BELTON', 'BEMAND', 'BEMBRIDGE', 'BENBOW', 'BENDALL', 'BENDEN', 'BENDLE', 'BENDREY', 'BENEE', 'BENFORD', 'BENGRY', 'BENHAM', 'BENINSON', 'BENISTON', 'BENJAMIN', 'BENN', 'BENNETT', 'BENNETTS', 'BENNEY', 'BENNIESTON', 'BENNING', 'BENNINGTON', 'BENNION', 'BENNISON', 'BENNY', 'BENSLEY', 'BENSON', 'BENSTEAD', 'BENT', 'BENTHAM', 'BENTLEY', 'BENTON', 'BENYON', 'BENZIE', 'BERE', 'BERESFORD', 'BERGMAN', 'BERKLEY', 'BERLIN', 'BERNARD', 'BERRESFORD', 'BERRETT', 'BERRIDGE', 'BERRIFF', 'BERRIMAN', 'BERRISFORD', 'BERRY', 'BERRYMAN', 'BERTA', 'BERTRAM', 'BERTRAND', 'BERWICK', 'BESANT', 'BESCHORNER', 'BESHARAT', 'BESLEY', 'BESOIU', 'BESSELL', 'BEST', 'BESTWICK', 'BESWICK', 'BETCHLEY', 'BETHEL', 'BETHELL', 'BETTELEY', 'BETTERIDGE', 'BETTINSON', 'BETTIS', 'BETTLES', 'BETTLEY', 'BETTNEY', 'BETTS', 'BETTS-BUCKE', 'BEVAN', 'BEVERIDGE', 'BEVERLEY', 'BEVINS', 'BEVIS', 'BEWS', 'BEXLEY', 'BEXTON', 'BEYNON', 'BEZANCE', 'BEZER', 'BEZZINA', 'BHAKERD', 'BHALSOD', 'BHANDAL', 'BHANOT', 'BHARAT', 'BHARDWAJ', 'BHATIA', 'BHATTI', 'BHINDER', 'BHOGAL', 'BHOWMIK', 'BHUDIA', 'BIANCHI', 'BIANCHINI', 'BIBBY', 'BIBI', 'BICA', 'BICK', 'BICKERDIKE', 'BICKERS', 'BICKERSTAFFE', 'BICKERTON', 'BICKFORD', 'BICKHAM', 'BICKLEY', 'BICKNELL', 'BIDDISCOMBE', 'BIDDLE', 'BIDDLECOMBE', 'BIDDULPH', 'BIDGOOD', 'BIDWELL', 'BIE', 'BIEL', 'BIELAWSKI', 'BIELBY', 'BIELBY - BELL', 'BIELIUNAS', 'BIFFIN', 'BIGGIN', 'BIGGLE', 'BIGGS', 'BIGHAM', 'BIGLEY', 'BIGNELL', 'BIGWOOD', 'BIKER', 'BILAN', 'BILBIN', 'BILES', 'BILHAM', 'BILL', 'BILLANY', 'BILLETT', 'BILLINGHAM', 'BILLINGHURST', 'BILLINGS', 'BILLINGTON', 'BILLOT', 'BILLYARD', 'BILLYEALD', 'BILSLAND', 'BILTON', 'BIMSON', 'BINACCIONI', 'BINCH', 'BINDER', 'BINDING', 'BINDLEY', 'BING', 'BINGHAM', 'BINGLEY', 'BINKS', 'BINLEY', 'BINNEY', 'BINNIE', 'BINNING', 'BINNINGTON', 'BINNS', 'BINSTEAD', 'BINT', 'BIRCH', 'BIRCHALL', 'BIRCHENOUGH', 'BIRCHER', 'BIRCMENOUGH', 'BIRD', 'BIRDSALL', 'BIRKBECK', 'BIRKBY', 'BIRKETT', 'BIRKIN', 'BIRKS', 'BIRMINGHAM', 'BIRNIE', 'BIRT', 'BIRTLE', 'BIRTWHISTLE', 'BISBY', 'BISCOMB', 'BISETTO', 'BISH', 'BISHOP', 'BISHTON', 'BISLAND', 'BISS', 'BISSELL', 'BISSET', 'BITHELL', 'BITTLES', 'BIVINS', 'BJERLAND', 'BLACK', 'BLACKADDER', 'BLACKBOROW', 'BLACKBURN', 'BLACKETT', 'BLACKFORD', 'BLACKIE', 'BLACKLEDGE', 'BLACKLER', 'BLACKLEY', 'BLACKLOCK', 'BLACKMAN', 'BLACKMORE', 'BLACKWELL', 'BLACKWOOD', 'BLADES', 'BLADON', 'BLAGBROUGH', 'BLAGG', 'BLAIKIE', 'BLAIN', 'BLAIR', 'BLAKE', 'BLAKE-JELLEY', 'BLAKELEY', 'BLAKELOCK', 'BLAKEMAN', 'BLAKEMORE', 'BLAKER', 'BLAKESTON', 'BLAKEWAY', 'BLAKEY', 'BLAMIRE', 'BLANCH', 'BLANCHARD', 'BLANCHE', 'BLAND', 'BLANDFORD', 'BLANKS', 'BLANPAIN', 'BLANT', 'BLASER', 'BLASKET', 'BLATCH', 'BLATCHFORD', 'BLATCHLY', 'BLATHERWICK', 'BLAXLEY', 'BLAYLOCK', 'BLAZIER', 'BLEACH', 'BLEAKEN', 'BLEASDALE', 'BLEAZARD', 'BLENCH', 'BLENKHARN', 'BLENKLEY', 'BLENNARHASSETT', 'BLEST-HOPLEY', 'BLETSOE-BROWN', 'BLEWETT', 'BLEWITT', 'BLICK', 'BLISS', 'BLIZARD', 'BLIZZARD', 'BLOCKEY', 'BLOCKLEY', 'BLOCKSIDGE', 'BLOIS', 'BLOK', 'BLOMFIELD', 'BLOOMER', 'BLOOMFIELD', 'BLOOR', 'BLOSSETT', 'BLOUNT', 'BLOW', 'BLOWER', 'BLOWES', 'BLOXHAM', 'BLOXSOME', 'BLUCK', 'BLUER', 'BLUME', 'BLUNDELL', 'BLUNDEN', 'BLUNDY', 'BLUNSDEN', 'BLUNSDON', 'BLUNT', 'BLUZMA', 'BLYTH', 'BLYTHE', 'BLYTHMAN', 'BOAK', 'BOAL', 'BOARD', 'BOARDMAN', 'BOATENG', 'BOAZ', 'BOAZMAN', 'BOCANCEA', 'BOCCIUS', 'BOCHENEK', 'BODDICE', 'BODDIE', 'BODDY', 'BODEN', 'BODENHAM', 'BODILY', 'BODKIN', 'BODMAN', 'BODY', 'BOELEMA', 'BOESSL', 'BOGALECKI', 'BOGAN', 'BOGDANOV', 'BOGG', 'BOGGIS', 'BOGGUST', 'BOGIRA', 'BOGUE', 'BOGUSKI', 'BOHANNA', 'BOLAM', 'BOLAND', 'BOLAS', 'BOLDER', 'BOLDIZSAR', 'BOLES', 'BOLGER', 'BOLINA', 'BOLITHO', 'BOLLAN', 'BOLLAND', 'BOLLE', 'BOLLEN', 'BOLLINGTON', 'BOLSOVER', 'BOLSWORTH', 'BOLT', 'BOLTER', 'BOLTON', 'BOMBER', 'BOMFORD', 'BONAR', 'BOND', 'BONDS', 'BONE', 'BONHAM', 'BONHAM CHRISTIE', 'BONN', 'BONNAR', 'BONNER', 'BONNETT', 'BONNEY', 'BONNING', 'BONNIWELL', 'BONSALL', 'BONSER', 'BONSON', 'BONTHRONE', 'BONTOFT', 'BOOCOCK', 'BOOKER', 'BOOMER', 'BOON', 'BOOT', 'BOOTE', 'BOOTH', 'BOOTH-WILLIAMS', 'BOOTHMAN', 'BOOTLE', 'BOOTY', 'BOOTYMAN', 'BOOY', 'BOPARAI', 'BORBON', 'BORDISS', 'BOREHAM', 'BORER', 'BORLAND', 'BORN', 'BORNE', 'BORRETT', 'BORRILL', 'BORTHWICK', 'BORZELLIERI', 'BOSELEY', 'BOSHER', 'BOSLEY', 'BOSTOCK', 'BOSTON', 'BOSWELL', 'BOSWORTH', 'BOTEA', 'BOTHAM', 'BOTHWELL', 'BOTLEY', 'BOTT', 'BOTTERELL', 'BOTTERILL', 'BOTTING', 'BOTTOM', 'BOTTOMLEY', 'BOTTOMS', 'BOTTRILL', 'BOTWRIGHT', 'BOUCH', 'BOUCHARD', 'BOUCHERE', 'BOUGH', 'BOUGHTON', 'BOULBY', 'BOULD', 'BOULDERSTONE', 'BOULTBY', 'BOULTER', 'BOULTON', 'BOUNDFORD', 'BOUNDS', 'BOURGEIN', 'BOURKE', 'BOURNE', 'BOURNER', 'BOURTON', 'BOUSFIELD', 'BOUSTEAD', 'BOUTCHER-WEST', 'BOVAINE', 'BOVINGTON', 'BOVIS', 'BOW', 'BOWATER', 'BOWCOCK', 'BOWDEN', 'BOWDEN-DAVIES', 'BOWDIDGE', 'BOWDIN', 'BOWE', 'BOWEN', 'BOWEN-JONES', 'BOWER', 'BOWERBANK', 'BOWERMAN', 'BOWERS', 'BOWERY', 'BOWES', 'BOWHAY', 'BOWHILL', 'BOWIE', 'BOWKER', 'BOWKETT', 'BOWLBY', 'BOWLER', 'BOWLES', 'BOWLING', 'BOWMAKER', 'BOWMAN', 'BOWMER', 'BOWN', 'BOWNASS', 'BOWNES', 'BOWNESS', 'BOWNS', 'BOWRING', 'BOX', 'BOXALL', 'BOYCE', 'BOYCE-SMITH', 'BOYD', 'BOYDELL', 'BOYER', 'BOYES', 'BOYLAN', 'BOYLAND', 'BOYLE', 'BOYLES', 'BOYLIN', 'BOYLING', 'BOYNE', 'BOYS', 'BOYSE', 'BOZHKOV', 'BOZHKOVA', 'BOZILOVIC', 'BOZON', 'BOZWARD', 'BRABAZON', 'BRABIN', 'BRABY', 'BRACE', 'BRACEGIRDLE', 'BRACEWELL', 'BRACEY', 'BRACH', 'BRACHER', 'BRACK', 'BRACKEN', 'BRACKENBURY', 'BRACKENRIDGE', 'BRACKLEY', 'BRADBOURN', 'BRADBURN', 'BRADBURNE', 'BRADBURY', 'BRADD', 'BRADDY', 'BRADER', 'BRADFIELD', 'BRADFORD', 'BRADLEY', 'BRADNUM', 'BRADSHAW', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAHA', 'BRAHAM', 'BRAHIMI', 'BRAID', 'BRAIDWOOD', 'BRAILEY', 'BRAILSFORD', 'BRAIM', 'BRAIN', 'BRAINE', 'BRAINES', 'BRAITHWAITE', 'BRAKE', 'BRALE', 'BRAMBLE', 'BRAME', 'BRAMLEY', 'BRAMWELL', 'BRANCH', 'BRAND', 'BRANDISH', 'BRANDON', 'BRANFIELD', 'BRANIGAN', 'BRANNAN', 'BRANNEN', 'BRANNOCK', 'BRANSBY', 'BRANSTON', 'BRANT', 'BRANTHWAITE', 'BRANTON', 'BRAR', 'BRASH', 'BRASHAW', 'BRASIER', 'BRASSILL', 'BRASSINGTON', 'BRATCHYK', 'BRATHERTON', 'BRATLEY', 'BRATT', 'BRAUN', 'BRAXTON', 'BRAY', 'BRAYNE', 'BRAYSHAW', 'BRAZENDALE', 'BRAZENER', 'BRAZIER', 'BRAZIL', 'BREADMORE', 'BREAKEY', 'BREAKSPEAR', 'BREAKWELL', 'BREALEY', 'BREARLEY', 'BREARS', 'BREBNER', 'BRECKNEY', 'BRECKON', 'BREEDEN', 'BREEN', 'BREESE', 'BREEZE', 'BREHON', 'BREHONY', 'BREMNER', 'BRENDLING', 'BRENNAN', 'BRENNAND', 'BRENT', 'BRENTON', 'BRERETON', 'BRESLIN', 'BRESNAHAN', 'BRESNAN', 'BRETHERTON', 'BRETT', 'BRETTLE', 'BREW', 'BREWARD', 'BREWER', 'BREWIS', 'BREWOOD', 'BREWSTER', 'BRICE', 'BRICKELL', 'BRICKETT', 'BRICKLEY', 'BRICKWOOD', 'BRIDDON', 'BRIDEWELL', 'BRIDGE', 'BRIDGEN', 'BRIDGER', 'BRIDGES', 'BRIDGEWATER', 'BRIDGMAN', 'BRIDSON', 'BRIERLEY', 'BRIERS', 'BRIGDEN', 'BRIGGS', 'BRIGGS-PRICE', 'BRIGHT', 'BRIGHTEY', 'BRIGHTMAN', 'BRIGHTON', 'BRIGHTWELL', 'BRIGHTY', 'BRILL', 'BRIMBLE', 'BRIMLEY', 'BRIMM', 'BRIMSON', 'BRIND', 'BRINDLE', 'BRINDLEY', 'BRINDLEY DAVIES', 'BRINE', 'BRINKLEY', 'BRINKWORTH', 'BRINSLEY', 'BRIODY', 'BRISBANE', 'BRISCHUK', 'BRISCOE', 'BRISTER', 'BRISTOW', 'BRITNELL', 'BRITTAIN', 'BRITTAIN-CARTLIDGE', 'BRITTAN', 'BRITTEN', 'BRITTLE', 'BRITTON', 'BROAD', 'BROADBENT', 'BROADBRIDGE', 'BROADHEAD', 'BROADHURST', 'BROADLEY', 'BROADWAY', 'BROATCH', 'BROBBIN', 'BROCK', 'BROCKBANK', 'BROCKES', 'BROCKLEBANK', 'BROCKLEHURST', 'BROCKLESBY', 'BROCKWAY', 'BROCKWELL', 'BRODERICK', 'BRODIE', 'BRODLEY', 'BROE', 'BROEKHUIZEN', 'BROGAN', 'BROGDEN', 'BROLLY', 'BROMLEY', 'BROMWICH', 'BROOK', 'BROOK-SMITH', 'BROOKBANKS', 'BROOKE', 'BROOKER', 'BROOKER-CAREY', 'BROOKES', 'BROOKFIELD', 'BROOKING', 'BROOKMAN', 'BROOKS', 'BROOKSBANK', 'BROOKSON', 'BROOME', 'BROOMFIELD', 'BROOMHALL', 'BROOMHEAD', 'BROSNAN', 'BROSTER', 'BROTHERIDGE', 'BROTHERTON', 'BROTHERWOOD', 'BROTHWOOD', 'BROUGH', 'BROUGHTON', 'BROWETT', 'BROWITT', 'BROWN', 'BROWNBRIDGE', 'BROWNE', 'BROWNELL', 'BROWNING', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNRIDGE', 'BROXHOLME', 'BRUCE', 'BRUEGGER', 'BRUGES', 'BRUMBILL', 'BRUMMELL', 'BRUMMITT', 'BRUMPTON', 'BRUNO', 'BRUNSDON', 'BRUNSKILL', 'BRUNT', 'BRUNTON', 'BRUNYEE', 'BRUSHWOOD', 'BRUTON', 'BRUZLEA', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYCE', 'BRYCELAND', 'BRYDEN', 'BRYDGES', 'BRYSON', 'BRZOZOWSKI', 'BUCHAN', 'BUCHANAN', 'BUCK', 'BUCKE', 'BUCKINGHAM', 'BUCKLAND', 'BUCKLE', 'BUCKLER', 'BUCKLEY', 'BUCKROYD', 'BUCKTHOUGHT', 'BUCKWORTH', 'BUDD', 'BUDDLE', 'BUDGE', 'BUDSKI', 'BUER', 'BUES', 'BUFFEY', 'BUFFIN', 'BUFTON', 'BUGDEN', 'BUGG', 'BUGLER', 'BUICK', 'BUISSON', 'BULAKOWSKI', 'BULL', 'BULLED', 'BULLEN', 'BULLER', 'BULLETT', 'BULLIMORE', 'BULLITAORE', 'BULLMAN', 'BULLOCK', 'BULLOUGH', 'BULMAN', 'BULMER', 'BULPITT', 'BULTITUDE', 'BUMPSTEAD', 'BUMSTEAD', 'BUNCE', 'BUNCH', 'BUNDUC', 'BUNDY', 'BUNGANIC', 'BUNGAY', 'BUNGEY', 'BUNKELL', 'BUNKER', 'BUNN', 'BUNNELL', 'BUNNER', 'BUNNEY', 'BUNNING', 'BUNTING', 'BUNTON', 'BUNYAN', 'BURBAGE', 'BURBIDGE', 'BURBRIDGE', 'BURCEA', 'BURCH', 'BURCHETT', 'BURD', 'BURDAKY', 'BURDEN', 'BURDETT', 'BURDFIELD', 'BURDGE', 'BURDITT', 'BURDON', 'BURFORD', 'BURGE', 'BURGESS', 'BURGIN', 'BURGON', 'BURGOYNE', 'BURKE', 'BURKETT', 'BURKINSHAW', 'BURKITT', 'BURKS', 'BURLEY', 'BURLING', 'BURLINGHAM', 'BURLINSON', 'BURLS', 'BURMAN', 'BURN', 'BURNARD', 'BURNDRED', 'BURNE', 'BURNELL', 'BURNETT', 'BURNHAM', 'BURNIE', 'BURNIKELL', 'BURNINGHAM', 'BURNLEY', 'BURNS', 'BURNS-PRICE', 'BURNS-SALMOND', 'BURNSIDE', 'BURPITT', 'BURR', 'BURRAGE', 'BURRELL', 'BURRELLS', 'BURREN', 'BURRIDGE', 'BURRILL', 'BURROUGH', 'BURROUGHES', 'BURROUGHS', 'BURROW', 'BURROWS', 'BURSON', 'BURT', 'BURTENSHAW', 'BURTON', 'BURTONSHAW-GUNN', 'BURTT', 'BURWELL', 'BURY', 'BUSBRIDGE', 'BUSBY', 'BUSH', 'BUSHELL', 'BUSHNELL', 'BUSMACHIU', 'BUSS', 'BUSSELL', 'BUSSEY', 'BUSUTTIL', 'BUSWELL', 'BUTCHART', 'BUTCHER', 'BUTE', 'BUTE-ROPER', 'BUTLER', 'BUTLIN', 'BUTT', 'BUTTAR', 'BUTTER', 'BUTTERFIELD', 'BUTTERILL', 'BUTTERS', 'BUTTERWORTH', 'BUTTERY', 'BUTTLE', 'BUTTON', 'BUTTRICK', 'BUTTRISS', 'BUXTON', 'BUZURA', 'BUZZARD', 'BYARD', 'BYATT', 'BYDE', 'BYE', 'BYFIELD', 'BYFORD', 'BYNE', 'BYNORTH', 'BYOTT', 'BYRD', 'BYRNE', 'BYRNES', 'BYROM', 'BYRON', 'BYTHEWAY', 'BYTNER', 'BYWATER', 'Black', 'CABEZA', 'CABLE', 'CADBY', 'CADDEN', 'CADDICK', 'CADE', 'CADEN', 'CADET', 'CADEY', 'CADGER', 'CADMAN', 'CADMORE', 'CADOGAN', 'CADWALLADER', 'CAEN', 'CAFFERKY', 'CAFFREY', 'CAFFYN', 'CAGE', 'CAGNETTA', 'CAHILL', 'CAIN', 'CAINE', 'CAINES', 'CAINS', 'CAIRD', 'CAIRNEY', 'CAIRNIE', 'CAIRNS', 'CAISLEY', 'CALADO', 'CALCOTT', 'CALCUTT', 'CALDER-MATTHEWS', 'CALDERBANK', 'CALDICOTT', 'CALDWELL', 'CALE', 'CALEY', 'CALINA', 'CALKELD', 'CALL', 'CALLAGHAN', 'CALLAN', 'CALLANAN', 'CALLANDER', 'CALLANS', 'CALLARD', 'CALLER', 'CALLINAN', 'CALLISTER', 'CALLOW', 'CALOW', 'CALROW', 'CALTON', 'CALUORI', 'CALVER', 'CALVERT', 'CALVIN', 'CAM', 'CAMBER', 'CAMDEN', 'CAMERON', 'CAMM', 'CAMMACK', 'CAMP', 'CAMPBELL', 'CAMPBELL-MIDDLETON', 'CAMPEY', 'CAMPFIELD', 'CAMPIN', 'CAMPINI', 'CAMPION', 'CAMPLING', 'CAMPS', 'CANAVAN', 'CANDY', 'CANFIELD', 'CANHAM', 'CANN', 'CANNAN', 'CANNING', 'CANNON', 'CANON', 'CANSDALE', 'CANSFIELD', 'CANT', 'CANTLAY', 'CANTON', 'CANTRELL', 'CANTRILL', 'CANTY', 'CANVIN', 'CAPALDI', 'CAPEL', 'CAPELL', 'CAPES', 'CAPEWELL', 'CAPEY', 'CAPLE', 'CAPLIN', 'CAPOFERRI', 'CAPON', 'CAPONE', 'CAPORN', 'CAPPER', 'CAPPER-MOORE', 'CAPPITT', 'CAPSER', 'CAPSTICK', 'CARBERRY', 'CARD', 'CARDER', 'CARDNO', 'CARDWELL', 'CARDY', 'CARE', 'CAREY', 'CARIS', 'CARKETT', 'CARLESS', 'CARLILE', 'CARLIN', 'CARLISLE', 'CARLOS', 'CARLSE', 'CARLSON', 'CARLTON', 'CARLYLE', 'CARLYON', 'CARMICHAEL', 'CARMINKE', 'CARMODY', 'CARMOODY', 'CARNABY', 'CARNAN', 'CARNEGIE', 'CARNELL', 'CARNEY', 'CARPENDALE', 'CARPENTER', 'CARR', 'CARRADICE', 'CARRICK', 'CARRIER', 'CARRIGAN', 'CARRINGTON', 'CARROL', 'CARROLL', 'CARROTT', 'CARRUBBA', 'CARRUTH', 'CARRUTHERS', 'CARSON', 'CARSWELL', 'CARTER', 'CARTHY', 'CARTLEDGE', 'CARTLIDGE', 'CARTMAIL', 'CARTMELL', 'CARTNER', 'CARTWRIGHT', 'CARUSO', 'CARVALHO', 'CARVELL', 'CARVER', 'CASBEARD', 'CASCAVAL', 'CASE', 'CASERIU', 'CASEY', 'CASH', 'CASHMAN', 'CASHMORE', 'CASS', 'CASSAM', 'CASSAR', 'CASSELL', 'CASSELS', 'CASSERLY', 'CASSIDY', 'CASSIE', 'CASSON', 'CASTERTON', 'CASTLE', 'CASTLEDINE', 'CASTLES', 'CASTLETON', 'CASTON', 'CASTRO-VIEIRA', 'CASWELL', 'CATCHPOLE', 'CATER', 'CATES', 'CATHERS', 'CATLIN', 'CATLING', 'CATLOW', 'CATO', 'CATON', 'CATT', 'CATTANACH', 'CATTERALL', 'CATTLE', 'CATTLEY', 'CATTON', 'CATTRALL', 'CATTROLL', 'CAULFIELD', 'CAULSTON', 'CAUNCE', 'CAUSER', 'CAUVIN', 'CAVANAGH', 'CAVE', 'CAVENDER', 'CAVILL', 'CAVINDER', 'CAWLEY', 'CAWOOD', 'CAWREY', 'CAWS', 'CAWSEY', 'CAWTHORNE', 'CECIL', 'CEGIELSKI', 'CERECEDA', 'CERINUS', 'CERRIE', 'CESSFORD', 'CHADBURN-TENNYSON', 'CHADDERTON', 'CHADHA', 'CHADWICK', 'CHAHAL', 'CHAISTY', 'CHALK', 'CHALKER', 'CHALKLEY', 'CHALLEN', 'CHALLENER', 'CHALLENGER', 'CHALLINOR', 'CHALLIONER', 'CHALLIS', 'CHALLONER', 'CHALMERS', 'CHALONER', 'CHAMBERLAIN', 'CHAMBERS', 'CHAMINGS', 'CHAMLEY', 'CHAMNEY', 'CHAMPION', 'CHAMPNESS', 'CHANCE', 'CHANDARANA', 'CHANDER', 'CHANDLER', 'CHANEY', 'CHANNING', 'CHANNON', 'CHANT', 'CHANTLER', 'CHANTRY', 'CHAPLIN', 'CHAPLOW', 'CHAPMAN', 'CHAPPELHOW', 'CHAPPELL', 'CHAPPELOW', 'CHAPPLE', 'CHARALAMBIDES', 'CHARD', 'CHARLES', 'CHARLESON', 'CHARLESWORTH', 'CHARLETON', 'CHARLEY', 'CHARLSON', 'CHARLTON', 'CHARLWOOD', 'CHARMAN', 'CHARNLEY', 'CHARRINGTON', 'CHARTER', 'CHARTERS', 'CHASE', 'CHASSAR', 'CHATBURN', 'CHATER', 'CHATFIELD', 'CHATTEN', 'CHATTIN', 'CHATWIN', 'CHAUDHRY', 'CHAUDRY', 'CHAUHAN', 'CHAWNER', 'CHEALE', 'CHEATER', 'CHEEK', 'CHEEMA', 'CHEESEMAN', 'CHEESEWRIGHT', 'CHEESMOND', 'CHEETHAM', 'CHELL', 'CHENEY', 'CHENNELLS', 'CHENOWETH', 'CHERITON', 'CHEROOMI', 'CHERRIMAN', 'CHERRY', 'CHERRYMAN', 'CHESHIRE', 'CHESSER', 'CHESSUM', 'CHESTER', 'CHESTERMAN', 'CHESTNUT', 'CHETWYND', 'CHEVILL', 'CHEW', 'CHEWINS', 'CHEYNE', 'CHHATWAL', 'CHIBADUKI', 'CHICK', 'CHIDLEY', 'CHILD', 'CHILDERHOUSE', 'CHILDS', 'CHILLERY', 'CHILTON', 'CHILUT', 'CHILVER', 'CHILVERS', 'CHINERY', 'CHING', 'CHINNERY', 'CHIPMAN', 'CHIPPENDALE', 'CHIPPER', 'CHIRAN', 'CHIRREY', 'CHIRTAS', 'CHISHOLM', 'CHISNALL', 'CHISWELL', 'CHITTENDEN', 'CHITTY', 'CHIVERS', 'CHIVERTON', 'CHIVRALL', 'CHMIEWLISKI', 'CHOJNACKI', 'CHOKAR', 'CHOLMONDELEY', 'CHONG', 'CHORLTON', 'CHOUDRY', 'CHOULARTON', 'CHOULES', 'CHOUNDRY', 'CHOWDHURY', 'CHOWDREY', 'CHOWN', 'CHRISTENSEN', 'CHRISTIAN', 'CHRISTIE', 'CHRISTMAN', 'CHRISTOFFERSEN', 'CHRISTOPHER', 'CHRISTOPHERS', 'CHRISTOPHERSON', 'CHRITCHLEY', 'CHRUSZCZ', 'CHRYSTAL', 'CHUBB', 'CHUBBOCK', 'CHUDLEY', 'CHUKWUMA', 'CHURCH', 'CHURCHER', 'CHURCHES', 'CHURCHILL', 'CHURCHMAN', 'CHURCHYARD', 'CHURN', 'CHURNSIDE', 'CHURTON', 'CHUTTER', 'CIENTANNI', 'CIERPKA', 'CIESLIK', 'CINNAMOND', 'CIOCIRLAN', 'CIRIELLO', 'CIRKIN', 'CIURA', 'CIUREA', 'CLACK', 'CLAFFEY', 'CLAFTON', 'CLAGUE', 'CLAMP', 'CLANACHAN', 'CLANCY', 'CLAPHAM', 'CLAPP', 'CLAPSON', 'CLAPTON', 'CLARE', 'CLARGES', 'CLARIDGE', 'CLARK', 'CLARKE', 'CLARKSON', 'CLARKSON-BURGESS', 'CLARKSON-HALL', 'CLASBY', 'CLAUS', 'CLAXON', 'CLAXTON', 'CLAY', 'CLAYBURN', 'CLAYDON', 'CLAYSON', 'CLAYTON', 'CLAYTON-BLYTHE', 'CLEARY', 'CLEAVE', 'CLEAVER', 'CLEEVES', 'CLEGG', 'CLELAND', 'CLELLAND', 'CLEMENT', 'CLEMENTE', 'CLEMENTS', 'CLEMIT', 'CLEMONS', 'CLENSEY', 'CLENSHAW', 'CLENT', 'CLERKIN', 'CLEVE', 'CLEVERDON', 'CLEVERLY', 'CLEWER', 'CLEWLEY', 'CLEWLOW', 'CLEWS', 'CLEZY', 'CLIFF', 'CLIFFE', 'CLIFFORD', 'CLIFT', 'CLIFTON', 'CLINCH', 'CLINTON', 'CLIXBY', 'CLOAD', 'CLODE', 'CLOGGIE', 'CLOSE', 'CLOTHIER', 'CLOUGH', 'CLOUGHTON', 'CLOUTING', 'CLOW', 'CLOWE', 'CLOWER', 'CLOWES', 'CLOWSLEY', 'CLOY', 'CLUBB', 'CLUBLEY', 'CLUCKIE', 'CLUGSTON', 'COADY', 'COAKER', 'COALE', 'COALES', 'COATEN', 'COATES', 'COATHUP', 'COATMAN', 'COATS', 'COATSWORTH', 'COBB', 'COBBALD', 'COBBETT', 'COBBLEDICK', 'COBBOLD', 'COBDEN', 'COBHAM', 'COBLEY', 'COBURN', 'COCCO', 'COCHRAN', 'COCHRANE', 'COCKAYNE', 'COCKBURN', 'COCKCROFT', 'COCKELL', 'COCKER', 'COCKERHAM', 'COCKERILL', 'COCKETT', 'COCKING', 'COCKLE', 'COCKLIN', 'COCKS', 'COCOS', 'CODD', 'CODDINGTON', 'CODLING', 'CODONA', 'CODRINGTON', 'COE', 'COFF', 'COFFEY', 'COFFIN', 'COGGINS', 'COGHLAN', 'COHEN', 'COID', 'COJOCARIU', 'COJOCARU', 'COKE', 'COKER', 'COLBEAR', 'COLBERT', 'COLBORN', 'COLBURN', 'COLCLOUGH', 'COLDERLEY', 'COLDHAM', 'COLDICOTT', 'COLDMAN', 'COLDWELL', 'COLE', 'COLEBY', 'COLEMAN', 'COLES', 'COLEY', 'COLFER', 'COLGAN', 'COLGATE', 'COLGRAVE', 'COLHOUN', 'COLLAR', 'COLLARD', 'COLLEAVY', 'COLLEDGE', 'COLLEN', 'COLLER', 'COLLETT', 'COLLEY', 'COLLIE', 'COLLIER', 'COLLIN', 'COLLINGBOURNE', 'COLLINGE', 'COLLINGHAM', 'COLLINGS', 'COLLINGTON', 'COLLINGWOOD', 'COLLINS', 'COLLINS-MISKIN', 'COLLINSON', 'COLLIS', 'COLLISON', 'COLLIVER', 'COLLUM', 'COLLYER', 'COLMAN', 'COLMER', 'COLONNA', 'COLQHOUN', 'COLSON', 'COLTON', 'COLVILLE', 'COLVINE', 'COLWELL', 'COLWILL', 'COMAN', 'COMBE', 'COMBELLACK', 'COMBEN', 'COMBER', 'COMBSTOCK', 'COMER', 'COMERFORD', 'COMERY', 'COMFORT', 'COMISKEY', 'COMLEY', 'COMMINS', 'COMMON', 'COMPSON', 'COMPTON', 'COMRIE', 'CONABEARE', 'CONABOY', 'CONAGHAN', 'CONBOY', 'CONCHIE', 'CONDIE', 'CONDLIFFE', 'CONDON', 'CONDRON', 'CONEY', 'CONEYBEER', 'CONGDON', 'CONING', 'CONINGTON', 'CONIUM', 'CONLAN', 'CONLEY', 'CONLON', 'CONMAN', 'CONN', 'CONNAUGHTON', 'CONNEELY', 'CONNELL', 'CONNELLAN', 'CONNELLY', 'CONNER', 'CONNERY', 'CONNICK', 'CONNOLLY', 'CONNON', 'CONNOR', 'CONNORS', 'CONOD', 'CONQUEST', 'CONROY', 'CONSIDINE', 'CONSTABLE', 'CONSTANTINE', 'CONTI', 'CONWAY', 'COOCH', 'COOK', 'COOK-LEYDEN', 'COOKE', 'COOKLAND', 'COOKSEY', 'COOKSLEY', 'COOKSON', 'COOLE', 'COOLING', 'COOMBE', 'COOMBER', 'COOMBES', 'COOMBS', 'COONAN', 'COONEY', 'COOP', 'COOPER', 'COOPER-KEEBLE', 'COOPER-KEY', 'COOPLAND', 'COOT', 'COOTE', 'COPAS', 'COPE', 'COPELAND', 'COPESTAKE', 'COPLAND', 'COPLESTONE', 'COPLEY', 'COPP', 'COPPARD', 'COPPIN', 'COPPING', 'COPPLE', 'COPPOLA', 'COPSEY', 'COPSON', 'CORBETT', 'CORBIN', 'CORBISHLEY', 'CORBRIDGE', 'CORCORAN', 'CORDALL', 'CORDELL', 'CORDEN', 'CORDERY', 'CORDINER', 'CORDON', 'CORDWELL', 'CORFIELD', 'CORK', 'CORKERY', 'CORLESS', 'CORMACK', 'CORMICAN', 'CORMICK', 'CORNABY', 'CORNALL', 'CORNEILL', 'CORNELIUS', 'CORNELL', 'CORNER', 'CORNES', 'CORNEY', 'CORNFIELD', 'CORNFOOT', 'CORNFORTH', 'CORNICK', 'CORNISH', 'CORNS', 'CORNWALL', 'CORNWELL', 'CORP', 'CORPER', 'CORPS', 'CORR', 'CORRIDAN', 'CORRIGAN', 'CORRIN', 'CORRY', 'CORSON', 'CORTES', 'CORTI', 'COSGROVE', 'COSSEY', 'COSSLETT', 'COSSTICK', 'COSTACHE', 'COSTEA', 'COSTELLO', 'COSTELLOE', 'COSTEN', 'COSTER', 'COTES', 'COTT', 'COTTAM', 'COTTER', 'COTTERELL', 'COTTERILL', 'COTTINGHAM', 'COTTINGTON', 'COTTIS', 'COTTLE', 'COTTOM', 'COTTON', 'COTTRELL', 'COTTRILL', 'COTTYN', 'COUBROUGH', 'COUCEIRO', 'COUCH', 'COUCHMAN', 'COUDJOE', 'COUGHLAN', 'COUGHTRIE', 'COULL', 'COULLIE', 'COULMAN', 'COULSON', 'COULSTON', 'COULTER', 'COULTHARD', 'COULTHURST', 'COULTON', 'COUNCIL', 'COUNSELL', 'COUPE', 'COUPER', 'COUPLAND', 'COURAGE', 'COURT', 'COURTNEY', 'COURTNEY-SMITH', 'COURTS', 'COUSENS', 'COUSINS', 'COUTTS', 'COUZENS', 'COVACI', 'COVE', 'COVENEY', 'COVENTON', 'COVENTRY', 'COVER', 'COVERDALE', 'COWAN', 'COWARD', 'COWBURN', 'COWDELL', 'COWDREY', 'COWE', 'COWELL', 'COWEN', 'COWENS', 'COWERN', 'COWGILL', 'COWIE', 'COWLARD', 'COWLE', 'COWLES', 'COWLEY', 'COWLING', 'COWPER', 'COWPERTHWAITE', 'COWSER', 'COWTON', 'COX', 'COXALL', 'COXHEAD', 'COXON', 'COY', 'COYLE', 'COYLES', 'COYNE', 'COZENS', 'COZMA', 'CRABBE', 'CRABTREE', 'CRACK', 'CRACKNELL', 'CRADDOCK', 'CRADOCK', 'CRAFFEY', 'CRAFT', 'CRAGG', 'CRAGGS', 'CRAGIE', 'CRAHART', 'CRAIG', 'CRAIGGS', 'CRAIGHAN', 'CRAIGS', 'CRAIK', 'CRAMB', 'CRAMER', 'CRAMPHORN', 'CRAMPTON', 'CRANE', 'CRANFIELD', 'CRANHAM', 'CRANK', 'CRANNY', 'CRANSTONE', 'CRANWELL', 'CRASKE', 'CRATE', 'CRATHORN', 'CRAVEN', 'CRAWFORD', 'CRAWFORTH', 'CRAWLEY', 'CRAWSHAW', 'CRAYFORD', 'CRAZE', 'CREAMER', 'CREASER', 'CREASEY', 'CREAVEN', 'CREE', 'CREED', 'CREEDON', 'CREEGAN', 'CREGAN', 'CREIGHTON', 'CRELLIN', 'CREMONA', 'CRESSWELL', 'CRESWELL', 'CREW', 'CREW-GEE', 'CREWS', 'CRIBBS', 'CRICHTON', 'CRICK', 'CRIPPS', 'CRISP', 'CRISPIN', 'CRITCHELL', 'CRITCHLEY', 'CRITCHLOW', 'CRITTENDEN', 'CROAD', 'CROCKER', 'CROCKETT', 'CROCKFORD', 'CROCOMBE', 'CROFT', 'CROFTS', 'CROKER', 'CROMACK', 'CROMBIE', 'CROMIE', 'CROMPTON', 'CROMWELL', 'CRONEY', 'CRONK', 'CRONLEY', 'CROOK', 'CROOKE', 'CROOKES', 'CROOKS', 'CROOM', 'CROOMBS', 'CROOME', 'CROPLEY', 'CROPPER', 'CROSBIE', 'CROSBIE-BARCROFT', 'CROSBY', 'CROSFIELD', 'CROSS', 'CROSSLAND', 'CROSSLEY', 'CROSSMAN', 'CROSSWAITE', 'CROTTY', 'CROUCH', 'CROUCHMAN', 'CROW', 'CROWCROFT', 'CROWDY', 'CROWE', 'CROWFOOT', 'CROWHURST', 'CROWLEY', 'CROWN', 'CROWSLEY', 'CROWSON', 'CROWTHER', 'CROWTON', 'CROXFORD', 'CROZIER', 'CRUDDAS', 'CRUDGE', 'CRUICKSHANK', 'CRUICKSHANKS', 'CRUMP', 'CRUMPLIN', 'CRUMPTON', 'CRUST', 'CRUTCHINGTON', 'CRUTCHLEY', 'CRUTE', 'CRUTTENDEN', 'CRYER', 'CSATO', 'CUBBIN', 'CUBBON', 'CUBBY', 'CUBITT', 'CUCU', 'CUDDIFORD', 'CUDDY', 'CUFF', 'CULL', 'CULLEN', 'CULLEY', 'CULLIMORE', 'CULLINAN', 'CULLINANE', 'CULLING', 'CULLINGFORD', 'CULLIP', 'CULLUM', 'CULLWICK', 'CULLY', 'CULORA', 'CULSHAW', 'CULVER', 'CULWICK', 'CUMBERBATCH', 'CUMBERLAND', 'CUMES', 'CUMISKY', 'CUMMING', 'CUMMINGS', 'CUMMINS', 'CUNCLIFFE', 'CUNDELL', 'CUNDICK', 'CUNDIFF', 'CUNDILL', 'CUNDY', 'CUNLIFFE', 'CUNNEEN', 'CUNNINGHAM', 'CUNNINGTON', 'CUNVIN', 'CUPIT', 'CURATOLO', 'CURDS', 'CURLE', 'CURLEY', 'CURNOCK', 'CURRAN', 'CURREN', 'CURRIE', 'CURRY', 'CURSON', 'CURTHOYS', 'CURTIN', 'CURTIS', 'CURTIS-THOMAS', 'CURTOYS', 'CURWEN', 'CUSACK', 'CUSHING', 'CUSHION', 'CUSHNAHAN', 'CUSICK', 'CUSSONS', 'CUTHBERT', 'CUTHBERTSON', 'CUTHELL', 'CUTLER', 'CUTMORE', 'CUTSFORTH', 'CUTTER', 'CUTTING', 'CUTTLE', 'CUTTS', 'CUZNER', 'CWALINA', 'CWIRTA', 'CZECH', 'CZERWIAK', "D'ALQUEN", "D'ARCY", "D'EATH", "D'SOUZA", 'DA COSTA', 'DABBS', 'DABELL', 'DABHAD', 'DACEY', 'DACK', 'DACRE', 'DADDY', 'DADOMO', 'DADSWELL', 'DADWAL', 'DAFF', 'DAGG', 'DAGGER', 'DAGLEY', 'DAHN', 'DAILEY', 'DAILLY', 'DAILY', 'DAINS', 'DAINTITH', 'DAISH', 'DAKIN', 'DALAL', 'DALBY', 'DALDRY', 'DALE', 'DALEY', 'DALGARNO', 'DALGETTY', 'DALGLEISH', 'DALKIN', 'DALL', 'DALLAS', 'DALLAWAY', 'DALLIMORE', 'DALLING', 'DALLY', 'DALRYMPLE', 'DALTON', 'DALY', 'DALZELL', 'DALZIEL', 'DAMACUS', 'DAMPNEY', 'DAMRELL', 'DANAHER', 'DANBY', 'DANCE', 'DANCER', 'DANCEY', 'DANCI', 'DAND', 'DANDIE', 'DANDRIDGE', 'DANDY', 'DANE', 'DANGOLITIS', 'DANIEL', 'DANIELLS', 'DANIELS', 'DANIKAUSKAS', 'DANN', 'DANNATT', 'DANSKIN', 'DANSON', 'DARBY', 'DARBYSHIRE', 'DARCH', 'DARCY', 'DARE', 'DARGE', 'DARGIE', 'DARK', 'DARKE', 'DARKEN', 'DARLEY', 'DARLING', 'DARLINGTON', 'DARLISON', 'DARLOW', 'DARMODY', 'DARNBROOK', 'DARNBROUGH', 'DARNELL', 'DARRAUGH', 'DART', 'DARTS', 'DARVALL', 'DARVILL', 'DARWENT', 'DARWIN', 'DASHWOOD', 'DASS', 'DATCU', 'DAUBNEY', 'DAUNCEY', 'DAUNTER', 'DAVENHILL', 'DAVENPORT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIE', 'DAVIES', 'DAVIS', 'DAVISON', 'DAVOLLS', 'DAVY', 'DAW', 'DAWBER', 'DAWE', 'DAWES', 'DAWIT', 'DAWKES', 'DAWKIN', 'DAWKINS', 'DAWN', 'DAWNEY', 'DAWS', 'DAWSON', 'DAY', 'DAYKIN', 'DAYMAN', 'DAYMOND', 'DAYNES', 'DAYSON', 'DAYUS', 'DE ANGELIS', 'DE BIEVRE', 'DE BURGH HEMMING', 'DE COURCEY', 'DE HOEST', 'DE JERSEY', 'DE LANG', 'DE MULDER', 'DE RYK-HEEREN', 'DE STAINS', "DE'ATH", 'DE-BRANCO', 'DE-LAUNE', 'DE-MACHEN', 'DE-VALL', 'DEACON', 'DEACONU', 'DEADMAN', 'DEAKIN', 'DEAKINS', 'DEAL', 'DEALEY', 'DEAMER', 'DEAN', 'DEANE', 'DEANS', 'DEAR', 'DEARDEN', 'DEARING', 'DEARLOVE', 'DEARNS', 'DEATON', 'DEAUVILLE', 'DEAVILLE', 'DEBBAGE', 'DEBCZAK-DEBSKI', 'DEBENHAM', 'DEBOWSKA', 'DECIECO', 'DEDMAN', 'DEE', 'DEEBLE', 'DEEGAN', 'DEEHAN', 'DEELEY', 'DEEN', 'DEENEY', 'DEEPROSE', 'DEEX', 'DEHAAN', 'DEHAVILLANDE', 'DEIGHAN', 'DEIGHTON', 'DEIGNAN', 'DEIMERT', 'DEIR', 'DELAHAY', 'DELAINE-SMITH', 'DELANEY', 'DELANY', 'DELL', 'DELLA GANA', 'DELLENTY', 'DELLER', 'DELLICOLLI', 'DELOOZE', 'DEMBREY', 'DEMELLWEEK', 'DEMIDOV', 'DEMPSEY', 'DEMPSIE', 'DEMPSTER', 'DENARO', 'DENBOW', 'DENBURY', 'DENBY', 'DENCH', 'DENFORD', 'DENHAM', 'DENHOLM', 'DENISON', 'DENMAN', 'DENMEAD', 'DENNAN', 'DENNEHY', 'DENNENY', 'DENNES', 'DENNETT', 'DENNING', 'DENNINGTON', 'DENNIS', 'DENNISON', 'DENNISS', 'DENNISTON', 'DENNY', 'DENSCOMBE', 'DENSLOW', 'DENSON', 'DENT', 'DENTON', 'DENWOOD', 'DEOL', 'DERBYSHIRE', 'DERHAM', 'DEROSA', 'DERRICK', 'DERRY', 'DESBOROUGH', 'DESMOND', 'DESMONDE', 'DESSURNE', 'DEVANEY', 'DEVANNEY', 'DEVECSAI', 'DEVENEY', 'DEVENISH', 'DEVER', 'DEVEREUX', 'DEVERILL', 'DEVIN', 'DEVINE', 'DEVLIN', 'DEVONPORT', 'DEW', 'DEWAN', 'DEWAR', 'DEWBERRY', 'DEWEY', 'DEWHIRST', 'DEWHURST', 'DEWICK', 'DEWINTER', 'DEWIS'</t>
         </is>

--- a/examples/UK OGD/national registry public data/profile.xlsx
+++ b/examples/UK OGD/national registry public data/profile.xlsx
@@ -481,11 +481,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -565,11 +565,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -628,7 +628,7 @@
         <v>145659</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>2974774</v>
@@ -649,11 +649,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -733,11 +733,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -985,11 +985,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1048,7 +1048,7 @@
         <v>177384</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>355209</v>
@@ -1069,11 +1069,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1132,7 +1132,7 @@
         <v>110979</v>
       </c>
       <c r="U9" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>6617431</v>
@@ -1153,11 +1153,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1317,11 +1317,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1397,11 +1397,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1467,6 +1467,82 @@
       <c r="X13" t="inlineStr">
         <is>
           <t>["'T HART", '12', '28', '5', 'A HARA', 'AARON', 'AARONS', 'ABASI', 'ABBAS', 'ABBATT', 'ABBEY', 'ABBOTT', 'ABBOTTS', 'ABDI', 'ABDUL', 'ABDULLAH', 'ABEL', 'ABERCROMBIE', 'ABLEWHITE', 'ABLEY', 'ABRAHAM', 'ABRAHAMS', 'ABRAM', 'ACAMOVIC', 'ACKAH-AMIHERE', 'ACKERLEY', 'ACKERS', 'ACKHURST', 'ACKLAM', 'ACKROYD', 'ACONLEY', 'ACOTT', 'ACRES', 'ADAIR', 'ADAM', 'ADAMS', 'ADAMSON', 'ADCOCK', 'ADCROFT', 'ADDELSEE', 'ADDERLEY', 'ADDI', 'ADDICOTT', 'ADDIS', 'ADDISON', 'ADDISON-CARTER', 'ADDLESEE', 'ADEN', 'ADENIGBAGBE', 'ADIE', 'ADKIN', 'ADKINS', 'ADLAM', 'ADLARD', 'ADLEM', 'ADSHEAD', 'AFFORD', 'AGAR', 'AGATE', 'AGGARWAL', 'AGGER', 'AGGIO', 'AGHA', 'AGNEW', 'AGRIPPINE', 'AGUDA', 'AGUILAR', 'AGUILAR -AGIUS', 'AGUS', 'AHEARN', 'AHERN', 'AHERNE', 'AHL', 'AHMED', 'AHSAN', 'AHUJA', 'AIELLO', 'AIKEN', 'AIM', 'AIMSWORTH', 'AINDOW', 'AINGE', 'AINGER', 'AINLEY', 'AINSCOUGH', 'AINSLEY', 'AINSWORTH', 'AIRD', 'AIREY', 'AISTHORPE', 'AITCHISON', 'AITKEN', 'AITON', 'AJAZ', 'AJIMAL', 'AKCA', 'AKENHEAD', 'AKERMAN', 'AKERS', 'AKHTAR', 'AKIENS', 'AKMAL', 'AKOMPEY', 'AKRAM', 'AKROYD', 'AKSU', 'AL-SIBAHI', 'ALAN', 'ALBANESE', 'ALBERT', 'ALBISTON', 'ALBU', 'ALBUQUERQUE', 'ALCOCK', 'ALCORN', 'ALDEN', 'ALDERMAN', 'ALDERSLADE', 'ALDERSON', 'ALDERTON', 'ALDIS', 'ALDOUS', 'ALDRIDGE', 'ALEXANDER', 'ALFORD', 'ALFRED', 'ALGIE', 'ALI', 'ALIAJ', 'ALISON', 'ALIZADEH-ALAMDARI', 'ALKER', 'ALLAM', 'ALLAN', 'ALLANSON', 'ALLARD', 'ALLARDICE', 'ALLATT', 'ALLCHURCH', 'ALLCOCK', 'ALLCOTT', 'ALLDAY', 'ALLDER', 'ALLELEY', 'ALLELY', 'ALLEN', 'ALLENBY', 'ALLENDER', 'ALLERTON', 'ALLERY', 'ALLFORD', 'ALLIE', 'ALLINGHAM', 'ALLINGTON', 'ALLINSON', 'ALLISON', 'ALLISTON', 'ALLITT', 'ALLMAN', 'ALLMARK', 'ALLNUTT', 'ALLON', 'ALLPORT', 'ALLPRESS', 'ALLRIGHT', 'ALLSO', 'ALLSOP', 'ALLSOPP', 'ALLTOFT', 'ALLWOOD', 'ALLWRIGHT', 'ALLYMAN', 'ALMANDRAS', 'ALMEN', 'ALMEY', 'ALMOND', 'ALPE', 'ALSOP', 'ALSTON', 'ALTON', 'ALTY', 'ALVES', 'ALVEY', 'ALWANI', 'AMBIDGE', 'AMBLER', 'AMBROSE', 'AMBRUS', 'AMER', 'AMES', 'AMEY', 'AMIN', 'AMIS', 'AMMIRATO', 'AMOR', 'AMOS', 'AMPS', 'AN', 'ANDERS', 'ANDERSON', 'ANDERTON', 'ANDREW', 'ANDREWS', 'ANDRONIC', 'ANELAY', 'ANEMA', 'ANGEL', 'ANGELL', 'ANGELONI', 'ANGER', 'ANGLESEA', 'ANGLISS', 'ANGUS', 'ANKER', 'ANKERSON', 'ANNABLE', 'ANNETT', 'ANNETTS', 'ANNING', 'ANNIS', 'ANNISON', 'ANSCOMBE', 'ANSELL', 'ANSLOW', 'ANSTEE', 'ANSTEY', 'ANSTICE', 'ANSWER', 'ANTCLIFF', 'ANTCLIFFE', 'ANTELL', 'ANTHONEY', 'ANTHONY', 'ANTINORO', 'ANTLEY', 'ANTOHE', 'ANTONA', 'ANTONESCU', 'ANTONIA', 'ANTONIOU', 'ANTOSZKIW', 'ANTROBUS', 'APLIN', 'APOSTOL', 'APOSTOLIDES', 'APPEL', 'APPERLEY', 'APPLEBY', 'APPLEGARTH', 'APPLEGATE', 'APPLETON', 'APPLEWHITE', 'APPLEYARD', 'APPS', 'APSEE', 'APSLEY', 'ARAM', 'ARAMA', 'ARAYA', 'ARBUTHNOT', 'ARCARO', 'ARCHBOLD', 'ARCHBUTT', 'ARCHER', 'ARCHER-MUNRO', 'ARCHIBALD', 'ARDEN', 'ARDEN-NIXON', 'ARDERN', 'ARDREN', 'ARGENZIANO', 'ARGHANDAWI', 'ARGO', 'ARGYLE', 'ARIF', 'ARKELL', 'ARKINSTALL', 'ARKLE', 'ARKWRIGHT', 'ARLOTT', 'ARMASELU', 'ARMER', 'ARMETT', 'ARMEZZANI', 'ARMIGER', 'ARMINSON', 'ARMISHAW', 'ARMISTEAD', 'ARMITAGE', 'ARMOUR', 'ARMSDEN', 'ARMSTRONG', 'ARMSTRONG-WILSON', 'ARNETT', 'ARNEY', 'ARNFIELD', 'ARNOLD', 'ARNOTT', 'ARROWSMITH', 'ARSCOTT', 'ARSLANIAN', 'ARTER', 'ARTHUR', 'ARTHURS', 'ARTHURTON', 'ARTHY', 'ARTISS', 'ARTLEY', 'ARTUS', 'ARUNDEL', 'ARUNDELL', 'ARWEL', 'ASBURY', 'ASCROFT', 'ASEFAW', 'ASH', 'ASHALL', 'ASHBARRY', 'ASHBEE', 'ASHBOURNE', 'ASHBURN', 'ASHBURNER', 'ASHBY', 'ASHCROFT', 'ASHDOWN', 'ASHE', 'ASHENDEN', 'ASHFIELD', 'ASHFOLD', 'ASHFORD', 'ASHFORTH', 'ASHGAR-SANDYS', 'ASHLEY', 'ASHMAN', 'ASHMEAD', 'ASHMORE', 'ASHRAF', 'ASHTON', 'ASHTON-BEARD', 'ASHURST', 'ASHWORTH', 'ASKEW', 'ASKEY', 'ASKHAM', 'ASKIN', 'ASLAM', 'ASLETT', 'ASMAL', 'ASPDEN', 'ASPELL', 'ASPINAL', 'ASPINALL', 'ASPLAND', 'ASPRAY', 'ASPREY', 'ASQUITH', 'ASSAM', 'ASSITER', 'ASTBURY', 'ASTLE', 'ASTLEY', 'ASTON', 'ATACK', 'ATHAY', 'ATHERTON', 'ATHEY', 'ATHORN', 'ATHWAL', 'ATKAR', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTENBOROUGH', 'ATTERBURY', 'ATTEWELL', 'ATTIPAS', 'ATTRELL', 'ATTRILL', 'ATTWATER', 'ATTWELL', 'ATTWOOD', 'ATWAL', 'ATWELL', 'AUCHNIE', 'AUCHTERLONIE', 'AUCKLAND', 'AUCOTT', 'AUGUSTINE', 'AUJLA', 'AUKER', 'AULAKH', 'AULD', 'AUSKERIN', 'AUSLING', 'AUSTEN', 'AUSTIN', 'AUTY', 'AVERY', 'AVISON', 'AWCOCK', 'AWOYEMI', 'AXFORD', 'AXON', 'AYALON', 'AYDON', 'AYERS', 'AYLESBURY', 'AYLETT', 'AYLING', 'AYLMORE', 'AYLWARD', 'AYLWIN', 'AYNSLEY', 'AYRE', 'AYRES', 'AYRIS', 'AYTO', 'AZIZ', 'Agar', 'BAALHAM', 'BAARDA', 'BABB', 'BABBINGTON', 'BABCOCK', 'BABER', 'BACCHUS', 'BACH', 'BACHE', 'BACK', 'BACKHOLER', 'BACKHOUSE', 'BACKHURST', 'BACON', 'BADCOCK', 'BADDELEY', 'BADEA', 'BADESHA', 'BADGER', 'BADH', 'BADHAM', 'BADHAN', 'BADLEY', 'BADMAN', 'BADRELDIEN', 'BAGE', 'BAGGALEY', 'BAGGETT', 'BAGGOTT', 'BAGGS', 'BAGGULEY', 'BAGNALL', 'BAGSHAW', 'BAGULEY', 'BAGWELL', 'BAHIA', 'BAIGRIE', 'BAILEY', 'BAILEY-LAWRENCE', 'BAILEY-SALTER', 'BAILISS', 'BAILLIE', 'BAILLIE-LANE', 'BAILY', 'BAIN', 'BAIN-VENN', 'BAINBRIDGE', 'BAINES', 'BAINS', 'BAIOCCHI', 'BAIRD', 'BAIRNER', 'BAIRSTOW', 'BAISTER', 'BAJWA', 'BAK', 'BAKER', "BAKER-I'ANSON", 'BAKER-JAMES', 'BAKES', 'BAKEWELL', 'BAL', 'BALAAM', 'BALAUCA', 'BALCHIN', 'BALDERSTONE', 'BALDING', 'BALDINI', 'BALDOCK', 'BALDRY', 'BALDWIN', 'BALE', 'BALEAN', 'BALHATCHET', 'BALI', 'BALL', 'BALLANTINE', 'BALLANTYNE', 'BALLARD', 'BALLE', 'BALLINGER', 'BALLOCH', 'BALLS', 'BALMAN', 'BALMER', 'BALMFORTH', 'BALSDON', 'BALTRUSAITIENE', 'BALZANO', 'BAMBER', 'BAMBRIDGE', 'BAMFORD', 'BAMFORTH', 'BANAK', 'BANBURY', 'BANCROFT', 'BAND', 'BANE', 'BANFIELD', 'BANGA', 'BANGS', 'BANHAM', 'BANKS', 'BANNATYNE', 'BANNER', 'BANNERMAN', 'BANNING', 'BANNISTER', 'BANNON', 'BANTON', 'BANWELL', 'BANYARD', 'BARAN', 'BARBEIRI', 'BARBER', 'BARBONI', 'BARBOUR', 'BARCHAM', 'BARCLAY', 'BARDEN', 'BARDGETT', 'BARDOSI', 'BARDSLEY', 'BARDWA', 'BARDWELL', 'BAREFOOT', 'BAREHAM', 'BARFOOT', 'BARFORD', 'BARGEWELL', 'BARGH', 'BARHAM', 'BARK', 'BARKER', 'BARKES', 'BARKS', 'BARLOW', 'BARMAN', 'BARNARD', 'BARNBROOK', 'BARNDEN', 'BARNES', 'BARNETT', 'BARNFATHER', 'BARNFIELD', 'BARNICOAT', 'BARNIKEL', 'BARNSLEY', 'BARNWALL', 'BARON', 'BARONS', 'BARR', 'BARRACLOUGH', 'BARRADELL', 'BARRASS', 'BARRATT', 'BARRELL', 'BARRETT', 'BARRIAC', 'BARRICK', 'BARRIE', 'BARRIGAN', 'BARRINGTON', 'BARRITT', 'BARRON', 'BARROW', 'BARROW-YATES', 'BARROWS', 'BARRS', 'BARRY', 'BARSBY', 'BARTCZAK', 'BARTER', 'BARTH', 'BARTHOLOMEW', 'BARTLE', 'BARTLETT', 'BARTLEY', 'BARTMEIER', 'BARTON', 'BARTRAM', 'BARTRUM', 'BARWELL', 'BARWICK', 'BARWOOD', 'BASCOMBE', 'BASELEY', 'BASEY-FISHER', 'BASFORD', 'BASHAM', 'BASHFORD', 'BASHIR', 'BASHTON', 'BASI', 'BASKETT', 'BASLEY', 'BASNETT', 'BASRA', 'BASS', 'BASSANT', 'BASSETT', 'BASSFORD', 'BASSI', 'BASSOM', 'BASSON', 'BASTABLE', 'BASTON', 'BASTOW', 'BATCHELAR', 'BATCHELOR', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATESON', 'BATEY', 'BATH', 'BATHAM', 'BATHER', 'BATHIE', 'BATKIN', 'BATSFORD', 'BATSON', 'BATT', 'BATTEN', 'BATTERS', 'BATTH', 'BATTISON', 'BATTY', 'BATTYE', 'BATY', 'BAUCKHAM', 'BAUGH', 'BAUGHAN', 'BAULD', 'BAUM', 'BAUSOR', 'BAVAIRD', 'BAVERSTOCK', 'BAVEYSTOCK', 'BAVIN', 'BAWA', 'BAWDEN', 'BAXENDALE', 'BAXTER', 'BAYBUTT', 'BAYES', 'BAYET', 'BAYLES', 'BAYLEY', 'BAYLIS', 'BAYLISS', 'BAYNE', 'BAYNES', 'BAYNHAM', 'BAYRAKCI', 'BAYRAM', 'BAYSTON', 'BAZLEY', 'BEACH', 'BEACHAM', 'BEACHER', 'BEACHILL', 'BEACOCK', 'BEACON', 'BEADLE', 'BEADSWORTH', 'BEAGLEY', 'BEAL', 'BEALBY', 'BEALE', 'BEALES', 'BEALING', 'BEAMAN', 'BEAMER', 'BEAN', 'BEANLAND', 'BEAR', 'BEARD', 'BEARDALL', 'BEARDMORE', 'BEARDSHAW', 'BEARDSMORE', 'BEARDWELL', 'BEARE', 'BEARRYMAN', 'BEARSBY', 'BEASLEY', 'BEASMORE', 'BEASTALL', 'BEATH', 'BEATON', 'BEATSON', 'BEATTIE', 'BEATTLE', 'BEATTY', 'BEATY', 'BEAUCHAMP', 'BEAUMONT', 'BEAUPIERRE', 'BEAUTRIDGE', 'BEAVAN', 'BEAVER', 'BEAVERS', 'BEAVES', 'BEBB', 'BEBER', 'BECK', 'BECKER', 'BECKETT', 'BECKLEY', 'BECKWITH', 'BEDDALL', 'BEDDOE', 'BEDFORD', 'BEDSON', 'BEDWELL', 'BEE', 'BEEBE', 'BEEBY', 'BEECH', 'BEECHAM', 'BEECHES', 'BEECHING', 'BEECROFT', 'BEEDIE', 'BEEDLES', 'BEEFORTH', 'BEEKMAN', 'BEEL', 'BEENEY', 'BEER', 'BEES', 'BEESE', 'BEESLEY', 'BEESON', 'BEESTON', 'BEETHAM', 'BEEVER', 'BEEVERS', 'BEEVIS', 'BEEVOR', 'BEFF', 'BEGG', 'BEGLEY', 'BEGUM', 'BEHA', 'BEHAGG', 'BEHAN', 'BEIRNE', 'BEITH', 'BEKTASOGLU', 'BELBIN', 'BELCHER', 'BELDOM', 'BELFIELD', 'BELFITT', 'BELFORD', 'BELGIN', 'BELIMENKO', 'BELISLE', 'BELK', 'BELL', 'BELL-WALKER', 'BELLABY', 'BELLAMY', 'BELLARS', 'BELLEINI', 'BELLINGHAM', 'BELLIS', 'BELLMAN', 'BELLOTTI', 'BELOULOU', 'BELT', 'BELTON', 'BEMAND', 'BEMBRIDGE', 'BENBOW', 'BENDALL', 'BENDEN', 'BENDLE', 'BENDREY', 'BENEE', 'BENFORD', 'BENGRY', 'BENHAM', 'BENINSON', 'BENISTON', 'BENJAMIN', 'BENN', 'BENNETT', 'BENNETTS', 'BENNEY', 'BENNIESTON', 'BENNING', 'BENNINGTON', 'BENNION', 'BENNISON', 'BENNY', 'BENSLEY', 'BENSON', 'BENSTEAD', 'BENT', 'BENTHAM', 'BENTLEY', 'BENTON', 'BENYON', 'BENZIE', 'BERE', 'BERESFORD', 'BERGMAN', 'BERKLEY', 'BERLIN', 'BERNARD', 'BERRESFORD', 'BERRETT', 'BERRIDGE', 'BERRIFF', 'BERRIMAN', 'BERRISFORD', 'BERRY', 'BERRYMAN', 'BERTA', 'BERTRAM', 'BERTRAND', 'BERWICK', 'BESANT', 'BESCHORNER', 'BESHARAT', 'BESLEY', 'BESOIU', 'BESSELL', 'BEST', 'BESTWICK', 'BESWICK', 'BETCHLEY', 'BETHEL', 'BETHELL', 'BETTELEY', 'BETTERIDGE', 'BETTINSON', 'BETTIS', 'BETTLES', 'BETTLEY', 'BETTNEY', 'BETTS', 'BETTS-BUCKE', 'BEVAN', 'BEVERIDGE', 'BEVERLEY', 'BEVINS', 'BEVIS', 'BEWS', 'BEXLEY', 'BEXTON', 'BEYNON', 'BEZANCE', 'BEZER', 'BEZZINA', 'BHAKERD', 'BHALSOD', 'BHANDAL', 'BHANOT', 'BHARAT', 'BHARDWAJ', 'BHATIA', 'BHATTI', 'BHINDER', 'BHOGAL', 'BHOWMIK', 'BHUDIA', 'BIANCHI', 'BIANCHINI', 'BIBBY', 'BIBI', 'BICA', 'BICK', 'BICKERDIKE', 'BICKERS', 'BICKERSTAFFE', 'BICKERTON', 'BICKFORD', 'BICKHAM', 'BICKLEY', 'BICKNELL', 'BIDDISCOMBE', 'BIDDLE', 'BIDDLECOMBE', 'BIDDULPH', 'BIDGOOD', 'BIDWELL', 'BIE', 'BIEL', 'BIELAWSKI', 'BIELBY', 'BIELBY - BELL', 'BIELIUNAS', 'BIFFIN', 'BIGGIN', 'BIGGLE', 'BIGGS', 'BIGHAM', 'BIGLEY', 'BIGNELL', 'BIGWOOD', 'BIKER', 'BILAN', 'BILBIN', 'BILES', 'BILHAM', 'BILL', 'BILLANY', 'BILLETT', 'BILLINGHAM', 'BILLINGHURST', 'BILLINGS', 'BILLINGTON', 'BILLOT', 'BILLYARD', 'BILLYEALD', 'BILSLAND', 'BILTON', 'BIMSON', 'BINACCIONI', 'BINCH', 'BINDER', 'BINDING', 'BINDLEY', 'BING', 'BINGHAM', 'BINGLEY', 'BINKS', 'BINLEY', 'BINNEY', 'BINNIE', 'BINNING', 'BINNINGTON', 'BINNS', 'BINSTEAD', 'BINT', 'BIRCH', 'BIRCHALL', 'BIRCHENOUGH', 'BIRCHER', 'BIRCMENOUGH', 'BIRD', 'BIRDSALL', 'BIRKBECK', 'BIRKBY', 'BIRKETT', 'BIRKIN', 'BIRKS', 'BIRMINGHAM', 'BIRNIE', 'BIRT', 'BIRTLE', 'BIRTWHISTLE', 'BISBY', 'BISCOMB', 'BISETTO', 'BISH', 'BISHOP', 'BISHTON', 'BISLAND', 'BISS', 'BISSELL', 'BISSET', 'BITHELL', 'BITTLES', 'BIVINS', 'BJERLAND', 'BLACK', 'BLACKADDER', 'BLACKBOROW', 'BLACKBURN', 'BLACKETT', 'BLACKFORD', 'BLACKIE', 'BLACKLEDGE', 'BLACKLER', 'BLACKLEY', 'BLACKLOCK', 'BLACKMAN', 'BLACKMORE', 'BLACKWELL', 'BLACKWOOD', 'BLADES', 'BLADON', 'BLAGBROUGH', 'BLAGG', 'BLAIKIE', 'BLAIN', 'BLAIR', 'BLAKE', 'BLAKE-JELLEY', 'BLAKELEY', 'BLAKELOCK', 'BLAKEMAN', 'BLAKEMORE', 'BLAKER', 'BLAKESTON', 'BLAKEWAY', 'BLAKEY', 'BLAMIRE', 'BLANCH', 'BLANCHARD', 'BLANCHE', 'BLAND', 'BLANDFORD', 'BLANKS', 'BLANPAIN', 'BLANT', 'BLASER', 'BLASKET', 'BLATCH', 'BLATCHFORD', 'BLATCHLY', 'BLATHERWICK', 'BLAXLEY', 'BLAYLOCK', 'BLAZIER', 'BLEACH', 'BLEAKEN', 'BLEASDALE', 'BLEAZARD', 'BLENCH', 'BLENKHARN', 'BLENKLEY', 'BLENNARHASSETT', 'BLEST-HOPLEY', 'BLETSOE-BROWN', 'BLEWETT', 'BLEWITT', 'BLICK', 'BLISS', 'BLIZARD', 'BLIZZARD', 'BLOCKEY', 'BLOCKLEY', 'BLOCKSIDGE', 'BLOIS', 'BLOK', 'BLOMFIELD', 'BLOOMER', 'BLOOMFIELD', 'BLOOR', 'BLOSSETT', 'BLOUNT', 'BLOW', 'BLOWER', 'BLOWES', 'BLOXHAM', 'BLOXSOME', 'BLUCK', 'BLUER', 'BLUME', 'BLUNDELL', 'BLUNDEN', 'BLUNDY', 'BLUNSDEN', 'BLUNSDON', 'BLUNT', 'BLUZMA', 'BLYTH', 'BLYTHE', 'BLYTHMAN', 'BOAK', 'BOAL', 'BOARD', 'BOARDMAN', 'BOATENG', 'BOAZ', 'BOAZMAN', 'BOCANCEA', 'BOCCIUS', 'BOCHENEK', 'BODDICE', 'BODDIE', 'BODDY', 'BODEN', 'BODENHAM', 'BODILY', 'BODKIN', 'BODMAN', 'BODY', 'BOELEMA', 'BOESSL', 'BOGALECKI', 'BOGAN', 'BOGDANOV', 'BOGG', 'BOGGIS', 'BOGGUST', 'BOGIRA', 'BOGUE', 'BOGUSKI', 'BOHANNA', 'BOLAM', 'BOLAND', 'BOLAS', 'BOLDER', 'BOLDIZSAR', 'BOLES', 'BOLGER', 'BOLINA', 'BOLITHO', 'BOLLAN', 'BOLLAND', 'BOLLE', 'BOLLEN', 'BOLLINGTON', 'BOLSOVER', 'BOLSWORTH', 'BOLT', 'BOLTER', 'BOLTON', 'BOMBER', 'BOMFORD', 'BONAR', 'BOND', 'BONDS', 'BONE', 'BONHAM', 'BONHAM CHRISTIE', 'BONN', 'BONNAR', 'BONNER', 'BONNETT', 'BONNEY', 'BONNING', 'BONNIWELL', 'BONSALL', 'BONSER', 'BONSON', 'BONTHRONE', 'BONTOFT', 'BOOCOCK', 'BOOKER', 'BOOMER', 'BOON', 'BOOT', 'BOOTE', 'BOOTH', 'BOOTH-WILLIAMS', 'BOOTHMAN', 'BOOTLE', 'BOOTY', 'BOOTYMAN', 'BOOY', 'BOPARAI', 'BORBON', 'BORDISS', 'BOREHAM', 'BORER', 'BORLAND', 'BORN', 'BORNE', 'BORRETT', 'BORRILL', 'BORTHWICK', 'BORZELLIERI', 'BOSELEY', 'BOSHER', 'BOSLEY', 'BOSTOCK', 'BOSTON', 'BOSWELL', 'BOSWORTH', 'BOTEA', 'BOTHAM', 'BOTHWELL', 'BOTLEY', 'BOTT', 'BOTTERELL', 'BOTTERILL', 'BOTTING', 'BOTTOM', 'BOTTOMLEY', 'BOTTOMS', 'BOTTRILL', 'BOTWRIGHT', 'BOUCH', 'BOUCHARD', 'BOUCHERE', 'BOUGH', 'BOUGHTON', 'BOULBY', 'BOULD', 'BOULDERSTONE', 'BOULTBY', 'BOULTER', 'BOULTON', 'BOUNDFORD', 'BOUNDS', 'BOURGEIN', 'BOURKE', 'BOURNE', 'BOURNER', 'BOURTON', 'BOUSFIELD', 'BOUSTEAD', 'BOUTCHER-WEST', 'BOVAINE', 'BOVINGTON', 'BOVIS', 'BOW', 'BOWATER', 'BOWCOCK', 'BOWDEN', 'BOWDEN-DAVIES', 'BOWDIDGE', 'BOWDIN', 'BOWE', 'BOWEN', 'BOWEN-JONES', 'BOWER', 'BOWERBANK', 'BOWERMAN', 'BOWERS', 'BOWERY', 'BOWES', 'BOWHAY', 'BOWHILL', 'BOWIE', 'BOWKER', 'BOWKETT', 'BOWLBY', 'BOWLER', 'BOWLES', 'BOWLING', 'BOWMAKER', 'BOWMAN', 'BOWMER', 'BOWN', 'BOWNASS', 'BOWNES', 'BOWNESS', 'BOWNS', 'BOWRING', 'BOX', 'BOXALL', 'BOYCE', 'BOYCE-SMITH', 'BOYD', 'BOYDELL', 'BOYER', 'BOYES', 'BOYLAN', 'BOYLAND', 'BOYLE', 'BOYLES', 'BOYLIN', 'BOYLING', 'BOYNE', 'BOYS', 'BOYSE', 'BOZHKOV', 'BOZHKOVA', 'BOZILOVIC', 'BOZON', 'BOZWARD', 'BRABAZON', 'BRABIN', 'BRABY', 'BRACE', 'BRACEGIRDLE', 'BRACEWELL', 'BRACEY', 'BRACH', 'BRACHER', 'BRACK', 'BRACKEN', 'BRACKENBURY', 'BRACKENRIDGE', 'BRACKLEY', 'BRADBOURN', 'BRADBURN', 'BRADBURNE', 'BRADBURY', 'BRADD', 'BRADDY', 'BRADER', 'BRADFIELD', 'BRADFORD', 'BRADLEY', 'BRADNUM', 'BRADSHAW', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAHA', 'BRAHAM', 'BRAHIMI', 'BRAID', 'BRAIDWOOD', 'BRAILEY', 'BRAILSFORD', 'BRAIM', 'BRAIN', 'BRAINE', 'BRAINES', 'BRAITHWAITE', 'BRAKE', 'BRALE', 'BRAMBLE', 'BRAME', 'BRAMLEY', 'BRAMWELL', 'BRANCH', 'BRAND', 'BRANDISH', 'BRANDON', 'BRANFIELD', 'BRANIGAN', 'BRANNAN', 'BRANNEN', 'BRANNOCK', 'BRANSBY', 'BRANSTON', 'BRANT', 'BRANTHWAITE', 'BRANTON', 'BRAR', 'BRASH', 'BRASHAW', 'BRASIER', 'BRASSILL', 'BRASSINGTON', 'BRATCHYK', 'BRATHERTON', 'BRATLEY', 'BRATT', 'BRAUN', 'BRAXTON', 'BRAY', 'BRAYNE', 'BRAYSHAW', 'BRAZENDALE', 'BRAZENER', 'BRAZIER', 'BRAZIL', 'BREADMORE', 'BREAKEY', 'BREAKSPEAR', 'BREAKWELL', 'BREALEY', 'BREARLEY', 'BREARS', 'BREBNER', 'BRECKNEY', 'BRECKON', 'BREEDEN', 'BREEN', 'BREESE', 'BREEZE', 'BREHON', 'BREHONY', 'BREMNER', 'BRENDLING', 'BRENNAN', 'BRENNAND', 'BRENT', 'BRENTON', 'BRERETON', 'BRESLIN', 'BRESNAHAN', 'BRESNAN', 'BRETHERTON', 'BRETT', 'BRETTLE', 'BREW', 'BREWARD', 'BREWER', 'BREWIS', 'BREWOOD', 'BREWSTER', 'BRICE', 'BRICKELL', 'BRICKETT', 'BRICKLEY', 'BRICKWOOD', 'BRIDDON', 'BRIDEWELL', 'BRIDGE', 'BRIDGEN', 'BRIDGER', 'BRIDGES', 'BRIDGEWATER', 'BRIDGMAN', 'BRIDSON', 'BRIERLEY', 'BRIERS', 'BRIGDEN', 'BRIGGS', 'BRIGGS-PRICE', 'BRIGHT', 'BRIGHTEY', 'BRIGHTMAN', 'BRIGHTON', 'BRIGHTWELL', 'BRIGHTY', 'BRILL', 'BRIMBLE', 'BRIMLEY', 'BRIMM', 'BRIMSON', 'BRIND', 'BRINDLE', 'BRINDLEY', 'BRINDLEY DAVIES', 'BRINE', 'BRINKLEY', 'BRINKWORTH', 'BRINSLEY', 'BRIODY', 'BRISBANE', 'BRISCHUK', 'BRISCOE', 'BRISTER', 'BRISTOW', 'BRITNELL', 'BRITTAIN', 'BRITTAIN-CARTLIDGE', 'BRITTAN', 'BRITTEN', 'BRITTLE', 'BRITTON', 'BROAD', 'BROADBENT', 'BROADBRIDGE', 'BROADHEAD', 'BROADHURST', 'BROADLEY', 'BROADWAY', 'BROATCH', 'BROBBIN', 'BROCK', 'BROCKBANK', 'BROCKES', 'BROCKLEBANK', 'BROCKLEHURST', 'BROCKLESBY', 'BROCKWAY', 'BROCKWELL', 'BRODERICK', 'BRODIE', 'BRODLEY', 'BROE', 'BROEKHUIZEN', 'BROGAN', 'BROGDEN', 'BROLLY', 'BROMLEY', 'BROMWICH', 'BROOK', 'BROOK-SMITH', 'BROOKBANKS', 'BROOKE', 'BROOKER', 'BROOKER-CAREY', 'BROOKES', 'BROOKFIELD', 'BROOKING', 'BROOKMAN', 'BROOKS', 'BROOKSBANK', 'BROOKSON', 'BROOME', 'BROOMFIELD', 'BROOMHALL', 'BROOMHEAD', 'BROSNAN', 'BROSTER', 'BROTHERIDGE', 'BROTHERTON', 'BROTHERWOOD', 'BROTHWOOD', 'BROUGH', 'BROUGHTON', 'BROWETT', 'BROWITT', 'BROWN', 'BROWNBRIDGE', 'BROWNE', 'BROWNELL', 'BROWNING', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNRIDGE', 'BROXHOLME', 'BRUCE', 'BRUEGGER', 'BRUGES', 'BRUMBILL', 'BRUMMELL', 'BRUMMITT', 'BRUMPTON', 'BRUNO', 'BRUNSDON', 'BRUNSKILL', 'BRUNT', 'BRUNTON', 'BRUNYEE', 'BRUSHWOOD', 'BRUTON', 'BRUZLEA', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYCE', 'BRYCELAND', 'BRYDEN', 'BRYDGES', 'BRYSON', 'BRZOZOWSKI', 'BUCHAN', 'BUCHANAN', 'BUCK', 'BUCKE', 'BUCKINGHAM', 'BUCKLAND', 'BUCKLE', 'BUCKLER', 'BUCKLEY', 'BUCKROYD', 'BUCKTHOUGHT', 'BUCKWORTH', 'BUDD', 'BUDDLE', 'BUDGE', 'BUDSKI', 'BUER', 'BUES', 'BUFFEY', 'BUFFIN', 'BUFTON', 'BUGDEN', 'BUGG', 'BUGLER', 'BUICK', 'BUISSON', 'BULAKOWSKI', 'BULL', 'BULLED', 'BULLEN', 'BULLER', 'BULLETT', 'BULLIMORE', 'BULLITAORE', 'BULLMAN', 'BULLOCK', 'BULLOUGH', 'BULMAN', 'BULMER', 'BULPITT', 'BULTITUDE', 'BUMPSTEAD', 'BUMSTEAD', 'BUNCE', 'BUNCH', 'BUNDUC', 'BUNDY', 'BUNGANIC', 'BUNGAY', 'BUNGEY', 'BUNKELL', 'BUNKER', 'BUNN', 'BUNNELL', 'BUNNER', 'BUNNEY', 'BUNNING', 'BUNTING', 'BUNTON', 'BUNYAN', 'BURBAGE', 'BURBIDGE', 'BURBRIDGE', 'BURCEA', 'BURCH', 'BURCHETT', 'BURD', 'BURDAKY', 'BURDEN', 'BURDETT', 'BURDFIELD', 'BURDGE', 'BURDITT', 'BURDON', 'BURFORD', 'BURGE', 'BURGESS', 'BURGIN', 'BURGON', 'BURGOYNE', 'BURKE', 'BURKETT', 'BURKINSHAW', 'BURKITT', 'BURKS', 'BURLEY', 'BURLING', 'BURLINGHAM', 'BURLINSON', 'BURLS', 'BURMAN', 'BURN', 'BURNARD', 'BURNDRED', 'BURNE', 'BURNELL', 'BURNETT', 'BURNHAM', 'BURNIE', 'BURNIKELL', 'BURNINGHAM', 'BURNLEY', 'BURNS', 'BURNS-PRICE', 'BURNS-SALMOND', 'BURNSIDE', 'BURPITT', 'BURR', 'BURRAGE', 'BURRELL', 'BURRELLS', 'BURREN', 'BURRIDGE', 'BURRILL', 'BURROUGH', 'BURROUGHES', 'BURROUGHS', 'BURROW', 'BURROWS', 'BURSON', 'BURT', 'BURTENSHAW', 'BURTON', 'BURTONSHAW-GUNN', 'BURTT', 'BURWELL', 'BURY', 'BUSBRIDGE', 'BUSBY', 'BUSH', 'BUSHELL', 'BUSHNELL', 'BUSMACHIU', 'BUSS', 'BUSSELL', 'BUSSEY', 'BUSUTTIL', 'BUSWELL', 'BUTCHART', 'BUTCHER', 'BUTE', 'BUTE-ROPER', 'BUTLER', 'BUTLIN', 'BUTT', 'BUTTAR', 'BUTTER', 'BUTTERFIELD', 'BUTTERILL', 'BUTTERS', 'BUTTERWORTH', 'BUTTERY', 'BUTTLE', 'BUTTON', 'BUTTRICK', 'BUTTRISS', 'BUXTON', 'BUZURA', 'BUZZARD', 'BYARD', 'BYATT', 'BYDE', 'BYE', 'BYFIELD', 'BYFORD', 'BYNE', 'BYNORTH', 'BYOTT', 'BYRD', 'BYRNE', 'BYRNES', 'BYROM', 'BYRON', 'BYTHEWAY', 'BYTNER', 'BYWATER', 'Black', 'CABEZA', 'CABLE', 'CADBY', 'CADDEN', 'CADDICK', 'CADE', 'CADEN', 'CADET', 'CADEY', 'CADGER', 'CADMAN', 'CADMORE', 'CADOGAN', 'CADWALLADER', 'CAEN', 'CAFFERKY', 'CAFFREY', 'CAFFYN', 'CAGE', 'CAGNETTA', 'CAHILL', 'CAIN', 'CAINE', 'CAINES', 'CAINS', 'CAIRD', 'CAIRNEY', 'CAIRNIE', 'CAIRNS', 'CAISLEY', 'CALADO', 'CALCOTT', 'CALCUTT', 'CALDER-MATTHEWS', 'CALDERBANK', 'CALDICOTT', 'CALDWELL', 'CALE', 'CALEY', 'CALINA', 'CALKELD', 'CALL', 'CALLAGHAN', 'CALLAN', 'CALLANAN', 'CALLANDER', 'CALLANS', 'CALLARD', 'CALLER', 'CALLINAN', 'CALLISTER', 'CALLOW', 'CALOW', 'CALROW', 'CALTON', 'CALUORI', 'CALVER', 'CALVERT', 'CALVIN', 'CAM', 'CAMBER', 'CAMDEN', 'CAMERON', 'CAMM', 'CAMMACK', 'CAMP', 'CAMPBELL', 'CAMPBELL-MIDDLETON', 'CAMPEY', 'CAMPFIELD', 'CAMPIN', 'CAMPINI', 'CAMPION', 'CAMPLING', 'CAMPS', 'CANAVAN', 'CANDY', 'CANFIELD', 'CANHAM', 'CANN', 'CANNAN', 'CANNING', 'CANNON', 'CANON', 'CANSDALE', 'CANSFIELD', 'CANT', 'CANTLAY', 'CANTON', 'CANTRELL', 'CANTRILL', 'CANTY', 'CANVIN', 'CAPALDI', 'CAPEL', 'CAPELL', 'CAPES', 'CAPEWELL', 'CAPEY', 'CAPLE', 'CAPLIN', 'CAPOFERRI', 'CAPON', 'CAPONE', 'CAPORN', 'CAPPER', 'CAPPER-MOORE', 'CAPPITT', 'CAPSER', 'CAPSTICK', 'CARBERRY', 'CARD', 'CARDER', 'CARDNO', 'CARDWELL', 'CARDY', 'CARE', 'CAREY', 'CARIS', 'CARKETT', 'CARLESS', 'CARLILE', 'CARLIN', 'CARLISLE', 'CARLOS', 'CARLSE', 'CARLSON', 'CARLTON', 'CARLYLE', 'CARLYON', 'CARMICHAEL', 'CARMINKE', 'CARMODY', 'CARMOODY', 'CARNABY', 'CARNAN', 'CARNEGIE', 'CARNELL', 'CARNEY', 'CARPENDALE', 'CARPENTER', 'CARR', 'CARRADICE', 'CARRICK', 'CARRIER', 'CARRIGAN', 'CARRINGTON', 'CARROL', 'CARROLL', 'CARROTT', 'CARRUBBA', 'CARRUTH', 'CARRUTHERS', 'CARSON', 'CARSWELL', 'CARTER', 'CARTHY', 'CARTLEDGE', 'CARTLIDGE', 'CARTMAIL', 'CARTMELL', 'CARTNER', 'CARTWRIGHT', 'CARUSO', 'CARVALHO', 'CARVELL', 'CARVER', 'CASBEARD', 'CASCAVAL', 'CASE', 'CASERIU', 'CASEY', 'CASH', 'CASHMAN', 'CASHMORE', 'CASS', 'CASSAM', 'CASSAR', 'CASSELL', 'CASSELS', 'CASSERLY', 'CASSIDY', 'CASSIE', 'CASSON', 'CASTERTON', 'CASTLE', 'CASTLEDINE', 'CASTLES', 'CASTLETON', 'CASTON', 'CASTRO-VIEIRA', 'CASWELL', 'CATCHPOLE', 'CATER', 'CATES', 'CATHERS', 'CATLIN', 'CATLING', 'CATLOW', 'CATO', 'CATON', 'CATT', 'CATTANACH', 'CATTERALL', 'CATTLE', 'CATTLEY', 'CATTON', 'CATTRALL', 'CATTROLL', 'CAULFIELD', 'CAULSTON', 'CAUNCE', 'CAUSER', 'CAUVIN', 'CAVANAGH', 'CAVE', 'CAVENDER', 'CAVILL', 'CAVINDER', 'CAWLEY', 'CAWOOD', 'CAWREY', 'CAWS', 'CAWSEY', 'CAWTHORNE', 'CECIL', 'CEGIELSKI', 'CERECEDA', 'CERINUS', 'CERRIE', 'CESSFORD', 'CHADBURN-TENNYSON', 'CHADDERTON', 'CHADHA', 'CHADWICK', 'CHAHAL', 'CHAISTY', 'CHALK', 'CHALKER', 'CHALKLEY', 'CHALLEN', 'CHALLENER', 'CHALLENGER', 'CHALLINOR', 'CHALLIONER', 'CHALLIS', 'CHALLONER', 'CHALMERS', 'CHALONER', 'CHAMBERLAIN', 'CHAMBERS', 'CHAMINGS', 'CHAMLEY', 'CHAMNEY', 'CHAMPION', 'CHAMPNESS', 'CHANCE', 'CHANDARANA', 'CHANDER', 'CHANDLER', 'CHANEY', 'CHANNING', 'CHANNON', 'CHANT', 'CHANTLER', 'CHANTRY', 'CHAPLIN', 'CHAPLOW', 'CHAPMAN', 'CHAPPELHOW', 'CHAPPELL', 'CHAPPELOW', 'CHAPPLE', 'CHARALAMBIDES', 'CHARD', 'CHARLES', 'CHARLESON', 'CHARLESWORTH', 'CHARLETON', 'CHARLEY', 'CHARLSON', 'CHARLTON', 'CHARLWOOD', 'CHARMAN', 'CHARNLEY', 'CHARRINGTON', 'CHARTER', 'CHARTERS', 'CHASE', 'CHASSAR', 'CHATBURN', 'CHATER', 'CHATFIELD', 'CHATTEN', 'CHATTIN', 'CHATWIN', 'CHAUDHRY', 'CHAUDRY', 'CHAUHAN', 'CHAWNER', 'CHEALE', 'CHEATER', 'CHEEK', 'CHEEMA', 'CHEESEMAN', 'CHEESEWRIGHT', 'CHEESMOND', 'CHEETHAM', 'CHELL', 'CHENEY', 'CHENNELLS', 'CHENOWETH', 'CHERITON', 'CHEROOMI', 'CHERRIMAN', 'CHERRY', 'CHERRYMAN', 'CHESHIRE', 'CHESSER', 'CHESSUM', 'CHESTER', 'CHESTERMAN', 'CHESTNUT', 'CHETWYND', 'CHEVILL', 'CHEW', 'CHEWINS', 'CHEYNE', 'CHHATWAL', 'CHIBADUKI', 'CHICK', 'CHIDLEY', 'CHILD', 'CHILDERHOUSE', 'CHILDS', 'CHILLERY', 'CHILTON', 'CHILUT', 'CHILVER', 'CHILVERS', 'CHINERY', 'CHING', 'CHINNERY', 'CHIPMAN', 'CHIPPENDALE', 'CHIPPER', 'CHIRAN', 'CHIRREY', 'CHIRTAS', 'CHISHOLM', 'CHISNALL', 'CHISWELL', 'CHITTENDEN', 'CHITTY', 'CHIVERS', 'CHIVERTON', 'CHIVRALL', 'CHMIEWLISKI', 'CHOJNACKI', 'CHOKAR', 'CHOLMONDELEY', 'CHONG', 'CHORLTON', 'CHOUDRY', 'CHOULARTON', 'CHOULES', 'CHOUNDRY', 'CHOWDHURY', 'CHOWDREY', 'CHOWN', 'CHRISTENSEN', 'CHRISTIAN', 'CHRISTIE', 'CHRISTMAN', 'CHRISTOFFERSEN', 'CHRISTOPHER', 'CHRISTOPHERS', 'CHRISTOPHERSON', 'CHRITCHLEY', 'CHRUSZCZ', 'CHRYSTAL', 'CHUBB', 'CHUBBOCK', 'CHUDLEY', 'CHUKWUMA', 'CHURCH', 'CHURCHER', 'CHURCHES', 'CHURCHILL', 'CHURCHMAN', 'CHURCHYARD', 'CHURN', 'CHURNSIDE', 'CHURTON', 'CHUTTER', 'CIENTANNI', 'CIERPKA', 'CIESLIK', 'CINNAMOND', 'CIOCIRLAN', 'CIRIELLO', 'CIRKIN', 'CIURA', 'CIUREA', 'CLACK', 'CLAFFEY', 'CLAFTON', 'CLAGUE', 'CLAMP', 'CLANACHAN', 'CLANCY', 'CLAPHAM', 'CLAPP', 'CLAPSON', 'CLAPTON', 'CLARE', 'CLARGES', 'CLARIDGE', 'CLARK', 'CLARKE', 'CLARKSON', 'CLARKSON-BURGESS', 'CLARKSON-HALL', 'CLASBY', 'CLAUS', 'CLAXON', 'CLAXTON', 'CLAY', 'CLAYBURN', 'CLAYDON', 'CLAYSON', 'CLAYTON', 'CLAYTON-BLYTHE', 'CLEARY', 'CLEAVE', 'CLEAVER', 'CLEEVES', 'CLEGG', 'CLELAND', 'CLELLAND', 'CLEMENT', 'CLEMENTE', 'CLEMENTS', 'CLEMIT', 'CLEMONS', 'CLENSEY', 'CLENSHAW', 'CLENT', 'CLERKIN', 'CLEVE', 'CLEVERDON', 'CLEVERLY', 'CLEWER', 'CLEWLEY', 'CLEWLOW', 'CLEWS', 'CLEZY', 'CLIFF', 'CLIFFE', 'CLIFFORD', 'CLIFT', 'CLIFTON', 'CLINCH', 'CLINTON', 'CLIXBY', 'CLOAD', 'CLODE', 'CLOGGIE', 'CLOSE', 'CLOTHIER', 'CLOUGH', 'CLOUGHTON', 'CLOUTING', 'CLOW', 'CLOWE', 'CLOWER', 'CLOWES', 'CLOWSLEY', 'CLOY', 'CLUBB', 'CLUBLEY', 'CLUCKIE', 'CLUGSTON', 'COADY', 'COAKER', 'COALE', 'COALES', 'COATEN', 'COATES', 'COATHUP', 'COATMAN', 'COATS', 'COATSWORTH', 'COBB', 'COBBALD', 'COBBETT', 'COBBLEDICK', 'COBBOLD', 'COBDEN', 'COBHAM', 'COBLEY', 'COBURN', 'COCCO', 'COCHRAN', 'COCHRANE', 'COCKAYNE', 'COCKBURN', 'COCKCROFT', 'COCKELL', 'COCKER', 'COCKERHAM', 'COCKERILL', 'COCKETT', 'COCKING', 'COCKLE', 'COCKLIN', 'COCKS', 'COCOS', 'CODD', 'CODDINGTON', 'CODLING', 'CODONA', 'CODRINGTON', 'COE', 'COFF', 'COFFEY', 'COFFIN', 'COGGINS', 'COGHLAN', 'COHEN', 'COID', 'COJOCARIU', 'COJOCARU', 'COKE', 'COKER', 'COLBEAR', 'COLBERT', 'COLBORN', 'COLBURN', 'COLCLOUGH', 'COLDERLEY', 'COLDHAM', 'COLDICOTT', 'COLDMAN', 'COLDWELL', 'COLE', 'COLEBY', 'COLEMAN', 'COLES', 'COLEY', 'COLFER', 'COLGAN', 'COLGATE', 'COLGRAVE', 'COLHOUN', 'COLLAR', 'COLLARD', 'COLLEAVY', 'COLLEDGE', 'COLLEN', 'COLLER', 'COLLETT', 'COLLEY', 'COLLIE', 'COLLIER', 'COLLIN', 'COLLINGBOURNE', 'COLLINGE', 'COLLINGHAM', 'COLLINGS', 'COLLINGTON', 'COLLINGWOOD', 'COLLINS', 'COLLINS-MISKIN', 'COLLINSON', 'COLLIS', 'COLLISON', 'COLLIVER', 'COLLUM', 'COLLYER', 'COLMAN', 'COLMER', 'COLONNA', 'COLQHOUN', 'COLSON', 'COLTON', 'COLVILLE', 'COLVINE', 'COLWELL', 'COLWILL', 'COMAN', 'COMBE', 'COMBELLACK', 'COMBEN', 'COMBER', 'COMBSTOCK', 'COMER', 'COMERFORD', 'COMERY', 'COMFORT', 'COMISKEY', 'COMLEY', 'COMMINS', 'COMMON', 'COMPSON', 'COMPTON', 'COMRIE', 'CONABEARE', 'CONABOY', 'CONAGHAN', 'CONBOY', 'CONCHIE', 'CONDIE', 'CONDLIFFE', 'CONDON', 'CONDRON', 'CONEY', 'CONEYBEER', 'CONGDON', 'CONING', 'CONINGTON', 'CONIUM', 'CONLAN', 'CONLEY', 'CONLON', 'CONMAN', 'CONN', 'CONNAUGHTON', 'CONNEELY', 'CONNELL', 'CONNELLAN', 'CONNELLY', 'CONNER', 'CONNERY', 'CONNICK', 'CONNOLLY', 'CONNON', 'CONNOR', 'CONNORS', 'CONOD', 'CONQUEST', 'CONROY', 'CONSIDINE', 'CONSTABLE', 'CONSTANTINE', 'CONTI', 'CONWAY', 'COOCH', 'COOK', 'COOK-LEYDEN', 'COOKE', 'COOKLAND', 'COOKSEY', 'COOKSLEY', 'COOKSON', 'COOLE', 'COOLING', 'COOMBE', 'COOMBER', 'COOMBES', 'COOMBS', 'COONAN', 'COONEY', 'COOP', 'COOPER', 'COOPER-KEEBLE', 'COOPER-KEY', 'COOPLAND', 'COOT', 'COOTE', 'COPAS', 'COPE', 'COPELAND', 'COPESTAKE', 'COPLAND', 'COPLESTONE', 'COPLEY', 'COPP', 'COPPARD', 'COPPIN', 'COPPING', 'COPPLE', 'COPPOLA', 'COPSEY', 'COPSON', 'CORBETT', 'CORBIN', 'CORBISHLEY', 'CORBRIDGE', 'CORCORAN', 'CORDALL', 'CORDELL', 'CORDEN', 'CORDERY', 'CORDINER', 'CORDON', 'CORDWELL', 'CORFIELD', 'CORK', 'CORKERY', 'CORLESS', 'CORMACK', 'CORMICAN', 'CORMICK', 'CORNABY', 'CORNALL', 'CORNEILL', 'CORNELIUS', 'CORNELL', 'CORNER', 'CORNES', 'CORNEY', 'CORNFIELD', 'CORNFOOT', 'CORNFORTH', 'CORNICK', 'CORNISH', 'CORNS', 'CORNWALL', 'CORNWELL', 'CORP', 'CORPER', 'CORPS', 'CORR', 'CORRIDAN', 'CORRIGAN', 'CORRIN', 'CORRY', 'CORSON', 'CORTES', 'CORTI', 'COSGROVE', 'COSSEY', 'COSSLETT', 'COSSTICK', 'COSTACHE', 'COSTEA', 'COSTELLO', 'COSTELLOE', 'COSTEN', 'COSTER', 'COTES', 'COTT', 'COTTAM', 'COTTER', 'COTTERELL', 'COTTERILL', 'COTTINGHAM', 'COTTINGTON', 'COTTIS', 'COTTLE', 'COTTOM', 'COTTON', 'COTTRELL', 'COTTRILL', 'COTTYN', 'COUBROUGH', 'COUCEIRO', 'COUCH', 'COUCHMAN', 'COUDJOE', 'COUGHLAN', 'COUGHTRIE', 'COULL', 'COULLIE', 'COULMAN', 'COULSON', 'COULSTON', 'COULTER', 'COULTHARD', 'COULTHURST', 'COULTON', 'COUNCIL', 'COUNSELL', 'COUPE', 'COUPER', 'COUPLAND', 'COURAGE', 'COURT', 'COURTNEY', 'COURTNEY-SMITH', 'COURTS', 'COUSENS', 'COUSINS', 'COUTTS', 'COUZENS', 'COVACI', 'COVE', 'COVENEY', 'COVENTON', 'COVENTRY', 'COVER', 'COVERDALE', 'COWAN', 'COWARD', 'COWBURN', 'COWDELL', 'COWDREY', 'COWE', 'COWELL', 'COWEN', 'COWENS', 'COWERN', 'COWGILL', 'COWIE', 'COWLARD', 'COWLE', 'COWLES', 'COWLEY', 'COWLING', 'COWPER', 'COWPERTHWAITE', 'COWSER', 'COWTON', 'COX', 'COXALL', 'COXHEAD', 'COXON', 'COY', 'COYLE', 'COYLES', 'COYNE', 'COZENS', 'COZMA', 'CRABBE', 'CRABTREE', 'CRACK', 'CRACKNELL', 'CRADDOCK', 'CRADOCK', 'CRAFFEY', 'CRAFT', 'CRAGG', 'CRAGGS', 'CRAGIE', 'CRAHART', 'CRAIG', 'CRAIGGS', 'CRAIGHAN', 'CRAIGS', 'CRAIK', 'CRAMB', 'CRAMER', 'CRAMPHORN', 'CRAMPTON', 'CRANE', 'CRANFIELD', 'CRANHAM', 'CRANK', 'CRANNY', 'CRANSTONE', 'CRANWELL', 'CRASKE', 'CRATE', 'CRATHORN', 'CRAVEN', 'CRAWFORD', 'CRAWFORTH', 'CRAWLEY', 'CRAWSHAW', 'CRAYFORD', 'CRAZE', 'CREAMER', 'CREASER', 'CREASEY', 'CREAVEN', 'CREE', 'CREED', 'CREEDON', 'CREEGAN', 'CREGAN', 'CREIGHTON', 'CRELLIN', 'CREMONA', 'CRESSWELL', 'CRESWELL', 'CREW', 'CREW-GEE', 'CREWS', 'CRIBBS', 'CRICHTON', 'CRICK', 'CRIPPS', 'CRISP', 'CRISPIN', 'CRITCHELL', 'CRITCHLEY', 'CRITCHLOW', 'CRITTENDEN', 'CROAD', 'CROCKER', 'CROCKETT', 'CROCKFORD', 'CROCOMBE', 'CROFT', 'CROFTS', 'CROKER', 'CROMACK', 'CROMBIE', 'CROMIE', 'CROMPTON', 'CROMWELL', 'CRONEY', 'CRONK', 'CRONLEY', 'CROOK', 'CROOKE', 'CROOKES', 'CROOKS', 'CROOM', 'CROOMBS', 'CROOME', 'CROPLEY', 'CROPPER', 'CROSBIE', 'CROSBIE-BARCROFT', 'CROSBY', 'CROSFIELD', 'CROSS', 'CROSSLAND', 'CROSSLEY', 'CROSSMAN', 'CROSSWAITE', 'CROTTY', 'CROUCH', 'CROUCHMAN', 'CROW', 'CROWCROFT', 'CROWDY', 'CROWE', 'CROWFOOT', 'CROWHURST', 'CROWLEY', 'CROWN', 'CROWSLEY', 'CROWSON', 'CROWTHER', 'CROWTON', 'CROXFORD', 'CROZIER', 'CRUDDAS', 'CRUDGE', 'CRUICKSHANK', 'CRUICKSHANKS', 'CRUMP', 'CRUMPLIN', 'CRUMPTON', 'CRUST', 'CRUTCHINGTON', 'CRUTCHLEY', 'CRUTE', 'CRUTTENDEN', 'CRYER', 'CSATO', 'CUBBIN', 'CUBBON', 'CUBBY', 'CUBITT', 'CUCU', 'CUDDIFORD', 'CUDDY', 'CUFF', 'CULL', 'CULLEN', 'CULLEY', 'CULLIMORE', 'CULLINAN', 'CULLINANE', 'CULLING', 'CULLINGFORD', 'CULLIP', 'CULLUM', 'CULLWICK', 'CULLY', 'CULORA', 'CULSHAW', 'CULVER', 'CULWICK', 'CUMBERBATCH', 'CUMBERLAND', 'CUMES', 'CUMISKY', 'CUMMING', 'CUMMINGS', 'CUMMINS', 'CUNCLIFFE', 'CUNDELL', 'CUNDICK', 'CUNDIFF', 'CUNDILL', 'CUNDY', 'CUNLIFFE', 'CUNNEEN', 'CUNNINGHAM', 'CUNNINGTON', 'CUNVIN', 'CUPIT', 'CURATOLO', 'CURDS', 'CURLE', 'CURLEY', 'CURNOCK', 'CURRAN', 'CURREN', 'CURRIE', 'CURRY', 'CURSON', 'CURTHOYS', 'CURTIN', 'CURTIS', 'CURTIS-THOMAS', 'CURTOYS', 'CURWEN', 'CUSACK', 'CUSHING', 'CUSHION', 'CUSHNAHAN', 'CUSICK', 'CUSSONS', 'CUTHBERT', 'CUTHBERTSON', 'CUTHELL', 'CUTLER', 'CUTMORE', 'CUTSFORTH', 'CUTTER', 'CUTTING', 'CUTTLE', 'CUTTS', 'CUZNER', 'CWALINA', 'CWIRTA', 'CZECH', 'CZERWIAK', "D'ALQUEN", "D'ARCY", "D'EATH", "D'SOUZA", 'DA COSTA', 'DABBS', 'DABELL', 'DABHAD', 'DACEY', 'DACK', 'DACRE', 'DADDY', 'DADOMO', 'DADSWELL', 'DADWAL', 'DAFF', 'DAGG', 'DAGGER', 'DAGLEY', 'DAHN', 'DAILEY', 'DAILLY', 'DAILY', 'DAINS', 'DAINTITH', 'DAISH', 'DAKIN', 'DALAL', 'DALBY', 'DALDRY', 'DALE', 'DALEY', 'DALGARNO', 'DALGETTY', 'DALGLEISH', 'DALKIN', 'DALL', 'DALLAS', 'DALLAWAY', 'DALLIMORE', 'DALLING', 'DALLY', 'DALRYMPLE', 'DALTON', 'DALY', 'DALZELL', 'DALZIEL', 'DAMACUS', 'DAMPNEY', 'DAMRELL', 'DANAHER', 'DANBY', 'DANCE', 'DANCER', 'DANCEY', 'DANCI', 'DAND', 'DANDIE', 'DANDRIDGE', 'DANDY', 'DANE', 'DANGOLITIS', 'DANIEL', 'DANIELLS', 'DANIELS', 'DANIKAUSKAS', 'DANN', 'DANNATT', 'DANSKIN', 'DANSON', 'DARBY', 'DARBYSHIRE', 'DARCH', 'DARCY', 'DARE', 'DARGE', 'DARGIE', 'DARK', 'DARKE', 'DARKEN', 'DARLEY', 'DARLING', 'DARLINGTON', 'DARLISON', 'DARLOW', 'DARMODY', 'DARNBROOK', 'DARNBROUGH', 'DARNELL', 'DARRAUGH', 'DART', 'DARTS', 'DARVALL', 'DARVILL', 'DARWENT', 'DARWIN', 'DASHWOOD', 'DASS', 'DATCU', 'DAUBNEY', 'DAUNCEY', 'DAUNTER', 'DAVENHILL', 'DAVENPORT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIE', 'DAVIES', 'DAVIS', 'DAVISON', 'DAVOLLS', 'DAVY', 'DAW', 'DAWBER', 'DAWE', 'DAWES', 'DAWIT', 'DAWKES', 'DAWKIN', 'DAWKINS', 'DAWN', 'DAWNEY', 'DAWS', 'DAWSON', 'DAY', 'DAYKIN', 'DAYMAN', 'DAYMOND', 'DAYNES', 'DAYSON', 'DAYUS', 'DE ANGELIS', 'DE BIEVRE', 'DE BURGH HEMMING', 'DE COURCEY', 'DE HOEST', 'DE JERSEY', 'DE LANG', 'DE MULDER', 'DE RYK-HEEREN', 'DE STAINS', "DE'ATH", 'DE-BRANCO', 'DE-LAUNE', 'DE-MACHEN', 'DE-VALL', 'DEACON', 'DEACONU', 'DEADMAN', 'DEAKIN', 'DEAKINS', 'DEAL', 'DEALEY', 'DEAMER', 'DEAN', 'DEANE', 'DEANS', 'DEAR', 'DEARDEN', 'DEARING', 'DEARLOVE', 'DEARNS', 'DEATON', 'DEAUVILLE', 'DEAVILLE', 'DEBBAGE', 'DEBCZAK-DEBSKI', 'DEBENHAM', 'DEBOWSKA', 'DECIECO', 'DEDMAN', 'DEE', 'DEEBLE', 'DEEGAN', 'DEEHAN', 'DEELEY', 'DEEN', 'DEENEY', 'DEEPROSE', 'DEEX', 'DEHAAN', 'DEHAVILLANDE', 'DEIGHAN', 'DEIGHTON', 'DEIGNAN', 'DEIMERT', 'DEIR', 'DELAHAY', 'DELAINE-SMITH', 'DELANEY', 'DELANY', 'DELL', 'DELLA GANA', 'DELLENTY', 'DELLER', 'DELLICOLLI', 'DELOOZE', 'DEMBREY', 'DEMELLWEEK', 'DEMIDOV', 'DEMPSEY', 'DEMPSIE', 'DEMPSTER', 'DENARO', 'DENBOW', 'DENBURY', 'DENBY', 'DENCH', 'DENFORD', 'DENHAM', 'DENHOLM', 'DENISON', 'DENMAN', 'DENMEAD', 'DENNAN', 'DENNEHY', 'DENNENY', 'DENNES', 'DENNETT', 'DENNING', 'DENNINGTON', 'DENNIS', 'DENNISON', 'DENNISS', 'DENNISTON', 'DENNY', 'DENSCOMBE', 'DENSLOW', 'DENSON', 'DENT', 'DENTON', 'DENWOOD', 'DEOL', 'DERBYSHIRE', 'DERHAM', 'DEROSA', 'DERRICK', 'DERRY', 'DESBOROUGH', 'DESMOND', 'DESMONDE', 'DESSURNE', 'DEVANEY', 'DEVANNEY', 'DEVECSAI', 'DEVENEY', 'DEVENISH', 'DEVER', 'DEVEREUX', 'DEVERILL', 'DEVIN', 'DEVINE', 'DEVLIN', 'DEVONPORT', 'DEW', 'DEWAN', 'DEWAR', 'DEWBERRY', 'DEWEY', 'DEWHIRST', 'DEWHURST', 'DEWICK', 'DEWINTER', 'DEWIS'</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>177471</v>
+      </c>
+      <c r="E14" t="n">
+        <v>177471</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>177455</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>177455</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>113</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>['GILLESPIE', 'IZETT', 'PATERSON', 'PITCHER']</t>
         </is>
       </c>
     </row>
